--- a/data/tca_corpus/random_250_tca_cases_corpus.xlsx
+++ b/data/tca_corpus/random_250_tca_cases_corpus.xlsx
@@ -387,39 +387,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1966597328</t>
+          <t>https://openalex.org/W1994107076</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/028323b0</t>
+          <t>https://doi.org/10.1017/s001675680016621x</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gardner (1883)</t>
+          <t>Howorth (1883)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elevation and Subsidence; or, the Permanence of Oceans and Continents</t>
+          <t>III.—The Fauna and Flora of the European Loess, being a Reply to Professor Dr. Nehring</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IT has been observed, and with increasing frequency within the last few years, that wherever considerable weight is added on any part of the earth's surface, a corresponding subsidence of its crust almost invariably follows. It is generally admitted that nearly the whole of the sedimentary rocks, enormous as their known thickness is, were deposited in shallow water, and therefore in slowly subsiding areas. The Palæozoic rocks consist mainly of sandy and muddy sediment, with occasional intercalated zones of limestone. They everywhere bear witness to comparatively shallow water and the proximity of land. Their frequent alternations of sandstone, shale, conglomerate, and other detrital materials, their abundant rippled and sun-cracked surfaces, marked often with burrows and trails of worms, as well as the prevalent character of their organic remains, show that they must have been deposited in areas of slow subsidence, bordering continental or insular masses of land.1 Vast thicknesses of strata have been continuously deposited at or near the sea-level. The coal-measures present a series of alternating layers of vegetable matter and brackish water sediments, reaching in the South Wales district a thickness of upwards of 10,000 feet, whose accumulation must have been accompanied almost foot by foot by a corresponding subsidence. The Cambrian sediments accumulated in the British area to a thickness of 23,000 feet apparently without any gieat change in the depth of the sea in which they were formed; and throughout the deposition of the whole of the Silurians, subsidence seems to have kept pace with sedimentation. The Permian again furnishes many instances of sedimentation at or near the sea level sustained throughout great thicknesses, and of frequent alternation of marine and freshwater deposits. Among Mesozoic rocks, the New Red Sandstone furnishes an example of isolated basins of deposit to which the sea found repeated access, though a thickness in places of 3000 feet had accumulated in them. The German Triassic basin is for the greater part of its thickness a succession of terrestrial deposits containing plant-remains. The Jurassic and Cretaceous systems were deposited during interrupted depression of the sea bottom, while the Tertiaries abound with local instances in which subsidence has kept pace with sedimentation.</t>
+          <t>It is not every controversialist who has the good fortune to persuade two such distinguished warriors as Baron Richthofen and Dr. Nehring to buckle on their armour and do battle with him; and if there were room for vanity in the shifting panorama of Science, I might at least claim to have stated my case with sufficient point and clearness to make it necessary for more than one elaborate reply. There is no room for vanity however. It matters not who wins, so far as I am concerned, if we only get our difficult problem more sifted and get closer to the truth. If there be no room for vanity, there is less for irony; and I am not surprised that Dr. Nehring should feel hurt if he thinks I have openly or covertly had the indecency to sneer at himself or his work. In referring to Cuvier, it was not to minimize what Dr. Nehring has done, but to do justice to an old philosopher, whose memory I reverence, and whose claims had been overlooked by Baron Richthofen. It was he, I must emphatically repeat, if it needs repetition before such an audience as that reached by the Geological Magazine, who first proved the fauna of the European Loess and its correlated deposits in its broad features to be identical with that found under the Siberian tundras. Cuvier was followed by a great crowd of diligent and close students of this subject, especially in France and America, without naming England.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4214688153</t>
+          <t>https://openalex.org/W4230363402</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-0032(83)90362-9</t>
+          <t>https://doi.org/10.1038/027541a0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -429,12 +429,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fire-proof paint</t>
+          <t>GEOGRAPHICAL NOTES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>This work aims to evaluate the efficiency of halloysite as synergistic agent in an intumescent PP system based on a coated ammonium polyphosphate (IFR). The first part of the study analyses the thermal stability and fire performance of PP when using the intumescent formulation alone or in combination with the aluminosilicate nanotubes (HNTs). Cone calorimetry reveals that partial substitution of IFR by HNTs (3 wt.%) imparts substantial improvement in flame retardancy with reduced heat release rate and longer burning times. Additionally, a shift from V-1 to V-0 classification is achieved at the UL-94 test with only 1.5 wt.% HNTs. The second part provides a better understanding of the physical and chemical mechanisms of action of HNTs in the intumescent systems. The chemical evolution of the condensed phase during combustion is described by solid state NMR, and in particular using 2D NMR. Results indicate that halloysite speeds up the development of the intumescent shield, but also enhances its mechanical properties by physical reinforcement (i.e. aluminosilicate “skeleton-frame” for the phospho-carbonaceous structure) and/or by chemical interactions with IFR yielding to aluminophosphates. These new chemical species allow thermal stabilization of the char at high temperatures and provide good macro- and micro-structural properties. Both effects increase the mechanical strength of the protective layer during burning ensuring excellent heat and mass transfer limitations between gas and condensed phases.</t>
+          <t>AT a recent meeting of the Geographical Society of Copenhagen, Capt. Irminger in the chair, Dr. Oscar Dickson was present to give an account of the proposed Swedish expedition to Greenland. The chairman referred to Dr. Dickson as the Maæcenas who enabled Nordenskjöld to carry nut his ideas, while both had an ardent supporter in King Oscar. Of the Arctic expeditions, which wholly or partly owed their origin to Oscar Dickson, he mentioned the following:—The expedition of 1868 to Spitzbergen was almost entirely paid for by him; the expedition of 1870 to Greenland was entirely paid Lr by him; the expedition of 1872–73, which winterel at Spitzbergen, was partly paid by him, while the great deficiency subsequently arising was covered by him; the expedition of 1875 to the Yenissei was entirely paid by him; the expedition of 1876 to the same river, by sea and by land, was chiefly paid by him; the vega expedition of 1879–80 was paid to the extent of one-third by him, and if the vessel had not succeeded in rounding Asia he would have borne the entire cost of this expedition; and eventually the cost of the Swedish expedition of 1883 would be borne by him. It should also not be forgotten that, at the time when the despatch of the Dijmphna expedition was nearly frustrated for the want of 20,000kr. (1150l.), Oscar Dickson came forward to supply the deficiency, and although it was most generously contributed by Mr. Gamédl, every lover of geographical discovery ought to appreciate his noble action. Dr. Oscar Dickson next addressed the meeting. He began by stating that the King of Denmark had sanctioned the new expedition. Nordenskjöld had not desired that the programme of the expedition should be made public too soon, as he was much occupied with preparations for his journey and his duties as a senator, and if his plans should be questioned by savants, he would have no time for discussing them. He next referred to the oldest accounts of Greenland, its colonisation from Iceland, and “Esquimauxising” from America. After this, Greenland was for a time forgotten, until the west coast was rediscovered. The speaker then mentioned the achievements of Hans Egede, and the founding of a commerce. The west coast was one of the best known Arctic countries, both geographically and ethnologically; but not so the east coast. In spite of several expeditions and researches, only the southern portion was known. The interior was a terra incognita. These tracts were, however, too important to remain unknown. He then referred to the wanderings of Nordenskjöld and Lieut. Jensen on ihe inland ice. From these expeditions it was impossible to infer that the interior of Greenland was entirely covered with ice, while in the constant advance of the glaciers and their melting off he (the speaker) found a corroboration of this theory. By the geographical appearance of Greenland, and more especially by the circumstance that the country gradually rose in the interior, it was more than probable that the interior was not entirely covered with ice. Even in the temperature and moistness of the air there seemed a proof that the country would answer to its name. In any case the exploration of the interior of this country was most important, and it was for this purpose that the expedition would make its researches. To these belonged the ascertaining of the extent of the drift ice between Cape Farewell and Iceland, the study of the inland ice, the fossil remains, and the cosmic dust in the island. Eventually it was hoped that, while Nordenskjöld made his expedition across the ice, another party of the members would pay a visit to the west coast, where there were some very peculiar blocks of ironstone. The expedition would possess a complete staff of scientific specialists. The expedition had al o one more object in view, viz, to settle the question as to where the Österbygd had been. Every one who read without prejudice the oldest accounts could but come to the conclusion that its remains must be found on the east coast. After excursions on the inland ice, it was the intention to attempt penetrate northwards along the east coast. In May next the expedition would start in a well-equipped steamer, and, if the state of the ice would permit, first land on the east coast; but as this was not expected to be the case the party would land on the west coast, and when the researches here were at an end they would proceed along the east coast in a channel between the land and the drift ice. In September next the expedition would return.</t>
         </is>
       </c>
     </row>
@@ -549,155 +549,182 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019701278</t>
+          <t>https://openalex.org/W2018363292</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1113/expphysiol.1927.sp000434</t>
+          <t>https://doi.org/10.1111/j.1744-7348.1927.tb07021.x</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Allen &amp; O'donoghue (1927)</t>
+          <t>Crowther et al. (1927)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>THE POST‐CONTRACTION PROPRIOCEPTIVE REFLEX, ITS AUGMENTATION AND INHIBITION</t>
+          <t>SULPHUR TREATMENT OF SOIL AND THE CONTROL OF WART DISEASE OF POTATOES IN POT EXPERIMENTS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1. Isometric voluntary contraction in a skeletal muscle is followed by an involuntary post‐contraction of appreciable magnitude and duration in the same muscle. The muscle or rather muscle‐group chosen is the deltoid levator complex, in which the phenomenon has been previously studied. A simple apparatus and means of procedure is described whereby the intensity and duration of the initial stimulus of the voluntary contraction and the magnitude and duration of the post‐contraction can be accurately measured. The simple nature of the experiments renders them suitable for class purposes and, it is hoped, provides a new method of attack upon the problem of muscle contraction. 2. A definite relationship between the intensity and duration of the initial stimulus and the magnitude and duration of the post‐contraction has been established. This relationship can be expressed by the equation A = k log W + c, where A is the angle traversed by the arm in the post‐contraction rise, W is the weight employed for the initial stimulus, and k and c are constants. The normal curve obtained is remarkably uniform for each individual and exhibits four divisions termed α, β, 13, γ, and δ, and three deflexion points termed I., II., and III. 3. If a normal curve be taken, and then after a rest of 20 minutes a similar series of readings be repeated with the same arm, the curve they yield is raised noticeably above the normal throughout, although of the same type. This indicates a direct, ipselateral augmentation of the end‐results. 4. If a normal curve be taken and then immediately a similar set of readings repeated with the same arm, the resultant curve is significantly below the normal throughout, although of the same type. This indicates that the phenomenon described in 3 is preceded by a direct ipselateral inhibition. 5. By plotting the means of from three to six sets of readings, employing the same procedure as for the normal curve, only varying the length of stimulation in each group of sets, it is shown that an initial stimulation of 10 seconds produces the highest and most satisfactory curve in the type of experiment chosen. Shorter or longer stimulation gives a lower curve, and that for 30 seconds is anomalous in certain respects. 6. By stimulating the left arm immediately before taking a reading with the right the resulting curve falls below the normal, showing that the inhibitory effect is also contralateral. This is crossed inhibition. 7. By stimulating the left arm and waiting 17 to 20 minutes before taking each reading with the right, the curve obtained is considerably above the normal, showing that the augmentor effect is also contralateral. This is crossed augmentation. 8. It is shown that if instead of considering the angle traversed by the arm as a measure of the end‐result we take the actual work done against gravity in raising the arm, the work‐curve as produced is of the same type as the, normal curve. 9. A review of the principal investigations into post‐contraction is given. 10. Evidence is adduced to show that voluntary isotonic contraction has probably a similar series of after‐effects, and furthermore, that all these results, both direct and crossed, are to be regarded as proprioceptive reflexes. 11. For the first time is given a direct mathematical statement of the relationship between initial stimulus and the magnitude of post‐contraction. This is A = k log w + c and is practically a statement of what is generally known as Fechner's law, which has previously been demonstrated to hold good in sight, hearing, taste and touch. Such a result may be regarded as evidence that we are dealing with a sense, the muscle‐sense, of the same nature as the other senses. Certain other comparisons are drawn. 12. Inhibition and fatigue are to be distinguished from one another. The following types of inhibition are recognised and defined: direct, transferred, direct crossed, and transferred crossed. The occurrence of four similar types of post‐augmentation inhibition is considered possible but has not been demonstrated. The following types of augmentation are recognised and defined: direct, transferred, direct crossed, and transferred crossed. Post‐inhibition augmentation is defined and suggested as a possibility and also its subdivision into the same four types, but it has not yet been demonstrated. 13. The sequence of the above manifestations decidedly suggests the swing of a pendulum or beam of a balance in coming to rest, and for this widespread phenomenon the name oscillatory effect is proposed. The time‐interval between initial stimulation and the taking of the subsequent readings is of paramount importance in the interpretation of the results. 14. The normal curves for sight, hearing, taste, touch, and the muscle‐sense all consist of several branches which are here compared. Stimuli of the intensity represented by the lowest part of the curve, ie. a, produce opposite results in sight and taste (inhibition) as compare</t>
+          <t>Summary. In a series of pot experiments on potatoes grown in an acid soil artiftcially infected with the wart disease fungus, treatments with sulphuric acid and various combinations of sulphur and calcium carbonate, yieldmg a wide range of soil reaction, gave almost complete freedom from infection when the acidity of the soil had been raised to a very high value ( p H 3.4 or less). Heavy dressings of calcium carbonate, alone or with sulphur, giving a soil reaction of pH 7.5 or more, also reduced infection. The fact that partial and even, in one experiment, complete suppression of disease was obtained at lower acidities, where the effect on the disease was not closely related to the degree of acidity, supports the tentative conclusion already drawn from field experiments that sulphur in controning wart disease does not depend entirely on its effect in raising the acidity, but has also some other mode of action. Whether this toxicity which sulphur exerts apart from its effect on the acidity can be enhanced sufficiently to be of any practical value requires further investigation.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069211499</t>
+          <t>https://openalex.org/W2065779335</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/14786440508564283</t>
+          <t>https://doi.org/10.1086/253837</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Swann (1927)</t>
+          <t>Viner (1927)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CIX.&lt;i&gt;A generalization of electrodynamics, consistent with restricted relativity and affording a possible explanation of the earth's magnetic and gravitational fields, and the maintenance of the earth's charge&lt;/i&gt;</t>
+          <t>Adam Smith and Laissez Faire</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Abstract The electromagnetic equations, together with a force equation of the form with and q the resultant velocity of an electron, are taken as a basis from which to generalize. The equations corresponding to (A)-(D) are left unchanged for the fields due to negative electricity; but for the fields due to positive electricity they are generalized in the following way:—The 4-vector ρ u, ρic associated with (A) and (B) is replaced by a more general 4-vector S, icS t , given by where α and β are invariants of the Lorentziau transformation, and the P's and Q's have tile values defined in (I) and (J). The additional terms in (I) and (J) destroy the equations of continuity, the only one appreciably operative in this respect for uniform rotation being αP. By an appropriate choice of α we can make this term give rise to a slow death of positive electricity (amounting to a loss of 0·5 per cent. of the earth's mass in 1020 years) such as to leave a continually increasing surplus of negative which, after building up the necessary electric field, passes off continually, as the atmospheric electric current, by conduction through the atmosphere. The generalized equations lead, very approximately, to the same expressions for the fields as are given by the classical theory, except that the ρ + u + and ρ + of classical theory are replaced by S and S t . Thus, in the case of a rotating neutral earth there is a fictitious current density αP+βQ and a fictitious charge density αP t +βQ t . The value of α chosen as above is too small to make appreciable contribution to the fictitious current density. The fictitious current density is provided for by βQ, and the choice of β necessary to result in a magnetic field equal to that of the earth is such that, as regards any fictitious charge density of importance in its power to give rise to the earth's electric field, the term βQ t is negligible, as is also the term αP t . The electric field is provided for otherwise, as outlined above. The forms of the invariants α and β are chosen so that the theory gives the correct ratio for the magnetic field of the earth to that of the sun, and predicts for a small sphere of laboratory size, rotating at the highest attainable speed, a magnetic field and a rate of death of charge which would be immeasurable, or measurable only with considerable difficulty. Gravitation is provided for by a replacement of the force equation by two equations for the motions of positive and negative electrons respectively, the modification implying, primarily, a difference in the forces between equal like charges and equal unlike charges. The modifications introduced into the equations of the theory are such that the whole scheme of relations is invariant under the transformation of the restricted theory of relativity.</t>
+          <t>Previous articleNext article No AccessAdam Smith and Laissez FaireJacob VinerJacob Viner Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 35, Number 2Apr., 1927 Article DOIhttps://doi.org/10.1086/253837 Views: 299Total views on this site Citations: 181Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Stefan Fritsch Adam Smith, just commercial society and corporate social responsibility, Review of International Political Economy 58 (Oct 2022): 1–23.https://doi.org/10.1080/09692290.2022.2127832Edward Frame, Michelle Schwarze Adam Smith on Education as a Means to Political Judgment, Political Research Quarterly 3 (Oct 2022): 106591292211019.https://doi.org/10.1177/10659129221101909Maria Pia Paganelli Vanity and Luck in Adam Smith's Economic Growth, History of Political Economy 54, no.55 (Jun 2022): 859–877.https://doi.org/10.1215/00182702-10005732Jocelyn Hickey Reading the Invisible Hand: An Epistemological Consideration, History of Political Economy 54, no.55 (Jun 2022): 935–950.https://doi.org/10.1215/00182702-10005788Frédéric Ramel Adam Smith, 1723-1790, (Sep 2022): 222–233.https://doi.org/10.3917/scpo.ramel.2022.01.0222Heinz D. Kurz Re-reading Carl Menger’s Grundsätze – another book that “cries out to be surpassed”*, The European Journal of the History of Economic Thought 29, no.55 (Sep 2022): 877–919.https://doi.org/10.1080/09672567.2022.2111450Joost Hengstmengel, Paul Oslington The Curious Tale of Libanius, Grotius and Jacob Viner’s Universal Economy Doctrine, History of Economics Review 5 (Aug 2022): 1–13.https://doi.org/10.1080/10370196.2022.2105132Andrew Lynn Ethics, Economics, and the Specter of Naturalism: The Enduring Relevance of the Harmony Doctrine School of Economics, Journal of Business Ethics 178, no.33 (Apr 2021): 661–673.https://doi.org/10.1007/s10551-021-04819-yJulien Canavera “No hay nada menos libre que el libre mercado”. Intervencionismo liberal y antropogenia en la era del capitalismo postfordista, Revista de Filosofía (Madrid) Avance en línea (Oct 2022): 1–20.https://doi.org/10.5209/resf.75416Andreas Ortmann, Benoît Walraevens The Proper Role for Government, Game-Theoretically, for Smith, (Sep 2022): 113–140.https://doi.org/10.1007/978-3-030-99704-5_5Sean M. Baser, Matt T. Dean, Amy E. Stich Devolution, Disruption, and Denigration, (Sep 2022): 101–122.https://doi.org/10.1007/978-3-030-99097-8_99Ramesh Chandra Adam Smith and Economic Progress, (Nov 2021): 25–60.https://doi.org/10.1007/978-3-030-83761-7_2Jorge López Lloret La mano invisible de Adam Smith: de la sátira a la transformación social, Iberian Journal of the History of Economic Thought 8, no.22 (Nov 2021): 137–152.https://doi.org/10.5209/ijhe.76138Stefanos Ioannou, Dariusz Wójcik Was Adam Smith an economic geographer?, GeoJournal 42 (Sep 2021).https://doi.org/10.1007/s10708-021-10499-yEnrico Petracca On the origins and consequences of Simon’s modular approach to bounded rationality in economics, The European Journal of the History of Economic Thought 28, no.55 (Feb 2021): 708–732.https://doi.org/10.1080/09672567.2021.1877760Peter J Verovšek Taking Back Control over Markets: Jürgen Habermas on the Colonization of Politics by Economics, Political Studies 49 (Jun 2021): 003232172110186.https://doi.org/10.1177/00323217211018621Michael J. Clark Adam Smith as Solon: Accommodating on the edges of liberty, not abandoning it, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 739–747.https://doi.org/10.1016/j.jebo.2020.08.029Jonathon Diesel Adam Smith on usury: An esoteric reading, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 727–738.https://doi.org/10.1016/j.jebo.2020.08.031Scott Drylie Adam Smith on schooling: A classical liberal rereading, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 748–770.https://doi.org/10.1016/j.jebo.2020.08.032Paul D. Mueller Adam Smith on moral judgment: Why people tend to make better judgments within liberal institutions, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 813–825.https://doi.org/10.1016/j.jebo.2020.08.038Daniel B. Klein Conservative liberalism: Hume, Smith, and Burke as policy liberals and polity conservatives, Journal of Economic Behavior &amp; Organization 183 (Mar 2021): 861–873.https://doi.org/10.1016/j.jebo.2020.11.021Ramesh Chandra Adam Smith, Allyn Young, Amartya Sen and the Role of the State, History of Economics Review 78, no.11 (Jan 2021): 17–43.https://doi.org/10.1080/10370196.2020.1863005Daniel B. Klein TMS’s Appeal Has Moved with Openness to Non-foundationalism: 35 Critics, 1765 to 1949, SSRN Electronic Journal 291 (Jan 2021).https://doi.org/10.2139/ssrn.3893819Sean M. Baser, Matt T. Dean, Amy E. Stich Devolution, Disruption, &amp; Denigration, (Mar 2021): 1–23.https://doi.org/10.1007/978-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2094970920</t>
+          <t>https://openalex.org/W2094485293</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/214184</t>
+          <t>https://doi.org/10.1109/t-aiee.1927.5061364</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Znaniecki (1927)</t>
+          <t>Grondahl &amp; Geiger (1927)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Object Matter of Sociology</t>
+          <t>A New Electronic Rectifier</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Necessity of determining the object matter of sociology.-In the present chaos of different conflicting presuppositions and methods found in sociological textbooks and monographs it is impossible either to reach a systematization of the results of sociological research or to plan a rational program of future studies without a reconsideration of the current conceptions of the object matter of our science. Sociology as a humanistic science. -Sociology must have a certain class of data as its object matter, and these data must be such as to allow a rational body of knowledge to be constructed about them. There are two distinct classes of scientific data: cultural and natural. Cultural phenomena when taken as objects of theoretic reflection already possess a humanistic coefficient, of which natural phenomena are deprived. Since it is imposible to combine any knowledge about natural facts with any knowledge about cultural facts into one logical system, sociology must choose whether it should be exclusively a natural or exclusively a humanistic science. The main interest of sociologists has always been in data with the humanistic coefficient, and it should in future confine itself to such. Criticism of sociology as science of concrete societies.-The oldest definition of sociology is that of a generalizing and explanatory science of society taken as a concrete collectivity of human beings in their total cultural life. This makes sociology almost identical with either philosophy of history or comparative ethnography. It is based upon certain postulates concerning society which on investigation prove misleading. Criticism of sociology as general science of culture.-The second and more generally accepted definition of sociology claims for it the role of fundamental science of culture in assuming that all cultural phenomena are social. But the world of culture is composed of objective systems with a fixed rational order among their elements, independent even of social communication and co-operation; these are already divided among the special sciences, and the only general science of them which is possible is philosophy. Sociology can only hope that there are systems of specifically social phenomena left to it. Definition of social phenomena.-Every cultural science deals with a particular class of values and a corresponding class of human activities. We can distinguish the following classes-hedonistic, technical, economic, legal, religious, symbolic, aesthetic, and intellectual phenomena. There remains another class-men as objects, i.e., individuals and groups as specific social values given to empirical human subjects, and activities tending to influence individuals or groups. This is the proper field of sociology. Here we find four different categories of typically social phenomena: (1) a single action aiming to modify in some way an individual or a collectivity, its essential elements being a tendency of the subject to influence the object in a definite way, and the reaction of the object; (2) reciprocal activity, givin rise to a social relation when the behavior of two or more individuals toward each other is regulated by norms imposing social obligations; (3) the social individual as viewed by his social environment and himself with regard to his physical aspect, psychological type, moral type, and social originality; (4) the social group, which appears under three different aspects: as an aggregate of individuals, a social organization, and a moral union. Sociology divides into four branches corresponding to these categories, respectively. Relation between sociology and other cultural sciences.-Sociology thus defined nearly coincides with the actual empirical research of modern sociologists, and also includes much material now being dealt with by several branches of investigations whose claims to be separate sciences are not well founded, i.e., the materials of criminology, ethics, theory of education, and political theory treated from a comparative and explanatory point of view. Out of the materials now dealt with by individual and group psychology, sociology claims all those with an intrinsically social character, i,e., which involve particular aspects of activities bearing on human individuals and groups. Because there is hardly any concrete cultural process which does not contain social elements among others, sociology is closely connected with other cultural sciences: it is the central cultural science.</t>
+          <t>A new rectifier utilizing a Tartially oxidized disk of copper as a rectifier unit is described. The disks may be arranged into groups suitable for all fields of rectifier applications. The rectification appears to take place at the junction between the copper and the oxide without observable physical or chemical changes, and is similar in character to rectification by the hot-cathode type of rectifiers. The physical characteristics of assembled rectifiers and a method of designing the same for special purposes are outlined and some of the design problems discussed. It is pointed out that the new rectification phenomenon is of a radically different nature from those observed in structurally some what similar contact rectifiers. The usual theories of contact rectification, which are based on electrolysis or thermoelectricity, are not applicable to the present case. The new phenomenon is discussed in the light of more recent theories based on electron affinities of copper and copper-oxide, which are in better accord with the observations. Some applications are given for which the rectifier seems to be especially suited.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2317514827</t>
+          <t>https://openalex.org/W2317222639</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3181/00379727-24-3554</t>
+          <t>https://doi.org/10.2307/1968020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Heß &amp; Weinstock (1927)</t>
+          <t>Hopkins (1927)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The Antirachitic Activity of Monochromatic and Regional Ultraviolet Radiations.</t>
+          <t>Non-Abelian Groups Whose Groups of Isomorphisms are Abelian</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>In a communication published some years ago it was shown that ultra-violet rays longer than about 324μμ exert no antirachitic potency, and that waves 302μμ are of great value in this respect. Somewhat later we suggested, as the results of experiments with selective filters, “that the intense line of the mercury vapor spectrum 302μμ in length conferred definite protection and that the 313μμ waves exerted probably a feeble action in this respect.” The question as to whether antirachitic potency ceases at the 313μμ or the 302μμ level is of both theoretical and clinical importance, as the shorter rays are present to but a small extent and in low intensity in the solar radiations which reach the surface of the earth. This is especially the case where the rays are intercepted by moisture or smoke. It, therefore, seemed worth while to make a more minute dissection of the spectrum in this region. This has been accomplished by means of the isolation of these two lines of the mercury vapor spectrum and testing their power to activate cholesterol. The radiations were of equal intensity, and the same amounts (2.5 mg. per capita daily) of the irradiated cholesterol were fed to rats which had been rendered rachitic. Without going into detail at this time, it may be stated that a series of experiments of this nature showed that the 302μμ line possessed marked antirachitic potency, whereas the 313μμ line exerted very slight specific power. This result emphasizes more strongly than ever the remarkable specificity of wave lengths of light in relation to rickets. It has never been accurately determined whether radiations less than 290μμ, the shortest emitted by the sun, have curative power in rickets.</t>
+          <t>Introduction. In the appendix of Hilton's Finite Groups (1908), page 233, the question whether non-abelian group can have an abelian group of isomorphisms occurs among a few interesting questions still awaiting solution. A non-abelian group of order 64 whose group of isomorphisms is abelian and of order 128 was later constructed by G. A. Miller.t No other discussian of the problem appears in the literature of Mathematics. In fact, an exhaustive analysis of the properties of non-abelian group whose group of isomorphisms is abelian seems to involve some difficulty, for the reason that little is known concerning isomorphisms of non-abelian group. The nature of an abelian group whose group of isomorphisms is abelian was determined by G. A. Miller,+ who proved that necessary and sufficient condition that an operation of the group of isomorphisms of an abelian group be invariant under this group is that it should transform every operation of this abelian group into the same power of itself. From this it is obvious that the only abelian groups whose groups of isomorphisms are abelian are the cyclic groups. In what follows we shall develop few necessary conditions which must be satisfied by non-abelian group whose group of isomorphisms is abelian. 1. The fundamental theorem. Wle assume non-abelian group G which is restricted solely by the hypothesis that its group of isomorphisms I is abelian. Since the central quotient group of G is simply isomorphic with the group of inner isomorphisms of G, it is clear that every commutator of G is invariant under G. The group G is accordingly the direct product of its Sylow subgroups.? Since every Sylow subgroup of G must correspond to itself in any isomorphism of G with itself, we may confine ourselves to the case where G is of order pm. For convenience we shall introduce the following notation: the symbol G shall consistently denote non-abelian group whose group of isomorphisms I</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2335596302</t>
+          <t>https://openalex.org/W2326969971</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2534/jjasnaoe1903.1927.49</t>
+          <t>https://doi.org/10.2307/4578325</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Minato (1927)</t>
+          <t>Oleson (1927)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A Study of the Old Aged Ships in Japan</t>
+          <t>Iodization of Public Water Supplies for Prevention of Endemic Goiter</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The Author has written down this paper with a view to stimulate the replacement of Superannuated ships with new and better ones, for the sound development of the shipping and shipbuilding industries in Japan.In the first half of the paper there is given a full description about the fact that the development of Japanese shipping is mainly attributed to the importation of old ships from abroad since Japan started the modern shipping, but as a matter of course Japan was ever and is still a remarkable old-ship-owning country in the world. The Author compares the percentages of old aged tonnage of each of the shipping countries in the world and gives precise statistics about the old aged ships in Japan. He also gives a warning about the coming crisis of the rapid increase of old aged tonnage in Japan after about fifteen years, the most of the old aged ships at that time being the so called war-made vessels which are more or less peculiar and inferior in design, construction and performance. Turning to the importation of old ships, the Author describes about the tonnage, age, country where built &amp;c. of the ships imported into Japan during last about thirty years. He also discusses about what has been the effect of the Registry-Ordinance in Kwantung Province (Kwanto-shyu) upon the old ship-owning in Japan. The reasons why Japanese shipowners buy old ships are explained and some hints are given concerning the policy to prevent the shipowners from buying old ships and to encourage them to turn towards new ships.In the latter half of the paper the Author describes about what are the relations of the age or date of built of vessels to the dead weight capacity, boiler pressure, market price, laid-up tonnage, scope of active service and sea casualty of vessels, and draws attention to the inferiority of old aged ships.There is a further field of investigation on the present subject and the Author has much to say from technical-, economical-, administrative-, &amp;c. points of view, which was left out this time. Therefore there is not shown a concrete conclusion in this paper, it being left to the readers for the time being. But the Author believes that throughout the paper there will be some indications which one might easily find out.</t>
+          <t>The theory that endemic goiter is due principally, if not solely, to a relative or absolute deficiency of iodine is now widely accepted. The experimental evidence upon which this conception is based is so convincing and the practical applications are so successful that doubts concerning the tenability of the theory are steadily being dispelled. Following the convincing demonstrations of Marine and his colleagues in preventing goiter among children and lower animals through the administration of small amounts of iodine, public health officials promptly turned their attention to the important matter of applying this new and effective weapon against a disease of long standing. However, in emulating the examples of these pioneer investigators it became apparent that successful prophylaxis is dependent upon the rigid observance of certain well defined and fundamental principles. These requisites for preventing endemic goiter may be stated as follows:</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>https://openalex.org/W2912931548</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0016-0032(27)90170-7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Leffmann (1927)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Field astronomy for engineers and surveyors</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Charts of ocean currents from the late nineteenth century show that already by then the patterns of surface circulation in regions away from polar latitudes were well understood. This fundamental knowledge accumulated gradually through centuries of sea travel and had reached a state of near correctness by the time dedicated research cruises, full-depth measurements and the practical application of the dynamical method were being instituted. Perhaps because of the foregoing, many of the pioneering works, critical to establishing what the upper-level circulation is like, the majority of the charts accompanying them, and several of the groundbreaking theoretical treatments on the physics of currents, are only poorly known to present-day oceanographers.In this paper we trace Western developments in knowledge and understanding of ocean circulation from the earliest times to the late-1800s transition into the modern era. We also discuss certain peripheral advances that proved critical to the subject. The earliest known ideas, dating from the Bronze Age and described by Homer, necessarily reflect severe limitations to geographical knowledge, as well as basic human predilections toward conjecture and exaggeration in the face of inadequate information. People considered the earth to be flat and circular, with the ocean flowing like a river around it. They also believed in horrific whirlpools, a concept that persisted into the Renaissance and which would later provide subject material for modern literature. From the Greek Classical Age, we find hydrologic theories of Earth's interior being laced with subterranean channels (Socrates) and all motion deriving from a divine force forever propelling the heavens toward the west, the primum mobile (Aristotle). These ideas, particularly the latter, dominated opinions about ocean circulation into the late Renaissance. By late Antiquity mariners had very likely acquired intimate knowledge of coastal currents in the Mediterranean, but little about them was reported in the Classical works. Following the dark and Middle Ages, when little progress was made, the voyages of discovery brought startling observations of many of Earth's most important ocean currents, such as the North and South Equatorial currents, the Gulf Stream, the Agulhas, Kuroshio, Peru, and Guinea currents, and others. The Gulf Stream appears to have been mapped as early as 1525 (Ribeiro) on the basis of Spanish pilot charts. Some currents were found to be westward, in the direction of the primum mobile as expected by theologians and philosophers, while others were not. The fifteenth through seventeenth centuries were marked by attainments of knowledge that increasingly taxed the abilities of science writers to reconcile new information with accepted doctrine. Consequences of this were descriptions of ocean circulation that questioned doctrine, yet were limited by it (Martyr; Gilbert; Bourne; Varen), while other descriptions disdainfully violated observation (Kircher; Happel). The expectation of a continuous westward oceanic flow around Earth in the direction of the primum mobile was so pervasive that it became central to arguments about a need for a passage through or around the Canadian north, and thus weighed significantly on the exploration and mapping of North America. Religious influences and the conceptual importance of the primum mobile waned by the close of the Renaissance and wind came to be seen as the primary cause of ocean currents (Dampier). The Gulf Stream (Franklin) and other North Atlantic flow patterns (de Brahm), as well as the southern Agulhas Current (Rennell), were mapped in the mid-to-late eighteenth century. Significant advances beyond these in determining the global ocean circulation came only after the routine determination of longitude at sea was instituted. The introduction of the marine chronometer in the late eighteenth century (Harrison) made this possible. By the end of the eighteenth century it was realized that water is a poor conductor of heat and, unlike that of freshwater, the density of seawater continues to increase as it is cooled to its freezing point; the far-reaching significance of the implied vertical convection and deep circulation of the ocean on the moderation of climate was immediately clear (Rumford), though observations were available almost exclusively from the ocean's surface. Largely because of the marine chronometer, a wealth of unprecedentedly-accurate information about zonal, as well as meridional, surface currents began to accumulate in various hydrographic offices. In the early nineteenth century data from the Atlantic were collected and reduced in a systematic fashion (Rennell), to produce the first detailed description of the major circulation patterns at the surface for the entire mid- and low-latitude Atlantic, along with evidence for cross-equatorial flow. This work provided a foundation for the assemblage of a global data set (Humboldt; Berghaus) th</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3151065837</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Tauroa (1927)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Interview with Hiwi Tauroa</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>New Zealand Race Relations Conciliator from 1980 to 1986. Born in Okaiawa, Taranaki, in 1927. Talks about his family background - gives reasons for being called Hiwi rather than his given name Edward. Mentions that his father spoke Maori - talks about the Latin-speaking Kaumatua at Kawhia and his father's important friends. Recalls attending primary school in Waima, Okaiawa and Kawhia - mentions the teachers, other students and travelling to school. Talks about learning Latin at Wesley College and his reasons for continuing his studies at Hawera Technical College - mentions working on a Jersey stud farm at Oeo during the school holidays. Discusses why he did choral work when he became a teacher - mentions singing at Runanga O Whaingaroa in Kaeo. Mentions Pakeha attitudes towards the establishment of Runanga and the reasons for his involvement in Whangaroa College. Recalls how he met his wife Pat.
 Discusses attending Auckland Teachers Training College and the reasons he agreed to teach at Wellington College. Tallks about accepting a position at Okato District High School in Taranaki - mentions the students, the principal Lloyd Tregoweth, and recalls how he coached All Black Grant Fox's father. Also mentions the school's rugby team winning the Moascar Cup. Talks about accepting the position of principal at Tuakau College - mentions some of the parents' reaction to his appointment, his involvement with the Education Department, and the Maori students at Tuakau College. Discusses his later appointment as principal of Whangaroa College.
@@ -717,40 +744,15 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3194849186</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ray et al. (1927)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>National Park Seminary, Bounded by Capitol Beltway (I-495), Linden Lane, Woodstove Avenue, &amp; Smith Drive, Silver Spring, Montgomery County, MD</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Significance: The National Park Seminary was an elite women's college preparatory school and junior college operating from 1894 to 1942. Like many other female secondary schools created in the late nineteenth century, National Park Seminary offered its students advanced academic training while indoctrinating them in contemporary definitions of womanhood. National Park Seminary's spectacular assemblage of buildings together with the surrounding landscape provide a dramatic example of how a school's environs helped meet these ends. The site offers a valuable record of turn-of-the-century campus designs and, more specifically, pedagogical architecture and landscapes created for women. Embedded in the National Park Seminary grounds are also traces of earlier historic values, meanings, and uses which help to illuminate how and why it was utilized as a women's school and evolved into its current form. The lavish man-made and natural elements that define its campus, from the fanciful sorority houses to the forested ravine, preserved historic perceptions of the therapeutic and instructional value of art, architecture, and the natural world. The mix of architectural styles, from Classical to Romantic, used at National Park Seminary exemplifies the eclecticism that defined the era. The site also records the historic connections between park landscapes and suburbanization since the development of the site and its adjoining neighborhoods were directly tied to the creation of a rural retreat along one of D.C.'s early transportation corridors. 
-Unprocessed Field note material exists for this structure: N697 
-Survey number: HABS MD-1109 
-Building/structure dates: 1887-1927 Initial Construction</t>
-        </is>
-      </c>
-    </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4236815666</t>
+          <t>https://openalex.org/W4234291219</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/eb011190</t>
+          <t>https://doi.org/10.1038/119385b0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -760,51 +762,51 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>British Food Journal Volume 29 Issue 9 1927</t>
+          <t>The Theory of Electricity</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>When men still alive to‐day were young, not a single cargo of chilled or frozen meat, of fruit or of dairy produce from the Southern Hemisphere, had been landed in this country. We have, that is, lived in the last generation through a dietetic revolution which has left us to a large and increasing extent dependent on foodstuffs grown at the ends of the earth and consumed weeks or even months after they leave the places of their origin. Fifty years ago Australia was importing butter, and a century ago the first cow was imported into New Zealand—where there are to‐day more cattle than men. This change in the balance of trade has created a series of new problems in practical science. Some of these have been solved in part, others remain impregnable, and all urgently call for solution; for every year, and almost every month, damage to cargoes is suffered that has its origin in our imperfect knowledge of how to submit perishable goods to the ordeal of prolonged ocean carriage. Beef, to take an obvious example, is hard to bring satisfactorily from Australia. There are two methods by which meat may be preserved, freezing and chilling. The same installation is used in both cases, but for the former, the machine requires to be more powerful, since the temperature of the meat must remain well below 32 degrees F. Mutton lends itself perfectly to freezing, but beef, owing to structural and other causes, is deteriorated if frozen. The tissues are ruptured by expansion, and so, when the meat is defrosted, much of the nutritive liquid escapes. It is possible, that this problem of “drip” may be solved. It is also possible that beef from Australia may be transported to Europe in a chilled (not frozen) state. Experimentally this has already been achieved, but much remains to be done before small scale experiment can be converted into current commercial practice. When it is remembered that there is available in Australia land which would feed a further seven to ten million head of cattle, the importance of the investigations now being conducted into means of transport will be understood. The ocean carriage of fruit involves inquiries equally fascinating and, perhaps, less known. An apple or an orange is not killed by being plucked, but continues to live and “breathe,” that is to say, to absorb oxygen from the air and yield in its place carbon dioxide. In consequence, a ship's hold packed with fruit would quickly resemble a Black Hole of Calcutta were not certain precautions taken. The crowded living cargo threatens to suffocate itself, and the remedy lies in lowering the temperature of the fruit so that it may breathe more slowly, and in the provision of adequate ventilation. Cold, and to a certain extent the expired gas, CO2, itself, lower the rate of living—that is to say, the rate of chemical change, so that the fruit ripens more slowly. It is in this state of delayed ripening that apples from Australia or oranges from South Africa can be brought to this country without damage. Stated in this way, the problem sounds simple enough; given some degree of cold and ventilation, all will be well. As a matter of fact, the limits of temperature and of ventilation within which it is permissible to move are narrowed by both engineering and biological considerations. Living matter does not suffer coercion gladly or passively, and the attempt to delay ripening, though it undoubtedly succeeds, does not leave the fruit at the end where it would be if it had ripened normally. The sequence of chemical change is different; flavouring substances abnormal in character or in amount are apt to be produced, and the problem of successful storage is to hit upon that combination of temperature humidity and ventilation, which will in the end present the product to the palate of the consumer in a state as near to the normal as may be. Fruit, moreover, has its recognisable storage diseases, and, though much advance has been recorded in recent years, losses are still suffered regularly. As an example of the tricks that can be played with plants, it may be mentioned that a rose bush, just budding, can be kept at its “freezing” point and its growth arrested. Then, if it is sheltered under a hothouse roof so that light shines upon it continuously, it will bloom to perfection many months later, when its temperature is allowed to rise. Roses in December arc, in fact, a practical proposition. The stowage of fruit naturally requires particular care. On banana boats, for instance, the chambers are subdivided into pens by portable rails supported in special stanchions, and from the air trunk access may be had to the bananas for inspection during the voyage. To check the danger caused by bulging cases it is sometimes the practice to fit battens around the case ends of thickness equal to the amount of bulge, thus preventing pressure on the fruit itself when the ship rolls. Mere ventilation without refrigeration is sometimes found to be adequate. Provided a good,</t>
+          <t>THE first edition of Prof. Livens' “Theory of Electricity,” published in 1918, was reviewed in NATURE in 1919 (vol. 103, p. 142), and therefore the present notice need only take account of the changes introduced in the new edition. In its present form the book has been very much curtailed-from about 700 large octavo pages to rather more than 400 crown octavo pages-but the clear print characteristic of the series of the Cambridge University Press has been retained. A considerable amount of matter, relating principally to the detailed treatment of a considerable number of special problems, has been omitted in all cases where a full account is given in other books, but we are glad to note that the very careful and full discussions of fundamental principles and points of difficulty, so characteristic of the first edition of the book, have been retained in their entirety. Consequently, the work can be as highly recommended as before as an introduction to the theoretical side of electromagnetism, and in conjunction with such a detailed text-book as that of Jeans, gives as full an account of the theory in all its aspects as is to be found in any language.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247002577</t>
+          <t>https://openalex.org/W4246655486</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0002-8703(72)90004-x</t>
+          <t>https://doi.org/10.1016/s0016-0032(27)92078-x</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cohn (1927)</t>
+          <t>J.S.H. (1927)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Heart disease from the point of view of the public health</t>
+          <t>Early organic chemistry of america</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>It is important to review certain results which issue from this inquiry. 1. Attention should perhaps first be drawn to the fact that unlike tuberculosis, heart disease concerns an organ and not a simple etiological moment. Diseases of the heart result from a number of different injuries. In the case of the heart, three main groups can be distinguished: first, that associated with rheumatic fever; second, syphilis; and third, arteriosclerosis or as I prefer to call it the senescent process. 2. There can no longer be doubt of the fact that rheumatic fever affects persons in the first three decades predominantly; that syphilitic heart disease is rare before the third decade and is often delayed two decades more; and that if due allowance is made for the age of occurrence and for the duration of these two disease types, the preponderant number of deaths occurs after age forty. 3. It is borne out by study of the curves which relate infectious and heart diseases, that the two have moved in opposite directions. The curve which represents the former has been falling, while that of the latter has risen. But the relation is not quite simple, for neither curve travels a smooth course. It is, however, possible to notice that at certain points, changes in the direction of both curves have taken place. It is furthermore noticeable that there occurred a delay in the increased rise of the curve from heart disease for a number of years after that of the infectious diseases began to fall. That this period is seventeen years may have a meaning but it is not an obvious one and no insistance is placed upon it. That there should be a delay like this is easily comprehended; if individuals fail to die of infection, they will die in some other manner, and of affections which develop or are incident to life at later ages. 4. That the data which have been accumulated support this view seems clear, for the curves all show that the increased rate of death from the heart diseases involves persons over age forty. Under this age, the rates, as these curves show have actually fallen. Additional confirmation of this view resides in the fact that the rate increases with each decade. 5. The inference to be drawn from these statements has an important bearing on the fears which have arisen on account of the obvious increase in the death rates due to the heart diseases. If as the data show, the increase involves the older age groups only, the result is altogether gratifying. If men are, as the old adage has it, as old as their arteries, it becomes an important consideration to learn how long these may live. If they live their full span of years, death from old age and death from circulatory defect may prove to be the same thing. To die so would turn out to be the method of choice for the human organism; at all events, to realize it appears to be the direction which the course of events I have been describing seems to be taking. 6. Environment, climate, latitude all appear to influence the incidence and course of rheumatic heart disease. But the data inspire no great confidence and suggest that the conditions under which they are collected be more precisely defined. 7. Experiences on the subject of treatment have been described. Apparently, from a remedial point of view, it is only it the rheumatic variety of heart disease that success can be anticipated from the use of methods designed to close the avenues of infection. The suggestion that patients be treated, as are the tuberculous, with continuous prolonged rest, deserves consideration. Too little is known now to justify the adoption of an opinion on this point.</t>
+          <t>Metals can, when present in excess, or under wrong conditions, and in the wrong places, produce errors in the genetic information system. The present review is limited to three examples of heavy metal genotoxicants, namely arsenic (As), lead (Pb) and mercury (Hg) on plant systems. Exposure to lead is mainly through atmospheric pollutants, to mercury through soil and to arsenic through drinking water.Toxic metal ions enter cells by means of the same uptake processes as essential micronutrient metal ions. The amounts of metal absorbed by a plant depend on the concentrations and speciation of the metal in the soil solution, its movement successively from the bulk soils to the root surface, then into the root and finally into the shoot. Excessive concentrations of metals result in phytotoxicity through: (i) changes in the permeability of the cell membrane; (ii) reactions of sulphydryl (–SH) groups with cations; (iii) affinity for reacting with phosphate groups and active groups of ADP or ATP; and (iv) replacement of essential ions.Mercuric cations have a high affinity for sulphydryl groups and consequently can disturb almost any function where critical or non-protected proteins are involved. A mercury ion may bind to two sites of a protein molecule without deforming the chain, or it may bind two neighbouring chains together or a sufficiently high concentration of mercury may lead to protein precipitation. With organomercurials, the mercury atom still retains a free valency electron so that salts of such compounds form a monovalent ion.The effect of lead depends on the concentration, type of salts and plant species involved. Though effects are more pronounced at higher concentrations and durations, in some cases, lower concentrations might stimulate metabolic processes. The major processes affected are seed germination, seedling growth, photosynthesis, plant water status, mineral nutrition, and enzymatic activities.The phytotoxicity of arsenic is affected considerably by the chemical form in which it occurs in the soil and concentration of the metalloid. Due to its chemical similarity to phosphorus, arsenic participates in many cell reactions. Specific organo-arsenical compounds have been found in some organisms and arsenic has been reported to replace phosphorus in the phosphate groups of DNA. In view of the variety of reactions in plants that involve sulphydryl groups and phosphorus, arsenites and arsenates may interfere with physiological and biochemical processes which constitute growth in a number of ways.Mercury, lead and arsenic are effective mitotic poisons (turbagens) at particular concentrations, due to their known affinity for thiol groups and induce various types of spindle disturbances. The clastogenic effects are S-dependent. The availability of cations affect the number of aberrations produced quantitatively. Effects of metallic salts are related directly to the dosage and duration of exposure. Plants, following lower exposure, regain normalcy on being allowed to recover.Studies on genotoxicity of metals discussed in this review showed that genotoxic effects could be in part responsible for metal phytotoxicity, deserving further examination to elucidate the underlying mechanisms. The most noticeable and consistent effect of mercurials was the induction of c-mitosis resulting in the formation polyploid and aneuploid cells, and c-tumours. Inorganic salts of lead induced numerous c-mitoses together with strong inhibition of root growth and lowering of mitotic activity. As(III) is a weak mutagen but potent comutagen. Genotoxic evaluation of chemical mixtures from soil containing arsenic as component by Tradescantia micronucleus assay showed clastogenic effects, but not related specifically to arsenic.Plants growing on metal-contaminated sites need to develop some degree of tolerance to metal toxicity in order to survive. Since all plants contain at least some metal in their tissues, they clearly are incapable of completely excluding potentially toxic elements, but simply of restricting their uptake and/or translocation. The mechanisms for metal tolerance proposed are: (a) metal sequestration by specially produced organic compounds; (b) compartmentalization in certain cell compartments; (c) metal ion efflux; (d) organic ligand exudation. Inside cells, proteins such as ferritins and metallothioneins, and phytochelatins, participate in excess metal storage and detoxification. When these systems are overloaded, oxidative stress defence mechanisms are activated.Bacterial plasmids encode resistance systems for toxic metal ions including mercury, lead and arsenic. Chromosomal determinants of toxic metal resistance are also known. For mercury and arsenic, the plasmid and chromosomal determinants are basically the same. The largest group of metal resistance systems functions by energy-dependent efflux of toxic ions.Mercury-resistant bacteria have genes for the enzymes mercuric ion reductase and organomercurial</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4254826204</t>
+          <t>https://openalex.org/W4254481221</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/120281a0</t>
+          <t>https://doi.org/10.1038/119207a0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -814,208 +816,213 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Societies and Academies</t>
+          <t>[News and Views]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PARIS. Academy of Sciences, July 11.—The president announced the death of M. -Leffler, correspondant in the Section of Geomerry. E.—Cartan: The Rieman forms of geometries with semi-simple fundamental group.—G. Pfeiffr Systems of partial differential equations of the first order with several unknown functions possessing the integral of Hamburger.—Soula: The comparison of the two functions ∑anzn and ∑zn/an.—Ernest Esclangon: Observations of the partial eclipse of the sun of June 29, 1927, made at the Strasbourg Observatory. The results of measurements of the times of first and second contacts are given. The weather conditions were very favourable.—Th. Moreux: Observations of the eclipse of the sun of June 29, 1927, at Bourges.—Raoul Ferrier: The limit of application of the theory of the vector potential.—P. Lasareff: The law of viscosity of H. Le Chatelier. This formula expressing the viscosity η of glass as a function of the temperature t, namely, log (log η/η0,) = N-Mt, where η0 M, and N are constants, has been applied to the experimental data of Stott for glass, of Thorpe and Rodger for amyl alcohol, and of Deriaguine and Khananov for solutions of sugar in glycerol. The formula applies in all these cases.—Félix Michaud: Binary mixtures of volatile liquids. The case where the two components form a compound.—Emmanuel Dubois: The Volta effect. A metal becomes electronegative with respect to its initial state if it is heated (in a vacuum) to a sufficiently high temperature. The saline impurities which are normally found on the surface of a metal, and probably also in the body of the metal, may take an important part in these variations.—Nicolas Perrakis: The magnetic study of vanadium tetroxide and trioxide; the measurement of the atomic moment of trivalent and tetravalent vanadium. Whilst vanadium in the state of tetroxide possesses within two well determined intervals of temperature two different moments, the one of 8 and the other of 14 magnetons, in the state of trioxide it possesses a moment of 9.5 magnetons.—Edgar Pierre Tawil: Some observations in reso nance made on piezo-electric quartz.—R. Descamps: The natural rotatory power, in the ultraviolet, of aqueous solutions of the neutral tartrates of sodium, potassium, and ammonium.—L. Andrieux: A new method of preparing boron. On electrolysing at 1100° C. a mixture of boric anhydride (2 mol.), magnesia (1 mol.), and magnesium fluoride (1 mol.) in a carbon crucible with an iron cathode, there is obtained a deposit on the cathode which consists mainly of boron. After powdering, treating with hydrochloric acid and drying in a vacuum, this deposit contains 92 per cent, of boron.—Josef Hrdlička: The influence of the preliminary lighting and the disagreement with the law of reciprocity in photography.—Mlle St. Maracineanu: the special effect of polonium, sunlight, and electricity at high voltage on lead. The results of the experiments described suggest that the formation of a new radioactive substance occurs in the lead sheet.—Deslandres: Remarks on the preceding communication. These results are of great interest but very complex, and their exact interpretation requires much additional research.—Albert Portevin and Etienne Pretet: Study of the velocity of solution of the ultra-light magnesium alloys. A discussion of the methods available for measuring quantitatively the rate of solution.—F. Bourion and E. Rouyer: Determination of some complex compounds by the boiling-point method.—Pariselle: The polarimetric and electrometric study of the alkaline aluminotartrates. A double phenomenon of mutarotation.—Charles Prevost: A new class of tautomeric compounds; the ionic theory of tautomerism.—Mlle Jeanne Lévy and P. Weill: The reality of the semipinacolic trans position. The study of anisylmethylethylglycol. From the experiments described it is concluded that the transformation of anisylmethylethylglycol into a ketonic product different from that furnished by the aldehydoketonic transposition of anisylmethylbutaiial demonstrates the reality of the semipinacolic trans position. In the semipinacolic transposition the ethyl radical shifts more easily than the methyl radical.—Edouard Roch: The western extremity of. the Djebilets massif (Morocco).—P. Russo: The presence of Archseocyathus in the Djebel Ighoud (Western Morocco).—V. Agafonoff: The zones of the soils of France.—J. Dufay: The intensity of the green line of the polar aurora in the spectrum of the nocturnal sky.—Edouard Salles: The fixation of the radioactivity of the air by the terrestrial electric field.—Henri Coupin: The carbon nutrition of Penicillium glaucum by means of various carbon compounds of the aromatic series. Compounds of the aromatic series are much less favourable than compounds of the fatty series for securing the carbon nutrition of Penicillium glaucum, and this;is grobably true also for other moulds.—M. Bridel and Ch. Aagaard: Is melezitose a combination of saccharose with glucose? The experime</t>
+          <t>IN his article elsewhere in this issue (p.200), Prof. E. W. Brown makes out a strong case for the belief that the chief outstanding anomalies in the motions of the moon, the sun, and the inner planets are due to errors in time-keeping arising from variations in the earth's rate of rotation.A set of the most puzzling departures of astronomical observation from gravitational theory has therefore been brought into harmony.The ratio of the chief inequalities in the longitudes of the sun and moon is such as to indicate that the variations of the rate of rotation are not associated with any corresponding transfer of angular momentum to the moon's orbital motion, and therefore Prof. Brown attributes them to changes in the earth's moment of inertia.Symmetrical swellings and contractions of the earth would certainly give rise to effects of the type observed.But elastic vibrations of the earth of this type would have periods of the order of minutes, not years, and it is difficult to think of any geological or seismological process that could give simultaneous expansion or contraction over the whole earth.An alternative explanation resting on a phenomenon already known to occur may be found in variations of the thickness of the polar ice-caps.Partial melting of the polar ice and redistribution of the water over the ocean would give changes of the moment of inertia such as are required, and the amount does not seem prohibitive.A small secular increase in the amount of ice would also give a secular acceleration of the earth's rotation, which would go some way towards explaining the outstanding discrepancy between theory and observation with respect to the ratio of the secular accelerations of the sun and moon.There is evidence of a warm climate in Europe about 2000 B.C., which would fit this suggestion.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020002275</t>
+          <t>https://openalex.org/W2020568115</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1210/jcem-3-6-353</t>
+          <t>https://doi.org/10.1086/281140</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fournier et al. (1943)</t>
+          <t>Richards &amp; Kavanagh (1943)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Melanotropic Hormone and Vitiligo</t>
+          <t>The Analysis of the Relative Growth Gradients and Changing Form of Growing Organisms: Illustrated by the Tobacco Leaf</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>THE PITUITARY gland produces a melanotropic hormone which is responsible for the color of the skin in batrachians. This fact, together with the observation in 1937 of dyschromias in a number of cases of both hypopituitarism and hyperpituitarism1 has led to the investigation of the possible effect of a melanotropic hormone on vitiligo. Successful results were obtained in 1938 by the local application of the purified injectable preparation of the melanotropic hormone in a patient with vitiligo (1) and in 1941 in two more cases of vitiligo treated in the same manner (2). The purpose of this report is to review these cases to which are added 8 additional patients. The results of therapy were good in 5 of the 8 new cases and no appreciable change was noted in the remaining 3. The beneficial effects consisted of a striking reduction in the area of the leucoderma without complete restoration to normal. These patients are still under treatment.</t>
+          <t>Next article No AccessThe Analysis of the Relative Growth Gradients and Changing Form of Growing Organisms: Illustrated by the Tobacco LeafOscar W. Richards, and Arthur J. KavanaghOscar W. Richards Search for more articles by this author , and Arthur J. Kavanagh Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The American Naturalist Volume 77, Number 772Sep. - Oct., 1943 Published for The American Society of Naturalists Article DOIhttps://doi.org/10.1086/281140 Views: 5Total views on this site Citations: 67Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Aleksandra Sapala, Adam Runions, Richard S Smith Mechanics, geometry and genetics of epidermal cell shape regulation: different pieces of the same puzzle, Current Opinion in Plant Biology 47 (Feb 2019): 1–8.https://doi.org/10.1016/j.pbi.2018.07.017Lachezar A. Nikolov, Adam Runions, Mainak Das Gupta, Miltos Tsiantis , 131 ( 2019): 109.https://doi.org/10.1016/bs.ctdb.2018.11.006Aleksandra Sapala, Adam Runions, Anne-Lise Routier-Kierzkowska, Mainak Das Gupta, Lilan Hong, Hugo Hofhuis, Stéphane Verger, Gabriella Mosca, Chun-Biu Li, Angela Hay, Olivier Hamant, Adrienne HK Roeder, Miltos Tsiantis, Przemyslaw Prusinkiewicz, Richard S Smith Why plants make puzzle cells, and how their shape emerges, eLife 7 (Feb 2018).https://doi.org/10.7554/eLife.32794Evelyne Kolb, Valérie Legué, Marie-Béatrice Bogeat-Triboulot Physical root–soil interactions, Physical Biology 14, no.66 (Nov 2017): 065004.https://doi.org/10.1088/1478-3975/aa90ddEnrico Coen, Richard Kennaway, Christopher Whitewoods On genes and form, Development 144, no.2323 (Dec 2017): 4203–4213.https://doi.org/10.1242/dev.151910Adam Runions, Miltos Tsiantis, Przemyslaw Prusinkiewicz A common developmental program can produce diverse leaf shapes, New Phytologist 216, no.22 (Mar 2017): 401–418.https://doi.org/10.1111/nph.14449Christopher D. Whitewoods, Enrico Coen Growth and Development of Three-Dimensional Plant Form, Current Biology 27, no.1717 (Sep 2017): R910–R918.https://doi.org/10.1016/j.cub.2017.05.079Graeme Mitchison Conformal growth of Arabidopsis leaves, Journal of Theoretical Biology 408 (Nov 2016): 155–166.https://doi.org/10.1016/j.jtbi.2016.08.023Karen Alim, Shahaf Armon, Boris I Shraiman, Arezki Boudaoud Leaf growth is conformal, Physical Biology 13, no.55 (Sep 2016): 05LT01.https://doi.org/10.1088/1478-3975/13/5/05LT01Adriaan Campo, Przemyslaw Klosiewicz, Joris Dirckx Digital Image Correlation for Full-Field High Resolution Assessment of Leaf Growth, Journal of Plant Growth Regulation 34, no.22 (Jan 2015): 433–439.https://doi.org/10.1007/s00344-015-9477-xPhilip R. Buskohl, Jonathan T. Butcher, James T. Jenkins The influence of external free energy and homeostasis on growth and shape change, Journal of the Mechanics and Physics of Solids 64 (Mar 2014): 338–350.https://doi.org/10.1016/j.jmps.2013.11.012Jerzy Nakielski, Marcin Lipowczan, Gerrit T.S. Beemster Spatial and Directional Variation of Growth Rates in Arabidopsis Root Apex: A Modelling Study, PLoS ONE 8, no.1212 (Dec 2013): e84337.https://doi.org/10.1371/journal.pone.0084337Marcin Lipowczan, Anna Piekarska-Stachowiak, Joanna Elsner, Jacek Pietrakowski The tensor-based model of plant growth applied to leaves of Arabidopsis thaliana: A two-dimensional computer model, Comptes Rendus Biologies 336, no.99 (Sep 2013): 425–432.https://doi.org/10.1016/j.crvi.2013.09.001Edgar P Spalding, Nathan D Miller Image analysis is driving a renaissance in growth measurement, Current Opinion in Plant Biology 16, no.11 (Feb 2013): 100–104.https://doi.org/10.1016/j.pbi.2013.01.001Joanna Elsner, Marek Michalski, Dorota Kwiatkowska Spatiotemporal variation of leaf epidermal cell growth: a quantitative analysis of Arabidopsis thaliana wild-type and triple cyclinD3 mutant plants, Annals of Botany 109, no.55 (Feb 2012): 897–910.https://doi.org/10.1093/aob/mcs005Przemyslaw Prusinkiewicz, Adam Runions Computational models of plant development and form, New Phytologist 193, no.33 (Jan 2012): 549–569.https://doi.org/10.1111/j.1469-8137.2011.04009.xStephen C. Cowin The Specific Growth Rates of Tissues: A Review and a Re-Evaluation, Journal of Biomechanical Engineering 133, no.44 (Feb 2011).https://doi.org/10.1115/1.4003341Dorota Kwiatkowska, Jerzy Nakielski Mechanics of the Meristems, (Jun 2011): 133–172.https://doi.org/10.1007/978-3-642-19091-9_6Amelia A. Green, J. Richard Kennaway, Andrew I. Hanna, J. Andrew Bangham, Enrico Coen, Ottoline Leyser Genetic Control of Organ Shape and Tissue Polarity, PLoS Biology 8, no.1111 (Nov 2010): e1000537.https://doi.org/10.1371/journal.pbio.1000537Stephen C. Cowin Continuum kinematical modeling of mass increasing biological growth, International Journal of Engineering Science 48, no.1111 (Nov 2010): 1137–1145.https://doi.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2030517950</t>
+          <t>https://openalex.org/W2030782457</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/255983</t>
+          <t>https://doi.org/10.1104/pp.18.3.498</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Salter (1943)</t>
+          <t>Welker &amp; Wynd (1943)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Farm Property and Agricultural Policy</t>
+          <t>INFLUENCE OF UNKNOWN FACTORS ON THE VALIDITY OF MATHEMATICAL CORRELATIONS OF BIOLOGICAL DATA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessFarm Property and Agricultural PolicyLeonard A. Salter, Jr.Leonard A. Salter, Jr. Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 51, Number 1Feb., 1943 Article DOIhttps://doi.org/10.1086/255983 Views: 4Total views on this site Citations: 2Citations are reported from Crossref Copyright 1943 The University of Chicago PressPDF download Crossref reports the following articles citing this article:Willem K. Korthals Altes Access to Land: Markets, Policies and Initiatives, Sustainability 15, no.66 (Mar 2023): 5097.https://doi.org/10.3390/su15065097Jack R. Kloppenburg, Charles C. Geisler The agricultural ladder: Agrarian ideology and the changing structure of U.S. agriculture, Journal of Rural Studies 1, no.11 (Jan 1985): 59–72.https://doi.org/10.1016/0743-0167(85)90091-9</t>
+          <t>A constantly increasing use has been made of mathematical procedures in evaluating biological data during the past decade. Some of these procedures have been mathematically and biologically sound with a consequent advancement of scientific knowledge. On the other hand, there are many accumulations of biological data which do not lend themselves to usual statistical treatment. Attempts to establish statistical correlations in these instances lead to false conclusions which obscure all efforts to interpret the nature of the phenomena under consideration. One of the most usual methods of investigating a biological problem is the observation of the effect of changes in some aspect of the environment on some measurable response of the organism. The word, environment, in the present instance, is used with its broadest possible connotation, as signifying all factors and influences within the organism as well as external to it which can act to influence the response of the organism. The frequent use of graphs in the presentation of the relationships between cause and effect is sufficient evidence to indicate how universal is this approach to scientific problems. The above sentences, at first hand, appear to state only a truism. Yet it is this approach that leads in many instances to erroneous conclusions. The purpose of the present paper is to call attention, as precisely as possible, to the manner in which these erroneous conclusions may enter into the interpretation of phenomena studied in this way. It is rarely true that a pair of biological characteristics vary exclusively with each other. The more common situation is that each of the characteristics is influenced by a variety of others. For example, the weight of the grain yield of a wheat plant may increase with the size of the root system, but each of these in turn will be affected by the total leaf area, the nutrients in the soil, and many other factors. This interdependency of characteristics complicates the problem of the measurement of the degree of association between the two characteristics being studied ; for example, the extent of the root system and the weight of grain produced. One common statistical measure used in this situation is the Pearson correlation coefficient. It is customary to subject these coefficients to a significance test in an attempt to determine whether or not they are of sufficient ? This study was carried out with funds granted the Graduate School of the University of Illinois by the Cerophyl Laboratories, Inc., Kansas City, Missouri.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W206674365</t>
+          <t>https://openalex.org/W2068374293</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0035-9203(43)90007-0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Teller &amp; Sutherland (1943)</t>
+          <t>Foy &amp; Kondi (1943)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>THE STRUCTURAL DESIGN OF CONCRETE PAVEMENTS: PART 5 - AN EXPERIMENTAL STUDY OF THE WESTERGAARD ANALYSIS OF STRESS CONDITIONS IN CONCRETE PAVEMENT SLABS OF UNIFORM THICKNESS</t>
+          <t>Lyso-lecithin fragility in blackwater fever and haemolytic jaundice</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>STUDIES WERE CONDUCTED TO BETTER UNDERSTAND THE STRUCTURAL ACTION OF CONCRETE PAVEMENT SLABS. THE OBSERVED STRUCTURAL BEHAVIOR OF PAVEMENT SLABS OF UNIFORM THICKNESS SUPPORTED BY A SUBGRADE AND SUBJECT TO VERTICALLY APPLIED STATIC LOADS WERE COMPARED WITH THE BEHAVIOR INDICATED BY THE WESTERGAARD ANALYSIS. THIS ANALYSIS ASSUMES THAT THE SLAB ACTS AS A HOMOGENEOUS, ISOTROPIC, ELASTIC SOLID IN EQUILIBRIUM AND THAT THE REACTIONS OF THE SOIL ARE VERTICAL ONLY AND ARE PROPORTIONAL TO THE DEFLECTIONS OF THE SLAB. THE RELATIONS BETWEEN APPLIED LOADS AND CRITICAL STRESSES ARE DEVELOPED ON THE BASIS OF ELASTIC THEORY FOR THE THREE CASES OF A WHEEL LOAD APPLIED ON THE SURFACE OF THE SLAB AT A FREE CORNER, AT AN INTERIOR POINT AND AT A FREE EDGE, RESPECTIVELY. THE STUDY OF THE ELASTIC ACTION OF THE SUBGRADE IS REPORTED IN DETAIL. DETERMINATION OF THE MODULUS OF SUBGRADE REACTION MAY BE MADE BY: (1) LOAD-DISPLACEMENT TESTS IN WHICH LOADS ARE APPLIED AT THE CENTER OF RIGID CIRCULAR PLATES OF RELATIVELY SMALL SIZE, THE PRESSURE INTENSITY ON THE SOIL BEING UNIFORM OVER THE ENTIRE AREA OF THE PLATE, (2) LOAD-DISPLACEMENT OR LOAD-DEFLECTION TESTS IN WHICH THE LOAD IS APPLIED AT THE CENTER OF SLIGHTLY FLEXIBLE RECTANGULAR OR CIRCULAR PLATES OF RELATIVELY LARGE DIMENSIONS, AND (3) LOAD-DEFLECTION TESTS ON FULL-SIZE PAVEMENT SLABS IN WHICH THE LOAD-DEFLECTION DATA ARE OBTAINED BY MEASUREMENT AND USED IN THE WESTERGAARD DEFLECTION FORMULAS TO PROVIDE A VALUE FOR THE SOIL STIFFNESS COEFFICIENT OR MODULUS OF SUBGRADE REACTION. THESE TEST METHODS ARE DESCRIBED. THE MODULUS OF SUBGRADE REACTION IS A STIFFNESS COEFFICIENT WHICH EXPRESSES THE RESISTANCE OF THE SOIL STRUCTURE TO DEFORMATION UNDER LOADING POUNDS PER SQUARE INCH OF PRESSURE OF DEFORMATION. THE MAGNITUDE OF THE SEASONAL CHANGE IN SUBGRADE SUPPORT WILL VARY WITH THE CHARACTERISTICS OF THE SOIL MATERIAL AND WITH THE TEMPERATURE AND MOISTURE CHANGES THAT OCCUR. EXPERIMENTS WITH RIGID BEARING PLATES HAVE LED TO THE CONCLUSION THAT USEABLE VALUES FOR THE MODULUS OF SUBGRADE REACTION AS USED IN THE WESTERGAARD EQUATIONS CAN BE OBTAINED BY MEANS OF LOAD-DISPLACEMENT TESTS WITH RIGID BEARING PLATES. THE WESTERGAARD EQUATIONS FOR LOAD-DEFLECTION AND LOAD-STRESS RELATIONS FOR PAVEMENT SLABS OF UNIFORM THICKNESS ARE PRESENTED AND DEVELOPED FOR THE THREE CASES OF LOAD POSITION. STUDIES WERE MADE OF METHODS FOR DETERMINING THE VARIOUS COEFFICIENTS AND OTHER QUANTITIES THAT APPEAR IN THE WESTERGAARD EQUATIONS. THE GENERAL CONCLUSION IS DRAWN THAT THE WESTERGAARD ANALYSIS EXPRESSES QUITE ACCURATELY THE RELATIONS BETWEEN LOAD AND DEFLECTION AND BETWEEN LOAD AND CRITICAL STRESS FOR VARIOUS THICKNESSES OF PAVEMENT AND FOR VARIOUS SIZES OF BEARING AREA PROVIDED THE SLAB IS IN FULL CONTACT WITH THE SUBGRADE.</t>
+          <t>Red cells transfused into a case of haemolysing blackwater fever are destroyed just as readily as the patient's own cells, making it appear that it is not the red cells that are at fault in this condition, but that there is some circulating haemolysin. By an improved spectrophotometric technique it has now been shown that, like those of haemolytic jaundice, the red cells from blackwater fever have an increased fragility to lyso-lecithin, although their fragility to saline is normal, unlike that of the cells of haemolytic jaundice. These two facts taken together make it seem that in blackwater fever the cells may possess some abnormal feature, but that this is probably secondary to more fundamental changes that take place in the cells' environment. By using van Boros' formula it is possible to demonstrate that spherocytosis occurs in blackwater fever and is accompanied by decreases in diameter-thickness ratio, volumes and areas; that these changes in blackwater fever are intermediate between those taking place in haemolytic jaundice and normal controls, and are not related in blackwater fever to changes in hypotonic saline fragility. It is probable that the initial stage in the destruction of the cells is a change in the permeability of the cell membrane, which allows haemoglobin to escape. The cells have later been seen to swell, become “transparent,” and then to disappear. That they have not been broken up can be shown by resuspending them in saline when the “ghosts” reappear. This phenomenon takes place in both lyso-lecithin and snake venom haemolysis. If the process is allowed to continue the cells are finally disrupted, and will not reappear on saline resuspension. In haemolytic jaundice it seems that there may be some defect in the red cell as well as some “splenic factor,” shown by the fact that splenectomy fails to alter the abnormal fragility of the cells to saline, but does stop the periodic haemolysis. A combination of both abnormal cells and splenic factors would seem to be necessary for the destruction of the red cells in this condition. The same cannot be determined for blackwater fever. The enlargement of the spleen in so many of these haemolytic conditions is regarded by many as of considerable significance. The production of lyso-lecithin as a result of the separation of the cells and plasma in this organ has led to the suggestion that this powerfully haemolytic substance may play a part in the haemolyses of certain of these conditions. It is possible that lyso-lecithin fragility is in some way related to the action of this substance on the lipoids or lipo-protein complex in the red cell membrane. It has been shown that the amount of lipoid present in the cell envelope is closely related to the dimensions of the cell, and that the ability of the cell to increase its volume without being disrupted is related to the lipo-protein ratio in its membrane. The kinetics of lyso-lecithin haemolysis have not been worked out, but there is some ground for regarding the process as one of enzyme action where the enzyme lecithinase acting on a substrate of red cells or plasma lecithin results in the production of lyso-lecithin or some allied phosphatide. Lecithinase has been shown to be present in many conditions where haemolytic reactions take place, such as in favism, snake poisoning, Cl. welchii filtrates as well as in the spleen and peripheral blood. The degradation products of the action of lecithinase on lecithin are not always the same, nor are the various lecithinases alike. Although the end product of the action of snake venom lecithinase on lecithin is lyso-lecithin, yet this substance when injected into baboons in relatively huge amounts produces no haemolysis, and only a slight shift of the Price-Jones curve to the right. This is in sharp contrast to the haemolysis that follows the injection of snake venom freed of its neurotoxic factor. It is suggested that this difference may be due to the fact that in the former case the lecithin in the cells and/or plasma is not disturbed, whilst in the case of snake venom injection of the lecithinase present in the venom will split the lecithin of the cells and/or plasma and so disturb the intracellular lipo-protein complex. The part played by the reticulo-endothelial system in the haemolytic process is briefly discussed—the resulting decision being that no precise data are available to enable any conclusions to be reached either upon the part that this system plays in actually destroying red cells, or elaborating haemolysins that later lyse the cells. Proteolytic enzymes may be produced in the macrophages of the reticulo-endothelial system and these have been shown to be capable of destroying red and white cells.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2089951480</t>
+          <t>https://openalex.org/W2092034501</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1096-3642.1943.tb00216.x</t>
+          <t>https://doi.org/10.1590/s0006-87051943000800002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Zeuner (1943)</t>
+          <t>Jensen (1943)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Studies in the Systematics of&lt;/i&gt; Troides &lt;i&gt;Hübner&lt;/i&gt; ( &lt;i&gt;Lepidoptera Papilionidœ&lt;/i&gt; ) &lt;i&gt;and its Allies; Distribution and Phytogeny in Relation to the Geological History of the Australasian Archipelago.&lt;/i&gt;</t>
+          <t>Um estudo citológico comparativo de Thalictrum e Ilex</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SUMMARY. The study of the phylogenetic relationships of Recent genera and species of insects and of their geographical distribution forms an important part of modern systematic entomology. It has been recognized almost universally that, no matter what the mechanism of evolution is, both morphological differentiation and geographical distribution are the results of historical processes. The reconstruction of these processes requires a carefully balanced evaluation of morphological and geological evidence. This balance is not easily achieved, however, and many unsatisfactory phylogenetic reconstructions have been proposed in which either the morphological or the geological evidence is over‐emphasized, or in which details taken from morphology as well as from geology are combined to present a seemingly correct picture of the evolutionary history of the group which, however, is contradicted by other details of morphological or geological evidence. A further difficulty is that, in the desire of giving reality to ancestral forms supposed to have existed at certain times, Recent forms are often substituted for hypothetical ancestors in the phylogenetic trees. Chronologically no Recent form can be ancestral to any other Recent form, and it is desirable, therefore, to stress the hypothetical character of the ancestral forms incorporated in phylogenetic trees. An attempt has been made by the present author at designing a method for the reconstruction of the phylogenesis of closely‐related species and genera which, it is hoped, reduces the speculative character of this kind of research to a minimum. It is evident that only well‐known groups exhibiting comparatively simple specific and generic characters afford any chance of elucidating the history of the Recent species. The material selected is a group of papilionid butterflies usually included in a comprehensive genus Troides , but here subdivided into Troides Hübner, Trogonoptera Rippon, Schœnbergia Pagenstecher and Ornithoptera Boisduval. They are found chiefly in the Australasian Archipelago, but extend to the Solomons and eastern Australia in the east, and to Ceylon, Peninsular India and north‐west China in the west and north. 31 species with 123 subspecies are at present known. This group affords the following advantages: (1) the number of species is not likely to be increased much by future discoveries and their distribution is well known; (2) the specific characters are mostly non‐adaptive and relatively simple (elements of pattern and coloration, differences in genitalia, secondary sexual characters); (3) the members of the group have formed numerous geographical subspecies; and (4) the geological history of the area of distribution is known and affords criteria for the inhabitability of certain areas at certain times. The method adopted in the present paper is that, instead of using all the available evidence simultaneously, phylogenetic trees are constructed by using points (2) and (3) only, and, in doing so, certain technical modifications are introduced in the trees. The trees which, thus, rely on morphology and Recent distribution only, are then tested by means of a critical comparison with the geological history of the area. Since the two lines of approach are both of a complex nature, a high degree of compatibility of the results suggests that the conclusions are likely to be essentially correct. In Part I. of the paper the terms species, subspecies, species‐group, subspecies‐group and form are defined for the purposes of the present investigation. Examples are given for the evolution of subspecies during the Holocene and of species during the Pleistocene of Europe, and the evolution of taxonomic species from taxonomic subspecies is demonstrated, but since this subject is outside the scope of the present paper, it will be treated more fully elsewhere. The conception of “phylogenetic stages” is introduced as being the period of time, or the equivalent amount of morphological differentiation, from any one point of a lineage up to another point at which certain characters have become differentiated so much that, taxonomically, the descendant has to be regarded as specifically distinct. In the special case of the Troides‐group , this vague term gains considerably in value because of the connection of at least the two latest phylogenetic stages of most lineages with geological changes in the Australasian Archipelago. Though this term might prove to be applicable more generally, it is used here merely as a convenient terminus technicus. In Part II. the species and subspecies of Troides, Trogonoptera, Schœnbergia and Ornithoptera are analysed from the morphological point of view. The closely‐related species are combined in species‐groups. The geographical distribution of the species‐groups and subspecies‐groups is considered. In order to ensure that the inter‐relationship of the species be based on the safest evidence available, a special study is made of the</t>
+          <t>1. New chromosome numbers have been determined tor the following species from material collected in various counties of North Carolina, U . S . A. Thalictrum clavatum n = 7 Th. dioicum n = 14 Th. polygamum n = 42 Th. coriaceum n = 70 Ilex decidua n = 20 I. monticola n = 20 I. vomitoria n = 20 I. opaca n = 18 I. verticillata n = 11. New chromosome numbers have been determined tor the following species from material collected in various counties of North Carolina, U.S.A. Thalictrum clavatum n = 7 Th. dioicum n = 14 Th. polygamum n = 42 Th. coriaceum n = 70 Ilex decidua n = 20 I. monticola n = 20 I. vomitoria n = 20 I. opaca n = 18 I. verticillata n = 18 2. The genus Thalictrum has been rather well investigated cytologically but the genus Ilex has not yet received the attention it merits, and offers cytologists in North, Central, and South America an opportunity ro study an extensive genus which has been, and probably is, undergoing interespecific hybridization while a shift from the hermaphroditic to the unisexual habit is also well established. These two great evolutionary factors, hybridization and the advent of the dioecious condition, appear to stimulate divergent lines of meiotic behavior depending upon whether or not they appear in the phylogeny of a race simultaneously or successively, and in the case of the latter, which came first. The genus Thalictrum was used as a basis for comparison with the situation as found in the eastern North American forms of Hex with the following conclusions. a. The genus Thalictrum is vastly polyploid and meiotically regular. This condition is thought to be the result of previous hybridization of the species before the advent of the dioecious habit. b. The genus Ilex is, as far as research has gone, negatively aneuploid and frequently irregular meiotically. This condition is thought to be the result of previous hybridization of the species after , or no more than simultaneously with, the advent oi the dioecious habit. Heterochromosome Complex Division in first seen Choromatin ejected Other diagnostic hybrid characteristics Species Type of Chromosome I.. decidua Medium Homeotypic One choromatid during second anaphase Laggards anaphase bridges I. monticola. Smallest member of complement Heterotypic One chormatid during first anaphase. Left in cytoplasm Lagging Precocious chorm I. opaca Medium Heterotypic Whole chorm. One chromatid sometimes accepted by complement in second div. Lagging chrom I. verticillata Two types. One tripartite X-- X1Y2 small Other medium Heterotypic Yes. Degenerates during first telophase. Yes Degenerates during first telophase. I. vomitoria Medium sized tripartite complex Heterotypic None found A number of laggards dur-first division 3. Heterochromosomes were found in microsporogenesis of all five species of Ilex, along with other meiotic peculiarities of suggested hybrid origin, but no two were alike. Behavior of the heterochromosomes was not found to be consistent and in approximately 5 0% of the PMCs. meiosis was normal. Findings are summarized in following table.8 4. In view of the generally irabie chromosome number for the five species of Ilex investigated, only such pollen as arises from PMCs. which possess the normal meiosis may produce the gametes which effect fertilization. This presents the problem of explaining how the ability to produce meiotic abnormalities is inherited through cells which dcnot exhibit it or through the female side and its significance on the whole question of the evolution of sex chromosomes from various types of heterochromosomes. 5. A comparison of the cytology or species of Thalictrum and Ilex adds support to the author's earlier contention that so-called sex chromosomes in higher plants have their origin in special types of heterochromosomes which in turn owe their appearance to meiotic disturbances induced by previous hybridization of the species and preserved through the more or less simultaneous advent of the dioecious habit. In the author'- opinion, the genus Ilex offers an opportunity to increase our knowledge of what occur? during the stage intermediate between autosome and the specialized types of sex-linked heterochromosomes.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2322087608</t>
+          <t>https://openalex.org/W2322144020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2420976</t>
+          <t>https://doi.org/10.1152/jn.1943.6.1.39</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shinners (1943)</t>
+          <t>Galambos &amp; Davis (1943)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A Revision of the Liatris scariosa Complex</t>
+          <t>THE RESPONSE OF SINGLE AUDITORY-NERVE FIBERS TO ACOUSTIC STIMULATION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The Liatris scariosa complex was conservatively treated as one species with one named variety by Asa Gray in the Synoptical Flora, and, at the other extreme, was split into scores of species by E, S. Steele, named on herbarium sheets but never published. The variability of each species in the complex, the occurrence of hybrids, and the scanty representation of some of the species in most herbaria have all contributed to the difficulty of understanding the group. A further contributing factor has been the fact that some of the most obvious variations are of least taxonomic importance. All the species have glabrousleaved and pubescentor scabrous-leaved forms; consequently leaf pubescence is of no diagnostic value, though some authors have used it as a key character. Paniculately or corymbosely branched plants of L. ligulistylis, L. spheroidea, and L. squarrulosa occur rather frequently, generally with normal spicate or racemose plants. In most cases these appear to be the result of insect injury. The transition in size from lower to upper leaves may be gradual or abrupt, some species showing distinct tendencies toward one or the other extreme, others displaying both extremes and all gradations between. Because of the amount of variation and overlap, it is not a reliable distinguishing feature, though it has been much used in characterising proposed new species and varieties. Even the number of florets per head, an extremely useful feature, cannot safely be used alone.</t>
+          <t xml:space="preserve">ArticlesTHE RESPONSE OF SINGLE AUDITORY-NERVE FIBERS TO ACOUSTIC STIMULATIONRobert Galambos, and Hallowell DavisRobert Galambos, and Hallowell DavisPublished Online:01 Jan 1943https://doi.org/10.1152/jn.1943.6.1.39MoreSectionsPDF (3 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInEmailWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformationCited ByThe burst gap is a peripheral temporal code for pitch perception that is shared across audition and touch30 June 2022 | Scientific Reports, Vol. 12, No. 1Signatures of cochlear processing in neuronal coding of auditory informationMolecular and Cellular Neuroscience, Vol. 120A Broadly Applicable Method for Characterizing the Slope of the Electrically Evoked Compound Action Potential Amplitude Growth Function1 January 2022 | Ear &amp; Hearing, Vol. 43, No. 1A Survey of Encoding Techniques for Signal Processing in Spiking Neural Networks22 July 2021 | Neural Processing Letters, Vol. 53, No. 6Encoding sound in the cochlea: from receptor potential to afferent discharge29 March 2021 | The Journal of Physiology, Vol. 599, No. 10Simultaneous spike-time locking to multiple frequenciesFabian H. Sinz,* Carolin Sachgau,* Jörg Henninger, Jan Benda,* and Jan Grewe*16 June 2020 | Journal of Neurophysiology, Vol. 123, No. 6Tapping Into the Language of Touch: Using Non-invasive Stimulation to Specify Tactile Afferent Firing Patterns19 May 2020 | Frontiers in Neuroscience, Vol. 14Temporal processing properties of auditory DUM neurons in a bush-cricket20 July 2019 | Journal of Comparative Physiology A, Vol. 205, No. 5Perfidious synaptic transmission in the guinea-pig auditory brainstem4 October 2018 | PLOS ONE, Vol. 13, No. 10Responsiveness of the Electrically Stimulated Cochlear Nerve in Children With Cochlear Nerve DeficiencyEar &amp; Hearing, Vol. 39, No. 2A Brief Introduction28 April 2018Distorting temporal fine structure by phase shifting and its effects on speech intelligibility and neural phase locking17 October 2017 | Scientific Reports, Vol. 7, No. 1Decoding sound level in the marmoset primary auditory cortexWensheng Sun, Ellisha N. Marongelli, Paul V. Watkins, and Dennis L. Barbour1 October 2017 | Journal of Neurophysiology, Vol. 118, No. 4Mechanisms of synaptic depression at the hair cell ribbon synapse that support auditory nerve function21 August 2017 | Proceedings of the National Academy of Sciences, Vol. 114, No. 36Mass Potentials Recorded at the Round Window Enable the Detection of Low Spontaneous Rate Fibers in Gerbil Auditory Nerve13 January 2017 | PLOS ONE, Vol. 12, No. 1Spike timing in auditory-nerve fibers during spontaneous activity and phase locking17 August 2016 | Synapse, Vol. 71, No. 1Afferent Coding and Efferent Control in the Normal and Impaired Cochlea1 September 2017Differential Group Delay of the Frequency Following Response Measured Vertically and Horizontally26 February 2016 | Journal of the Association for Research in Otolaryngology, Vol. 17, No. 2Cochlear hair cells: The sound-sensing machines31 August 2015 | FEBS Letters, Vol. 589, No. 22The functional anatomy of central auditory processing13 May 2015 | Practical Neurology, Vol. 15, No. 4Basic response properties of auditory nerve fibers: a review29 April 2015 | Cell and Tissue Research, Vol. 361, No. 1Estimation of Neural Phase Locking from Stimulus-Evoked Potentials3 June 2014 | Journal of the Association for Research in Otolaryngology, Vol. 15, No. 5Organization and trade-off of spectro-temporal tuning properties of duration-tuned neurons in the mammalian inferior colliculusJames A. Morrison, Faranak Farzan, Thane Fremouw, Riziq Sayegh, Ellen Covey, and Paul A. Faure15 May 2014 | Journal of Neurophysiology, Vol. 111, No. 10IntroductionExperiments in comparative hearing: Georg von Békésy and beyondHearing Research, Vol. 293, No. 1-2Biological Psychology26 September 2012A variational approach to behavioral and neuroelectrical laws20 July 2012 | Biological Cybernetics, Vol. 106, No. 6-7Auditory nerve fibre responses in the ferret14 June 2012 | European Journal of Neuroscience, Vol. 36, No. 4Is fast auditory change detection feature specific? An electrophysiological study in humans16 May 2012 | Psychophysiology, Vol. 49, No. 7Historical Introduction7 November 2011Level-Tuned Neurons in Primary Auditory Cortex Adapt Differently to Loud versus Soft Sounds10 May 2010 | Cerebral Cortex, Vol. 21, No. 1Mechanisms of Sound Localization in MammalsBenedikt Grothe, Michael Pecka, and David McAlpine1 July 2010 | Physiological Reviews, Vol. 90, No. 3Influence of inhibitory synaptic kinetics on the interaural time difference sensitivity in a linear model of binaural coincidence detectionThe Journal of the Acoustical Society of America, Vol. 127, No. 2Models of the Superior Olivary Complex8 February 2010Historical milestones of Neuroscientific PsychophysiologyInternational Journal of Psychophysiology, Vol. 73, No. 2Variation </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2323275404</t>
+          <t>https://openalex.org/W2323499126</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/002224294300800116</t>
+          <t>https://doi.org/10.2307/2292969</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Osborne (1943)</t>
+          <t>Gillum (1943)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sales Training for the New Type of Selling</t>
+          <t>The Negro Folksong in the American Culture</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>IF THERE is ever to be effective control of the nature and extent of the human contacts between an industry and its wholesale and retail customers, both top management and intermediate management, all the way down the line, must first be sold-not only on the need for training, but also on active participation in developing and administering the program. In other words, it seems to most sales men that our Number One problem still has to do with the more complete acceptance by employers (retailers as well as manufacturers) of their responsibility for making a major issue of the selection and development of sales personnel; and with training trainers to train. Problem Number Two in raising the average effectiveness of a sales organization is: How can the of being a salesman be made more attractive to more and better men and women ? This is reflected in the experiences of high-school vocational guidance people and the college placement bureaus-who tell us that relatively few students have been at all interested in preparing themselves for careers of personal selling. In South Bend, Indiana, for example, records from 1929 through 1942 showed that the proportion of high school seniors whose career books indicated an interest in personal selling ranged between 6? and 72 per cent. This indifferent attitude seems to be confirmed by the experiences of most sales personnel men in industry. For example, in normal times I interview a good many young men. But most of them just want to talk about selling. Not many want to do it. Most of them have wanted desk jobs. They have been enthusiastic about sales promotion, and sales research, and advertising. But, when I have suggested that the best way to build a solid foundation for such work is to begin as a retail salesman, they generally looked shocked and changed the subject. There is no time just now to go into all the reasons for this rather widespread attitude towards selling as a career; but plans for betterment would never get started unless we recognized that such an attitude has existed-and existed in spite of the fact that there has never been any ceiling on the salesman's opportunities. Now that our jobs have been bombed out from under us, we sales people will probably be safer in the future if we resist the temptation to get cocky over the extent to which our services will be needed when production for civilian use again rates top priority. Before we start to rebuild, we had better check over the strength of our foundations. As in any other vocation, the temptation to rationalize habits and prejudices, and to cling desperately to the status quo ante, is bound to be very great. But surely, if there was ever a time to begin considering new models in the recruiting and development of salesmen, this period of rationing and scarcity, and of industrial plants converted to war, would seem to be it. I do not mean that this is the time to</t>
+          <t>One hears much, in these days, of value of music as a builder of morale. There is found to be much conscious effort directed toward creation of a song which will weld American nation into Oneness of spirit so necessary to successful conclusion of present confusing conflict. One might wonder, amid brief bursts of enthusiasm for pseudo-patriotic commercial mediocrities that America has endured for past few months, at failure of such a song to emerge. There is no mystery here, however. The creative Muse will not be coerced. The song for which America strives will be result of an overwhelming unity of spirit, not cause. As a supreme example of power of song in lives of human-kind, America might well turn to her Negro. The Negro, as a people, has seemed instinctively to realize that end of all Being is Expression; with a sort of esoteric wisdom he perceives intense sublimation of group expression of Self. His music, growing as it does out of his bewilderment at his sufferings as a slave, is not an experiment, but an experience, with every deep significance that this word implies. The conjoining influence upon Negroes was religion. In this he found escape. God became reality, slavery illusion. When true American ideal of freedom for all once again becomes crystallized, over and above all prejudice and greed for power and wealth, when minds of people are able to penetrate cloud of political intrigue which now obscures real issues, then, and then only, may we expect song, which, having grown out of reality, can only serve greater purpose of enlarging scope of that reality. A short time ago (as time is counted in history of men and nations), a few brave souls, sick of static degradation of a Europe victimized by that eternal fetish the balance of power, launched forth in face of unknown dangers in order to establish upon new American continent a citadel of freedom, where men could live as men, honest God-fearing men. These founders of American nation meant to reject ways of Europe and all they represent. An isolated geographical position made this course possible. The introduction of Negro slavery rendered such a course inescapable. Here begins counterinfluence of impingement of two cultures of entirely different spiritual and physical backgrounds, one upon other. This counter-influence took place in native background of neither, but in an altogether new and common natural surrounding. The old traditions of mother countries could not fit this new environment. The average white American will not recognize tremendous influence that Negro has exercised over his economic, social and political life. He will not wish to see perhaps that a</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2332518738</t>
+          <t>https://openalex.org/W2332685015</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/333842</t>
+          <t>https://doi.org/10.2307/1437774</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Thorson (1943)</t>
+          <t>Oliver (1943)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>American Students in Colombia</t>
+          <t>The Status of Uta ornata lateralis Boulenger</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>S OUTH of Panama and just north of the equator lies the country known as This was the extent of our knowledge of Colombia, when suddenly Pan American policies, South American neighbors, South America, became watchwords of the day. Courses in school, trips to the San Francisco World's Fair, and books, aroused our curiosity to see as well as hear. So, on the third of March, 1942, armed with a healthy curiosity, no Spanish, and hopes, we sailed for Colombia. Within sixteen days we were transplanted from one continent to another, from an English-speaking to a Spanish-speaking world, from Anglo-Saxon to Latin American customs and ways of life. In other words, in this short space of time, all things that had been an integral part of our lives at home became unusual, strange, and fascinating. The things we did were much the same; yet the process and often, to our sorrow, the results, were not as they had always been. As a simple example, who could imagine that eating could be somewhat like a guessing game? Each course was a novelty, from the papaya to the extreme sweet for dessert. Of course, such novelties soon wore off, but there were continually others to take their places, and from this were derived the real charm and adventure of our trip. If one were to travel east of San Francisco for three thousand miles, changes would be seen, yes, but not to any outstanding degree; yet travel south for approximately the same distance and you are surrounded by things totally new and different. It is not so surprising, however, if one considers history and background, but at the moment of arrival these things are forgotten in the dazzling new. Steaming into Buenaventura, the west-coast seaport of Colombia, marked the beginning of a new life, the life of an American student in Colombia. This little seaport is similar to those of Mexico, and very different from those at home. Buenaventura is surprisingly small to be Colombia's largest port on the west coast; five minutes spent there in the humid, tropical heat are proof enough why it does not grow beyond the size necessary to take care of the import and export business. Sitting on the terrace of our hotel, the coolest place in town, and having to gasp for air, is evidence of conditions that are not conducive to expansion. When we arrived there had</t>
+          <t>THE lizard genus Uta (auct.) has long been a poorly understood assemblage greatly in need of careful revisionary study. Mr. Myron B. Mittleman has recently published a series of papers on Uta culminating in what purports to be a revision of the genus, in which he proposes a number of taxonomic changes. Close examination of his papers and of the few data presented therein reveals the fact that he has contributed little to a clarification of the status of the forms comprising the group. Many of Mittleman's proposals are difficult to evaluate because of the absence of the data upon which his conclusions are based and because of a confused presentation of certain points. The attempt to find dichotomous differences where only average differences exist has apparently contributed to his confusion. An occasion arose to examine part of Mittleman's revisionary paper during the course of a study of some of the Mexican reptiles in the collection of the American Museum of Natural History. Difficulties were encountered in attempts to allocate specimens from southern Sonora and northern Sinaloa according to his arrangement. A more detailed examination of the works treating the forms of this region seemed to be in order, in addition to an examination of additional specimens in other collections.1 A new revision has not been attempted, nor has all pertinent material been examined, but a sufficient number of specimens have been studied to show that Mittleman's arrangement of the forms in this geographic region is not correct. From an examination of 204 specimen's of the species ornata from Sonora, Sinaloa, and the Tres Marias Islands, it is clear that Mittleman's action (1941b) in synonymizing lateralis Boulenger and resurrecting schottii Baird is not justified. Nor can his views be accepted that linearis and lateralis intergrade in northern Sonora in a belt bordered on the north by the line Reforma-Cananea, and on the south by the line Caborca-Magdalena. These points will be more fully discussed below. Because of Mittleman's misconceptions regarding the status of lateralis, it will be redescribed as defined herein and its status considered in some detail.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4252358496</t>
+          <t>https://openalex.org/W4252540167</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1148/40.1.97c</t>
+          <t>https://doi.org/10.1038/151078b0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1025,169 +1032,169 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Books Received</t>
+          <t>School Science Teaching</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HomeRadiologyVol. 40, No. 1 PreviousNext Announcements and Book ReviewsBooks ReceivedPublished Online:Jan 1 1943https://doi.org/10.1148/40.1.97cMoreSectionsPDF ToolsAdd to favoritesCiteTrack CitationsPermissionsReprints ShareShare onFacebookXLinked In AbstractRoentgen Treatment of Diseases of The Nervous System. By Cornelius G. Dyke, M.D., F.A.C.R., Associate Professor of Radiology, College of Physicians and Surgeons, Columbia University; Director, Department of Radiology, Neurological Institute of New York, and Leo M. Davidoff, M.D., F.A.C.S., Chief, Department of Surgery, Attending Neurological Surgeon, Jewish Hospital of Brooklyn. A volume of 198 pages, with 12 engravings, 7 charts, and 16 graphs. Published by Lea &amp; Febiger, Philadelphia, 1942. Price $3.25.Changes in the Knee Joint at Various Ages, With Particular Reference to the Nature And Development of Degenerative Joint Disease. By Granville A. Bennett, M.D., Associate Professor of Pathology, Harvard Medical School., Hans Waine, M.D., Research Fellow in Medicine, Harvard Medical School, Graduate Assistant in Medicine, Massachusetts General Hospital, and Walter Bauer, M.D., Associate Professor in Medicine, Harvard Medical School; Physician to the Massachusetts General Hospital; Director, Robert W. Lovett Memorial Foundation for the Study of Crippling Diseases. A volume of 97 pages with 31 plates. Published by The Commonwealth Fund, New York, 1942. Price $2.50.Article HistoryPublished in print: Jan 1943 FiguresReferencesRelatedDetailsRecommended Articles RSNA Education Exhibits RSNA Case Collection Vol. 40, No. 1 Metrics Altmetric Score PDF download</t>
+          <t>THE recent issue of the School Science Review (No. 92, Nov. 1942) contains an interesting article, “School Science Teaching after the War”, by Mr. E. T. Harris. Mr. Harris points out that science teaching before the War was greatly affected by economic and social conditions which, in some cases, created a hostile attitude. But now, due to its contribution to the war effort, science is valued and appreciated. The changed social conditions likely to prevail after the War should give impetus to the modern movement to stress the applications of science, but the principles should not be omitted. “. . . Science is a social phenomenon, and is only to be understood in relation to the human society in which it has developed and is developing. Its principles and its applications are closely interrelated aspects of the same social phenomenon, and they must be studied in conjunction.” In discussing how this principle may be applied in teaching, Mr. Harris cites the introduction of general science and the greater attention which biology is receiving nowadays (see NATURE, 149, 456; April 25, 1942). There are two aspects to the study of science, (I) its historical and logical development and its social uses, and (2) its application to the pupil's life-his home, body, food, etc. Later in the science course should come a broadening of these early ideas, so that science is regarded as a struggle of mankind to master Nature for knowledge, power, and freedom.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1549425947</t>
+          <t>https://openalex.org/W113073405</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rainwater (1964)</t>
+          <t>Johnson &amp; Bomar (1964)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Transgressions and Regressions in the Gulf Coast Tertiary</t>
+          <t>Planning School Library Quarters.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ABSTRACT The Tertiary of the central and western Gulf Coast, with maximum thickness of approximately 30,000 feet, is composed almost entirely of terrigenous clastics (interbedded sand, silt, shale), and is characterized by alternating marine and nonmarine strata. Some of the marine formations extend to the outcrop, but the shorelines of many other formations are now deeply buried, and the outcrop equivalents of these subsurface marine formations are mainly of continental (alluvial) origin. The formations grade eastward into shallow open sea marine carbonates. Sea level deposits of Tertiary age are now buried at least 20,000 feet so there can be no doubt that the coastal area of Louisiana and Texas has been subsiding. The sequence of alternating marine and nonmarine sediments in this area resulted from advance and retreat of the strandline; this shift of the marine shoreline was due to differential rates of subsidence and to change in the amount of sediment brought to the area. Eustatic changes in sea level were not necessary to cause the transgressions (inland advance of the shoreline) and regressions (seaward advance of the shoreline). In fact, the mainly carbonate section in the eastern Gulf of Mexico region does not reflect the shallowing and deepening shown in the central and western Gulf Coast section. Most of the numerous local transgressions and regressions in the Gulf Coast Tertiary were very likely due to shift of the large deltas. Streams find the easiest path to the sea and, once a depocenter is established, the stream will build its delta there so long as subsidence is sufficient to take care of the sediments. The delta can also be built seaward if the sediment supply is greater than subsidence. This progradation in a marine body of water is regression, and the numerous regressive sequences in the Gulf Coast, which contain nearly all of the oil and gas, are a result of deltas built into shallow water of the continental shelf. The areas between deltas continue to subside so that sooner or later the stream is diverted to a shorter course to the sea with a more favorable gradient. The abandoned delta continues to subside and the sea transgresses it. It is obvious that both transgressions and regressions take place simultaneously in a subsiding basin such as the Gulf Coast during periods of delta building. The more regional transgressions of the Paleocene, Eocene, Oligocene, and Miocene suggest a small sediment supply, possibly the result of dry climate in the sediment source areas. Continued sinking of the Gulf Coast permitted the sea to transgress over the coastal plains of the preceding periods of abundant sediment supply. The interbedded regressive sections were deposited when the source areas were more elevated or there was more precipitation, or both. It is believed that the rate of sedimentation was much greater during the regressive periods than during transgressive periods. However, the progradation (regression) of the shoreline was in most cases slower than the movement inland (transgression) of the sea. Some of the numerous transgressions and regressions, both local and regional, are pointed out. The only rhythmic or cyclic sedimentation patterns in this thick section are a result of shifting strandlines which may have no relation to changes in sea level.</t>
+          <t>The provision of centralized libraries in schools, through new construction and through renovation of existing plants, is booming. The growing demand for school libraries springs in part from increases in school population, which require new school construction, but more significantly from the pressure of rising expectations?that is, from the increasing ac ceptance of the school library as an essential element of instructional programs. As state, regional, and national standards reinforce this acceptance, more and more school people are becoming involved in planning school library quarters. The articles in this issue of the ALA Bulletin are directed to several basic points of view about the nature of their responsibility. Planning and designing school library quar ters is an exciting and important business. It is also complex, involving many areas of spe cialized knowledge and many people. Since the school library is not only an entity in itself, but also part of a larger whole, the school, planning demands that close attention be given to the relationship between the school program and the library, as well as library location. It often calls for compromise between alternate positions, which is frequently based on what we want versus what we can afford. It always involves communication and interaction be tween people?librarians, teachers, administra tors, consultants, architects, engineers. The concern in this issue is the school librarian's contribution to the process, most of which, as Mr. Johnson's article points out, should take place before the architect draws a line. The starting point in planning facilities is knowledge of the program to be accommodated. Here we must turn to the school for direction, since its purposes, curriculum, and methods shape the library program. Next comes the projection of a program of library services to meet these needs, followed by examination of the program in terms of what it will require in physical facilities. The school librarian makes his biggest contribution at this point by work ing with other staff members to define the pro gram and its physical requirements. Mrs. Grazier describes what will happen in the li brary, or rather what should happen, for she writes from the conviction that planning should aim for the desired program, not the status quo. Communicating information about the serv ices to be accommodated in school library quarters is the librarian's next responsibility. Knowing what informaton to provide and when and how to convey it calls for understanding of the steps and procedures followed in educa tional planning. Mr. Johnson's article deals with the function of the architect and the means and steps by which he arrives at solutions to design problems. Mr. Gardner discusses the role of the school staff and, in particular, the school librarian, giving suggestions for pre paring educational specifications for the school library. Some principles and features of good design are illustrated in the case studies of recently constructed elementary and secondary school libraries. Although they share many elements, these quarters present varied design solutions, each tailored to the particular program served. Their variety is a reminder of the principle that form follows function. Considerable foresight is needed to make the libraries planned today fit the programs of to morrow. All people involved in the planning need to anticipate future directions in school library service. Their ability to look ahead may depend upon the librarian's vision, as well as his skill in communicating the potential for library service. In the closing article, Miss Gaver establishes guidelines based on trends in school organization, teaching methods, and materials and on their implications for ex panded school library programs.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1605526861</t>
+          <t>https://openalex.org/W1572108051</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0022-328x(00)83252-0</t>
+          <t>https://doi.org/10.7907/r906-t104.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Prince &amp; Weiss (1964)</t>
+          <t>Gardner (1964)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Organoaluminum chemistry</t>
+          <t>Earthquakes in the Walker Pass Region, California, and their Relation to the Tectonics of the Southern Sierra Nevada</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The oxidation of aluminum alkyls by various metal halides has been investigated. Alkenes and alkanes derived from the alkyl groups are the gaseous products, the composition of which varies with the metal halide, the solvent, and the number of aluminum-bound alkyl groups. Abstraction of hydrogen from the solvent occurs in most cases. Complex changes take place with unsaturated solvents, which result in isomerization and polymer formation. In the presence of organic halogen compounds the metal halide is regenerated, or another oxidizing species is produced. The results are discussed in terms of a modified version of Eden and Feilchenfeld's mechanism, in which radical attack on adjacent metal-bound alkyl groups plays an important role.</t>
+          <t>The locations and depths of earthquakes occurring in the Walker Pass Region, California, and the surrounding area have been examined for the period from January, 1934, to December, 1963. Whenever possible, least-square computer locations programs have been used to check or revise the previously determined epicenters and origin times. In most cases, epicenters determined by machine methods are within ten kilometers of those previously assigned. Accurate depths, whenever they could be calculated, were always found to be less than fifteen kilometers and usually less than ten kilometers. The sequence of earthquakes occurring in the Walker Pass region in March, 1946, has been carefully examined. While no major shifts in epicenters were found, the depth of the main shock of this series has been revised from twenty-one kilometers to less than ten kilometers. This revision cast doubt on the assertion that the earthquake originated on the Sierra Front Fault and made it likely that the earthquake occurred on one of the northwest-southeast trending faults in the interior of the Sierra mass. Finally, the general distribution of earthquakes furnishes no evidence for the existence of a continuous deep-lying structure traversing the southern part of the Sierra Nevada. While the possibility of the existence of such a structure has not been excluded, practically all of the evidence upon which such a speculation might be based has been removed. Any relation between activity in this region and the activity in the nearby White Wolf Fault region must instead be explained by means of a mutual transfer of strain between systems of different trend and character. The computer programs used for the location of the earthquakes reported in this study are discussed in Appendices A and B.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1965747536</t>
+          <t>https://openalex.org/W163917185</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00785326.1964.10416277</t>
+          <t>https://doi.org/10.1016/b978-1-4832-2841-9.50004-0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Thorson (1964)</t>
+          <t>Jeżowska‐Trzebiatowska (1964)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Light as an ecological factor in the dispersal and settlement of larvae of marine bottom invertebrates</t>
+          <t>THE ROLE OF OXYGEN IN COORDINATION COMPOUNDS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Abstract Roughly 90,000 species of marine bottom invertebrates reproduce by pelagic larvae, thus spending the most sensitive period of their life under the influence of light. Data on their responses to light have here been brought together for larvae of 141 species. In their early pelagic stages. 82 % of these species respond positively to light and migrate to the surface layers, 12 % seem to be indifferent to light. and 6 % respond negatively to light and continue to do so during their whole pelagic life. In their later and oldest pelagic stages most of the initially photopositive larvae will turn over to photonegativity, seeking down to deeper lying bottoms. but larvae of many intertidal species will remain photopositive till they stop swimming, thus sticking to the surface layers where they can get into contact with intertidal localities. Larvae of such groups which already in their pelagic phase live in symbiosis with zooxanthellae, do not seem to have another pattern of light-response than larvae of such groups in which zooxanthellae are lacking. Strong light intensities, increased temperatures and reduced salinity will all stimulate photopositive larvae to become photonegative. This fact helps to explain why even young photopositive larvae will in most cases concentrate somewhat deeper than the very surface of the sea and why the number of intertidal species in brackish areas is so small. Even such larvae of many (not all) intertidal species which are photopositive up to the moment they stop swimming seem to tum photonegative during metamorphosis and settlement, thus preferring shaded areas and dark surfaces for attachment. If they settle at night, when any substratum looks dark and :tshaded4:, they might find themselves exposed to direct sunlight next morning. which has proved injurious to many species. Experiments have shown that in most cases total darkness will prevent or postpone settlement, and that light is needed for such larvae when making their photonegative schoicee for a final place to settle. Dark surfaces contrasting to the surrounding medium and causing a general shading will attract most metamorphosing larvae of intertidal species. Since several larvae respond most sensitively to light after having been kept some time in darkness. the most favourable period for settling of shortlived intertidal larvae seems to be just about sunrise, and many species with an ultrashort pelagic larval stage are known to release their larvae in the early morning. From the moment the larvae stop swimming. several factors other than light may influence their settling behaviour, above all the chemical attraction from earlier settled populations of their own species.</t>
+          <t>Oxygen in complex compounds plays an essential role, which arises from its ability to form various types of bonds with other atoms, namely: the ion-, covalent-, donor σ-and donor π-bonds. At the same time, the oxygen valency state changes from +2 to —2. The capacity of oxygen for bond formation results from its electron-orbital structure, connected with the value of the electron affinity and atomic radius. When the difference in the electronegativity of oxygen and its partners is not very great, and when the partner's atom possesses the accessible orbitals d or f, then very strong couplings are formed and a system of molecular orbitals occurs. Oxygen thus complexed with metals forms a new chemical species, sometimes passing without change from compound to compound. Three types of oxygen-metal nuclei appear in the complex compounds of transition elements: type I MeO, type II MeO2, type III Me-O-Me. In each case the complexes become stable owing to oxygen-metal π-bonds. It particularly applies to complexes of II and III. A strong coupling with oxygen often causes a change in the magnetic properties of metal atoms and gives the absorption spectrum its characteristic trait. The author discusses the electron orbital structure of the complexes with the nuclei of all the 3 types mentioned above. It is demonstrated that the molecular orbital theory may be applied to explain magnetic and optical properties of oxygen metal nuclei. In the Me-O-Me nucleus, oxygen bonds two metal atoms.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1977859375</t>
+          <t>https://openalex.org/W1967149148</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0002-9149(64)90077-3</t>
+          <t>https://doi.org/10.1016/0013-4694(64)90030-6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bauer (1964)</t>
+          <t>Angeleri et al. (1964)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Development of bundle branch block</t>
+          <t>Electrical activity and reactivity of the rhinencephalic, pararhinencephalic and thalamic structures: Prolonged implantation of electrodes in man</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thirty patients were observed before and after the onset of bundle branch block; right-sided conduction defects developed in 15 and left-sided in 15. In 22 patients the appearance of bundle branch block was associated with salient cardiac symptoms; in 8 the conduction defect developed silently. Chronic progressive heart failure is the commonest recognizable precipitating factor; bundle branch block accompanies increasing cardiac enlargement and a clinical course punctuated by recurrent attacks of pulmonary edema. Under these circumstances bundle branch block is an ominous sign; all 11 patients in this group died during the period of observation. Although intraventricular conduction defect complicates 13 per cent of cases of acute myocardial infarction, chronic bundle branch block rarely follows cardiac infarction. If the patients survive the acute attack of infarction, the bundle branch block is usually transient in nature. In 8 patients, 6 with right and 2 with left bundle branch block, the conduction defect developed silently without overt change in their clinical condition. This group had a distinctly better life expectancy. The prognosis of bundle branch block appears to be related not only to the type of conduction defect and the underlying cardiac condition but also to the precipitating factors and mode of onset of the intraventricular conduction disturbance.</t>
+          <t>The authors present some of the principal considerations based on observations during simultaneous deep cerebral recording in 94 cases of neuro-psychiatric disorders, which could be classified as follows: 32 cases of epilepsy, 56 cases of extrapyramidal syndromes, four cases of schizophrenia and two of severe psychasthenia with associated motor manifestations. The discussion is concerned primarily with the manifestations of temporal lobe epilepsy, but reference is also made to the phenomena encountered in cases of “centrencephalic” epilepsy (grand mal, myoclonic petit mal.) The non-epileptic cases have been included in this investigation only for the purpose of pointing out some substantial differences between their records and those of the epileptic patients. After a brief introduction concerning the phenomena of diffusion, spread and activation, considered on the basis of the data obtained by animal experiments, a number of conclusions are reported, which can be summarized as follows: 1. It appears to have been adequately demonstrated that the hippocampo-amygdalar structures play a predominant part in the precipitation and maintenance of epileptic attacks, in the first place those of temporal, but also those of so-called centrencephalic nature. The activity of either structure, or their synergic activities, may be regarded as the “starter” of the temporal attack; they play a very important role in bringing about certain functional conditions of the neopallium which facilitate the occurrence of generalized attacks of the grand mal type. 2. The relationship between the convulsive electrical activity of the rhinencephalic structures and activity of the same type in the neopallium are rather complicated, but it appears justifiable to state that the attacks of these two structures run a dissociated course. 3. The importance of the rhinencephalic system in bringing about the alterations of so-called centrencephalic epilepsy is definitely confirmed but it has proved rather doubtful whether the thalamus is also concerned in these abnormal manifestations. 4. The observations made during stimulation of the rhinencephalic structures, and the occurrence of after-discharge in these structures, have yielded material that is useful for the interpretation of the electrical aspects of temporal attacks and the clinical phenomena which are associated with these attacks. The data obtained by depth and surface recording in human subjects are briefly considered against the background of the experimental findings in animals, with emphasis on the advantages of investigations carried out directly in epileptic patients.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1992601377</t>
+          <t>https://openalex.org/W1979170209</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/bc743c17-16be-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1148/83.1.48</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Be et al. (1964)</t>
+          <t>Mori et al. (1964)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Electron Microscopic Studies of Planktonic Foraminifera: ABSTRACT</t>
+          <t>The Radiological Spectrum of Aging and Emphysematous Lungs</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The wall structures and surface features of several modern planktonic foraminiferal species were examined with an electron microscope for the purpose of evaluating the taxonomic and ecologic significance of such microstructural details. Species belonging to spinose Globigerinoides, non-spinose Globoquadrina, and non-spinose Globorotalia were selected because they are three representative taxa among the planktonic Foraminifera. Surface replicas were made using the Triafol method, which has been found superior to direct shadowing and Polystyrene techniques. Photographs have been taken stepwise from low magnifications with the light microscope to higher magnification electron micrographs in stereo pairs. In the juvenile stages when the individuals live near the ocean surface, the test wall is thin and transparent and is composed of small calcite crystals with their c-and major growth axes normal to the shell surface. In the later stages when the organisms descend to lower water depths there is additional crystal growth in the form of a calcite crust producing columnar prisms whose free ends are rhombic pyramids. As some of the prisms increase in size, other prisms are squeezed out by differential growth; the rhombic pyramids are especially well developed along the keel and apertural side of Globorotalia menardii and G. truncatulinoides. Transitional steps in the test thickening of G. sacculifer have been observed from specimens having large, open pores and distinct spine bases to specimens having constricted pores, obscure spine bases, and surficial encrustment of calcite crystals. Distinguishing between variations in primary test features (e.g., keel, pores, apertural lip) and those due to developmental phases as observed with the electron microscope is complicated by variations due to environmental influences. End_of_Article - Last_Page 516------------</t>
+          <t>Emphysema of the lungs is becoming recognized as the most common condition to produce pulmonary disability in later life (37). Recently changing clinical and pathologic concepts (20, 24, 29, 30, 36) point up the need for re-evaluation of the classic criteria of radiologic interpretation. A variety of diagnostic methods, including history, physical examination, radiographic studies, and various pulmonary function tests are used in the appraisal of emphysematous patients. Limitations in the reliability of history and physical findings are considered elsewhere (31). Pulmonary function tests are valuable in assessing the degree of functional impairment (14), but in many instances are not as readily available as radiography. Accordingly, a study was performed to ascertain the radiologic features of emphysematous and normal aging subjects on plain films, the ability of competent observers to detect such changes, and the reliability of present criteria in differentiating aging and emphysematous patients. This work is one part of a continuing multi-disciplinary study of emphysema (1–6, 31). Emphysema is derived from the Greek word “emphysao” which means “inflate” or “blow up” (38). With the development of more precise knowledge of pulmonary pathology and physiology, the term pulmonary emphysema has come to refer to “obstructive lung disease” of a chronic nature (25). This is reflected in the recent definition by the American Thoracic Society (35): “Emphysema is an anatomic alteration of the lung characterized by an abnormal enlargement of the air spaces distal to the terminal non-respiratory bronchiole accompanied by destructive changes in the alveolar walls.” Hyperinflation (overinflation) is a general term which refers to overdistention of the lungs from any cause (35). Hyperinflation is characterized by enlargement and rounding of the thorax and compression and displacement of surrounding structures (5, 19,28). Although hyperinflation may be a manifestation of pulmonary emphysema, it may also be observed in normal subjects with a large vital capacity, as a manifestation of the normal aging process, and in asthma or any other condition producing airway obstruction. Physiologic aging changes, e.g., the barrel configuration of the chest, may suggest emphysema (Figs. 1 and 2) and yet be associated with no significant physiologic or pathologic alteration (18, 23, 28). These patients are sometimes reported on radiographic examination of the chest as having senile emphysema which, according to the current definition of emphysema, is a misnomer. Therefore, the extent to which normal aging changes could be differentiated radiographically from emphysema was considered. Methods and Materials The evaluation of radiographic signs and diagnosis reported here was based on the interpretation of radiographs of aging and emphysematous patients as practiced in the daily routine of physicians devoting full time to radiology.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1995277137</t>
+          <t>https://openalex.org/W1994349482</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3276198</t>
+          <t>https://doi.org/10.1080/00220671.1964.10883089</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Judge &amp; Anderson (1964)</t>
+          <t>Payne (1964)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ultrastructure of Trypanosoma lewisi</t>
+          <t>Achievement in Sixth-Grade Science Associated with Two Instructional Roles of Science Consultants: Second Report</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The ultrastructure of Trypanosoma lewisi was studied in the Sprague-Dawley rat and compared to that of other trypanosomes. The organism is encompassed by a double-layered unit membrane continuous with the limiting membrane of the flagellum. Intracytoplasmic hollow fibrils located adjacent to the inner layer of the limiting cell membrane course spirally in an anteroposterior direction. The flagellum with the usual 11 fibrils projects anteriorly from its origin near the posteriorly placed kinetoplast and blepharoplast. The kinetoplast contains cristae in addition to a folded membranous internal structure and often is associated with or connected to an elongate mitochondrion. Multiple electron-dense volutin granules which have been implicated in the antigenicity of the organism are located posterior to the kinetoplast. It is postulated that the intracytoplasmic fibrils may function to maintain the shape of the organism in a fluid medium. The hemoflagellate, Trypanosoma lewisi, usually is found in the wild rat; however, other laboratory animals also can be infected. Other rodents generally are parasitized by different but similar species of trypanosomes (Wenrich, 1949). Tsuchiya and Rector (1936) found that 11 of 100 wild rats in St. Louis, Missouri, harbored the parasite. Trypanosoma lewisi is transmitted in nature by the rat flea, Nosopsyllus fasciatus, and only rarely is the life cycle between the flea and the rat broken. However, one case of transmission to man has been reported (Johnson, 1933). The parasite does not invade the host's solid organs and the host shows no apparent evidence of its infection. However, Becker and his associates showed that the normally benign organism may become pathogenic in pantothenate-deficient animals (Becker, Manresa, and Johnson, 1943). Inoculated parasites reproduce rapidly by binary fission in the bloodstream until about the 10th day when a crisis occurs and the maximum circulating population is reached (Omerod, 1961). At this time the organisms are in a monomorphic phase; however, earlier they are polymorphic. After the crisis the number of parasites in the bloodReceived for publication 23 March 1964. * This work has been supported by a grant from the National Institutes of Health (RG-3784), United States Public Health Service. t Student Research Trainee (2G-240). + National Institutes of Health Trainee in Experimental Pathology (2G-897). stream drops abruptly leaving only a few adult forms. The crisis is thought to be due to an antigen-antibody reaction involving the rapidly proliferating organisms. It has been suggested that the multiple posteriorly located inclusion bodies which appear near the time of the crisis have antigenic properties and thus differ from the single inclusion body of the adult form. Indeed, Omerod (1959) believes that the crisis is directly related to these inclusion bodies. The rat is immune to reinfection after the crisis and the few remaining adult forms gradually disappear from the bloodstream. The immunity thus acquired is interpreted as being due to action of ablastin and trypanolysin, the former inhibiting the reproduction of the organisms (Taliaferro, 1932). Other species of trypanosomes are important pathogens for man, including T. cruzi, the etiologic agent of Chagas' disease, and T. rhodesiense and T. gambiense, which cause African sleeping sickness. Recently much work has been done on the ultrastructure of trypanosomes. Of special note is the work of Schulz and MacClure (1961), and that of Meyer, de Oliviera, and de Andrade (1958) and Sanabria (1963) on T. cruzi, and that of Vickerman (1962) on T. brucei. Clark and Wallace (1960) have made a careful comparative study of the kinetoplast in various Trypanosomatidae. The purpose of this paper is to describe the ultrastructure of T. lewisi and to compare and contrast this with the ultrastructure of the other trypanosomes thus far described in the literature.</t>
+          <t>EARLY IN 1960, a study was conduct ed by a group at the University of Chicago investigating the role of science consultants in an elementary school system. * Specifically, the investigation addressed itself to the comparative a c h i e v ement of sixth grade students in two situations in which the roles assumed by the science consultants differed. In the first situation, the science consultants worked with the teachers, and the teachers were then re sponsible for all instruction of students in the sci ence unit being studied. In the second situation, the consultants assumed the responsibility for the direct instruction of students once a week and the teachers planned and taught follow-up sessions based on the consultants' presentations. The 1960 study was concerned with student achievement dur ing the unit on light. The results of the study showed that achievement was significantly greater when the consultants worked only with the teachers than when they assumed the instructional role. This paper presents a report on a second study of similar design which was conducted in March and April of 1961. The second study involved eight sixth-grade classes in the same school system as in the first study. It also included five of the same teachers and the same two consultants. The six week unit on electricity was selected for the second study. The design of the study again involved two sit uations with four classes in each. In Situation I the consultants' time was spent in giving assistance to teachers in planning learning activities for the unit. In Situation II the consultants' time was spent in planning and giving weekly demonstrations which were attended by teachers as well as students. The teachers then planned the activities for the science periods following each demonstration. For the demonstrations, classes were combined with two classes attending each demonstration, in an effort to make the most efficient use of instructional time and materials. Each consultant's time was planned so that the total amount of time devoted to Situation I teachers was approximately equal to that devoted to Situation II classes. Cert ain materials such as flashlight kits, elec trical wiring boards, and textbooks were made available to all classes. In addition, special visual materials were prepared at the University of Chi cago for the project. To decrease the effect of individual differences in teachers, the study was planned so that teachers who participated in the project last year would be assigned to a different situation this year. That is, if the teacher was in Situation I in the 1960 study, he was assigned to Situation II in the 1961 study. This change was made for all but one of the five teachers who participated in both studies. Each of the two science consultants was assigned to work with selected groups in both Situations I and II. The study was a further attempt to answer the question, Which use of the science consultants is associated with greater learning on the part of the students? To answer this question, certainmeas ures of achievement were needed. The remainder of this paper describes the methods of evaluating student achievement and the results of applying these methods.</t>
         </is>
       </c>
     </row>
@@ -1221,189 +1228,189 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1999931067</t>
+          <t>https://openalex.org/W1997938006</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/772-pa</t>
+          <t>https://doi.org/10.1017/s0362152900016342</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ramey (1964)</t>
+          <t>Watt (1964)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rapid Methods for Estimating Reservoir Compressibilities</t>
+          <t>The Theory of Papal Monarchy in the Thirteenth Century: The Contribution of the Canonists</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ramey Jr., H.J., Member AIME, Mobil Oil Co., Los Angeles, Calif. Abstract Conventional calculation of total system isothermal compressibility for a system containing a free gas phase involves, among other things, evaluation of the change of oil and gas formation volume factors and the gas in solution with pressure. Preferably, this information should be obtained from laboratory measurements made with particular oils and gases. Often, experimental measurements are not available. In this case, it is necessary to obtain pressure- volume- temperature relationships from general correlations such as those of Standing for California oils. In order to speed estimates of compressibility, generalized plots have been prepared of the change of both oil formation volume factors and gas in solution, with pressure from Standing's correlations. A generalized plot for estimating the change in the two-phase (oil and gas) formation volume factor with pressure is also presented. Usually, the effect of gas dissolved in reservoir water upon the total system compressibility is neglected for gas saturated systems, due to the low solubility of gas in water. Results of this study indicate that the increase in total system compressibility caused by solution of gas in water is often as large as the compressibility of water, and can be magnitudes larger for low pressure systems. Generalized results for estimating the change of gas in solution in water with pressure are presented in tabular and graphical form. Introduction During the past decade, pressure build-up and drawdown techniques have gained an important place in reservoir engineering. Build-up and drawdown analyses are only two special applications of the broad field of transient fluid-flow theory. All solutions of transient fluid-flow problems contain a parameter called the total system isothermal compressibility. This property of fluids and porous rock is a measure of the change in volume of the fluid content of porous rock with a change in pressure, and it may vary considerably with pressure. Evaluation of total system isothermal compressibility is not difficult, but it is tedious and time-consuming. Often compressibilities are estimated roughly, or transient flow methods are neglected completely. The benefits of using accurate system compressibility in properly-executed build-up or drawdown analyses are:Better planning of pressure build-ups may be achieved to avoid unnecessary loss of revenue due to excessively long shut-in periods, or to shut-in periods too short to yield useable data.Better and more reliable estimates of static formation pressures for reserves estimates and rate performance estimates.Reliable information for evaluation of well completion effectiveness, and planning and interpretation of well stimulation efforts. The purpose of this paper is to clarify the nature of the total system isothermal compressibility, and to present useful methods for estimation of compressibility, particularly for systems containing a gas phase. DEVELOPMENT Numerous publications have presented solutions to transient single-phase flow of slightly compressible fluids, stressing pressure build-up applications. In transient flow, a compressibility* term arises to permit volume content of fluids in porous rock to change as pressure changes. The basic nature of the compressibility term is usually taken for granted. Problems arise in practical applications of transient fluid theory because most published works consider only one flowing fluid-in an ideal porous system containing only one fluid. In 1956, Perrine presented an intuitive extension of single-phase flow pressure build-up methods to multiphase flow conditions. Later, Martin established conditions under which Perrine's multiphase build-up method had a theoretical foundation. Perrine has shown that improper use of single-phase build-up analysis in certain multiphase flow situations can lead to gross errors in estimated static formation pressure, permeability and well condition. It is likely that much pressure build-up data for Oil wells should be analyzed on the basis of multiphase flow. For both single-phase and multiphase build-up analysis, the isothermal compressibility term in dimensionless time groups often should be interpreted as the total system compressibility. All real reservoirs contain one or more compressible fluid phases. In addition, rock compressibility can contribute in an important way to the total system compressibility. The proper total system compressibility expression may contain terms for compressibility of oil, gas, water, reservoir rock and terms for the change of solubility of gas in liquid phases. JPT P. 447ˆ</t>
+          <t>The work of the medieval canonists has always formed a significant chapter in the histories of medieval political thought. The law of the Church and its attendant juristic science forms the proper source material for the examination of the system of ideas which lay behind the functioning of papal government. Ecclesiastical jurisprudence was the practical branch of sapientia Christiana . It was concerned with a constitution and the exercise of power within its terms; with an organization and the methods by which it was to be run. It had of necessity to be articulate about the nature of the papacy, the constitutional and organizational linchpin. In consequence the canonists were the acknowledged theorists of papal primacy. To them rather than to the theologians belonged that segment of ecclesiology which treated of the nature of the Church as a visible corporate society under a single ruler. In that period of nearly a century which lay between the accession of Alexander III and the death of Innocent IV, canonists were required to register the increasingly numerous and more diverse applications of papal rulership to the problems of Christian society. The concept of papal monarchy came to be reexamined in academic literature because of the accelerating tempo of papal action. Under the stimulus of an active papacy, the canonists were led to examine many of the assumptions on which the popes based their actions and claims. The world of affairs conditioned the evolution of a political-theory, which in turn helped to shape the course of events.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2000038467</t>
+          <t>https://openalex.org/W2000769542</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/710-pa</t>
+          <t>https://doi.org/10.1353/pbm.1964.0042</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Arps &amp; Arps (1964)</t>
+          <t>Haldane (1964)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>The Subsurface Telemetry Problem-A Practical Solution</t>
+          <t>A Defense of Beanbag Genetics</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Abstract A practical solution to the inherent "blindness" of the rotary drilling system has been developed and field tested successfully. It consists of a novel telemetry system which makes it possible to obtain at the surface, concurrent with the drilling of a well, continuous logs on one or more physical parameters of the freshly penetrated formation at the bit. The method will also be made available for various warning and control systems pertaining to the condition or operation of the drilling equipment at the bottom of the hole. A measurement at the bottom of the hole is translated into a pulse code which periodically triggers a hydraulic mud valve in the drill collar. Partial closings of this valve for a short period of time create pressure pulses in the in-going mud stream which are readily detected at the surface as small increases in pressure. After decoding this pressure-pulse pattern arriving at the surface, the resulting readings are automatically plotted on a recording paper strip which moves as the drill progresses downward. Examples of continuous logs are shown, and a general description of the equipment used in the telemetry system is given. Introduction The Need for Continuous Logging in Rotary Drilling of Exploratory WellsThe basic purpose of drilling exploratory wells is to find and evaluate new oil and gas reservoirs. The emphasis is therefore on gaining significant information about possible productive zones, and the drilling of the well itself in most cases merely a means to this end. While drilling, an exploratory well often encounters unexpected geological conditions and new potential reservoirs. Obviously, the best time to acquire pertinent information about such reservoirs is when they are freshly penetrated and least disturbed by mud filtrate. Also, optimum drilling speed and minimum drilling cost can only be obtained if the exact nature of the changing formations being drilled is known at all times. Because of these considerations, the search for a reliable and diagnostic method of gaining such information while drilling and not afterward is as old as the drilling industry itself. The following brief summary of the important stepping stones in the industry's search for better evaluation of the formations penetrated in exploratory wells will serve as a background for the discussion of the subject material of this paper. Early Developments in Intermittent Formation Evaluation of Rotary Wells Logging while drilling in the days of cable tools was no problem. In effect, the formations were being continuously sampled and production tested as the cable-tool bit drilled ahead. With the advent of rotary drilling, however, the industry suddenly found that its ability to "see" downhole while drilling was greatly impaired. The drilling fluids generally served to hold back formation pressures, and the analysis of cuttings obtained from the mudstream became much less diagnostic. In order to get some indication of the variations in lithology, the speed of drilling was often watched closely, and correlation of drilling breaks with the cuttings obtained could sometimes serve as a guide regarding the formations being penetrated. Coring The introduction of the rotary core barrel to the industry during the 1920's provided for the first time a means of obtaining a good sized sample of the formations penetrated. Its universal acceptance as a standard drilling tool was limited, however, by its ability to retain only a core before requiring time-consuming and costly recovery operations, and by the reduced drilling speeds generally required while coring. Drillstem Testing Introduction of drillstem testing, also during the 1920's, provided the operator with a means of obtaining actual samples of formation fluids from the penetrated formation without the need for setting pipe, and was another step forward in the search for improved formation evaluation. Electrical Logging Although the formation evaluation problem in rotary wells was greatly aided by the development of the rotary core barrel and the drillstem tester, the most important step forward in curing the inherent blindness of the rotary system came with the introduction of the electrical log around 1930, as a means of identifying and evaluating the formations penetrated. JPT P. 487ˆ</t>
+          <t>A DEFENSE OF BEANBAG GENETICS J. B. S. HALDANE* My friend Professor Ernst Mayr, of Harvard University, in his recent book Animal Species and Evolution [i], which I find admirable, though I disagree with quite a lot ofit, has the following sentences on page 263. The Mendelian was apt to compare the genetic contents ofa population to a bag full ofcolored beans. Mutation was uie exchange ofone kind ofbean for another. This conceptualization has been referred to as "beanbag genetics." Work in population and developmental genetics has shown, however, diat the thinking ofbeanbag genetics is in many ways quite misleading. To consider genes as independent units is meaningless from the physiological as well as the evolutionary viewpoint. Any kind ofthinking whatever is misleading out ofits context. Thus ethical thinking involves the concept of duty, or some equivalent, such as righteousness or dharma. Without such a concept one is lost in the present world, and, according to the religions, in the next also. Joule, in his classical papers on the mechanical equivalent of heat, wrote of the duty ofa steam engine. We now write ofits horsepower. It is ofcourse possible that ethical conceptions will in future be applied to electronic calculators, which may be given built-in consciences! In another place [2] Mayr made a more specific challenge. He stated that Fisher, Wright, and I "have worked out an impressive mathematical theory ofgenetical variation and evolutionary change. But what, precisely , has been the contribution ofthis mathematical school to evolutionary theory, ifI may be permitted to ask such a provocative question?" "However ," he continued in the next paragraph, "I should perhaps leave it to Fisher, Wright, and Haldane to point out what they consider their major contributions." While Mayr may certainly ask this question, I may not answer it at Cold Spring Harbor, as I have been officially informed that * Address: Genetics and Biometry Laboratory, Government of Orissa, Bhubaneswar-3, Orissa, India. 343 I am ineligible for a visa for entering the United States.1 Fisher is dead, but when alive preferred attack to defense. Wright is one ofthe gentlest men I have ever met, and if he defends himself, will not counterattack. This leaves me to hold the fort, and that by writing rather than speech. Now, in the first place I deny that the mathematical theory ofpopulation genetics is at all impressive, at least to a mathematician. On the contrary , Wright, Fisher, and I all made simplifying assumptions which allowed us to pose problems soluble by the elementary mathematics at our disposal, and even then did not always fully solve the simple problems we set ourselves. Our mathematics may impress zoologists but do not greatly impress mathematicians. Let me give a simple example. We want to know how the frequency ofa gene in a population changes under natural selection. I made the following simplifying assumptions [3]: 1)The population is infinite, so the frequency in each generation is exactly that calculated, notjust somewhere near it. 2)Generations are separate. This is true for a minority only ofanimal and plant species. Thus even in so-called annual plants a few seeds can survive for several years. 3)Mating is at random. In fact, it was not hard to allow for inbreeding once Wright had given a quantitative measure ofit. 4)The gene is completely recessive as regards fitness. Again it is not hard to allow for incomplete dominance. Only two alleles at one locus are considered. 5)Mendelian segregation is perfect. There is no mutation, non-disjunction , gametic selection, or similar complications. 6)Selection acts so that the fraction ofrécessives breeding per dominant is constant from one generation to another. This fraction is the same in the two sexes. With all these assumptions, we get a fairly simple equation. If^n is the frequency ofthe recessive gene, and a fraction k ofrécessives is killed off when the corresponding dominants survive, then Qn- kqn* * In spite ofthis ineligibility I have, since writing this article, been granted an American visa, for which I must thank the federal government. However, I am not permitted to lecture in North Carolina, and perhaps in other states, without answering a question which I refuse to...</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2008663487</t>
+          <t>https://openalex.org/W2001123004</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0040-4020(01)98414-5</t>
+          <t>https://doi.org/10.1016/0926-6550(64)90131-8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pecile et al. (1964)</t>
+          <t>Wettstein et al. (1964)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The interaction of diazocarbonyl compounds with hydroxylic solvents</t>
+          <t>Effect of cycloheximide on ribosomal aggregates engaged in protein synthesis in vitro</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>In accordance with previous results, additional spectral evidence is given for the effect of the medium on the nature of solvent interactions for diazocarbonyl compounds. Comparative frequency, integrated intensity and half-width measurements for the diazo band in diazohydrocarbons and diazoketones show that the frequency and intensity values are substantially unaffected on going from apolar solvents to typically polar solvents or those capable of interacting with hydrogen bonds. The intensity changes previously reported appear to correspond only to half-width changes of the band, and they are particularly strong in the case of diazoketones. The possible occurrence of enolic or isodiazo forms seems to be ruled out in the cases considered, both on the basis of the above facts and the ultraviolet behaviour of these substances, the variations observed being through changes in the medium even in the absence of hydrogen atoms capable of transposition. However, an explanation only on the basis of the intervention of intermolecular interactions through hydrogen bonds presents some difficulties, as the variations observed for the intense band around 250 mμ are not of a type normally occurring in these cases. The infrared study has been extended to an examination of the effect of hydroxyl and amino ligands on the carbonyl band of aliphatic and aromatic diazoketones, and the corresponding behaviour of the OH and NH stretching bands of the ligands. In particular it has been observed that there are two bonded-carbonyl bands for singularly low values of the ratio ligand to diazoketones, such as to rule out the occurrence of polymeric associations. These and other facts in the ultraviolet and infrared behaviour are reasonably consistent with the possible intervention of conformational isomeric forms. The relative stability of these forms appears to be particularly sensitive both to intramolecular electronic and field effects and to intermolecular interactions of the carbonyl group, which are likely to modify the molecular charge distribution.</t>
+          <t>Neurites projecting to their target tissues during embryogenesis are subject to many perturbations that could influence their rate of growth. For example, environmental influences such as supply of neurotrophic factor or electrical activity profoundly influence the rate of neuronal protein synthesis. Because accumulation of protein is necessary for outgrowth to proceed normally, a perturbation in protein synthesis could cause a net change in the rate of accumulation of proteins with the result that neurite outgrowth rate increases or decreases. That neurite outgrowth does not normally seem to be subject to such perturbations suggests involvement of a homeostatic system controlling the rate of outgrowth. Consistent with this hypothesis, we show here that the rate of growth of neurites of sympathetic neurons is highly resistant to decreased rates of protein synthesis. Chronic suppression of protein synthesis by 60% had no significant effect on neurite outgrowth over a 2-day period while complete suppression halted it almost immediately. By the 3rd day of exposure, 60% suppression slowed outgrowth. Sustained suppression of protein synthesis rate by 33% had no effect on rate of outgrowth even after 7 days. We show that the ability of the growing neurites to resist protein synthesis suppression appears to be caused, at least in part, by a parallel decrease in the rate of protein degradation. The result of this coupling between degradation and synthesis is that proteins can continue to accumulate even when protein synthesis rate decreases, allowing normal rates of neurite outgrowth.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2010749349</t>
+          <t>https://openalex.org/W2010496679</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/3.27731</t>
+          <t>https://doi.org/10.1093/sf/43.1.18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Schairer (1964)</t>
+          <t>Friedland (1964)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Some opportunities for progress in aircraft performance. iii</t>
+          <t>For a Sociological Concept of Charisma</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>An examination of aerodynamic and propulsion fundamentals shows where research might result in significant progress in aircraft performance. Turbulent skin friction can be reduced by delayed transition, damping, and other forms of boundary-layer control. Separation control by both proper shaping and by boundary-layer control will improve CD at high CL and maximum CL&gt; Research at transonic Mach numbers on two-dimensional airfoils will give higher practical values of MCz,. This leads to lower drag of swept wings at supersonic speeds. Lift and propulsion by yawed propellers and helicopter rotors show untapped performance potential. The propulsive efficiency of ducted fans can be improved. Design point gas generator performance is subject to much improvement from higher temperatures, higher pressures, regeneration, and reheat. Variable airflow compressors, fans, and turbines will provide large improvements at off-design conditions. Aircraft requiring V/STOL or low-altitude cruise, or supersonic cruise, or high speed at sea level will benefit from multiple design point engines. Current powered lift schemes for V/STOL can be improved in transition. Ground effects have much room for improvement. In conclusion, large improvements in ceiling, speed, range, low speed, endurance, low-altitude performance, and supersonic range are possible.</t>
+          <t>Weber's concept of charisma has not been empirically useful to sociology even tiough it has influenced sociological thinking considerably. reason is that Weber dealt with charisma more as psychological than social phenomenon. concept can be useful, however, in the analysis of social change if the focus of attention is concentrated on the social context within which charisma develops rather than on charisma or charismatics. Utilizing the example of modern African leadership in Tanganyika, charisma appears in situations where (a) leaders formulate inchoate sentiments deeply held by masses; (b) the expression of such sentiments is seen as hazardous; (c) success-as definied by the relevant social groups-is registered. he enormous interest of sociologists * in the work of Max Weber is indicated by the popularity of his books and by the many articles dealing with Weber in recent times.1 What has probably been most significant in Weber's work has been his typology of authority and, of the three types of authority, the bureaucratic-legal has had the most influence on present-day sociology. literature of recent years is replete with articles dealing with bureaucracy, miiost of whicl acknowledge some debt to Weber. However, Weber's two other types of authority-the traditional anid the cliarismatichave been almost totally ignored by sociologists in empirical research. Traditional authority lhas been bypassed largely because it has fallen within the purview of anthropology. Although this is an accident of intellectual history, sociologists have concentrated their energies on moderln societies ancd had little involvemiient witlh traditional societies and traditional autlhority. Chlarisma, to paraplhrase Mark Twain, is stubject about whiclh miiuch has been said but little dcone. In spite of Parsonis' contention that Chalrisma is not mietaphysical entity but strictly empirical observable quality of men and thlings in relati.on to lhumiian acts and attitudes,2 remarkably little researchl has been un.de,rtaken to elutcidate thtis ostensibly e';npirical quality.3 This fact is all the more remark* Revision of paper read at the 1962 meeting of the American Sociological Association. Data dealing with Tanganyika were collected uinder Foreign Areas Training Fellowship of the Ford Foundation during 1959-1960. This paper has benefited from critical readings of earlier drafts by William G. Rothstein and Neil H. Cheek, Jr. I Substantial interest in Weber began in the United States with an introduction to his worlc by Talcott Parsons in Structure of Social Action (Glencoe: Free Press, 1949), Chapters 14-17, the first edition of which was published in 1937. This was followed by Hans H. Gerth and C. Wright Mills, From Max Weber: Essays in Sociology (New York: Oxford University Press, 1946); and Max Weber, Theory of Social and Eco?omic Orgarnizatioib (Glencoe: Free Press, 1947), translated by A. M. Henderson and Talcott Parsons. After this came veritable flood of Weberian writing and commentary. Reinhard Bendix, Max Weber: An Intellecthal Portrait (Garden City: Doubleday and Co., 1960), presents an excellent summary of Weber's ideas. 2 Structutre . . . , op. cit., pp. 668-669. 3 One needs only to examine the literature to note the dearth of empirical research on For example, the Index to the Amcericant Sociological Reziew contains no category for charisma. A search of various indices and journals reveals, indeed, that charisma has been utilized more by political scientists than sociologists. Cf., Carl J. Friedrich, Leadership and the Problem of Power, Journal of Politics, 23 (February 1961), pp. 3-24; James C. Davies, This content downloaded from 157.55.39.147 on Wed, 21 Sep 2016 05:35:37 UTC All use subject to http://about.jstor.org/terms CONCEPT OF CHARISMA 19 able when one considers the empphasis placed on the concept by Weber's translators and cominentators.4 dearth of empirical studies by sociologists can be explained, this writer believes, by the manlner in which Weber and his successors dealt with the concept. While Weber clearly indicated social dimension to charisma, he also stressed charisma as psychological attribute of person. Weber's successors have lhad similarly divided orientationls toward charisma but emphasis has been, on the whole, on the idea of an individual commanding certain gifts. Sociologists have been unable to come to grips empirically with the concept because, while charisma has been interesting, as presently developed, it lies outside the purview of disciplinary interests. This paper seeks to examine charisma and clarify the psychological preoccupations of the concept and attempts to refocus the concept in terms relevant to sociological interests. In so doing, it will be shown that Weber dealt, at least to some extent, with sociological components of charisma but that his concerns were mainly psychological. An empirical case-social change in Tanganyika-will be utilized to indicate how the concept may be dealt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2012703761</t>
+          <t>https://openalex.org/W2012972710</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0001-6160(64)90179-8</t>
+          <t>https://doi.org/10.1063/1.1713831</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kelly (1964)</t>
+          <t>Tiller &amp; Sekerka (1964)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Theory of diffusion for discrete media—part I simple one-dimensional motion</t>
+          <t>Redistribution of Solute During Phase Transformations</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Although diffusive motion in discrete media such as crystalline solids is generally treated as if the media were continuous, problems frequently arise where it would be advantageous to have access to, a species of diffusion theory valid specifically for discrete media. Examples include studies of diffusion or heat conduction on an atomic scale, and also studies where diffusion or heat conduction on any scale are treated by numerical or analog procedures. It is shown in the present work that diffusion theory for discrete media is actually fairly easy to set up. In the particular case of simple one-dimensional motion, it turns out that the governing equation is dMrdt = −kMr + (k2)(Mk−1 + Mr+1), where Mr is concentration, r is position and k is the diffusion rate constant. One group of solutions involves terms of the type Ame−ktIr+m(r), where the method of images can be used to evaluate the constant Am. The other group of solutions involves term with separated variables, exp[−(1− cos am)kt]{Amsinamτ + Bmcosamτ}, where the various constants can be evaluated by considering the boundary conditions and by making use of the orthogonality of certain sums. If the diffusion theories for discrete and continuous media are compared, it is found that the theories agree well (as one would expect) whenever the diffusing material makes many more jumps than are required for the distance travelled. Conversely, the theories diverge when the number of jumps is comparable to the distance travelled, or, alternatively, when the diffusion occurs on an atomic scale. Malgré que le problème du mouvement par diffusion dans les milieux discrets tels que les solides cristallins, est généralement traité comme si les milieux étaient continus, des problèmes apparaissent fréquemment où i serait avantageux de disposer d'une espèce de théorie de diffusion valable spécifiquement pour les milieux discrets. Les exemples comportent notamment les études de diffusion ou de conduction de chaleur sur une échelle atomique et aussi des études où la diffusion ou la conduction de chaleur à toute échelle sont traitées par des procédés numériques ou analogues. L'auteur montre dans le présent travail que la théorie de diffusion dans les milieux discrets peut, en fait, être établie relativement aisément. Dans le cas particulier du mouvement simple à une dimension, il s'avère que l'équation de base est dMrdt = −k Mr + (k2)(Mr−1 + Mr+1) où Mr est la concentration, τ la position et κ la constante de la vitesse de diffusion. Un groupe de solutions comporte des termes du type Ame−κtIτ+m(κt), où la méthode des images peut être utilisée pour évaluer la constante Am. L'autre groupe de solutions comporte des termes avec des variables séparées, [ex−(1− cosam)κt]{Amsinamτ + Bmcosamτ} où les diverses constantes peuvent être évaluées en considérant les conditions de limite et en faisant usage de l'orthogonalité de certaines sommes. Si l'on compare les théories pour les milieux discrets et continus, on trouve que les théories s'accordent bien (comme on pourrait s'y attendre) chaque fois que l'espèce qui diffuse effectue beaucoup plus de sauts qu'il n'est nécessaire pour la distance parcourue. Réciproquement, les théories divergent quand le nombre de sauts est comparable à la distance parcourue, ou alternativement, quand la diffusion a lieu à une échelle atomique. Diffusionsbewegungen in diskreten Medien wie etwa kristallinen Festkörpern werden im allgemeinen behandelt, als ob das Medium ein Kontinuum wäre. Häufig treten jedoch Probleme auf, bei denen eine speziell für diskrete Medien gültige Formulierung der Diffusionstheorie von Vorteil wäre. Beispiele dafür umfassen Studien über Diffusion oder Wärmeleitung in atomarem Maβstab oder Studien, wo Diffusion oder Wärmeleitung in beliebigem Maβstab mit numerischen oder Analog-Methoden behandelt wird. Die vorliegende Arbeit zeigt, daβ die Diffusionstheorie diskreter Medien einigermaβen leicht aufzustellen ist. Im Sonderfall einfacher eindimensionaler Bewegung lautet die Bestimmungsgleichung d Mτdt = −κMτ+(κ2)(Mτ−1+ Mτ+1), wo Mτ die Konzentration, τ den Ort und κ die Diffusionskonstante bedeuten. Eine Gruppe von Lösungen enthält Terme der Art Ame−κtIτ+m(κt), wo die Konstante Am mit Hilfe von Spiegelungslösungen bestimmt werden kann. Die andere Gruppe von Lösungen enthält Terme mit separierten Variablen, exp[−(1− cosam)κt]{Amsinamτ + Bmcosamτ}; die verschiedenen Konstanten können auf Grund der Randbedingungen und unter Benutzung der Orthogonalität gewisser Summen bestimmt werden. Ein Vergleich der Diffusionstheorien für diskrete und kontinuierliche Medien zeigt erwartungsgemäβ gute Übereinstimmung, wenn die diffundierende Partikel wesentlich mehr Platzwechsel macht als für die zurückgelegte Entfernung notwendig ist. Umgekehrt unterscheiden sich die Theorien, wenn die Zahl der Platzwechsel mit der zurückgelegten Entfernung vergleichbar ist oder aber wenn die Diffusion in atomarem Maβstab verläuft.</t>
+          <t>The redistribution of solute during phase transformations where solute partitioning occurs at the two-phase interface has been mathematically treated for (i) the special case of equal diffusion rate in both the liquid and solid and (ii) diffusion only in the liquid under the additional force of a constant electric field. This one-dimensional analysis shows that (i) diffusion in the solid has a small effect on the grown-in solute distribution for k0&amp;amp;lt;1 but an appreciable effect for k0&amp;amp;gt;1 and (ii) the presence of an electric field can significantly alter the grown-in solute distribution. Further, one can deduce from the latter analysis a new experimental method for determining the effective ionic mobility of the solute species in the liquid phase.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018686268</t>
+          <t>https://openalex.org/W2013776636</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/626965</t>
+          <t>https://doi.org/10.1051/lhb/1964045</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Logan et al. (1964)</t>
+          <t>Browzin (1964)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Classification and Environmental Significance of Algal Stromatolites</t>
+          <t>Nouvelle méthode d'application de quelques fonctions de la variable complexe aux calculs des sous-pressions agissant sous les ouvrages de retenue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Stromatolites are laminated structures that have been previously termed fossil algae. It is now recognized that such structures may be formed by a number of different processes and organisms. Recognizable algal stromatolites are more validly treated as organosedimentary structures than fossil organisms. This paper proposes a new classification of algal stromatolite structures based upon their geometric forms and relates these forms to their sites of growth relative to sea-level environments. The classification uses the arrangement of the basic geometric units (hemispheroids and spheroids) from which common stromatolites and oncolites are built. Three main arrangements of these geometric structures occur in Recent algal stromatolites and oncolites; (1) laterally linked hemispheroids (LLH), (2) discrete, vertically stacked hemispheroids (SH), and (3) discrete spheroids-either as randomly stacked hemispheroids or concentrically arranged spheroids (SS). The abbreviations are used to designate the various structures conveniently. Since certain restricted environments are associated with modern stromatolites, ancient environments may be interpreted by recognition of fossil stromatolite forms. For example, protected intertidal mud flats, where wave action is slight, may be inferred by the presence of type-LLH stromatolites (Collenia). Exposed, intertidal mud flats, where scouring action of waves and other interacting factors prevent growth of algal mats between stromatolites, are inferred by the presence of type-SH structures (Cryptozoon). Low intertidal areas that are exposed to waves and agitated shallow water below low-water mark are inferred by the presence of type-SS structures (oncolites). In addition, the arrangement of laminae in these structures reflects frequency of movement, frequent motion resulting in concentrically arranged spheroids and occasional motion in randomly stacked hemispheroids.</t>
+          <t>The integral of Schwarz and Christoffer is used to find the complex variable function which transforms the positive half plane into a polygon with one point located in the infinity. The polygon represents the field of flow under a dam with one non-symmetrical cutoff built on an infinitely deep layer of pervious soil. The half plane represents a field of flow in similar conditions but without cutoff. By regrouping the members of the transforming function, the polygon can be transformed into a half plane with the dam located non-symmetrically about the origin of coordinates. A second transformation brings it to a symmetrical position. Since the solution for a symmetrical dam without cutoff is known, this solution can be used for the case of flow under a dam with cutoff by calculating conjugated points by use of the transforming formula. This method is due to Pavlovsldi and is exposed in his treaty of 1922 (5, 11). The two transformations, the first, from the cutoff case to a non- symmetrical dam and the second, to a similar symmetrical dam can easily be made for the bottom line of the dam by calculation as well as by a simple graphical procedure. The new application of Pavlovskii method, which is due to Firchakoy, consists of the use of the transfoming function, derived for a simple cutler case, for the analysis of multi-cutoff dams and of dams with the base located Mellow the ground line, i.e., of dams with any arbitrary shape of the underground profile inc1uding an impervious layer located at a given depth. The underground profile is first divided into several sections, each containing one cutler and a common point with adjacent sections. The conform transformation of each section is made separately. Special monographs may he used. However, the writer found it more practical to use the commonly available tables of hyperbolic functions and that of elliptical integrals, which he illustrates by numerical examples. The accuracy of the new method in calculating the uplift acting in particular points of the dam foundation profile is in general greater than 2 to 3 per cent; only in single points, for example, in re-entrant angles it decreases to 5 per cent, hut the accuracy in calculating the total up lift must he estimated as insuring an accuracy of a least 3 per cent. The numerical values of the uplift calculated in various points of the dam can serve as departing points for the construction of the flow net. However, the flow net is of relatively minor interest when the uplift is already calculated. The gradient of escaping velocities can also he determined from the calculations provided by the method.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2023548585</t>
+          <t>https://openalex.org/W2020095570</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1726369</t>
+          <t>https://doi.org/10.1117/12.7971273</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fulton (1964)</t>
+          <t>Thomas (1964)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>On Spin Relaxation</t>
+          <t>A Proposed Codification for Photo-optical Instrumentation</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A rigorous formulation of spin relaxation which allows physical insight into the nature of the relaxation process, allows higher-order approximations than hitherto made to be easily formulated and which gives a starting point for a discussion of long correlation times is given. Two approximations are considered in turn, both based on the shortness of the correlation time for the heat bath. One is shown to lead to the usual density matrix formulation, the other to the method of Argyres and Kelley. The explicit solutions of the resulting equations are found in the case of a constant magnetic field plus a perpendicular rotating field when the heat bath displays two-dimensional rotational symmetry. The differences between the two approximations are noted, giving a limit on the validity of both. The effect of initial correlation between the heat bath and spin is incorporated into the theory.</t>
+          <t>Jean St. Thomas and I had a very gratifying working association for more than two years during the mid-fifties. St. Thomas was obsessed with the desire to do something about the problem of codification. It was apparent that he had a keen insight into the re-quirement and the problem. He made serious attempts to verbalize the nature and the scope of the problem in various papers. St. Thomas reflected later that his early proposals were "premature, incomplete, and unsuitable for indexing." This statement of construc-tive self-criticism was presented by a man who is earnestly involved with an unquenchable desire for a workable solution. St. Thomas probed, discussed, revised, re-considered and has currently presented a base from which a system of codification can now be initiated. I was requested by the Society of Photographic Instrumentation Engineers to review and introduce the revised work and to add my endorsement. I am delighted to comply: The codification of Photo-Optical Instrumentation Engineering under the Dewey Decimal System, as proposed by St. Thomas, is the result of the analysis and selection of a currently recognized classification system to serve as the structure from which an immediate and workable solution to the indexing of "hardware" can be accomplished for the systematic storage and retrieval of information. The practical experiences gained from other serious attempts to codify the field has been considered in the St. Thomas proposal. The accelerated growth of technological knowledge is creating an ever increasing demand for the service of storing and retrieving PhotoOptical Instrumentation information. It is recommended that the proposal receive the immediate attention of the responsible parties who are in the authorized position to initiate and execute a plan of action.</t>
         </is>
       </c>
     </row>
@@ -1437,5624 +1444,5587 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2036731752</t>
+          <t>https://openalex.org/W2029056003</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7326/0003-4819-60-4-587</t>
+          <t>https://doi.org/10.1111/j.1540-6261.1964.tb02865.x</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O’Connor (1964)</t>
+          <t>Sharpe (1964)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>An Evaluation of the Effectiveness of Psychotherapy in the Treatment of Ulcerative Colitis</t>
+          <t>CAPITAL ASSET PRICES: A THEORY OF MARKET EQUILIBRIUM UNDER CONDITIONS OF RISK*</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Article1 April 1964An Evaluation of the Effectiveness of Psychotherapy in the Treatment of Ulcerative ColitisJOHN F. O'CONNOR, M.D., GEORGE DANIELS, M.D., CHARLES FLOOD, M.D., AARON KARUSH, M.D., LEON MOSES, M.D., LENORE O. STERNJOHN F. O'CONNOR, M.D.Search for more papers by this author, GEORGE DANIELS, M.D.Search for more papers by this author, CHARLES FLOOD, M.D.Search for more papers by this author, AARON KARUSH, M.D.Search for more papers by this author, LEON MOSES, M.D.Search for more papers by this author, LENORE O. STERNSearch for more papers by this authorAuthor, Article, and Disclosure Informationhttps://doi.org/10.7326/0003-4819-60-4-587 SectionsAboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinkedInRedditEmail ExcerptUlcerative colitis is a chronic, non-specific disease characterized by inflammation and ulceration of the colon and accompanied by systemic manifestations. Its course is marked by remissions and exacerbations; its etiology has been variously attributed to allergic, genetic, infectious, psychological and vascular causes (1-5). Psychological factors seem to play a particularly important role in both the onset of the individual exacerbation and in determining the patient's response to, and handling of, this illness.Ulcerative colitis is frequently associated with other systemic processes such as arthritis and skin disease (6-11). The clinical picture varies with the acuteness of the process, and prognosis...References1. ENGEL GL: Biologic and psychologic features of the ulcerative colitis patient. Gastroenterology 40: 313, 1961. CrossrefMedlineGoogle Scholar2. KRAFTBREGMANKIRSNER SCEJB: Criteria for evaluating autoimmune phenomena in ulcerative colitis. Gastroenterology 43: 330, 1962. CrossrefMedlineGoogle Scholar3. PALUMBOBURNSIDEMOSSHOLDERJENSEN LTRIB: Ulcerative colitis. Amer. J. Nurs. 55: 311, 1955. MedlineGoogle Scholar4. TEXTOR EC: Natural history of ulcerative colitis. J. Chronic Dis. 5: 347, 1957. CrossrefMedlineGoogle Scholar5. WARRENBECK IAJE: The etiology of chronic ulcerative colitis: a critical review. Gastroenterology 33: 395, 1957. CrossrefMedlineGoogle Scholar6. BONERUFFINBAYLINCASSEL FCJMGJC: The clinical course of idiopathic ulcerative colitis. Southern. Med. J. 43: 817, 1950. CrossrefGoogle Scholar7. BROWNKASHICHWEINGARTEN MLAMB: Complications of chronic ulcerative colitis. Amer. J. Dig. Dis. 18: 52, 1951. CrossrefMedlineGoogle Scholar8. HURST AF: Ulcerative colitis. Guy Hosp. Rep. 85: 317, 1935. Google Scholar9. KIRSNERPALMERMAIMONRICKETTS JBWLSNWE: The clinical course of chronic non-specific ulcerative colitis. JAMA 137: 922, 1948. CrossrefMedlineGoogle Scholar10. KIRSNERPALMER JBWL: Ulcerative colitis: consideration of its etiology and treatment. JAMA 155: 341, 1954. CrossrefMedlineGoogle Scholar11. SAMITZGREENBERG MHMS: Skin lesions in association with ulcerative colitis. Gastroenterology 19: 476, 1951. CrossrefMedlineGoogle Scholar12. BARGEN JA, Chronic Ulcerative Colitis, Charles C Thomas, Springfield, Illinois, 1951. Google Scholar13. CROHNROSENBERG BBH: The sigmoidoscopic picture of chronic ulcerative colitis (non-specific). Amer. J. Med. Sci. 170: 220, 1925. CrossrefGoogle Scholar14. HARDYBULMER TLE: Ulcerative colitis: a survey of 95 cases. Brit. Med. J. 2: 812, 1933. CrossrefMedlineGoogle Scholar15. HERN JR: Ulcerative colitis. Guy Hosp. Rep. 11: 322, 1931. Google Scholar16. HURST AF: Prognosis of ulcerative colitis. Lancet 2: 1194, 1935. CrossrefGoogle Scholar17. KIEFER ED: Clinical results in the medical treatment of chronic ulcerative colitis. Amer. J. Dig. Dis. 3: 56, 1936. CrossrefGoogle Scholar18. CUSHING MW: The psychoanalytic treatment of a man suffering with ulcerative colitis. J. Amer. Psychoanal. Ass. 1: 510, 1953. CrossrefMedlineGoogle Scholar19. DANIELS GE: Report of a case of ulcerative colitis associated with hysterical depression. Psychosom. Med. 2: 276, 1940. CrossrefGoogle Scholar20. KARUSHDANIELS AG: Ulcerative colitis, psychoanalyses of 2 cases. Psychosom. Med. 15: 140, 1953. CrossrefGoogle Scholar21. SPERLING M: The psychoanalytic treatment of ulcerative colitis. Int. J. Psychoanal. 38: 341, 1957. MedlineGoogle Scholar22. ENGEL GL: Studies of ulcerative colitis. I. Clinical data bearing on the nature of the somatic process. Psychosom. M. 16: 496, 1954. CrossrefMedlineGoogle Scholar23. ENGEL GL: Studies of ulcerative colitis. II. The nature of the somatic process and the adequacy of psychosomatic hypotheses. Amer. J. Med. 16: 416, 1954. CrossrefMedlineGoogle Scholar24. ENGEL GL: Studies of ulcerative colitis. III. The nature of the psychologic process. Amer. J. Med. 19: 231, 1955. CrossrefMedlineGoogle Scholar25. ENGEL GL: Studies of ulcerative colitis. IV. The significance of headaches. Psychosom. M. 18: 334, 1956. CrossrefMedlineGoogle Scholar26. ENGEL GL: Studies of ulcerative colitis. V. Psychological aspects and their implications for treatment. Amer. J. Dig. Dis. 3: 315, 1958. Crossr</t>
+          <t>One of the problems which has plagued those attempting to predict the behavior of capital markets is the absence of a body of positive microeconomic theory dealing with conditions of risk. Although many useful insights can be obtained from the traditional models of investment under conditions of certainty, the pervasive influence of risk in financial transactions has forced those working in this area to adopt models of price behavior which are little more than assertions. A typical classroom explanation of the determination of capital asset prices, for example, usually begins with a careful and relatively rigorous description of the process through which individual preferences and physical relationships interact to determine an equilibrium pure interest rate. This is generally followed by the assertion that somehow a market risk-premium is also determined, with the prices of assets adjusting accordingly to account for differences in their risk. A useful representation of the view of the capital market implied in such discussions is illustrated in Figure 1. In equilibrium, capital asset prices have adjusted so that the investor, if he follows rational procedures (primarily diversification), is able to attain any desired point along a capital market line.11 Although some discussions are also consistent with a non-linear (but monotonic) curve. He may obtain a higher expected rate of return on his holdings only by incurring additional risk. In effect, the market presents him with two prices: the price of time, or the pure interest rate (shown by the intersection of the line with the horizontal axis) and the price of risk, the additional expected return per unit of risk borne (the reciprocal of the slope of the line). At present there is no theory describing the manner in which the price of risk results from the basic influences of investor preferences, the physical attributes of capital assets, etc. Moreover, lacking such a theory, it is difficult to give any real meaning to the relationship between the price of a single asset and its risk. Through diversification, some of the risk inherent in an asset can be avoided so that its total risk is obviously not the relevant influence on its price; unfortunately little has been said concerning the particular risk component which is relevant. In the last ten years a number of economists have developed normative models dealing with asset choice under conditions of risk. Markowltz,22 Harry M. Markowitz, Portfolio Selection, Efficient Diversification of Investments (New York: John Wiley and Sons, Inc., 1959). The major elements of the theory first appeared in his article “Portfolio Selection,” The Journal of Finance, XII (March 1952), 77–91. following Von Neumann and Morgenstern, developed an analysis based on the expected utility maxim and proposed a general solution for the portfolio selection problem. Tobin33 James Tobin, “Liquidity Preference as Behavior Towards Risk,” The Review of Economic Studies, XXV (February, 1958), 65–86. showed that under certain conditions Markowitz's model implies that the process of investment choice can be broken down into two phases: first, the choice of a unique optimum combination of risky assets; and second, a separate choice concerning the allocation of funds between such a combination and a single riskless asset. Recently, Hicks44 John R. Hicks, “Liquidity,” The Economic Journal, LXXII (December, 1962), 787–802. has used a model similar to that proposed by Tobin to derive corresponding conclusions about individual investor behavior, dealing somewhat more explicitly with the nature of the conditions under which the process of investment choice can be dichotomized. An even more detailed discussion of this process, including a rigorous proof in the context of a choice among lotteries has been presented by Gordon and Gangolli.55 M. J. Gordon and Ramesh Gangolli, “Choice Among and Scale of Play on Lottery Type Alternatives,” College of Business Administration, University of Rochester, 1962. For another discussion of this relationship see W. F. Sharpe, “A Simplified Model for Portfolio Analysis,” Management Science, Vol. 9, No. 2 (January 1963), 277–293. A related discussion can be found in F. Modigliani and M. H. Miller, “The Cost of Capital, Corporation Finance, and the Theory of Investment,” The American Economic Review, XLVIII (June 1958), 261–297. Although all the authors cited use virtually the same model of investor behavior,66 Recently Hirshleifer has suggested that the mean-variance approach used in the articles cited is best regarded as a special case of a more general formulation due to Arrow. See Hirshleifer's “Investment Decision Under Uncertainty,” Papers and Proceedings of the Seventy-Sixth Annual Meeting of the American Economic Association, Dec. 1963, or Arrow's “Le Role des Valeurs Boursieres pour la Repartition la Meilleure des Risques,” International Colloquium on Econometrics, 1952. none has yet attempted to extend it</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2037346601</t>
+          <t>https://openalex.org/W2037477138</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0926-6542(64)90001-0</t>
+          <t>https://doi.org/10.1086/349863</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Condrea et al. (1964)</t>
+          <t>Carozzi (1964)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Susceptibility of erythrocytes of various animal species to the hemolytic and phospholipid splitting action of snake venom</t>
+          <t>Lamarck's Theory of the Earth: Hydrogeologie</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A parallelism was found between hemolysis and erythrocyte phospholipid splitting induced by the action of cobra venom on washed erythrocytes of various species: guinea-pig, dog, human, rabbit. No significant phospholipid splitting was produced by cobra venom in camel and sheep erythrocytes, which are resistant to the hemolytic action of the venom. Isolated cobra venom phospholipase A (phosphatide acylhydrolase, EC 3.1.1.4) had no or slight hemolytic and phospholipid splitting action on the various erythrocytes, including those of the guinea-pig and dog, which are the most sensitive to the action of the whole venom. The different sensitivity of the various erythrocytes to the cobra venom is a reflection of their susceptibility to the action of venom direct lytic factor, a basic protein, which has hemolytic but no phospholipase activity. Isolated cobra venom phospholipase readily hydrolyzed the phospholipids of osmotic ghosts derived from both sensitive and resistant erythrocytes. Vipera palestinae venom which did not lyse the erythrocytes of any of the species tested, was also unable to hydrolyse the phospholipids in their osmotic ghosts. Cobra-venom direct lytic factor rendered the phospholipids of osmotic ghosts derived from sensitive erythrocytes available to the action of V. palestinae venom, but was not able to do so in the case of osmotic ghosts derived from resistant erythrocytes.</t>
+          <t>Previous articleNext article No AccessLamarck's Theory of the Earth: HydrogeologieAlbert V. CarozziAlbert V. Carozzi Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Isis Volume 55, Number 3Sep., 1964 Publication of the History of Science Society Article DOIhttps://doi.org/10.1086/349863 Views: 20Total views on this site Citations: 10Citations are reported from Crossref Copyright 1964 History of Science Society, Inc.PDF download Crossref reports the following articles citing this article:Agnes Kneitz Quantifying Ocean Currents as Story Models: Global Oceanic Currents and Their Introduction to Global Navigation, (Dec 2017): 219–238.https://doi.org/10.1007/978-981-10-4053-5_10 Bibliography, (Oct 2017): 744–842.https://doi.org/10.1002/9781405166201.biblioJONATHAN D. OLDFIELD, DENIS J.B. SHAW V.I. Vernadskii and the development of biogeochemical understandings of the biosphere, c. 1880s–1968, The British Journal for the History of Science 46, no.22 (Mar 2012): 287–310.https://doi.org/10.1017/S0007087412000015Guido Giglioni Jean-Baptiste Lamarck and the Place of Irritability in the History of Life and Death, (Apr 2013): 19–49.https://doi.org/10.1007/978-94-007-2445-7_2Frank N. Egerton History of Ecological Sciences, Part 34: A Changing Economy of Nature, Bulletin of the Ecological Society of America 91, no.11 (Jan 2010): 21–41.https://doi.org/10.1890/0012-9623-91.1.21Snait Gissis Interactions Between Social and Biological Thinking: The Case of Lamarck, Perspectives on Science 17, no.33 (Oct 2009): 237–306.https://doi.org/10.1162/posc.2009.17.3.237David Oldroyd Lamarck, Jean‐Baptiste Pierre Antoine de Monet de, (Apr 2001).https://doi.org/10.1038/npg.els.0002468Ernst Mayr Lamarck revisited, Journal of the History of Biology 5, no.11 (Mar 1972): 55–94.https://doi.org/10.1007/BF02113486Robert P. Multhauf, Bernard S. Finn, Aleida V. H. Cattell, Gertrude B. Calvert, and Diana D. Menkes Ninetieth Critical Bibliography of the History of Science and Its Cultural Influences (To 1 January 1965), Isis 56, no.44 (Oct 2015): 490–657.https://doi.org/10.1086/350074 H. A. M. Snelders , and Albert V. Carozzi Lamarck's Theory of the Earth: Comments, Isis 56, no.33 (Oct 2015): 356–357.https://doi.org/10.1086/350007</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2051142384</t>
+          <t>https://openalex.org/W2038358970</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrev.133.a719</t>
+          <t>https://doi.org/10.1139/v64-284</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hake &amp; Brammer (1964)</t>
+          <t>McBryde (1964)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>High-Magnetic-Field Specific Heat of a Low-Dislocation-Density Alloy Superconductor</t>
+          <t>A SPECTROPHOTOMETRIC REEXAMINATION OF THE SPECTRA AND STABILITIES OF THE IRON (III) – TIRON COMPLEXES</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The Specific heat $C$ of a well-annealed alloy V-5 at.% Ta, measured at $1.4\ensuremath{\le}T\ensuremath{\le}5$ \ifmmode^\circ\else\textdegree\fi{}K in steady magnetic fields, displays sharp, bulk, superconducting transitions at upper critical fields ${H}_{c2}$ a factor $\ensuremath{\approx}10$ larger than the calorimetrically derived thermodynamic critical fields ${H}_{c}$. The transitions are similar to those observed earlier by Morin ${\mathit{et}\mathit{al}.}^{1}$ in ${\mathrm{V}}_{3}$Ga, but in the present case it is unlikely that the bulk nature of the high-field transitions can be attributed to a nearly complete occupation of the specimen volume by dislocation-centered high-field superconducting filaments of diameter comparable to the penetration depth, since electron transmission microscopy studies on an identically prepared specimen indicate that in at least 95% of the specimen volume the mean separation between dislocations is greater than 1.4\ifmmode\times\else\texttimes\fi{}${10}^{\ensuremath{-}4}$ cm. However, the present data are explicable on the basis of the Ginzburg-Landau-Abrikosov-Gor'kov theory with a parameter $\ensuremath{\kappa}\ensuremath{\approx}\frac{{H}_{c2}}{\sqrt{2}{H}_{c}}\ensuremath{\approx}7$. The transition specific heat jumps $\frac{\ensuremath{\Delta}C({T}_{s})}{\ensuremath{\gamma}{T}_{s}}=1.44,1.15,1.10,0.94$ occur at ${T}_{s}=4.30,4.09,3.85,3.37$ \ifmmode^\circ\else\textdegree\fi{}K in fields $H=0,1,2,4$ kG, respectively, where $\ensuremath{\gamma}\ensuremath{\equiv}$ normal state electronic specific heat coefficient = 9.20 mJ/mole ${(\mathrm{K}\mathrm{\ifmmode^\circ\else\textdegree\fi{}})}^{2}$. The $\ensuremath{\Delta}C({T}_{s})$ values are in fair agreement with those calculated via Ehrenfest's equation for second-order phase transitions using Abrikosov's theoretical value of ${(\frac{\ensuremath{\partial}I}{\ensuremath{\partial}H})}_{T}$ at ${T}_{s}$ for $\ensuremath{\kappa}=7$, where $I\ensuremath{\equiv}$ magnetization. For $(\frac{{T}_{s}}{T})\ensuremath{\ge}1.8$, $\frac{{C}_{\mathrm{es}}}{\ensuremath{\gamma}{T}_{s}}=a \mathrm{exp}(\ensuremath{-}\frac{b{T}_{s}}{T})$ with $a=8.95,6.24,5.01,4.7;b=1.48,1.28,1.17,1.1$; for $H=0,1,2,4$ kG, respectively, where ${C}_{\mathrm{es}}$ is the electronic contribution to the specific heat. The exponential temperature dependence of ${C}_{\mathrm{es}}$ down to 1.4\ifmmode^\circ\else\textdegree\fi{}K suggests an essentially everywhere finite, field-dependent, high-field energy gap in accord with Abrikosov's vortex model.</t>
+          <t>Variations in the spectra of the aqueous solutions of the iron (III) – sodium catechol disulphonate (Tiron) complexes may be interpreted in relation to pH of the solutions to show which complexes are present at any chosen pH. With this knowledge it is possible in this system to evaluate equilibrium constants for the formation of each complex in turn. Combining these with separately determined acidity constants for Tiron, the stability constants of the complexes may be calculated. These have been determined for background solutions of potassium nitrate or sodium perchlorate each at three different concentrations, and for three different ratios of reagent to metal. Averages of a number of determinations made under these conditions are given in Table III of the paper. The constant K 1 in perchlorate media shows an unmistakable dependence suggestive of the existence of a protonated species at low pH as well as the simple complex ML. However, there is some ambiguity in the interpretation of the results so that the exact nature of the protonated complex cannot be decided.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2053350890</t>
+          <t>https://openalex.org/W2051933990</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7326/0003-4819-61-3-498</t>
+          <t>https://doi.org/10.1086/109378</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fenster et al. (1964)</t>
+          <t>Seitter (1964)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Studies of Pancreatic Function in Sjögren's Syndrome</t>
+          <t>Atlas for Objective Prism Spectra and Information Obtainable from Low-Dispersion Spectrograms of Nova Herculis 1963.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Article1 September 1964Studies of Pancreatic Function in Sjögren's SyndromeL. FREDERICK FENSTER, M.D., W. WATSON BUCHANAN, M.D., LEONARD LASTER, M.D., JOSEPH J. BUNIM, M.D., F.A.C.P.L. FREDERICK FENSTER, M.D.Search for more papers by this author, W. WATSON BUCHANAN, M.D.Search for more papers by this author, LEONARD LASTER, M.D.Search for more papers by this author, JOSEPH J. BUNIM, M.D., F.A.C.P.Search for more papers by this authorAuthor, Article, and Disclosure Informationhttps://doi.org/10.7326/0003-4819-61-3-498 SectionsAboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinkedInRedditEmail ExcerptINTRODUCTIONSjögren's syndrome is a chronic, benign, systemic disorder of unknown etiology, involving principally the lacrimal and salivary glands and occasionally other mucus-secreting glands such as the buccal, esophageal, and bronchial mucous glands (1). In about one half of the cases it is associated with rheumatoid arthritis and less frequently with systemic lupus erythematosus, progressive systemic sclerosis (scleroderma), and myopathy or polymyositis (1). The histopathology of this disorder consists of infiltration of the secretory parenchyma of the salivary and lacrimal glands by lymphocytes and plasma cells, atrophy of acinar tissue, and proliferation of ductal epithelial cells (2). These changes give...References1. BUNIM JJ: Heberden oration: a broader spectrum of Sjögren's syndrome and its pathogenetic implications. Ann. Rheum. Dis. 20: 1, 1961. CrossrefMedlineGoogle Scholar2. MORGANCASTLEMAN WSB: Clinicopathologic study of "Mikulicz's disease." Amer. J. Path. 29: 471, 1953. MedlineGoogle Scholar3. CARDELLGURLING BSKJ: Observations on the pathology of Sjögren's syndrome. J. Path. Bact. 68: 137, 1954. CrossrefMedlineGoogle Scholar4. BLOCHBUCHANANWOHLBUNIM KJWWMJJJ: Sjögren's syndrome: a clinical, pathological and serological study of 62 cases. In preparation. Google Scholar5. SUN DC: Normal values for pancreozymin-secretin test. Gastroenterology 44: 602, 1963. CrossrefMedlineGoogle Scholar6. DREILING DA: The technique of the secretin test: normal ranges. J. Mount Sinai Hosp. NY 21: 363, 1955. MedlineGoogle Scholar7. VAN LOONLIKINSSEGER EJMRAJ: Photometric method for blood amylase by use of starch-iodine color. Amer. J. Clin. Path. 22: 1134, 1952. CrossrefMedlineGoogle Scholar8. VAN DE KAMERTEN BOKKEL HUININKWEYERS JHHHA: Rapid method for the determination of fat in feces. J. Biol. Chem. 177: 347, 1949. CrossrefMedlineGoogle Scholar9. Plasma or Serum Vitamin A and Carotene (Carr-Price), in Manual for Nutritional Surveys. The U. S. Interdepartmental Committee on Nutrition for National Defense, May, 1957, pp. 72-74. Google Scholar10. SUNSHAY DCH: Value of combined study of serum enzymes and duodenal contents after secretin in the diagnosis of diseases of the pancreas. Gastroenterology 32: 212, 1957. CrossrefMedlineGoogle Scholar11. GORDONSHANBROM MDE: The systemic manifestations of Sjögren's syndrome: report of glandular function with histologic, bacterial and viral studies. Ann. Intern. Med. 48: 1342, 1958. LinkGoogle Scholar12. CARONELIEBOW FAAA: Acute pancreatic lesions in patients treated with ACTH and adrenal corticoids. New Eng. J. Med. 257: 690, 1957. CrossrefMedlineGoogle Scholar13. PFEFFERHINTON RBJW: Some relationships between adrenal medullary and cortical substances and exocrine function of the pancreas in man. Gastroenterology 31: 746, 1957. CrossrefGoogle Scholar14. DREILINGJANOWITZROLBIN DAHDH: Effect of ACTH and adrenocortical steroids on external pancreatic secretion in man. New Eng. J. Med. 258: 603, 1958. CrossrefMedlineGoogle Scholar15. SIRCUS W: The effect of corticotrophin and corticosteroids on the external secretion of the pancreas in dogs. Gut 2: 338, 1961. CrossrefMedlineGoogle Scholar16. AMROMINDELIMANSHANBROM GDRME: Liver damage after chemotherapy for leukemia and lymphoma. Gastroenterology 42: 401, 1962. CrossrefMedlineGoogle Scholar17. THALMURRAYEGNER APMJW: Isoantibody formation in chronic pancreatic disease. Lancet 1: 1128, 1959. CrossrefMedlineGoogle Scholar18. THALEGNERMURRAY APWMJ: Circulating antibodies in chronic pancreatic disease. Surg. Forum 10: 240, 1959. Google Scholar19. MURRAYTHAL MJAP: The clinical significance of circulating pancreatic antibodies. Ann. Intern. Med. 53: 548, 1960. LinkGoogle Scholar20. METZGAR RS: Immunological studies on the nature of pancreas-specific isoantigens. Fed. Proc. 22: 498, 1963. Google Scholar21. ALLINGTON HV: Dryness of the mouth. Arch. Derm. Syph. (Chicago) 62: 829, 1950. CrossrefGoogle Scholar22. SZANTOFARKASGYULAI LKE: On Sjögren's disease. Rheumatism 13: 60, 1957. MedlineGoogle Scholar23. BUCHERREID UGL: Sjögren's syndrome: report of a fatal case with pulmonary and renal lesions. Brit. J. Dis. Chest 53: 237, 1959. CrossrefMedlineGoogle Scholar24. BAIN GO: The pathology of Mikulicz-Sjögren's disease in relation to disseminated lupus erythematosus: a review of the autopsy findings an</t>
+          <t>The 340/500/ 1375 mm Schmidt telescope of Bonn Observatory is equipped with three objective prisms of dispersions 240, 645, and 1280 A/mm at H Several investigations have shown all dispersions to be useful for work in stellar statistics and on selected objects. To facilitate future investigations with dispersions in that range work was started a year ago on a spectral atlas using the Johnson-Morgan standards as reference stars. Special attention has been givel~ to ultraviolet and infrared criteria. One of the objectives of the atlas is to show the change of criteria with changing dispersions. Examples are given of the appearance of the spectra which are enlarged 18 to 40 fold for the atlas prints. The bright Nova Herculis 1963 may serve as ai~ example of applying the above-mentioned dispersinus to an individual object. Thirty-one spectrograms taken between February and October 1963 allowed following the spectral development of the i~ova. Continuum ii~tensities were determined from microphotometer tracings and the radiation was found to correspond to that of a nebula with Te = 20 0000K and Ne = 5 X 10~ cm-3. Emission line intensities were traced until the disappearance of the features. During the early stages H, 0 1, ai~d N I emissions were quite pronounced. By May the neutral 0 and N lines, except for 0 1 8446, had disappeared. Permitted and forbidden lines of 0 II, O iii, N ii, and N iii were strong from March to July. [Ne IIIJ and [Ne vJ emissions were observed in May and later. In the second half of July, Ha, [0 IIIJ 4363 and [0 iiij 5007 dominated the spectrum. By October, 5007 had increased markedly with respect to 4363. The varying strength of absorption lines could be observed until the end of March. Radial velocity measurements yielded average values of 1000,1400, and 1700 km/sec for different hydrogen absorptions.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2065485554</t>
+          <t>https://openalex.org/W2055003962</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/805-pa</t>
+          <t>https://doi.org/10.1063/1.1713541</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Baumgartner (1964)</t>
+          <t>Soohoo (1964)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Practical Engineering of Corrosion Control</t>
+          <t>Magnetic Transition Layer Spin Configuration</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BAUMGARTNER, A.W., BRADFORD LABORATORIES, PITTSBURGH, PA. MEMBER AIME Abstract A great and wide variety of approaches to corrosion control exists today. This paper presents and discusses the corrosion prevention and protection techniques most frequently used. Material selection, protective coatings, cathodic protection, chemical inhibitors, mechanical handling of produced and injected fluids and other important factors are outlined. Various approaches to corrosion control are discussed from the standpoint of their applicability and limitations in controlling typical corrosion problems encountered in primary and secondary recovery of oil. These data are intended for use as a guide in establishing and achieving effective and economical corrosion control programs. Introduction Practical engineering of corrosion control requires first that the type and nature of the corrosion mechanism be defined. This is best accomplished through a study of the problem by an experienced investigator. Initial definition of the nature of the problem cannot be overemphasized. Analysis of water, the deposit, equipment and other samples by a trained expert is necessary. Following analysis and definition of the problem, corrosion control steps may be outlined and initiated. An evaluation program should be provided to determine the effectiveness of the action taken. Review All corrosion referred to in this paper shall be considered an electrochemical process. Three basic requirements must usually be met before corrosion can occur in any water or oil producing, gathering, or distribution system.An anode (area of positive electrical potential) and a cathode (area of negative electrical potential) must exist.An electrical circuit or couple must be established betweenthe anode and cathode.The anode and cathode must be immersed in a solution thatwill conduct an electric current (electrolyte). Satisfying these criteria will produce corrosion. However, presence of economically significant corrosion is dependent upon the magnitude of the potential difference between the anode and cathode and other factors that represent a resistance or hindrance to corrosion reactions. Briefly, these corrosion reactions occur as follows: metal at the anode loses electrons and enters the electrolyte as positively charged soluble ions. Electrons migrate through the metal to the cathode (current flow is described as being in the opposite direction through the electrolyte). The negatively charged cathode attracts positively charged hydrogen, which arises from the ionization or dissociation of water. At the cathode, hydrogen ions gain an electron and become hydrogen atoms. As a gas, the hydrogen may actually coat the cathode and render it passive (polarization). When corrosion progresses at an economically significant rate some form of cathodic depolarization is active. That is, a reaction occurs to remove the hydrogen which has accumulated at the cathode. Effective cathodic depolarizers may be dissolved oxygen, sulfate-reducing bacteria, in an acid pH the evolution of hydrogen gas itself, or other factors. Corrosion control programs may be aimed in any of the following three major directions.Removal of offensive chemical reactants from the water. In thecase of oxygen, for example, this may be attempted mechanically bypreventing its entrance into the system or by deaeration. Chemicaloxygen scavengers are often applied.Isolation and separation of the systems. Insulated flanges mayenable anodes and cathodes to be separated. Polar film formingchemicals are regularly added to satiate the negatively chargedcathode and insulate or shield the metal from the water. Plasticand cement linings are applied to mechanically isolate the metal(anode and cathode) from the electrolyte. Resistant alloys arealso used.Impression of an electric current to overcome or neutralize thecurrent established between the cathode and anode in the corrosionprocess has had success, while sacrificial anodes have hadwidespread application. Corrosion Control Methods Specific approaches to control of typically encountered problems are discussed in the following section. JPT P. 615ˆ</t>
+          <t>The spin configuration in the transition layer between an antiferromagnet and a ferromagnet is investigated. The calculation is carried out by minimizing the free energy of the system with exchange, anisotropy, magnetostatic, and Zeeman terms. The results of our calculation indicate that a domain wall is formed between the antiferromagnetic and ferromagnetic media. The configuration of the walls, although similar to that in ferromagnets, is more complex and sensitively dependent upon the relative values of the exchange constant and anisotropy for the two media as well as upon the strength and nature of the interaction across the interface. A specific example involving an oxidized ferromagnetic film is given to illustrate the utility of our general result. It is noted that the formation of an antiferromagnetic-ferromagnetic domain wall may influence the magnetization of and surface spin pinning in thin films.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2072629586</t>
+          <t>https://openalex.org/W2067087905</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1726322</t>
+          <t>https://doi.org/10.1029/jz069i023p04923</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Box &amp; Freund (1964)</t>
+          <t>Frank &amp; Allen (1964)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Paramagnetic Absorption of L-Cystine Dihydrochloride Irradiated at Low Temperature</t>
+          <t>Measurements of energetic electrons in the vicinity of the sunward magnetospheric boundary with Explorer 14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Abstract : The paramagnetic absorption spectrum of a single crystal of L-cystine dihydrochloride x irradiated at 4.2K is shown. The two principal components of the absorption spectrum, designated alpha and beta, are due to positive and negative ions in which the unpaired electron is localized primarily on the disulfide group. The absorption spectra of these ions are distinguished by the following characteristics: (1) The ions give rise to a single absorption pattern. Since the crystal structure of L-cystine dihydrochloride is such that the two halves of the molecule are related by a twofold axis, the absorption patterns of all other paramagnetic species occur in duplicate related by the twofold axis. (2) There is a large g-value variation due to spin-orbit coupling as expected for sulfur electrons. (3) In the case of the alpha absorption the hyperfine pattern indicates an interaction between the unpaired electron and the protons of the adjacent CH2 groups. Upon warming, the paramagnetic absorption spectrum undergoes a sequence of changes until finally, after several hours at room temperature, the stable absorption reported by Kurita and Gordy is obtained. The stable absorption is presumably due to neutral free radicals. (Extracted)</t>
+          <t>Observations with the satellite Explorer 14 to radial distances of 16 RE (earth radii) on the generally sunward side of the earth establish the mean geocentric radial distance of the magnetospheric boundary near the sun-earth line as ∼11 RE during May-August 1963, a period of relatively low geomagnetic activity in the epoch six years after sunspot maximum. Isolated ‘spikes‘ of electrons having 40&lt;Ee&lt;200 kev and omnidirectional intensities lying between the detector's threshold of ∼5×103 and ∼105 cm−2 sec−1 are often but not always observed in a transition region of radial thickness 2 to 3 RE beyond the magnetospheric boundary. These electrons are interpreted as being in the high energy tail of the spectrum of the quasi-thermalized plasma Ee∼1 to 10 kev observed in this region by Explorer 12. The incidence of the spikes and the complexity and intensity of their radial profiles increase with increasing KP. The geocentric radial distances of both the magnetospheric boundary and the outer boundary of the transition region increase with increasing angle from the sun-earth line toward local evening, and the latter boundary apparently lies beyond 16 RE on the local sunset meridian. Electrons of energies exceeding 1.6 Mev are observed in localized ‘hot spots’ in the transition region near local morning, implying further heating of electrons in the solar plasma as it flows around the magnetosphere. It is suggested that the temporal variations of intensity of electrons Ee∼1.5 Mev, for example, in the outer radiation zone can be attributed in large part to inward, radial diffusion of electrons Ee∼300 kev from the magnetospheric boundary when relatively strong electron heating occurs in the adjacent transition-region plasma during geomagnetically disturbed periods, and that a diffusion mechanism operates continuously within the earth's magnetosphere, thus accounting for the sporadic, large increases of intensity of energetic electrons Ee∼1.5 Mev in the outer radiation zone following periods of geomagnetic activity as being due to a variable source in the transition region.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087343664</t>
+          <t>https://openalex.org/W2076014668</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/450048</t>
+          <t>https://doi.org/10.1073/pnas.51.4.653</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sovani (1964)</t>
+          <t>Feller (1964)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The Analysis of "Over-Urbanization"</t>
+          <t>ON SEMI-MARKOV PROCESSES</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessThe Analysis of "Over-Urbanization"N. V. SovaniN. V. Sovani Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Economic Development and Cultural Change Volume 12, Number 2Jan., 1964 Article DOIhttps://doi.org/10.1086/450048 Views: 121Total views on this site Citations: 69Citations are reported from Crossref Copyright 1964 The University of ChicagoPDF download Crossref reports the following articles citing this article:Pengjun Zhao, Haoyu Hu Transition in the Rural Population and Settlements, (Dec 2022): 55–99.https://doi.org/10.1007/978-981-19-6498-5_3Tao Hong, Nannan Yu, Zhonggen Mao, Shuhai Zhang Government-driven urbanisation and its impact on regional economic growth in China, Cities 117 (Oct 2021): 103299.https://doi.org/10.1016/j.cities.2021.103299Wei Lang, Muzhe Pan, Jiemin Wu, Tingting Chen, Xun Li The patterns and driving forces of uneven regional growth in ASEAN countries: A tale of two Thailands' path toward regional coordinated development, Growth and Change 52, no.11 (Dec 2020): 130–149.https://doi.org/10.1111/grow.12459René König Großstadt, (Apr 2021): 367–466.https://doi.org/10.1007/978-3-658-28251-6_16Gregory F. Randolph, Chandan Deuskar Urbanization beyond the Metropolis: Planning for a Large Number of Small Places in the Global South, Journal of Planning Education and Research 9 (Nov 2020): 0739456X2097170.https://doi.org/10.1177/0739456X20971705Diganta Das Regional disparities of growth and internal migrant workers in informal sectors in the age of COVID‐19, Journal of Public Affairs 4 (Aug 2020).https://doi.org/10.1002/pa.2268Michael Timberlake Overurbanization, (Apr 2019): 1–3.https://doi.org/10.1002/9781118568446.eurs0229Canjiang Song, Qiaoling Liu, Shuo Gu, Qi Wang The impact of China's urbanization on economic growth and pollutant emissions: An empirical study based on input-output analysis, Journal of Cleaner Production (Jul 2018).https://doi.org/10.1016/j.jclepro.2018.07.058Choong Jae Cho, Soon-Cheul Lee, Jung Mi Lee 인도의 도시화와 한·인도 협력방안 (Urbanization in India and Its Implications for Korea–India Economic Cooperation), SSRN Electronic Journal (Jan 2017).https://doi.org/10.2139/ssrn.3299906William Kutz, Julia Lenhardt “Where to put the spare cash?” Subprime urbanization and the geographies of the financial crisis in the Global South, Urban Geography 37, no.66 (Feb 2016): 926–948.https://doi.org/10.1080/02723638.2015.1118989Arnisson Andre C. Ortega Manila’s metropolitan landscape of gentrification: Global urban development, accumulation by dispossession &amp; neoliberal warfare against informality, Geoforum 70 (Mar 2016): 35–50.https://doi.org/10.1016/j.geoforum.2016.02.002Hong-Trang Nguyen, Matthew Gray A Review on Green Building in Vietnam, Procedia Engineering 142 (Jan 2016): 314–321.https://doi.org/10.1016/j.proeng.2016.02.053Jitender Saroha Sustainable Urbanization in India: Experiences and Challenges, (Jan 2016): 81–98.https://doi.org/10.1007/978-94-017-9786-3_5Arnisson Andre Ortega, Johanna Marie Astrid E. Acielo, Maria Celeste H. Hermida Mega-regions in the Philippines: Accounting for special economic zones and global-local dynamics, Cities 48 (Nov 2015): 130–139.https://doi.org/10.1016/j.cities.2015.07.002Naoki Murakami Changes in Japanese industrial structure and urbanization: evidence from prefectural data, Journal of the Asia Pacific Economy 20, no.33 (Jun 2015): 385–403.https://doi.org/10.1080/13547860.2015.1054166Robert M. Anthony Urbanization and Political Change in the Developing World, Urban Affairs Review 50, no.66 (Feb 2014): 743–780.https://doi.org/10.1177/1078087414522410Zelai Xu, Nong Zhu City Size Distribution in China: Are Large Cities Dominant?, SSRN Electronic Journal (Jan 2014).https://doi.org/10.2139/ssrn.2403830Alan Gilbert How to help, and how not to help, the poor in the megacities of the South, City 17, no.55 (Oct 2013): 628–635.https://doi.org/10.1080/13604813.2013.827838Eduardo Moncada The Politics of Urban Violence: Challenges for Development in the Global South, Studies in Comparative International Development 48, no.33 (Jul 2013): 217–239.https://doi.org/10.1007/s12116-013-9133-zEric Jardine Population-centric counterinsurgency and the movement of peoples, Small Wars &amp; Insurgencies 23, no.22 (May 2012): 264–294.https://doi.org/10.1080/09592318.2012.642220James Rice, Julie Steinkopf Rice Debt and the Built Urban Environment: Examining the Growth of Urban Slums in the Less Developed Countries, 1990–2010, Sociological Spectrum 32, no.22 (Mar 2012): 114–137.https://doi.org/10.1080/02732173.2012.646154Raymond Asomani-Boateng Borrowing from the past to sustain the present and the future: indigenous African urban forms, architecture, and sustainable urban development in contemporary Africa, Journal of Urbanism: International Research on Placemaking and Urban Susta</t>
+          <t>The global agri-food system is simultaneously a major contributor to, and severely affected by, climate change. Agroecological farming systems can contribute to creating resilient agri-food systems. Based on a multiyear qualitative case study, ...Supporting transitions to sustainable, resilient agri-food systems is important to ensure stable food supply in the face of growing climate extremes. Agroecology, or diversified farming systems based on ecological principles, can contribute to such ...</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2091295001</t>
+          <t>https://openalex.org/W2088643409</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7326/0003-4819-61-1-50</t>
+          <t>https://doi.org/10.5006/0010-9312-20.2.57t</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rutenburg (1964)</t>
+          <t>Streicher (1964)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A Comparison of Serum Aminopeptidase and Alkaline Phosphatase in the Detection of Hepatobiliary Disease in Anicteric Patients</t>
+          <t>Effect of Heat Treatment, Composition and Microstructure on Corrosion of 18Cr-8Ni-Ti Stainless Steels in Acids</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Article1 July 1964A Comparison of Serum Aminopeptidase and Alkaline Phosphatase in the Detection of Hepatobiliary Disease in Anicteric PatientsALEXANDER M. RUTENBURG, M.D., BENJAMIN M. BANKS, M.D., ESTEBAN P. PINEDA, M.D., JULIUS A. GOLDBARG, M.D.ALEXANDER M. RUTENBURG, M.D.Search for more papers by this author, BENJAMIN M. BANKS, M.D.Search for more papers by this author, ESTEBAN P. PINEDA, M.D.Search for more papers by this author, JULIUS A. GOLDBARG, M.D.Search for more papers by this authorAuthor, Article, and Disclosure Informationhttps://doi.org/10.7326/0003-4819-61-1-50 SectionsAboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinkedInRedditEmail ExcerptDiseases of the liver, bile duct, or pancreas generally produce an increase in serum aminopeptidase activity (LAP) (1-14). This increase signifies excretory blockade (1, 6). The same is true of serum phosphatase, but an increase in this enzyme can also be caused by increased osteoblastic activity (15-26).Previous reports (1, 3, 4, 6-8, 12, 27-34) have dealt with these serum enzymes in jaundiced patients, but the data on anicteric patients (3-6, 27, 28) are sparse. The purpose of the present report is to assess the relative merits of the serum values of these enzymes in 1,332 anicteric patients, 400 in...References1. RUTENBURGGOLDBARGPINEDA AMJAEP: Leucine aminopeptidase activity: observations in patients with cancer of the pancreas and other diseases. New Eng. J. Med. 259: 469, 1958. CrossrefMedlineGoogle Scholar2. ARSTMANNINGDELP HERTM: Serum leucine aminopeptidase activity: findings in carcinoma of the pancreas, pregnancy and other disorders. Amer. J. Med. Sci. 238: 598, 1959. CrossrefMedlineGoogle Scholar3. HAMMONDROSENAKKHOO JBBDEC: The diagnostic value of determinations of serum leucine aminopeptidase concentrations in carcinoma of the pancreas. Amer. J. Dig. Dis. 5: 233, 1960. CrossrefMedlineGoogle Scholar4. SHAYSUNSIPLET HDCH: Leucine aminopeptidase: significance of serum elevations in disease of the hepato-biliary-pancreatic system. Ibid., 217. Google Scholar5. PINEDAGOLDBARGRUTENBURG EPJAAM: Serum enzymes in the diagnosis of pancreatic and hepatic disease in anicteric patients. Surg. Forum 10: 249, 1960. MedlineGoogle Scholar6. PINEDAGOLDBARGBANKSRUTENBURG EPJABMAM: Serum leucine aminopeptidase in pancreatic and hepatobiliary diseases. Gastroenterology 38:698, 1960. CrossrefMedlineGoogle Scholar7. BRESSLERFORSYTHKLATSKIN RBRG: Serum leucine aminopeptidase activity in hepatobiliary and pancreatic disease. J. Lab. Clin. Med. 56: 417, 1960. Google Scholar8. HARKNESSROPERDURANTMILLER JBWJAH: The serum leucine aminopeptidase test. Brit. Med. J. 1: 1787, 1960. CrossrefMedlineGoogle Scholar9. WITTSPERRY LJSW: Leucine aminopeptidase with special reference to ulcerative colitis. J. Brit. Soc. Gastroenterology—GUT, 1:140, 1960. Google Scholar10. MILLERWORSLEY ALL: Serum leucine aminopeptidase in carcinoma of pancreas and other diseases. Brit. Med. J. 2: 1419, 1960. CrossrefMedlineGoogle Scholar11. RENEMELLINKOFF RMSM: Leucine aminopeptidase; its nonspecificity as a test for carcinoma of the pancreas. Amer. J. Dig. Dis. 5: 899, 1960. CrossrefMedlineGoogle Scholar12. HOFFMANNACHLASGABYABRAMSSELIGMAN EMMSDSJAM: Limitations in the diagnostic value of serum leucine aminopeptidase. New Eng. J. Med. 263: 541, 1960. CrossrefMedlineGoogle Scholar13. SMITHPINEDARUTENBURG EEEPAM: Localization of serum leucine aminopeptidase activity by paper electrophoresis. Proc. Soc. Exp. Biol. Med. 110: 683, 1962. CrossrefMedlineGoogle Scholar14. SMITHRUTENBURG EEAM: Electrophoretic behavior of an aminopeptidase of human tissues and serum. Nature 197: 800, 1963. CrossrefMedlineGoogle Scholar15. ROBISON R: The possible significance of hexosephophoric esters in ossification. Biochem. J. 17: 286, 1923. CrossrefMedlineGoogle Scholar16. ROBERTS WM: Variations in the phosphatase activity of the blood in disease. Brit. J. Exp. Path. 11: 90, 1930. Google Scholar17. ROBISON R: The Significance of Phosphoric Esters in Metabolism. New York University Press, New York, 1932. Google Scholar18. BURKE JO: Serum alkaline phosphatase in liver disease: a concept of its significance. Gastroenterology 16: 660, 1950. CrossrefMedlineGoogle Scholar19. POLINSPELLBERGTEITELMANOKUMURA SGMALM: The origin of evaluation of serum alkaline phosphatase in hepatic disease: an experimental study. Gastroenterology 42: 431, 1962. CrossrefMedlineGoogle Scholar20. DALGAARD JB: Serum and bile phosphatase in biliary fistula dogs. Acta Physiol. Scand. 16: 293, 1948. CrossrefGoogle Scholar21. KRITZLERBEAUBIEN RAJ: Microchemical variation of alkaline phosphatase activity of liver in obstructive and hepatocellular jaundice. Amer. J. Path. 25: 1079, 1949. MedlineGoogle Scholar22. WACHSTEINZAK MFG: Distribution of alkaline phosphatase in the human liver: a study of postmortem material. Arch. Path. (Chicago) 42: 501, 1946. MedlineGoogle Scholar23. SHERLOCKWALSHE SV: Hepatic alkal</t>
+          <t>Abstract Titanium additions to 18Cr-8Ni steels can effectively eliminate susceptibility to intergranular attack associated with the precipitation of chromium carbides. However, these additions also drastically reduce the grain size of these steels and promote the formation of sigma phase. Both of these factors modify the behavior of titanium-stabilized steels in corrosive environments. A detailed investigation of the influence of heat treatment and microstructure on the corrosion resistance of four titanium-stabilized, AISI 321, heats is described. Incomplete stabilization of carbon by titanium leads to precipitation of chromium carbides on heating in the range of 800 F to 1600 F. This type of susceptibility is readily detected in the oxalic acid etch test, the nitric-hydrofluoric acid test, the copper sulfate-sulfuric acid test, the ferric sulfate-sulfuric acid test, and in the nitric acid test. A second type of susceptibility to intergranular attack is associated with the formation of sigma phase, which may precipitate in a sub-microscopic form during heating in the range of 1150 to 1550 F. It is detected only in the nitric acid test and, to a lesser extent, in the ferric sulfate-sulfuric acid test. The action of various acid solutions on titanium-stabilized stainless steels are compared by means of metallographic studies of microstructures and of progressive corrosion, and by measurements of weight loss and change in electrical resistance of corroding specimens. The data obtained are used to explain the action of acids on these steels and to recommend procedures for evaluation testing.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2099222172</t>
+          <t>https://openalex.org/W2092202816</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0029-5582(64)90635-2</t>
+          <t>https://doi.org/10.2118/712-pa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Thomas (1964)</t>
+          <t>Gondouin &amp; Heim (1964)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The analysis of nuclear evaporation spectra</t>
+          <t>Experimentally Determined Resistivity Profiles In Invaded Water and Oil Sands for Linear Flows</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The angular momentum dependence of the level density has not been properly taken into account in the analysis of nuclear evaporation spectra. This work investigates the question of whether or not this neglect is responsible for the reported variation of level density parameters with changes in the energy of the bombarding particle. It apparently is not. However, it is shown that the improper treatment of the angular momentum dependence of the level density and the use of high energy approximations to the level density in the analysis of evaporation spectra give erroneous values of the level density parameter a. An analysis taking these factors into account gives a value of a ∽ 112A for the case considered, in agreement with the value predicted from the Fermi gas model of the nucleus. Several approximate formulae are discussed to indicate the nature of evaporation spectra when certain assumptions are valid.</t>
+          <t>Abstract Invasion experiments were run on Berea sandstone cores to get laboratory measurements of resistivity and saturation profiles characteristic of water and oil sands invaded by mud filtrate. Injection rates were as low as 1.13 cm/D, and the cores were 30 to 36 in. long, cut parallel to the bedding planes. In the water-sand case, the resistivity profiles revealed the existence of an extensive transition zone between flushed and uncontaminated zones. In the linear geometry of the experiment, the width of the transition zone increased as the square root of the injected fluid volume. For the oil-sand case the core was prepared by displacing the formation water with kerosene to in minimum water saturation. During the subsequent invasion experiment. oil saturation was measured directly by means of an oil-soluble radioactive tracer, and resistivity profiles along the core were taken at the same time. These data were interpreted in terms of an oil-water front, followed by a formation water bank, a zone of mixed waters, and finally, invaded mud filtrate near the borehole. Micro-fingering and capillarity seemed to affect considerably the resistivity profiles observed in the invaded oil-sand experiment. Beyond the regular conductive annulus or "low zone", it was found that a resistive "and-annulus" could also be formed. As a result of these experiments, some simplified invasion profiles have been accepted and are being used in Grand Slam* interpretations. Introduction The importance of the mud filtrate-invaded zone in interpreting electrical logs has long been recognized. In trying to account for its effect, only very simple models of the resistivity profiles in the radial direction from the borehole have been used. In fact, most log interpretation charts have been based on resistivity models consisting of two media of uniform resistivity (R and R5) abruptly separated at the diameter of invasion. Such a clean separation of the media of different resistivities seems unrealistic, since flushing may not be perfect and may vary with radial distance into the formation. ** The nature of the transition zone, when it is within the radius of investigation of the surveying devices, may affect the log readings. Campbell and Martin verified that a conductive annulus containing a high percentage of formation water may be formed when mud filtrate invades an oil-bearing sand. Interpretations which are to include the effect of such an annulus require the addition to the model of a conductive zone located at the outer rim of the invaded zone. Using the Buckley-Leverett relations, saturation profiles may be derived, from which resistivity profiles can be calculated. Results of such computations by K. S. Kunz and J. H. Moran were given in a paper by Dumanoir, Tixier and Martin, and led to the construction of log interpretation charts which were based on a representation with three media of resistivities Rxo, Ran and Rt. Fig. 1 shows a schematic representation of a resistivity profile which includes an annulus. Campbell and Martin realized that, during the invasion of an oil sand, both capillarity and mixing would contribute to rounding of the profile shown in Fig. 1. JPT P. 337ˆ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2152961056</t>
+          <t>https://openalex.org/W2103368675</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00206816409473978</t>
+          <t>https://doi.org/10.2514/3.2561</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brovkov (1964)</t>
+          <t>Stancil (1964)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MAIN FEATURES OF THE DIAGENESIS OF THE AALENIAN COAL MEASURES OF DAGESTAN</t>
+          <t>A new approach to steepest-ascent trajectory optimization</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>The thick (up to 2,300 m) Jurassic coal measures of the SE Caucasus are used to demonstrate variations in diagenesis as a function of depositional environment. Carbonate and carbonate-sulphide concretions are common throughout the section and are related to diagenetic variations. Cementing materials of the sandstones are also diagnostic. A metamorphic source area is indicated for the sediments. There was little carbonate material, but abundant plant remains and iron compounds accompanying the sediment. Diagenesis started under low Eh and pH conditions. Eh values remained low, but pH values rose steadily reflecting the decay of the abundant plant remains. River bed deposits contain no concretions and have a high silica content in the cement. Decreasing quartz, accompanied by increasing siderite and ankerite, is noted as the focus change from river, to delta, to lagoonal, and finally to marine environments. Concretions also increase in abundance in the more marite environments. The diagnostic diagenetic changes noted for the rocks formed in different environments suggests a useful tool in focus studies. J. R. Hayes</t>
+          <t>HE primary difference between the present method and others described in the literature concerns the determination of the change in control (angle of attack) in the optimizing direction. The determination of the change in control required to correct errors in specified end conditions is the same as in other versions of the gradient method. In the case where the final velocity is to be maximized, for example, the optimizing angle-of-attack increment is usually determined by specifying a desired increase in velocity. In the method of this paper, we first determine approximate partial derivatives of final velocity with respect to the final values of the other variables. We then proceed to find the angle of attack as if we were using the classical calculus of variations technique, i.e., from the partial derivatives we determine final values of the Lagrangian multipliers. These final values determine the values of the multipliers through the entire trajectory, and the angle of attack can be solved for from the appropriate Euler or adjoint equation. The usual gradient techniques are used to determine the variations in final velocity which would occur as a result of specifying changes in the final values of the other variables, and these variations determine the partial derivatives mentioned previously. Another factor that has been found useful in stabilizing the iteration in particularly sensitive cases is the use of attitude angle 6 as the controlling parameter rather than angle of attack a. In order to use 0 control, it is necessary to estimate the change in path angle 7 which will occur at the next trajectory, because experience has shown that, when the 6 control is determined by adding the new a. to the current value of 7 (0 = 7 + a), the iteration will almost always not converge. Good convergence properties are obtained by determining the value of 6 from 6 = 7 + ^7 + anew The techniques just described and others that are discussed in the paper result in a method for determining trajectories which is believed to combine the best features of the steepest ascent, or gradient method, and the classical methods of the calculus of variations. A computer program using these new techniques has been developed for solving the rocket boost vehicle mission optimization problems that were analyzed in Ref. 1 (using the classical methods of the calculus of variations). As in Ref. 1, a variable coasting time may be included, and the optimum value is determined by the procedure. Effects of planet rotation, aerodynamic forces, variable atmosphere, time-variant thrust, and vehicle design or physiological limitations are included. A numerical example is shown to illustrate the convergence properties of the current method in a somewhat difficult (sensitive) case.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2228594814</t>
+          <t>https://openalex.org/W2154872896</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0002-1571(64)90037-8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tomczyk (1964)</t>
+          <t>Begg et al. (1964)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Stratygrafia syluru w północno-wschodniej Polsce</t>
+          <t>Diurnal energy and water exchanges in bulrush millet in an area of high solar radiation</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SILURIAN STRATIGRAPHY IN NORTHEASTERN POLAND In 1957-1961 the Silurian deposits of the East-European platform area have been encountered in the following bore holes: Łeba 2, Łeba 3, Bytow, Paslek, Bartoszyce, Goldap, Żebrak, Mielinik, Tluszcz, Krzyze and Kaplonosy. The whole of the material obtained from these bore holes is as much as 8000 m of drill core. The fauna prepared of the drill core is very rich and numerous, thus more detailed study moo the carried on in the future. The Silurian basin in Poland extended over a fairly vast area and constituted the eastern branch of the North-European geosyncline. In the southeast, the basin was restricted by the Świety Krzyz anticlinorium, in the northeast by the East-European platform. In general, it represented a continuation of the Ordovician sedimentary cycle. However, as compared with the Ordovician basin, the sedimentary basin of the Silurian in Poland is characteristic of deepening and widening of its extent. The epicontinental character of the sea existing at the Ordovician time considerably changed during the Silurian into a miogeosynclinal one, especially in the central part. As concerns lithological development and zonal distribution of shallower and·deeper neritics, the Silurian of the platform is closely connected with the Russian platform area, particularly with the Silurian of the Baltic countries, and with the Scania area, partly also with the Silurian of Gotland. Moreover, the shallower neritics show great analogies with the Silurian occurring in the Wolynia and Podolia areas. A similarity to the area of the Świety Krzyz Mts. is also distinctly visible, particularly as concerns the Platform Silurian deposits which have been reached within the deeper zones of the so-called marginal synclinorium in such profiles as Lebork, Bytow, Paslek and Żebrak. In these profiles an argillaceous facies with graptolites predominates. Sporadically, there occur also calcareous lenses and concretions which are found in the Bardo and the Prągowiec beds of the Świety Krzyz Mts. The so far applied subdivision of the platform Silurian in Poland shows that almost all the equivalents of the graptolite zones are here richly represented by species of index graptolites (see stratigraphical table) proving an open basin character and a convenient connection with the neighbouring areas. The stratigraphical subdivision of the Silurian is mainly based on the assemblages of graptolites represented here in quantities. For individual complexes or stratigraphical series the author introduced new nomenclature of beds. Hence, the lowermost Paslek beds are an equivalent of both Llandoverian and Wenlockian stages, however, the Mielnik beds comprising also the zone Saetograptus leintwardinensis and the overlying Siedlce beds together with the extension area of the  graptolites ex gr. formosus , correspond to the Lludlovian stage. A detailed description of these·beds and a list of faunal assemblages occurring in the area discussed, are given in the Polish text. The upper argillaceous deposits with graptolites appearing above the Siedlce beds probably are not an equivalent of the British Lludlovian stage. Therefore, the so far determined deposits as Podlasie beds are called now by the present author - Podlasie stage. As concerns the platform Silurian in the argillaceous fades with graptolites, this stage should characterize the younger deposits than the equivalents of the British Lludlovian stage, however, with tills reservation that there does not exist a detailed correlation of the top part of the Siedlce·beds o)r of the bottom part of the Podlasie stage with the uppermost Lludlovian (Upper Whitcliffe·beds) of Great Britain. In the bore hole Kock a trylobite Acastella heberti elsana has been found to occur in the argillaceous fades without graptolites. This form is characteristic of the lower part of the Bostow beds in the northern area of the Świety Krzyz Mts. It is also possible that the deposits of Kock, determined as Kock beds, may already represent the equivalents of the lowermost Gedinnian and are younger than those of the Podlasie stage (E. Tomczykowa, 1962).</t>
+          <t>The diurnal energy and water relationships of a crop of bulrush millet (Pennisetum typhoides S. et H.) were examined in an area of high solar radiation at Katherine, N.T., Australia (latitude 14.3°S). The vertical distribution of the components contributing to the net upward water flux was evaluated by a simple heat-budget method from vertical profiles of net radiation, water vapour and temperature, as well as soil heat flux. The physiological response of the plant to diurnal changes in the environment was measured in terms of relative leaf water content, photosynthetic activity and stomatal aperture. The average illumination within the crop was obtained from light readings made with a flat surface and an omnidirectional photometer in vertical profiles during the day. The total dry matter and leaf area in the crop profile were determined from stratified samplings. Soil water relationships were also evaluated. At the time of the study, the soil water content in the surface 150 cm of soil was approaching the −15 bar value. A decrease in transpiration and an increase in sensible-heat loss demonstrated a marked influence on the energy balance by stomatal closure during the middle of the day. During the recovery period in the afternoon, transpiration increased, at a time when net radiation was decreasing, by gaining advected sensible heat from the atmosphere and also from the lower leaf layers. The fraction of net radiation utilized for transpiration generally decreased with depth into the plant canopy. It is postulated that both physiological and meteorological factors contribute to this phenomenon. The maximum proportion of direct evaporation from the soil in relation to the total evaporation appeared to be about 10%.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2258071325</t>
+          <t>https://openalex.org/W224612880</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/4020934</t>
+          <t>https://doi.org/10.1016/b978-1-4832-2841-9.50010-6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cooper &amp; James (1964)</t>
+          <t>Kirschner et al. (1964)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Theoretical Studies of Ion Exchange With Slow Particle Diffusion</t>
+          <t>SOME FACTORS INFLUENCING THE OPTICAL ROTATORY DISPERSION OF ASYMMETRIC COMPLEX INORGANIC COMPOUNDS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>during dehydration experiments at different temperatures for 16 hours. Comparable losses do not occur from saturated samples that were heated in 100 C for more than five months. Water appears to play a vital role in stabilizing the clinoptilolite framework structure and in the retention of Ar. The radiogenic Ar depletion pattern noted in clinoptilolite fractions dehydrated in unsaturated environment at different temperatures is similar to variations in the amount of radiogenic Ar observed in clinoptilolite samples from the unsaturated zone of an altered tuff. These results can be used to evaluate the extent of zeolitic water (and hence Ar) retention in unsaturated geologic settings. The utility of alkali zeolites (e.g., phillipsite, clinoptilolite, and mordenite) from low-temperature, open-hydrologic alteration as potential dateable minerals was evaluated using the K/Ar method as part of the Yucca Mountain Site Characterization Project, which is evaluating Yucca Mountain, Nevada, as a potential high-level radioactive waste repository site.</t>
+          <t>Considerable interest in the optical rotatory dispersion of asymmetric organic and inorganic compounds has arisen in recent years, especially with regard to the application of this technique to the elucidation of the structures of such compounds. Recent significant advances in instrumental techniques for the determination of optical rotatory dispersion have undoubtedly contributed materially to the renewed interest in this field. One of the factors found in this study to influence the optical rotatory dispersion of asymmetric complex ions is the nature of the optically inactive ions of opposite charge associated with them. A study of the effects of optically inactive ions on the rotatory dispersion of optically active complex ions indicates that there is a strong correlation between ion-pair association, the Cartledge ionic potential of the inactive ions, and the degree of rotation at the maxima and minima of the dispersion curves. There appears to be little effect exerted by the inactive ions on the frequencies of the peaks, troughs and crossover points of the curves. A study of the effects of changing the dielectric constant of the solvent on the optical rotatory dispersion of asymmetric complex ions indicates that shifts to more positive optical rotations (at certain wave-lengths) and little change in the peak, trough, and crossover frequencies of the rotatory dispersion occurs with a reduction of the dielectric constant of the solvent. Studies of the effect of loading a solution with excess inactive ions on the optical rotatory dispersion of asymmetric complex ions also indicate that ion-pair formation produces significant changes in the optical rotatory dispersion in this case as well. Other studies now under way on the optical rotatory dispersion of complex compounds are also discussed.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2297647276</t>
+          <t>https://openalex.org/W2266636690</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/sw/9.1.19</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Schaefer (1964)</t>
+          <t>Levine (1964)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>THE RADIATION FIELD INSIDE SPACE VEHICLES.</t>
+          <t>Treatment in the Home</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Problems to be expected in shielding the crew compartment and monitoring the radiation dose in a space vehicle are discussed. Shielding can be accomplished in large part by making use of the inherent attenuating power of construction material and equipment. However, use of this principle is limited because it will not be possible, for example, to distribute the weight completely uniformly around the compartment to be shielded. Also, in addition to ordinary cosmic radiation, the various high intensity radiation beams in space contain large fractions of particles of comparatively low penetrating power. The local radiation intensity within a vehicle, therefore, will depend in a complex fashion on both the geometrical shield configuration and the physical characteristics of the radiation. For three typical space radiation proton spectra, the distribution of air dose is analyzed computationally for a spherical shell of uniform wall thickness and for a conical vehicle carrying a heavy heat shield at the base. The results indicate that, even for the completely symmetrical spherical vessel, the air dose varies considerably at different radial locations due to the influence of shield geometry. For the ordinary cosmic ray beam, the local air dose is higher in regions where the effective shieldingmore » is heavier, contrary to flare produced and Van Allen Belt protons which show no buildup phenomenon. For the conical vehicle, the computational analysis is extended to the dosage distribution within a spherical tissue phantom of 30-cm diameter assumed in two locations, in the nose tip and close to the heat shield. The results show that the depth dose distribution in the phantom differs greatly with regard to absolute level as well as to radial symmetry at the two locations, and that greatly different tissue doses in the phantom can be found at locations at which the same air dose is measured. It is concluded that accurate determination of the radiation exposure of the astronaut requires radiation monitors to be worn on the body; moreover, personal monitoring would be needed before the astronaut leaves the vehicle. Additional stationary sensors in the vehicle would be useful for larger vehicles. They would enable the astronaut at the controls to minimize exposure by correcting the attitude of the vehicle in relation to the incident beam, especially near the earth where the incident radiation is always strongly directional, and quick corrective action could substantially reduce the exposure. (BBB)« less</t>
+          <t>Much has been written and said about lowproblem family in ways they may be able income, multiproblem families and about to use. This experiment tries to reduce their apparent resistance to social agency their alienation and unfamiliarity by in services, especially to mental health clinics, traducing a new learning experience — The reasons given run something like this: learning from going through a treatment These are uneducated people who are process together, a process tailored to what socially and culturally impoverished, who they can understand and accept, rather know hardship, even brutality, who are than one that demands that they fit into often teetering on the edge of hunger and the ways in which clinics operate, despair. They feel alien to middle-class The primary technique used is demon values and are alienated from the rest of stration, in contrast with discussion alone, society. to help people reduce conflicts in intra Social workers know many of the reasons familial relationships. It is combined with for these conditions but too little still about provision of concrete services. The essen ways of combating them so that these tial elements in this technique are activity, people can use the resources the community intervention, and discussion, has to offer in order to improve their lot. While treatment in the is in some Perhaps this is so because, despite the sharp respects similar to the familiar technique contrast in standards and values, social in social casework practice of visiting, workers nevertheless expect this group to it differs sharply in method and objectives, make the big leap from one milieu and its Among various points of similarity, both values to another that is wholly unfamiliar, serve a diagnostic purpose in that they pro to which they feel hostile, and which is vide a picture of environmental influences hostile toward them. and family interaction. Hence, insights in the home is an approach are gained through observation and ex being used in an experimental way by the ploration. Both are used as follow-up Mental Hygiene Clinic of Henry Street when office appointments are not kept. Settlement in an effort to bring mental The differences in this experiment are: health services to the low-income, multi1. Treatment is shifted from the clinic to the and takes place with con tinuity of regular appointments, system RACHEL A. LEVINE, MS, is Executive Director, MentaI atically sustained Hygiene Clinic, Henry Street Settlement, New York g jn r Q? discussion w;th ntg City. Families discussed in this paper are the sub■ , ,, , , , ., 1 . y , , ., . . , j , , .... only, all members of the family are present; iects of a three-year pilot protect undertaken m thu ... , , .i</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2330168213</t>
+          <t>https://openalex.org/W2312851900</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5632/jila1934.27.3-4_46</t>
+          <t>https://doi.org/10.5026/jgeography.73.253</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mitade (1964)</t>
+          <t>Kiuchi (1964)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>On Communication Immedi-ate in Natural Park</t>
+          <t>Basic Problems of Regional Development. With special comments on the development of Toyama district on the Japan Sea coast</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Although a landscape architect is primarily concerned with the planning of physical environment, he can not possibly escape from dealing with his clients. He needs, therefore, some techniques which have much to do with the planning of social environment.Ronald Lippitt and others have proposed a theory which identifies seven phases in the process of planned change of social environment, emphasizing the relationship between change agents and client systems. These phases seem to be useful not only for the purposes of systematic analysis but also for the practical purposes of professional change agents who want to choose appropriate social techniques in each different step of planning.It is believed that this general theory of planned change is worth examining as to its applicability to the planning of landscape architecture.</t>
+          <t>A regional development is not the sole problem of a science or of a technology, but a comprehensive and cooperative work of various scientific fields, technology, and administration. Geography, as a science of region, has the responsibility for offering basic ideas and techniques of research, including mapping of the area confronted.It aims at the development of human life with higher income and better social services ; that is, the most important consideration is the development of spiritual-physical ability of inhabitants and to know that any economic development is the tool for human progress. Geographers will participate in a project with basic survey methods, analyzing the regional structure and relation of regions.Though actual aims of development would be much different by each regions, one of the most up-to-date ones in Japan is the adjustment of town and country inconsistency, or more strictly speaking, to find the solution of regional economic and social differences between overcrowded metropolitan areas, such as Tokyo and Osaka, and depressing countrysides with smaller towns, in a high national economic growth.Hokuriku, to which Toyama district belongs, is one of the low developed regions, compared with the Pacific coast. Long winter with heavy snow and remoteness from the metropolitan cores have prevented its economic growth.After the World War II, Japanese government took the policies of regional development of which objects have been changed by periods.(1) 1946-49. Under military occupation and devastation by the War, urgent land exploitation was taken place to settle unemployed people and to supply food. This policy was nearly unsuccessful, as most of the reclaimed land were poor in natural conditions, bad in accessibility, because of low standard of agricultural techniques of new settlers, with insufficient fund and equipments.(2) 1950-55. Japan has recovered the self government and the break-out of the Korean War, followed by the reconstruction of manufacturing industries and War-damaged cities. The integrated regional planning was established for 19 districts and Hokkaido, with the aims to improve the use of natural resources, to control floods and other damages, to increase food and other primary industrial products, to reconstruct manufacturing industries and improve social welfare. TVA was one of the most brilliant examples. These items of planning had been done separately by each governmental 'sections or by each prefectures, but the new plans seemed to be regionally integrated and districts were delimited by natural regions, such as drainage area, mountains, islands and etc. Until 1961, 850 billion yen (2.36 billion US dollars) were spent and 86 % of estimated projects were completed, as the Government reported. In fact, a considerable progress has been made, but still regional income difference was not overcome. Also, integrated program was poorly executed.(3) 1956-present. Industrialization and metropolitanization have been accelerated.Especially, in Tokyo metropolitan area, population has increased rapidly, which has resulted in a shortage of public facilities, such as water supply, transportation, and housing. In 1955, the Capital Region Project, which covers the circle with 100 km radius from the centre of Tokyo, was started. The Greater London Plan was its precedent. The project is under way, but it has a great difficulty of abrupt rise of I land price and ever increasing population, business concentration, and suburban sprawl.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2330786869</t>
+          <t>https://openalex.org/W2331971841</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2257789</t>
+          <t>https://doi.org/10.2472/jsms.13.1006</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bannister (1964)</t>
+          <t>Honda et al. (1964)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Stomatal Responses of Heath Plants to Water Deficits</t>
+          <t>X-Ray Investigation on the Fatigue Damage of Metals Containing α-and β-Phases</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>During the course of a recent study (Bannister 1963) on the water relations of Calluna vulgaris, Erica cinerea and E. tetralix, it became desirable to obtain a rapid indication, in the field, of the responses of these plants to water stress. The behaviour of a shoot deprived of water supply was thought to provide such an indication, and a method based on this is described below. Attempts to correlate transpirational behaviour with either the leaf anatomy or the ecological status of the plants have failed to reveal any underlying patterns (Maximov 1931). For example, Schratz (1932) worked with related Ericaceous plants some of which showed xeromorphic characters and others mesomorphic ones, but they could not be differentiated sucessfully on the basis of their transpiration rates. In any case transpiration alone gives little indication of the water balance of the plant; to obtain a fuller picture of the influence of this upon the ecology of the plant, internal water deficits and stomatal movement as well as transpiration should all be assessed. In this light it seems that some method of estimating the efficiency of transpirational control would be the simplest method of differentiating between ecological types (Maximov 1931). This type of approach has been used by Hygen (1951, 1953a, b) with some measure of success and the method to be described is a modification and simplification of his type of analysis. Hygen followed the loss of water from cut shoots or detached leaves over a period of several hours. The plant samples were pretreated so that water deficits were at a minimum and the stomata open at the start of the experiment. He employed a semi-logarithmic plot of fresh weight against time, as he considered the transpiration rate to be dependent on the water content of the plant material. He divided the resultant 'transpiration decline curve' into three phases dictated by stomatal movement. The first ('stomatal') and last ('cuticular') phases were characterized by constant rates of water loss and joined by a phase of changing rates (the 'closing' phase). From a mathematical analysis of his curves Hygen was able to calculate a series of transpiration parameters. These were used to differentiate successfully between plants of Vaccinium myrtillus from different habitats (Hygen 1951) and between V. vitis-idaea, V. myrtillus and V. uliginosum (Hygen 1953a, b) which were considered to be representative of xeromorphic, mesomorphic and hygromorphic types respectively. Williams &amp; Amer (1957) re-investigated Hygen's work from a theoretical stand-point and suggested certain improvements which would lead to a simplification of Hygen's analysis, although they would not detract from the ecological value of his results. Hygen's analysis would seem to provide a basis for distinguishing between the transpiration of different species and different forms of the same species. However, the computation involved is laborious: all results must first be reduced to a common fresh weight,</t>
+          <t>In the field of mechanical engineering, the need for a simple but effective way of evaluating the fatigue strength and life of structural materials is an important problem with which the design engineers have faced. Accordingly, a considerable amount of investigations have been made in this field. However, the basic nature of fatigue damage and the conditions which lead to the initiation and propagation of fatigue cracks are not sufficiently understood. Nor any satisfactory method of assessing the exact state of fatigue damage has yet been found.In order to approach the problem of understanding the response of materials to various external forces, in this connection, the authors, considering it to be important to combine many fields of information, have investigated the fatigue damage of metals under various conditions of stress by employing the X-ray technique. Namely, the authors have studied the mechanism of fatigue of metals by observing the changes in half-value breadth, residual stress and micro-structure under constant and varying stress amplitudes with or without mean stresses. Some investigations1)∼3) have been performed to study the relation between the changes in half-value breadth and the number of stress cycles. They offered a certain interesting knowledge on the behaviour of materials under cyclic stresses and a reliable means for predicting the fatigue life in principle. In the other series of experiments, 4)∼6) the authors have made discussions on the changes in half-value breadth in relation to the basic mechanism of fatigue, and also suggested a noticeable information to attack the fatigue problem in the future.It is clear at present, however, that the values of half-value breadth and residual stress are affected by the type of internal stress state seriously.7)∼9) For example, in steel, the iron carbide (Fe3C) lamella in ferrite may be in equilibrium with the matrix under a certain condition, that is, when it is formed or annealed, but upon cooling to room temperature or by plastic deformation, extremely high-locked stresses develop in the surrounding matrix because of the difference in some elastic and plastic properties or in thermal expansion coefficient. Really, the presence of the so-called “Gefügespannungen”has been pointed out, and it is considered to be due to the difference in the yield stresses of the various phases coexisting in an alloy.10)∼12) Therefore, if we consider that the “Gefügespannungen”are caused by the progress of fatigue slips and the growth of micro-cracks in certain grains of the phase, they may contribute to the behaviour of line broadening and the state of residual stress in the fatigue process.For these reasons, in the present paper, the authors attemped to investigate the fatigue mechanism of metals containing the α- and the β-phases (6-4 brass) in relation to the“Gefügespannungen”, and carried out some experiments on the changes in the half-value breadth and residual stress due to stress repetitions using the (α+β) brass. The conclusions obtained are as follows:(1) The general feature of the changes in the half-value breadth of the α- and the β-phases during the stress repetitions is quite similar to that of the (310) diffraction lines, which was pointed out previously on annealed carbon steel.13) However, the (310) and (321) diffraction line widths of the β-phase show changes greater than any others, while those of (400), (420) and (331) diffraction lines of the α-phase are very small in the fatigue process.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2333921682</t>
+          <t>https://openalex.org/W2332107337</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5631/jibirin.57.709</t>
+          <t>https://doi.org/10.2307/367373</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Otuki et al. (1964)</t>
+          <t>Seckinger (1964)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Experiences with Nutrase in the Treatment of Neural Deafness</t>
+          <t>Conant on Education as a Discipline</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Drug therapies for neural deafness have long been studied in various manners, with no satisfactory outcomes yet. A rigorous fact about the above treatment is that the restoration of hearing functions is beyond hope after the nerve cells have undergone irreversible changes. Adequate treatment, therefore, has to be started and completed while the pathologic changes are still in the functional phase and are reversible.Nutrase with a structural formula of a free-form vitamin B1 which is phosphorylated has recently been administered daily for 21 consecutive days to subjects picked up at random from among the inpatients and outpatients of our Department with neural deafness and also from among the Streptomycin-deaf inmates of the National Oshima Seishoen Leprosarium. Evaluation of the drug effect mainly in terms of improvement in hearing acuteness of bone conduction, found improved hearing acuteness in 27% of the former group of the drug-recipients and in 33% of the latter.We have found Nutrase to be an effective drug for the treatment of neural deafness.</t>
+          <t>In his The Education of American Teachers,' Dr. James B. Conant rejects the idea that education is an academic discipline. The argument he develops is a logically simple one that follows a rather familiar pattern. Education, like medicine, is both a practical art where scientifically derived generalizations may helpfully guide action, and a deductive-theoretical endeavor where the wide premises of culture, largely unexamined, condition decision-making. And in education, since these two modes of thought-the practical and the theoretical-are inseparable, it is impossible to designate so vast a field of human activity directed toward practical ends as a separate science or a discipline. For knowledge and insight into the nature of education and medicine, the teacher and the physician cannot turn to the educationist or the medicinist, but must look to those established independent sciences and disciplines that touch upon these areas of human service. The doctor has such sciences as biology and chemistry to which to turn for truth about the healing arts; the teacher has the educational sciences which are the academic disciplines-political science, anthropology, psychology, history, philosophy, and sociology-from which to get understanding about the teaching arts. In this way does Conant the logician destroy the theoretical underpinnings of the idea of a separate discipline of education and, in the process, reassert the legitimacy of the claims of the scholarly sciences and disciplines over this now fractured and disposesssed academic orphan.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2803165830</t>
+          <t>https://openalex.org/W2335906354</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5980/jpnjurol1928.55.1_83</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Parish (1964)</t>
+          <t>Siga (1964)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Some studies of the mechanisms of substitution and elimination reactions</t>
+          <t>EXPERIMENTAL STUDIES ON LIGATION OF VENA CAVA CAUDALIS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Previous work has covered some displacement reactions, eliminations and olefine-rearrangements in the systems n-octane 1 , t-butylyclohexane 2 , and decalin 3 . In order to facilitate product-analyses in the last-named system, by the author and by future workers, two analytical problems were examined. The first problem was to devise a gas-liquid chromatographic method of separating the six alcohols (1-6) shown below. These alcohols are related to the possible substitution-products to be obtained form the solvolyses of trans -decalyl sulphonate esters. Out of a survey of three possible stationary phases, 1,1-oxydiglycerol was selected as the successful one. The second problem was the seperation of the following olefines (7-12). Although only four of these olefines (7,8,9 and 11) are likely products from solvolyses of trans -decalyl compounds, the complete analysis of the octalins would be useful in the study of their equilibration. Previous work has involved the use of more than one partial analysis 3b, 3c . In this instance a successful phase proved to be 1,2-bis(2'-cyanoethoxy)ethane. It was chosen from a survey of ten phases. An analytical method was devised whereby mixtures of decalyl acetates (after conversion to the corresponding alcohols via treatment with lithium aluminium hydride) or of octalins could be reliably analysed as percentages of products formed during a reaction in solution in acetic acid. It was found that a number of precautions were needed if the former methid was to be reliable. Otherwise equilibration (presumably via an Oppenauer-Ponndorf mechanism) leads to the more stable (equatorial) epimer. The first application of the above methods was the analysis of products from the acetolysis of toluene- p -sulphonates of axial (5) and equatorial (6) trans -β-decalols. These compounds react more slowly than the corresponding compounds in the 4-t-butycyclohexyl system 3g . The products from these latter reactions have recently been analysed 2b . Comparison with these results indicated that the higher rate in the 4-t-butylcyclohexyl system is parelled by a higher olefine-yield in the equatorial case (but not in the axial one). A possible explanation of the slower rate of reaction of the decalyl compounds is that the hybridisation-change (sp 3 to sp 2 ) involved in these reactions of trans -decalin. Another factor contributing to the rate- and product- differences may be that non-chair forms are significant reacting conformations; possible non-chair forms are different for the two systems. A more detailed comparison of the products shows a much higher ratio of retention/inversion from the decalyl compounds. This is probably due to material rearranged to the other β-position. this ambiguity could be solved by repeating the work with resolved material. The effect of different cations (included as acetates to neutralise toluene- p -sulphonic acid formed during the reaction) on the reaction was found to be very small. The effects of the nature of leaving group and the temperature were small and in the same sense as was observed in other systems 1c, 2b . Streitwieser obtained kinetic evidence for sulphonate-exchange during the acetolysis of 2-actyl sulphonates 4 . Evidence was obtained that decalyl naphthalene-β-sulphonates are formed during the acetolyses of trans -β-decalyl tolune- p -sulphonates in the presence of potassium naphthalene-β-sulphonates. The extent was such that any effect on products would be negligibly small. Products were analysed from the acetolyses of the tolune- p -sulphonates of the trans-α-decalols (3 and 4). Kinetics 3g and product-analysis from the axial epimer (3) suggest hydrogen-participation leading to the tertiary carbonium ion. the equatorial epimer is slow o react and the products contain material derived from a rearranged β-carbonium ion-pair, apparently similar to the one formed during the acetolysis of the tolune- p -sulphonate of the β-axial alcohol (5). A preliminary study of the reaction of trans -β-octalin (11) with solutions of toluene- p -sulphonic acid in acetic acid showed the reaction to be reduced in rate by tetrahydrofuran. An analysis of such acetylated material as was formed from this reduced reaction showed it to be largely axial. Nuclear magnetic resonance spectra of some decalyl compounds were recorded. Differences in chemical shifts for the proton marked (13) in pairs of epimers were in moderately good agreement with the value based on calculations of long-range shielding 5 .</t>
+          <t>The author investigates the modes of development of collateral venous pathways and the effects on general circulation and renal function following ligation of the vena cava caudalis, because in radical surgery of the kidney ligation or resection of the vena cava inferior became sometimes necessary.In 59 adult mongrel dogs the vena cava caudalis was ligated through following 4 methods: Group I, ligation below the level of both renal veins; Group 2, oblique ligation tying the point above right renal vein and the point below left renal vein; Group 3, oblique ligation tying the point above left adrenal vein and the point below right renal vein; and Group 4, ligation above the level of left adrenal and right renal veins. Modes of development of collateral venous pathways were investigated by venography and autopsy. Circuratory changes were examined by measurements of venous pressure and by electrocardiography. Renal damages were studied by intravenous pyelography, determination of blood chemistry and histological examination.The results are as followed:(I) Survival rates of groups 1, 2, 3, and 4 were 75%, 50%, 36.6% and 50%, respectively. Early deaths following the ligation were found to be due to diminition of returning blood volumes to the right auricle and acute renal failure. There was no difference of survival rates between male and female dogs.(2) Maximal venous pressures of the versa saphena parva were measured within 24 hours after the ligation. They returned nearly to normal within a week. The results of venous pressure, serial venography and chemical data of the blood indicated that collatral venous pathways would be accomplished one to two after the ligation.(3) Main collateral venous pathways were verified to be vena vertebralis, venae lumbales ascendens, venae lumbales and vena azygos in every group of the experiments. In addition to them, somtimes, vena spermatica interna, veins of the abdominal wall, versa subcostalis, venae intercostales and right and/or left retroperitoneal veins (vena circumflexa ilium profunda-vena phrenica inferioradrenal vein) became also collateral pathways. In the early stage after the ligation dilatations of veins of the abdominal wall and retroperitoneal veins were marked, but they were subsided gradually according to the development of collateral pathways through vena spermatica interna. Dilatation, elongation and tortuosity of vena ovarica were more marked than vena testicularis.(4) Any difference of histological and pyelogrphic findings between right and left kidneys was not observed after restoration from renal damages by accomplishment of perirenal collateral venous pathways, even if there had been a temporary venous congestion of the kidneys.(5) Any marked post-ligation sequlae was not observed in all survival cases of the experiment.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4253562674</t>
+          <t>https://openalex.org/W2916113793</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/14786436408225384</t>
+          <t>https://doi.org/10.2172/4122359</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Vermaak &amp; Merwe (1964)</t>
+          <t>Lawrence (1964)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>On misfit dislocations in the diffusion zone of a bicrystal system</t>
+          <t>BIOLOGY AND MEDICINE SEMIANNUAL REPORT, SPRING 1963</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Abstract The problem of the diffusion-induced change in a bicrystal system of two different pure, perfect crystalline substances which are in parallel orientation and completely miscible, is treated in this paper. The interdiffusion transforms the abrupt change of crystal parameters at the bicrystal interface into a continuous change distributed throughout the diffusion zone. A general model for the description of this transformation is formulated. Basic properties of the model are: linear dependence of lattice constant on concentration, redistribution of the original interfacial or misfit dislocations into sub-interfaces, laws of conservation of the number and of the localization of misfit dislocations and the introduction of a so-called linear deformation. For the mathematical analysis of the model it is necessary to make certain simplifying approximations concerning the concentration gradient, the dependence of crystal parameters on it and the form of the sub-interfaces. An expression for the energy of linear deformation is derived. The model is used, in conjunction with this expression and those derived by Read and van der Merwe, to evaluate and compare energies of possible intermediate dislocation configurations since such information presumably gives an indication of the degree of instability of these configurations.</t>
+          <t>distribution of Cm/sup 2//sup 4//sup 2/ in rats. Tracer studies in female cancer patients who had received pituitary irradiation gave evidence in support of a direct conversion of testosterone to estrogens. The apparatus and prccedures are described. High-resolution radioautography, following the administration of tritiated thymidine to mice, was used to study plasmocytopoiesis in the regional lymph nodes of mice after multiple injections of antigen. Procedures and results are described. Studies of mating behavior in Drosophila are reported in which the mating preferences of D. melanoaaster were determined when individual males were allowed to choose between two females of the same genotype or two females of different genotypes. Results are reported from a series of studies on the effects of radiation on proteins. The results support the concept that major chemical effects of both the direct and indirect action of ionizing radiation on protein involve reactions at C-N bond loci, that these reactions under appropriate conditions can lead to C-N bond cleavage, and . that the fundamental characteristics of the cleavage reactions are essentially independent of the mature of the group or linkage with which the C-N bond is associated. Studies on the chemical nature of erythropoietic hormone activity are described. Whole-body radioactivity counts are reported for normal individuals, patients with tracer doses of Fe5/sup 5//sup 9/, and a variety of cases of exposure to intermal radionuclides. A list is included of staff publications during the period covered. (C.H.)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4299003499</t>
+          <t>https://openalex.org/W4255115928</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0011-8532(22)02010-9</t>
+          <t>https://doi.org/10.1353/cwh.1964.0070</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Overby (1964)</t>
+          <t>Dykstra (1964)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fixed-Removable Splinting Technique in Periodontics</t>
+          <t>The Continuing War</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>In discussing the provisional splint, it was mentioned that most periodontists prefer that a splint be placed prior to periodontal treatment. However, with the quasi-fixed bridge, periodontal treatment should be completed before this type of reconstruction is initiated. Frequently, over-all patient treatment will proceed as follows: The dentist in general practice, after consultation with the periodontist, will construct a provisional splint for stabilization and non-permanent tooth replacement. The periodontist will then perform the gingival or osseous surgery, curettage, etc., as the case warrants, and restore the supporting structures to maximum health. The dentist in general practice will then reconstruct the mouth with quasi-fixed bridgework, a quadrant at a time, removing a portion of the provisional splint as he progresses. The quasi-fixed bridge, which is positioned through the use of threaded screws and sleeves, is presented as an adjunct to general dentistry and the conservation of teeth. It provides the patient with the advantages of fixed bridgework while stabilizing the remaining teeth by its splinting action. Additionally, the dentist has the advantage of easy future removal for subsequent treatment or extension as may be required. Important, too, is the elimination of problems of parallelism with multiple abutments while at the same time conserving considerable abutment tooth structure. If dental progress is to be measured by the number of teeth that are being retained, it is my sincere hope that these procedures will help dentists to further this progress.</t>
+          <t>THE CONTINUING WAR Robert Dykstra The ways in which modern Americans put their Civil War to use continues to fascinate. In last December's column we discussed a littleknown group calling itself the Society for Correct Civil War Information , founded by the distinguished newspaperman, author, and "muckraking " reformer, Charles Edward Russell. Another such organization was the Lincoln-Lee Legion, established by Howard Hyde Russell. The former society flourished in the late 1930's to defend the Union cause against its twentieth-century "enemies." The Lincoln-Lee Legion, on the other hand, proves to have been an older group, formed at the turn of the century to help combat alcohol consumption in diis country. Both thus embraced equally militant, not entirely historical purposes; both represented curious survivals of the Civil War theme in twentiethcentury popular thought. No formal relationship appears to link the two founding Russells. By an intriguing coincidence, however, both lived as youngsters in Davenport , Iowa, in the early 1870's. That Mississippi River city's many wartime associations, of which the Confederate prisoners' graves on offshore Rock Island remained the most tangibly dramatic, were then fresh. Charles' father, a former abolitionist editor, still managed the Davenport Gazette, while Howard's father, an Episcopal clergyman, served as professor of mathematics at local Griswold College. Charles worked in his father's editorial office, or was soon to do so; Howard finished prep school at Griswold in 1871 and for two years worked as a clerk at the Rock Island Arsenal. If a family or social connection between the boys existed it remains altogether obscure. Their respective entries, now facing one another on opposite pages of old Who's Who volumes, reveal no concrete clue. But our story concerns Howard. After teaching school and editing a newpaper for a year or two he commenced the study of law, which he then practiced until 1883. In that year he underwent conversion at a religious revival. He abrupdy rejected his flourishing legal practice and studied five years at Oberlin College, emerging as a Congregational ministerwho subsequendy heldpastorates in Kansas City, Chicago, and various Ohio communities. While serving in Chicago he dedicated his life to the anti-liquor movement. 200 At Oberlin, Ohio, in 1893, Russell founded what was to become the powerful and militantAnti-Saloon League. Serving as its national superintendent until 1903, and as state chairman of the pivotal New York Anti-Saloon League until 1908, he thereafter resumed high executive office in the organization. The A.S.L. turned its attention increasingly to national prohibition. Passage of the Eighteenth Amendment is often ascribed to its vigorous efforts. The organization naturally declined following prohibition's repeal in 1933, and since 1948 has existed under another name entirely. One of Russell's most unique contributions to the cause after his initial pioneering work was founding the Lincoln-Lee Legion. During a sojourn at Springfield, Illinois, in 1900, he visited a drugstore whose proprietor owned a desk used by Abraham Lincoln. While talking with die druggist Russell learned diat one Cleopas Breckenridge, still living near Springfield, possessed first-hand knowledge of Lincoln as a temperance advocate. Seeking out Breckenridge, Russell was told diat in 1847 Lincoln presided at a temperance meeting at die Soutii Forks School House in Sangamon County at which all present were asked to sign an abstinence pledge composed by the future Emancipator. "Sonny, don't you want your name on this pledge?" Lincoln asked the ten-year-old Breckenridge. The boy answered yes, but admitted that he did not know how to write. Lincoln gladly signed it in his behalf. Subsequendy satisfyinghimself as to the truth of the story, and filling in some missing details, Russell obtained what was supposedly die wording of die pledge composed by Lincoln on diat occasion: "Whereas , The use of intoxicating liquors as a beverage is productive of pauperism , degradation and crime; and believing it is our duty to discourage that which produces more evil than good, we therefore pledge ourselves to abstain from die use of intoxicating liquors as a beverage." Russell, realizing die propaganda value of tiiis charming Lincolnian encounter with Cleopas Breckenridge, built around it a new total abstinence and moral suasion...</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W843680795</t>
+          <t>https://openalex.org/W48488907</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0041-5553(64)90143-0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Voigt (1964)</t>
+          <t>Pyt’ev (1964)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A Bryozoan fauna of Dano-Montian age from Boryszew and Sochaczew in central Poland</t>
+          <t>Asymptotic properties of the dynamic variables in the theory of spinor and scalar meson fields</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Th e strata met with in the Boryszew boring (193-207m from a heap) and Sochaczew boring (193.5-267.2 m) yielded a fauna of 28 species of Bryozoa. Among them are 6 new species, two new genera: Dysnoetocella and Pavobeisselina and one new subgenus: Vibracella (Discovibracella). Although by far the largest number of the species (22) occurs in the Baltic Danian also and thus seems to prove Danian age of the strata in question, there are reasons which seem to support a some what younger age: for example the occurrence of Dysnoetocella aenigmatica n.gen., n.sp. in the Albert Canal near Vroenhoven (Belgium), where a bryozoan fauna is found very similar to that of the Montian of Ciply near Mons. In the Montian of Ciply also Vibracella (Discovibracella) oculata n. sub g., n.sp. occurs very frequently, which is found only in the uppermost strata of the Danian, in part associated with Vibracella (Vibracella) pozaryskae. Lunulites saltholmensis Berth. so far also occurs only in the Upper Danian. Although Montian age cannot be demonstrated with certainty as lon g as no unobjectionable bryozoan fauna of Montian age overlying an authentic Danian fauna is at hand for comparison, and as long as it is not known which species of the Danian bryozoan fauna continue into the Paleocene (Danian and Paleocene are considered here as equivalent and independent stages), it seems best to consider the beds under discussion as transition beds between Danian and Paleocene or as lowermost Paleocene. This would also agree with the micropalaeontological results of Brotzen and Pozaryska (1957). The bryozoan fauna met with in the Danian and Paleocene of the boring near Sochaczew is very similar to that from Boryszew. Pachythecella anhaltina (Voigt) was found there in the Danian as an additional species, but judging from the samples at hand the total number of species is smaller. The material from Sochaczew offered no new points of view concerning the age of the bryozoan fauna from Boryszew.</t>
+          <t>THE present paper will discuss some asymptotic properties of the dynamic variables and of the conservation laws in field theory, that correspond to fields with progressive singularities. The method which we shall adopt throughout is based on interpretation of all the equations in the sense of the theory of Schwartz distributions. In our case it is completely equivalent to a description of the field with the aid of weak solutions, though it possesses considerable technical advantages. As regards the equations discussed, we shall adopt the point of view of [1], namely, we shall consider the equations whose characteristic manifolds are described by the eikonal equation∗∗ Here Ai are the electromagnetic potentials, c is the velocity of light, s the action, and e and m respectively the charge and mass of the particle described by (1). We shall consider below the second order hyperbolic equation in the scalar function W, describing certain types of meson, Gσμδ2Wgdxσδxμ = 0 (2) and the first order hyperbolic system, describing the spinor particles, γσ δUδxσ = 0, (3) where U is the four-component spinor and γσ are the familiar Dirac matrices, satisfying the anticommutational relations γiγj + γjγi + γjγi = − 2δij, γ4 = I − giγi.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W951184101</t>
+          <t>https://openalex.org/W988168155</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s1054-3589(08)61111-4</t>
+          <t>https://doi.org/10.1016/s1054-3589(08)61114-x</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Friedman &amp; Everett (1964)</t>
+          <t>Deneau &amp; Seevers (1964)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pharmacological Aspects of Parkinsonism</t>
+          <t>Pharmacological Aspects of Drug Dependence</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>This chapter defines the conditions known as Parkinson's disease and examines the pertinent pathophysiology, especially with regard to the fusimotor system. Parkinsonism represents a complex of symptoms and etiologies. The chapter outlines common approaches to drug therapy and examines the methodology employed for screening and designing new drugs, particularly the effects of Parkinsonimimetic or tremor-producing agents as they might contribute to the understanding of Parkinsonism. Antihistamines are used effectively in the treatment of true Parkinson's disease and of drug-induced Parkinsonism. Methods abound for the screening for satisfactory anti-Parkinson agents ranging from the relatively simple to the complex. The earliest approach has been empirical: the bioassay for cholinergic-blocking action. Harmine and harmaline have been used for the treatment of postencephalitic Parkinsonism and investigated for their extrapyramidal activity. Tremorine, 1,4-dipyrrolidino-2-butyne, is an especially useful harmacological tool for the evaluation of anti-Parkinson drugs. The in vitro antagonism of acetylcholine in isolated tissue preparations has been considered to be a valuable tool for the preliminary screening of anti-Parkinson drugs in view of the relative effectiveness of cholinergic-blocking agents in the treatment of Parkinson's disease. The use of the Electroencephalogram (EEG) has been suggested as a possible screening tool for anti-Parkinson drugs. The chapter also briefly reviews the nature of drug-induced Parkinsonism for the insights it might furnish in determining a rational approach to the pharmacotherapy of Parkinson's disease. Control of drug-induced extrapyramidal reactions is frequently achieved by withdrawing the causative agent, or by the use of standard anti-Parkinson drugs.</t>
+          <t>Drug dependence in man does not develop to many of the classes of drugs that induce tolerance, and tolerance does not develop to some of the drugs to which man may become dependent. Both tolerance and dependence develop to two major classes of central nervous system depressants, narcotic analgesics and the sedative hypnotics. The clinical techniques for evaluating a drug's capacity to induce physical dependence have been discussed in this chapter. The factors that influence the development of physical dependence and the postulates concerning the mechanism underlying its development have also been reviewed. The factors that favor the optimal development of physical dependence to the narcotic analgesics are related to the nature of the particular drug, to the manner of its administration, and to the species. Although, the clinical literature dealing with psychogenic or psychic dependence is enormous, only recent laboratory studies have initiated to determine whether this phenomenon could be demonstrated in animals. The search for an analgesic drug devoid of morphine's undesirable properties continues unabated. A morphine derivative has been found in which the analgesic property has been dissociated from the most undesirable property of all-that of producing physical dependence. A variety of other drugs have been produced that resemble morphine, or more frequently codeine, in their over-all spectra of pharmacological actions. A variety of antagonists have been developed in the morphinan and benzomorphan series. Many of these have been assayed as analgesics in man. It is recently found that some of the narcotic analgesics produce analgesia but do not produce physical dependence. Moreover substances that are effective antitussives and that completely lack the capacity to induce physical dependence have also been discovered in recent years.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1519683355</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.36311/2318-0501/2014.v2n02.4123</t>
+          <t>https://openalex.org/W1518654272</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mensch (1969)</t>
+          <t>Fulco (1969)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kant and the problem of form: theories of animal generation, theories of mind</t>
+          <t>The biosynthesis of unsaturated fatty acids by bacilli. I. Temperature induction of the desaturation reaction.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Although scholarly attention has been mostly paid to the many connections existing between Kant and the exactsciences, the landscape of Kant studies has begun to noticeably change during the last decade, with many new pieces devoted to a consideration of Kant’s relation to the life sciences of his day. It is in this vein, for example, that investigators have begun to discussthe importance of Kant’s essays on race for the development of Anthropology as an emerging field. The bulk of the contributions to this recent trend, however, have focused on Kant’s remarks on organic life in the Critique of Judgment, such that Kant’s “theoryof biology” is now seen to be firmly located in that text. Amidst such consolidation, there are a few pieces that have begun to address Kant’s appeal to organic vocabulary within the context of his theory of cognition, though these too remain dominated by the interpretive template set by the third Critique. My own strategy in this essay will be different. Kant did indeed borrow fromthe life sciences for his model of the mind, but in a manner that would reject a naturalized account. His preference for epigenesis as a theory of organic generation needs to be carefully distinguished, therefore, from the use he would make of it when discussinga metaphysical portrait of reason.</t>
+          <t>The biosynthesis of unsaturated fatty acids in bacilli has been investigated by studying the way that various species and strains carry out the desaturation of palmitic-1-14C acid. By this method, two distinct desaturation systems have been elucidated. One system, found in six different strains, results in the conversion of palmitate to 5-hexadecenoate, with no other double bond isomers appearing. A second system, found in five strains, results in a spectrum of double bond isomers centering around position 9 but including Δ8 and Δ10 isomers, sometimes as the major constituents. The two desaturating systems are further differentiated by the manner in which they respond to temperature changes of the medium. Thus, cultures desaturating palmitic acid in positions 8, 9, or 10 show no significant change in desaturation rate when the temperature of incubation with palmitate is varied between 20° and 30° (or in the case of Bacillus stearothermophilus 12977, between 20° and 60°). On the other hand, the rate of desaturation of palmitate to 5-hexadecenoate is under strict temperature control. Bacillus megaterium 14581 and other Δ5-desaturating bacilli desaturate palmitate readily at 20° but not at 30°. The rate of desaturation of palmitate is determined by the temperature at which the cultures are incubated with this substrate and not by the temperature of growth. Thus, B. megaterium grown at either 20° or 30° desaturates palmitate at 20° but does not do so at 30°. Further investigation of the temperature effect revealed that the Δ5-desaturating enzyme of B. megaterium is not present at 30° but can be induced by previously incubating a 30° grown culture at 20° for 1 or 2 hours. Chloramphenicol, if added at the beginning of the preliminary incubation period, completely prevents induction of the enzyme but has only an inhibitory effect, increasing with time, if added after preliminary incubation. This inhibitory effect at 20° is presumably due to slow inactivation of desaturating enzyme under circumstances in which replenishment by further protein synthesis is blocked. The induced enzyme is much more rapidly destroyed at 30°. Cultures grown in medium lacking iron have no desaturating activity but activity can be restored by the addition of iron (as ferric ammonium citrate) to the incubation medium. However, iron is not necessary for the temperature induction of the desaturating enzyme but rather appears to be acting as a cofactor in the desaturating system.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1608251666</t>
+          <t>https://openalex.org/W1603072915</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0003-9861(69)90162-3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Janse (1969)</t>
+          <t>Blondin et al. (1969)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sound absorption at the soil surface</t>
+          <t>The mechanism of mitochondrial swelling</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The properties of a soil structure may be examined in various manners. As well as a study of the stability, a knowledge of the geometry of the volume of air filled pores is often needed. The most common measurements, like those of porosity and flow resistance to gases do not permit a detailed description of this pore volume. Since wave phenomena are characterized by three independent variables, viz. frequency, amplitude and phase, with frequency chosen freely, the measurement of acoustical characteristics of the air in the soil offers new opportunities. Also a determination of the acoustical properties of a porous material is non-destructive. In chapter 1, a description is given of an interferometric method of measurement following the derivation of the wave equation. The propagation velocity of sound in air and the specific mass of air are the important physical quantities. The change in these quantities is studied from variations in the experimental conditions, such as temperature and humidity. Next the principles of the propagation of sound in porous materials are presented. For a sample of thickness l and having a rigid backing, the specific acoustic impedance Z at the free surface is given by Z = W m coth(γ m l), where γ m is the propagation constant for acoustical waves in the sample and W m is the specific acoustic wave impedance. Z, W m and γ m are complex quantities. Z may be measured in an interferometer and W m and γ m characterize the sample material. γ m and W m considered as functions of frequency give more information on pore geometry than may be obtained from static measurements. The loci of the function in two types of a complex plane is studied. Finally the behaviour of this function in the complex planes is shown with some examples. Chapter 2 contains a discussion of the measuring equipment used and of the calibration of the measuring set-up. After a discussion of the measuring techniques, the sources of error are evaluated. Chapter 3 deals with the propagation of waves in porous materials. Independent determination of W m and γ m proves impossible for soil samples. A method for this, described in the literature, is rejected on the grounds of inadequate accuracy. An alternative approach is followed: the material is described by a mathematical model and the parameters in the model are considered as the characteristic quantities for pore geometry. The models assume comparatively simple geometries and may be considered an extension of the work of previous authors. In addition a new projection plane for the determination of γ m and W m by a graphical method is discussed. Use of the plane is confined to cases where the sample thickness may be varied. Also, formulas are derived with which the acoustical properties of prismatic of structures soils can be studied. Finally, the applicability of scale rules and the possibility of an electric- acoustical equivalent network are examined for the sample material. Neither approach seems promising. Chapter 4 starts with a discussion of the problems to be expected on the com parison of calculated and measured curves for Z. Somes series of measurements are discussed. The mathematical models selected yield a reasonably good relation ship between the theoretical and measured values. A short critical discussion is given on the feasibility of an extension of the mathematical model. In conclusion a brief discussion is devoted to measurements on layers whose solid phases can no longer be considered as rigid, such as layers of mulch and straw. Some results obtained with straw are dealt with.</t>
+          <t>Alkali metal salts can induce large amplitude swelling of mitochondria in absence of either electron transfer or hydrolysis of ATP. This type of swelling is referred to as pseudoenergized swelling. The requirements for pseudoenergized swelling in salt media have been systematically investigated. The ammonium, sodium, and lithium salts of weakly dissociating acids (e.g., acetate, phosphate, arsenate, phenylacetate) are competent in the induction of rapid swelling when present at 0.15 m concentration whereas the potassium, cesium, and rubidium salts of the same series of acids, at the same concentration, are not competent. The incompetent salts can become competent in presence of one or another reagent of the peptide-antibiotic family (e.g., valinomycin, gramicidin, nigericin). These reagents facilitate selectively the entry of appropriate alkali metal salts into or through the mitochondrial membranes; this facilitation overcomes the distinction between competent and incompetent alkali metal salts. The chlorides of alkali metals as a class are incompetent in inducing pseudoenergized swelling but again the presence of reagents of the peptide-antibiotic family can confer competence. Thus, competence is a function of the rate of penetration of the mitochondrial membranes by the salts in question. Gramicidin shows little or no discrimination with respect to the nature of the alkali metal ion or the nature of the anion in respect to its facilitating action; valinomycin shows some discrimination with respect to the nature of the alkali metal ion; and nigericin is specific for alkali metal salts of weak acids. Cadmium ions at 10−4m can duplicate the action of gramicidin in facilitating the induction of pseudoenergized swelling by alkali metal chlorides. This facilitation by cadmium does not extend to the alkali metal acetates. Calcium ions at 10−4m also have gramicidin-like action but this action is manifest only after the ions in question have been translocated into the mitochondrion in an energized process. Once inside the mitochondrion, calcium ions have the same capability as does cadmium for potentiating pseudoenergized swelling induced by alkali metal chlorides. Hypotonic swelling is viewed as a special case of pseudoenergized swelling in which the induction is achieved not by exogenous salt but rather by salts contained within the mitochondrion. Three factors play a paramount role in pseudoenergized swelling: (1) the Donnan effect that provides the driving force; (2) the interaction of salt with groups in the membrane that leads to the conformational changes intrinsic to swelling; and (3) the permeability of the membrane that determines which salts are competent in inducing swelling and which are not. Solutes that do not penetrate the mitochondrial membranes can suppress pseudoenergized swelling.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W166609293</t>
+          <t>https://openalex.org/W1656039501</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-94-010-3411-1_57</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Okada (1969)</t>
+          <t>Binns (1969)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Suppression of erythropoiesis by actinomycin D. I. Evolutional change of hemopoiesis by actinomycin D.</t>
+          <t>A Chondritic Inclusion of Unique Type in the Cumberland Falls Meteorite</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>For the purpose of revealing whether the sensitivity of the erythropoiesis to actinomycin D (AMD) differs among different animal species, and to see the acting site of AMD on erythroid cell specialization stage, the author observed the hourly change of the blood cell counts and bone marrow cells after AMD administration to mice, rats and rabbits, and obtained the following results:
-1. The data indicated that the erythropoiesis of ra bbit is sensitive to AMD, as much as that of mice, while the rat is resistant to AMD, and its erythropoiesis is not affected by the similar dose of AMD as in the case of mouse and rabbit.
-2. The morphologic observations on the eradication process of erythroblasts in the bone marrow of mice and rabbits indicates that AMD acts as to inhibit the transformation of the stem cell to the proerythroblast
-but not on the erythroblast in the course of specialization. The time
-required for the eradication coincided with the time of the proerythroblast to the mature red cell.
-3. Discussion has been made on the possibility of the common stem cell to erythroid and granulocytic cells in relation to the lymphoid cells in bone marrow and their blast form.</t>
+          <t>New chemical, mineralogical and electron-probe data reveal one of the black chondrite inclusions in Cumberland Falls to be a variety bridging the apparent gap between enstatite and olivine-bronzite chondrites. Transitional properties include oxidized iron content, abundance of olivine and of the minor constituents schreibersite, daubreelite and alabandite, and average composition of olivine and pyroxene. The inclusion contains no taenite, but its kamacite lacks the alloyed silicon characteristic of enstatite chondrites. Although its overall state of oxidation is low (FeO≑2%), the Mg:Si ratio (0.94) of this inclusion suggests affinities with ordinary chondrites rather than enstatite chondrites, and its total iron content (19.5%) resembles that of LL group chondrites. The inclusion is texturally primitive, in that clinoenstatite is the dominant pyroxene and some chondrules contain fresh or finely devitrified glass. It is also unequilibrated. Pyroxene ranges up to 17 mol. % in ferrosilite content, and the olivine up to 5% in fayalite content, but in each case highly magnesian varieties predominate. Post-consolidation shock or reheating is implied by the blackened character of the inclusion. The white host material in Cumberland Falls is more thoroughly brecciated, and its pyroxene more extensively disordered, than most other enstatite achondrites. Petrographic relationships indicate that the chondritic and achondritic portions of the stone accumulated together after having been shocked, but do not reveal any fundamental genetic relationship between the two components. Indeed, the unrecrystallized character of the dark fragments, and the contrasted oxidation states of the chondritic and achondritic portions, suggest that they were not closely associated on the same parent body prior to fragmentation. The unique composition of the Cumberland Falls inclusions implies that chondritic stones do not display the complete range of possible oxidation states. A biased sampling process may be responsible for the restricted compositional variation of chondrites with earth-intersecting orbits.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1705973180</t>
+          <t>https://openalex.org/W1673485705</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.47678/cjhe.v39i3.482</t>
+          <t>https://doi.org/10.2514/3.5176</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Leal (1969)</t>
+          <t>Wang (1969)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Review of Maurice Bowra: A Life</t>
+          <t>Electron and ion distributions in chemical nonequilibrium boundary-layer flows.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>portunity for Canadian educators to follow-up Kezar and Lester's work with an article or book from the Canadian standpoint.Particular areas which are in need of a Canadian perspective include internal and external funding structures and government infl uence with policy strategies.Overall I believe this is an excellent resource for campus leaders and change agents within higher education institutions to draw on.The authors provide a logical and practical approach to discussing collaboration.In a concise manner this book addresses why collaboration is important, what campus leaders should address to initiate a collaborative reorganization as well as providing a model on how leaders can implement a sustainable and successful collaborative structure.</t>
+          <t>When the sheath thickness for the weakly ionized gas of a chemically nonequiltbrium boundary layer over a hypersonic re-entry vehicle is of the same order as the boundary-layer thickness, the ion and electron densities can no longer be considered as identical and treated as ambipolar. It is shown that this situation will prevail in certain re-entry regimes of interest. In the present paper, this important behavior has been considered in the analysis and a correct description of the ion and electron distributions is obtained. It is found that the electric field exerts a strong influence on the ion and electron density distributions. In particular, the peak electron density is modified by more than an order of magnitude as compared to that of ambipolar case. The ion density due to its strong coupling with the neutrals, however, is much less affected. Investigations also show only slight changes in the ion and electron density distributions for relatively large variations (100%) in ion diffusion coefficient. The effect of nonequilibriu m electron temperature was found to be moderate on the electron density distribution and justifies, at least a posteriori, the simplifications adapted for the analysis in the energy conservation relations. Nomenclature A = modifying factor for polarization C — mass fractions do = peak mass fraction of ion D = diffusion coefficient !ID — Debye length, m Rm = mass ratio of ion to electron K = mobility k = Boltzmann constant kb = backward rate constant, cm3/mole-sec kf = forward rate constant, cm3/mole-sec L = characteristic length, m M = molecular weights p = pressure, kgf/m2 T = temperature, °K u = £ component of the mass velocity of the gas mixture v = 77 component of the mass velocity of the gas mixture W = mass rate of formation of species d = boundary-layer thickness 8t = transformed boundary-layer thickness p = density 0 = electric potential X = mean free path, m £ = X/L, streamwise coordinate •n = T I P/Pidy Subscripts</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W19006005</t>
+          <t>https://openalex.org/W1892629282</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/genetics/62.4.819</t>
+          <t>https://doi.org/10.22458/rna.v4i2.543</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Weisbrot (1969)</t>
+          <t>Rosales &amp; Chaves (1969)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>EFFECT OF RADIATION ON COMPETITIVE ABILITY IN DROSOPHILA MELANOGASTER</t>
+          <t>Turismo rural comunitario en Frailes de Desamparados: propuesta de competitividad y puesta en valor de productos endógenso culturales</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MONG the several ways by which polymorphism is maintained in popula-A tions, the phenomenon of genotypic interactions among competing strains is one that has received little experimental attention.Such interactions may lead to the maintenance of polymorphism either by the mutual improvement in fitness of the competitors, or if the presence of one strain impairs the fitness of its competitor, then each strain may establish its own biotic niche within an otherwise physically uniform environment.Population sampling in this environment would indicate the presence of both competitors, segregating into microecological niches.It has been postulated that such interactions among genetically different competitors in the genus Drosophila are the result of accumulations of dissimilar biotic residues acting either to supplement respective nutritional requirements or to inhibit growth of one of the competitors.(WEISBROT 1964).Such effects are well known in bacteria and are seen in the mutual growth of two auxotrophic strains on minimal medium by the cross-feeding of metabolic products satisfying respective nutritional needs; and in the inhibition of growth of one prototroph by another.This latter phenomenon is also observed in some plant species where a secretion produced by one strain inhibits the growth of competitors in its immediate vicinity (MULLER and HAUGE 1967).Such interactions would also be frequency-dependent if the amount of accumulated metabolites prduced per individual had an effect, i.e. the more individuals, the greater the effect.Several examples of frequency-dependent interactions have been reported by LEWONTIN 1955, LEWONTIN and MATSUO 1963 in Drosophila, and SOKAL and KARTEN 1964 in Tribolium, among others.WEISBROT, 1966, found examples of impairment and of enhancement of viability among pairs of competing strains of Drosophila, not predictable on the basis of performance of these strains under other competitive conditions.For example, if strain A inhibited the growth of strain B, and strain B, in turn, inhibited strain C, the outcome of competition between A and C could not necessarily be predicted.The effects seem to reflect the differences in the genotypes of the competitors and the evidence supported the view that genotypic interactions were mediated, in part through metabolic or biochemical means.A similar conclusion was reached by DAWOOD and STRICKBERGER (1969) who found similar competitive effects on developmental time and larval survival in Drosophila.DAcated to Professor Th.Dobzhansky on the occasion of hs seventieth birthday, with great affechon as teacher and</t>
+          <t>En el siglo pasado, el entorno rural dejó de ser escenario exclusivo de generación de alimentos y favoreció el desarrollo de otras actividades económicas como el turismo rural comunitario que reconoce y valora las especificidades patrimoniales de índole natural y cultural. En consideración, el escrito sobrepone el turismo como actividad económica, que bien aprovechada puede incrementar la competitividad de comunidades rurales. En esa dirección, señala, la necesidad de promover y sostener la estructura y la oferta productiva tradicional, aunado al conjunto de factores y recursos naturales y culturales disponibles como verdaderas ventajas. El planteamiento de la comunidad de Frailes en Costa Rica, de ofertar proyectos culturales productivos se percibe como experiencia potencial, dentro del marco de sostenibilidad e integralidad. En este caso, el uso de las capacidades endógenas culturales locales sirve de referente, puesto que la comunidad ha comprendido la necesidad de pertenecer a un sistema socio-organizacional conformado por vecinos con los que establecen relaciones para armonizar intereses y lograr aspiraciones comunes. En ese contexto, la adopción de estrategias empresariales convenidas por el colectivo favorece la promoción y expansión de actividades económicas nuevas; particularmente, para lograr competitividad y mejorar la calidad de vida de las zonas rurales.ABSTRACT Last century saw a change in rural communities that moved from just being generators of agricultural products and food to become developers of other economic activities including rural tourism, an activity that values the specificities of natural and cultural patrimonies. This paper highlights tourism as an economic activity that, effectively oriented, can increase competitiveness in rural communities. It points to keep and promote traditional productive offers and structures and, as the same time, to consider available cultural and natural resources as real advantages. The case of Frailes, a community in Costa Rica that offers productive cultural projects, is seen as a highly potential experience related to sustainability and integrality. In this case, the use of local endogenous cultural capabilities works as a reference since the community has understood the need of being part of an organizational social system formed by neighbors that establish relationships to harmonize their interests and achieve common aspirations. In this context, the adoption of enterprising strategies agreed upon by the collective favors the promotion and expansion of new economic activities, mainly, to achieve competitiveness and to improve the quality of life in rural areas.KEYWORDS: COMMUNITY RURAL TOURISM, CULTURAL HERITAGE, RURAL DEVELOPMENT, SUSTAINABLE DEVELOPMENT, COMPETITIVENESS, ENDOGENOUS CAPABILITY.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1958502838</t>
+          <t>https://openalex.org/W1939086736</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/jappl.1969.26.4.472</t>
+          <t>https://doi.org/10.1152/jappl.1969.26.1.4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fung &amp; Sobin (1969)</t>
+          <t>Fisher et al. (1969)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Theory of sheet flow in lung alveoli.</t>
+          <t>Effect of carbon monoxide on function and structure of the lung.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ArticleTheory of sheet flow in lung alveoli.Y C Fung, and S S SobinY C Fung, and S S SobinPublished Online:01 Apr 1969https://doi.org/10.1152/jappl.1969.26.4.472MoreSectionsPDF (4 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByAcinar micromechanics in health and lung injury: what we have learned from quantitative morphology21 March 2023 | Frontiers in Physiology, Vol. 14Computational pulmonary edema: A microvascular model of alveolar capillary and interstitial flowAPL Bioengineering, Vol. 6, No. 4Aerosol Transport Modeling: The Key Link Between Lung Infections of Individuals and Populations20 June 2022 | Frontiers in Physiology, Vol. 13Micro-particle entrapment dynamics in microfluidic pulmonary capillary networksJournal of Biomechanics, Vol. 137Simulating Multi-Scale Pulmonary Vascular Function by Coupling Computational Fluid Dynamics With an Anatomic Network Model25 April 2022 | Frontiers in Network Physiology, Vol. 2Numerical predictions of shear stress and cyclic stretch in pulmonary hypertension due to left heart failure17 January 2022 | Biomechanics and Modeling in Mechanobiology, Vol. 21, No. 1Alveolar Wall MicromechanicsFlow in the lungsMicrovascular fluid flow in ex vivo and engineered lungsMicha Sam Brickman Raredon, Alexander J. Engler, Yifan Yuan, Allison M. Greaney, and Laura E. Niklason5 November 2021 | Journal of Applied Physiology, Vol. 131, No. 5A computational model of contributors to pulmonary hypertensive disease: impacts of whole lung and focal disease distributions1 November 2021 | Pulmonary Circulation, Vol. 11, No. 4Stereology and three-dimensional reconstructions to analyze the pulmonary vasculature16 July 2021 | Histochemistry and Cell Biology, Vol. 156, No. 2Cytoskeletal prestress: The cellular hallmark in mechanobiology and mechanomedicine1 May 2021 | Cytoskeleton, Vol. 78, No. 6Hypoxic pulmonary vasoconstriction as a regulator of alveolar-capillary oxygen flux: A computational model of ventilation-perfusion matching6 May 2021 | PLOS Computational Biology, Vol. 17, No. 5Integrative Computational Models of Lung Structure‐Function Interactions12 February 2021Stereology as the 3D tool to quantitate lung architecture13 October 2020 | Histochemistry and Cell Biology, Vol. 155, No. 2What are appropriate values of relative krogh diffusion Constant of NO against CO and of theta-NO in alveolar septa?Respiratory Physiology &amp; Neurobiology, Vol. 276Bioengineering the Blood‐gas Barrier12 March 2020Assessment of the Alveolar Capillary Network in the Postnatal Mouse Lung in 3D Using Serial Block-Face Scanning Electron Microscopy21 November 2019 | Frontiers in Physiology, Vol. 10Dr. Y. C. Fung's Contributions to Biomechanics, Bioengineering, and Humanity: Warmest Celebration for a Magnificent Centenarian10 July 2019 | Journal of Biomechanical Engineering, Vol. 141, No. 9Pulmonary Vascular Dynamics12 June 2019Optimizing human pulmonary perfusion measurement using an in silico model of arterial spin labeling magnetic resonance imaging13 June 2019 | Physiological Reports, Vol. 7, No. 11Positive pressure ventilation compresses pulmonary acinar microvessels but not their supply vesselsMicrovascular Research, Vol. 122Pulmonary Hemodynamics15 September 2018The micromechanics of lung alveoli: structure and function of surfactant and tissue components2 November 2018 | Histochemistry and Cell Biology, Vol. 150, No. 6Recent developments in 3-D reconstruction and stereology to study the pulmonary vasculatureChristian Mühlfeld, Christoph Wrede, Lars Knudsen, Tobias Buchacker, Matthias Ochs, and Roman Grothausmann3 August 2018 | American Journal of Physiology-Lung Cellular and Molecular Physiology, Vol. 315, No. 2Gravity outweighs the contribution of structure to passive ventilation-perfusion matching in the supine adult human lungW. Kang, A. R. Clark, and M. H. Tawhai5 January 2018 | Journal of Applied Physiology, Vol. 124, No. 1Negative pressure ventilation enhances acinar perfusion in isolated rat lungs1 January 2018 | Pulmonary Circulation, Vol. 8, No. 1A combined image-modelling approach assessing the impact of hyperinflation due to emphysema on regional ventilation–perfusion matching22 April 2015 | Computer Methods in Biomechanics and Biomedical Engineering: Imaging &amp; Visualization, Vol. 5, No. 2Digital 3D reconstructions using histological serial sections of lung tissue including the alveolar capillary networkRoman Grothausmann, Lars Knudsen, Matthias Ochs, and Christian Mühlfeld8 February 2017 | American Journal of Physiology-Lung Cellular and Molecular Physiology, Vol. 312, No. 2Red blood cell dynamics in biomimetic microfluidic networks of pulmonary alveolar capillariesBiomicrofluidics, Vol. 11, No. 1Arterio-venous anastomoses in isolated, perfused rat lungs8 November 2016 | Physiological Reports, Vol. 4, No. 21Lung Structure and the Intrin</t>
+          <t>ArticleEffect of carbon monoxide on function and structure of the lung.A B Fisher, R W Hyde, A E Baue, J S Reif, and D F KellyA B Fisher, R W Hyde, A E Baue, J S Reif, and D F KellyPublished Online:01 Jan 1969https://doi.org/10.1152/jappl.1969.26.1.4MoreSectionsPDF (3 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByCarbon Monoxide Fate in the Environment as an Inspiration For Biorefinery Industry: A Review22 February 2022 | Frontiers in Environmental Science, Vol. 10Dying “from” or “with” COVID-19 during the Pandemic: Medico-Legal Issues According to a Population Perspective22 August 2021 | International Journal of Environmental Research and Public Health, Vol. 18, No. 16Soy Biodiesel Exhaust is More Toxic than Mineral Diesel Exhaust in Primary Human Airway Epithelial Cells27 August 2019 | Environmental Science &amp; Technology, Vol. 53, No. 19Carbon Monoxide25 June 2017Carbon Monoxide17 October 2016Carbon Monoxide Transport and Actions in Blood and Tissues1 January 2011Health effects of exposure to ambient carbon monoxideChemosphere - Global Change Science, Vol. 1, No. 1-3Pulmonary Vascular Stress from Carbon MonoxideToxicology and Applied Pharmacology, Vol. 154, No. 1Life-Saving Effect of Pyridoxalated Hemoglobin-Polyoxyethylene Conjugate on Carbon Monoxide Intoxication of RabbitsArtificial Organs, Vol. 18, No. 8Smoke inhalation: Diagnosis and treatmentWorld Journal of Surgery, Vol. 16, No. 1Acute carbon monoxide poisoning: animal models: A reviewToxicology, Vol. 62, No. 2Inhalation injuriesAnnals of Emergency Medicine, Vol. 17, No. 12Toxic smoke compounds and inhalation injury—a reviewBurns, Vol. 14, No. 6Smoke inhalationBurns, Vol. 14, No. 6Clearance of Aerosolized 99mTc-Diethyle nettaminepentacetate Before and After Smoke InhalationChest, Vol. 94, No. 1Diffusion of Gases Across the Alveolar Membrane1 January 2011Treatment of burnsCurrent Problems in Surgery, Vol. 24, No. 6Pulmonary Injury in Burned PatientsSurgical Clinics of North America, Vol. 67, No. 1Laser smoke effect on the bronchial systemLasers in Surgery and Medicine, Vol. 7, No. 3Pulmonary Injury in Burned PatientsCritical Care Clinics, Vol. 1, No. 1Lung as a model for evaluation of critical intracellular PO2 and PCOA. B. Fisher, and C. Dodia1 July 1981 | American Journal of Physiology-Endocrinology and Metabolism, Vol. 241, No. 1Carbon Monoxide Effect on Alveolar Epithelial PermeabilityChest, Vol. 78, No. 5The effect of carbon monoxide exposure on morphology of lungs and pulmonary arteries in rabbitsArchives of Toxicology, Vol. 43, No. 4Effect of exposure to 0.5 ppm hydrogen cyanide singly or combined with 200 ppm carbon monoxide and/or 5 ppm nitric oxide on coronary arteries, aorta, pulmonary artery, and lungs in the rabbitInternational Archives of Occupational and Environmental Health, Vol. 44, No. 1Pulmonary edema in acute carbon monoxide poisoningInternationales Archiv f�r Arbeitsmedizin, Vol. 33, No. 2EFFECTS OF ELEVATED CARBOXYHEMOGLOBIN ON GAS EXCHANGE IN THE LUNGAnnals of the New York Academy of Sciences, Vol. 174, No. 1 Biological EfCARBON MONOXIDE IN THE PREGNANT MOTHER AND FETUS AND ITS EXCHANGE ACROSS THE PLACENTAAnnals of the New York Academy of Sciences, Vol. 174, No. 1 Biological Ef More from this issue &gt; Volume 26Issue 1January 1969Pages 4-12 https://doi.org/10.1152/jappl.1969.26.1.4PubMed5762875History Published online 1 January 1969 Published in print 1 January 1969 Metrics</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1968014620</t>
+          <t>https://openalex.org/W1967545193</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1469-185x.1969.tb00823.x</t>
+          <t>https://doi.org/10.1016/s0020-1693(00)92559-3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Thomson (1969)</t>
+          <t>Hastie et al. (1969)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>THE BIOLOGY OF THE LOBE‐FINNED FISHES</t>
+          <t>Reactions and structures of matrix-isolated SiO species at low temperatures from infrared spectra</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Summary 1. Interpretation of structural evolution in a group such as the Sarcopterygii requires consideration of a combination of all possible functions, rather than single functions. 2. The Dipnoi are probably more closely related to the Crossopterygii than to other groups of fishes. The Sarcopterygii are a ‘natural’ group. Certain characters in common between the elasmobranchs and the Dipnoi or Coelacanthini seem to be the result of convergent evolution. 3. Evolution of the skull, in connexion with both respiratory and feeding mechanisms, has resulted in extreme specialization in all Sarcopterygii. The crossopterygian intracranial kinesis has evolved from an earlier mobility between the skull and neck and is adapted for increasing the power of the bite and for enclosing the prey from both above and below, in addition to other factors. Adaptive radiation is seen in the feeding mechanisms of all forms. The evolution of the Amphibia proceeded through elongation of the anterior division of the skull (which is not correlated with any changes in brain morphology) and loss of the kinetic mechanism in this sequence is at least partially associated with improved buccal pumping mechanisms for lung ventilation. 4. Adaptive radiation of the respiratory system in Dipnoi shows a progressive increase in the use of aerial respiration. The aquatic condition seen in Neoceratodus is probably secondary. Comparison of the three living genera shows a striking correlation between respiratory physiology and habit. There is little indication of reduction of the branchial respiratory system in known Rhipidistia, in which respiration was probably primarily aquatic. In Dipnoi and Rhipidistia, evolution of the lung allowed a partial control of the hydrostatic properties of the body. In coelacanths, aerial respiration was abandoned, except in certain secondarily freshwater forms, and the single lung is modified as an organ of hydrostatic balance. These changes are reflected in the over‐all body proportions. 5. Locomotion in Sarcopterygii (except the coelacanths Laugia and Piveteauia ) is adapted for contact with the substrate in relatively shallow water in most cases. Adaptive radiation of the locomotor apparatus is seen with respect to the relative roles and functions of the paired and unpaired fins, over‐all body shape, caudal fin shape, and absolute size. An important function of the pectoral fins in advanced Rhipidistia was in supporting the body in shallow water and thus aiding lung ventilation. 6. Aestivation is an early feature of dipnoan biology, but was not evolved in Rhipidistia. The common faculty of urea production via the ornithine cycle and urea retention in coelacanths and dipnoans are adaptations to conditions in which the body tissues may become dehydrated (salt water and desiccation, respectively). The common pattern of nitrogen metabolism seems to have evolved during a marine phase in sarcopterygian evolution. 7. There is evidence that the earliest members of all sarcopterygian lines included marine forms. However, the subsequent major radiations of Dipnoi and Rhipidistia occurred in fresh waters. The distribution of Sarcopterygii was entirely tropical. The late Palaeozoic distribution of the freshwater forms seems to offer evidence for the occurrence of Continental Drift. Coelacanths were primarily coastal fishes. 8. The evolution of a major group of organisms requires a different pattern of evolutionary change than that by which adaptive radiations are produced. It evolves the structural and temporal correlation of modification in a number of different functional systems rather than the separate modification of each system without reference to other systems. 9. The first tetrapods evolved in a highly seasonal swampy environment on the shores of inland lakes or rivers, in permanently moist conditions.</t>
+          <t>The condensation-polymerization of essentially monomeric SiO has been followed in rare gas matrices using infrared detection over the range 33–4000 cm−1. The species (SiO)2 with a cyclic Vh structure, (SiO)3 with a cyclic D3h structure, and higher polymers have been observed. All possible infrared active frequencies were observed for (SiO)2, e.g., 809.5 (B2u, 766.7 (B3u) and 79 (B1u) cm−1 and the structured verified from the observed Si-isotope shifts for the B2u and B3u modes. For (SiO)3 the E′-mode frequencies of 978, 628 and 311 cm−1 were observed. In more concentrated matrices many new frequencies appeared which may be attributed to higher polymers of SiO and most likely (SiO)5. From this data the entropy of the dimer has been calculated as S29s° = 70.29 eu and bond energy relationships for the polymers indicated. Co-condensation of SiO with BF3, SiF4 and SiF2 in dilute rare gas matrices produced new frequencies in the latter two cases although the self polymerization of SiO was a stronger competing reaction.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969278412</t>
+          <t>https://openalex.org/W1969197323</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cwh.1969.0039</t>
+          <t>https://doi.org/10.1121/1.1973511</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Becker (1969)</t>
+          <t>Hollien &amp; Malone (1969)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Charles Ellet, Jr.: The Engineer as Individualist (review)</t>
+          <t>On-Line Evaluation of Three HeO2 Speech Unscramblers</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>176CIVIL WAR HISTORY theological reasons for his church's lack of appeal to Negroes. This would have been a valuable contribution. Could it be, for instance, that black people, both slave and free, found greater solace in believing that all of God's children have crowns than in believing that only the favored few will be so honored? Nevertheless, this is a significant scholarly work. Similar works on other denominations are greatly needed. Arvarh E. Strickland Chicago State College Charles Eilet, Jr.: The Engineer as Individualist. By Gene D. Lewis. (Urbana: University of Illinois Press, 1968. Pp. viii, 220. $7.50.) A key figure in the wave of internal-improvement projects that swept over America in the first half of the nineteenth century was the civil engineer. He surveyed routes for proposed canals and railroads, designed bridges, and planned river improvements. Besides these technical functions, he might, especially in the 1820's, assume promotional duties for a project or, in the 1840's, perform bureaucratic, inspectorial duties for a corporation employing him as an "organization" man. Because of the diversity of his tasks, he found it difficult to define his professional role; and because of the increasing dominion of bureaucratic controls, he saw his individuality threatened. An engineer who exemplified the development of civil engineering during this period was Charles Eilet, Jr. (1810-1862), the subject of Gene Lewis' biography, a study based on a variety of sources but particularly on Ellet's personal papers. Eilet served ably on a number of canal and railroad projects, notably as the chief engineer of the James River Company and the Virginia Central Railroad. He was an innovator in the design of suspension bridges though his reputation suffered somewhat when his Wheeling bridge, the showcase of his work, collapsed during a storm in 1854. His most innovative ideas, unimplemented during his lifetime, called for the construction of upland reservoirs for control of floods in the Mississippi River valley. Beyond his usual engineering pursuits, he won some repute for constructing and commanding a fleet of steam rams that played a part in the Union capture of Memphis in 1862, an engagement in which Eilet suffered a fatal wound. More than a "practical" engineer, he was a pioneer in formulating theories of transportation economics, setting forth many of them in his book An Essay on the Laws of Trade. To a greater degree than contemporary engineers, Eilet acted as a contractor, consultant, and economist, thus fragmenting his role as an engineer. As title of this biography suggests, he sought always to maintain autonomy in the face of demands of private and public agencies. Though Lewis makes a case for Eilet as the "engineer as individualist," BOOK REVIEWS177 it is not explicitly developed in my opinion. And though he sees Eilet's continuous strife with fellow engineers and employers as a manifestation of his subject's stern individualism, one wonders, despite his fair treatment of the principals involved, whether Ellet's individualism was not really a species of egomania. Some readers may wish that Lewis had treated Eilet within the general framework of individualism and conformity in American life. Perhaps, too, he could have given his subject additional dimension by looking at him as a social character type, for example, as Riesman's "inner-directed" man. But these are not substantive criticisms. As the study stands it is an uncluttered account of an engineer who contributed significantly to technological change in America. It also invests the realm of technology, notwithstanding Ellet's limitations as a warm human personality, with a sense of personality. Historians of American technology and historians of nineteenth century America will find this biography interesting and valuable despite some stylistic lapses. Readers with a minimal knowledge of the technical and social role of nineteenth century civil engineers can more profitably use it if they first read Daniel H. Calhoun, The American Civil Engineer, a study that Lewis employs effectively in describing the tasks and role of the civil engineer. The quality of this biography is enhanced by the uncomplicated maps that clearly relate to the narrative. Wright State University Carl M. Becker August Belmont: A Political Biography. By Irving Katz. (New York: Columbia...</t>
+          <t>The purpose of this project was to evaluate the improvement in speech intelligibility levels provided by three HeO2 “unscramblers” developed for the Navy. It is well established that a talker in an environment of high helium concentration and under high ambient pressure experiences severe distortion in the intelligibility of his speech. The three devices investigated consist of electronic circuitry that essentially attempts to return the speech formants—that have been shifted upward on the frequency continuum—to their normal regions. The site of the project was one of the multiple-room compression chambers at the Experimental Diving Unit, Washington Navy Yard; a special 2.5-day “communications” dive (12 days over-all) was scheduled for this purpose. Since the reason for these evaluations was to provide data on the units prior to their use in Sealab-3, the experiment was carried out at 600 ft (slightly in excess of 19 ATA) in a helium/nitrogen/oxygen breathing mixture of 92.4%/6.0%/1.6%, respectively. Talkers were four Navy divers in training for Sealab; the speech material consisted of PB25 word lists. Recordings were made on a Honeywell 8100 FM tape recorder that simultaneously recorded the unprocessed speech and the output of the three unscramblers situated on line. Listeners were (at least) 10 University of Florida students trained for tasks of this nature. Intelligibility data are reported for the following conditions: (1) when the divers reached the experimental depth, (2) after two days at saturation depth, (3) for two different microphones, and (4) for two underwater communication rigs used in the chamber's wet pot. Over-all results indicate that, while substantial improvement in intelligibility levels was afforded by the use of the speech processing systems evaluated, such improvement was not sufficient to provide good voice communication with individuals under the HeO2/ambient pressure conditions studied. [This project was supported by the U. S. Navy Deep Submergence Systems Program and by the Physiological Psychology Branch of the Office of Naval Research.]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972360824</t>
+          <t>https://openalex.org/W1972359859</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rsta.1969.0040</t>
+          <t>https://doi.org/10.3402/tellusa.v21i4.10108</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lighthill (1969)</t>
+          <t>Tengström (1969)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Dynamic response of the Indian Ocean to onset of the Southwest Monsoon</t>
+          <t>An attempt to solve the Geodetic Boundary Value Problem, using a double layer approach for Malkin’s function Stokes’ accuracy accepted</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The linearized theory of unsteady wind-driven currents in a horizontally stratified ocean is applied to the northern part of the Indian Ocean. This is argued to be a suitable area for detailed application and evaluation of the theory because (i) the theory has certain advantages near the equator (for example, influence of detailed bottom topography is reduced, thermoclines are somewhat less variable in character, and speeds of baroclinic propagation are enhanced relative to current speeds), and (ii) the wind-stress pattern undergoes a well marked change with onset of the Southwest Monsoon, a change to which the pattern of currents shows a more or less identifiable, and rather quick, response which may be compared with theoretical predictions. Response is predicted to be found principally in two modes as far as vertical distribution of current is concerned; to a somewhat lesser extent in the barotropic mode with uniform distribution, and to a somewhat greater extent in the first baroclinic mode with current distribution as in figure 7, concentrated predominantly in the uppermost 200 m (see Appendix for detailed analysis of the modes appropriate to the equatorial Indian Ocean). Of particular interest is the strong Somali Current, that flows northward along the Somali coast only during the northern hemisphere summer (after monsoon onset) but during that time is comparable in volume flow (about 5 x 107 m3/s) to other western boundary currents such as the Gulf Stream. Detailed discussion of the application of linearized theory to equatorial oceans with western boundaries leads the author to conclude, both in the barotropic (§ 2) and baroclinic (§ 4) cases, that c wave packets5 of current pattern reaching such a boundary deposit the c flux5 they carry (velocity normal to the boundary integrated along it) in a boundary current which rather rapidly takes a rather concentrated form. Linear theory with horizontal transport neglected indicates that such flux requires of the order of 10 days to become concentrated in a current of 100 km width, but that thereafter it continues to become still thinner; however, with horizontal transport included, a steady-state finite thickness of current is reached. In reality, nonlinear effects would play an important additional part in limiting steady-state current thickness to the observed 100 km or thereabouts, but the time scale required to bring the thickness down to this value is probably given reasonably well by linear theory. Calculations for a zonal distribution of winds, which rather rapidly make a reversal of direction and increase of strength somewhat north of the Equator characteristic of the onset of the Southwest Monsoon, predict westward propagation of both barotropic and baroclinic wave energy at comparable speeds of the order of 1 m/s; the marked contrast here with other oceans (in the comparability of speeds) is given particularly detailed study. Calculations indicate that the barotropic signal is considerably distorted (figure 3) by the fact that low-wavenumber components reach the western boundary first. Baroclinic propagation takes the form of special planetary-wave modes concentrated near the equator (§3), of which perhaps four, delivering flux patterns depicted in figure 5, and possessing wave velocities of 0.9, 0.55, 0.4 and 0.3 m/s towards the west, are specially relevant to generation of the Somali Current. Peak surface flows in that current are predicted to be influenced about three times as much by this baroclinic propagation as by the barotropic. Theory indicates 1 month (of which two-thirds is needed for propagation of current patterns and one-third for their concentration in a boundary current) as characteristic time scale for formation of the Somali Current (see figure 6 in particular for the calculated baroclinic component) in contradistinction to the ‘decades’ predicted by the same type of theory in mid-latitude oceans (Veronis &amp;amp; Stommel 1956). Observations do, indeed, make clear that the time scale is not significantly more than 1 month, although the possibility that it might be still less cannot yet be decided on the basis of observational evidence. The flow is calculated as reaching 40 % of a typical maximum value (observed in August) already within 1 month of monsoon onset (May), even though no effect of wind stress acting within 500 km of the coast has been taken into account. The linearized theory predicts the current as reaching as far north as 6° N or 7°N, but nonlinear terms are generally found in computational studies (Bryan 1963; Veronis 1966) to bring about some ‘ inertial overshoot ’ in concentrated boundary currents, which may explain why the current does not in fact separate until about 9°N.</t>
+          <t>The Boundary Value Problem of Physical Geodesy is usually treated as the problem of finding reliable corrections to be applied to an accepted ellipsoidal model of the Earth in order to get the true values of the gravitational force and the shape of its level surfaces in external space. The accuracy in determining these corrections corresponds, as a rule, to neglecting errors of the order of the flattening of the Earth (3‰, of obtained values). This first approximation identifies the Earth's topography with the so-called Telluroid (see Fig. 1 and below), and uses as only boundary values s.c. true free air anomalies (see not:s).To study the solvability of this problem, integral equations are well suited. For numerical work, they are now-a-days not difficult to handle, because of the availability of powerful high-speed computers. As to my opinion, there is not yet any fully satisfactory solution obtained, which fulfills all boundary conditions. If it should turn out, that no available harmonic models can satisfy the surface-condition and the infinity-conditions (see below) with sufficient accuracy (see above), we have to admit, that we need additional information along the Earth's surface to be able to solve this important problem, by reducing it to the level case of Stokes (see Appendix 1).The paper describes a direct use of a double-layer approach for the s.c. Malkin's function Hy (see below), from which all wanted corrections in space may be deduced. This approach is suggested, because the solvability condition of the resulting singular Fredholm-equation can be used for defining, beforehand, the correct model gravity y. The solution, by definition of the double layer potential, satisfies the weaker infinity condition.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1973060834</t>
+          <t>https://openalex.org/W1972444689</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/002188636900500305</t>
+          <t>https://doi.org/10.1080/00221546.1969.11773845</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lake et al. (1969)</t>
+          <t>Marshall (1969)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Applying Behavioral Science: Current Projects</t>
+          <t>The Liberal Arts</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>This is the second in an annual series of articles reviewing activities, concepts, and research on planned change. The first review (Lake, 1968) focused upon concepts and research. This article will review activities which apply behavioral science knowledge to community development, mental health, health agencies, public school systems, higher education, product organizations, Peace Corps, and religious institutions. Material for this article was collected through an informal survey sent to 300 persons known to pursue professional careers which involve the planning of change. The thoroughness of our description depends upon the amount and quality of materials received. The reviews are meant to be informative, not evaluative. The reader will quickly recognize that most projects are multifaceted, employ many assumptions, and utilize many strategies of changing.</t>
+          <t>It seems unlikely that a fall on the ice just as winter was turning to spring would lead to thoughts about the expected race riots during the long hot summer to come, thence to the whole problem of Black Power, and from that burning issue to the campus demand for Student Power. However, this did happen to me during an eight-day confinement in the neurological ward of a New York City hospital. There is no better vantage point, I discovered, from which to appreciate the depth and beauty and transforming power of the contribution which Negroes make in one area to the ongoing life of America's largest city. A private hospital room would have cut me off from the colorful, endless, and apparently tireless parade of nurses' aides, practical nurses, student nurses, registered nurses, and doctors, among whom the colored-to-white ratio is practically the same as that on our planet-three to one. After one's pulse, temperature, and blood pressure have been taken sometimes by white and sometimes by dark hands, he wonders whether perhaps he has stumbled into some Great Good Place where no one seems in the least aware of color differences but only of the job which needs to be done cooperatively. Not only was there no overt reference to color on the part of patients, whose language was otherwise most uninhibited, but neither was there the slightest trace of self-consciousness among those who with such aplomb and good nature carried bedpans, gave baths, changed linen, brought ice water, and distributed cooling fruit juice. These were not like the ministrations of a wholly white crew, which might have bred a kind of strained condescension or the sentimental overcompensation of treating the patients as children. The Negro nurses and aides performed all their functions efficiently and with a kindly touch yet as if their main concern were elsewhere, on the wider business of living. The nurse, although interested in what she was doing, was able to sweep her patients up and out of themselves and into the world beyond the hospital walls-where children asked to be taken for long walks, where one was trying to obtain the best high-schooling for one's eighth-grade sons and daughters, with an eye on four years of college education later. While keeping their eye on the patients' troubles, these nurses enticed the patients into self-forgetfulness. A hospital is always, necessarily, a world apart, but only apart from</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1991591034</t>
+          <t>https://openalex.org/W1991370398</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.946804</t>
+          <t>https://doi.org/10.1353/qkh.1969.0016</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Horner &amp; Rycus (1969)</t>
+          <t>Swift (1969)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&amp;lt;title&amp;gt;Restoration Of Linearly Smeared Transparencies&amp;lt;/title&amp;gt;</t>
+          <t>&amp;lt;i&amp;gt;Some Form of Peace: True Stories of the American Friends Service Committee at Home and Abroad&amp;lt;/i&amp;gt; (review)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Photographic distortion caused by one-dimensional linear motion of the film during exposure is treated in this paper. The distortion (point spread)function is obtained by making a photographic record of the pulse shape. This data is in turn used by a digital computer to produce the Fourier transform of the point spread function. Optical spatial filtering of the distorted image with an inverse filter using a coherent, monochromatic optical processor has been used. Images which have been smeared by up to three times the minimum resolution length have been restored. The filtering technique consists of manipulating both the phase and amplitude of the distorted scene. In general, the theory of optimal filtering has considered additive noise in the form of signal-to-noise ratios. The signal-to-noise ratio has been treated by considering it as a constant or some function of the spatial frequency. In the latter case, improvement in both restoration and cosmetics was obtained. Film linearity of both the input and output imagery is controlled by processing the film over the linear portion of the Ta vs. E curve. MTF curves of the frequency response before and after filtering are presented. Theoretical error analysis was performed on the restored imagery and good agreement between theory and experiment was obtained.</t>
+          <t>Book Reviews119 Some Form of Peace: True Stories of tL· American Friends Service Committee at Home and Abroad. By Marvin R. Weisbord. New York: Viking Press. 1968. 168 pages. $5.95. This is a realistic and dramatic presentation of the range of the labors of the American Friends Service Committee since its founding. It is written by a nonpacifist admirer who has painstakingly sought out background data and the vivid day-to-day events in the lives of selected participants in seven different chapters of the Committee's fifty-year history. Weisbord writes well, selects colorful yet representative persons as his dramatis personae, catches the human misery or desolation or prejudices which prompted a given AFSC venture, and makes the most of the occasional striking break-throughs in achievement, after long labor and against frustrating odds. The first twenty pages are devoted to the initial work of the AFSC in France from 1917 to 1920. Focusing on the attitudes, experiences, and accomplishments of Edward Webster, young Quaker engineer from Frankford, Pennsylvania, the author presents a masterful sketch of the medical work, house construction, and agricultural reconstruction carried on in the region around Sermaize, which had been pulverized by the German offensive. Memorable glimpses are given of surgeon James Babbitt; of the heroic Quaker evacuation of the helpless as the Germans reconquered the area in 1918; and of the efficient, large-scale post-war distribution, under Leslie Heath's canny management, of United States dumps of lumber, wire, tools, and farm implements. Subsequent chapters tell of the birth of the influential national Mental Hygiene Program out of the Civilian Public Service work in mental hospitals during World War II; of famine relief in Russia in 1921 and 1922 (AFSC distributing food provided by Hoover's American Relief Administration); of the development of the Mountaineer Craftsman's Cooperative Association and the Arthurdale Subsistence Homestead out of William and Ruth Simkins' work in 1932 with unemployed miners near Morgantown, West Virginia; of the Pine Mountain, Kentucky, work camp in the summer of 1951, thefirstinterracialAFSC camp in the South; of Bard McAllister's labors to help a desolate California community of Negro farm workers secure water rights, health services, and projects to augment their incomes; and of VISA (Volunteer International Service Assignments) workers Werner Müller and Helen Tyson, who eventually made something significant out of frustrating assignments in Tanzania. One considerable virtue in this book lies in the fact that the claims made for the Quaker way are restrained. To be sure, the immense caring for individual persons, suffering or benighted, and the practical ingenuity, and the persistence in devilishly discouraging circumstances are all made clear. Yet Weisbord never falls into the trap of implying that the projects and methods of the AFSC, if only extended, would solve the world's ills. Rather, at certain moments and places, AFSC volunteers have merited the tribute paid them by an officer in the American Red Cross in World War I1 and quoted by Weisbord, "They did the thing needed and did it with unusual intelligence. And they all fell to with their hands as well as their heads." This is the ideal, but would-be AFSC volunteers would do well 120Quaker History to read this whole book; for it makes clear the confusions, the casting about, the tensions and hostilities, and above all the ambiguities as to long-term accomplishment which attend most Quaker programs. Some readers may feel that the book does not affirm the Quaker peace testimony strongly enough. There is, after all, only a modest claim in the title, taken from Joseph Conrad's statement, "What all men are really after is some form, or perhaps only some formula, of peace." But in a time when many persons and groups, private and public, are seeking to put beliefs into action, and when most programs and much motivation are having to be radically re-examined, Weisbord's tone of restrained affirmation seems to be the right one. Wesleyan University, Middletown, ConnecticutDavid E. Swift Quakers and Politics. Pennsylvania, 1681-1726. By Gary B. Nash. Princeton, N.J.: Princeton University Press. 1968. 362 pages. $8.50. In the last twenty years a substantial number of...</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1996653167</t>
+          <t>https://openalex.org/W1996487805</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/pbm.1969.0021</t>
+          <t>https://doi.org/10.1016/0020-7225(69)90040-8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Greep (1969)</t>
+          <t>Edelen (1969)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Prevalence of People</t>
+          <t>Non-local variational mechanics—I stationarity conditions with one unknown</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PREVALENCE OF PEOPLE* ROY O. GREEP\ It is a principle ofnature that no species can multiply indefinitely without hindrance, and Homo sapiens is on a collision course with disaster. That man is becoming more numerous is common knowledge. Population pressure is feltinmany aspects ofour daily lives. We feel it in morning traffic, in housing, in pollution ofour air and water, in the destruction of natural beauty, and in the gradual erosion ofindividual freedom and loss ofprivacy. From the air, likewise, one sees the ugly, cancerous growth of urban sprawl with metastases extending into fresh cuts of the bulldozer. Our large metropolitan areas are overcrowded and rotting at the core with festering slums and ghettos. Yet, population growth is one of the most ignored ofthe major problems facing the peoples ofthe world, including the United States, today. We may occasionally glance at an article in the Sunday paper about the population explosion and what the future has in store. The figures are astronomical, impersonal, and not readily translated into reality. Never before in all the vast range ofman's history have excessive numbers been a serious threat to his species. In earlier days when the famous Four Horsemen of the Apocalypse—war, pestilence, famine, and death—strode the land, man was not troubled by an undue increase innumbers. Unhappily, theprospects, even for our time, are beyond thepowers ofthe imagination to conceive. Man is a creature of nature, and nature has her own harsh system of keeping the population ofanimal species in check. Most wild species are held in check by food supply, disease, and prédation, and also, as recently discovered, by loss offertility when overcrowding occurs. Some species, such as the jackrabbit, muskrat, deer, and lemming, go through cyclic changes in population density. They die offin great numbers at regular * This is a modified version ofa paper which appeared in the HarvardAlumni Bulklin. Publication costs were kindly contributed to Perspectives by E. R Squibb &amp; Sons. t Department of Anatomy, Harvard Medical School, 25 Shattuck Street, Boston, Massachusetts 02115. 332 Roy O. Greep · Prevalence ofPeople Perspectives in Biology and Medicine · Spring i960 intervals and then proceed to replenish their stock. Lemmings relieve their population pressure every four years, and, contrary to popular belief, they do not migrate to the sea but simply move into an unfavorable climate and die. These population crashes are now known to be due to the psychophysiological trauma ofovercrowding—sometimes referred to as "pathological togetherness." Not only is the present pace of human population growth unprecedented , but, more alarmingly, it is accelerating. In order to get a better appreciation ofwhat is afoot, it will be helpful to glance quickly at how the human species has faired in absolute numbers over the long reaches of history. At the beginning of the Christian era, or some 10,000 years from the dawn ofhuman civilization, man had reached a total population of250,000,000; 1,500 years later he had only reached the half-billion mark. But from there on he has been doing better. He made it to I billion in 1840, 2 billion in 1930, and 3 billion in 1961. We are now working on the fourth billion at the rate of70,000,000 per year, or a city of 190,000 persons every day, seven days aweek. The earlyfigures are informed estimates and may be offby a considerable margin, but that makes little difference. The important point is that for the modern era—or from about 1800, when census taking became a common practice—the figures involve very little, ifany, guesswork as to what has been happening. There are two favorite means of measuring the rate of population growth and ofdetermining trends: one is by the annualpercentage increase, and the other is by the number of years required for a doubling of the population. They are, ofcourse, related. The annual percentage increase expresses the difference between the number ofbirths and the number of deaths. For example, ifthe birth rate were thirty-five per thousand and the death rate twenty-five, then the difference is ten per thousand or, as generally expressed, 1 per centannual increase. Atayearly growthrate of1 per cent it will take not 100 years to double...</t>
+          <t>(for Non-Local Variational Mechanics, I–VII). This series of seven papers extends the classical (local) variational mechanics so as to include those cases where the Lagrangian function (action density) involves integrals of the field variables and their derivatives as arguments. We thus obtain Euler equations that are non-local. By non-local we mean that the Euler equations involve the values of the fields and their derivatives at all points in the domain of the independent variables; the Euler equations become integro-differential equations rather than just differential equations. The non-local variational mechanics involving only one field variable is studied first. A reasonably straightforward algorithm is developed for the calculation of the Euler-Lagrange operator applied to Lagrangian function, the annihilation of which gives the non-local Euler equations. The properties of this operator are studied with particular emphases on characterizing those Lagrangian functions that are identically annihilated by the Euler-Lagrange operator. A detailed study is then given of those Lagrangian functions that result in linear Euler equations. This serves to point out the degree of generality afforded by the non-local Euler equations and to provide the basis for saying when a given linear equation can be realized as the Euler equation for some Lagrangian function. With one field variable this is possible only when the homogeneous part of the given equation defines a self-adjoint linear operator. Boundary conditions are considered next. It is shown that, for linear equations, a problem with non-natural boundary conditions can always be obtained from the Lagrangian function for the corresponding problem with natural boundary conditions by adding to the latter Lagrangian function a Lagrangian function that is identically annihilated by the Euler-Lagrange operator. This result is combined with earlier ones and the essential aspects of the non-local variational mechanics so as to obtain a general theorem concerning the representation of the eigenvalues of arbitrary nonlinear operators by means of a generalized Rayleigh quotient method. The non-local variational mechanics with several field variables is then developed; vectors of Euler-Lagrange operators, properties of the Euler-Lagrange operators, Lagrangian functions that are identically annihilated by the vector of Euler-Lagrange operators, etc. It is shown that the Euler-Lagrange operators give an automatic adjoint calculator, and the application of this method allows us to show that any linear system of integro-differential equations can be imbedded in a variational statement. This imbedding, in turn, leads to a simple method of obtaining necessary conditions for the existence of solutions to the Euler equations. An important aspect of this method is that it is the same for differential equations, integral equations, and integro-differential equations. A generalization of the notion of a momentum-energy complex (a matrix that contains the essential information concerning conservation laws) is obtained for the non-localizable fields and the associated strong and weak identities are derived. These identities are used to examine the question of quadratures of the Euler equations. Transformation properties of the Euler-Lagrange operators are considered where the field variables are subjected to transformations that depend on both the field variables and the independent variables. The treatment concludes with an extension of the Lagrange multiplier theorem to non-local variational problems with non-local constraints. This extension is such that it reduces to the classical results and provides a uniform method for a much wider class of problems than previously considered. For instance, if the problem is an isoparametric one, the Lagrange multiplier functions turn out to be equivalent to constants and the problem reduces to the usual Lagrange multiplier method, but without the prior assumption that the multipliers are constants. Whether or not the multipliers are constants is automatically dictated by the method and need not be assumed at the start. (Mécanique variationnelle non locale, parties I á VII). Cette série de sept articles étend la mécanique variationnelle classique (ou locale) aux cas dans lesquels la fonction de Lagrange (densité d'action) met enjeu des intégrales des variables de champ avec leurs dérivées comme arguments. Nous obtenons ainsi des équations d'Euler non locales, c'est-á-dire portant sur les valeurs des champs et de leurs dérivées en tout point du domaine des variables indépendantes; les équations d'Euler deviennent alors des équations intégro-différentielles plutôt que des équations purement différentielles. Nous étudierons d'abord le cas de la variable unique et élaborerons un algorithme assez simple pour le calcul de l'opérateur d'Euler-Lagrange appliqué á la fonction de Lagrange dont l'annulation donne les équations d'Euler non locales. Les pr</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2005628230</t>
+          <t>https://openalex.org/W2005442531</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrev.186.625</t>
+          <t>https://doi.org/10.2135/cropsci1969.0011183x000900020023x</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Watson et al. (1969)</t>
+          <t>Russell (1969)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Role of Interband Mixing in Exchange Coupling and Conduction-Electron Polarization in Metals</t>
+          <t>Hybrid Performance of Maize Inbred Lines Selected by Testcross Performance in Low and High Plant Densities 1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The effect of interband mixing on the actual form of the exchange interaction $J(\mathrm{k}, {\mathrm{k}}^{\ensuremath{'}})$ between a local moment and conduction electrons in a metal, and in turn on the induced conduction-electron spin density polarization, is investigated. Results of detailed calculations are reported which employ a realistic local moment (Hartree-Fock ${\mathrm{Gd}}^{3+}$ ion) and orthogonalized plane waves for the conduction electrons. As is well known, interband mixing induces a net negative conduction-electron spin moment, reducing and even reversing the positive moment induced by electrostatic exchange in the $s\ensuremath{-}d$ or $s\ensuremath{-}f$ interaction model. The main peak of the interband spin distribution is very diffuse, and the phase of the associated Friedel oscillations is shifted outwards. For the case of rare-earth interband mixing, these oscillations serve to enhance those already due to electrostatic exchange. In other words, while it is often assumed that the amplitude of the $s\ensuremath{-}f$ Friedel oscillations faithfully reflects the net induced spin, this is not the case if $s\ensuremath{-}f$ interband mixing occurs.</t>
+          <t>Nineteen S 3 maize inbred lines ( Zea mays L.) selected through three successive generations, S 0 , S 1 , and S 2 , on the basis of testcross performance in a low or a high plant density were evaluated further to determine the importance of plant density in iubred development. Two testers were used in the final study: the double‐double cross (DDC) used in the selection of the lines and a single cross (SC). The testcrosses were grown in low, medium, and high plant densities in five environments. With the DDC tester, the S 3 lines as a group showed a significant yield gain when compared with a testcross of the source synthetic variety. Lines selected at low and high densities gave similar group testcross yields at low densities, but at medium and high densities, testcrosses of the highdensity group yielded better than those of the low‐density group. The difference in yield at medium and high densities was caused by a greater incidence of barren stalks for the low‐density selection group. With the SC tester, there was no gain in yield of the selections as a group over the source variety. Greater relative importance of nonadditive gene action as compared with additive gene action appears the only explanation for the results obtained.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016874644</t>
+          <t>https://openalex.org/W2016787791</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/259522</t>
+          <t>https://doi.org/10.1139/y69-135</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Comanor &amp; Scherer (1969)</t>
+          <t>Polosa et al. (1969)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Patent Statistics as a Measure of Technical Change</t>
+          <t>Oscillatory behavior of the sympathetic system induced by picrotoxin</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessPatent Statistics as a Measure of Technical ChangeWilliam S. Comanor and F. M. SchererWilliam S. Comanor Search for more articles by this author and F. M. Scherer Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 77, Number 3May - Jun., 1969 Article DOIhttps://doi.org/10.1086/259522 Views: 55Total views on this site Citations: 225Citations are reported from Crossref Copyright 1969 The University of ChicagoPDF download Crossref reports the following articles citing this article:İpek Akad, Çağaçan Değer The impact of R&amp;D incentives and sectoral knowledge stocks on R&amp;D outcomes, Economics of Innovation and New Technology 86 (Jul 2023): 1–36.https://doi.org/10.1080/10438599.2023.2227947Yanan He, Xindong Zhang, Panpan Hao, Xiaoyong Dai, Haiyan Xue Tax incentives and upward R&amp;D manipulation – evidence from the R&amp;D tax deduction policy in China, International Journal of Emerging Markets 29 (Jun 2023).https://doi.org/10.1108/IJOEM-02-2022-0254Yafei Zu, Ruonan Zhang Supplier change, market competition and enterprise innovation, European Journal of Innovation Management 26, no.44 (Jan 2022): 1034–1053.https://doi.org/10.1108/EJIM-09-2021-0480Ye Wu, Haohui Li, Ruiyu Luo, Yubing Yu How digital transformation helps enterprises achieve high-quality development? Empirical evidence from Chinese listed companies, European Journal of Innovation Management 8 (Apr 2023).https://doi.org/10.1108/EJIM-11-2022-0610Ibrahim Bostan, G. Mujtaba Mian Do insiders trade on innovation?, Journal of Contemporary Accounting &amp; Economics 19, no.11 (Apr 2023): 100350.https://doi.org/10.1016/j.jcae.2022.100350, Romualdas Ginevicius Assessment of the Effectiveness of Investment in R and D by European Union Countries, www.amfiteatrueconomic.ro 25, no.6262 (Feb 2023): 251.https://doi.org/10.24818/EA/2023/62/251Wenjing Wang, Yiwei Liu Does University-industry innovation community affect firms’ inventions? The mediating role of technology transfer, The Journal of Technology Transfer 47, no.33 (Sep 2021): 906–935.https://doi.org/10.1007/s10961-021-09887-wHao-Chang Yang, Gen-Fu Feng, Xin Xin Zhao, Chun-Ping Chang The impacts of energy insecurity on green innovation: A multi-country study, Economic Analysis and Policy 74 (Jun 2022): 139–154.https://doi.org/10.1016/j.eap.2022.01.017Anna Bedford, Le Ma, Nelson Ma, Kristina Vojvoda Australian innovation: Patent database construction and first evidence, Pacific-Basin Finance Journal 73 (Jun 2022): 101776.https://doi.org/10.1016/j.pacfin.2022.101776Norihiro Miwa, Ayushman Bhatt, So Morikawa, Hironori Kato High-Speed rail and the knowledge economy: Evidence from Japan, Transportation Research Part A: Policy and Practice 159 (May 2022): 398–416.https://doi.org/10.1016/j.tra.2022.01.019Kyle Higham, Tohru Yoshioka Patent citation generation at the triadic offices: Mechanisms and implications for analysis, SSRN Electronic Journal 60 (Jan 2022).https://doi.org/10.2139/ssrn.4022851Miriam Marcowitz-Bitton, W. Michael Schuster, Deborah R. Gerhardt The Gender Gap in Academic Patenting, SSRN Electronic Journal 10 (Jan 2022).https://doi.org/10.2139/ssrn.4182650Feng Zhang EMNC technological competence creation: key mechanisms and innovative performance, International Journal of Emerging Markets 16, no.88 (Aug 2020): 1840–1865.https://doi.org/10.1108/IJOEM-10-2019-0824Sara Amoroso, Albert N. Link Intellectual property protection mechanisms and the characteristics of founding teams, Scientometrics 126, no.99 (Jul 2021): 7329–7350.https://doi.org/10.1007/s11192-021-04098-4Inkyung Cho, Eunnyeong Heo, Jungkyu Park Water resource R&amp;D efficiency in Korea – toward sustainable integrated water resources management, Water Policy 23, no.33 (May 2021): 581–598.https://doi.org/10.2166/wp.2021.227Jorge Nogueira de Paiva Britto, Leonardo Costa Ribeiro, Lucas Teixeira Araújo, Eduardo da Motta e Albuquerque Patent citations, knowledge flows, and catching-up: Evidences of different national experiences for the period 1982–2006, Science and Public Policy 47, no.66 (Dec 2020): 788–802.https://doi.org/10.1093/scipol/scaa041Eungdo Kim, InGyu Lee, Hongbum Kim, Kwangsoo Shin Factors Affecting Outbound Open Innovation Performance in Bio-Pharmaceutical Industry-Focus on Out-Licensing Deals, Sustainability 13, no.88 (Apr 2021): 4122.https://doi.org/10.3390/su13084122Jingtao Yi, Michael Murphree, Shuang Meng, Sali Li The more the merrier? Chinese government R&amp;D subsidies, dependence, and firm innovation performance, Journal of Product Innovation Management 38, no.22 (Apr 2021): 289–310.https://doi.org/10.1111/jpim.12564Yana Matkovskaya, Elena Vechkinzova, Yelena Petrenko, Larissa Steblyakova Problems of Innovative Development of Oil Companies: Actual State, Forecast and Directions for Overcoming the Prolonged Innova</t>
+          <t>In cats anesthetized with sodium pentobarbital, paralyzed with gallamine, atropinized, and artificially ventilated, an intravenous injection of picrotoxin (dose between 2 and 5 mg/kg) consistently induced sustained oscillations of arterial blood pressure (BP). Because of their form, and regularity of repetition (range: 0.3 to 4 cycles/min), these oscillations can be considered analogous to vasomotor waves (Mayer waves), which are known to occur in conditions such as hemorrhage, metabolic acidosis, and cerebral ischemia. The BP oscillations characteristic of picrotoxin intoxication have the following properties: (i) they are generated in the CNS since they are abolished by ventral root block; (ii) they are accompanied in most cases by oscillations of the nictitating membrane tension of the same frequency; and (iii) they occur in animals with complete transection of the spinal cord at a cervical level and in those with sectioned ninth and tenth nerves; hence they are not dependent upon afferent impulse traffic arising in baro- and chemo-receptors. Furthermore, nictitating membrane tension oscillation has been seen when BP was maintained stable. The latter observations indicate that for maintaining the oscillation in the sympathetic system the concomitant hemodynamic changes are not essential. It would appear that the oscillation is the result of epileptiform activity of sympathetic neurons. Perhaps some types of spontaneously occurring vasomotor waves have a similar origin.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2032625444</t>
+          <t>https://openalex.org/W2032263217</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0010-406x(69)90547-7</t>
+          <t>https://doi.org/10.1353/pbm.1969.0038</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>McNabb (1969)</t>
+          <t>McIntyre (1969)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A comparative study of water balance in three species of quail—II. Utilization of saline drinking solutions</t>
+          <t>West Side, South Side</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1. Bobwhite, California and Gambel's quail show a positive correlation between their ability to effectively utilize sodium chloride solutions and the degree of water shortage in the typical habitat of each species. 2. Utilization of sodium chloride drinking solutions was evaluated with respect to drinking rates, body weight changes, ability to acclimate to high salt input, absorption of salt from the gut, plasma and urine sodium and osmotic pressure levels and kidney structure.</t>
+          <t>WEST SIDE, SOUTH SIDE A. R. McINTYRE* Indelible memories acquired in youth sometimes gather to themselves irrelevant material accidentally encountered at the time of impact ofthe major and unforgettable stimulus. These irrelevancies may become completely amalgamated with the principal recollection, inseparable from it, forming a composite picture eventually mistaken for reality. This is certainly true of my memory ofJustin Fabius. His voice, his gestures, and what he said are vividly recalled, but my memory ofhis face and hands belongs to a long-departed opera singer who played the part ofRudolpho in La Bohème at Ravinia the evening after my last encounter with Dr. Fabius. Consequently, my description ofmy former teacher is somewhatspurious; and yet, for reasons beyond my conscious ken, this sketch, though partly false, seems to me, no matter how illogical, to be entirely true. I shall always remember the smooth, rather olive skin ofhis high forehead , his black eyebrows, and his beautifully kept black beard. His very dark irides contrasting strikingly with his peculiarly white sclerae gave his eyes a dancing, flashing quality, arresting and somewhat alarming to a reluctantly attentive student. It was risky to be inattentive and positively dangerous to doze. Should Fabius notice a drowsy student, instead of raising his voice he would suddenly lower it and say, almost in a stage whisper, "Gentlemen, I must ask you to be very quiet; one ofus is sleeping . Justin Fabius was professor ofmateria medica and therapeutics at the old Rush Medical College on theWest Side ofChicago, where the two years of clinical instruction were given at the Presbyterian and Cook County hospitals. These two years followed completion ofa bachelor's degree and two more years ofpreclinical medical courses on the South Side Midway campus. At that time Billings Hospital was nearing completion, and it was * College ofMedicine, University ofNebraska, Omaha, Nebraska 68105. 462 A. R. Mclntyre ¦ West Side, South Side Perspectives in Biology and Medicine · Spring 1969 a time of transition. Medical students could elect to finish their medical course on either the South Side or the West Side, and a number of us contrived to take what we considered to be choice courses at both. Some ofus who were instructors and candidates for higher degrees in the preclinical departments on the South Side met with varying degrees ofdisapprobation at Rush and, as a consequence, a variety ofexperiences both baffling and stimulating. For example, the "old" or Rush program in obstetrics on the West Side and "new" lying-in hospital program in obstetrics on the South Side were so much at odds that I found it simpler to take both courses, and I consequently tied more umbilical cords as ajunior than anyoneand incidentally acquired a deep respect for some ofthe staffon both sides. It was fortunate for me that my attention was drawn toJustin Fabius andhis course, forhe was one ofthose rarepersonalities who enriches what otherwise might have become mere technical training. He was born in New York City nearly a century ago. The Greenabaums, who told me he was a SephardicJew, liked and admired him; but several ofthe other Jewish students seemed to fear him. I knew my Israel Zangwill and understood why. Justin obtained an M.D. diploma soon after finishing high school and by the age oftwenty was established in practice. In those preFlexnerdays diploma millswere abundant, and to a person ofFabius' intelligence the acquisition ofan M.D. was often little more than a formality. Fromhis father, a qualified apothecary fromLeyden, hehadacquired more information about materia medica andpharmacy than most physicians ever learned. Because his mother was from London, English was literally his mother tongue. By his Dutch paternal influence his knowledge ofFrench and German was extensive, and he seemed to have read everything from Montaigne to Heine. The contrast between Fabius, a product of the nineteenth century, and the down-to-earth South Side midwesterners of the twentieth century was startling. On the West Side we had Justin Fabius, well versed in history and literature and an articulate linguist, but an ignoramus in physics and chemistry. On the South Side we had instructors well versed in Nernst, van't Hoff, and Arrhenius, yet essentially aesthetically illiterate. Many ofus realized that on the...</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033170712</t>
+          <t>https://openalex.org/W2032930440</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2798210</t>
+          <t>https://doi.org/10.1016/0013-4694(69)91443-6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Brothwell &amp; Brothwell (1969)</t>
+          <t>Fruhstorfer &amp; Bergström (1969)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Food in Antiquity: A Survey of the Diet of Early Peoples.</t>
+          <t>Human vigilance and auditory evoked responses</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A world-wide survey of the eating and drinking habits of early peoples, Don and Patricia Brothwell's Food in Antiquity covers a broad geographical range, from the early populations of Asia, Sub-Saharan Africa, and the Americas to the more familiar Egyptian, Mesopotamian, Greek, and Roman worlds. From meat, insects, vegetables, and fruits to cooking oils and beverages, each source of sustenance is described in terms of who consumed it, how it was prepared, and how it spread from its region of origin. The Brothwells' treatment is engaging and the information they provide fascinating. We learn, for example, that the vinegar carried by Roman foot soldiers on long marches was mixed with water to serve as a refreshing drink and that fungi provided a reliable source of diet for peoples from Europe, Australia, Japan, and China. The authors consider such questions as whether St. John ate carob or actual locusts in his desert hermitage and whether ancient farmers may have rid their crops of troublesome pests by capturing and eating them. They discuss cannibalism, food taboos, and the radical changes that took place with the introduction of the domestication of animals. The story they unfold is a compelling one that sheds much light on the intricate detective work, the problems and rewards, of biological research in archeology.</t>
+          <t>1. In seven normal subjects vigilance fluctuations and related changes in the auditory evoked response were quantitatively analysed during rest lasting 10 min (eyes open) or 80 min (eyes closed) in a soundproof room. Vigilance was visually determined from the EEG on the basis of a sensitive classification. Responses evoked by slowly repeated clicks were summated selectively according to the vigilance level in the 2 sec immediately prior to each stimulus. 2. During a session vigilance decreased noticeably in all subjects whether the eyes were kept open or closed. With closed eyes the vigilance decrease was rapid and in most cases reached real sleep. After this initial fall vigilance increased again and remained, with smaller oscillations, at a certain level of the intermediate stages. 3. The click-evoked response was large and stable in the alert state. With decreasing vigilance a progressive amplitude reduction of three prominent response components (N1a, N1b, P2b) was observed. At stage B2 these components had approximately 25% of their original size at stage O. The transition to real sleep was characterized by a marked increase of N2 and a slight growth of P2a. P1 did not change over the whole vigilance range. 4. No progressive changes in latency or shifts in focus were noticed. There was, however, a decrease in latency and a posterior shift in the focus of N2 at the transition to real sleep. 5. The progressive loss in amplitude is interpreted as a decline in the activity of certain brain functions which are essential for the maintenance of an efficient subject-environment relation. 1. Chez sept sujets normaux, les fluctuations de la vigilance et les modifications correspondantes des réponses évoquées auditives ont été analysées quantitativement pendant une période de repos de 10 min (veux ouverts) ou de 80 min (yeux fermés) en chambre insonorisée. Le niveau de vigilance a été déterminé par l'analyse visuelle de l'EEG sur la base d'une classification nuancée. Les réponses évoquées par des clics à fréquences lentes ont été sélectivement sommées en fonction du niveau de vigilance des 2 sec précédant immédiatement chaque stimulus. 2. Pendant l'expérience, la vigilance s'abaisse notablement chez tous les sujets, que les yeux restent ouverts ou fermés. Les yeux fermés, la diminution de la vigilance est rapide et dans la plupart des cas, aboutit au sommeil caractérisé. Après cette chute initiale, la vigilance remonte à nouveau et se maintient, avec des oscillations moindres, à un certain niveau d'état intermédiare. 3. Les réponses évoquées aux clics sont de grande amplitude et stables pendant l'état vigile. Lors de l'abaissement de la vigilance on observe une réduction progressive de l'amplitude des trois composantes dominantes de la réponse (N1a, N1b, P2b). Au stade B2, ces composantes ont approximativement 25% de leur taille originelle au stade O. Le passage au sommeil caractérisé se traduit par une augmentation marquée de la composante N2 et une augmentation légère de P2a. P1 ne se modifie pas quel que soit le niveau de vigilance. 4. On n'observe aucune modification progressive de latence ni de variation topographique. Une diminution de la latence et un déplacement postérieur du foyer de N2 surviennent cependant au moment du passage au sommeil caractérisé. 5. La perte progressive d'amplitude est interprétée comme une diminution de l'activité de certaines fonctions cérébrales qui sont essentielles pour le maintien d'une relation efficace sujet-environnement.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2035935451</t>
+          <t>https://openalex.org/W2035415483</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0003-4916(69)90033-5</t>
+          <t>https://doi.org/10.1086/466660</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Balázs (1969)</t>
+          <t>Levine (1969)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>One dimensional band theory in the WKB approximation</t>
+          <t>Landing Fees and the Airport Congestion Problem</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>We consider the one-dimensional Schroedinger equation with a periodic potential in the WKB approximation. The bounded solutions correspond to energies E which satisfy the condition |(1/T(E)) cos Φ | ≤ 1 where T(E) is transmission coefficient of a potential hill; 2h̷Φ(E) is the classical action within one potential well evaluated between the classical turning points if E ⩽ Vmax, or evaluated for one period of the potential if E ⩾ Vmax; μ(E) is the phase shift of the wave transmitted across one potential hill. A detailed discussion is given concerning the nature of the band spectrum, the dispersion curve, and the effective mass. The same method is used to discuss finite periodic systems and the associated surface states.</t>
+          <t>Previous articleNext article No AccessLanding Fees and the Airport Congestion ProblemMichael E. LevineMichael E. Levine Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by The Journal of Law and Economics Volume 12, Number 1Apr., 1969 Sponsored by The University of Chicago Booth School of Business and The University of Chicago Law School Article DOIhttps://doi.org/10.1086/466660 Views: 17Total views on this site Citations: 71Citations are reported from Crossref Copyright 1969 The University of ChicagoPDF download Crossref reports the following articles citing this article:Xinjian Wang, Francisco Rossomando Measures for Airlines to Reduce Airport Congestion Fees: Scheme Design and Performance Assessment, Mathematical Problems in Engineering 2022 (Jun 2022): 1–12.https://doi.org/10.1155/2022/5235813Aasheesh Dixit, Suresh Kumar Jakhar Airport capacity management: A review and bibliometric analysis, Journal of Air Transport Management 91 (Mar 2021): 102010.https://doi.org/10.1016/j.jairtraman.2020.102010Peter Forsyth, Hans-Martin Niemeier, Eric Tchouamou Njoya Economic Evaluation of Investments in Airports: Recent Developments, Journal of Benefit-Cost Analysis 12, no.11 (Feb 2021): 85–121.https://doi.org/10.1017/bca.2020.31Kenneth Button Studying the empirical implications of the liberalization of airport markets, Competition and Regulation in Network Industries 64 (Jul 2020): 178359172093576.https://doi.org/10.1177/1783591720935767Michael O. Ball, Alexander S. Estes, Mark Hansen, Yulin Liu Quantity-Contingent Auctions and Allocation of Airport Slots, Transportation Science 54, no.44 (Jul 2020): 858–881.https://doi.org/10.1287/trsc.2020.0995Kenneth Button Applied economics and understanding trends in air transportation policy, Transport Policy 80 (Aug 2019): 78–85.https://doi.org/10.1016/j.tranpol.2019.04.022Guo Zhou, Rui Wang, Yongquan Zhou Flower pollination algorithm with runway balance strategy for the aircraft landing scheduling problem, Cluster Computing 21, no.33 (Feb 2018): 1543–1560.https://doi.org/10.1007/s10586-018-2051-0Michael O. Ball, Frank Berardino, Mark Hansen The use of auctions for allocating airport access rights, Transportation Research Part A: Policy and Practice 114 (Aug 2018): 186–202.https://doi.org/10.1016/j.tra.2017.09.026Yukihiro Kidokoro, Anming Zhang Airport congestion pricing and cost recovery with side business, Transportation Research Part A: Policy and Practice 114 (Aug 2018): 222–236.https://doi.org/10.1016/j.tra.2017.12.003Rong Hu, Lin Chen, Lijun Zheng Congestion pricing and environmental cost at Guangzhou Baiyun International Airport, Journal of Air Transport Management 70 (Jul 2018): 126–132.https://doi.org/10.1016/j.jairtraman.2018.04.016Ata Allah Taleizadeh, Moeen Sammak Jalali, Shib Sankar Sana A game theoretic approach to optimal pricing of flights and passengers at congested airports, Journal of Modelling in Management 13, no.22 (May 2018): 434–454.https://doi.org/10.1108/JM2-01-2017-0006K.K.H. Ng, C.K.M. Lee, Felix T.S. Chan, Yaqiong Lv Review on meta-heuristics approaches for airside operation research, Applied Soft Computing 66 (May 2018): 104–133.https://doi.org/10.1016/j.asoc.2018.02.013Michael O. Ball, Alexander Estes, Mark Hansen, Yulin Liu Quantity-Contingent Auctions and Allocation of Airport Slots, SSRN Electronic Journal (Jan 2018).https://doi.org/10.2139/ssrn.3286732P.M. Picard, A. Tampieri, Xi Wan Airport capacity and inefficiency in slot allocation, International Journal of Industrial Organization (Dec 2017).https://doi.org/10.1016/j.ijindorg.2017.10.003Soraya Hidalgo-Gallego, Ram?n N??ez-S?nchez, Pablo Coto-Mill?n GAME THEORY AND PORT ECONOMICS: A SURVEY OF RECENT RESEARCH, Journal of Economic Surveys 31, no.33 (Jun 2016): 854–877.https://doi.org/10.1111/joes.12171Changmin Jiang, Yulai Wan, Anming Zhang Internalization of port congestion: strategic effect behind shipping line delays and implications for terminal charges and investment, Maritime Policy &amp; Management 44, no.11 (Oct 2016): 112–130.https://doi.org/10.1080/03088839.2016.1237783Andrej Svorenčík Allocating Airport Slots, History of Political Economy 49, no.SupplementSupplement (Jan 2017): 240–263.https://doi.org/10.1215/00182702-4166347Xi Wan Airport Slot Auction When Airlines Have Market Power, SSRN Electronic Journal (Jan 2017).https://doi.org/10.2139/ssrn.3076473María Pérez Herrero, Julien Brunel, Gregoire Marlot Rail Externalities: Assessing the Social Cost of Rail Congestion, (Jun 2016): 331–344.https://doi.org/10.1002/9781119307822.ch23Ming Hsin Lin, Anming Zhang Hub congestion pricing: Discriminatory passenger charges, Economics of Transportation 5 (Mar 2016): 37–48.https://doi.org/10.1016/j.ecotra.2016.02.001Andrej Svorennnk Allocating Airport Slots - The History of Early Applied Experimental Research, SSRN Electronic Journal (J</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2049399565</t>
+          <t>https://openalex.org/W2048644728</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-8306.1969.tb00677.x</t>
+          <t>https://doi.org/10.1016/0005-2760(69)90038-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Armstrong (1969)</t>
+          <t>Klopfenstein (1969)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>STANDARDIZED CLASS INTERVALS AND RATE COMPUTATION IN STATISTICAL MAPS OF MORTALITY</t>
+          <t>Thermodynamics of binding lysolecithin to serum albumin</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ABSTRACT The standard deviation of a set of mortality or morbidity rates for areal units can be used to establish class intervals for mapping. Use of standard, rather than arbitrarily selected, mapping categories will reduce bias and error in map interpretation. The method of rate calculation employed will affect variation among rate values as well as the nature of the frequency distribution. Crude and age-adjusted rates are chosen to suit the purpose of the map, but once the choice has been made the technical characteristics of the method and its affect on variation and frequency of distribution should be considered. Notes 1 The author would like to thank Dr. John Storck, Consultant to the National Center for Health Statistics, U. S. Public Health Service, for suggesting the application of the standard deviation in the form presented here and also for his valuable comments on the paper in draft form. 2 Good examples for different countries can be found in G. M. Howe on behalf of the Royal Geographical Society, National Atlas of Disease Mortality in the United Kingdom (London: Thomas Nelson and Sons Ltd., 1963); G. M. Howe, “The Geography of Death in England and Wales, 1960,”The Lancet (April 13, 1963), pp. 818 20; M. A. Murray, “The Geography of Death in England and Wales,”Annals, Association of American Geographers, Vol. 52 (1962), pp. 130 49; M. A. Murray, “Geography of Death in the United States and the United Kingdom,”Annals, Association of American Geographers, Vol. 57 (1967), pp. 301 14; Bundesministerium Für Gesundheitswesen, Das Gesundheitswesen der Bundesrepublik Deutschland (Statistical Atlas on Public Health in the Federal Republic of Germany), Vol. 1 (Stuttgart: Kohlhammer, 1963); and J. Sigurjonsson, “Geographical Variations in Mortality from Cancer in Iceland, with Particular Reference to Stomach Cancer,”Journal of the National Cancer Institute, Vol. 37 (1966), pp. 337 46. 3 Data problesm are discussed by Murray, op. cit., footnote 2 (1962), and by F. E. Linder and R. D. Grove, “Definition and Interpretation of Vital Statistics Rates,”Vital Statistics Rates in the United States, 1900–1940 (Washington, D. C.: Government Printing Office, 1959), Chapter III, pp. 27–59. 4 N. D. McGlashan, “The Medical Geographer's Work,”International Pathology, Vol. 7 (1966), pp. 81 83. 5 The notation used in the following expressions is after M. Spiegelman, Introduction to Demography (Chicago: Society of Actuaries, 1955), pp. 54–71, to whom reference should be made for a more thorough treatment. Where D is the total number of deaths among a population in a given area and time period; i, a specified cause of death; P the population at risk; and k, a constant unit of population—usually 1,000 or 100,000. The expression nMx is the mortality rate at age x for the administrative unit in question and nPxs is the number of persons in the equivalent age group of a standard population, s. The standard population is usually the national group for a specified time; for example, the total population of the United States in 1960 could serve as a standard for calculating rates for each state. The procedure is to multiply the age specific death rates for a state by the corresponding population of the United States. This yields expected deaths which are summed to a total for all ages. The total of expected deaths is then divided by the total population of the standard to give the age-adjusted death rate for the state in question. In fact, however, the age-specific death rates for sub-groups of the population are often not available and in these cases an indirect method of calculating the age-adjusted rate may be employed. (2′) Age-adjusted Death Rate (Indirect Method) This is the ratio of the total reported deaths in the particular administrative unit, D, to the number expected on the basis of age-specific death rates in a standard population, multiplied by the crude death rate of the standard population. The result is an age-adjusted rate comparable to, but not the same as, that derived from the direct method. For a discussion of the merits of these two methods see T. D. Woolsey, “Adjusted Death Rates and Other Indices of Mortality,” Chap. IV, Vital Statistics Rates in the United States, 1900–1940 (Washington, D. C.: Government Printing Office, 1959), pp. 60–91. The Standardized Mortality Ratio expresses the relative mortality in administrative units as a percentage of the national rate, the national rate being set at 100. It uses an age-adjustment procedure identical to that of the indirect method and differs only in that the constant multiplier is 100 and not the crude death rate of the standard population. 6 Adjustments are sometimes made for differences in the sex composition of a population as well as for age differences. Age-sex-adjusted rates usually compute age-specific rates for males and females separately and use standard populations for each sex before summation to yield a single rate. Adjustment for sex differences</t>
+          <t>Interaction of charge transfer fluorophore N,N-dimethylaminonaphthyl-(acrylo)-nitrile (DMANAN) with globular proteins Human Serum Albumin (HSA) and Bovine Serum Albumin (BSA) brings forth a marked change in the position and intensity of band maxima both in case of absorption and fluorescence spectra. Spectroscopic approach has been elaborately implemented to explore the binding phenomena of the probe with HSA and BSA and it is found that the extent of binding of the probe to both serum albumins is similar in nature. Steady state fluorescence anisotropy values, fluorescence quenching study using acrylamide quencher and Red Edge Excitation Shift (REES) help in drawing reliable conclusions regarding the location of the probe molecule within the hydrophobic cavity of the proteins. An increase in fluorescence lifetime of the probe molecule solubilized in both the proteinous media also indicate that the probe is located at the motionally restricted environment inside the hydrophobic cavity of proteins and hence non-radiative channels are less operative than in the bulk water. Similarly, the variation of position and intensity of the emission maxima of DMANAN solubilized in micellar medium of Sodium Dodecyl Sulphate (SDS) also predicts well the critical micellar concentration (CMC) and polarity of micellar microenvironment.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2068349051</t>
+          <t>https://openalex.org/W2068102901</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/zna-1969-0415</t>
+          <t>https://doi.org/10.2118/2527-ms</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Comes &amp; Wenning (1969)</t>
+          <t>Chilingar et al. (1969)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Photoinduzierte Stoßprozesse metastabiler Wasserstoffatome mit H&lt;sub&gt;2&lt;/sub&gt; im Energiebereich von 0,05 — 0,47 eV</t>
+          <t>Chemistry of Interstitial Solutions in Shales Versus that in Associated Sandstones</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Abstract Molecular hydrogen was excited by selective absorption of ultraviolet radiation of appropriate wavelength into the vibrational levels ν′ 3, 4, and 5 of the electronic D ( 1 II u )-state. For the radiation bandwidth chosen the molecule was only formed in the rotational levels J = 1 and 2 of the R-branch. The excited molecules decay by predissociation into two hydrogen atoms of translational energy which is equal to one half of the difference between the excitation and dissociation energies. One of the atoms is formed in its first excited state. The formation of the excited species can be proven by its fluorescence (Lyman α -radiation). As a result the measurements show, that the excited atoms are all in the metastable 2S-state and not in the short-lived 2P -state. Without electric fields these metastable atom s loose their excitation energy in collisions with the surrounding hydrogen molecules. One part (a) follows an induced transition to the electronic ground state by the emission of Ly α -radiation (1216 Å), the other part (b) is transformed to products or undergoes an energy transfer process without emitting Ly α -radiation. If a quenching field is applied spontaneous emission will compete with collisional deactivation, which allows the deactivation cross sections to be calculated. These cross sections are between 50 and 100 Å 2 (a) and about 50 Å 2 in case (b). In case (a) the collision cross section increases with the velocity of the particles whereas in case (b) a constant value was found.</t>
+          <t>Abstract Experimental results obtained by the writers show that the salinity of squeezed-out solutions from muds progressively changes with increasing overburden pressure. Both marine muds and clays plus sea water mixtures were used. Experimental results also show that the salinity of water remaining in shales should be considerably lower than that in associated sandstones. Yet, log analysts in their calculations assume that salinity of interstitial waters in shales and in sands is the same. This may result in erroneous interpretations. Field data show a typical pattern of decreasing salinity of produced water with time in zones which receive most of their water from associated shales. This supports the above-mentioned conclusion based on laboratory data. Introduction Large amounts of water are squeezed out of the continental and marine sediments during compaction and lithification. The overburden pressures on these sediments may reach pressures on these sediments may reach magnitudes of 14,000 to 36,000 psi in geosynclinal basins. Most of the salts present in the waters, which are trapped during sedimentation,, are squeezed out during the initial stages of compaction. The laboratory results obtained by Buneeva et al. Kryukov and Komarova, Kryukov and Zhuchkova, Rieke et al. and Chilingarian and Rieke showed that mineralization of squeezed-out solutions progressively decreases with increasing overburden pressure. Very little is known of the actual porosity of shale and the actual salinity of the contained water. It seems that if one could be determined the other probably could be calculated. The actual salinity of formation waters of the sands usually ranges from three times the salinity of sea water to one-fourth times the salinity of sea water [average salinity of sea water = 35 degrees/oo], and may range from greater than 10 times salinity of sea water to virtually fresh water. Recently, Foster and Whalen presented a technique for estimating formation pressures from electrical logs. This technique has been found especially applicable in the offshore Louisiana area in detecting abnormally high reservoir pressures. These authors, however, assumed that pressures. These authors, however, assumed that the water resistivity values in shales are equal to, or of the same magnitude, as that calculated for nearby sands. Consequently, solution Of this problem [chemistry of interstitial waters in shales vs chemistry of waters in associated sandstones] is of great practical importance.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071037515</t>
+          <t>https://openalex.org/W2071030441</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/5d25c5b9-16c1-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1063/1.1672415</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Klement (1969)</t>
+          <t>Jameson &amp; Gutowsky (1969)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Phylloid Algal Banks: ABSTRACT</t>
+          <t>Systematic Trends in the Coupling Constants of Directly Bonded Nuclei</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Phylloid algal banks form reservoir rocks in Upper Pennsylvanian shelf carbonates in many oil provinces of the United States. They are of special exploration interest in the Strawn (Desmoinesian) of West Texas and eastern New Mexico. Furthermore, the quantity of hydrocarbons in major fields which produce from these stratigraphic traps compares favorably with that produced from structural traps. Phylloid algal banks were studied by the writer. Data were derived from studies of surface and subsurface occurrences of these carbonate buildups. The stratigraphic and regional distribution of these algal banks, their mode of formation, their environmental dependencies, and their synecological associations with other fossil assemblages were studied together with the evaluation of reservoir properties, such as formation and destruction of porosity, log characteristics, production data, and statistics on primary and secondary reserve estimates of major representative fields. Algal mounds are formed by the sediment-baffling action of leaf-like (i.e., phylloid) algae of the Ivanovia group, a branch of CaCO3-secreting green algae of the family Codiaceae. The dense, pitchy growths of these algae on local shoals on the sea floor form an efficient sediment baffle. Fine-grained carbonate sediment accumulates between the algal blades where it is sheltered from winnowing by wave and current action. This results in the gradual building of a mound-like accumulation of sediment in those places where dense growths of these algae occurred. Thus, these algal mounds are biogenic banks, which, if preserved in the geologic record, would be bioherms and biostromes. Lithologic and paleontologic evidence indicates that these algal banks preferred shallow-water, wave-sheltered shelf environments in areas of clean carbonate deposition, distant from sources of land-derived clastics. Changes of water depth during transgressive and regressive cycles apparently exercised a sensitive control on the growth of these algae. The most luxuriant growth of these algae is obviously confined to an energy level below wave base, although these algae probably could endure intermittent higher wave action. Whenever the water became too shallow and the algal growths were above wave base, the algal mound development was interrupted. In many places, algal mounds are interbedded with layers of cleanly winnowed, well-sorted calcarenite or oolite. Phylloid algae have been reported in the United States from areas in southeast Kansas, the Panhandle of Oklahoma, north-central Texas, the eastern shelf of the Midland basin, the northwestern shelf of the Delaware basin, Hueco Mountains, Franklin Mountains, Sacramento Mountains, Robledo Mountains, and the Four Corners area. These phylloid algae range in age from Morrowan to Wolfcampian in the United States, and to early Middle Permian in Europe. The major occurrences of these algal banks in the Permian basin area are in strata of Desmoinesian, Virgilian, and Wolfcampian ages. In general, algal banks show evidence of a high primary porosity which formed when the highly warped algal blades were piled into a mound having a loose, or open fabric. The presence of such high primary porosity and permeability commonly leads to the development of secondary leaching porosity. Most commonly, the CaCO3 mud matrix between the algal blades is leached. Selective leaching of the algal blades End_Page 207------------------------------ is less common. Recrystallization of the CaCO3 mud matrix also is a common source for secondary porosity development. The combined amounts of primary and secondary porosity and the resulting permeability values may be large. In Greater Aneth field, Four Corners area, porosity values range from 3.5 to 26.2 percent, with an average of 10 percent. Permeability values reach a maximum of 932 md, with an average of 25 md. Estimated primary and secondary petroleum reserves may amount to 500 million bbl. Porosity destruction is caused primarily by secondary sparry calcite vug filling. Extensive leaching in the upper zones of an algal bank forms solutions which are oversaturated in CaCO3. When these supersaturated solutions percolate downward into the lower zones of the mound, precipitation of sparry calcite commonly begins. A rarer type of porosity destruction is that which results from a total collapse of the algal fabric. A relatively rapid diagenetic hardening of the CaCO3 mud matrix apparently is required to prevent collapse of the algal fabric under the weight of overlying sediment. In some places, anhydrite caused porosity occlusion. In one example, the porosity in a core had been destroyed completely by vug fillings composed of isolated small dolomite rhom ohedra. Synecological fossil assemblages associated with algal mounds or mound-associated facies have different compositions in mounds of different stratigraphic and regional settings. The following groups of fossils were recorded in algal banks: Foraminife</t>
+          <t>The indirect coupling constant JXN has been observed for the magnetic nuclei in 50 different pairs of directly bonded X–N atoms. A synopsis is given of the reported values along with the corresponding reduced constant KXN = (2π / ℏγXγN)JXN which depends only on the molecular electronic structure. There are three nuclei, N=1H, 13C, and 19F for which KXN is now known for 15 or more different nuclei X, enough that trends are visible in the dependence of KXN upon the position of X in the periodic table. The sign of KXN(positive for H2) changes across the table somewhat between Groups V and VI, the sense of the change for N=19F being the reverse of that for N=1H and 13C. Furthermore, there is a marked increase in the magnitude of KXN with increasing nuclear charge of atom X in each Group, for negative as well as positive coupling constants. The significance of these observed trends is considered. The Ramsey theory for the electron coupling of the nuclear spins includes orbital, spin-dipolar, and contact contributions. For directly bonded atoms, the orbital contribution is zero unless there is multiple bonding, the tendency for which decreases with increasing Z in a given Group. The spin-dipolar contribution increases with increasing Z; however, it is positive, and the values calculated are an order of magnitude smaller than those found experimentally for KXN. A model is presented attributing the observed trends to the contact contribution, which depends upon the nature of the bonding orbitals employed by each atom in the bond. If both atoms employ ns orbitals in the bond, the direct contact interaction term, which is positive, dominates. The bonding of Group VII and, to a lesser degree, Group VI atoms employs primarily p orbitals. In such atoms the contact interaction is indirect, involving polarization of the core s electrons and a change in sign of the term. The contact term with inclusion of such core polarization effects provides a model consistent with the data available. The model is used to predict the signs, in some cases also the magnitudes, of several coupling constants not yet observed. For example, in NF3, OF2, and F2, we expect KNF to be negative, KFF to be positive, and KOF probably to be positive. A number of features are discussed including the coupling in highly ionic bonds such as the Rb, Cs, and H fluorides, and the relationship of the model to nuclear hyperfine interactions in atoms and ions with unpaired spins and in organic free radicals.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071322155</t>
+          <t>https://openalex.org/W2071263081</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0020-1693(00)92458-7</t>
+          <t>https://doi.org/10.1016/0022-2852(69)90359-2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Burmeister et al. (1969)</t>
+          <t>King &amp; Srikameswaran (1969)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rare earth pseudohalide complexes</t>
+          <t>Analysis of the 4500 Å absorption system (R system) of carbon diselenide</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The synthesis and characterization of thiocyanate complexes of the type [(n−C4H9)4N]3[M(NCS)6] for all of the tripositive rare earth ions except CeIII, PmIII, TmIII, and LuIII is described. The analogous selenocyanate and cyanate complexes were found to be very unstable, decomposing even in an inert atmosphere at low temperatures. Infrared spectral measurements indicate that the pseudohalides are N-bonded in all of the complexes. The thiocyanate complexes do not dissociate appreciably in poorly coordinating solvents such as nitrobenzene and acetonitrile. Visible spectral measurements in the latter solvent reveal striking differences in the number and intensity of the bands in the spectra of the thiocyanate complexes, relative to those in the spectra of the hexachloro complexes of the same metal ions. The enhancement of the intensity of the bands in the thiocyanate spectra is indicative, especially in the case of the hypersensitive pseudoquadrupolar transitions, of a marked deviation from Oh symmetry, and may be attributed to non-linear M-NCS linkages. The molar absorptivities of the bands are even larger than those of the corresponding bands in the spectra of the aquo ions, [M(H2O)9]3+, which lack a center of symmetry. The PrIII and HoIII thiocyanate complexes were found to be photosensitive, the nature of the reaction being unknown.</t>
+          <t>Abstract The electronic absorption spectrum of carbon diselenide shows four discrete systems; 4800–3950 A ( R system); 4050–3450 A ( V system); 2600–2100 A; and 2100-below 2000 A. In this order, the relative intensities of the first three systems increase rapidly. The weak ( f ∼ 10 −4 ) R system has been analysed in detail, using CSe 2 synthesized from different pure isotopes of selenium. The system results from a parallel transition from the X 1 Σ g + linear ground state to a bent upper state of the molecule. In the R system, extensive progressions in the bending mode ν 2 are strongly active in both states. In the ground state, ν 2 ″( π u ) = 313.4, x 22 = 1.1 cm −1 for the (80, 80) isotopic species; ν 2 ″ = 313.5, x 22 = 1.2 cm −1 for the (78, 78) species. In the excited state, widespread perturbations occur, and only approximate values can be derived for constants. The bond angle is 125 ± 20°; ν 1 ′( a 1 ) is about 460 cm −1 , and ν 2 ′( a 1 ) is in the range 180–215 cm −1 . The unobserved origin band is calculated to be at 21 900 ± 400 cm −1 . The electronic transition is B 2 ← X 1 Σ g + , as in the corresponding R system of CS 2 , which has a very similar spectral structure. Although no Zeeman broadening of rotational lines could be detected in bands of the CSe 2 system, this does not exclude the possibility that the B 2 upper state is a component of a 3 A 2 state, as is believed to be the case for CS 2 .</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2081113527</t>
+          <t>https://openalex.org/W2080853340</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00005792-196948060-00003</t>
+          <t>https://doi.org/10.1177/003776866901600103</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Klipstein &amp; Falaiye (1969)</t>
+          <t>Benoit (1969)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TROPICAL SPRUE IN EXPATRIATES FROM THE TROPICS LIVING IN THE CONTINENTAL UNITED STATES</t>
+          <t>Valeurs sociales transmises par I'enseignement secondaire des églises et de l'état en Colombie</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The results of clinical, laboratory and therapeutic observations conducted over a seven year period in 40 expatriates from the tropics who presented in New York City with overt tropical sprue have been described. The majority of subjects presented with symptoms referable to the gastrointestinal tract, weight loss and weakness. Only nine were symptomatic at the time of arrival; the remainder developed symptoms within several months to 14 years after arrival. Thirty-five subjects had a megaloblastic anemia; this was a secondary to a combined deficiency of folate and vitamin B12 in 25 and to deficiency of only one of these vitamins in the other ten. Serum concentrations of albumin, calcium, and cholesterol were subnormal in approximately one-half and the serum carotene concentrations were low in all but two subjects. Serum values of one or more immunoglobulin were reduced in 19. All 40 subjects had malabsorption of xylose; 12 of 19 tested had malabsorption of a pharmacologic dose of folic acid; 27 of 28 tested had malabsorption of vitamin B12; and 23 of 27 persons tested had steatorrhea. Jejunal morphology was abnormal in 34 of 35 subjects biopsied prior to treatment; villi were completely absent in four and showed changes of moderate severity in 30. Treatment with pharmacologic doses of folic acid or vitamin B12 produced a clinical remission in 18 of 21 patients. This remission was sustained in all 14 subjects who were followed for periods of from one to four years and reevaluation of intestinal morphology and function in nine showed improvement in all, but return to normal in less than one-half. Treatment with oral tetracycline for three weeks resulted in clinical improvement in 11 of 12 subjects, a hematologic response in nine of the ten cases who had a megaloblastic anemia, increased absorption of xylose and cessation of steatorrhea in all, and improved jejunal morphology in 11. Vitamin B12 absorption remained subnormal in nine. Continued antibiotic therapy for six months in eight patients was associated with additional weight gain, further improvement in jejunal morphology and xylose absorption in all, and return of vitamin B12 absorption to normal in all except one. Fifty asymptomatic expatriates from the West Indies were surveyed for abnormalities of intestinal function. The absorption of xylose was reduced in six (24%) of 25 subjects who had been resident in a temperate climate for less than one year but in only one (4%) of 25 persons who had been away from the tropics for more than a year.(ABSTRACT TRUNCATED AT 400 WORDS)</t>
+          <t>This investigation was carried out among the final-year classes of 12 educational institutions: 3 State schools, 3 Protestant schools and 6 Ca tholic schools. The research is subdivided in three parts. The first part includes a content analysis of the courses of philosophy, religion and one called 'Columbian institutions', as well as an opinion survey dealing with the subject matter of the courses and the way it is taught. The second part sets out to determine which type of ideology attracts the pupils. The analysis was limited to a study of the pupils' attitudes with regard to certain dimensions of democratization and secularization, and their opinions on the social meaning of religion. The third part tries to see how far the family reinforces (or does not reinforce) the communication of the values transmitted by the school environment; with this in mind the head of each family was asked to explain the motives which lead him to choose a particular school, and also to give his opinions on social change. In general, it can be concluded that the values transmitted by education are socially traditional, even if it is possible to detect certain more liberal or democratic tendencies in some institutions. On the other hand, the survey among the pupils shows that even at the level of secondary education, some of them already hold critical opinions with regard to the cultural content which is transmitted to them by the family and the school. These channels of cultural transmission are inevi tably, today, competing with others, as for example the mass media, whose development is increasingly generalizing an ideological pluralism.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2084199185</t>
+          <t>https://openalex.org/W2083895970</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/j.1834-4461.1969.tb01003.x</t>
+          <t>https://doi.org/10.1016/0003-3472(69)90109-2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lindenbaum &amp; Glasse (1969)</t>
+          <t>Madison (1969)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FORE AGE MATES1</t>
+          <t>Homing behaviour of the red-cheeked salamander, Plethodon jordani</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>OceaniaVolume 39, Issue 3 p. 165-173 Article FORE AGE MATES1 Shirley Lindenbaum, Shirley LindenbaumSearch for more papers by this authorRobert Glasse, Robert Glasse Department of Anthropology, Queens College of the City University of New York.Search for more papers by this author Shirley Lindenbaum, Shirley LindenbaumSearch for more papers by this authorRobert Glasse, Robert Glasse Department of Anthropology, Queens College of the City University of New York.Search for more papers by this author First published: March 1969 https://doi.org/10.1002/j.1834-4461.1969.tb01003.xCitations: 6 †† The authors carried out joint fieldwork in Okapa Sub-district from June, 1961 until June, 1963. The first period, nine months, was supported by the Department of Genetics of Adelaide University; the second period of eleven months was under the auspices of the Department of Public Health of the Territory of New Guinea. We are grateful to both institutions. We should also like to thank Dr. M. J. Meggitt for commenting on an earlier draft of the manuscript. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Bibliography Barnes, J. A. (1962): “African Models in the New Guinea Highlands”, Man, 62. Berndt, R. M. (1962): Excess and Restraint: Social Control Among a New Guinea Mountain People, University of Chicago Press. Conklin, H. C. (1961): “The Study of Shifting Cultivation”, Current Anthropology, 2. Firth, R. (1936): “Bond Friendship”, in Dudley-Buxton (ed.), Custom is King: Essays Presented to R. R. Marett on his 70th Birthday, London. Glasse, R. M. (In press): “Marriage in South Fore”, in Meggitt and Glasse (Eds.), in Pigs, Pearlshells and Women: Marriage in the New Guinea Highlands, Prentice-Hall, New Jersey. Langness, L. L. (1964): “Some Problems of Conceptualization of Highlands Social Structure”, American Anthropologist, Special Publication on New Guinea, 66. Langness, L. L. (1967): “Sexual Antagonism in the New Guinea Highlands: A Bena Bena Example”, Oceania XXXVII. Meggitt, M. J. (1964): “Male-Female Relationships in the Highlands of Australian New Guinea”, American Anthropologist, Special Publication on New Guinea, 66. Mihalic, F. (1957): Grammar and Dictionary of Neo-Melanesian, The Mission Press, Techny, Illinois. Rappaport, R. A. (1967): Pigs for the Ancestors: Ritual in the Ecology of a New Guinea People, Yale University Press, New Haven. Read, K. E. (1952): “Nama Cult in the Central Highlands, New Guinea”, Oceania, XXIII. Read, K. E. (1965): The High Valley, Charles Scribner's Sons, New York. Scott, G. (1963): “The Dialects of Fore”, Oceania, XXXIII. Wurm, S. (1961): “The Languages of the Eastern, Western and Southern Highlands, T.P.N.G.” in Capell (ed.) Linguistic Survey of the South-Western Pacific, South Pacific Commission, Noumea. Citing Literature Volume39, Issue3March 1969Pages 165-173 ReferencesRelatedInformation</t>
+          <t>Homing studies were conducted with Plethodon jordani in conjunction with home range investigations in 1964 and 1965 in the mountains of North Carolina. The studies were conducted at night when the salamanders could be captured on the forest litter without disturbing the habitat. Each salamander was measured and marked by toe-clipping; only the adults were sexed. The location of each capture within the study areas was determined and recorded. Non-displacement studies revealed that adult males were usually recaptured within 20 ft (6 m), and females and juveniles within 10 ft (3 m), of their initial points of capture. Displacement studies in 1964 suggested that this species was able to home from various distances up to 500 ft (150m). Animals with prior homing experience returned more frequently from new displacement distances than did salamanders without prior homing experience. In 1965, displacements of 50 and 100 ft (15 and 30 m) showed that changes in elevation or direction accompanying displacement did not affect the animals' homing response. The per cent of the recaptured animals that homed from these displacements varied insignificantly from 60 to 90 per cent. Salamanders displaced 1000 ft (300 m) showed some capacity to home from these distances (9 per cent). The homing ability appeared to increase with the growth and maturation of the salamander, since the adults homed in significantly greater frequencies than did the juveniles. Males seemed better able to home from long distance displacements than did females. In all cases salamanders without their eyes homed in similar percentages to normal displacement animals. Eyeless males of both non-displacement and displacement groups had smaller home ranges than the males of the normal non-displacement and displacement groups. This apparent difference was not observed in the females and juveniles. Experiments concerned with bisecting the olfactory nerves were preliminary and uncontrolled. However, they gave some indication that the sense of smell is necessary in the homing response.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2088169138</t>
+          <t>https://openalex.org/W2087948728</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1469-8749.1969.tb01462.x</t>
+          <t>https://doi.org/10.1016/0022-3107(69)90086-0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sahlmann (1969)</t>
+          <t>Mizuta &amp; Fukai (1969)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Autism or Aphasia?</t>
+          <t>Geometrical effects on 238U resonance integral for various systems</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SUMMARY In cases of severe childhood autism an exact differential diagnosis is essential. Out of 60 children justly labelled autistic by the investigating hospitals and who could not communicate by speech, 16 were actually suffering from severe executive aphasia which was found to be of a secondary reactive nature. This group improved greatly in their all round personality development as soon as their underlying aphasia was treated. Though their speech and understanding did not progress fast, their behaviour changed completely and their personal inter‐relationship quickly became near to normal. The remaining 44 pupils with childhood autism were not given any kind of speech therapy because their refusal to talk seemed to be of a genuine autistic non‐communicating nature. There was never any discrepancy between linguistic efforts and general ability to make contact. As the therapeutic approaches to these two groups are entirely different, it is important to exclude those children whose underlying condition is aphasia. Résumé Aphasie ou Autisme Dans les cas d'autisme infantile graves, un diagnostic differentiel precis est indispensable. Sur 60 enfants etiquetes autistiques apres étude sérieuse, par examens hospitaliers et qui ne pouvaient effectivement pas communiquer par la parole, 16 enfants en fait etaient surtout atteints d'une grave aphasia d'expression dont on a pu montrer qu'elle etait reactionnelle. Ce groupe s'ameliora rapidement dans tous les aspects de la personnalite et du développement des que l'aphasie sousjacente fut traitee. Bien que la parole et la comprehension ne progresserent pas rapidement, le comportement de ces enfants changea completement et leurs inter‐relations personnelles se normaliserent rapidement. Les 44 autres enfants atteints d'autisme ne recurent aucune sorte de Traitement ortho‐phonique car leur refus de parler semblait relever d'un autisme essentiel de non‐communication sur tour les plans. II n'a alors été note aucune difference entre les efforts linguistiques et l'aptitude generate a entrer en contact. Du fait que l'abord therapeutique de ces deux groupes est entierement different, il apparait tres important de separer ces enfants dont la condition sous‐jecente est une aphasie. ZUSAMMENFASSUNG Aphasie oder Autismus ? Bei schwerem kindlichen Autismus ist eine exakte Differentialdiagnose sehr wichtig. Bei einer Gruppe von 60 Kindern, die von den untersuchenden Kliniken in gleicher Weise als autistisch bezeichnet wurden und die sich nicht durch Sprache verstandigen konnten, litten 16 an einer Aphasie sekundar reaktiver Natur. Diese Gruppe zeigte eine deutliche Besserung in ihrer ganzen Pers6nlichkeitsentwicklung, sobald die zugrundeliegende Aphasie behandelt wurde. Obwohl sie beira Sprechen und Verstehen keine so groBen Fortschritte machten, anderte sich ihr Verhalten vdllig und ihre zwischenmenschlichen Beziehungen normalisierten sich schnell. Dieüibrigen 44 Schiiler mit kindlichem Autismus wurden keiner Sprechtherapie unter‐zogen, weil sie sich aufgrund eines angeborenen autistischen Verhaltens weigerten zu sprechen. Es gab keine Diskrepanz zwischen den sprachlichen Anstrengungen und der allgemeinen Fahigkeit, Kontakt aufzunehmen. Da das therapeutische Vorgehen bei diesen beiden Gruppen vollig verschieden ist, ist es wichtig, die Kinder herauszufinden, bei denen eine Aphasie zugrunde liegt. RESUMEN Afasia o autismo ? En casos de autismo grave en los niños es esencial hacer un diagnóstico differencial exacto. De 60 niños razonablemente diagnosticados autísticos por los hospitales que los investigaren, y que se negaban a hablar, se hall6 que 16 padecian en efecto de un tipo secundario reactivo. Este grupo mejor6 mucho tan pronto como se traté la afasia fundamental. Aunque no hicieron progresos rapidos de habla y de comprensi6n, su comporta‐miento cambi6 completamente y sus inter‐relaciones personales se hicieron rapidamente normales. Los otros 42 niños autisticos no recibieron ningun tipo de terapeutica del habla, puesto que su negaci6n a hablar parecfa proceder de un nivel genuinamente autistico y no‐comunicador. No habia nunca una discrepancia entre sus esfuerzos ligii listicos y sus esfuerzos paia ponerse en contacto con otras personas. Puesto que la terapeutica para los dos grupos es completamente diferente, es importante excluir los niños cuya afecci6n fundamental es la afasia.</t>
+          <t>Abstract Geometrical effects on the resonance integral of 238U are investigated by use of the RICM code, which calculates the resonance integrals in multi-region lattices and other various geometries. The geometries under consideration here are: (1) Various isolated lumps immersed in an infinite sea of moderator; a cylinder, plate, sphere and square cylinder. (2) Isolated systems having fuel or moderator regions within; a single annular, three region annular with a solid cylinder at its center, concentric double annular and tube-in-shell type fuel. (3) Lattices and clusters made up of regular hexagonal and square fuel rod arrangement. The resonance integrals of 221U for the fuel rods of U-metal, UO2 and UC are calculated by the RICM code and are compared with the experimental values of many researchers. Two assumptions in general use, i.e. the flat flux approximation in the fuel region and the 1/E flux assumption in the moderator, are further investigated. Temperature dependence of the resonance integrals are also calculated for the cases of the U-metal and UO2 fuel rods and the results are compared with the experimental ones. An equivalence of various isolated lumps to a cylinder has been established by introducing an effective surface area with a correction factor. By use of the RICM code, the resonance integrals of the annular and tube-in-shell type U02 fuel, lattices and clusters of the U02 rods are calculated. So as to minimize the difference between the above value and the one derived from the fitted formula for the resonance integral of the U02 rod, a value of the correction factor a in the expression of the effective surface area, introduced by LEVINE is determined to be 0·07. In the lattice and cluster calculations, the propriety of the NORDHEIM'S (or Bell's ) approximation for the fuel escape probability in a lattice is investigated and it turns out that his approximation is fairly good, so far as the systems are not quite compact. Finally, the RICM calculations are carried out for the experimental systems of the clusters used by Hellstrand, Pershagen and Amyot et al., and the resultant values are compared with their experimental ones. It is clear from all the comparisons shown here that the calculation is always in fairly good agreement with the experiment. This fact leads to the conclusion that the propriety of both the calculational method used in the RICM code and the adopted values of resonance parameters of 228U has been verified. The resonance parameters used throughout this report come from the recommendation made in BNL-325. New resonance data from ‘Petrel project’ give nearly same resonance integrals as the BNL-325 data.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2093016963</t>
+          <t>https://openalex.org/W2092971371</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00010694-196903000-00002</t>
+          <t>https://doi.org/10.2118/69-03-01</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Zasłavsky (1969)</t>
+          <t>Douglas et al. (1969)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SATURATION-UNSATURATION TRANSITION IN INFILTRATION TO A NON-UNIFORM SOIL PROFILE</t>
+          <t>The Application of Variational Methods to Waterflooding Problems</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A BRIEF REVIEW IS PRESENTED OF THE PROBLEM OF STEADY INFILTRATION INTO SOIL. EXPERIMENTS FOR DETERMINING THE TRANSITION FROM UNSATURATED TO SATURATED SOIL WERE CONDUCTED IN A COLUMN OF SAND, INSTALLED WITH A SERIES OF TENSIOMETERS. DIRECT MEASUREMENTS SHOWED THAT THE HYDRAULIC CONDUCTIVITY IN THE COLUMN WAS NOT UNIFORM. THE COLUMN WAS TREATED AS A GRADUALLY VARYING PROFILE ACCORDING TO THE GIVEN EQUATIONS. THE EXPERIMENTS CLEARLY DEMONSTRATE THE VALIDITY OF THE THEORY OF TRANSITION. IT WAS SHOWN THAT THE PRESENCE OF GROUND WATER DOES NOT INFLUENCE THE INFILTRATION RATE IN ANY WAY, UNLESS IT COMES VERY NEAR THE INTERFACE BETWEEN LAYERS. IT IS CONCLUDED THAT IN THE PRESENCE OF CONTROLLED LAYERS AT THE SURFACE, MEASUREMENTS WITH INFILTRATION RINGS NEED NO BUFFERING AT THE CIRCUMFERENCE TO PRESERVE VERTICAL FLOW. INFILTRATION RATE IS UNAFFECTED BY THE FLOW DIVERGENCE BELOW THE CONTROL LAYER. THE CONCEPT OF A CONTROL LAYER AT THE POINT OF WATER ENTRY MAY BE QUALITATIVELY EXTENDED TO TWO DIMENSIONAL AND THREE DIMENSIONAL FLOW. A FIGURE IS PRESENTED WHICH ENABLES ONE TO DEFINE SOME EQUIVALENT LAYER OF FLOW RESISTANCE AND AN EQUIVALENT HYDRAULIC CONDUCTIVITY. THIS APPROACH IS USEFUL FOR EVALUATING LEAKAGE FROM RESERVOIRS WITH COMPLEX TOPOGRAPHY AND FOR COMPUTING INFILTRATION RATES IN AREAS OF ARTIFICIAL GROUND WATER RECHARGE.</t>
+          <t>ABSTRACT A numerical method based on the calculus of variations is proposed for thesolution of displacement problems. The mathematical development is given inconsiderable detail and two numerical examples are presented. Displacementsleading to smooth saturation profiles are approximated with very high accuracy.Displacements leading to very steep saturation profiles are approximated withconsider ably greater accuracy by the Galerkin method of this paper than byfinite differences for the same amount of calculation. The sharp front islocated with a small error. INTRODUCTION DISPLACEMENT OF ONE FLUID BY ANOTHER from the pores of rock has been studiedextensively. The most widely used approach for obtaining predictionsengineering purposes has been the use of finite for difference procedures. Insome cases, this approach has been most satisfactory. However, displacementproblems are characterized by the movement through the reservoir of a "front,"a zone of rapid change in saturation, and adequate prediction of frontalprofiles by finite difference methods usually requires an un economicrefinement of the grid. The problem and alternative approaches are discussed in [8, 12, 14].Reference [8] recognizes the almost hyperbolic nature of the problem, andproposes a hyperbolic method, namely the method of characteristics, formiscible displacement. In its implementation, a number of moving points aredefined to treat convection (i.e., transport by flow), and dispersion istreated by approximating the small amount of transport due to mixing by afinite difference technique applied to a fixed grid through which the pointsmove. In [14], the idea is generalized to the immiscible case, and it waspointed out there that the point density (i.e. the number of points per cell ofthe grid must be increased as the grid is refined.) This increase must be madein exactly the same way that the precision of the computations (i.e., wordlength of the machine) must be increased as the grid is refined, because thetruncation error dependence upon point density enters in much the same way asthe rounding error dependence on the precision of computation. In [12], an experimental study of convergence rate (i.e., the rate at whichthe computed solution approaches the exact solution of the problem as the gridis refined) using a constant point density indeed verified the expected lack ofconvergence, while revealing that with a fixed density the errors remain smallbut bounded. In [12], there was also discussed an alternative approach based onvariational methods for which the experimental convergence studies on "hard"problems, (i.e., ones with sharp fronts) are most encouraging. This workexamined the Galerkin formulation for one-dimensional miscible displacement andconcluded that it offered far superior accuracy for the computing work involvedwhen compared with finite difference techniques. This same conclusion may bevalid for the comparison with the method of characteristics. as the pointdensity must theoretically be increased linearly with the number of gridintervals. This, however, remains an open question. The purpose of this paper is to study experimentally the value of Galerkinprocedures applied to a significantly more difficult displacement problem, namely waterflooding in which a substantial Buckley-Leverett "shock" develops.In the physical problem in which capillarity plays a role, such shocks are notdiscontinuities, but degenerate into regions of very steep</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2101663621</t>
+          <t>https://openalex.org/W2100305910</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0010417500005508</t>
+          <t>https://doi.org/10.1152/jappl.1969.27.4.531</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dore (1969)</t>
+          <t>Hoffer et al. (1969)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The Modernizer as a Special Case: Japanese Factory Legislation, 1882–1911</t>
+          <t>Correlation of whole-body impedance with total body water volume.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>The ‘modernizer’ is a special species of the genus ‘innovator’ and one which only in the last century has appeared in large numbers on the human scene. There have, to be sure, been groups and individuals at many moments in world history who would qualify under the definition of the modernizer which I propose to use: ‘one who seeks the transformation of his own society or segments of it in imitation of models drawn from another country or countries’. Those Japanese court officials of the seventh century who tried to remould their country on the model of T'ang China are a case in point, and one could probably find many examples on the fringes of the great empires of the past. But it is only in the last century of Western colonialism and rapid technological change that this has become a world-wide phenomenon. It is also only in the last century that the doctrine of human progress has achieved such implicit world-wide acceptance that the imitated models have been seen not simply as ‘superior’ but also as ‘more advanced’—further ahead, that is, in some imputed scale of linear progressive development. The consciousness of backwardness, the concept of underdevelopment, are relatively new.</t>
+          <t xml:space="preserve">ArticleCorrelation of whole-body impedance with total body water volume.E C Hoffer, C K Meador, and D C SimpsonE C Hoffer, C K Meador, and D C SimpsonPublished Online:01 Oct 1969https://doi.org/10.1152/jappl.1969.27.4.531MoreSectionsPDF (912 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByFrom Bioimpedance to Volume Estimation: A Model for Edema Calculus in Human Legs14 March 2023 | Electronics, Vol. 12, No. 6Bioimpedance basics and phase angle fundamentals7 February 2023 | Reviews in Endocrine and Metabolic Disorders, Vol. 30Application of bioelectrical impedance in newborns: an integrative reviewNutrición HospitalariaPhase angle obtained via bioelectrical impedance analysis and objectively measured physical activity or exercise habits14 October 2022 | Scientific Reports, Vol. 12, No. 1Studies on human body composition in Russia: past and present3 May 2022 | Journal of Physiological Anthropology, Vol. 41, No. 1High precision but systematic offset in a standing bioelectrical impedance analysis (BIA) compared with dual-energy X-ray absorptiometry (DXA)1 November 2022 | BMJ Nutrition, Prevention &amp; Health, Vol. 5, No. 2A comparative analysis of body composition assessment by BIA and DXA in children with type II and III spinal muscular atrophy18 November 2022 | Frontiers in Neurology, Vol. 13Non-Invasive Sensor-Based Multi-Output Networks for Predicting Multiple Blood Components LevelsJournal of the Korean Institute of Industrial Engineers, Vol. 48, No. 5Classification and Feature Extraction Using Supervised and Unsupervised Machine Learning Approach for Broiler Woody Breast Myopathy Detection20 October 2022 | Foods, Vol. 11, No. 20Body composition and phase angle by bioimpedance in patients with MAFLDGastroenterología y Hepatología (English Edition), Vol. 45, No. 7Análisis de la composición corporal y ángulo de fase por bioimpedancia en pacientes con MAFLDGastroenterología y Hepatología, Vol. 45, No. 7Wearable ring bioelectrical impedance analyzer for estimation and monitoring of body fatSmart Health, Vol. 24The clinical application value of the extracellular-water-to-total-body-water ratio obtained by bioelectrical impedance analysis in people with advanced cancerNutrition, Vol. 96Serum Impedance in Children with Recurrent Respiratory Infections8 February 2022Muscle Health1 January 2022Nine Electrodes Human Body Composition Model Based on SVM(SVM-BCM9)4 January 2022Analyzing Intake of Water by a Human Using Meteorological Conditions23 April 2022Noninvasive health monitoring using bioelectrical impedance analysisBioimpedance analysis of body composition: what should general practitioner know?Profilakticheskaya meditsina, Vol. 25, No. 10Methods for assessing the electrophysical properties of body tissues and the possibility of their application in forensic medical practiceSudebno-meditsinskaya ekspertiza, Vol. 65, No. 6Wrist-wearable bioelectrical impedance analyzer with miniature electrodes for daily obesity management13 January 2021 | Scientific Reports, Vol. 11, No. 1Comparison of intravenous sedation using midazolam during dental treatment in elderly patients with/without dementia: a prospective, controlled clinical trial11 February 2021 | Scientific Reports, Vol. 11, No. 1Modeling Edema Evolution With Electrical Bioimpedance: Application to Heart Failure PatientsA geometrical method for modeling bioelectrical impedance measurements and remove the hook effect deviationsMicro‐electrodes for in situ temperature and bio‐impedance measurement4 May 2021 | Nano Select, Vol. 2, No. 10In Search of Clinical Impact: Advanced Monitoring Technologies in Daily Heart Failure Care13 October 2021 | Journal of Clinical Medicine, Vol. 10, No. 20Acceptability of Artificial Intelligence in Poultry Processing and Classification Efficiencies of Different Classification Models in the Categorisation of Breast Fillet Myopathies22 September 2021 | Frontiers in Physiology, Vol. 12Association of bioelectrical phase angle with aerobic capacity, complex gait ability and total fitness score in older adultsExperimental Gerontology, Vol. 150Assessment of Body Composition in Athletes: A Narrative Review of Available Methods with Special Reference to Quantitative and Qualitative Bioimpedance Analysis12 May 2021 | Nutrients, Vol. 13, No. 5Physiological interactions with personal-protective clothing, physically demanding work and global warming: An Asia-Pacific perspectiveJournal of Thermal Biology, Vol. 97Bioimpedance analysis as a tool for hemodynamic monitoring: overview, methods and challenges6 April 2021 | Physiological Measurement, Vol. 42, No. 3Investigation of Changes in Quality Indicators of Agro-Industry Products DuringIOP Conference Series: Earth and Environmental Science, Vol. 666, No. 2A Plethysmography Capacitive Sensor for Real-Time Monitoring of Volume Changes in Acute </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2135499742</t>
+          <t>https://openalex.org/W2135143493</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s037346330002645x</t>
+          <t>https://doi.org/10.1080/0305006690050305</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Clissold (1969)</t>
+          <t>Adams &amp; Farrell (1969)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Why the Rules Need Changing</t>
+          <t>Societal Differentiation and Educational Differentiation</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The Regulations for Preventing Collisions at Sea were formulated before the invention of radar, and radar has invalidated one of the principles upon which the Rules are based. This principle is that when two vessels are in risk of collision one shall get out of the way, and the other shall stand-on (except in the cases where two vessels are meeting end-on, and where the stand-on vessel finds herself so close that collision cannot be avoided by action of the giving-way vessel alone). This assumes that if one vessel can see another she also can be seen, and this is of course likely to be the case where visual sighting is concerned. From radar observations one cannot know if the other ship has observed you, and it is unlikely that we shall know this with certainty, for radar and other aids may fail. Providing there is sufficient sea-room and not too much traffic, this drawback can usually be overcome by taking early and substantial avoiding action (as recommended in the Annex to the Rules). If one ship makes a manœuvre which cancels the avoiding action taken by the other there is still time for second thoughts; but in crowded waters there may not be so. Even when both vessels are navigated correctly, the imprecision of radar predictions may lead to dangerously close passings.</t>
+          <t>Comparative education is frequently concerned with the dynamics of educational change and with educational change in the context of social change. One concept widely recognized by social scientists in the study of change but relatively untapped in educational studies is differentiation. In this paper explorations will be made into the nature of societal differentiation and into the meaning and measurement of educational differentiation. A tentative evaluation will also be offered of the utility of differentiation as an analytic tool for scholars in comparative education.(1)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2145968356</t>
+          <t>https://openalex.org/W2145771732</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1107/s0567739469000295</t>
+          <t>https://doi.org/10.2118/2202-pa</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Milledge (1969)</t>
+          <t>Earlougher (1969)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Real crystals as a source of error</t>
+          <t>Some Practical Considerations in the Design of Steam Injection Wells</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Specimen-dependent properties of real crystals which influence the accuracy of intensity measurement are size, shape, homogeneity, stability and environment. Variations of any of these will affect the corrections necessary to allow for absorption and extinction in a given experimental measurement; these in turn will affect the evaluation of the absolute intensity, and the two principal tests for internal and external consistency, namely variation within any form {hkl}, and variation of mean values I{hkl} between different specimens. They may also affect the relative values of I{hkl} within one data set, leading for example to spurious anharmonicity in the temperature factors derived for an ellipsoidal crystal. Examples of practical solutions of actual problems involve waxes instead of glues for crystal mounting, miniature films or intensifying screens for use in unstable situations or with very small crystals, integrated oscillation photographs for intensity measurements from poor specimens, rotation photographs for high symmetry crystals, the use of Laue photographs for the detection of order-disorder phenomena, and the incorporation of an iron-55 source in an automated diffractometer to provide an internal standard for intensity measurements.</t>
+          <t>In planning the completion and injection program for a steam injection well, it is important to consider the effects of fluid dynamics and heat loss on the wellbore and on the steam so that steam with the desired properties will reach the formation and so that wellbore equipment will properties will reach the formation and so that wellbore equipment will not be damaged. Introduction Normally, completion of a steam injection well must be designed so saturated steam can be injected into an oil reservoir at the desired rate, pressure (or temperature, since one determines the other) and heat content It is also necessary to prevent thermal damage to wellbore equipment during the steam injection process. To achieve this, both heat loss and pressure process. To achieve this, both heat loss and pressure change effects must be considered. Pressure change in the injection string includes frictional pressure drop, pressure increase due to the weight of the steam column (static pressure change), and pressure change due to change in fluid velocity (kinetic energy change). Heat is lost to the surrounding wellbore equipment and to the earth due to the high temperature of the steam. Generally it is desirable to design the completion so that the cost of heat lost is minimized and so the casing temperature is kept low enough to prevent casing damage. Willhite and Dietrich as well as Leutwyler and Bigelow have discussed the effects of high temperature on casing. For laterally supported casing, Willhite and Dietrich propose that the completion be designed so the thermal compressive stress will be less than the yield point of the casing. To calculate casing temperature and casing stress it is necessary to calculate the heat lost by the injected steam. Satter has presented a depth-step method for calculating heat loss and steam quality for saturated steam as a function of depth. Since Satter assumed no pressure change with depth, he assumed, in effect, that the temperature of the injected saturated steam remains constant, and that only the quality varies with depth. Holst and Flock improved the accuracy of the heat loss calculation by including the effects of frictional pressure drop in the injection string. However, they neglected static pressure change. In this paper steam and casing conditions are presented as functions of depth for several steam presented as functions of depth for several steam injection and well completion situations. This information, which has been obtained from heat loss calculations, is used to indicate the types and magnitude of various problems that should be considered in designing problems that should be considered in designing completions for steam (or any hot fluid) injection wells. The technique used for calculating heat loss and down-hole conditions is described briefly in the Appendix. Conditions During Steam Injection Heat loss calculations have been used to investigate the effects of well completion on steam injection well behavior. Figs. 1 through 4 show down-hole conditions for five different completion schemes. These figures apply after one week of injection of 500 psia, 467F, 80 percent quality steam (surface conditions) at 6,000 lb/hr. Table 1 gives the physical characteristics of the injection well. Table 2 gives completion details for the five cases shown in Figs. 1 through 4. For convenience in showing calculated results for the completion conditions involved, the low injection rate is used. JPT P. 79</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2164484721</t>
+          <t>https://openalex.org/W2164290695</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1051/lhb/1969068</t>
+          <t>https://doi.org/10.1007/bf02635721</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Durbreuil (1969)</t>
+          <t>Mehrotra &amp; Varma (1969)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Les études analytiques de l'infiltration, du mouvement de l'eau dans le sol et de l'alimentation de la nappe phréatique sur quelques bassins représentatifs de l'O.R.S.T.O.M.</t>
+          <t>Studies on surface tension of the system: Barium soap‐water and propanol‐1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>For nearly twenty years O.R.S.T.O.M. hydrologists have been investigating runoff in 80-odd groups of representative basins in intertropical and arid regions. Due to difficulties experienced in establishing a rainfall/runoff transformation model they are now concentrating their efforts on the analysis of the remaining terms of a storm shower water balance, i.e. infiltration, storage and movement of the water in an unsaturated ground zone, and aquifer recharge. This new line of research started in about 1996 and is now developing. The accuracy and quality of gravimetric and neutron probe measurements are discussed. What is most important is that the likely measurement error can be established by variance analysis. Reference is also made to systematic standardised measurements of the hydrodynamic characteristics of ferruginous tropical soils in 25 groups of basins, the purpose of which was to obtain a basis of comparison between basins with a view to analogue processing of the information. Detailed studies are in progress on elementary basins of 3.6 sq.kms. and 5 sq.kms., the former on granitic sandstone in the North Ivory Coast region (Korhogo) and the latter on shale and granite in the Malagasy uplands (Tafaina). The first concrete results obtained are presented, concerning variations in the water profile under the effect of storm rainfall causing a flood, estimated true dry season evapotranspiration, the process whereby an initially dry soil becomes saturated and then dries out again.</t>
+          <t>Abstract The surface tension results of the barium soap solutions in water‐propanol‐1 mixtures have been explained on the basis of Szyszkowski's empirical equation: γ = γ o (1 + X ln Y) ‐ X γ o ln C. The values of the constants X and Y of the equation have been calculated for various soap systems. The constant X is found to be almost independent of the composition of the solvent mixture but it depends to some extent on the chain length of the soap. The values of Y show a marked increase at 50% propanol‐1 concentration which confirms that the transition in the nature of the micelles takes place at about 50% propanol‐1 concentration. The values of X and Y are suggestive of the size and nature of the micelles, respectively.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2171851803</t>
+          <t>https://openalex.org/W2170109314</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rspa.1969.0209</t>
+          <t>https://doi.org/10.1121/1.1971284</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Vidaud &amp; Engel (1969)</t>
+          <t>Marshall et al. (1969)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Enhancement of ionization in nitrogen by excited nitrogen molecules and their de-activation</t>
+          <t>Evaluation of Acoustical Adjusting Devices Using a 1-to-24 Scale Model of an Auditorium</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The rate of ionization of nitrogen at 300 K and at gas pressures of 1 to 30 Torr is considerably increased by admixing neutral molecules of electronically excited nitrogen, N* 2 . This effect is demonstrated by measuring the corresponding decrease in electric strength as a function of the population of the excited species. These are produced in a weak electric discharge which is maintained at one end of a long tube filled with N 2 . From there they diffuse into the test region at the other end where a high frequency electric field is applied to determine electric breakdown voltage of the partially excited gas. Gas contamination is avoided by using external electrodes throughout. The population of N* 2 in the test region is varied by changing the gas pressure and the distance between the test region and the source whose activity is kept constant. It is found that at a pressure of about 1 Torr and a distance of 10 cm the electric strength of N 2 + N* 2 is up to 15% smaller than that of N 2 . The presence of N* 2 is also detected by the colour change of a metal oxide powder with which it reacts; for example, pale green MoO 3 exposed to N* 2 is reduced to blue MoO 2 within 10 to 100s. From the time interval between the exposure of the powder to the gas and the colour change, the relative concentration of N* 2 is obtained as a function of distance in a 4 cm wide tube up to 80 cm from the source at pressures up to 30 Torr when the system is kept in a steady state. In addition, the time dependence of the concentration along the tube is observed in the non-steady state. A colour test with calcium shows that outside the source nitrogen atoms are negligible in numbers. Also by means of a platinum resistance wire the total energy flux and the number of N* 2 is measured and, with an electron emission detector, their spatial distribution is again confirmed. Analysis of the results shows that the extremely slow decay of N* 2 at lower pressures is essentially controlled by spontaneous radiation and wall collisons, whereas collision deactivation sets in above about 10 Torr. It is concluded that the bulk of N* 2 outside the source is in the A( 3 ∑ u + ) state with a free life of 12 s and a concentration of about 10 13 particles/cm 3 at 1 Torr; hence 1 part in 10 4 of N 2 are electronically excited. The efficiency of wall deactivation to the ground state of N 2 by Pyrex glass and platinum is found to be 3 × 10 -5 and 3 × 10 -3 respectively, the efficiency of electron emission from platinum is about 10 -7 excited molecules per electron collected and the upper bound of the activation energy for reducing MoO 3 is 6.1 eV, the zero vibrational level of the A state. Since the potential energy of two A state molecules is smaller than the ionization energy of N 2 , deactivation by ionization along the tube is not feasible. However, enhancement of ionization can occur in an electric field when electrons collide with such long-lived excited molecules thus raising them to higher vibrational levels so that pairs with a potential energy ≥ ionization energy can produce ionization on collision.</t>
+          <t>It has been recognized for many years that varying types of performance activities in multipurpose auditoriums require substantial adjustment in the acoustics environment if optimum hearing conditions are desired. This paper discusses use of a 1-to-24 scale model of an auditorium to help evaluate the acoustical effectiveness of motor-operated adjustment devices. The tests used an impulse-noise source at various locations on stage and a microphone positioned in various seat locations. The decay fields established by various combinations of source/receiver positions were displayed on an oscilloscope, and photographed. The photos were compared to study the changes in the decay field resulting from adjustments of the model reflecting and absorbing surfaces. The results of this testing program are described.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2197844325</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1061/jupdaj.0000091</t>
+          <t>https://openalex.org/W2186262554</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Helms (1969)</t>
+          <t>Tarnowska (1969)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The Aftereffects of Annexation - A Case Study</t>
+          <t>Nowe podczwartorzędowe wychodnie lamprofirów w Górach Świętokrzyskich</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Because of the post World War II population growth, the steady shift of our country’s people from rural areas to urban centers, and seemingly irreversible agonies of congestion, urban sprawl and deterioration, responsible City Governments are obliged to exercise whatever means are available to them to protect the quality of their immediate environment as well as to secure material for orderly future growth, additional land area. In very few cases has State Government proven itself able and free to remedy problems of uncontrolled urban growth once they exist. Accordingly, the City must be its own defender. Where state law does not provide the municipality with controls for zoning and development of abutting lands about its periphery, annexation is one positive means for acquiring necessary protective authority. This case history deals with political, financial, legal, inter-jurisdictional, urban planning, and other problems which confronted Oklahoma City in its successful effort to protect its future and the future of its service commitments.</t>
+          <t>NEW SUB-QUATERNARY OUTCROPS OF LAMPROPHYRES IN THE ŚWIĘTOKRZYSKIE MTS. Summary In the light of the geological structure, the paper presents the position of the lamprophyres found to occur in the marginal zone, between the Klimontow anticlinorium and Łagow synclinorium (Fig. 2), gives a description of new lamprophyre outcrops, and illustrates the physic microscopic and microscopis features of weathered lamprophyres. Sub-Quaternary lamprophyre outcrops have been ascertained during the earth workings in the Wszachow - Iwaniska block, at a depth of 0.7-4.2 m. They occur in the Cambrian formations, at the Cambrian - Emsian boundary zone, and in the Emsian formations. Moreover, they have been encountered by 6 shallow bore holes, as well. Lamprophyres have also been investigated in an uplifted block near Kabza. The lamprophyres here considered occur in several elongated disjunction zones of a WNW-ESE direction, characterized by varying nature and various genesis. Lamprophyre dikes have been found to appear also in the shearing-off discontinuities, within the marginal part of the Cambrian formations in the Klimontow anticlinorium (bore holes: Wszachow 1, Iwaniska 1, Iwaniska 3; ditches: in the southern part of Zielonka, and near Wzory - Fig. 3). Magnetic anomalies that reflect the presence of these lamprophyres disappear beneath the Devonian cover (Fig. 2). The next zone is remote about 100-400 metres northwards, and the lamprophyres use tectonic contact of Cambrian and Emsian, as well as fractures within the rigid rocks of Emsian age in the Łagow synclinorium (bore holes: Wszachow 2, Iwaniska 2, test pits: Zielonka – Fig. 4 – Poreba Gorna and Poreba Zaldowska). The northernmost zone is represented by a lamprophyre series pierced by bore hole Stobiec-1a, at a thrown dislocation, in the Middle Devonian dolomites. Near Stobiec, the total width of the three zones of lamprophyres amounts, approximately, to 1.2 km. The lamprophyre dikes of the southern zone reveal an abrupt (75-90°) dip southwards, and those of the northern zone - a northern dip. The dip at the lamprophyre near Stobiec is unknown. The mineralogic-structural nature of the dikes points to a multiple formation process of the lamprophyres. Most probably, the lamprophyre material intruded or was active twofold, at least, during the recurring periods of favourable orogenic-tectonic conditions. Part of the lamprophyres represents a generation of older lamprophyres (probably of pre-Devonian age), part, in turn, younger ones, post-Devonian, in age. The lamprophyres appear as dikes, interbedded veins, and various intermediate forms between dike and sill. For the most part the lamprophyres occur in the form of fine, single or composite, dikes (1-4 m) attached to the longitudinal disjunction zones. The thickness of the lamprophyre forms ranges from 0.01 to 17.0 m. Three stages of lamprophyre weathering process have been distinguished to appear in the hypergene zone: initial, intermedite and final. Depending upon the weathering stage, both physical and geophysical features of lamprophyres change their mineral composition and vary considerably. In the more advanced weathering stages the lamprophyres take rusty colour (due to limonitization process), or became decoloured, the colour changing into creamy-white (due to kaolinitization process). Moreover, in this case they are light, porous, their magnetic properties decrease or disappear completely (Table 1). These changes are due to the varying mineral composition in the hypergene zone. In the weathered lamprophyres are found, beside primary minerals preserved as relics (biotite, feldspars, magnetite, apatite), also their alteration products, as well as supergene minerals such as hydrobiotite, vermiculite, chlorites, calcite, quartz, chalcedony, kaolin, and Fe hydroxides (Tables I-II). In the final weathering stage, the rock is built up mainly of supergene minerals among which kaolin predominates (Figs. 6; tabl. II, Figs. 15-17). The lamprophyres here considered are easily accessible in the areas, where longitudinal disjunctive zones of lamprophyres cross with the axes of transversal elevations, i.e. where considerable groups or swarms of dikes have been produced. In such areas, the lamprophyre outcrops are found to occur immediately under a thin Quaternary cover, the magnetic anomalies being characterized by considerable amplitudes. It is therefore suggested to begin prospections for new lamprophyres in the future in such sites of course. Normal 0 21 false false false PL X-NONE X-NONE /* Style Definitions */_x000D_
+ table.MsoNormalTable_x000D_
+	{mso-style-name:Standardowy;_x000D_
+	mso-tstyle-rowband-size:0;_x000D_
+	mso-tstyle-colband-size:0;_x000D_
+	mso-style-noshow:yes;_x000D_
+	mso-style-priority:99;_x000D_
+	mso-style-qformat:yes;_x000D_
+	mso-style-parent:;_x000D_
+	mso-padding-alt:0cm 5.4pt 0cm 5.4pt;_x000D_
+	mso-para-margin:0cm;_x000D_
+	mso-para-margin-bottom:.0001pt;_x000D_
+	mso-pagination:widow-orphan;_x000D_
+	font-size:11.0pt;_x000D_
+	font-family:Calibri,sans-serif;_x000D_
+	mso-ascii-font-family:Calib</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2288832023</t>
+          <t>https://openalex.org/W2288774297</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/jappl.1969.26.5.649</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Dandy (1969)</t>
+          <t>Akers &amp; Buskirk (1969)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NOMENCLATURAL CHANGES IN THE LIST OF BRITISH VASCULAR PLANTS</t>
+          <t>An underwater weighing system utilizing "force cube" transducers</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>This paper lists some changes considered necessary or advisable in the nomenclature of the List of British Vascular Plants (1958) prepared by J. E. Dandy for the British Museum (Natural History) and the Botanical Society of the British Isles. Explanations of the changes are given. One new name in Erica is proposed, in a contribution by R. Ross. The ten years which have elapsed since the publication of the List of British Vascular Plants have seen exceptional activity in taxonomic research on species of vascular plants occurring in the British Isles, much of it inspired by the preparation of Flora Europaea, a major undertaking which has already, within this period, produced two published volumes. With botanists all over Europe working on this project, as well as carrying out their usual researches, it is not surprising that numerous changes affecting the taxonomy and nomen­ clature of British plants have been proposed, some of which have already been adopted in the second editions of A. R. Clapham, T. G. Tutin &amp; E. F. Warburg's Flora of the British Isles (1962) and Excursion Flora of the British Isles (1968). Certainly some of the name changes are necessary under the International Code, being nomenclatural changes in the strict sense, i.e. the results of bibliographical investigation or the examination of types. The great majority of the proposed name changes, however, are simply the consequences of taxonomic re-arrangement. Whenever a specific or infra-specific taxon is transferred from one genus to another its name changes; and the same thing happens whenever a species is reduced to subspecific rank, or a subspecies raised to specific level. Many taxon­ omic re-arrangements of course result from discoveries made in the course of research (as when supposed taxa are united or divided); others, however, may merely reflect idio­ syncratic views about the rank or position of taxa whose limits are not changed at all. It would therefore be unwise to accept all the proposed changes willy-nilly. A full assessment of the number of these changes to be adopted in any future edition of the List of British Vascular Plants must await the completion of Flora Europaea, especially as further changes will no doubt be proposed in the later volumes of that work. Nevertheless it is important to indicate to British botanists the changes in nomen­ clature which are necessary or advisable at the present time, and these are accordingly listed below. The list is restricted to those changes which are necessary on purely nomen­ clatural grounds, together with some which, though due to taxonomic re-arrangement, are likely to be non-controversial. Only taxa already in the List of British Vascular Plants are included; proposed additions and segregates do not come within the scope of this paper. All the changes listed are explained by synonymy, discussion or reference to literature. Some of them have already been adopted in Clapham, Tutin &amp; Warburg'S Flora of the British Isles ed. 2 (1962) and Excursion Flora of the British Isles ed. 2 (1968); in such cases references to these two works are given by the abbreviations CTWed. 2 and CTW Exc ed. 2 respectively.</t>
+          <t>ARTICLESAn underwater weighing system utilizing "force cube" transducersR. Akers, and E. R. BuskirkR. Akers, and E. R. BuskirkPublished Online:01 May 1969https://doi.org/10.1152/jappl.1969.26.5.649MoreSectionsPDF (973 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformationCited ByLiving history: Elsworth R. BuskirkCharles M. Tipton1 December 2009 | Advances in Physiology Education, Vol. 33, No. 4Defects in Postabsorptive Plasma Homeostasis of Fatty Acids in Sickle Cell Disease2 February 2017 | Journal of Parenteral and Enteral Nutrition, Vol. 31, No. 4Two-component models are of limited value for the assessment of body composition in patients with cirrhosisThe American Journal of Clinical Nutrition, Vol. 84, No. 5Energy expenditure and substrate oxidation predict changes in body fat in childrenThe American Journal of Clinical Nutrition, Vol. 84, No. 4The Yale Physical Activity Survey for older adults: Predictions in the energy expenditure due to physical activityJournal of the American Dietetic Association, Vol. 104, No. 8Energy requirements during pregnancy based on total energy expenditure and energy depositionThe American Journal of Clinical Nutrition, Vol. 79, No. 6Tissue iron deficiency without anemia impairs adaptation in endurance capacity after aerobic training in previously untrained womenThe American Journal of Clinical Nutrition, Vol. 79, No. 3Composition of gestational weight gain impacts maternal fat retention and infant birth weightAmerican Journal of Obstetrics and Gynecology, Vol. 189, No. 5The Atwater Energy Equivalents Overestimate Metabolizable Energy Intake in Older Humans: Results from a 96-Day Strictly Controlled Feeding StudyThe Journal of Nutrition, Vol. 133, No. 8Energy requirements of women of reproductive ageThe American Journal of Clinical Nutrition, Vol. 77, No. 3Impaired substrate oxidation in healthy elderly men after eccentric exerciseRaj K. Krishnan, William J. Evans, and John P. Kirwan1 February 2003 | Journal of Applied Physiology, Vol. 94, No. 2Prediction of body fat in 12-y-old African American and white children: evaluation of methodsThe American Journal of Clinical Nutrition, Vol. 76, No. 5Evaluating body fat in girls and female adolescents: advantages and disadvantages of dual-energy X-ray absorptiometryThe American Journal of Clinical Nutrition, Vol. 76, No. 2Dietary protein adequacy and lower body versus whole body resistive training in older humans1 July 2002 | The Journal of Physiology, Vol. 542, No. 2Marginal iron deficiency without anemia impairs aerobic adaptation among previously untrained womenThe American Journal of Clinical Nutrition, Vol. 75, No. 4Body-composition assessment via air-displacement plethysmography in adults and children: a reviewThe American Journal of Clinical Nutrition, Vol. 75, No. 3Evaluation of body composition: a comparison between two systems of bioelectrical impedanceNutrition &amp; Food Science, Vol. 31, No. 6Exchangeable Zinc Pool Masses and Turnover Are Maintained in Healthy Men with Low Zinc IntakesThe Journal of Nutrition, Vol. 131, No. 9Effects of a moderate glycemic meal on exercise duration and substrate utilizationMedicine &amp; Science in Sports &amp; Exercise, Vol. 33, No. 9Growth hormone pulsatility profile characteristics following acute heavy resistance exerciseBradley C. Nindl, Wesley C. Hymer, Daniel R. Deaver, and William J. Kraemer1 July 2001 | Journal of Applied Physiology, Vol. 91, No. 1Regulation of muscle sympathetic nerve activity after bed rest deconditioningJames A. Pawelczyk, Julie H. Zuckerman, C. Gunnar Blomqvist, and Benjamin D. Levine1 May 2001 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 280, No. 5Assessing abdominal fatness with local bioimpedance analysis: basics and experimental findings20 April 2001 | International Journal of Obesity, Vol. 25, No. 4Evaluation of body fat in fatter and leaner 10-y-old African American and white children: the Baton Rouge Children's StudyThe American Journal of Clinical Nutrition, Vol. 73, No. 4Insulin and exercise differentially regulate PI3-kinase and glycogen synthase in human skeletal muscleDonal J. O'Gorman, Luis F. Del Aguila, David L. Williamson, Raj K. Krishnan, and John P. Kirwan1 October 2000 | Journal of Applied Physiology, Vol. 89, No. 4Healthy percentage body fat ranges: an approach for developing guidelines based on body mass indexThe American Journal of Clinical Nutrition, Vol. 72, No. 3Estimating body fat in African American and white adolescent girls: a comparison of skinfold-thickness equations with a 4-compartment criterion modelThe American Journal of Clinical Nutrition, Vol. 72, No. 2Comparison of methods for assessing body-composition changes over 1 y in postmenopausal womenThe American Journal of Clinical Nutrition, Vol. 72, No. 2Muscle damage impairs insulin stimulation of IRS-1, PI 3-kina</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2321550072</t>
+          <t>https://openalex.org/W2321306447</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2528572</t>
+          <t>https://doi.org/10.2307/621408</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cannings (1969)</t>
+          <t>Hails &amp; Hoyt (1969)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A Graphical Method for the Study of Complex Genetical Systems with Special Reference to Equilibria</t>
+          <t>An Appraisal of the Evolution of the Lower Atlantic Coastal Plain of Georgia, U. S. A.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>It is often of interest, in the study of the effects of natural selection on a population, to investigate the change with time in some genetic parameter, or group of parameters. Suppose that the generations do not interbreed (the so-called discrete generation model), and that m parameters are sufficient to characterize the genetic structure in any generation. We may then obtain m equations, each specifying the value of one of the parameters in the subsequent generation, in terms of the values of some, or all, of the parameters in the present generation. We then attempt to study these m equations (recurrence relations) in order to specify completely the nature of the changes which take place in the population, and the rate of occurrence of these changes. Usually one must be content with only a partial answer to these questions, and in some situations a graphical method may be necessary. Such a method will be presented below for the special case where only one parameter is under investigation, and the value in any generation can be specified in terms of the value in the previous generation only. A recurrence relation of this kind is said to be of the first order, and we shall write</t>
+          <t>IN EDINBURGH in 1785 James Hutton proposed the doctrine of uniformitarianism, 'the present is the key to the past', implying that, given sufficient time, processes now at work can account for all geological features. It is considered that Hutton's statement is particularly pertinent to the study of barrier1 coasts because of some difficulties in understanding littoral constructional features. Erosion, progradation and the reworking of sediments are important shore and nearshore processes that modify coastal accumulations prior to their incorporation in the geological sequence. It is necessary to understand the changes produced near the modem shoreline2 in order to interpret the origin of the preserved sediments. In this connection, coastal Georgia is a particularly significant area, because ancient sediments are generally well preserved and provide a comprehensive record of the geomorphological and sedimentary history of the region. Therefore it is possible readily to compare the modern and the ancient, and to study the ancient in several stages of modification. Also, because the major features are depositional, it is possible to establish a sequence of changes of sea-level. An attempt is made in this paper to outline the Quaternary history of the lower Atlantic Coastal Plain of Georgia, and to discuss some of the chronological problems facing the geomorphologist in attempting to establish late Pleistocene eustatic changes of sea-level. The area is described in detail because it is considered to have been relatively stable during the Quaternary and may be considered as a key to the problem of eustatic changes of sea-level. There is no evidence to suggest warping or tilting, and since Georgia has not been glaciated, there is little difficulty in separating the effects of glacio-isostasy from eustatic changes of sea-level. Road and rail cuttings, natural exposures and pits provided evidence for evaluating stratigraphical relations in the field. In addition, several hundred shallow boreholes were sunk using a truck-mounted core drill, and by hand augering. The results of field investigations were supplemented by information obtained from aerial photographs and from standard topographical maps (7½- and I5-minute quadrangle sheets) of the United States Geological Survey. The size distribution of samples collected from the boreholes was obtained by conventional sieving methods. Graphical and moment measures were computed for all samples, details of which appear in a separate publication (Hails and Hoyt, in the press).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2325348952</t>
+          <t>https://openalex.org/W2324746960</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4157/grj.42.1</t>
+          <t>https://doi.org/10.2307/2258396</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Momiyama-Sakamoto (1969)</t>
+          <t>Williams et al. (1969)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A COMPARATIVE STUDY IN THE SEASONAL VARIATION OF MORTALITY IN THE WORLD (I)</t>
+          <t>Studies in the Numerical Analysis of Complex Rain-Forest Communities: III. The Analysis of Successional Data</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A chronological study in the seasonal variation of mortality since 1900 in Japan reveals the existence of some quantitative regularities in human mortality as first discovered by J. Graunt (1620-74): 1) Deaths occurred most frequently in the hot months (summer concentration) late in the 19th century, 2) the summer peak steadily flattened, on the other hand mortality gradually increased in winter in the first decades of the current century (bimodal variation curve with the steady transfer of peak from summer to winter), and 3) the winter summit has been getting higher as contrasted to the disappearance of summer time maximum (winter concentration) in the past decades. The writer thus concluded temporarily that deaths might take place increasingly in the cold months in proportion to the development of human culture. The writer's further studies reveal similar regularities in vital statistics of 10 odd countries. In the West European countries, the death peak now is seen in winter, though chronological changes differ from those of Japan. In contrast, deaths occur most frequently in the hot months in Egypt. No country with the bimodal curve is yet found probably because vital statistics are unavailable for most newly-rising countries. In the United States and the Scandinavian countries, be it noted, signs of “deseasonality” of mortality are seen: the influence of seasonal changes upon deaths is apparently disappearing. In this paper, the writer wants to put particular emphasis on this new phenomenon or chronologically the fourth stage of development which every country may reach sooner or later, though with some different features of its own. I Changes in Seasonal Disease Calendars According to the seasonal disease calendars prepared by the writer, deaths from diseases took place most frequently in summer in the last decades of the 19th century in Japan. Even old age ailments took a heavy toll twice a year or in summer and winter. A change began to appear in the 1920's, and a complete turnover occurred in the postwar pattern of seasonal disease calendars: most of the diseases caused frequent deaths in the cold months, whereas dysentery and enteritis alone raged in the hot months. In one word, mortality got concentrated in winter. For international comparison, seasonal disease calendars are prepared for some countries for which mortality statistics by disease are available. In England and Wales, the winter concentration of mortality was prominent in the 1950's, and this was the case with France, Germany and Denmark though some special features were seen for each of them. Strikingly contrasted to this pattern was the very high summer peak of mortality for Egypt. The United States, however, shows little indication of the winter concentration. From the foregoing, it might well be concluded that the summer concentration of mor tality gradually turned into the winter concentration pattern in proportion to the development of human culture (progress of medical techniques, development of new drugs, improvement of the medical service system, elevation of the living standard, etc.), and that the gap in mortality rate among various disease got wider and wider. Thanks to human efforts for suppression of ailments and improvement of environments, the summer peak steadily flattened whereas the winter summit, if any, has got relatively prominent. It has proved rather easy to overcome the high death maximum in summer, but it appears to be rather difficult to reduce mortality in winter.II Types of Seasonal Variation of Total Mortality Total mortality in the 1950's curves up sharply in winter, with a low peak in summer, for England, France, Germany and Italy. A similar curve, summer reversed with winter, exists also for New Zealend in the Southern Hemisphere. For Egypt, on the other hand, a prominent peak appears in the hot months.</t>
+          <t>Ecologists have not always been satisfied by a study of entirely static situations, the pattern of plant communities at a fixed point in time and space. The early interest in successional studies may be attributable, at least in part, to that concern with temporal change which, as a result of the evolutionary controversy, pervaded most branches of learning in the early years of the century. Nevertheless, the reality of ecological interest in the problem is well exemplified by the many discussions on the concept of the climax (see, e.g. Whittaker 1953), and by the widespread influence of the work of Watt (1947) on 'pattern and process'. In recent years, however, the study of plant succession has taken on a new urgency. The increasingly rapid disappearance of many natural habitats, and consequently of the wildlife that they sustain, has meant that conservation has become all-important. A wide range of early ecological observations showed that many apparently static situations are not equilibria but steady states; in such cases enclosure is inherently likely to initiate a new and vigorous phase of succession, thus changing the habitat it is intended to preserve. A related problem besets forestry. The almost monospecific forests of temperate regions may behave substantially as equilibria, in that if they are cleared they are eventually replaced by themselves; but in the moist eastern coastal belt of Australia most of the commercially valuable rain forest species will grow poorly, or not at all, in monoculture (see, e.g. Webb, Tracey &amp; Haydock 1967), and their continued regeneration depends on the management of a mixed forest. However, many of these species, e.g. Eucalyptus pilularis Sm., Flindersia brayleyana F. Muell. and Araucaria cunninghamii Ait., occur at early or intermediate stages of forest succession; their successful exploitation therefore requires that the natural succession be arrested or deflected, and for this to be possible it must be understood (cf. Watt 1964). A knowledge of natural succession, and of alternative paths it may pursue, is particularly important if the problem at issue is the reclamation of land which has been degraded or eroded. In such a case reclamation by improvement alone may be uneconomic; but there may still remain the possibility of encouraging a progressive succession which will bring the land to a point where enlightened management is once more an economic proposition. In fact, as Richards (1955) has claimed, the study of secondary succession by the ecologist is one of the essential requirements for a solution to the problem of establishing a rational system of land usage in the tropics. We may usefully distinguish five alternative methods of successional study. First, and least satisfactory, is that implied by Clements (1949) when, in urging the study of the</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2327838430</t>
+          <t>https://openalex.org/W2327836401</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5632/jila1934.32.4_24</t>
+          <t>https://doi.org/10.2307/2754858</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Kishizuka (1969)</t>
+          <t>Bayley (1969)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Fundamental dissertation on the curvature of footpath (1)</t>
+          <t>Public Protest and the Political Process in India</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Various wards have been said as to the necessity of human scales in a landscape design. But we can hardly find the numbers applicable to our design.We have also many assertions and researches about the forms of human footpath, put we are scarcely possible to find its concrete numbers. This dissertation is one of the human scales about the forms of human footpath applicable to our landscape design. This is a research of human radius in proportion to the change of direction. Here are a few example which are surveyed as in Fig. 1-9, but from these materials, I can reduce the following equation.39-δ=13.5 log (R-5.8)R = curve redius, its unit: meterδ=directional angle, its unit: degreeFrom this equation, I can easily have Table 2. An example, the sharp corners of the footpath being made round, may be shown as in Fig. 13 by the practical application of the above-mentioned eqnation or Table2.</t>
+          <t>THE PURPOSE OF THIS ARTICLE is to explore the role played by public protest in contemporary Indian politics. It should be clearly understood that no attempt is made to provide a characterization of the nature of the Indian political system. The object is to explore only one particular feature of Indian political life. India is the world's largest democracy. Its record in the defense of political freedom and in the translation of democratic theory into practical reality is remarkable not only among less developed nations but among the nations of the Western world as well. Public protest and even violence in the politics of a nation do indicate that all is not well with the system, but they do not serve in themselves as a basis for characterizing the nature of that system. Great Britain and the United States have both been the scenes of violence and protest in recent years; just as it would be wrong in these instances to argue from protest and violence to the extinction of democratic attributes, so too in the Indian case a discussion of public protest should not be read as an implicit denial of the vitality of its democratic processes. A descriptive characterization of a political system must rest on judgements far more complex than the discovery that protest and violence exist. Public protest in India assumes many forms. For example, there are legal and illegal forms of protest. The illegal forms come in two varieties: violent and non-violent. Satyagraha, or non-violent civil disobedience, is a nonviolent but often illegal form of protest. Violent illegal protest refers primarily to riots, although it may include assassinations and coups d'Stat. This article does not examine all these forms but focuses upon those which are most disruptive, that is, which pose the greatest threat to public order, and those which have a very explicit political purpose, that is, which seek to affect governmental policy. Attention is therefore directed primarily to the agitational activity of groups which by constituting a threat to public order seek to challenge and change the policies of government. Indians compel official attention and constrain decision-making by deliberately engaging in activities that threaten public order. Violence or the threat of violence have become important instruments in Indian politics. Group violence, like the wider category of protest, comes in many varieties. It is possible, however, to distinguish three general kinds, one of which has</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2333125345</t>
+          <t>https://openalex.org/W2332599547</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2924346</t>
+          <t>https://doi.org/10.1093/aesa/62.3.662</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bazzanella (1969)</t>
+          <t>Sardesai (1969)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>The Conclusion to "The Portrait of a Lady" Re-examined</t>
+          <t>Relationship of Size of Fecal Pellets to Larval Molts in Lepidoptera</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TN AN ENTRY IN HIS NOTEBOOK early in i88i, while Portrait of 1a Lady was being serialized in both American and English magazines, Henry James accurately forecast most common criticisms his novel would receive. There has been want of action in earlier part,' he wrote, and, The obvious criticism of course will be that it not finished-that I have not seen heroine to end of her situation-that I have left her en l'air.2 Certainly, critics have delighted in scholarly discussions and debates concerning artistic merits of open-ended nature of James's novel. Leon Edel notes that readers today-particularly those in search of happy ending-tend to feel that central drama of Isabel's life remains unresolved.3 Most critics today, however, including Edel himself, view ending as logical concluding brush stroke needed to complete portrait. Laurence Holland, for example, sees ending as second of two framing scenes in novel: first occurs in early spring of I871 in Albany when Isabel awaiting Caspar Goodwood, just before Mrs. Touchett arrives; second occurs in late May of I877 when Caspar suddenly appears before Isabel at Gardencourt and receives his inevitable dismissal. By this device, says Holland, the pattern completed.4 F. W. Dupee feels that Isabel's decision to return to Rome is an austere decision but inescapable.5 Oscar Cargill also thinks ending inevitable: How else could James have closed his novel?' And R. W. Stallman calls ending a foregone conclusion.7</t>
+          <t>Empirical laws of growth have a wide application in entomology. According to Przibram's law the weight of larvae doubles and linear dimensions increase by 1.26 in succeeding instars. But growth in insects is allometric (Wigglesworth 1953) and application of Przibram's law to such growth is of little practical value. Dyar's law of linear growth holds that the head capsule of caterpillars grows in geometrical progression by a constant ratio for the species. However, the difficulty encountered in spotting a small head capsule, shed in the midst of food particles and silk spun by the larva, or even in holding a larva stationary for microscopical measurements, justifies resorting to an easier index than that of head-capsule size. Change in size of the many fecal pellets excreted in succeeding instars provides an easy and reliable index.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2404442543</t>
+          <t>https://openalex.org/W2403464301</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajplegacy.1969.217.4.1216</t>
+          <t>https://doi.org/10.1152/ajplegacy.1969.217.5.1280</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Gazitúa et al. (1969)</t>
+          <t>Yanaga &amp; Holland (1969)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Effect of osmolarity on canine renal vascular resistance</t>
+          <t>Effect of manganese on transmembrane potential and contractility of atrial muscle</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ARTICLESEffect of osmolarity on canine renal vascular resistanceS Gazitua, JB Scott, CC Chou, and FJ HaddyS Gazitua, JB Scott, CC Chou, and FJ HaddyPublished Online:01 Oct 1969https://doi.org/10.1152/ajplegacy.1969.217.4.1216MoreSectionsPDF (2 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByDivergent Effects of Hypertonic Fluid Resuscitation on Renal Pathophysiological and Structural Parameters in Rat Model of Lower Body Ischemia/Reperfusion-Induced Sterile InflammationShock, Vol. 50, No. 6Is Contrast Medium Osmolality a Causal Factor for Contrast-Induced Nephropathy?BioMed Research International, Vol. 2014Hypertonic saline solution for prevention of renal dysfunction in patients with decompensated heart failureInternational Journal of Cardiology, Vol. 167, No. 1Impact of Hypertonic and Hyperoncotic Saline Solutions on Ischemia-Reperfusion Injury in Free FlapsPlastic and Reconstructive Surgery, Vol. 122, No. 1Local and Systemic Effects of Hypertonic Solution (NaCl 7.5%) in Experimental Acute PancreatitisPancreas, Vol. 32, No. 1Assessment of changes in blood volume in response to resuscitative fluid administration in dogsJournal of Veterinary Emergency and Critical Care, Vol. 15, No. 3SMALL VOLUME HYPERTONIC RESUSCITATION OF CIRCULATORY SHOCKClinics, Vol. 60, No. 2Anteroventral third ventricle lesions impair cardiovascular responses to intravenous hypertonic saline infusionAutonomic Neuroscience, Vol. 117, No. 1Effects of hypertonic dextran in hypovolaemic shock: a prospective clinical trialInjury, Vol. 35, No. 5Resuscitation of Severe Uncontrolled Hemorrhage 7.5% Sodium Chloride/6% Dextran 70 vs 0.9% Sodium ChlorideAcademic Emergency Medicine, Vol. 7, No. 8Hypertonic SalineVeterinary Clinics of North America: Food Animal Practice, Vol. 15, No. 3Comparison of the acute hemodynamic effects of hypertonic or colloid infusions immediately after mitral valve repairCritical Care Medicine, Vol. 27, No. 10Fluid and Electrolyte Disorders in the Surgical PatientSmall-volume Resuscitation beim hypovolämischen Schock7 November 2016 | Der Anaesthesist, Vol. 46, No. 4Effect of 7.2% Hypertonic Saline/6% Hetastarch on Left Ventricular Contractility in Anesthetized HumansAnesthesiology, Vol. 82, No. 6Fluid and Electrolyte Disorders in the Surgical PatientHaemodynamic effects of small volume hypertonic saline in experimentally induced haemorrhagic shockEquine Veterinary Journal, Vol. 22, No. 4Chlorure de sodium hypertonique et choc hémorragiqueAnnales Françaises d'Anesthésie et de Réanimation, Vol. 9, No. 6Treatment of uncontrolled hemorrhagic shock by hypertonic saline and external counterpressureAnnals of Emergency Medicine, Vol. 18, No. 10Small-volume resuscitationBaillière's Clinical Anaesthesiology, Vol. 2, No. 3Analysis of the cardiovascular effects of arginine vasopressin in conscious dogs.Hypertension, Vol. 9, No. 4A comparison of several hypertonic solutions for resuscitation of bled sheepJournal of Surgical Research, Vol. 39, No. 6The peritoneal microcirculationThe effect of hyponatremia on the regulation of intracellular volume and solute composition.Circulation Research, Vol. 54, No. 5Contrast Media in the Cardiovascular SystemInduced hyperosmolality effects on extracellular fluid volume, lymph flow and osmolar equilibrium: studies in the ratActa Physiologica Scandinavica, Vol. 116, No. 3Feedback-mediated reduction of glomerular filtration rate during infusion of hypertonic salineKidney International, Vol. 20, No. 4The Peritoneal MicrocirculationEffect of Local Metabolic Factors on Vascular Smooth Muscle1 January 2011In situ hypothermic renal perfusion Evaluation of three intracellular solutionsUrology, Vol. 15, No. 5The mechanism of neuronal noradrenaline and dopamine β-hydroxylase release by a sodium-deficient solution substituted with ureaNeuroscience, Vol. 5, No. 2Microvascular and clinical effects of altered peritoneal dialysis solutionsKidney International, Vol. 15, No. 6Management of 136 consecutive supratentorial berry aneurysmsJournal of Neurosurgery, Vol. 49, No. 6Hyper/Hypo-Osmotic Peritoneal Dialysis7 July 2009 | Journal of Dialysis, Vol. 2, No. 5-6Fetal pathology and mechanism of fetal death in saline-induced abortion: A study of 143 gestations and critical review of the literatureAmerican Journal of Obstetrics and Gynecology, Vol. 120, No. 3Ex vivo renal surgeryThe American Journal of Surgery, Vol. 128, No. 3Experiments in Renal Preservation: 48 and 72-hour Canine Kidney Preservation by Initial Perfusion and Hypothermic StorageJournal of Urology, Vol. 111, No. 4Mechanism of the acute pressor action of hypokalemia, hypomagnesemia, and hypo-osmolalityAmerican Heart Journal, Vol. 85, No. 5CANINE KIDNEY PRESERVATION USING A NEW PERFUSATEThe Lancet, Vol. 301, No. 7811The Nature of Renal Perfusion in Normal, Oliguric and Anuric States29 October 201</t>
+          <t>ARTICLESEffect of manganese on transmembrane potential and contractility of atrial muscleT Yanaga, and WC HollandT Yanaga, and WC HollandPublished Online:01 Nov 1969https://doi.org/10.1152/ajplegacy.1969.217.5.1280MoreSectionsPDF (2 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByApplications for Transition-Metal Chemistry in Contrast-Enhanced Magnetic Resonance Imaging5 May 2020 | Inorganic Chemistry, Vol. 59, No. 10Murine Cardiac Hemodynamics Following Manganese Administration Under Isoflurane Anesthesia5 August 2011 | Annals of Biomedical Engineering, Vol. 39, No. 11Contrast enhancement of manganese-hydroxypropyl-tetraacetic acid, an MR contrast agent with potential for detecting differences in myocardial blood flowJournal of Magnetic Resonance Imaging, Vol. 24, No. 4Magnetic resonance imaging of myocardial infarction using a manganese-based contrast agent (EVP 1001-1): Preliminary results in a Dog modelJournal of Magnetic Resonance Imaging, Vol. 23, No. 2Preliminary Evaluation of EVP 1001-1Investigative Radiology, Vol. 38, No. 10Dose-related effects of manganese on the canine electrocardiogramJournal of Electrocardiology, Vol. 15, No. 2THEOPHYLLINE AND PHENYLEPHRINE EFFECTS ON CARDIAC RELAXATION19 July 2012 | British Journal of Pharmacology, Vol. 59, No. 1Neuromuscular blocking action of cadmium and manganese in isolated frog striated musclesEuropean Journal of Pharmacology, Vol. 40, No. 1Energy-dependent Mn2+ and Ca2+ uptake by the Embryonic chick chorioallantoic membraneBiochimica et Biophysica Acta (BBA) - Biomembranes, Vol. 426, No. 3The Effect of Calcium, Practolol, Atropine and Phenoxybenzamine on the Rat Atrial Action Potential at Threshold and Supra-threshold Stimulation13 March 2009 | Acta Pharmacologica et Toxicologica, Vol. 37, No. 4Manganese amd electrogenic phenomena in canine Purkinje fibers.Circulation Research, Vol. 36, No. 3Effect on Mn2+ on permeability properties of frog skinPfl�gers Archiv European Journal of Physiology, Vol. 359, No. 1-2Effect of Manganese Ions on the Contraction and Automaticity of the Blood-Perfused Canine Papillary MuscleJapanese Journal of Pharmacology, Vol. 24, No. 5The electrical activity of the bundle of HisPfl�gers Archiv European Journal of Physiology, Vol. 345, No. 1Effect of divalent manganese ions on action potential and contractility of cardiac muscleNaunyn-Schmiedeberg's Archives of Pharmacology, Vol. 275, No. 2ACUTE STRESS AND TRACE ELEMENT METABOLISMComparison of the inotropic response to glucagon, ouabain and noradrenaline19 July 2012 | British Journal of Pharmacology, Vol. 40, No. 3 More from this issue &gt; Volume 217Issue 5November 1969Pages 1280-1285 Copyright &amp; PermissionsCopyright © 1969 by American Physiological Societyhttps://doi.org/10.1152/ajplegacy.1969.217.5.1280PubMed5346291History Published online 1 November 1969 Published in print 1 November 1969 Metrics</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2409716789</t>
+          <t>https://openalex.org/W2409515555</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/jn.1969.32.5.727</t>
+          <t>https://doi.org/10.1152/ajplegacy.1969.217.4.1057</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wurtz (1969)</t>
+          <t>Tune et al. (1969)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Visual receptive fields of striate cortex neurons in awake monkeys.</t>
+          <t>Characteristics of p-aminohippurate transport in proximal renal tubules</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Visual receptive fields of striate cortex neurons in awake monkeys.R H WurtzR H WurtzPublished Online:01 Sep 1969https://doi.org/10.1152/jn.1969.32.5.727MoreSectionsPDF (3 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInEmailWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformationCited BySuppressive control of optokinetic and vestibular nystagmus by the primate frontal eye fieldYoshiko Izawa and Hisao Suzuki24 August 2020 | Journal of Neurophysiology, Vol. 124, No. 3Emphasizing the “positive” in positive reinforcement: using nonbinary rewarding for training monkeys on cognitive tasksBenjamin Fischer and Detlef Wegener1 July 2018 | Journal of Neurophysiology, Vol. 120, No. 1Motor action of the frontal eye field on the eyes and neck in the monkeyYoshiko Izawa and Hisao Suzuki1 June 2018 | Journal of Neurophysiology, Vol. 119, No. 6Methods for chair restraint and training of the common marmoset on oculomotor tasksKevin D. Johnston, Kevin Barker, Lauren Schaeffer, David Schaeffer, and Stefan Everling1 May 2018 | Journal of Neurophysiology, Vol. 119, No. 5Background activity and visual responsiveness of caudate nucleus neurons in halothane anesthetized and in awake, behaving catsNeuroscience, Vol. 356Neural Manifolds for the Control of MovementNeuron, Vol. 94, No. 5New Light on Gamma OscillationsNeuron, Vol. 93, No. 2Neck collar for restraining head and body movements in rats for behavioral task performance and simultaneous neural activity recordingJournal of Neuroscience Methods, Vol. 263Activity of fixation neurons in the monkey frontal eye field during smooth pursuit eye movementsYoshiko Izawa, and Hisao Suzuki15 July 2014 | Journal of Neurophysiology, Vol. 112, No. 2The evolution of a distinguished neuroscience journalBill J. Yates1 July 2014 | Journal of Neurophysiology, Vol. 112, No. 1Suppression of smooth pursuit eye movements induced by electrical stimulation of the monkey frontal eye fieldYoshiko Izawa, Hisao Suzuki, and Yoshikazu Shinoda1 November 2011 | Journal of Neurophysiology, Vol. 106, No. 5Cues to move increase information in superior colliculus tuning curvesXiaobing Li, and Michele A. Basso1 August 2011 | Journal of Neurophysiology, Vol. 106, No. 2A new type of recording chamber with an easy-to-exchange microdrive array for chronic recordings in macaque monkeysF. Orlando Galashan, Hanna C. Rempel, Anneke Meyer, Eva Gruber-Dujardin, Andreas K. Kreiter, and Detlef Wegener1 June 2011 | Journal of Neurophysiology, Vol. 105, No. 6Response Properties of Fixation Neurons and Their Location in the Frontal Eye Field in the MonkeyYoshiko Izawa, Hisao Suzuki, and Yoshikazu Shinoda1 October 2009 | Journal of Neurophysiology, Vol. 102, No. 4Studying the visual system in awake monkeys: two classic papers by Robert H. WurtzMichael E. Goldberg1 November 2007 | Journal of Neurophysiology, Vol. 98, No. 5Coordination of Smooth Pursuit and Saccade Target Selection in MonkeysGilbert R. Case, and Vincent P. Ferrera1 October 2007 | Journal of Neurophysiology, Vol. 98, No. 4Discovering spatial working memory fields in prefrontal cortexXiao-Jing Wang1 June 2005 | Journal of Neurophysiology, Vol. 93, No. 6Suppression of Visually and Memory-Guided Saccades Induced by Electrical Stimulation of the Monkey Frontal Eye Field. I. Suppression of Ipsilateral SaccadesYoshiko Izawa, Hisao Suzuki, and Yoshikazu Shinoda1 October 2004 | Journal of Neurophysiology, Vol. 92, No. 4Motion Perception Without Explicit Activity in Areas MT and MSTUwe J. Ilg, and Jan Churan1 September 2004 | Journal of Neurophysiology, Vol. 92, No. 3Evoking defined gaze directions in untrained awake monkeysJournal of Neuroscience Methods, Vol. 137, No. 2The representation of global spatial structure in amblyopiaVision Research, Vol. 44, No. 5Single-unit recording in the lateral geniculate nucleus of the awake behaving monkeyMethods, Vol. 30, No. 2The Time Course of Perisaccadic Receptive Field Shifts in the Lateral Intraparietal Area of the MonkeyMakoto Kusunoki, and Michael E. Goldberg1 March 2003 | Journal of Neurophysiology, Vol. 89, No. 3Eye movement training and recording in alert macaque monkeys: 1. Operant visual conditioning; 2. Magnetic search coil and head restraint surgical implantation; 3. Calibration and recording8 July 2009 | Strabismus, Vol. 10, No. 1Neural Representation of the Luminance and Brightness of a Uniform Surface in the Macaque Primary Visual CortexMasaharu Kinoshita, and Hidehiko Komatsu1 November 2001 | Journal of Neurophysiology, Vol. 86, No. 5Change in Neuronal Firing Patterns in the Process of Motor Command Generation for the Ocular Following ResponseAya Takemura, Yuka Inoue, Hiroaki Gomi, Mitsuo Kawato, and Kenji Kawano1 October 2001 | Journal of Neurophysiology, Vol. 86, No. 4Ocular Counterroll Modulates the Preferred Direction of Saccade-Related Pontine Burst Neurons in the MonkeyHansjörg Scherberger, Jan-Harry Cabungcal, Klaus H</t>
+          <t xml:space="preserve">ARTICLESCharacteristics of p-aminohippurate transport in proximal renal tubulesBM Tune, MB Burg, and CS PatlakBM Tune, MB Burg, and CS PatlakPublished Online:01 Oct 1969https://doi.org/10.1152/ajplegacy.1969.217.4.1057MoreSectionsPDF (1 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByRenal toxicology50 Years of renal physiology from one man and the perfused tubule: Maurice B. BurgKirk L. Hamilton and Antoni B. Moore21 July 2016 | American Journal of Physiology-Renal Physiology, Vol. 311, No. 2Transport of Organic Substances by Renal Tubules6 July 2016Role of reactive metabolites in the circulation in extrahepatic toxicity11 June 2012 | Expert Opinion on Drug Metabolism &amp; Toxicology, Vol. 8, No. 9Disposition of 4-Methylbenzoylglycine in Rat Isolated Perfused Kidney and Effects of Hippurates on Renal Mitochondrial Metabolism12 April 2011 | Journal of Pharmacy and Pharmacology, Vol. 50, No. 12Renal Handling of Organic SolutesUnderstanding Uric Acid24 October 2009Assessment of Nephrotoxicity30 December 2009Organic Anion and Cation Transporters in Renal Elimination of DrugsRenal Proximal Tubule Segment-Specific Nephrotoxicity: An Overview on Biomarkers and Histopathology25 June 2016 | Toxicologic Pathology, Vol. 35, No. 2Segmentary effects on the renal proximal tubule due to hexachloro-1,3-butadiene in rats: biomarkers related to gender1 January 2005 | Journal of Applied Toxicology, Vol. 25, No. 1Molecular and Cellular Physiology of Renal Organic Cation and Anion TransportStephen H. Wright, and William H. Dantzler1 July 2004 | Physiological Reviews, Vol. 84, No. 3Regulation of renal proximal and distal tubule transport: sodium, chloride and organic anionsComparative Biochemistry and Physiology Part A: Molecular &amp; Integrative Physiology, Vol. 136, No. 3Transport of organic anions across the basolateral membrane of proximal tubule cells30 January 2003Para-aminobenzoic acid (PABA) used as a marker for completeness of 24 hour urine: effects of age and dosage scheduling27 January 2003 | European Journal of Clinical Nutrition, Vol. 57, No. 1Renal organic anion transport: a comparative and cellular perspectiveBiochimica et Biophysica Acta (BBA) - Biomembranes, Vol. 1566, No. 1-2Tubular segment-specific biomarkers of nephrotoxicity in the ratToxicology Letters, Vol. 124, No. 1-3Historical control data on urinary and renal tissue biomarkers in naive male Wistar rats1 January 2001 | Journal of Applied Toxicology, Vol. 21, No. 5Characterization of tubular functional capacity in humans using para-aminohippurate and famotidineKidney International, Vol. 59, No. 1Mechanisms and clinical implications of renal drug excretion *4 March 2002 | Drug Metabolism Reviews, Vol. 33, No. 3-4Method for measuring luminal efflux of fluorescent organic compounds in isolated, perfused renal tubulesApichai Shuprisha, Stephen H. Wright, and William H. Dantzler1 November 2000 | American Journal of Physiology-Renal Physiology, Vol. 279, No. 5PKC regulation of organic anion secretion in perfused S2 segments of rabbit proximal tubulesApichai Shuprisha, Ronald M. Lynch, Stephen H. Wright, and William H. Dantzler1 January 2000 | American Journal of Physiology-Renal Physiology, Vol. 278, No. 1Real-time assessment of α-ketoglutarate effect on organic anion secretion in perfused rabbit proximal tubulesApichai Shuprisha, Ronald M. Lynch, Stephen H. Wright, and William H. Dantzler1 October 1999 | American Journal of Physiology-Renal Physiology, Vol. 277, No. 4PAH extraction and estimation of plasma flow in human postischemic acute renal failureGeraldine Corrigan, Deepa Ramaswamy, Osun Kwon, F. Graham Sommer, Edward J. Alfrey, Donald C. Dafoe, Richard A. Olshen, John D. Scandling, and Bryan D. Myers1 August 1999 | American Journal of Physiology-Renal Physiology, Vol. 277, No. 2Renal Transport Systems for Organic Anions and Cations in Cadmium-Exposed RatsToxicology and Applied Pharmacology, Vol. 149, No. 2The renal toxicity of beta-lactam antibiotics: Mechanisms and clinical implicationsVertebrate Renal System1 January 2011Renal tubular secretion of organic anionsAdvanced Drug Delivery Reviews, Vol. 25, No. 2-3Effects of l-carnitine on the renal tubular transport of cephaloridineBiochemical Pharmacology, Vol. 50, No. 4Chapter 15 XenobioticsDifferential sensitivity of organic anion transporters in rat renal brush-border membrane to diethyl pyrocarbonateBiochimica et Biophysica Acta (BBA) - Biomembranes, Vol. 1192, No. 2Specificity of transporters for ‘organic anions’ and ‘organic cations’ in the kidneyBiochimica et Biophysica Acta (BBA) - Reviews on Biomembranes, Vol. 1197, No. 1Renal Organic Ion TransportEvaluation of Human Kidney Viability During Cold Storage7 July 2009 | Renal Failure, Vol. 15, No. 1Evaluation of Function in Single Segments of Isolated Renal Blood Vessels, Nephrons, and Collecting </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2410122698</t>
+          <t>https://openalex.org/W2409716789</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajplegacy.1969.216.3.577</t>
+          <t>https://doi.org/10.1152/jn.1969.32.5.727</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wildenthal et al. (1969)</t>
+          <t>Wurtz (1969)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Influence of efferent vagal stimulation of left ventricular function in dogs</t>
+          <t>Visual receptive fields of striate cortex neurons in awake monkeys.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ARTICLESInfluence of efferent vagal stimulation of left ventricular function in dogsK Wildenthal, DS Mierzwiak, HL Wyatt, and JH MitchellK Wildenthal, DS Mierzwiak, HL Wyatt, and JH MitchellPublished Online:01 Mar 1969https://doi.org/10.1152/ajplegacy.1969.216.3.577MoreSectionsPDF (1 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByAutonomic influences on regional cardiac [14C] 2-deoxyglucose uptake in paced dog heartBasic Research in Cardiology, Vol. 86, No. 6Differences in the electrophysiological response of canine ventricular subendocardium and subepicardium to acetylcholine and isoproterenol. A direct effect of acetylcholine in ventricular myocardium.Circulation Research, Vol. 67, No. 3A simple experimental index for the evaluation of inotropic responsesJournal of Pharmacological Methods, Vol. 18, No. 1The hemodynamic effects of sympathetic stimulation combined with parasympathetic blockade in man.Circulation, Vol. 75, No. 5Cardiac effects of thoracic epidural morphine caused by increased vagal activity in the dogActa Anaesthesiologica Scandinavica, Vol. 30, No. 1The effect of cardiac autonomic blockade on ventricular response to changes in preloadJournal of the Autonomic Nervous System, Vol. 13, No. 3Autonomic Reflex Control of Cardiac ContractilityCholinergic agonists and antagonistsDirect effects of cholinergic stimulation on ventricular automaticity in guinea pig myocardium.Circulation Research, Vol. 52, No. 1Ventricular Fibrillation After Intravenous Atropine in a Patient with Atrioventricular BlockPacing and Clinical Electrophysiology, Vol. 5, No. 2Arrhythmias in the first hours of acute myocardial infarctionProgress in Cardiovascular Diseases, Vol. 23, No. 4Regulation of Myocardial ContractilityAcetylcholine antagonism of the electrophysiological effects of isoproterenol on canine cardiac Purkinje fibers.Circulation Research, Vol. 44, No. 3Reflex control of the peripheral circulationProgress in Cardiovascular Diseases, Vol. 18, No. 5Stable T wave effects during improvement of heart rate control with biofeedbackPhysiology &amp; Behavior, Vol. 16, No. 1Interaction between cyclic adenosine monophosphate and cyclic gunaosine monophosphate in guinea pig ventricular myocardium.Circulation Research, Vol. 37, No. 3Reflex parasympathetic coronary vasodilation elicited from cardiac receptors in the dog.Circulation Research, Vol. 37, No. 2Hemodynamic Effects of Edrophonium Chloride (Tensilon) InfusionChest, Vol. 67, No. 2A case of pre-excitationAmerican Heart Journal, Vol. 88, No. 5Depression of cardiac performance by ethanol unmasked during autonomic blockadeAmerican Heart Journal, Vol. 86, No. 4Functional, metabolic and structural studies of the chronic canine cardiac autotransplantJournal of Surgical Research, Vol. 13, No. 6Ventricular fibrillation precipitated by carotid sinus pressure: Case report and review of the literatureAmerican Heart Journal, Vol. 84, No. 5Problems in Measurement of Myocardial Contractility1 September 2016 | Proceedings of the Royal Society of Medicine, Vol. 65, No. 6HerzParasympathetic Control of Coronary Blood Flow in DogsCirculation Research, Vol. 25, No. 5 More from this issue &gt; Volume 216Issue 3March 1969Pages 577-581 Copyright &amp; PermissionsCopyright © 1969 by American Physiological Societyhttps://doi.org/10.1152/ajplegacy.1969.216.3.577PubMed5765609History Published online 1 March 1969 Published in print 1 March 1969 Metrics</t>
+          <t>Visual receptive fields of striate cortex neurons in awake monkeys.R H WurtzR H WurtzPublished Online:01 Sep 1969https://doi.org/10.1152/jn.1969.32.5.727MoreSectionsPDF (3 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInEmailWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformationCited BySuppressive control of optokinetic and vestibular nystagmus by the primate frontal eye fieldYoshiko Izawa and Hisao Suzuki24 August 2020 | Journal of Neurophysiology, Vol. 124, No. 3Emphasizing the “positive” in positive reinforcement: using nonbinary rewarding for training monkeys on cognitive tasksBenjamin Fischer and Detlef Wegener1 July 2018 | Journal of Neurophysiology, Vol. 120, No. 1Motor action of the frontal eye field on the eyes and neck in the monkeyYoshiko Izawa and Hisao Suzuki1 June 2018 | Journal of Neurophysiology, Vol. 119, No. 6Methods for chair restraint and training of the common marmoset on oculomotor tasksKevin D. Johnston, Kevin Barker, Lauren Schaeffer, David Schaeffer, and Stefan Everling1 May 2018 | Journal of Neurophysiology, Vol. 119, No. 5Background activity and visual responsiveness of caudate nucleus neurons in halothane anesthetized and in awake, behaving catsNeuroscience, Vol. 356Neural Manifolds for the Control of MovementNeuron, Vol. 94, No. 5New Light on Gamma OscillationsNeuron, Vol. 93, No. 2Neck collar for restraining head and body movements in rats for behavioral task performance and simultaneous neural activity recordingJournal of Neuroscience Methods, Vol. 263Activity of fixation neurons in the monkey frontal eye field during smooth pursuit eye movementsYoshiko Izawa, and Hisao Suzuki15 July 2014 | Journal of Neurophysiology, Vol. 112, No. 2The evolution of a distinguished neuroscience journalBill J. Yates1 July 2014 | Journal of Neurophysiology, Vol. 112, No. 1Suppression of smooth pursuit eye movements induced by electrical stimulation of the monkey frontal eye fieldYoshiko Izawa, Hisao Suzuki, and Yoshikazu Shinoda1 November 2011 | Journal of Neurophysiology, Vol. 106, No. 5Cues to move increase information in superior colliculus tuning curvesXiaobing Li, and Michele A. Basso1 August 2011 | Journal of Neurophysiology, Vol. 106, No. 2A new type of recording chamber with an easy-to-exchange microdrive array for chronic recordings in macaque monkeysF. Orlando Galashan, Hanna C. Rempel, Anneke Meyer, Eva Gruber-Dujardin, Andreas K. Kreiter, and Detlef Wegener1 June 2011 | Journal of Neurophysiology, Vol. 105, No. 6Response Properties of Fixation Neurons and Their Location in the Frontal Eye Field in the MonkeyYoshiko Izawa, Hisao Suzuki, and Yoshikazu Shinoda1 October 2009 | Journal of Neurophysiology, Vol. 102, No. 4Studying the visual system in awake monkeys: two classic papers by Robert H. WurtzMichael E. Goldberg1 November 2007 | Journal of Neurophysiology, Vol. 98, No. 5Coordination of Smooth Pursuit and Saccade Target Selection in MonkeysGilbert R. Case, and Vincent P. Ferrera1 October 2007 | Journal of Neurophysiology, Vol. 98, No. 4Discovering spatial working memory fields in prefrontal cortexXiao-Jing Wang1 June 2005 | Journal of Neurophysiology, Vol. 93, No. 6Suppression of Visually and Memory-Guided Saccades Induced by Electrical Stimulation of the Monkey Frontal Eye Field. I. Suppression of Ipsilateral SaccadesYoshiko Izawa, Hisao Suzuki, and Yoshikazu Shinoda1 October 2004 | Journal of Neurophysiology, Vol. 92, No. 4Motion Perception Without Explicit Activity in Areas MT and MSTUwe J. Ilg, and Jan Churan1 September 2004 | Journal of Neurophysiology, Vol. 92, No. 3Evoking defined gaze directions in untrained awake monkeysJournal of Neuroscience Methods, Vol. 137, No. 2The representation of global spatial structure in amblyopiaVision Research, Vol. 44, No. 5Single-unit recording in the lateral geniculate nucleus of the awake behaving monkeyMethods, Vol. 30, No. 2The Time Course of Perisaccadic Receptive Field Shifts in the Lateral Intraparietal Area of the MonkeyMakoto Kusunoki, and Michael E. Goldberg1 March 2003 | Journal of Neurophysiology, Vol. 89, No. 3Eye movement training and recording in alert macaque monkeys: 1. Operant visual conditioning; 2. Magnetic search coil and head restraint surgical implantation; 3. Calibration and recording8 July 2009 | Strabismus, Vol. 10, No. 1Neural Representation of the Luminance and Brightness of a Uniform Surface in the Macaque Primary Visual CortexMasaharu Kinoshita, and Hidehiko Komatsu1 November 2001 | Journal of Neurophysiology, Vol. 86, No. 5Change in Neuronal Firing Patterns in the Process of Motor Command Generation for the Ocular Following ResponseAya Takemura, Yuka Inoue, Hiroaki Gomi, Mitsuo Kawato, and Kenji Kawano1 October 2001 | Journal of Neurophysiology, Vol. 86, No. 4Ocular Counterroll Modulates the Preferred Direction of Saccade-Related Pontine Burst Neurons in the MonkeyHansjörg Scherberger, Jan-Harry Cabungcal, Klaus H</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2415146948</t>
+          <t>https://openalex.org/W2413509621</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3828/tpr.39.4.v8u57v4m82253742</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Grossman &amp; Simon (1969)</t>
+          <t>Weddle (1969)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Anthropomorphism. Motive, meaning, and causality in psychoanalytic theory.</t>
+          <t>Landscape with Figures</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>terms does not accomplish the leap across this logical gap. The only way the abstraction process works is via such bridge concepts which link causal and empathic by definition, and by means of parallelistic assumptions about the nature of the apparatus and the nature of experience, such as we have described in the earlier portion of this paper. There are several varieties of concepts which speak of subjective experience in objective terms. One group gives a theoretical, or systematic, status to the terms of commonplace experience. Tension (see above) is one such example. Others are: libidinal investment, the wish, the system Conscious, narcissism, and the self. Another group of terms such as depression and anxiety are commonly used both to denote clinical states and subjective experience. These terms create entities by reifying the terms designating the subjective states and their observable concomitants (Sarbin, 1964), (1968). The third type is seen in the concept of drive, which brings together a quality of subjective experience and a concept of biological functioning. It is clear that the use of any of these bridge terms always requires further specification of the sense in which it is being used. In all of these cases, diverse models of observation, experience, and conceptualization are amalgamated by means of a linguistic device. Using different terminologies, the issue of these two logically independent realms has been discussed by a number of authors, including Brierley (1951), Grossman (1967), G. S. Klein (1966), (1968), Kohut (1959), Mischel (1964), Meissner (1966), Rycroft (1968), and Sutherland (1963). With still a somewhat different focus, but quite germane to the present issues, Schafer (1968) outlined what he considers two types of theory within psychoanalysis, which he calls the and types of conceptualization. He states that Freud attempted both types of conceptualization, but did not always differentiate and coordinate the two approaches: Roughly speaking, his evolutionary, adaptational formulations of the psychic apparatus are the ones that tend to be quasi-neurophysiological and mechanistic, and it is his dynamic psychological formulations that tend to be anthropomorphic. Schafer does not necessarily hold to their being logically incompatible, and in fact he argues that each has its value, but distinguishing one from the other helps one to understand what these authors [Hartmann and Rapaport] and Freud are doing in one context or another (p. 51). We speak with Schafer of coordinating two types of approach in dealing with two logically independent models of explanation. The only way to use them simultaneously is by coordinating them in their application to the empirical unity of the phenomena under study. For example, in psychophysiological research we work with a notion of covariants, such as the physiological concomitants of a reported experience. The coordination is an empirical activity, which is not equivalent to providing a unitary explanation for experience and physiology. We may try to establish a concordance, or parallelism, which will tell something about correlations. Only some superordinate framework, yet to be discovered, could provide one logical system in which both aspects could be encompassed (cf. Langer, 1967). In current dream research, for example, there is a high correlation between dreaming and rapid eye movement sleep (REMS). However, no greater understanding of the meaning of dreams is derived from the clarification of the REM mechanism. Even the question of the precise nature of the correlation between dreaming and REM sleep remains a matter of controversy. In the psychophysiology of affect, too, perfect correlations are not found between an affective state, as defined physiologically, and the same state as defined experientially. The question of how to deal with these various contrasting pairs of terms is one which was taken up in the very earliest of Freud's psychoanalytic writings, and even in his neurological writings (1891). In the Project (1895), he attempted to conceptualize the transformation of qualities into quantities. In The Interpretation of Dreams he took up the same issue again in relation to the question of how the wish or the intention (psychological functions) arises from the basic biological organization of the infant. In Studies on Hysteria (1893-1895) one can see throughout the work, particularly in the contrast between Breuer's section and Freud's section, the attempt to conceptualize clinical phenomena in both causal and motivational terms. Freud's discussion of the organization of memories and their role in pathogenesis, for example, represents an early formulation of the relationship between causal factors and motivational factors in pathogenesis. In general, in these early writings, one finds a constant interplay between dynamic, i.e., conflictdefense, formulations of psychological states and physiological, mechanical, and neurological expo</t>
+          <t>my title, 'Landscape with Figures' obviously calls for some explanation. * Landscape' itself I shall deal with relatively briefly because I wish to devote rather more time to the 'Figures'. First let me make it clear that most of the figures are people. There is, however, just one important exception. This is when 'figures' are discussed in the numerical or statistical sense. To the landscape architect the landscapes he discovers, protects, designs, promotes, are essentially for people. Secondly, there should be some mention of the personalities - the father figures - who have been instrumental in designing our landscapes. Thirdly come quite a different set of figures, those increasingly used for the more precise forms of measurement of the landscapes we survey and the proposals we make. Quantity and value figures are now becoming important. Finally, I shall return briefly to figures of special significance. These are the students who now aspire to become landscape architects. I regard these as very special people and I am as concerned with their development as people as with their acquisition of technical skills. In order of importance, clearly the figures which occupy and use our landscapes come first. It is true that many of the finest landscapes give the greatest pleasure if enjoyed in isolation, undisturbed or apparently undisturbed by man. And the landscape architect may have a role to play in the conservation of these wilderness areas. But in a crowded world and particularly in these long settled and intensively developed islands of Britain we make and remake our landscapes which assume and change appearances as a direct result of human activity. The activities are sometimes reckless and the so-called 'natural' correction process can be painful as well as unsightly. People are involved in the construction process; they use land and the resultant landscape remains the background to their daily activities. Our father figures are much less important, and with the growing complexity of modern life, it seems likely that the highly organized team rather than the personalized 'designer' will make the greater headway. And some of the great contributions of personal endeavour, professionally and politically, which promote landscape enterprises, are likely to come from talented individuals who are not landscape architects at all. Next, figures in the statistical sense. It would be premature to attempt an assessment of just how important this kind of figure is likely to become in the landscape world. There could be too great an emphasis on measurement and evaluation or, even worse, on pseudo -scientific attempts to quantify intangibles,</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2434840800</t>
+          <t>https://openalex.org/W2428419675</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1061/jwheau.0000659</t>
+          <t>https://doi.org/10.1152/ajplegacy.1969.216.3.647</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Karlsson (1969)</t>
+          <t>R et al. (1969)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Refraction of Continuous Ocean Wave Spectra</t>
+          <t>DNA synthesis in the rat diaphragm as an early response to denervation</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>The governing equation describing the propagation of a continuous ocean wave spectrum in water of any depth is derived and analyzed. The derivation of the equation is based upon the assumption that each component of the spectrum, defined by a given direction and frequency, is propagated according to linear-wave theory, and single period regular wave refraction relationships are employed. A computer program has been prepared to solve the equation numerically for steady-state conditions where no wind, friction, or currents are present to modify the spectrum. These are the same conditions that are usually assumed in single period wave refraction studies. From a known distribution of the deep water wave spectrum the program predicts the changes in the spectrum as it travels into shallow water of a given bottom topography. Results of a few numerical examples are presented.</t>
+          <t>ARTICLESDNA synthesis in the rat diaphragm as an early response to denervationR Zak, D Grove, and M RabinowitzR Zak, D Grove, and M RabinowitzPublished Online:01 Mar 1969https://doi.org/10.1152/ajplegacy.1969.216.3.647MoreSectionsPDF (2 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByEffect of unilateral denervation on maximum specific force in rat diaphragm muscle fibersPaige C. Geiger, Mark J. Cody, Rebecca L. Macken, Megan E. Bayrd, and Gary C. Sieck1 April 2001 | Journal of Applied Physiology, Vol. 90, No. 4Expression of Glut-4 and Glut-1 transporters in rat diaphragm muscleTissue and Cell, Vol. 32, No. 1Regulation of myosin heavy chain gene expression after short-term diaphragm inactivationLiying Yang, Johanne Bourdon, Stewart B. Gottfried, Walter A. Zin, and Basil J. Petrof1 June 1998 | American Journal of Physiology-Lung Cellular and Molecular Physiology, Vol. 274, No. 6Interactive effects of denervation and malnutrition on diaphragm structure and functionMichael I. Lewis, Thomas J. Lorusso, Wen-Zhi Zhan, and Gary C. Sieck1 November 1996 | Journal of Applied Physiology, Vol. 81, No. 5Decorin, a chondroitin/dermatan sulfate proteoglycan is under neural control in rat skeletal muscleJournal of Neuroscience Research, Vol. 32, No. 1Unilateral true hypertrophy of the calf muscleJournal of Neurology, Vol. 232, No. 3Hipertrofia muscular em desenervaçao: relato de dois casos com estudo histoquímico e histométrico dos músculos normais e hipertróficosArquivos de Neuro-Psiquiatria, Vol. 42, No. 3Histochemical and biochemical characteristics of the transient hypertrophy of the denervated rat hemidiaphragmExperimental Neurology, Vol. 81, No. 2The phosphorylation of ribosomal protein S6 in rat tissues following cycloheximide injection, in diabetes, and after denervation of diaphragm. A simple immunological determination of the extent of S6 phosphorylation on protein blots.Journal of Biological Chemistry, Vol. 257, No. 20Effect of cytostatics on development of changes in skeletal muscles following denervationBulletin of Experimental Biology and Medicine, Vol. 92, No. 5Early changes in muscle glucose-6-phosphate dehydrogenase activity after denervation: Locus and dependence on nerve stump lengthBrain Research, Vol. 177, No. 1Muscle hypertrophy with neuropathyJournal of the Neurological Sciences, Vol. 38, No. 3Denervation Stimulation of α-Aminoisobutyric Acid Uptake by the Diaphragm in Developing RatsActa Physiologica Scandinavica, Vol. 100, No. 1Biochemical aspects of cardiac muscle differentiation. Deoxyribonucleic acid synthesis and nuclear and cytoplasmic deoxyribonucleic acid polymerase activity.Journal of Biological Chemistry, Vol. 250, No. 9A method for the chemical isolation of individual muscle fibers and its application to a study of the effect of denervation on the number of nuclei per muscle fiberJournal of Experimental Zoology, Vol. 191, No. 3ON THE CELLULAR REGULATION OF GROWTH AND DEVELOPMENT IN SKELETAL MUSCLEBiological Reviews, Vol. 49, No. 3The effect of unilateral phrenicectomy on the rate of protein synthesis in rat diaphragm in vivoBiochimica et Biophysica Acta (BBA) - Nucleic Acids and Protein Synthesis, Vol. 349, No. 1Influence of denervation of the free amino acids of the rat diaphragmBiochimica et Biophysica Acta (BBA) - General Subjects, Vol. 320, No. 2Effects of denervation hypertrophy in rat diaphragm muscle on the activity of ribosomes and sap fractions in protein synthesisBiochimica et Biophysica Acta (BBA) - Nucleic Acids and Protein Synthesis, Vol. 299, No. 4Protein synthesis and turnover in normal and hypertrophied heartThe American Journal of Cardiology, Vol. 31, No. 2Critical Evaluation and Implications of Denervation and Reinnervation Studies of Cross-Striated MuscleCell proliferation in rat skeletal muscle during early stages of compensatory hypertrophyVirchows Archiv B Cell Pathology, Vol. 11, No. 1THE ROLE OF TENSION IN MUSCLE GROWTHThe Role of Skeletal and Cardiac Muscle in the Regulation of Protein MetabolismCellular and Subcellular Basis of Cardiac HypertrophyMedical Clinics of North America, Vol. 54, No. 1Biochemical Correlates of Cardiac Hypertrophy: IV. OBSERVATIONS ON THE CELLULAR ORGANIZATION OF GROWTH DURING MYOCARDIAL HYPERTROPHY IN THE RATCirculation Research, Vol. 25, No. 4 More from this issue &gt; Volume 216Issue 3March 1969Pages 647-654 Copyright &amp; PermissionsCopyright © 1969 by American Physiological Societyhttps://doi.org/10.1152/ajplegacy.1969.216.3.647PubMed5765618History Published online 1 March 1969 Published in print 1 March 1969 Metrics</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2470832604</t>
+          <t>https://openalex.org/W2469889825</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1130/eng-case-7</t>
+          <t>https://doi.org/10.1111/imj.1969.18.3.209</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Kiersch &amp; Cleaves (1969)</t>
+          <t>Clarkson et al. (1969)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Legal Aspects of Geology in Engineering Practice</t>
+          <t>POST‐PARTUM RENAL FAILURE. ? THE GENERALIZED SHWARTZMAN REACTION</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>This is the seventh volume in the Engineering Case Histories series of the Division on Engineering Geology of the Geological Society of America, initiated in 1957. This volume is composed of 10 papers, covering general legal matters, changed conditions, construction claims, groundwater, landslides, landslide insurance, and condemnation of land. Because case histories dealing with the legal aspects are certainly controversial by their very nature, the Geological Society of America does not necessarily concur with the views expressed herein by the authors. Attorney Robert B. Jarvis, an engineer and specialist in contract law, recently expressed the situation when he posed the question, “Are engineers the largest group practicing law without a license?” (Civil Engineering, June 1963). Attorney Jarvis has raised the often repeated question, “Who pays for the unexpected in construction?” The case histories in this volume demonstrate why this question arises for a number of geological circumstances common to engineering works.</t>
+          <t>SUMMARY Three cases of post‐partum acute renal failure are described, the clinical and pathological features of which are identical to those previously reported. Renal failure accompanied by micro‐angiopathic hremolytic anæmia occurred after a non‐specific prodromal illness early in the puerperium. The features of the disease closely resemble those of thrombotic thrombocytopenic purpura and the hæmolytic uræmic syndrome of children and adults. The similarity of the hæmatological and histological features to their counterparts in the generalized Shwartzman reaction (GSR) is striking. Pregnancy predisposes humans to the GSR, a modification of which may play a part in the pathogenesis of this disease. The prognosis in the cases described and those previously reported is bad because of the irreversible nature of the renal and other pathological changes. Heparin therapy may be of value if given early but clinical recognition of the condition may not occur soon enough.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2509649829</t>
+          <t>https://openalex.org/W2504437144</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/j.1839-4655.1969.tb01217.x</t>
+          <t>https://doi.org/10.1007/978-1-349-00418-8_3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Timms (1969)</t>
+          <t>Plumb (1969)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>The Dissimilarity Between Overseas‐born and Australian‐born in Queensland: Dimensions of Assimilation</t>
+          <t>The Past as Destiny</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Australian Journal of Social IssuesVolume 4, Issue 1 p. 41-56 Article The Dissimilarity Between Overseas-born and Australian-born in Queensland: Dimensions of Assimilation Duncan Timms, Duncan TimmsSearch for more papers by this author Duncan Timms, Duncan TimmsSearch for more papers by this author First published: March 1969 https://doi.org/10.1002/j.1839-4655.1969.tb01217.xCitations: 7AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES 1For a discussion of the confusion and the variations in the interpretation of the concept of assimilation see Milton M. Gordon, Assimilation in American Life: The Role of Race, Religion, and National Origins, Oxford University Press, New York, 1964, esp. Chapter III; and Charles A. Price, The Study of Assimilation, mimeo. paper, Australian National University, Canberra, 1967. 2Price, op. cit., p. 20. 3Stanley Lieberson, Ethnic Patterns in American Cities, Free Press, New York, 1963, p. 12. Also quoted in Price, op. cit. 4Price, op. cit., p. 21. 5Cf. Lieberson, op. cit., p. 10. 6Gordon, op. cit., p. 80. 7On marriage as a status-equalizing process see James M. Beshers, “Urban Social Structure as a Single Hierarchy”, Social Forces, 41, 1963, pp. 233–8. That the degree of attractiveness of alter is dependent on his presumed similarity, or known dissimilarity, to ego, is a conclusion which may be reached from the behavioural stability theory advanced by Secord and Bachman et al. 8See Alvin M. Katz and Reuben Hill, “Residential Propinquity and Marital Selection: A Review of Theory, Method, and Fact”, Marriage and Family Living, 20, 1958, pp. 27–35. 9James M. Beshers, Urban Social Structure, Free Press, New York, 1962, pp. 105–7. On the general relationship between social distance and physical distance see A. S. Feldman and C. Telly, “The Interaction of Social and Physical Space”, Amer. Sociol. Rev., 25, 1960, pp. 877–84. 10See Edward O. Laumann, Prestige and Association in an Urban Community: An Analysis of an Urban Stratification System, Bobbs-Merrill, Indianapolis, 1966. 11A good discussion of the various indices of dissimilarity related to the Lorenz curve is to be found in K. E. Taeuber and A. F. Taeuber, Negroes in Cities: Residential Segregation and Neighborhood Change, Aldine Publishing Co., Chicago, 1965, Appendix A. 12E.g., Taeuber, op. cit.; Lieberson, op. cit.; O. D. Duncan and B. Duncan, “Residential Segregation and Occupational Stratification”, Amer. Journal Sociol., 60, 1955, pp. 493–503; E. S. Uyeki, “Residential Distribution and Stratification, 1950–60”, Amer. Journal Sociol., 69, 1964, pp. 491–8; L. Broom and J. P. Gibbs, “Social Differentiation and Status Interrelations: The Maori-Pakeha Case”, Amer. Sociol. Rev., 29, 1964, pp. 258–65. In a study of the pattern of ethnic concentration and assimilation in Melbourne, F. Lancaster Jones uses a closely related index, the Gini Index of Concentration. See F. Lancaster Jones, Ethnic Concentration and Assimilation: An Australian Case Study, mimeo. paper, Australian National University, Canberra, 1966. 13Further information on the interview data is given below. 14The differences in the geographical framework are regrettable but were inevitable given the data available. 15The categories used were: Professional, etc.; Managerial and Owners; Clerical, Sales, Operatives, Service. Although manuscript data giving a full occupation by birthplace breakdown are available they could not be consulted for the present study. 16Data on employment status by birthplace are given in the Queensland volume of the 1961 Census Report. 17The fact that the Greek-born migrants have had to set up their own Church organization has also enabled them to develop a range of parochial schools and other Church-related activities which is unmatched by any of the other groups considered here. 18J. Zubrzycki, Immigrants in Australia: A Demographic Survey Based on the 1954 Census, Melbourne University Press, Parkville, Vic., 1960, pp. 79–85. Jones, op. cit. 19The index of marital dissimilarity for grooms is based on a comparison of the birthplaces of their choice of brides; that for brides is based on a comparison of the birthplaces of their grooms. 20See Charles A. Price, Southern Europeans in Australia, Australian National University Press, Canberra, 1963. 21This may be seen as a function of the sex ratio amongst the migrant populations. The uncorrected sex ratios per 100 males in each group in 1961 were as follows: Australian-born 107; New Zealand-born 89; United Kingdom-born 95; Nether</t>
+          <t>The past in relation to human destiny is a vast and complex subject. Religion by its very nature is inextricably involved with the past regarded as destiny. In all early societies for which we have records, there were immortal gods whose relations with men in the past naturally threw light on their attitudes in the present. With self-confidence that no experience could daunt, priests interpreted the earlier behaviour of the gods in order to predict the fate of individual men in the future. Heaven, hell, rebirth or oblivion, each religion possessed a built-in pattern of destiny, some complex, some simple, some capable of change and variety, others immutable for century after century. Yet for many of these religions the past was a huge catalogue of examples which were rarely involved in the historical process as such. I shall say very little about these religions, except for Christianity, which required a much more historical commitment than any other religion.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2614209126</t>
+          <t>https://openalex.org/W2612783892</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tho.1969.0057</t>
+          <t>https://doi.org/10.7907/1z64-ys50.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>McPhail (1969)</t>
+          <t>Mo (1969)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>John Knox by Jasper Ridley</t>
+          <t>Theory of Electrodynamics of Media in Non-Inertial Frames and Applications</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BOOK REVIEWS 371 membership more difficult and cites examples of the accomplishments made by those who demand effort and commitment above attendance and donation. To those who say the church should stay out of politics, Dr. Littell shows that, historically, in cases where the church stood mutely by. totalitarianism took over-as in Russia and Nazi Germany. He says the time has come to abandon the over-emphasis on mass evangelism-which has brought American church membership from 6.9% in 1800 to a constituency of 96% of the population today-and get down to work. In conjunction with higher membership standards he feels work-study groups should be organized around members' vocations so that religious ethics can be strongly and boldly advocated where they are needed most-in every part of and at all levels of a community's daily life. A former professor of church history at The Chicago Theological Seminary, Southern Methodist University and Emory University, Dr. Littell avoids preaching in his book and relies on examples, statistics and a broad base of historical fact to call American churches to action. The church should take a strong position on public issues and in politics, he says, and not let government and technicians direct American life. " The most awful figure of the modern world is," he states, " the technically competent barbarian-the master of persuasion who sells his services to the highest bidder or the careful bookkeeper who counted dead bodies at Dachau and Auschwitz." lCYWa Wesleyan College Mount Pleasant, Iowa BILL BAXTER John Knox. By JASPER RIDLEY. New York: Oxford University Press, 1968. Pp. 596. $9.50. Against the turbulent background of the sixteenth century, Jasper Ridley has written a comprehensive exciting biography on " the light of Scotland," John Knox. A man of mysterious character and high achievement, this Scot is pictured in all the controversy which surrounded him but without the false slanders. The author is essentially concerned with Knox's revolutionary ideas, activities and his mentality, which viewed the world in essentially political terms. Mr. Ridley pictures this political-religious thinker as " one of the most ruthless and successful revolutionary leaders in history," and as one rather to be encountered in history books than in the flesh. Dictators and mobs might murder an opponent whom they considered dangerous or for the purpose of revenge, but Knox is the onlv revolutionary " who proclaimed that it was sinful not to kill their enemies.~' The author traces the development of Knox's thought from the Berwick 872 BOOK REVIEWS congregation, where he taught that the monarch must be obeyed, until the accession of Queen Mary when his views changed radically. Rule of women, in Knox's opinion, was contrary to nature, a view in which he became more hardened. A pragmatist of the highest caliber, a successful strategist, he could another. His passions did not seem to be limited to the cause of Scotland against the rule of women, yet appeal for help from Queen Elizabeth I. A powerful individual by temperament, yet one whose strength lay in the organization that he built, he could uphold one murder and yet condemn another. His passions did not seem to be limited to the cause of Scotland and religion, for in the last seven years of his life, when he was fifty years old, he married for the second time a girl of the age of seventeen. As a theologian, he certainly was not a John Calvin, Martin Bucer, Peter Martyr, or, for that matter, a Thomas Cranmer. It was not in his nature to enter into subtle analysis of deep theological questions. He never formulated "his opinions on the nature of the [Real] Presence with any clarity " until he went to Geneva where he accepted Calvin's and Bullinger's. In fact, he seemed more like a renaissance political pamphleteer than a theologian, being bitter and invective in " vilifying and ridiculing the mass [sic] and the adoration of the Host." He could label and attack any of his religious opponents with the ability of a nineteenth-century politican. In an age when success is the measure of greatness John Knox cannot help but be appealing. A regime which has...</t>
+          <t>In the first half of this thesis a local electrodynamics of_x000D_
+media in given non-inertial frames*, within Maxwell-Einstein classical_x000D_
+field theory, is constructed in terms of observable EM fields and_x000D_
+co-moving local physical media parameters. Localization of tensors to_x000D_
+observables is introduced and justified, and a relation is obtained_x000D_
+connecting tensor transforms to instantaneous Lorentz transforms for_x000D_
+observers in different frames. A constitutive tensor, explicitly_x000D_
+expressed by the four-velocity and the local properties in co-moving_x000D_
+frame of a linear medium, is found for the first time. Previous mistakes_x000D_
+in confusing the tensors, in which forms the physical quantities_x000D_
+combine with the non- flatness of frames to be used in covariant equations_x000D_
+and thus make geometrical quantities, with observables are_x000D_
+cleared. Also a Lagrangian formulation for both lossless and lossy_x000D_
+media is constructed, and boundary conditions, local conservation laws,_x000D_
+and energy momentum tensor are obtained. The second half concerns application to motions in SRT, such_x000D_
+as uniform linear (hyperbolic) acceleration and steady rotation. For_x000D_
+these local Maxwell equations in co-moving frames are obtained, and_x000D_
+approximate solutions are found for special cases. An EM wave_x000D_
+propagating in the direction of acceleration is studied in the_x000D_
+accelerating frame. The first order propagation shows a frequency_x000D_
+shift and amplitude change which have very simple physical significances_x000D_
+of instantaneous Doppler shift and photon density in media_x000D_
+and which agree with familiar results in the vacuum limit. A particle_x000D_
+model for this wave shows that the mass dressed photon is dragged by_x000D_
+the medium and does not follow a geodesic path. In the rotating medium_x000D_
+case a plane wave scattered by a rotating sphere is solved by an integral_x000D_
+iteration method in the laboratory frame. The scattered field_x000D_
+purely associated to the rotation of the medium is separated from the_x000D_
+Mie scattering. Its first order amplitudes are found and plotted for_x000D_
+incidences perpendicular and parallel to the rotation axis. Particular_x000D_
+synunetry and shapes of scattering amplitude in the results agree with_x000D_
+intuition and resemble radiation patterns of appropriately induced_x000D_
+traveling electric and magnetic dipole sheaths. *The contribution of EM field to gµv is neglected.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2746428472</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0003-3472(69)80031-x</t>
+          <t>https://openalex.org/W2740737273</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lockard (1969)</t>
+          <t>Ti-I (1969)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Book review</t>
+          <t>A BASIC COURSE ON COMPILER PRINCIPLES</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>By examining the case of a death ritual in a Surinam-Hindu community in the Netherlands, the authors want to demonstrate the usefulness of object-relations theory in the study of religion. Because it focuses on the dynamic interaction between individual and culture, this psychological theory embraces a truly cultural-psychological approach. D.W. Winnicott's idea of ‘transitional phenomena’ is central in this respect. Cultural activities, such as participating in rituals and myths, are said to have a transitional function, when they sustain identity formation and coping with crises. Based on Arnold van Gennep's famous term ‘rites of passage’ as well as on the psychoanalyst Geza Róheim's insights into rites and myths of passage, the new term rêve de passage (dream of passage) is coined. Dreams may also have a transitional function in situations of crisis and change. As an example, we discuss the dream of one of the mourners in the case discussed. By using cultural meanings from her social and religious context—in particular, the notion of the mahapatra—the dream helps the mourner to cope with a difficult situation and to make the transition back to ordinary life. The article concludes that the concept of rêve de passage, as developed within the object-relational framework, is a promising tool for dream research in both religious studies and anthropology.</t>
+          <t>An attempt to devise a methodology of compiler design is described, and all outline is given for a possible course on this subject. The theoreticM basis is formed by the concepts of phrase-structure language, finite-state- and stack-accepter, and transducer. As their extension capable of processing context-dependent elements of languages, a so-called Table-Transducer is postulated, and it serves as the core-algorithm upon which compilers are based. The developed theory and method of compiler construction is applied to an example of a simple programming language. 1. Motivation and aims. The subject of the design of processing systems for programming languages has recently gained widespread interest and is being con- sidered as an important part of the course offerings of new Computer Science Departments at many universities. The reason for this develop- ment seems to lie in the proliferation of the variety of programming languages--general purpose languages as well as so-called application languages. It is particularly the latter class which in the author's opinion will in the future gain more and more importance. A recognisable trend is that the number of computer users who hesitate to indulge in the art of detailed computer programming is growing. They wish to have avail- able a tool which is strongly oriented toward their specific needs and is adapted to the terminology and notation of the particular application field. A proliferation of such application languages thus lies in their very nature, and the growth of their number could very well turn out to be proportional to the expansion of the computer's application fields. Areas for which special languages already exist are for instance the simulation of electronic circuits (ECAP), the computation of the forces in structures (STRESS), the simulation of continuous systems and analog computers (CPSS, MIMIC), the field of formula manipulation</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2981261344</t>
+          <t>https://openalex.org/W2980886448</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.24908/fede.v12i1.13628</t>
+          <t>https://doi.org/10.24908/fede.v9i1.13616</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Drury (1969)</t>
+          <t>MacDonald (1969)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Balancing Power: The Supreme Court of Canada’s Impartial Role in Federalism</t>
+          <t>Canadian Federalism: A System of Flexibility and Adaptability</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The problem with Lord Acton’s state-ment is that it leaves out the third essential ingredient to a federal system of government: a supreme court. In Canada, like most federa-tions, the Supreme Court (SC) is responsible for articulating the constitution and serving as an independent mediator in intergovernmen-tal relations. Each decision made by the SC in regards to government jurisdiction changes the dynamics of Canadian federalism, and some critics fear it can be used as a centraliz-ing device by the federal government. This paper will discuss the nature of the SC by demonstrating its necessity, purpose, and the importance of its independence by examining its crucial role in Canadian federalism. Next, there will be a historical breakdown of the impact of2 the SC on the federal balance of powers through an examination of three es-sential eras: Judicial Committee of the Privy Council (decentralizing), Laskin (centralizing), and Charter (mixed), with analysis involving the attitudinal and legal theorist models of decision making in SC decisions. Finally, the SC’s impartiality towards provincial and feder-al preferences will be evaluated to show that justices have remained immune to direct po-litical pressures [...]</t>
+          <t>The current edition is largely based within a Canadian context, though we did receive article submissions from as far away as Russia. Specifically, change is a recurring theme underlying and tying the various articles in this edition together. Federalism is not a stagnate form of governance, especially within a large, diverse polity such as Canada. In this regard, Canada serves as a case study of the challenges faced by other conciliatory federations. The current journal has been ordered chronologically to provide a stream of historical and contemporary accounts that demonstrates the constant need for adaptation to deal with change within the Canadian federal system. Though some issues researched in this journal may seem to be nothing more than historical, their impacts on Canadian politics still resonate today for each author, while researching a specific topic is at the same time addressing generic concerns about the nature of the Canadian Federation; concerns that need to be addressed for they have not be resolved [...]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3008546388</t>
+          <t>https://openalex.org/W3002838074</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3138/anth.2018-0015</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Steel (1969)</t>
+          <t>Berta (1969)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Physico-chemical techniques in the study of organic molecules of biological importance</t>
+          <t>Pastor, Politician, Entrepreneur, Chief: Power and Leadership on Epoon Atoll Today</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The work described in this Thesis consists of a study of the lipids present in the fatty nodules (plaques) which occur during the fatty degeneration of the human aorta associated with the disease atherosclerosis. For many years studies of the chemistry of these lesions have concentrated on the major classes of lipid constituents, viz. cholesterol, cholesterol esters, phospholipids and triglycerides: the minor lipid groups havebeen largely neglected. We have attempted to remedy this omission, since quantity is not necessarily a measure of biological significance. Early studies on the subject were severely handicapped by the absence of suitable techniques for the separation and identification of microgram quantities of material and as a result had to use large quantities of tissue requiring, in some cases, several years for collection. The necessarily prolonged nature of these investigations introduced the possibility of gross artefact formation and cast doubt on the authenticity of certain compounds identified as arterial constituents. In the present wort, thin-layer and gas-liquid chromatography (TLC and GLC) and gas chromatography-mass spectrometry (GC-MS) were used to enable each investigation to be restricted to plaque tissue from one aorta. Lesions from severely diseased aortas were dissected and solvent extracted within 24 hours post mortem. Division of the extract into its major components was effected by column chromatography on silicic acid. Repeated crystallisation of the sterol fraction from methanol enabled the concentration of several sterols chromato-graphically more polar than cholesterol. The most prominent of these was tentatively identified on the basis of its chromatographic behaviour as 26-hydroxycholesterol (cholest-5-ene-3beta,26-diol), a previously unknown tissue constituent. Confirmation of this structure was obtained by GC-MS, making use of the ability of trimethylsilyl ether derivatives to promote characteristic mass spectral fragmentations. Using a similar approach,7-ketocholesterol (3beta-hydroxycholest-5-ene-7-one); 7beta-hydroxycholesterol (cholest-5-ene-3beta,7beta-diol) and 5alpha-cholestane-3beta,5,6beta-triol were confirmed as constituents of this fraction as had been suggested by earlier investigators. Examination of the hydrocarbons, which had been neglected by previous workers, revealed that the major component was the isoprenoid hydrocarbon squalene. The initial identification wasmade by TLC, GLC and GC-MS and was corroborated by infrared spectrometry. Preparative TLC on silica gel impregnated with silver nitrate enabled the separation of two unsaturated steroidal hydrocarbons, later shown by mass spectrometry to be a cholestene and a cholestadiene, from a series of n-alkanes. Hydroxylation of the cholestene and GC-MS of the resulting diol in the form of the trimethylsilyl ether derivative has established that the compound present is largely cholest-5-ene. Work is in progress to determine the double bond positions in the cholestadiene. TLC analysis of silicic acid column eluates of polarityintermediate between triglycerides and cholesterol revealed theexistence of several unidentified esters which were furtherpurified by extensive chromatography. Acetylation demonstratedthat these esters contained unesterified hydroxyl groups. Theprincipal neutral compounds generated on hydrolysis were shown tobe cholesterol, 26-hydroxycholesterol and 7beta-hydroxycholesterol. The presence of the latter two sterols was not unexpected:however, the identification of cholesterol as a hydrolysis productnecessitated the postulation of the existence of an ester ofcholesterol with a hydroxy fatty acid. TLC and GLC studies onthe fatty acid portion of the molecule have confirmed this andGC-MS examination has shown that the major compounds are isomeric C18-monohydroxy acids each with two double bonds. TLC of sterol fractions (as propionate esters) on silica gel impregnated with silver nitrate has permitted the separation of desmosterol from an overwhelming mass of cholesterol. The relatively unsatisfactory behaviour of sterol propionates on GLC and GC-MS has led to the preferred use of trifluoroacetates. Using this approach we have been able to identify cholestanol in plaque extracts. It is difficult to assess the significance of these findings in relation to the development of human atherosclerosis, as only one stage of the disease has been examined. However, the methods developed will form the basis of a further investigation which will involve the study of plaques at various stages of evolution in an attempt to relate chemical changes within the artery wall to the pathogenesis of atherosclerosis.</t>
+          <t>In analysing the various types of political figures and status positions on Epoon, an outer atoll in the Marshall Islands, this article sheds light on contemporary constitutions of hierarchy, authority and leadership. This leads to an argument about the context-dependent nature of power. No leadership figure on Epoon today is all-powerful in the sense that his or her influence is relevant across all political and cultural spheres. When the historical depictions of Marshallese chiefs are traced in a critical light, it will become clear that earlier ideas of the chiefs as autocratic power figures may have appeared to benefit German colonial administration and Protestant missionaries. Shifting the focus to the dynamics of contemporary leadership practices, the case of an El Salvadorian castaway illuminates the power plays various actors engage in to gain access to his boat. What we will see is that power is highly dependent on context to have effect.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3021318379</t>
+          <t>https://openalex.org/W3018311358</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-1-4832-8297-8.50016-0</t>
+          <t>https://doi.org/10.5254/1.3539306</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Maupin (1969)</t>
+          <t>Flory et al. (1969)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PLATELET IMMUNOLOGY</t>
+          <t>Thermodynamics of Mixing of n-Alkanes with Polyisobutylene</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Important advances in the field of platelet immuno-hematology have takenplace in the last fifteen years._x000D_
-Platelet antigens_x000D_
-The following classification although arbitrary, may be helpful:_x000D_
-1	_x000D_
-constituent proteins able to induce formation of specific antisera when injected into animals;_x000D_
-_x000D_
-2	_x000D_
-cyto-specific antigens;_x000D_
-_x000D_
-3	_x000D_
-heterophile, present only in platelets of a few animal species;_x000D_
-_x000D_
-4	_x000D_
-histo-compatibility antigens;_x000D_
-_x000D_
-5	_x000D_
-blood group antigens;_x000D_
-_x000D_
-6	_x000D_
-specific platelet antigens._x000D_
-_x000D_
-_x000D_
-_x000D_
-_x000D_
-In the fifth class platelets have the same agglutinogens A (A1f A2) and B as erythrocytes. Presence of Rhesus factors and other group antigens present in red cells is probable but there are discrepancies in the literature._x000D_
-_x000D_
-Specific platelet antigens so far demonstrated are Zwa (or PI A1) and Zwb, forming two allele groups in the Zw system; Duzo, Ko, PI A1 and PI C1._x000D_
-Platelet antibodies in man_x000D_
-Various techniques of study in vitro and in vivo have been developed. They are classified and described in some detail. Their chemical nature and clinical significance are discussed._x000D_
-Platelet antibodies in animals_x000D_
-Heterologous platelet antisera have been known for a long time. Methods of preparation and titration, specificity, action in vivo and in vitro are considered._x000D_
-Immune thrombocytopenic purpuras_x000D_
-For clarity auto- and iso-immunization are presented separately._x000D_
-_x000D_
-_x000D_
-A	_x000D_
-Auto-immune thrombocytopenic purpuras account only for a part of the so-called “I.T.P”. Difficulties of an accurate diagnosis and therapeutic implications are pointed out._x000D_
-_x000D_
-B	_x000D_
-Iso-immune thrombocytopenic purpuras_x000D_
-_x000D_
-_x000D_
-_x000D_
-a	_x000D_
-Neonatal purpuras may appear in different circumstances. They are related to the transfer of either a maternal auto-antibody or a maternal iso-antibody._x000D_
-_x000D_
-In the latter case purpura may be associated with a neonatal hemolytic disease or it may result from a specific platelet iso-immunization._x000D_
-_x000D_
-b	_x000D_
-In adults iso-immunization results from either multiple transfusions or multiple pregnancies or both. Some statistical data concerning their frequency and hazards are presented._x000D_
-_x000D_
-_x000D_
-_x000D_
-Drug-induced thrombocytopenic purpuras_x000D_
-Although a great variety of drugs have been known to be responsible for a platelet depression some common features are presented. General mechanisms are discussed. Numerous tests in vitro and in vivo are available. Among the sensitizing drugs Sedormid (allyl isopropylacetylcarbamide) and quinidine have been extensively studied. A long list including quinine and certain analgesics, sulphonamides, antibiotics, cytostatics, etc. is presented. Some other substances appear to exert a toxic, direct action on either platelets or their precursors.</t>
+          <t>Abstract The volume changes on mixing polyisobutylene (PIB) with n-pentane, n-hexane, n-heptane, n-octane, n-decane, and n-hexadecane have been determined by direct measurements at 45°, and for n-heptane at 0 and 50° as well. They are negative in every case; the magnitude of the excess volume decreases with chain length, and increases with temperature. These results on volume changes, which are beyond the scope of conventional theories of polymer solutions, are rationally taken into account by the recent statistical mechanical theory of solutions which relates properties of the mixture to characteristics of the pure liquids manifested in their equation-of-state parameters. The negative enthalpies of mixing found by Delmas, Patterson, and Somcynsky for all of these systems with the exception of PIB-n-hexadecane are similarly shown to arise from negative equation-of-state contributions to the enthalpy which reflect differences between the liquid characteristics of n-alkane and PIB. The energy contributed by interchange of neighbor species in contact is shown to be small but positive, as should be expected for the nonpolar molecules involved. It diminishes with chain length of the alkane, becoming little greater than zero in the limit of an infinite alkane chain (polymethylene). Osmotic pressures of concentrated solutions (∼ 15–50%) of PIB in n-octane at 25° yield values of the residual chemical potential, expressed in terms of the conventional parameter χ, which are well reproduced by the theory without arbitrary parameters. The partial molar enthalpy and entropy of dilution are dominated by equation-of-state contributions rendering both of them negative, despite the large positive combinatory entropy. The appearance of critical miscibility at higher temperatures is thus predicted by the theory without resort to special explanations.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3113470650</t>
+          <t>https://openalex.org/W3062293182</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5382/mono.04.13</t>
+          <t>https://doi.org/10.2534/jjasnaoe1968.1969.126_107</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Willemse (1969)</t>
+          <t>Ogawa (1969)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>The Vanadiferous Magnetic Iron Ore of the Bushveld Igneous Complex</t>
+          <t>Calculations on the Steered Motion of a Ship under the Action of External Forces</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Abstract The Bushveld Complex contains the largest reserves of vanadiferous iron ore in the world. The ore is found as plug-like bodies and as seams of magnetitite. The plug-like bodies are pegmatoidal in character, and coarse-grained silicates such as diallage, olivine and amphibole commonly render the ore low-grade or useless. These magnetitite pegmatoids are known from the Critical Zone, from the Main Zone and from the Upper Zone of the Layered Sequence of the Complex. Only the Kennedy's Vale magnetitite plug-like mass, which is low down in the Main Zone, has been exploited so far for its vanadium content. The rubble ore of this deposit contains about 2% V2O5. Excepting doubtful, local seams more or less on the horizon of the Kennedy's Vale plug, the real magnetitite seams are encountered only in the uppermost 1,000 feet of the Main Zone and in the lower 4,000 feet of the Upper Zone. In the Eastern Transvaal 26 seams have been distinguished. Among these the uppermost seam, which is about 30 feet thick, is the thickest, but is made up of disseminated ore and of lenses of anorthosite. The Main Seam, 4,000 feet lower down, is 4½− 8½feet thick and consists mostly of massive magnetitite. This latter seam has an exposed strike length of 75 miles in the Eastern and of the order of 125 miles in the Western Transvaal. Rubble ore of this seam averages about 1.6% V2O5 and more than 200,000 tons of this ore are available for exploitation at surface or accessible by shallow open-cast mining in the Eastern Transvaal. Many seams have a sharp basal contact against anorthosite, and a transitional hanging-wall composed of massive ore grading upwards into magnetite-anorthosite and hyperite. A thin, highly puckered veneer of olivine and an intergrowth of pyroxene and plagioclase are developed at the sharp basal contact. The intergrowth could be due to diffusion of iron into the plagioclase. Irregularities at the contact consist of vein-like offshoots of magnetite into the foot-wall and even brecciation of the foot-wall is encountered. The grain-size of the ore in the Main Seam is variable. The closely packed nature of the grains is best explained by enlargement after concentration. The magnetite started to crystallize earlier or simultaneously with the plagioclase, and the seams could have formed in the same manner as any monomineralic rock in a layered sequence. In some of the country rocks magnetite continued to crystallize interstitially to the plagioclase. In these examples hydroxyl minerals such as biotite and amphibole are generally present. Titanium minerals in the ore consist mainly of (1) small ilmenite granules that probably formed earlier or simultaneously with the magnetite, (2) rather rare, broad lamellae of ilmenite which exsolved from magnetite at an early stage, (3) ulvite, which is ubiquitously present and forms the characteristic cloth-pattern, and (4) a wide range of intergrowths of dispersed ilmenite ("proto-ilmenite") with magnetite, maghemite and martite. These intergrowths are considered to have formed from the ulvite cloth-pattern by surface or near-surface oxidation. The cloth-pattern of ulvite seems to have had a profound effect on the formation of maghemite and martite—it promoted maghemitization and retarded martitization. An antipathetic relationship prevails between the V2O5 and the TiO2 content of the ore. The lowermost seam contains about 2% V2O5 and 14% TiO2, the uppermost one about 0.3% V2O5 and 18–20% TiO2. As the titanium is mostly contained in ulvite it is considered that a decrease in oxygen fugacity in the magma determined the increase in the titanium content upward in the layered sequence. The V2O5 content of the magnetitite plugs seems to correspond approximately to that of the seams in their vicinity.</t>
+          <t>Considering the possibilities of solving the non-linear equations of motion numerically on a digital computer, the author contrived a method for numerical calculation of the steered motion of ships in uniform wind and flow.The aerodynamic forces and moments and the longitudinal hydrodynamic force were taken in as the intermittent functions of relative wind direction and the Froude number respectively, and were interpolated at need. The so-called rotary derivatives were decided by a least-squares method, up to the third order of transverse velocity, turning rate and rudder angle, from the tested points at various values of the parameters.The equations of motion were described on the absolute motion of ship, and the external and intertia forces and moments caused by the relative motions were calculated at every small time intervals and integrated.As an example, calculations were carried out on a mammoth tanker regarding the required lowest speed and the course stability in a straight course and the turning behaviours in wind and flow. Results of the calculation on the turning characteristics in calm sea were compared with the tested results on a free-running model and on the actual ship.The following conclusions were obtained concerning the method of the calculation and the calculated results on the steered motions of a ship in wind and flow.(1) The non-linear equations of the un-steady motion of a ship can be calculated numerically on a digital computer.(2) The required minimum speed and the course stability on a straight course within the limits of definite rudder and drift angles can be calculated.(3) In some cases the course stability index has a periodic solution.(4) At the above-mentioned minimum speed, the ship tends to be course-unstable mainly in case of heading flow and of following wind, though the stability is improved by the higher ship speed.(5) The effect of wind and flow change remarkably according to the loading condition of ship.(6) The average direction of the macroscopic “drift” of the steadily turning ship does not necessarily coincide with that of the uniform wind or flow, and the average speed of the “drift” is smaller than that of wind or flow.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124838496</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5195/pjephl.2014.62</t>
+          <t>https://openalex.org/W311573587</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Hepburn (1969)</t>
+          <t>Paparone &amp; Crupi (1969)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Does Unconventional Gas Require Unconventional Ownership? An Analysis of the Functionality of Ownership Frameworks for Unconventional Gas Development</t>
+          <t>Janusian Thinking and Acting</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>The implementation of a responsive and coherent property framework, capable of effectively supporting the progression of a rapidly expanding unconventional gas industry is proving to be a complex and intricate process for many countries. The theory of mineral ownership that underpins any regulatory framework represents its point of departure. It is increasingly clear that the problems associated with the expansion of unconventional gas development have challenged both private and state based models. This article examines how the core principles that form the foundation for land and mineral ownership in both the United States and Australia have responded to the rapid expansion of the unconventional gas industry. The conventional inertia associated with institutionalized property frameworks has meant that the frameworks are largely resistant to external change. Hence, whilst the transformation that has occurred in the energy industries following the advent of unconventional gas development has been remarkable, ownership frameworks have struggled to cope. Many principles that evolved in a period when unconventional gas was inconceivable are now proving ill-equipped and non-responsive to the new energy environment. This Article argues that the stasis that afflicts ownership frameworks has precluded many of the conventional principles from adapting to meet the needs of this new energy revolution. This has generated an increasing imperative, in both the United States and Australia, to develop and implement legislative initiatives that revise or alter the way in which the schema of orthodox ownership principles applies to unconventional gas. Focused legislative development will promote adaptable, consistent, and structured principles, which in turn will allow ownership frameworks to respond to the operational demands of a new energy era.</t>
+          <t>The authors maintain that the current US approach to military operations-strategic, operatioal and tactical--is too linear for today's contemporary operating environment. They argue that future warfighters must move beyond linear thought and action to a realm of thinking and acting that recognizes and accepts paired yet opposite ideas and actions: Look before you leap and at the same time understand that he who hesitates is lost. ... for understanding proverbs and parables, the sayings and riddles of the wise. -Proverbs 1:6 THINGS DO NOT LINE UP like before. Traditionally, a nation-state attacks another with military force, and the response is rather predictable. Today, the qualities of nation-states are no longer required to initiate attacks; attacks may not even have traditional military qualities; and prediction is just not as calculable as before. Some military theorists have dubbed these new conditions warfare, giving the impression that postmodern conflict is all about one-upmanship associated with hitting the enemy's vulnerability with a different scale of means.1 Some postulate that the problem of asymmetric conflict is at the strategic level. The underlying assumption of modern military thinking and acting is that we can address asymmetric problems with hierarchically directed linear thinking, as strategic, operational, and tactical levels of war represent. The argument is that the strategic, operational, and tactical paradigm exists because it enables the military to adapt through echelonment. The danger is that structure ends up driving response instead of needed capabilities and values driving organizational response. While the concept of asymmetry has been presented often in professional literature, it remains ill-understood from the strategy::operations::tactics paradigm because this paradigm considers that we need better, not necessarily different, thinking and acting. A Better Way of Thinking What we really need is an alternative paradigm that gives us a new and better way of thinking and acting. The new approach should provide a range of insights that enable commanders to instantly conceptualize a pattern of multidimensional possibilities that lead to breakthrough concepts and values because the traditional strategic linear way of thinking and acting is inadequate, given the nature of the postmodern era. The preferred new paradigm must have several characteristics that set it apart from the strategic paradigm: * It must have a fractal quality that allows us to take simultaneous full-spectrum looks at human information processing, the sine qua non of thinking and acting. * It should not reject traditional levels of analysis such as strategy, operations, and tactics but should relegate them to secondary concepts. * It must emphasize concepts such as simultaneity of paradoxes (complex reasoning), comprehending activities in multiple time orientations (polychronicity), and embracing environmental complexity (unpredictability) as a normal condition.2 The preferred paradigm is Janusian, named after the Roman god Janus who looked four ways simultaneously.3 The Janusian paradigm cannot be explained as a logical result of the post-Cold War world because it is not really new. As the quote at the beginning of this article reveals, this wisdom has probably existed for thousands of years and requires reawakening. Military leaders tend to look for doctrinal answers, but the solution this article proposes is not a prescription for what to do; rather, it is a description of how to think. Some may argue that increasing the speed of linear decisionmaking will address the chaotic nature of unfolding events, but that is not the case. The overarching issue of the post-modern predicament is fundamentally metaphysical: how do humans process information? Linearly focused (schismogenic) thinking and acting-the methods of the current strategic paradigm-- explains and rejects alternative hypotheses purposefully and sequentially. …</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4210523374</t>
+          <t>https://openalex.org/W4206740740</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7146/kuml.v19i19.105133</t>
+          <t>https://doi.org/10.1007/978-3-662-25189-8_3</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Witt (1969)</t>
+          <t>Born (1969)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Egerhjul og Vogne</t>
+          <t>On the Meaning of Physical Theories</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Danish Spoked Wheels In recent years, attention has on several occasions been drawn to disc wheels found in Denmark. New dating and the work of the Dutch archaeologist D. van der Waals have given rise to new interpretations. The present article is concerned with another group of wheels -mainly in the collections of the National Museum of Denmark- namely wheels with 8 or more spokes. The author has based his treatment of these excavated wheels on ethnological studies of the dying trades of the wheelwright and coach-builder.The main characteristic of the modem spoked wheel is its conical form or camber, arising from the spokes being set obliquely in the hub away from the vehicle. The way certain components are assembled is also characteristic. The spokes are thus fixed in holes in the hub and in holes in the felloes. The identical felloes are shaped to follow the circumference of the wheel and are held together by dowels.The wheel is shown to be subject not so much to compressive strains as to ultimate strains, since the strongest and most frequent forces are transmitted laterally. In contrast to the disc wheel, the spoked wheel is in principle equally strong, whichever part of the rim is in contact with the ground. With its better use of the natural directional strength of the wood, the spoked wheel also permits a considerable saving in weight. The camber of the modem wheel serves to reduce the constructional weakness of the spoked wheel. The breaking strength at the junction of hub and spokes is low, and when a wheel receives its greatest lateral strain running on a sloping sw-face, the lower wheel will also have to bear the largest part of the weight of the vehicle. Figs. 2 and 5 show how the cambered wheel absorbs this lateral strain.The oldest known spoked wheels from c. 2000 B.C. were found in Mesopotamia, in connection with two-wheeled carriages. The spoked wheel apparently spread through Europe with the two-wheeled chariot and reached Scandinavia in the course of about five hundred years. Only very few of these early spoked wheels, which are mainly known from pictures, have been preserved. It does not seem to be possible to establish a connection with the later tradition. The many waggon graves of the Hallstatt period in Central Europe point, however, in the sporadic cases where details of construction can be ascertained, to a more recent tradition, at least to the finds of the La Tene period where, for instance, the Danish Dejbjerg waggons are extremely well preserved. In the Dejbjerg waggons a relatively high number of spokes, 12-14, appears for the first time, 800-900 years after a high spoke-number was usual in China. Apparently, the chariot spread quite rapidly in Asia also, and finds from China from c. 1300 B.C. show these vehicles with high wheels, turned spokes, and a spoke number up to 26. A cultural connection between eastern Asia and Europe in the Hallstatt period has been demonstrated, and the author sees the waggon finds of the La Tene period in the light of this connection.The 4-wheeled waggon later becomes the favoured means of agricultural transport in continental Europe and the first intimations of more humble wheels of this type are found among the Østfold petroglyphs, in groups assigned to 650-400 B.C., or in the find from Rappendam in northern Zealand where large numbers of disc wheels were found amongst several presumed long-waggons. At about the beginning of our era, however, the disc wheel seems to have been replaced by spoked wheels, also for heavy transport. A new, very simple type of many-spoked wheel now turns up in the north European finds.The excavated wheels in the prehistoric collection of the National Museum are unrepresentative and undated and any conclusions must necessarily be treated with reservation. It is possible to divide these wheels into 3 groups, the first two of which are clearly defined, whilst the third, which largely comprises the remaining wheels, shows certain common features. Group I is characterized by hub shape 1 (fig. 12), 8 or 12 spokes, but always 4 felloes. The spoke-tenons in the hub are flat and rectangular but without a shoulder at the transition to the round shaft of the spoke. Group II comprises wheels with hub form 2, and 12 spokes and 6 felloes, which in contrast to those of group I are decorated with concentric mouldings on one or both sides. The wheels of group III have 10 or 12 spokes (always 2 in each felloe). The felloes are undecorated and have wear pins let into the tread. Diagram p applies this classification to the wheels in question.The wheel parts of group I stem mainly from an Iron Age deposition in Tranbær bog, with a few parallels, one of which is from the Vimose find. The individual finds in the other groups are very difficult to date, but the sum of available information, supported by analogies in the other Scandinavian countries and in northern Europe, seems to suggest that the grouping employed also has chronological vali</t>
+          <t>Whoever regards in a detached way the development of the exact sciences must be impressed by two contradictory features. On the one hand, the whole of natural science exhibits a picture of continuous and healthy growth, of unmistakable progress and construction, evident as much in its inward deepening as in its outward application to the technological mastery of Nature. Yet, on the other hand, one observes at not infrequent intervals the occurrence of upheavals in the basic concepts of physics, actual revolutions in the world of ideas, whereby all our earlier knowledge seems to be swept away, and a new epoch of investigation to be inaugurated. The abrupt changes in the theories are in marked contrast to the continuous flow and growth in the realm of well ascertained results. We may give a few examples of such convulsions of theories. Consider the most ancient and most venerable branch of physical science, astronomy, and the ideas concerning the stellar universe, whose course we can follow through thousands of years. At first, the Earth is at rest, a flat disc at the center of the Universe, round which the constellations move in orderly procession. Then, almost simultaneously with the realization of the earth’s size and spherical shape, comes the Copernican system of the Universe, placing the sun in the center and allotting to the earth only a subordinate place among many other attendants of the central star. The beginning of the new era in natural science is marked by Newton’s theory of gravitation, which holds the solar system together, and which remained unchallenged for some two centuries. In our time, however, it has been dethroned by Einstein’s relativistic theory of gravitation, which completely does away both with the heliocentric system of planets and with gravity acting at a distance.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W424004227</t>
+          <t>https://openalex.org/W4240006113</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevlett.22.577</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bhatnagar (1969)</t>
+          <t>AUTHOR_ID (1969)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A study of adjustment of immigrant children in a London school</t>
+          <t>A Need For Firmness</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>The dramatic increase in the number of immigrant children in British schools during the last decade has posed many difficult problems. For both educationists and social scientists interested in the problems of culture conflict and resocialization, it presents a a real, urgent but immensely interesting issue to be studied. The research in the field to date has been almost entirely of a qualitative nature and quantitative studies are almost non-existent. The present study was undertaken to compare the socio-personal adjustment of immigrant children in a North London school, with a control group of English children, and to study the correlates of ‘adjustment’. A ‘well-adjusted’ person was defined as an individual who is (a) socially acceptable, (b) personally satisfied, (c) free from anxiety, and (d) has an objective self-concept. The variables for the study of their relationship with ‘adjustment’ were chosen partly as a result or the survey of previous studies and partly through a survey of the opinions of teachers of immigrant children. The investigator spent about eighteen months in the school as a schoolteacher for the purpose of establishing rapport. No formal testing of any kind was carried out until the investigator had established rapport with children of all races and was being perceived and categorised primarily as a teacher and not as a member of any particular race. The sample consisted of 174 West Indian (90 boys and 84 girls) and 76 Cypriot (38 boys and girls each) children at the school. This comprised the entire immigrant population at that school, with the exception of three Cypriots who could not speak English and hence could not be tested, and a few children of other races whose number was too small for any statistical analysis. A specially constructed adjustment scale (composed of four sub-scales - social acceptability, personal satisfaction, freedom from anxiety and objectivity of self-concept,) Raven Progressive Matrices, Mill Hill Vocabulary Scale, New Junior Maudsley Personality Inventory, Cotswold Personality Inventory, a semi-structured interview, and school records were used as measuring instruments. English children were found to be better adjusted, more personally satisfied, less anxious, less extraverted, less interested in things but more interested in ideas than immigrant children. Immigrant children were found to have a less objective self-concept, lower academic achievement, lower attainment in written English, vocabulary and fluency of spoken English, and lower non-verbal intelligence test scores than English children. No significant differences were found between social acceptability, non-academic achievement, interest in people and attitude towards school scores of English and Cypriot children. West Indian children were more interested in people, had a less unfavourable attitude towards school, a higher non-academic achievement, but were less socially acceptable than the English children. The Cypriots were found to be better adjusted, more socially acceptable, less anxious and as having more objective self-concept but lower non-academic achievement and less interested in people than the West Indians. No significant differences were found between the personal satisfaction, academic achievement, attainment in written English, vocabulary and fluency of spoken English, I.Q., extraversion, interest in things and ideas, and attitude towards school scores of the two groups of immigrant children. 'Adjustment' of immigrant children was found to be positively and significantly related to their academic achievement, attainment in written English, extraversion, interest in people, attitude towards school, and friendship with English children. Family size, interest in things, interest in ideas, and difference between vocational aspirations and expectations were found to be negatively and significantly related to 'adjustment', No relationship between 'adjustment' of immigrant children and age, age at the time of emigration, length of residence in the U.K., intention of returning home, living with one or both parents, working mother, non-academic achievement, fluency of spoken English, vocabulary, intelligence test scores, expectation of high status jobs, and aspiration of high status jobs, could be established. The results showed that there was very little mixing among children of different races. Only 22.4% of the West Indians claimed the friendship of even one English child while only 14.5% of the Cypriots and 2.9% of the West Indians claimed an English child as their ‘best friend’. Only 13.2% of the Cypriot and 2.9% of the West Indian families were on visiting terms with an English family in their neighbourhood. Case histories of five most 'well-adjusted' and five least ‘well-adjusted’ Cypriot and West Indian children each were recorded. Some suggestion were made about the suitable actions that could be taken by the various people concerned with the education of immigrants and some pr</t>
+          <t>Physical Review Letters has practically always been noted for its high rejection rate. Now we must announce that the rate will go even higher. The Council of The American Physical Society has instructed the editors to limit the number of text pages published in 1969 to 3000. This is about 10% less than we published in 1968, and nearly 20% less than the rate of growth in the past implied for 1969. Two good reasons were given for this action: to prevent the journal from becoming unwieldy and to reduce the deficit incurred in its operation.We have heard that some institutions, including a few large and renowned ones, are experiencing budget problems and that they have ceased to honor page charges. This is not the place to argue the merits or justice of such action. We merely point out that until the situation at least stabilizes, and probably until it starts to improve again, and Society must try to control the size of deficits.Meanwhile, the financial difficulties of the research institutions are not yet reflected in the number of papers submitted for publication, which is steadily rising. We have often stated as one of our objectives that this journal ought to be one that every active physicist can read, and read profitably, all the way through. This cannot happen (as we have also often stated) if the journal gets too big. And yet the complaints of authors against referees and editors have become sharper.We now inform our contributors that the situation will get worse. Last year we rejected 1057 out of 2271 contributions. We estimate that in 1969 this will have to rise to 1600 out of 2600, an increase from 46.5 to 61.5%. Unfortunately, such a high rejection rate gives a journal an undeserved measure of prestige, so that authors are even more anxious to get their papers accepted. The situation is analogous to that of parents trying to get their children accepted by exclusive prep schools. But rejection by Physical Review Letters does not necessarily reflect upon the quality of the work-indeed, often quite the contrary. It usually means merely that the contribution lacks timeliness or surprise, or is of interest to only a small number of colleagues in a rather static area of research-or even that it is so important that it is essential for all the elaborate details to be presented at the outset.Although we have stated many times that it is not possible to formulate objective criteria for the need of rapid publication, many physicists continue to believe (or at least to act as if they believe) that this problem has a well-defined solution and that it is really possible to show that their own paper deserves Letter publication more than some other. It is just not so and apparent injustices are inevitable, just as is the case with honors and awards. Moreover, the true pertinence of a paper is rarely obvious; it often takes a long time of waiting for new experiments or new theory until its value becomes clear. Thus many published Letters, especially on theory, seem to lose their significance not long after publication; and only about half of all Letters are eventually followed up by more detailed Articles. We advise authors that if their Letter is important to them, they should compose it so that its content can be appreciated by more than just co-workers in their narrow field of specialization, avoiding in-house jargon, abbreviations, and slang. Clearly written papers seem to be more readily recommended by the referee for acceptance.We envy the editors of Nature and some other commercial journals who can reject papers without giving the reasons. We must rely on our referees, and we take this opportunity to ask them again to help us make this journal a balanced reflection of the present activities in all areas of physics research. Since our referees themselves are contributors, they must set the standards for their own field.However, in the past most borderline cases, when referees' opinions differed, were decided in favor of the author. We can no longer afford that luxury. We must hold down the size of Physical Review Letters.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4254455053</t>
+          <t>https://openalex.org/W4254166813</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1001/jama.210.9.1734</t>
+          <t>https://doi.org/10.1152/physrev.1969.49.2.285</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>McMillan (1969)</t>
+          <t>Waddell &amp; Bates (1969)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tropical bacterial pyoderma in Vietnam. An improved therapeutic regimen</t>
+          <t>Intracellular pH.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fifty marines and navy hospital corpsmen with tropical pyoderma, a variant form of pyoderma, were treated in the hospital for a period of one week.&lt;i&gt;Staphylococcus aureus&lt;/i&gt;and β-hemolytic Streptococcus group A, alone or in combination, were the predominant pathogens present in almost every case. Gram-negative bacilli and fungi not further identified were minor contaminants. Effective treatment in all cases consisted of saline dressings, elevation of affected extremities, and phenoxymethyl penicillin potassium, 500 mg four times a day. One third of the patients with staphylococcal infection were infected with penicillin-resistant organisms in vitro. These patients responded well when treatment was changed to oxacillin sodium in the same dose. Healing was complete in a majority of patients at the end of one week and in all by the end of two weeks. There were no significant complications from the regimen.</t>
+          <t>Intracellular pH.W J Waddell, and R G BatesW J Waddell, and R G BatesPublished Online:01 Apr 1969https://doi.org/10.1152/physrev.1969.49.2.285MoreSectionsPDF (7 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByA hemicyanine-based optical probe for biomembranes and intracellular pH sensingJournal of Luminescence, Vol. 202Postulating the major environmental condition resulting in the expression of essential hypertension and its associated cardiovascular diseases: Dietary imprudence in daily selection of foods in respect of their potassium and sodium content resulting in oxidative stress-induced dysfunction of the vascular endothelium, vascular smooth muscle, and perivascular tissuesMedical Hypotheses, Vol. 119The Techniques and Uses of Intracellular pH Measurements30 May 2008Lactic Acidosis in the Brain: Occurrence, Triggering Mechanisms and Pathophysiological Importance30 May 2008Critique of dose response in carcinogenesis2 July 2016 | Human &amp; Experimental Toxicology, Vol. 25, No. 7Dose-Response Curves in Chemical Carcinogenesis1 January 2004 | Nonlinearity in Biology, Toxicology, Medicine, Vol. 2, No. 1Comparison of human exposures to selected chemicals with thresholds from NTP carcinogenicity studies in rodents2 July 2016 | Human &amp; Experimental Toxicology, Vol. 22, No. 9Reply2 May 2003 | Toxicological Sciences, Vol. 74, No. 2Threshold for carcinogenicity of N-nitrosodiethylamine for esophageal tumors in ratsFood and Chemical Toxicology, Vol. 41, No. 5Thresholds in Chemical Carcinogenesis: What Are Animal Experiments Telling Us?2 July 2016 | Toxicologic Pathology, Vol. 31, No. 3pH regulation of K+ efflux from myocytes in isolated rat hearts:87Rb,7Li, and31P NMR studiesV. V. Kupriyanov, B. Xiang, B. Kuzio, and R. Deslauriers1 July 1999 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 277, No. 1pHi and pHo at different depths in perfused myocardium measured by confocal fluorescence microscopyBarbara J. Muller-Borer, Hua Yang, Sayed A. M. Marzouk, John J. Lemasters, and Wayne E. Cascio1 December 1998 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 275, No. 6Salicylate Intoxication1 March 1997 | Journal of Intensive Care Medicine, Vol. 12, No. 2Photodynamic Therapy (PDT) and Photodiagnosis (PD) Using Endogenous Photosensitization Induced by 5-Aminolevulinic Acid (ALA): Mechanisms and Clinical ResultsJournal of Clinical Laser Medicine &amp; Surgery, Vol. 14, No. 5Brain Tissue Oxygen, Carbon Dioxide, and pH in Neurosurgical Patients at Risk for IschemiaAnesthesia &amp; Analgesia, Vol. 82, No. 3The role of intracellular acidification in calcium mobilization in human neutrophilsBiochimica et Biophysica Acta (BBA) - Molecular Cell Research, Vol. 1093, No. 1Synthesis and tissue distribution of four Se-labeled tertiary amines, potential brain pH imaging agentsInternational Journal of Radiation Applications and Instrumentation. Part B. Nuclear Medicine and Biology, Vol. 17, No. 6Considerations for brain pH assessment by 31P NMRMagnetic Resonance Imaging, Vol. 6, No. 2Metabolism of oxazaphosphorinesPharmacology &amp; Therapeutics, Vol. 37, No. 3Bioenergetics of secretory vesiclesBiochimica et Biophysica Acta (BBA) - Reviews on Bioenergetics, Vol. 853, No. 3-4Tomographic Mapping of Brain Intracellular pH and Extracellular Water Space in Stroke Patients29 June 2016 | Journal of Cerebral Blood Flow &amp; Metabolism, Vol. 5, No. 3Brain Tissue Acidosis and Changes of Energy Metabolism in Mild Incomplete Ischemia—Topographical Study29 June 2016 | Journal of Cerebral Blood Flow &amp; Metabolism, Vol. 5, No. 3H+ and Cl− ion equilibrium across the red cell membrane in the carpRespiration Physiology, Vol. 61, No. 2Applications of nuclear magnetic resonance to surgical disease: A collective reviewJournal of Surgical Research, Vol. 38, No. 2Kinetics of 13N-ammonia uptake in myocardial single cells indicating potential limitations in its applicability as a marker of myocardial blood flow.Circulation, Vol. 71, No. 2Autoradiographic determination of brain pH following middle cerebral artery occlusion in the rat.Stroke, Vol. 15, No. 3The mechanisms of acid-base and ionoregulation in the freshwater rainbow trout during environmental hyperoxia and subsequent normoxia. I. Extra- and intracellular acid-base statusRespiration Physiology, Vol. 55, No. 2Kinetics of cytoplasmic aspartate aminotransferase from three genotypes of the deer mouse (Peromyscus maniculatus)Comparative Biochemistry and Physiology Part B: Comparative Biochemistry, Vol. 78, No. 3The effect of lysosomotrophic bases and inhibitors of transglutaminase on iron uptake by immature erythroid cellsBiochimica et Biophysica Acta (BBA) - Molecular Cell Research, Vol. 762, No. 2Effect of the absence of bicarbonate upon intracellular pH and calcium fluxes in pancreatic islet cellsBiochimica et Bioph</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383460442</t>
+          <t>https://openalex.org/W4383460395</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tech.1969.a892374</t>
+          <t>https://doi.org/10.1353/tech.1969.a892419</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Calvert (1969)</t>
+          <t>Mayfield (1969)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Education for a Technological Society: A Sesquicentennial History of Rensselaer Polytechnic Institute by Samuel Rezneck (review)</t>
+          <t>From Geography to Geotechnics by Benton MacKaye (review)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TECHNOLOGY AND CULTURE Book Reviews 319 and even those who are, like myself, may still have difficulty in visual­ izing the exact course of the B&amp;W to its tidewater terminal. Arthur M. Johnson* Education for a Technological Society: A Sesquicentennial History of Rensselaer Polytechnic Institute. By Samuel Rezneck. Troy, N.Y.: Rensselaer Polytechnic Institute, 1968. Pp. xvii-)-52O; illustrations; Bibliography. The publication of this book makes broadly available a reasonably good institutional history of Rensselaer Polytechnic Institute. But, aside from updating, it hardly adds in any significant way to the earlier his­ tories by Ray Palmer Baker and Palmer C. Ricketts. One contribution might be pegged, however: Rezneck, although a Rensselaer figure like Ricketts and Baker, is a historian and places the events better in histori­ cal perspective. It is safe to say that, despite defects, Rezneck’s book will become the standard history of Rensselaer. Rezneck nicely places Rensselaer’s early history in the proper con­ text, in an era of imaginative educational change. The proprietary and entrepreneurial nature of the early school is well described, and we are given candid portraits of the early instructors (and later ones) showing both their strengths and weaknesses. The very early appearance of the cosmopolitan character of civil engineering is explained by the diverse backgrounds and origins of Rensselaer students, including a large com­ ponent group from Latin America. Civil engineering was always the main interest. After the report of a committee headed by Alexander L. Holley in 1870, the emphasis was made official and exclusive, and from then on Rensselaer had a secure position as the premier institution in the United States for training civil engineers. As such, there was naturally considerable inbreeding over the years, a fact which Rezneck is not shy in dealing with. Not surprisingly, Rensselaer also developed a close relationship with the Pennsylvania Railroad, which, because of its strong emphasis on engineering, was considered “the” railroad in the same sense that Rensselaer was “the” place to be educated as a civil engineer. By the 1890’s, though the best in its field, Rensselaer was in many respects a very narrow institution despite the urbanity and sophistication of its student body. And it was poor as a churchmouse. Rezneck gives us a clear portrait of Palmer C. Ricketts, who headed Rensselaer from 1892 to 1934 and built it, physically, financially, and * Dr. Johnson, professor of business history at the Harvard Graduate School of Business Administration, is author of Government-Business Relations and co­ author of Boston Capitalists and Western Railroads. This year he is visiting pro­ fessor at the University of Maine. 320 Book Reviews TECHNOLOGY AND CULTURE educationally, into a much broader and more powerful institution. Like Robert Thurston at Cornell, Ricketts managed to walk a tightrope be­ tween the values of the shop world and the emerging field of engineer­ ing education. If anything, he leaned toward the shop world’s values of easy entrance but tough standards for graduation, and he opposed the development of the engineering educator as a type different from an engineer. For Ricketts, as for many, the engineering educator must be or have been an engineer. Certain defects mar but do not lessen the value of the book. The whole is shot through with irrelevant material and much material of interest only to nostalgic old grads. For example, of what relevance is the fact that the father of a student agitating for temperance reform at Rensselaer had a university named after him? Likewise, the detailed description of plaques and silver plates given to people on retirement seems unnecessary. Perhaps this comes from an apparent determination on Rezneck’s part not to leave out anything. Fortunately, the Index is good. The book is not footnoted, but there is a short Bibliography. Institutional history has its limits, but in this book we are given a respectable example of the species, a readily available, up-to-date his­ tory of an important American engineering school. Monte A. Calvert* Claus Spreckels: The Sugar King in Hawaii. By Jacob Adler. Honolulu: University of Hawaii Press, 1966. Pp. xii-j-339. This book presents much interesting information concerning the business activities of Claus Spreckels and his associates, and if...</t>
+          <t>622 Book Reviews TECHNOLOGY AND CULTURE of companies involved in various aspects of the program and the dates of contracts entered into, but he never gives costs. The financial dimension is almost completely missing, except, again, for trivia. Thus, while the reader learns what members of Moonwatch teams had to pay for their own instruments, the “budgetary cuts” which caused a decline in obser­ vations in 1967 are not explained. One has less complaint in the area of technical information, which is usually adequate and often quite good. The latter characterization ap­ plies, for example, to the brief treatment of orbital determination early in the book. Still, inconsistencies and gaps are in evidence here. Against that good beginning one must place a later inadequate explanation of tesseral harmonics, which, moreover, appears about ten pages after the term has been introduced. With all of its shortcomings, however, Hayes’s history does achieve a considerable measure of success. Certainly it is a handy compilation of all aspects of the satellite-tracking program. And it treats some topics thoroughly and well. Of special interest to the readers of this journal will be the descriptions of the program’s instrumentation and changes therein. Hayes’s discussions of the design, development, testing, func­ tioning, and improvements in the Baker-Nunn camera and its ancillary equipment are generally good. Indeed, one emerges from the book wish­ ing that Hayes had chosen to concentrate on matters such as these. Perhaps other researchers will provide more detailed analyses of various individual parts of this important program. They will find Hayes’s book a useful point of departure. Seymour L. Chapin* From Geography to Geotechnics. By Benton MacKaye; edited by Paul T. Bryant. Urbana: University of Illinois Press, 1968. Pp. 194. Index. $5.95. Benton MacKaye’s search for a name to encompass his interests in pro­ grammed “social habitability” gives birth to the title of this collection of essays. Word coining succeeds only in inverse relationship to the avail­ ability of neater synonyms, however, and Paul Bryant’s extensive intro­ duction more appropriately describes MacKaye’s work as ecological humanism. The significance of this volume does not stem from its technical con­ tributions, for these are seldom explicit. Rather, the reader is quickly aware of its value as a combination of prophetic challenge and prophetic solution. Both involve technological strategies open to society, but Mac­ Kaye’s simple exposition of history, often treated as reminiscence, almost lulls the reader past remarkable insights. MacKaye makes an early, clear * Dr. Chapin, associate professor of history at California State College at Los Angeles, has done research in the history of astronomy. TECHNOLOGY AND CULTURE Book Reviews 623 call for the systems approach to problems of environmental quality; he previews not only the structure but also the problems of an interstate freeway system; he takes a forerunning look at a classical linear pro­ gramming problem in his review of wheat production and consumption patterns, etc. If asked to name MacKaye’s contemporary counterpart, one might suggest John McHale, with his arguments of a transnational ecosystem. MacKaye was practitioner as well as prophet. The two main sections of the book, “Control of the Landscape” and “Uses of the Wilderness,” draw on MacKaye’s past involvement in regional planning and wilder­ ness utilization (e.g., TVA and the Appalachian Trail). Concern, not geotechnics, is the keynote of the volume. Social engineers will want to read MacKaye’s writings not for new directions in ecological humanism, but for an appreciation of a pioneer in their profession. Robert C. Mayfield* Labor in a Changing Economy. Edited by William Haber. New York: Basic Books, 1966. Pp. 341. $5.95. This book, which originated in one of the “Forum” broadcast series sponsored by the Voice of America, represents one of the most complete discussions of American labor currently available. One might well antici­ pate such thoroughness, given the distinguished list of contributors—his­ torians, journalists, labor leaders, and university economists. Many of the latter can count as part of their credentials years of experience in the trade unions. The topics reviewed include the labor force, living stand­ ards, growth of the labor movement, wage policies, dispute settlement, labor...</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388262346</t>
+          <t>https://openalex.org/W4387945335</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.29321/maj.10.a03590</t>
+          <t>https://doi.org/10.29321/maj.10.a03617</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kumarasamy &amp; A (1969)</t>
+          <t>E.K &amp; B.B (1969)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Studies on Fixation and Availability of Phosphorus in the Alkaline Soils of Tamil Nadu</t>
+          <t>Effect of Fertilizers on Availability of Soil Manganese in Two Soil Types of Madhya Pradesh</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>In most cases, the phosphorus level of soils is too low to sustain a good crop. This necessitates a regular practice of phosphorus fertilization. However, this does not solve the problem completely because the phosphorus is rendered unavailable in several ways under different condittions in soils. The present study was taken up with the object to study the important physical and chemical constituents of soils, having a bearing on the fixation and availability of phosphorus in alkaline soils and also to observe the progressive changes in the availability of phosphorus with time following the addition of different doses of fertilizer phosphorus in the soils.</t>
+          <t>Among the various trace elements, Manganese (Mn) has received considerable attention owing to its function as a vital nutrient and its important biological role in plant physiology (Russel, 1953; Rangnekar, 1945). Heintze and Mann (1946) noticed decreased available Mn content due to application of lime to acidic soils. A large part of soil Mn in alkaline soils was observed to be in the unavailable form by Dion and Mann (1946) and Mattson et al (1948). The different fertilizing materials are having different effects on pH and other properties of soil, which leads changes in the status of available nutrients, specifically in case of Mn. Charles and Sherman (1948) found the effect of sulphur in increasing the available Mn content of soil. Venkatesvarlu (1964) found a significant increase in the Mn content of rice when he added extra sulphur as sulphate. Nitrogen and sulphur additions were shown to beneficially affect its availability to arable crops (Mulder et al 1952, Tisdale et al 1949).</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W78617750</t>
+          <t>https://openalex.org/W75724587</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2172/7172867</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Yahata (1969)</t>
+          <t>Honstead &amp; Jaske (1969)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>温泉治療の血液pH，P(CO(2))並びにP(O(2))に及ぼす影響に関する研究 第II編. 生理的及び病的諸国子と血液pH, P(CO(2))並びにP(O(2))との関係</t>
+          <t>Mission 10, Columbia River Studies</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>From the factors which are considered to make an effect on circulatory or metabolic states, hemoglobin content, erythrocyte sedimentation rate, room temperature, respiratory rate and pulse rate were chosen to be discussed their relationships between the pH, P(CO(2)) and P(O(2)). Moreover, changes due to age and disease as well as diurnal and seasonal variations of blood pH, P(CO(2) and P(O(2)) were evaluated. 1) Blood pH and Peo2 showed the tendency of reduction in the order of 40~59, 10~39 and 60~79
-years age group in the former and in the latter 40~59, 60~79 and 10~39 years age group. The P(O(2)) value in the afternoon decreased with ageing. However, no significance was demonstrated in any age group. 2) Diurnal changes of pH in 10~59 age group was very small. In the 60~79 age group, the afternoon value decreased than the morning one. The P(O(2))
-value in the 10~59 age group increased in the afternoon contrasted to the decreasement in the 60~79 age group. The P(CO(2)) variations in all age groups were within the errors due to the measurement. 3) Rheumatiod arthritics group showed no significant diurnal variation different from non-rheumatoid arthritics group. 4) Blood pH of December-February group showed
-the lowest seasonal value and significant difference between March - May and September - November group. No significant seasonal variation was observed in the blood P(CO(2)) and P(O(2)). 5) The central nervous system group showed the significant lower blood pH than cardiovascular disease and rheumatoid arthritis group. The P(CO(2)) values of rheumatoid arthritis group were lower significantly than cardiovascular disease, central nervous system, and musculo- keletal system patient groups. None of diseases showed significant P02 difference each other. 6) Significant relationship was demonstrated between erythrocyte sedimentation rate and P(O(2)) value only in cardiovascular disease patient group. 7) There were the significant relationships between room temperature and P(O(2)) in rheumatoid arthritis
-and metabolic disease groups. 8) Significant relationships were shown between respiratory rate and pH in rheumatoid arthritis and
-cardiovascular disease groups. 9) There was significant relationship between pulse rate and pH only in rheumatoid arthritis groups. 10) The combination of the blood pH, P(CO(2)) and P(O(2)), values was shown to reflect the circuratory or metabolic states of the tissues or organs and to remain stable on the experimental day.</t>
+          <t>Various pathways may be postulated whereby members of the population living adjacent to the Hanford Plant can receive radiation exposure as a result of the plant operation. This project is concerned with investigations designed to evaluate the mechanisms of exposure of population groups by various pathways. The study will try to evaluate the effect of effluents released to the Columbia River and to the atmosphere. Here the exposure estimates depend upon evaluation of the average and extreme dietary habits of members of the affected population to assess the average and extreme exposure possibilities. These investigations will provide more precise estimates of exposure levels experienced by local residents and strengthen the confidence in effluent control provisions. The quantitative description of mechanisms of transfer of radioactive materials through various pathways may also be used to predict the effects of changes, such as new product operations or the release of additional plant areas for industrial or agricultural development.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W852042028</t>
+          <t>https://openalex.org/W835808883</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Tresidder (1969)</t>
+          <t>Sleumer (1969)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>DIRECTING URBAN TRANSPORTATION RESEARCH POLICIES TOWARD AN EFFECTIVE GOAL</t>
+          <t>Devonian Stromatoporoids of the Cantabrian Mountains (Spain)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>WITH GROWING PUBLIC REALIZATION OF THE EXISTENCE OF AN URBAN TRANSPORTATION PROBLEM AND WITH GROWING RESEARCH RESOURCES TO INVESTIGATE THE PROBLEMS, THE POSSIBLE AREAS OF RESEARCH ARE EXAMINED AND CLASSIFIED INTO FIVE GROUPS: (1) CONSEQUENCES OF 'DOING NOTHING AT ALL', I.E., HIGH- LIGHTING OF CRITICAL AREAS WHERE A DEPARTURE FROM STATUS QUO IS MOST URGENTLY NEEDED; (2) REGULATION AND CONTROL OF EXISTING TRANSPORT FACILITIES - A FIELD WHERE COST OF IMPLEMENTING SCHEMES IS RELATIVELY SMALL AND POSSIBILITY OF RETURN LARGE; (3) NEW BUT TRADITIONAL INVESTMENT, I.E., PREDICTION AND EVALUATION OF SPECIFIC PROPOSALS TO IMPROVE EFFICIENCY OF EXISTING AND PLANNED TRANSPORT FACILITIES; (4) REGULATION AND CONTROL OF LAND USE - A COMPLEX PROBLEM WITH REPERCUSSIONS IN FIELDS OF REGIONAL PLANNING AND ECONOMICS AS WELL AS TRANSPORTATION; AND (5) REVOLUTIONARY NEW INVESTMENT - RESEARCH, INVENTION, DEVELOPMENT AND IMPLEMENTATION OF MEANS OF TRANSPORT THAT DOES NOT RELY ON USE OR ADAPTATION OF ANY EXISTING TRANSPORTATION FACILITIES. IN A GENERAL DISCUSSION OF THE DIRECTION AND APPLICATION OF RESEARCH, IT IS EMPHASIZED THAT RESEARCH MAY BE MORE FRUITFUL WHEN DONE IN A SERIES OF SHORT STEPS RATHER THAN IN AN OCCASIONAL LEAP; THAT DISSEMINATION OF RESEARCH INFORMATION, THOUGH LESS INTERESTING, IS OF GREAT IMPORTANCE; THAT NOT ONLY ASSESSMENT OF THE NATURE OF TECHNOLOGICAL CHANGE IS IMPORTANT, ITS TIMING IS EQUALLY SO; AND THAT OTHER TECHNOLOGIES ARE GIVING RISE TO FACTORS THAT INFLUENCE FUTURE NEEDS OF TRANSPORTATION.</t>
+          <t>In the Cantabrian Mountains stromatoporoids only have been found up to now in Devonian formations. They occur together with tabulate and rugose corals and brachiopods. Together with these organisms they form biostromes or just biogenetic layers of brecciated and overturned colonies. Four primary microstructures could be distinguished: compact, microlaminate, ordinicellular, and cellular. Alteration seems to begin before fossilization in many cases: the microtissue becomes flocculent by migration and/or destruction of specks. After fossilization the microstructure is altered mainly by migration of specks along slip planes and by rearrangement of the calcite crystals. In this paper the original microstructure is used as the main character for the determination of genera. The form of the coenosteum and features of the gross structure such as superposition of pillars, absence or presence of ring pillars, spacing of laminae and pillars, and others, are strongly influenced by ecological factors. Therefore they cannot be used as characters for the definition of genera and often not even for species. Four genera can be distinguished in the Spanish material: Actinostroma (compact with continuous pillars), Stromatoporella? (microlaminate), Stromatoporella? (ordinicellular) and Stromatopora (cellular). The genera Geronostroma and Atelodictyon are considered to be synonyms of Actinostroma. The genus Stromatoporella should be divided into two genera: one genus with microlaminate and one genus with ordinicellular microstructure. In the microlaminate genus the genera Clathrocoilona, Trupetostroma and Stictostroma (partly) should also be included and perhaps Idiostroma (partly). The ordinicellular genus can be combined with part of the genus Stictostroma and some species of Anostylostroma. The genera Parallelopora and Ferestromatopora are considered to be synonyms of Stromatopora. For the determination of species an attempt is made to establish the variability of the gross structure for each species. As this variability seems to be rather wide, species determinations are only given when sufficient material was available. The following species are described: Actinostroma papillosum (= A. clathratum), Actinostroma verrucosum?, Actinostroma stellulatum, Stromatoporella? granulata? (microlaminate), Stromatoporella? selwyni (ordinicellular), and Stromatopora huepschi?. Stromatopora concentrica</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W853553151</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.25071/1913-9632.35795</t>
+          <t>https://openalex.org/W852042028</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Egbers (1969)</t>
+          <t>Tresidder (1969)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Michael Boudreau, Peter G. Toner, and Tony Tremblay, eds. Exploring the Dimensions of Self-Sufficiency for New Brunswick (Fredericton: New Brunswick Atlantic Studies Research and Development Centre, 2009</t>
+          <t>DIRECTING URBAN TRANSPORTATION RESEARCH POLICIES TOWARD AN EFFECTIVE GOAL</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>It is provocative when a piece of academic work can be organized in a manner to provide an objective, in-depth perspective into the public policy decision making process.Exploring the Dimensions of Self-Sufficiency for New Brunswick sets out to accomplish this by bringing together a compilation of multi-disciplinary academic essays that explore the New Brunswick government's new policy framework, Our Action Plan To Be Self-Sufficient in New Brunswick (2007).Examining the nature of self-sufficiency and its impact on the province and its people, these essays provide historical and contemporary insights into New Brunswick's economic, social and political setting.The commonality that resonates throughout this volume is that the province possesses a complexity and uniqueness which plays an important role in the province's self-sufficiency.In the opinion of the authors, these qualities are not given enough consideration in the new Action Plan.The book is organized along the four main transformations outlined in New Brunswick's Action Plan: transformation of the economy; the workforce; relationships and the government.The first section "Critiquing our Economy," critically examines the Action Plan's proposal to "secure the base upon which our economy is built and branch out into new fields."(Action Plan, 14) The essays clearly demonstrate that the well established industries, such as forestry, and those that promise a future, need careful historical and contemporary analysis before providing policy support.For example, Mark J. McLaughlin and Bill Parenteau examine the issue of the province's pulp and paper industry by charting its evolution throughout the twentieth century.They focus on the period from 1960 to present during which time expansion within the industry depended heavily on provincial subsidies.The authors argue the government support for a strong manufacturing pulp and paper industry has strained the relationships with wood producers and rural communities, and they question the capacity of the industry to contribute to the self-sufficiency of the province.Looking at a newer industry, Joan McFarland examines the call centre industry in New Brunswick.She argues the industry is "vulnerable" and offers "unstable jobs," because it has already reached its peak for employment and is now in a steady decline as companies relocate due to market shifts.The second section of the volume "Scrutinizing our Workforce," responds to the Action Plan's proposal to make "transformative changes in our [New Brunswickers'] workplaces, our post-secondary institutions, our schools and our communities."(Action Plan, 22) The essays in this section unveil the complexity of New Brunswick's formal and informal economy, and the changes that have shaped working life within the province.</t>
+          <t>WITH GROWING PUBLIC REALIZATION OF THE EXISTENCE OF AN URBAN TRANSPORTATION PROBLEM AND WITH GROWING RESEARCH RESOURCES TO INVESTIGATE THE PROBLEMS, THE POSSIBLE AREAS OF RESEARCH ARE EXAMINED AND CLASSIFIED INTO FIVE GROUPS: (1) CONSEQUENCES OF 'DOING NOTHING AT ALL', I.E., HIGH- LIGHTING OF CRITICAL AREAS WHERE A DEPARTURE FROM STATUS QUO IS MOST URGENTLY NEEDED; (2) REGULATION AND CONTROL OF EXISTING TRANSPORT FACILITIES - A FIELD WHERE COST OF IMPLEMENTING SCHEMES IS RELATIVELY SMALL AND POSSIBILITY OF RETURN LARGE; (3) NEW BUT TRADITIONAL INVESTMENT, I.E., PREDICTION AND EVALUATION OF SPECIFIC PROPOSALS TO IMPROVE EFFICIENCY OF EXISTING AND PLANNED TRANSPORT FACILITIES; (4) REGULATION AND CONTROL OF LAND USE - A COMPLEX PROBLEM WITH REPERCUSSIONS IN FIELDS OF REGIONAL PLANNING AND ECONOMICS AS WELL AS TRANSPORTATION; AND (5) REVOLUTIONARY NEW INVESTMENT - RESEARCH, INVENTION, DEVELOPMENT AND IMPLEMENTATION OF MEANS OF TRANSPORT THAT DOES NOT RELY ON USE OR ADAPTATION OF ANY EXISTING TRANSPORTATION FACILITIES. IN A GENERAL DISCUSSION OF THE DIRECTION AND APPLICATION OF RESEARCH, IT IS EMPHASIZED THAT RESEARCH MAY BE MORE FRUITFUL WHEN DONE IN A SERIES OF SHORT STEPS RATHER THAN IN AN OCCASIONAL LEAP; THAT DISSEMINATION OF RESEARCH INFORMATION, THOUGH LESS INTERESTING, IS OF GREAT IMPORTANCE; THAT NOT ONLY ASSESSMENT OF THE NATURE OF TECHNOLOGICAL CHANGE IS IMPORTANT, ITS TIMING IS EQUALLY SO; AND THAT OTHER TECHNOLOGIES ARE GIVING RISE TO FACTORS THAT INFLUENCE FUTURE NEEDS OF TRANSPORTATION.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W936418672</t>
+          <t>https://openalex.org/W914658670</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Larkins (1969)</t>
+          <t>Rickards (1969)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Problems concerning the electonic structure of solids</t>
+          <t>Some aspects of the chemistry of iron sulphur complexes</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>The major emphasis of this thesis relates to the calculation of the electronic structure of the isolated vacancy in the diamond and silicon crystal using the defect molecule approach. The electronic energy levels from an undistorted vacancy calculation are corrected, to a first approximation, for symmetric relaxation and Jahn-Teller distortion effects. The electronic properties of the undistorted neutral divacancy in diamond are also determined. A description of a dynamic relaxation program developed to estimate the displacement of atoms surrounding a point defect in the diamond-type crystal as the result of distortion effects is also reported. A discussion of the theoretical methods available for the calculation of the electronic structure of point defects in diamond-type crystals and the reasons for choosing the defect molecule approach is presented in section 1.2 of Chapter 1. In the remainder of the chapter the experimental evidence available for the existence of single vacancies, divacancies and the interstitial atom in irradiated diamond and silicon crystals is briefly reviewed. Chapter 2 contains a detailed account of the fundamental aspects of the defect molecule method first proposed by Coulson and Kearsley. The limitations as well as the advantages of this method are discussed and the modifications made to the model in the present study are outlined. The basic formal relationships required for the calculation of the electronic structure of the undistorted vacancy in its various charge states are developed within this framework. The results of applying this method to a calculation for the single isolated vacancy in the diamond crystal are presented and discussed in Chapter 3. Four possible charge states of the vacancy; namely, the single positive, the neutral, the single negative and the double negatively charged state are considered. An investigation of the sensitivity of the relative ordering of the energy levels for the various centres to two different choices of basis functions to represent the 2s and 2p orbitals on the tons in the crystal is undertaken. For the neutral vacancy the 1E electronic level is predicted to be the ground state of this centre with the 3T1 level the first excited state when simple Slater-type functions are chosen for the 2s and 2p orbitals. However, when the atomic Hartree-Fock functions proposed by Clementi are employed the order of these two levels is inverted. A simple model to examine the influence of delocalizing the electronic wave-function of the defect electrons on the relative ordering of the lowest levels is presented in section 3.5. For the neutral vacancy no change in the ordering of the lowest levels results when a reasonable amount of delocalisation is incorporated. For the negatively charged centre the 4A2 level is reinforced as the lowest electronic level. The calculation for the electronic structure of the uto- distorted neutral divacancy in the diamond crystal using a modified antisymmetrized molecular orbital method, based upon the bond method, is reported in Chapter 4. Using simple Slater-type functions for the 2s and 2p orbitals the 3A2g level is predicted to be the ground state of this centre, with spin- and orbitally-allowed transitions to the 3A1u level corresponding to optical absorption in the u-v region of the spectrum. In Chapter 5 the development of a dynamic relaxation method which enables the displacement of the atoms surrounding a point defect in the diamond-type lattice to be determined free from the constraints of previous models is described. The method relies upon having a valence-force potential function which includes non-central as well as central force terms to describe the interactions between the atoms of the perfect crystal. The interaction between the defect electrons is simulated by applying external forces to the atoms nearest the defect. The method is applicable to a wide range of systems; however, here it has been applied only to the neutral single vacancy in the diamond and silicon crystal which undergoes a tetragonal distortion as a result of the nature of the rebonding forces. Displacements of the atoms in the vicinity of the defect are much greater for the silicon crystal than for the diamond crystal. It has been demonstrated that the displacement of atoms which are fifth neighbour to the defect is greater than that for third or fourth neighbours. As a by-product of the calculation the formation energy of the single vacancy has been evaluated. The theory of the Jahn-Teller effect, to first order, for the degenerate levels of the vacancy system is developed in Chapter 6 using the rigid atom approximation proposed by Lidiard and Stoneham. The differences between the method used in the present calculation and that developed by Lannoo and co-workers is discussed. The extent of Jahn-Teller splitting for all the lowest levels of the various centres is determined. Contrary to previous suggestions the values obtained for the s</t>
+          <t>A Mossbauer Effect study of a number of complexes of iron with sulphur containing ligands has been carried out, in order to further the understanding of iron-sulphur chemistry and hence eventually provide suitable model complexes for the study of the non-haem iron proteins. The complexes investigated have been considered in three main sections, some dialkyldithiocarbamate complexes, some complexes that have been proposed as models for the non-haem iron proteins, and some complexes of some 2-substituted pyridines. The iron(III) N,N dialkyldithiocarbamates exhibit anomalous magnetic properties which have been ascribed by other workers to a high-spin, low-spin equilibrium. All the iron(III) N,N dialkyldithiocarbamates that we have studied showed a single Mossbauer spectrum at all temperatures, so that the rate of exchange between the high-spin and low-spin states must be greater than 1.5 × 10+7 sec.−1. The isomer shifts observed were large for low-spin ferric ions and suggest that the metal s-electrons are screened from the nucleus by electrons donated from the ligands. The isomer shifts and quadrupole splittings for all the complexes, except the high-spin iron(III) pyrrolidyldithiocarbamate, exhibited anomalous dependences on temperature due to the existence of the spin equilibrium. Iron(III) pyrrolidyldithiocarbamate exhibited long electron spin relaxation times at 4.2°K. The other compounds, which are low-spin at low temperatures, also showed relaxation effects, though with shorter times. The magnetic hyperfine interactions in the Mossbauer spectrum of iron(III) N,N dimethyldithiocarbamate gave information on the nature of the ground state of the complex, which was found to consist of almost equal amounts of dxz and dyz holes, with slightly less of dxy. Mossbauer Effect and epr measurements on samples of this complex diluted in cobalt(III) N,N dimethyldithiocarbamate confirmed this result. Estimates for the orbital separations were obtained as Δdxz, dyz = 1.2 cm.−1 and Δdyz, dxy = 91 cm.−1 The dependence of the Mossbauer spectrum of iron(III) pyrrolidyldithiocarbamate upon temperature and magnetic field has been interpreted in terms of a model with a large negative zero field splitting of the 6S state. The magnitude of the zero field splitting (4D) has been estimated as −9.3°K. Bis(N,N diethyldithiocarbamato)iron(III) chloride and bis(N,N diisopropyldithiocarbamato)iron(III) chloride exhibited similar Mossbauer spectra to iron(III) pyrrolidyldithiocarbamate at low temperatures. We have confirmed that the former compound is ferromagnetic, while the diisopropyl derivative is paramagnetic with the Kramer's doublet |±3/2〉 lying lowest. Another complex of iron with dialkyldithiocarbamate ligands that has been studied is the formally iron(I) complex, nitrosyliron bis(N,N diethyldithiocarbamate). A high isomer shift was again observed. The quadrupole splitting showed little dependence on temperature and the application of an external magnetic field showed the sign of the major component of the electric field gradient to be positive. Magnetic hyperfine interactions arc observed in large external magnetic fields at low temperatures. The variation of the effective field at the nucleus with H/T followed the Brillouin function for S = 1/2, and the value of the saturation hyperfine field was found to be −110 ±5kG. The orbital ground state of the iron atom could not be deduced from the sign of the quadrupole splitting, due to large contributions from the lattice and bonding electrons. From the magnetic hyperfine interactions it was deduced to be dz2. The model complexes Fe(TTD)2(DTT) and Fe(TTD)(DTT)2 which contain an Fe-S-S- linkage, as well as the related complex Fe(DTT)3 have been studied. (TTD = thio-p-toluoyldisulphide, DTT = dithio-p-toluate) The isomer shifts have been interpreted in terms of the relative ability of the TTD and DTT ligands to delocalise electrons from the metal. The sign of the major component of the electric field gradient has been found to be negative for Fe(TTD)2(DTT) and Fe(TTD)(DTT)2 but positive for Fe(DTT)3. The Mossbauer results have been used in conjunction with epr measurements to obtain information on the ground state of the complexes containing ligands. The ground state is deduced to be a dxy hole in both cases, but the agreement between the Mossbauer and epr data is not very satisfying. Mossbauer Effect measurements on the model Fe(sacsac)2Cl4, where sacsac is dithioacetylacetonate, have shown that the complex contains tetrahedral FeCl42− ions, and does not have the structure originally proposed in which the iron is coordinated by the dithioacetylacetonate groups. The related complex (Ph2C3MS2)2FeCl4 contains FeCl42− ions in two different environments at high temperatures. Tristetraphenylphosphonium trisdicyano-1,2-dithiolene iron was proposed as a model complex on the basis of its epr spectrum, which is qualitatively similar to that of the non-haem iron proteins. Mossbauer Effect inv</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W100050248</t>
+          <t>https://openalex.org/W101143855</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2172/7174885</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fri (1976)</t>
+          <t>Saunders &amp; Potts (1977)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Investments in technology and the paradox of uncertainty</t>
+          <t>Manual for the application of NURE 1974--1977 aerial gamma-ray spectrometer data</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>The introduction of new technology and technological innovations in the coming years may be expected with certainty. These new innovations will drastically change the methods for generating, distributing, and utilizing energy. Conservation has now become known as a means for obtaining higher efficiencies in energy generation, distribution, and end use through new technologies. Conservation is smaller cars, tighter buildings, energy-frugal appliances, waste-heat recuperators, combined-cycle generators, and more-efficient transmission networks. In addition to the certainty of new technology, the need for a vast investment of capital to initiate, nurture, and fuel those industries is a second certainty. New technology is an uncertainty, but with adequate capital, the uncertainties may be reduced. So to deal with these uncertainties, the industry must accept the government as a risk partner. By exercising leadership through doing, these uncertainties can be reduced, and the nuclear problems are cited as examples. (MCW)</t>
+          <t>This manual was prepared as an aid to those interested in the interpretation and application of high-sensitivity aerial gamma-ray spectrometer data in uranium exploration. Particular emphasis is on the first 10 radiometric surveys performed under the National Uranium Resource Evaluation (NURE) program. The primary purpose of aerial gamma-ray spectrometer surveys in the NURE program is to map regional distributions of near-surface natural radioelements, i.e., the uranium and thorium decay series, and potassium-40. These data along with an understanding of the geochemical behavior of the pertinent isotopes under a variety of conditions allow uranium-enriched areas of the earth's crust (uraniferous provinces) to be identified as part of the regional appraisal phase of prospecting. Uranium ore deposits tend to occur more frequently in these generally enriched regions than elsewhere, and, consequently, uraniferous provinces constitute preferred territory for follow-up exploration methods such as detailed aerial or surface radiometric prospecting, geological studies, etc., to define potential prospects. These in turn may be investigated by still more detailed surface geological studies perhaps supplemented by radon or uranium geochemical surveys and exploration drilling and logging. This manual outlines the fundamentals of uranium geology and geochemistry along with interpretive approaches which may be used to identify statistically and geochemically significant uranium anomalies and uraniferous provinces. Follow-up prospecting methods are summarized along with guides to recent literature. Specific suggestions are made as to interpretive approaches and applicable follow-up prospecting procedures tailored to fit the data characteristics and general environment of each of the first 10 NURE aerial gamma-ray spectrometer surveys performed by Geodata International, Inc. and Texas Instruments Incorporated.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W103817672</t>
+          <t>https://openalex.org/W118502676</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-85294-7_7</t>
+          <t>https://doi.org/10.1016/b978-0-08-019603-9.50015-6</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>McKnight &amp; Gray (1976)</t>
+          <t>Taylor (1977)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Intensity and Interactions of Atmospheric Ions with Organic Contaminants</t>
+          <t>ENZYME-LIKE ACTIVITIES ASSOCIATED WITH ALBUMIN</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Interactions of ions with trace impurities in the atmosphere can lead to dramatic changes in the ion species even though the reactants are present in only trace amounts. The processes of charge exchange, ion clustering and proton transfer are found to convert ions of primary air species into those characteristic of trace constituents in the mixture. For these measurements we have used a drift cell-mass spectrometer combination to mass analyze ions produced from arc and glow discharge sources in air and air-like mixtures at pressures up to 5 torr*). The interactions of the ions with trace impurities present in the drift cell dominate the ion chemistry, with the result that ions extracted from the gas after reaction are completely different from those produced by the primary ionization process. The rapidity of these reactions indicates that ions formed in the atmosphere will have their chemistry and identity dominated by trace species present in the atmosphere. These results have been applied to the problem of relay contact activation in which deposition of organic material on low current relay contacts results in an increase in relay arc duration and a consequent increase in relay contact erosion. We will show specific application to the case of ions interacting with organic materials present in the environment surrounding telephone relays.</t>
+          <t>Publisher Summary This chapter focuses on enzyme-like activities associated with albumin. An enzyme is a protein that accelerates one or more chemical reactions that are demonstrated to be necessary for life processes. Serum albumin in different states of purity from a variety of species can hydrolyze a number of diverse substrates such as p-nitrophenyl acetate, tripalmatin, steroid acetates, and 1-naphthyl N-methylcarbamate. There are a number of proteolytic enzymes in plasma, and it has been observed that samples of serum albumin that might appear to be pure by other criteria do in fact contain low contaminant levels of peptidase activity. The unique binding properties of serum albumin have facilitated its use with a variety of enzymes in which the function of the albumin has generally been to bind and, therefore, remove potential inhibitory reaction products or to protect the enzyme from inhibition or denaturation by hydrophobic species in the reaction medium. In these cases, the mechanism of action of albumin is clear because it involves the specific ability of the protein to bind a number of fatty acids or amphiphiles at its high affinity sites.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1498127788</t>
+          <t>https://openalex.org/W1492396803</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rice (1976)</t>
+          <t>Weismiller et al. (1977)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Improved Signature Definition through Boundary-Edited Clustering</t>
+          <t>Change detection in coastal zone environments</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>It is desirable to enhance the performance of clustering techniques so that cluster statistics more usef~llY represent the true spectral classes in the scene. If this is done, then improvements in classification can be realized, leading for example to more accurate large area crop surveys. To improve the statistics available from a clustering algorithm, an edgedetection algorithm is used. The edge detector provides the cluster routine with inputs to filter out pixels which are likely to represent spectral response to a of more than one ground cover type. The result is that the proportion of pixels representing pure classes in the scene is enriched. While nearly all boundary detection algorithms are candidates for such use this paper deals primarily with one ' wh~ch uses a technique. Br~efly, the technique measures the spatial rate of change of signal value, averaged over all spectral bands. This is done by performing subtractions between neighboring pixels, and combining the along-scan and across-scan differences. Once the gradient at each point is calculated, a threshold is established so as to reject a specified percentage of the pixels to be used by the cluster routine. The paper will discuss the choice of the threshold so as to filter most mixture pixels and yet avoid discarding too much and perhaps losing high-texture ground cover types. • * This work is being performed under Contract NAS9-14123 for the Earth Observations Division of the NASA Johnson Space Center, Houston, Texas. 3A-36 . The effect of using the f~lter on clustering seems to lie primarily in causing a greater proportion of pixels to fall in clusters which are near modes representing pure cover types, but also in bunching of the cluster centers somewhat closer to the modes. T~is aspect is discussed in conjunction w~th how the filter affects the overall distribution function. In the quest toward improving techniques of 7lustering, a useful goal should be to ~mprove the positioning of cluster centers relative to meaningful modes in the distribution. The enhancement of ~odes by the filtering is an ~mportant step. . Two significant advantages are bel~eved to result from the technique. First, it provides a suitable means of data reduction when clustering large scenes, so as to save processing costs. And second, the clusters which result more accurately represent the true ground classes, leading to better classification performance and more effective use of cluster-based signature extension techniques.</t>
+          <t>A study was conducted with the objective to develop and evaluate various change detection techniques based upon computer-aided analysis of Landsat multispectral scanner (MSS) data to monitor coastal zone environments. The study site selected includes a portion of the Matagorda Bay estuarine system located along the Texas Coast. The principal data sources for the study were MSS data collected on November, 27, 1972 and February 25, 1975. The MSS data were processed and a multidata eight-channel data set at a scale of 1:24,000 was obtained. A description is presented of four change detection techniques which were designed and implented for evaluation, taking into account postclassification comparison change detection, delta data change detection, spectral/temporal change classification, and layered spectral/temporal approach. The results of the investigation are discussed.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1556058217</t>
+          <t>https://openalex.org/W1538605249</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1128/jb.130.3.1159-1174.1977</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Gillham (1976)</t>
+          <t>Long et al. (1977)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Investigation of Structure-Property Relationships in Systematic Series of Novel Polymers</t>
+          <t>Energy Requirements for the Transport of Methylthio-β- &lt;scp&gt;d&lt;/scp&gt; -Galactoside by &lt;i&gt;Escherichia coli&lt;/i&gt; : Measurement by Microcalorimetry and by Rates of Oxygen Consumption and Carbon Dioxide Production</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Solid state transitions in polymeric materials was associated with the onset of sub-molecular motions of the polymer chains. Although these were considered to be intramolecular in general, the local environment of the polymer molecule exerts a strong influence through, for example, the effects of crystallinity, polarity and diluents. The manner of specimen preparation and previous history also affect transitions. The transitions are considered to arise when sufficient free volume is available to permit the occurrence of these side chain and backbone reorientations. The glass transition is the principal transition of amorphous polymeric materials and is associated with the onset of long range segmental motion of the polymer backbone. The various types of shorter range motion occurring below the glass transition have been catalogued.</t>
+          <t>The energy cost for maintenance of gradients of methylthio-β- d -galactoside in Escherichia coli was evaluated. Information was also obtained concerning the energy flow associated with gradient establishment under some circumstances. Energy flow was evaluated from transport-induced changes in the rate of heat evolution, oxygen consumption, and carbon dioxide production in metabolically active cells. Heats were measured with an isothermal calorimeter. Energy expenditure behavior was characterized by a transition that depended on the level of accumulation. The data for steady-state maintenance could be rationalized in terms of the Mitchell hypothesis, two models for influx and efflux, and a transition between them. At low levels of uptake, steady-state proton-methylthio-β- d -galactoside (TMG) symport for influx and efflux occurred via a nonenergy-requiring exchange process. The only energy requirement was that necessary to pump back in any TMG exiting via a leakage pathway (model I). Above the transition, all influx occurred with proton symport, but all exit, leak and carrier mediated, occurred without proton symport (model II). The H + /TMG stoichiometric ratio computed for the region of model II applicability (carbon source present, high level of uptake) approached 1. This value agreed with that of other workers for downhill β-galactoside flow, suggesting that the energy cost for both downhill and uphill flow was approximately the same. For low levels of uptake, initial establishment of the gradient was followed by a burst of metabolism that was much larger than that expected on the basis of the chemiosmotic hypothesis. In the absence of carbon source, the stimulation in respiration was sufficient to produce 13 times more protons than are apparently necessary to establish the gradient. The results indicate also that the nature of the biochemical process stimulated by TMG depends on its level of uptake. Insight into several aspects of the nature of these processes was provided through analysis of the heat, oxygen, and CO 2 data. The key factor controlling the transition in energy flow behavior is suggested to be rate of flux. The present data suggest that it occurs at a flux of ∼120 nmol/min per mg of protein.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1642451681</t>
+          <t>https://openalex.org/W1611898144</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Amus’ya &amp; Baltenkov (1976)</t>
+          <t>Mosteller &amp; Tukey (1977)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Electron dragging in inverse bremsstrahlung of light</t>
+          <t>Data Analysis and Regression: A Second Course in Statistics</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>It is shown that the existence of a nonzero photon momentum leads. in the case of inverse bremsstrahlung of light in a plasma, to a translational motion of the electrons. The drag current produced when light of laser frequency is absorbed by electrons in a wealdy-ionized gas is calculated. It is shown that dragging in inverse bremsstrahlung by neutral atoms predominates over Compton motion when the atom concentration exceeds 1015 cm-J• PACS numbers: 52.25.P5 1. In studies of the absorption of light in the low­ energy part of the spectrum (liw &lt; 0.5 keV) it is custo­ mary to neglect the photon momentum and to consider this process in the dipole approximation only. It was shown in a number of papers{l-3) that the existence of a nonzero photon momentum leads to asymmetry in the angular distribution of the quantum-absorbing electrons relative to the propagation direction of the light. This in turn is the cause of the predominant motion of the electrons along the phQton momentum direction, and consequently the cause of the current flowing in this direction. It is known that absorption of light by an electron requires for its realization, in first-order perturbation theory, the presence of a body. In crystal structures, when light is absorbed by an electron situ­ ated in the conduction band, the role of the third body can be played by phonons (acoustic and optical), impuri­ ties, lattice defects, etc. In gas atoms, the light-absorp­ tion process accompanied by the release of an electron (the photoeffect) takes place in the field of the atomic residue. Light can also be absorbed in an ionized gas in the case when the free electron is the field of a neu­ tral atom or ion. In each act of photon absorption the momentum of the quantum is dis-shared by the electron and the third body, and in the general case this leads(1-3) to translational motion of the electron. It is obviOUS that the distribution of the momentum depends signifi­ cantly on the nature of the recoil body. We note here that the role of the third body in light­ absorption processes can also be played by a photon. Electron dragging due to Compton scattering of light was investigated by Gurevich and Rumyantsev,l4)</t>
+          <t>The assumption is made in this volume devoted to data analysis and regression that the student has had a 1st course in statistics. Attitudes and approaches are more important than the techniques this book can teach. Readers can learn to identify at least the following attitudes understanding and approaches: an approach to the formulation of statistical and data analytical problems such that for example the students shortcut to inference can be properly understood and the role of vague concepts becomes clear; the role of indications (of pointers to behavior not necessarily on prechosen scales) in contrast to conclusions or decisions about prechosen quantities or alternatives; the importance of displays and the value of graphs in forcing the unexpected upon the reader; the importance of re-expression; the need to seek out the real uncertainty as a nontrivial task; the importance of iterated calculation; how the ideas of robustness and resistance can change both what one does and what one thinks; what regression is all about; what regression coefficient can and cannot do; that the behavior of ones data can often be used to guide its analysis; the importance of looking at and drawing information from residuals; and the idea that data analysis can profit from repeated starts and fresh approaches and that there is not just a single analysis for a substantial problem. The 16 chapters of this book include the following: some practical philosophy for data analysis; a background for simple linear regression; the nature and importance of re-expression; a method of direct assessment; the direct and flexible approach to 2 way tables; a review of resistant/robust techniques in the simpler applications; standardization; regression and regression coefficients; a mathematical approach to understanding regression; guided regression and examining regression residuals. Among the special features of this volume are the following: an introduction to stem and leaf displays; use of running medians for smoothing; the ladder of re-expression for straightening curves; methods of re-expression for analysis; special tables to make re-expression easy in hand calculations; robust and resistant measures of location and scale; and regression with errors of measurement.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1643077283</t>
+          <t>https://openalex.org/W1614288599</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2172/7117150</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Maunsell (1976)</t>
+          <t>Schmitt &amp; Spencer (1977)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>The Speed of Sound in Water</t>
+          <t>Beneficial uses of geothermal energy description and preliminary results for phase 1 of the Raft River irrigation experiment</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The introduction of the echo sounder into routine hydrographic surveying, replacing dependence on use of the lead line, produced a major change. It must be remembered that a sounder actually registers a time interval and that the speed of sound must be known to convert the time to depth. The International Hydrographic Bureau resolved that 1500 metres per second should be adopted as a standard velocity. Most Canadian waters are cold enough that this causes an overestimate and for calibration the value of 1463 metres per second (800 fathoms per second) is frequently used. Since fresh water has to have a temperature of 14.2°C before this speed is attained most soundings in deep lakes will be overestimated with this calibration. The velocity of sound in water depends upon temperature, concentration of dissolved constituents (for which salinity is the conventional quantity in oceanography) and pressure. The actual value at a given location and time may be evaluated by use of one of the procedures reviewed in this paper.</t>
+          <t>The first phase of an experiment using geothermal water for irrigation is described and preliminary results are discussed. The water was from a moderate temperature well, having salinity of about 2000 ppM, and is considered characteristic of the types of geothermal fluids that will be obtained from the young volcanic/young sediment formations of the northern intermountain west. The activity was completed at a location adjacent to ERDA's Raft River Geothermal Project in southern Idaho. About 12.5 acres, of which part had no previous cultivation, were subdivided by crops and irrigation practices for investigation with the geothermal water and a control comparison water from the relatively pure Raft River. Flood and sprinkler application techniques were used and wheat, barley, oats, grasses, alfalfa, potatoes, and garden vegetables were successfully grown. An accompanying experiment evaluated the behavior of an established alfalfa crop located nearby, when most of the irrigation water was geothermal. The experiment addressed heavy metal uptake in plants, plant fluoride retention and damage, plant tolerances to salts, soil alterations and other behavior as a result of the geothermal fluids, all of which were largely believed to eliminate geothermal water from contention for crop growing utilization. Not all analyses and results are complete in this reporting, but first results indicate no apparent difference between the geothermal watered crops and those obtained using the fresh water control. Extensive chemical analyses, neutron activation analyses, and other evaluations of crop samples are discussed, and some of the findings are presented. Although evaluation of crop yields was not an objective, extrapolations from samples indicate that yield results were comparable to those commonly found in the area, and the yield varied little between water sources. (JGB)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1663392547</t>
+          <t>https://openalex.org/W1635290726</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0065-2407(08)60104-4</t>
+          <t>https://doi.org/10.1007/bf02906748</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Montada &amp; Filipp (1976)</t>
+          <t>Lavenda et al. (1977)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Implications of Life-Span Developmental Psychology for Childhood Education</t>
+          <t>Nonequilibrium statistical mechanical theory of linear interacting processes</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Childhood education derives its rationale not only from knowledge about children and child development but also from views of and knowledge about subsequent periods of the human life-span. Thus, a life-span developmental approach offers programmatic implications concerning the goals and conditions for optimal human development in childhood as well as in later age periods. Even though every empirically grounded suggestion concerning goals for programs in childhood education would require an extremely careful analysis and a cautious and critical use of research data, generic contributions of a life-span perspective can be delineated on a conceptual level. Concerning the formulation of educational goals, a life-span perspective leads the interventionist to consider developmental tasks and goals characteristic of the adolescent, adult, and older person in the design of childhood education. Furthermore, in contrast to child and adolescent psychology, where universal change trends are stressed, a life-span perspective suggests not only such universal changes but also interactions of ontogenetic with socio-historical changes in which both individual and group-specific goals and modes of man–environment interaction are emphasized in the chapter. Such a vantage point focuses on diversity and multi-directionality of goal systems and sequences.</t>
+          <t>The thermodynamic Lagrangian formulation of nonequilibrium statistical mechanics is extended to include linear interacting processes that are weakly coupled with wide separation of time scales. The kernel, which is the probability for a transition from one nonequilibrium state to another, is an exponential function of the time integral of the sum of dissipation functions (the thermodynamic Lagrangian). The equilibrium time correlation function is the expectation value of this kernel. In the presence of interactions, the kernel contains a thermodynamic Lagrangian of interaction. Provided that there is a wide separation of time scales between the primary process, having the largest relaxation time, and the weakly coupled set of irreversible processes that make up the environment, the configuration space variables of the processes comprising the environment can be integrated out by the correlation function as the expectation value of the influence functional which is evaluated by means of the unperturbed thermodynamic action. Since energy can be temporarily stored in the environment, which is equivalent to a set of oscillators that are independently coupled to the primary process, noninstantaneous interactions occur in which the primary process at one time can affect itself at a later time. Noninstantaneous interactions are the cause of memory effects that are observed in the transport properties of the primary process. The operator and path integral formulations are shown to be equivalent.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972698545</t>
+          <t>https://openalex.org/W1969984699</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0026-0495(76)90092-5</t>
+          <t>https://doi.org/10.1111/j.1469-8137.1977.tb02190.x</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Herington et al. (1976)</t>
+          <t>Tomassini et al. (1977)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Pituitary regulation of human growth hormone binding sites in rat liver membranes</t>
+          <t>THE EFFECT OF TIME OF EXPOSURE TO SULPHUR DIOXIDE ON POTASSIUM LOSS FROM AND PHOTOSYNTHESIS IN THE LICHEN, &lt;i&gt;CLADINA RANGIFERINA&lt;/i&gt; (L.) HARM.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>We have studied the binding of 125I-human growth hormone (hGH) to crude 100,000 X g membrane preparations from rat liver, and have studied factors which might regulate the capacity and affinity of hGH binding sites. Membrane preparations have livers of pregnant rats bound between 8% and 18% of the 125I-hGH initially added, and 70%-80% of that bound was displaced by 1 mug of unlabeled hGH. Humans prolactin (hPrl) displaced 125 I-hGH in a manner parallel to hGH itself but with about one-third the potency. Ovine, porcine, and rat Prl, and rat and bovine GH were much less effective. Scatchard analysis of specific hGH binding by a variety of different rat liver membrane preparations revealed a single order of binding site in each case with a binding affinity of 0.93-1.62 X 10(-9) M-1. Membranes from pregnant rats had twice the binding capacity of membranes from nonpregnant female rats, and about six times the capacity of sites present in preparations from normal adult male rats and hypophysectomized (Hx) male or female rats. Female or male rats with extremely high circulating GH an Prl levels, due to the presence of transplantable GH/Prl secreting pituitary tumors showed a significantly greater binding capacity than did the pregnant rats. Estradiol (E2) treatment (25 mug/day for 10-12 days) of normal male rats led to an increase in specific hGH binding. Treatment of hypophysectomized male rats with bovine GH (100 or 500 mug/day) +/- E2 (25 mug/day) for 5-10 days stimulated both body weight gain and the incorporation of sulfate by cartilage from the treated rats, but no significant increase was observed in the characteristics of 125I-hGH binding. These results indicate that high levels of E2, GH, and/or Prl play an important role in the regulation of hGH binding sites in rat liver membranes. The restoration of binding sites in liver from hypophysectomized rats, however, apparently requires additional factors which are as yet unidentified. The role of the hGH binding sites in the physiologic actions of GH also remains to be determined.</t>
+          <t>Summary Samples of the lichen, Cladina rangiferina , were exposed to various concentrations of aqueous SO 4 for 10 min, and 0.5, 1, 3, 6 and 12 h. K + ‐efflux curves (K + release versus ppm SO 2 (wt/wt, aqueous)) were constructed for each exposure period. In separate experiments, the photosynthetic 14 C fixation rates were measured after the SO 2 exposures. Plots of % total 14 C fixation v. ppm SO 2 (wt/wt, aqueous) were found to be linear for the 3 h and 6 h exposure periods, while plots of log (% total 14 C fixation) v. ppm SO 2 (wt/wt, aqueous) were linear for shorter exposures (10 min, 0.5 and 1 h). Threshold SO 2 concentrations for each exposure time were evaluated by extrapolating the K + ‐efflux curves, or their linear transformations, to zero K + release. Similarly, the threshold SO 2 concentrations that did not cause a reduction in 14 C fixation (relative to control samples not exposed to SO 2 ) were determined by extrapolation of the linear relationships mentioned. The threshold values obtained from the K + ‐efflux data were in good agreement with those evaluated from fixation rates. Aqueous threshold SO 2 concentrations were converted to gaseous threshold values by an experimentally verified relationship. The resulting gaseous SO 2 threshold concentrations, (SO 2 )g** in units of ppm(v/v) in air, were related to the exposure time in hours, t, through the following rectangular hyperbolic function: (SO 2 )g**=1.5 t −0.62 . Notwithstanding the uncertainties involved, extrapolation of this expression to exposure times considerably longer than the experimental range yielded threshold values for 6 months and 1 year in good agreement with mean SO 2 levels known from mapping studies to affect detrimentally sensitive lichen species.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972985571</t>
+          <t>https://openalex.org/W1970502704</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2136/sssaj1976.03615995004000040037x</t>
+          <t>https://doi.org/10.1016/0043-1648(77)90197-1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Waddington et al. (1976)</t>
+          <t>Tomaru et al. (1977)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Long‐term Evaluation of Slow‐release Nitrogen Sources on Turfgrass</t>
+          <t>Effects of some chemical factors on film failure under EP conditions</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Abstract Short‐term studies with slow‐release nitrogen sources have not provided information on the changes in response that may occur with continued use of a given material. In this study eight nitrogen sources were used to fertilize ‘Merion’ Kentucky bluegrass ( Poa pratensis L.) for 7 consecutive years to obtain long‐term results. Fertilizers used were urea, Uramite (ureaform), IBDU (isobutylidene diurea), Urex (urea‐paraffin matrix), ADM (plastic coated urea), Milorganite (activated sewage sludge), and two complete (NPK) fertilizers, with two‐thirds of the nitrogen from ureaform or IBDU and the remainder soluble. Urea was applied every other week and the other fertilizers were applied one, two, or three times per season to obtain total N of 1.46 or 2.44 kg/100 m 2 . Weekly clipping yields and color ratings were used to evaluate turfgrass response to the fertilizer treatments. Milorganite, Uramite, and IBDU produced more uniform growth than Urex, ADM, and the complete fertilizers. Response to Urex, ADM, and the complete fertilizer with IBDU was similar, and was often characterized by excessive growth after application. The greatest increase in response with continued use occurred with Uramite, which was the least efficient fertilizer in the first two years. At the end of the 7‐year period, determinations of yield, color, and total soil N indicated that Uramite had the greatest residual effect.</t>
+          <t>This paper is primarily concerned with the effects of sulfur- or phosphorus-type additives and of the atmosphere on EP lubrication failure as an extension of work reported previously. With a modified stepwise loading procedure, the effects of some EP additives on wear and friction were investigated using a four-ball machine. It was found, from the results of electron probe microanalysis, that the chemical nature of films on rubbing surfaces varied with the atmosphere and with the chemical structure of the sulfur compounds. The nature of the surface films correlated closely with the tribological behavior and may control the lubrication regimes. The less reactive additives had better frictional behavior in air because EHD effects can contribute to the concentrated contact. The transitions observed here are compared with those proposed by OECD-IRG∗. The method of evaluation of EP additives is discussed.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986283192</t>
+          <t>https://openalex.org/W1979168151</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4043/2544-ms</t>
+          <t>https://doi.org/10.1002/jrs.1250060408</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Christensen &amp; Richey (1976)</t>
+          <t>Mercier et al. (1977)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Prototype Performance Characteristics of Two Floating Breakwaters</t>
+          <t>Spectres Raman d'un Monocristal de As2O3, SO3 et Calcul du Champ de Force</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Prototype Performance Characteristics of Two Floating Breakwaters D.R. Christensen; D.R. Christensen U. of Washington Search for other works by this author on: This Site Google Scholar E.P. Richey E.P. Richey U. of Washington Search for other works by this author on: This Site Google Scholar Paper presented at the Offshore Technology Conference, Houston, Texas, May 1976. Paper Number: OTC-2544-MS https://doi.org/10.4043/2544-MS Published: May 02 1976 Cite View This Citation Add to Citation Manager Share Icon Share Twitter LinkedIn Get Permissions Search Site Citation Christensen, D.R., and E.P. Richey. "Prototype Performance Characteristics of Two Floating Breakwaters." Paper presented at the Offshore Technology Conference, Houston, Texas, May 1976. doi: https://doi.org/10.4043/2544-MS Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex Search nav search search input Search input auto suggest search filter All ContentAll ProceedingsOffshore Technology ConferenceOTC Offshore Technology Conference Search Advanced Search ABSTRACTThe performance characteristics of floating breakwaters, i.e, the transmission coefficients, anchor forces, and accelerations in heave, roll, and sway, are evaluated from field measurements on a concrete modular type installed at two different locations in Alaska, and a pontoon-type installed at a location in the State of Washington. In all three instances, the installations served to protect small boat harbors from local, wind generated waves. The measurements were planned with the combined pur-pose of evaluating the breakwater types under different wave exposures and to supply basic data for the verification and development of a -theoretical predictive model for breakwater performance. The instrumentation system was designed with multiple-channel, digital recording capability and packaged or use in remote locations, requiring only periodic maintenance checks and tape changes. The system can be set to be activated by any selected wind speed and sample the various input sensors at prescribed intervals and durations of time Applications. A systematic design procedure for floating breakwaters needs to be developed so the potential of the concepts can be utilized more completely. The data on the full scale prototype systems can be used, in conjunction with laboratory findings to calibrate and otherwise contribute to the development of the predictive models. The instrument package design can be adapted to respond to a wide variety of sensors and installation constraints.INTRODUCTIONOver the past three years the University of Washington's Ocean Engineering Research Laboratory has conducted three field instrumentation projects on two existing floating breakwaters in southeast Alaska and one in Friday Harbor, Washington. The breakwaters are all associated with small boat harbors, exposed to limited fetch conditions.Current techniques for the economical design of such structures have not proven to be adequate. Two of the primary information gaps associated with this inadequacy are (1) factual information on the performance of full-scale, operating field units and the transmission coefficients, anchor forces, and accelerations in heave, roll, and sway, are evaluated from field measurements on a concrete modular type installed at two different locations in Alaska, and a pontoon-type installed at a location in the State of Washington. In all three instances, the installations served to protect small boat harbors from local, wind generated waves. The measurements were planned with the combined purpose of evaluating the breakwater types under different wave exposures and to supply basic data for the verification and development of a theoretical predictive model for breakwater performance. The instrumentation system was designed with multiple-channel, digital recording capability and packaged or use in remote locations, requiring only periodic maintenance checks and tape changes. The system can be set to be activated by any selected wind speed and sample the various input sensors at prescribed intervals and durations of time. (2) basic analysis which tie together the loose ends of theory, laboratory experimental data, structural types, and random wave input into a predictive model for transmission characteristics, anchor forces, and structural motions. This paper reports on a contribution to the first gap. The scope and type of data acquired and the methods of recording and analyses were planned to provide a tie with current literature and a direct input to a theoretical performance study (Adee, 1976) which is a companion part of this field assessment program on floating breakwaters. Keywords: frequency, upstream oil &amp; gas, prototype performance characteristic, incident, breakwater, richey, spectral data, engineer, island, recorder Subjects: Information Management and Systems This content is only available via PDF. 1976. Offshore Technology</t>
+          <t>Abstract The polarized Raman spectra of a single crystal of As 2 O 3 , SO 3 , along with the infrared spectra of this compound in the polycrystalline state have been investigated at 30 K and 300 K in the 20–4000 cm −1 range. The dependance of the frequency shift of polar vibrations with the geometry of the Raman experiments has also been studied. An assignment in terms of symmetry species is proposed for 49 of the 51 expected active modes. A normal coordinate calculation using a valence force field has been performed for the principal vibrations (k ⋍ 0) of the crystal. The good agreement between observed and calculated frequencies shows that long range forces are negligible compared to internal valence forces. There are two different SO bonds characterized by stretching force constants of 9.1 and 5.2 mdyn Å −1 and SO bond lengths have been estimated equal to 1.44 and 1.56 Å respectively, by using an empirical correlation. The AsO stretching force constants of the OAsOAs…︁ chains and of the bonds linking As and SO 4 groups are similar: 2.0 and 1.9 mdyn Å −1 respectively. Therefore the crystal is not an ionic sulphate compound.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986671930</t>
+          <t>https://openalex.org/W1979437936</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/saf.1976.0011</t>
+          <t>https://doi.org/10.1016/0165-1161(77)90001-2</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Person (1976)</t>
+          <t>Sobels (1977)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Aesthetic Headaches and European Women in The Marble Faun and The American</t>
+          <t>Some problems associated with the testing for environmental mutagens and a perspective for studies in “comparative mutagenesis”</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>AESTHETIC HEADACHES AND EUROPEAN WOMEN IN THE MARBLE FAUN AND THE AMERICAN Leland Person, Jr.* Although the lure of the West (literal and metaphorical) worked a nearly irresistible magic on the heroes of nineteenth-century American novels, their creators also manifested a profound attraction for Europe and the Old World. At the same time that American literature was dominated by a westering, Adamic impulse (what Daniel Hoffman has termed a "radical search for identity by attempting to free ourselves from old forms, old orders, old hierarchies of rank and belief, to discover the emergent man") the American protagonist was drawn inexorably eastward into the American city and toward the forbidding, often bewildering, complexities of European culture.1 The eastering movement, widely demonstrable in the nineteenth-century novel, became in effect the dark, experiential side of the escape to the freedom of the frontier. In contrast to the vast open space, freedom in nature, and essentially male asexuality of the American West, Europe came to represent to the American imagination enclosed, often labyrinthine spaces, the manifold dangers of the city, and the irresistible attractions of the female. While entry into the American city was viewed somewhat anxiously as a "crucial step to maturity"2 and manhood, Europe was viewed with far more anxiety as a deadly, emasculating, thoroughly transforming and magical realm. The Chesterfieldian villain of Royall Tyler's The Contrast (1790), for example, is Billy Dimple, victim of a Europeanvisit in which he has renounced his American nature, even his name (Van Dumpling), and by which he has been "metamorphosed into a flippant, palid, polite beau."3 Similarly, in Nathaniel Hawthorne's Our OldHome (1863), an American Doctor of Divinity, once a "perfect model of clerical propriety," appears to Hawthorne within a week of his arrival in England completely transformed and suffering from delirium tremens; "he had lost his personal identity."4 Additionally, Herman Melville depicts England's debilitating power in the image of Israel Potter, "Leland Person teaches in the English Department at Indiana University. 66Lehnd Person, Jr. reduced by the presence of an English wife and child to decades of scavenging in the London sewers,5 and in Wellingborough Redburn's night of delirium, nightmare, and surrealistic visions of the earth's evil in a London "Aladdin's Palace." "The whole place seemed infected," Redburn writes, as if "some eastern plague had been imported." And though the room begins to crawl with lizards, he notes that this series of "fearful reveries only enchanted me fast to my chair; so that, though I wished to rush forth from the house, my limbs seemed manacled."6 For these American characters, the experience of Europe is dangerous and at least potentially transforming. In most of these works, however, the particular metamorphic force is left rather vague; Europe is abstractly conceived as a realm of primal terror and deadly influence. But for Hawthorne and the early Henry James, especially in The Marble Faun (1860) and The American (1877), the terrifying aspects of Europe crystaUize in the figure of a European woman, who comes to embody all that was viewed as alien to the westering mainstream of American experience. Moreover, both Hawthorne and James make the European woman a symbolic nexus for exploring the American's relationship to European culture and to the problems inherent in the creation of art. As artist or symbolic art object, she comes to represent the very wellsprings, the dark visionary promptings, of the creation and experience of art—what Nina Baym has termed the "archaic, erotic, creative core of energy in the psyche."7 Men who abandon themselves to this visionary impulse and enter the magic circle of the European woman's incantational charms frequently risk insanity or death. They perceive themselves as implicated in a vortex of formlessness, as having plunged into a sea, as having surrendered to a world of nightmare and madness, or as having passed between the jaws of some devouring machine. An early example of the transforming power of the European woman occurs in Hawthorne's "Rappaccini's Daughter" (1844). Although the tale does not contain an American character, Beatrice Rappaccini's presence becomes for the young Giovanni a "region of unspeakable...</t>
+          <t>During the past few years a growing number of substances with mutagenic activity have been identified in the human environment. Such effects deserve attention not only for reasons of protecting the genetic constitution of future generations, but are also of direct concern to the present one, in view of the striking concordance between the carcinogenic and mutagenic potential of most chemicals. In the evaluation of the effects of mutagenic chemicals one can distinguish four phases: (1) primary identification or detection of mutagenic activity; (2) verification; (3) quantification; (4) extrapolation to man. For the primary identification of a particular compound as a mutagen, fast bacterial assay systems, such as those developed for Salmonella or Escherichia coli, are most suitable. Regulatory measures ought to be postponed until a verification has been obtained from at least two eukaryotic assays, such as those with Drosophila, yeast, unscheduled DNA synthesis or sister-chromatid exchanges in mammalian cells. Flexibility in the choice of tests should be maintained, since new test systems are continually being developed. Extrapolation from experimental organisms to man presents problems, since chemical mutagens are characterized by great specificity of action with regard to the spectrum of genetic changes, organisms or cell types. Thus in Drosophila, for example, most pre-carcinogens (requiring metabolic activation) produce high levels of gene mutations, but no, or only few, chromosome-breakage effects, such as translocations, dominant lethals, or chromosome loss. Even patent chromosome-breaking substances appear to require considerably higher concentrations to elicit chromosome breakage than mutations. Evidence is presented that the same situation may well be true for mammals. Since all routine mammalian assay systems (dominant lethals, cytogenetic assays, micronuclei, heritable translocations) in vivo rely on the detection of chromosome breakage, they cannot be considered as diagnostic for the induction of mutations, and may well generate false negatives. An assessment of the possible genetic hazards involved requires a quantification in terms of dose-effect curves. In the absence of suitable fast tests for gene mutations in the intact mammal, these cannot, at present, be determined. Consequently, regulatory measures have to rely on confirmatory evidence from a battery of different test systems. More extensive studies on comparative mutagenesis, to define the detection capacity, both at the qualitative and quantitative levels, for different end-points of genetic damage (gene mutation, chromosomal aberrations, non-disjunction) and malignant transformation should be given high priority. Moreover, systematic step-wise comparisons for different end-points of genetic damage, at different concentration levels, “the parallelogram”, may also help one to obtain better estimates for the induction of mutations. This approach involves extrapolations, in vitro — in vivo, that use cytogenic damage in mammalian assay systems, to calibrate for the induction of mutations, as obtained from mammalian cell lines and host-mediated assays.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1992570220</t>
+          <t>https://openalex.org/W1985159121</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/6077-ms</t>
+          <t>https://doi.org/10.1203/00006450-197704000-00242</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ellison &amp; Robuck (1976)</t>
+          <t>Miller et al. (1977)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Repair of Buried Submarine Pipelines in the Long Beach Unit</t>
+          <t>MESSENGER RNA TRANSCRIPTION IN REGENERATING KIDNEY</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>American Institute of Mining, Metallurgical, and Petroleum Engineers, Inc. Abstract This report covers the planning, acquisition of equipment and materials, and organizational staffing employed by THUMS Long Beach Co. to accomplish in-place repairs of buried submarine pipelines. This paper includes a description of (1) methods and procedures developed to satisfy demands of the work environment, and (2) those actions taken for the protection and preservation of the marine environment. preservation of the marine environment Introduction THUMS Long Beach Co., acting in the capacity of agent for the field contractor, Texaco, Humble (now Exxon), union, Mobil, and Shell, furnishes the operating services for the City of Long Beach, unit operator for the Long Beach Unit, in the East Wilmington field. The 400,000 bbl (approximate) of gross fluids produced offshore each day are collected through produced offshore each day are collected through a submarine pipeline system linking the four man-made islands, in the San Pedro Bay less than 1 mile offshore from the City of Long Beach, Calif., with onshore treating facilities. The buried pipeline system consists of 30 miles of 6-, 8-, 12-, and 14-in. pipe buried 7 to 15 ft beneath the bottom of the bay in 30 to 40 ft of water. All lines are externally somastic coated for corrosion protection. The larger lines are weighted with 1 1/2 to 2 in. of reinforced concrete coating. Installation of the pipelines was made by the lay-barge method in 1966 and 1967. Each joint was metallurgically inspected, 100 percent of the welds were x-ray inspected, and the lines were hydrostatically tested after placement. The entire pipeline network is externally protected with an impressed current cathodic protected with an impressed current cathodic system. Additionally, pipeline scraper facilities were installed to facilitate weekly scraping of the lines. From the beginning, field operations were developed with great concern for protection of the environment and, in particular, prevention of an oil spill immediately offshore and adjacent to one of the nation's most attractive recreational beach areas. As soon as equipment became available and techniques were perfected to make internal pipe evaluations of the integrity of the pipelines, surveys were initiated and have been run at intervals of approximately 6 months.</t>
+          <t>As part of a larger project studying potential reactivation of genes active in fetal organogenesis which are not expressed in adult tissue, we have examined the control of transcription in kidney regeneration, a process involving hypertrophy and hyperplasia of several cell types. Renal polyadenylated mRNA binding to oligo(dT)-cellulose was prepared from mice 2 and 4 days following unilateral nephrectomy and from controls and used as template for the synthesis of 3H complementary DNA (cDNA). The complexity of the mRNA population was evaluated by hybridization to its homologous cDNA. Hybridization occurred over 5 log units of ROt (mols nucleotide/liter × seconds) and reached 90% saturation indicating a broad frequency distribution of mRNA populations. The 4 day post-nephrectomy curve showed a twofold increase in the complexity of the most abundant class of mRNA molecules, but no significant difference in the complexity of mRNA species present in lesser abundance. Heterologous hybridizations failed to show a significant change in saturation values. We conclude that few if any new species of mRNA are required for kidney regeneration, but that some species must be produced in increased numbers. In vitro translation of these mRNAs substantiated these conclusions, as no new proteins unique to compensatory growth were identified, although several proteins were present in significantly different amounts compared to control.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994535707</t>
+          <t>https://openalex.org/W1986752374</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/saf.1976.0015</t>
+          <t>https://doi.org/10.1029/ja082i035p05505</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Korenman (1976)</t>
+          <t>Hernández &amp; Roble (1977)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Faulkner and "That Undying Mark"</t>
+          <t>Direct measurements of nighttime thermospheric winds and temperatures, 3. Monthly variations during solar minimum</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FAULKNER AND "THAT UNDYING MARK' Joan S. Korenman* Many critics hold that Faulkner's lifelong concern with the problem of time finds its greatest expression in Absalom, Absalom! Ruth M. Vande Kieft, for example, regards this novel as "a comprehensive symbol of [Faulkner's] relationship to time as an artist. It reveals not only his obsession with time but his battle against the oblivion which threatens all human achievement."1 Her remarks are sound and perceptive, but what her discussion and others on the topic overlook is that the craving for immortality in Absalom, Absalom! represents a new dimension in Faulkner's obsession with time. The struggle against time and change, the quest for permanence amid the flux of life, figures importantly all through Faulkner's work. In the books before Absalom, Absalom! this quest focuses on the attractiveness of the past and the wish to perpetuate the past by stopping time. While Absalom, too, is a book about the past, its major figure, Thomas Sutpen, looks forward rather than behind. He strives frantically to found a dynasty and thereby achieve a measure of immortality. This wish to defeat time by achieving some kind of immortality appears repeatedly in both the fiction and the non-fiction after Absalom. Beginning in the 1940s, Faulkner increasingly turns to what could be called a "general" immortality, the notion of the continuity of the species and his membership in the indestructible human race. His frequent statement that man will "endure and prevail" is related to this idea. But even as he notes that "families and clans and tribes talking of themselves as a race of men and not the race of Man, rise and pass andvanish like so much dust,"2 his writings reveal a craving for a more personal immortality, perpetuation not only as man but also as William Faulkner. Like Keats, perhaps his favorite poet, Faulkner turns to art for both the symbol and the means of man's transcendence of time. It is hard to overstate the importance of the past in Faulkner. Many of the works that precede Absalom, Absalom! (1936) deal with the past°Joan S. Korenman is an Assistant Professor of English at the University of Maryland, Baltimore County. She has done work on Faulkner, Fitzgerald, Kesey, O'Neill, and McCullers and has published in American Literature, The Southern Literary Journal, and the Fitzgerald/Hemingway Annual. She is currently working on Henry James. 82Joan S. Korenman and with characters' attempts to return to the past and escape from time and change.3 Faulkner's first novel, Soldiers' Pay (1926), includes two characters, Margaret Powers and the Reverend Mahon's serving girl, Emmy, who live in the past and seek to recreate vanished relationships. In Sartoris (1929), the family that gives its name to this first Yoknapatawpha novel lives in the shadow of the dead Colonel John Sartoris and his brother Bayard. Even Horace Benbow longs for "old unchanging days" removed from temporality. In The Sound and the Fury, published the same year as Sartoris, the sensitive, tormented Quentin Compson wishes fervently to restore and preserve the fixed world of his childhood with Caddy. Obsessed by time, Quentin cannot bear to think that Caddy's honor and his concern over it are only "temporary." He mutilates his watch, tries to kill his shadow, and finally drowns himself to find relief from the threat that he and his world may change. The Reverend Gail Hightower in Light in August (1932) is yet another of Faulkner's past-ridden protagonists. Born into his parents' old age, Hightower comes to dwell on the glamorous stories told about his grandfather, whose past becomes the minister's sole reality. Faulkner's portrayal of these time-obsessed characters is deeply ambivalent. He shows their inadequacies, especially their quintessentialIy Southern tendency to romanticize the past and their consequent inability to respond fully to life in the present. At the same time, he presents these characters with great sympathy and compassion; he understands and to some extent shares their longing for a vanished or vanishing past, for escape from time and change. Thomas Sutpen, die would-be dynasty-maker in Absalom, Absalom!, shares with Faulkner's past...</t>
+          <t>We used a high-resolution Fabry-Perot spectrometer at Fritz Peak Observatory (39.9°N, 105.5°W) to determine the nighttime variation of thermospheric temperatures and winds from the line profiles and Doppler shifts of the O I 15,867-K (6300 Å) line emission. With data obtained during the period April 1975 through March 1976 we examined the variation of the nighttime neutral gas temperature, zonal winds, and meridional winds at F layer heights throughout the year during solar cycle minimum. We compare our observed temperatures to predictions made by the MSIS (mass spectrometer and incoherent scatter) empirical model of neutral temperature and composition in the thermosphere. The calculated nighttime variation of thermospheric temperature is about 100°–150°K lower than measurements for summer and equinox months and about 50°–75°K lower than measurements for winter months. We compare the observed winds to the zonal and meridional winds, which we calculate from a three-dimensional semiempirical dynamic model of the thermosphere by using the pressure gradients specified by the MSIS model. The calculated nighttime winds are in general agreement with observed winds; both reveal a systematic monthly variation during geomagnetic quiet times. The nighttime equatorward meridional winds are greater in summer than in winter. The zonal winds are eastward throughout most of the night during winter; however, as the season progresses toward summer, a transition develops in the early morning hours from eastward to westward winds. This transition occurs earlier in the night as summer approaches. We use model predictions of the diurnal variations of winds and temperatures to calculate diurnal averages of the zonal and meridional wind components over Fritz Peak Observatory. The seasonal variation of these zonal mean values is presented.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1998536832</t>
+          <t>https://openalex.org/W1992125162</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevd.14.917</t>
+          <t>https://doi.org/10.1016/0148-2963(77)90019-4</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Pascoe et al. (1976)</t>
+          <t>Miles &amp; Wurtzebach (1977)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Center-of-mass theorem in post-Newtonian hydrodynamics</t>
+          <t>Risk analysis in the real property development process: a conceptual framework and a computer simulation model</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>In the post-Newtonian theory of a perfect fluid in adiabatic motion, the conservation laws of energy, momentum, and angular momentum can be obtained via Noether's theorem from the invariance properties of the Lagrangian under infinitesimal time and space translations and rotations, in complete analogy to the corresponding case of interacting particles; but, again in complete analogy, the center-of-mass theorem cannot be as directly related to the infinitesimal transformations of a group. Therefore the center-of-mass theorem had previously only been obtained by direct integration of the equations of motion. However, it has been shown recently in the case of interacting particles by Havas and Stachel that invariance of the Lagrangian under space and time translations is by itself sufficient to guarantee the existence of a center-of-mass theorem, and it is shown here that the techniques developed for that case also lead to the center-of-mass theorem for the perfect fluid.</t>
+          <t>Real property development is an interdisciplinary field that produces interesting time-risk questions for the various participants. The conceptual framework of the process is a normative staging of activities and related decision points. The framework provides the theoretical foundation for the application of management science techniques to this complex environment. The computer simulation model is a straightforward quantification of the conceptual framework. The equations incorporated in the model are common to financial and appraisal literature with alterations designed to encompass the unique aspects of the real property development process. The model is a tool for use in the application of sensitivity analysis to development period decision making. At various decision points in the process the decision maker can evaluate alternative risk control techniques on a cost-benefit basis using the model.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1998619894</t>
+          <t>https://openalex.org/W1992818794</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1365-2125.1976.tb03707.x</t>
+          <t>https://doi.org/10.1002/j.1538-7305.1977.tb00562.x</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Kumar (1976)</t>
+          <t>McCabe et al. (1977)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Animal models for screening new agents: a behavioural view.</t>
+          <t>No.4 ESS: Program Administration, Test, and Evaluation</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>British Journal of Clinical PharmacologyVolume 3, Issue S1 p. 13-17 Free Access Animal models for screening new agents: a behavioural view. R Kumar, R KumarSearch for more papers by this author R Kumar, R KumarSearch for more papers by this author First published: February 1976 https://doi.org/10.1111/j.1365-2125.1976.tb03707.xCitations: 5AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat References ANGRIST, B.M., SHOPSHIN, B. &amp; GERSHON, S. (1971). Comparative psychotomimetic effects of stereoisomers of amphetamine. Nature (Lond.), 234, 152– 154. ASHCROFT et al. (1972). Modified amine hypothesis for the aetiology of effective illness. Lancet ii, No. 7777, 573– 578. BEACH, F.A. (1950). The Snark was a Boojum. Amer. Psychol., 5, 115– 124. BOLLES, R.C. (1970). Species-specific defence reactions and avoidance learning. Psychol. Rev., 77, 32– 48. BREESE, C., PRANGE, A., HOWARD, J., LIPTON, M., McKINNEY, W., BOWMAN, R. &amp; BUSHNELL, P. (1972). 3-Methoxy-4-hydroxyphenylglycol: Excretion and behavioural changes in rat and monkey after central sympathectomy with 6-hydroxydopamine. Nature (Lond.), 240, 286– 287. CADE, J.F.J. (1970). The story of lithium. In Discoveries in Biological Psychiatry, pp. 218– 229. eds. F.J. Ayd and B. Blackwell Philadelphia: Lippincott. CARROLL, B.M. &amp; SHARP, P.T. (1971). Rubidium and lithium: opposite effects on amine mediated excitement. Science, 172, 1355– 1357. CROW, T.J. &amp; GILLBE, C. (1973). Dopamine antagonism and anti-schizophrenic potency of neuroleptic drugs. Nature (Lond.), 245, 27– 28. CROW, T. J. &amp; GILLBE, C. (1975). Brain dopamine and behaviour: a critical analysis of the relationship between dopamine antagonism and the therapeutic efficacy of neuroleptic drugs. J. psychiat. Res. (in the press). DAVIES, C., SANGER, D.J. STEINBERG, H., TOMKIEWICZ, M. &amp; U'PRICHARD, D. (1974). Lithium and α-methyl-p-tyrosine prevent ‘manic’ activity in rodents. Psychopharmacologia, 36, 263– 274. GRAHAME-SMITH, D.G. &amp; GREEN, A.R. (1974a). The role of brain dopamine in the hyperactivity syndrome produced in rats after administration of L-tryptophan and a monoamine oxidase inhibitor. Br. J. Pharmac., 50, 442P– 443P. GRAHAME-SMITH, D.G. &amp; GREEN, A.R. (1974b). The role of brain 5-hydroxytryptamine in the hyperactivity produced in rats by lithium and monoamine oxidase inhibition. Br. J. Pharmac., 50, 443P– 444P. HARLOW, H.F. &amp; HARLOW, M.K. (1971). Psychopathology in monkeys. In Experimental psychopathology: research and theory, pp. 203– 229. Ed. H.D. Kimmel New York: Academic Press. HODOS, W. &amp; CAMPBELL, C.B.G. (1969). Scala Naturae: why there is no theory in comparative psychology. Psychol. Rev., 76, 337– 350. KORNETSKY, C. &amp; ELIASSON, M. (1969). Reticular stimulation and chlorpromazine: an animal model for schizophrenic overarousal. Science, 165, 1273– 1274. LASAGNA, L. (1971). Decision processes in establishing the efficacy and safety of psychotropic agents. In Principles and Problems in establishing the Efficacy of Psychotropic Drugs, pp. 29– 50. Eds. J. Levine, B.C. Schiele and L. Bouthilet U.S. Public Health Service Publication No. 2138. LOCKARD, R.B. (1971). Reflections on the fall of comparative psychology: is there a message for us all Amer. Psychol., 26, 168– 179. McKINNEY, W.T., EISING, R.G., MORAN, E.C., SUOMI, S.J. &amp; HARLOW, H.F. (1971). Effects of reserpine on the social behaviour of rhesus monkeys. Dis. nerv. Syst., 32, 735– 741. MILLER, N.E. (1964). The analysis of motivational effects illustrated by experiments on anylobarbitone sodium. In Animal Behaviour and Drug Action, pp. 1– 18. Eds. H. Steinberg, A.V.S. Reuck and J. Knight London: Churchill. RANDRUP, A. &amp; MUNKVAD, I. (1970). Biochemical, anatomical and physiological investigations of stereotyped behaviour induced by amphetamines. In Symposium on Amphetamine and Related Drugs, pp. 695– 718. eds. E. Costa and S. Garattini New York: Raven Press. RANDRUP, A. &amp; MUNKVAD, T. (1972). Evidence indicating an association between schizophrenia and dopaminergic hyperactivity in the brain. Orthomol. Psychiat., 1, 2– 7. REDMOND, D., MAAS, J., KLING, A., GRAHAM, C. &amp; DEKIRMENJIAN, H. (1971). Social behaviour of monkeys selectively depleted of monoamines. Science, 174, 428– 430. RUSSELL, R.W. et al. (1962). Behavioural research in precinical psychopharmacology: Issues of design and techniques. U.S. Public Health Service Publication No. 968. SELIGMAN, M.B.P. (1970). On the generality of the laws of learning. Psychol. Rev., 77, 406– 418. SELIGMAN, M.E.P., MAIER, S.F. &amp; SOLOMON, R.L. (1971). Unpredic</t>
+          <t>A number of hardware and software support systems are used in the design, testing, evaluation, and administration of the No. 4 ess software. The Program Administration System (pas) provides a management facility for the large data base that consists of the multitude of ess programs. These programs must be changed, controlled, and manipulated in a uniform fashion to produce the various official releases of the No. 4 ess software without jeopardizing the integrity of the data base. The 1A Processor Utility System uses a minicomputer and a hardware interface with the No. 4 ess as an operating system for the interpretation, initialization, execution, monitoring, and display of tests written in a high-level utility language. Thus it makes available a convenient means for testing and debugging No. 4 ess software in a system laboratory environment. A directed-graph model, describing the sequential stimulus-action-transition behavior of a software process under test, acts as a reference and a starting point for the Automated Testing and Load Analysis System (atlas). Components of atlas then automatically derive tests and employ test directives embedded in the model to apply and monitor tests for the modeled process. Testing of the ess software under high traffic loads is achieved in the laboratory by the Programmed Electronic Traffic Simulator (pets). This system simulates the peripheral equipment and monitors the ess responses for deviations from a norm.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1999602505</t>
+          <t>https://openalex.org/W1993537498</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0301-6226(76)90016-6</t>
+          <t>https://doi.org/10.1016/0305-7488(77)90113-x</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sellier (1976)</t>
+          <t>Turnock (1977)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>The basis of crossbreeding in pigs; A review</t>
+          <t>Stages of agricultural improvement in the uplands of Scotland's Grampian region</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A survey of the different parameters involved in crossbreeding is given following the analysis of Dickerson (1969). The genetic gain resulting from crossbreeding has a double origin: complementarity and heterosis. The practical importance of these two advantages is evaluated in swine. Average individual (H1) and maternal (HM) heterosis effects on main performance traits are derived from experimental estimates summarized in graphs; the expected fraction of HI and HM utilized in some crossing plans is given. It appears that heterosis accounts for the major part of the gain from crossing in swine. The observed variation between estimates of heterosis for a given trait is analyzed: the effects of sampling variance, specific combining ability of some crosses, heterosis by environment interactions and association between heterosis and parental mean are considered and some illustrations are given. Finally the different criteria used in optimization of crossing between available pig breeds are reviewed. The present trend is to pay attention not only to the final cross but to the whole crossbreeding system, either as static (at demographic equilibrium) or dynamic (transition phase from another system). The first results of such a study with two French breeds are given briefly. Les différents paramètres du croisement sont passés en revue, dans la ligne de l'analyse de Dickerson (1969). Le gain génétique résultant du croisement a une double origine: complémentarité, hétérosis. L'importance pratique de chacun de ces effets est évaluée, dans le cas du Porc. Des valeurs moyennes de l'hétérosis individuel et de l'hétérosis maternel pour les principaux caractères sont déduites d'estimations expérimentales présentées sous forme graphique. Il apparait que chez le Porc, les effets d'hétérosis, dont la part exploitée dans différents plans de croisement est rappelée, expliquent la majeure partie du gain lié au croisement. La variation observée des estimées d'hétérosis pour un caractère est analysée: variance d'échantillonnage, aptitude spécifique à la combinaison de certains couples de races, interactions de type hétérosis × milieu, liaison entre hétérosis et moyenne parentale; quelques illustrations sont données. Enfin les differents critères utilisés en matière d'optimisation des stratégies de croisement chez le Porc sont présentés. La tendance actuelle est de ne plus rechercher seulement la productivité maximum de l'étage terminal du plan de croisement mais de s'intéresser au système de croisement dans son ensemble, soit à l'équilibre démographique, soit dans la phase de mise en place. Les premiers résultats d'une telle étude prévisionnelle concernant deux races françaises : sont brièvement présentés. Es wird eine Übersicht über die verschiedenen Kreuzungsparameter gegeben, die der Analyse von Dickerson (1969) entsprechen. Der genetische Gewinn der Kreuzung hat einen doppelten Ursprung: einen ergänzenden Faktor sowie die Heterosis. Die praktische Bedeutung dieser beiden Vorteile wird beim Schwein angewandt. Die durchschnittlichen individuellen (HI) und maternellen (HM) Heterosiseffekte auf die wesentlichen Leistungseigenschaften wurden von experimentellen Schätzungen abgeleitet, die graphisch darge-stellt sind. Es werden die zu erwartenden Anteile von HI und HM angegeben, die in einigen Kreuzungsverfahren verwendet werden. Es scheint, dass der Heterosis der Hauptanteil am Gewinn zuzuschreiben ist, der durch Kreuzung beim Schwein erzielt wird. Die beobachtete Variation zwischen den Heterosisschätzungen für eine Eigenschaft wird analysiert: Varianz der Probennahme, spezielle Kombinationseignung einiger Kreuzungen, Heterosis durch Umweltinteraktionen, Beziehungen zwischen Heterosis und Durchschnitt der Eltern: hierzu werden einige Erläuterungen gegeben. Schliesslich werden die verschiedenen Kriterien dargestellt, die bei der Optimierung der Kreuzungen zwischen verfügbaren Schweinerassen verwendet werden: es ist der aktuelle Trend, nicht nur der letzten Kreuzungsstufe, sondern dem gesamten Kreuzungssystem Aufmerksamkeit zu schenken, das entweder statisch (bei demographischem Gleichgewicht) oder dynamisch sein kann (Übergangsphase von einem anderen System). Es werden die ersten Ergebnisse einer solchen Untersuchung an zwei französischen Rassen kurz erläutert.</t>
+          <t>Studies of the improving movement in North Scotland have revealed a sharp contrast between agricultural holdings on the east and west coasts. This paper suggests that in the Grampian uplands a transitional pattern is evident, with a period of planned village development followed by greater emphasis on smallholdings as the prospects for rural industry declined through the nineteenth century. Evidence is drawn from an extensive study area embracing the upland parts of the Gordon and Moray districts of the Grampian region. But particular attention is given to the former Gordon estates in the parishes of Inveravon and Kirkmichael, for the planned village of Tomintoul (celebrating its bicentenary in 1976) in Kirkmichael parish and the legacy of nineteenth-century smallholdings in Glenlivet and Inveravon provide very clear illustrations of the two stages. Research is facilitated by the survival of many eighteenth- and nineteenth-century estate maps for these two parishes as well as the availability of census enumeration books for the late nineteeth century. Criteria affecting the siting of planned villages are considered and the significance of these growth centres for current rural planning strategies is brought out.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2002273723</t>
+          <t>https://openalex.org/W1995360863</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0005-7894(76)80136-0</t>
+          <t>https://doi.org/10.1017/s0376892900025273</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Christensen (1976)</t>
+          <t>Ayyad &amp; Ghabbour (1977)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Measuring and maintaining weight losses</t>
+          <t>Systems Analysis of Mediterranean Desert Ecosystems of Northern Egypt (SAMDENE)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Empirical evaluations of therapies designed to improve self-regulatory skills have not as yet demonstrated their success as methods of ensuring long-lasting behavior change. The clinical use of concepts and procedures derived more from assumptions about the nature of self-regulation than from empirical evidence may be responsible for some of these outcomes. This paper demonstrates that a fine-grained, empirically-based, analysis of the active elements of “self-regulatory failure” is both possible and useful. Based on an examination of three literatures (successful vs. unsuccessful self-regulation; the relapse process; attention in self-regulation), eight components of self-regulatory failure are identified: depressogenic cognitions; difficulties coping with emotional Stressors; disengagement from habit change; social pressure; initial relapse episode; physiological pressure; problematic attentional focusing; and disengagement from self-monitoring. It is noted that further empirical work is necessary to specify probable patterns of interaction between these elements. One exception is discussed: it appears that many of the proposed elements can lead to disengagement of self-monitoring which, in turn, often precipitates a rapid failure to sustain effective self-regulation. Finally, a general strategy to prevent self-regulatory failure is discussed that accords well with this conceptualization—engaging in “obsessive-compulsive self-regulation.”</t>
+          <t>Natural and semi-natural ecosystems in many parts of the world are in the most serious danger of being degraded or lost through Man's mistaking short-term economic gains under temporarily favourable conditions for long-term stability. This is particularly obvious in arid and semi-arid regions where ill-advised land-use methods have led to profound and often irreversible changes. Under the austere conditions prevailing in such regions, the dynamic ecological equilibrium is fragile: minor changes in the physical environment entail dramatic changes in plant and animal life. These circumstances lead easily to desertification. Due to overexploitation of natural resources by Man (especially overgrazing, and overcutting of shrubs) in North Africa, desertification has proceeded at a rate of more than 100 square kilometres per year. There is a great need to establish scientific bases for the conservation and rational use of the resources of natural and semi-natural ecosystems, especially in regions fringing the deserts where these resources continue to disappear regularly and all too rapidly. The western Mediterranean desert of Egypt provides clear examples of such losses. As a result of the misuse of its resources, the region is producing at a rate that is probably far below its real potential. Agriculture (mainly barley cultivation) provides the livelihood for 74% of the population between Alexandria and Daba'a; this agriculture is either rain-fed (along most of the coastal strip), supplied by Nile and drainage-water mixed (Mariut Project, 500,000 feddan = 210,000 ha), or fed by irrigation and rainfall where Nile water is used as a supplementary source (Mariut Extension Project, 18,000 feddan). The most important land-use in terms of area, however, is animal husbandry (very largely sheep and goats, whose herding becomes more important and farming less important passing from the sea towards the interior). Actually there is overstocking, so that range vegetation is seriously depleted due to overgrazing and poor management. Various land-use policies have been tried in the past decades with varying degrees of success, though fig and olive cultivations, which act within the framework of the natural ecosystem and with minimum human intervention, have a remarkable record of viability. The Samdene Project (Systems Analysis of Mediterranean Desert Ecosystems of Northern Egypt) was conceived to bring together information on the Mediterranean desert ecosystems of northern Egypt. The Project involves the construction of predictive models simulating the major ecosystems of the region interms of energy flow and circulation of matter, and of spatial and temporal changes in plants and animals aswell as in soil features in relation to environmental variations. So he preliminary results are already offered on soil moisture, vegetation, effects of fencing, phenology, litter production, and soil fauna.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2004502748</t>
+          <t>https://openalex.org/W1998402959</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4141/cjps76-042</t>
+          <t>https://doi.org/10.1159/000119673</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sampson (1976)</t>
+          <t>Carrillo (1977)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CHOOSING THE BEST PARENTS FOR A BREEDING PROGRAM FROM AMONG EIGHT OAT CULTIVARS CROSSED IN DIALLEL</t>
+          <t>Cerebral Angiography and Evaluation of Functional Status of Shunts in Hydrocephalic Children</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Twenty-eight oat hybrids from a diallel cross of eight parents were evaluated using field-grown F 2 (1970) and F 3 (1971) bulks at competitive spacing and with different exposures to moisture stress. These were compared with irrigated, space-planted F 1 ’s. Short, stout straw was negatively correlated with grain yield. Correlations of 1,000-kernel weight and panicle number with other traits changed sharply from year to year. General combining ability (GCA) effects showed that Astro, Clintford and Purdue 6316 were outstanding parents for desirable stem type, as were Gemini and Clintford for 1,000-kernel weight and Gemini, Kelsey and Marino for yield. Index selection among the progenies using four traits gave largely contradictory results for the 2 yr, but GCA effects of the index values point to Astro and Clintford as the best all-round parents. Data from F 1 spaced plants in an optimum environment were useful for predicting field responses in the year when no moisture stress occurred during grain filling, but not in the year with such stress. Midparent values for grain yield were highly correlated with progenies’ yields only in the year with no moisture stress during grain filling.</t>
+          <t>It is generally possible to evaluate a malfunctioning shunt on the basis of clinical signs. Neuroradiologic evaluation is recommended for the difficult cases when this is not possible. The neuroradiologic procedure of choice is cerebral angiography since it permits the determination of ventricular size, an estimate of the presence of intraventricular hypertension, and an evaluation of the nature and degree of brain shift or herniation. Furthermore, such complications of hydrocephalus as porencephaly or subdural accumulations of fluid may also be diagnosed.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2008076203</t>
+          <t>https://openalex.org/W2000889985</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00000542-197601000-00004</t>
+          <t>https://doi.org/10.1007/bf02207860</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ivankovich et al. (1976)</t>
+          <t>Wangersky (1977)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sodium Nitroprusside and Cerebral Blood Flow in the Anesthetized and Unanesthetized Goat</t>
+          <t>The role of particulate matter in the productivity of surface waters</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>The effects of dodium nitroprusside (SNP) on total, ipsilateral cerebral blood flow (CBF) in the unanesthetized and anesthetized goat was evaluated under four conditions: 1) bolus injection of SNP into the cerebral circulation via the temporal artery; 2) continuous infusion of SNP into the temporal artery in amounts too small to affect the peripheral circulation (0.57-1.14 mug/kg/min); 3) intravenous infusion of SNP; 4) continuous intravenous infusion of SNP with a bolus injection af angiotensin. Small doses (20, 40, and 80 mug) of SNP injected directly in the cerebral circulation of the awake goat produced immediate increases of 21 +/- 8, 36 +/- 8, and 48+/- 10 per cent, respectively, in CBF lasting 1 to 3 min without causing peripheral cardiovascular changes. The effects of SNP were attenuated by 1.5 per cent halothane anesthesia. Continuous infusion of SNP into the temporal artery in amounts too small to cause peripheral cardiovascular effects produced sustained increases in CBF averaging 31+/- 8 percent; CBF returned to preinfusion values upon cessation of infusion. Intravenous infusion of SNP in both anesthetized and unanesthetized animals in recommended clinical dosages (3-8 mug/kg/min) produced hypotension but did not significantly alter CBF. However, upon injection of angiotensin (1.43 mug/kg), both peripheral blood pressure and CBF increased sharply, suggesting that SNP may impair autoregulation of CBF. The results of this study indicate that SNP dilates the cerebral vascular system in a way that is probably similar to its effects on other vascular beds.</t>
+          <t>Except for the special cases of upwelled water and the spring blooms in temperate and boreal waters, the productivity of the oceans is largely governed by the rate of nutrient regeneration in surface waters. This rate of regeneration is a function of the number of actively metabolizing bacteria present, which in turn appears to be a function of the particle content of the water. Thus, particle content may be the basic control on the productivity of the open oceans. The possibility of increasing productivity by artificially increasing the particle content of the water should be considered for regions characterized by low particle count, such as the Sargasso Sea. Since silicate can only be resupplied by re-solution of diatom tests, a process taking place at depth, plankton blooms following regeneration kinetics will typically be dinoflagellate rather than diatom blooms.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2011414209</t>
+          <t>https://openalex.org/W2004263646</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1289/ehp.7614167</t>
+          <t>https://doi.org/10.2134/agronj1977.00021962006900030005x</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Huffaker &amp; Croft (1976)</t>
+          <t>Mislevy et al. (1977)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Integrated pest management in the U.S.: progress and promise.</t>
+          <t>Influence of Plant Stage at Initial Harvest and Height of Regrowth at Cutting on Forage Yield and Quality of Timothy and Orchardgrass&lt;sup&gt;1&lt;/sup&gt;</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>In the U.S., where heavy use of insecticides has been commonplace for years, the development of proper integrated insect pest control cannot get underway unless there is a changed use pattern for such chemicals. A changed use pattern, however, cannot be accomplished without much study to establish the requirements for integrated control for each major crop situation. In this paper recent developments in a number of crop areas in the U.S. in which the necessary study has been begun are reviewed. Important phases in the development of integrated control programs include: the single tactics phase, the multitactic phase, phase, the biological monitoring phase, the modeling phase, the management and optimization phase, and the implementation phase. Several crops are discussed in relation to how far along we are in the development of practical programs of insect pest control. These are cotton, apples, alfalfa, soybeans, citrus, corn, cereal grains, tobacco and pine forests. Several of these programs have already made substantial headway, e.g., those for cotton, alfalfa, apples, tobacco, and soybeans, although the accomplishments have not been even or parellel with respect to the phases of development where progress has been good. The review of developments in these crops suggests that programs of control for individual crops and perhaps for complexes of associated crops will be developed according to specific needs of the crop, the geographic area and the pests, the technologies available and the socioeconomic and political factors of relevance. The tendency will be toward greater use of science in pest control decision-making, with extensive use of biological monitoring to establish realistic levels of threatened damage to the crop, and greater concern given to possible profit reductions and environmental disturbances of applying an insecticide, as well as the possible gain from doing so.</t>
+          <t>Abstract The need to obtain the best compromise between yield and quality has been recognized for years. The object of this study was to evaluate the influence of initial harvest at various growth stages and height of regrowth (all cuttings after initial harvest) at cutting on forage yield and quality of ‘Climax’ timothy ( Phleum pratense L.) and ‘Pennlate’ orchardgrass ( Dactylis glomerata L.). First growth of these grasses was harvested at each of the following stages: (a) transition (changing of apical meristem from vegetative to reproductive growth), (b) boot, and (c) anthesis. Following each initial harvest stage, regrowth was removed throughout the growing season at each of the following plant heights: 10 to 15 cm, 20 to 25 cm, 30 to 36 cm, 41 to 46 cm, and 51 to 56 cm. This field investigation was conducted during 1970 and 1971 on a fine, loamy, mixed, mesic Typic Hapludults (Murrill series) at the Agronomy Research Farm near Rock Springs, Penn. Delaying the first harvest of timothy and orchardgrass from the transition to anthesis stage resulted in increased yield and estimated total digestible nutrients (TDN). However, total seasonal regrowth, total TDN of regrowth, total digestible protein, and total digestible protein of regrowth decreased significantly (P≤0.05). Allowing plants of both species to attain heights of 20 to 36 cm, with few exceptions, produced highest total and regrowth forage yield, TDN, and digestible protein. However, frequent removal of regrowth, at a plant height of 10 to 15 cm, resulted in significantly (P≤0.05) lower yields and encouraged weed encroachment. These data indicate first harvest forage removal at the transition stage, followed by regrowth removal each time plants attain a height of 20 to 36 cm results in highest production of quality forage as measured by total seasonal regrowth, total TDN of regrowth and total digestible protein.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2012120438</t>
+          <t>https://openalex.org/W2004768985</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rspa.1976.0165</t>
+          <t>https://doi.org/10.1139/f77-260</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Judd &amp; Runciman (1976)</t>
+          <t>MacLean &amp; Magnuson (1977)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Transverse Zeeman effect for ions in uniaxial crystals</t>
+          <t>Species Interactions in Percid Communities</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>The theory of the Zeeman effect for ions in crystals at sites of uniaxial symmetry has been developed for intra-configuration transitions with the external magnetic field H perpendicular to the crystal axis c . Variations in the axial optical spectrum that occur when the crystal is rotated about c are described in terms of the types A and B of the upper and lower states involved in the transition. Large intensity changes can occur for ions at sites of D 4 , C 4v or D 2d symmetry for those transitions that appear only in the σ spectrum. Analogous variations can only take place for D 6 , C 6v and D 3h in those cases where H is sufficiently large to mix neighbouring crystal-field states. Other uniaxial point groups are considered as cases of approximate symmetry. The theory is developed with particular reference to U 5+ in zircon, to CoCs 3 Cl 5 , and to the rare-earth ethylsulphates.</t>
+          <t>Evidence for species interactions in communities with Perca and Stizostedion is evaluated. Substantial evidence exists for the importance of predation by and on percids to community structure and function. Some evidence also clearly demonstrates that competition is an important interaction both within Perca populations and between Perca and other species. The necessity of using manipulative experiments to test for community level effects of competition and predation is emphasized. Such manipulative experiments, however, should be restricted in number and conducted with great care, because the community changes they induce are often irreversible and detrimental.Species interactions related to feeding have apparently resulted in the partitioning of habitat and food resources among fishes in percid communities. Partitioning of space is considered in terms of distribution of Perca and Stizostedion in respect to temperature in stratified and unstratified aquatic systems. In stratified lakes, percids are expected to be spatially segregated from fishes with other thermal requirements, such as the warmwater centrarchids and the cold-water salmonids. Seasons and depths of potentially intense interactions are diagrammed. In unstratified lakes, latitude and lake size set the stage for the thermal habitat that favors the physiology of percids in some systems. Resource partitioning, in respect to food size and time of day for foraging, is also diagrammed and appears to be important. It is argued that species interactions between other fishes and Perca and Stizostedion are greatly reduced by present patterns of resource utilization. Key words: competition, predation, resource partitioning, percid communities</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2012151057</t>
+          <t>https://openalex.org/W2004806809</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0028-3908(76)90118-0</t>
+          <t>https://doi.org/10.1121/1.381504</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Delgado et al. (1976)</t>
+          <t>Hamilton et al. (1977)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Effects of diazepam related to social hierarchy in rhesus monkeys</t>
+          <t>Combined influence of spatially uniform currents and tidally varying sound speed on acoustic propogation in the deep ocean</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Individual and social variability are factors which should be taken into consideration in the evaluation of psychoactive drugs. As a model, we investigated the effects of oral administration of diazepam in doses of 0.1, 0.3, 1.0, 3.0 and 10.0 mg/kg in rhesus monkeys, testing each animal under each dose in the same environment. The only variable was the social situation, as the animals were tested while alone and when paired with a dominant or submissive partner. Mobility was recorded by telemetry. Behaviour was recorded every 5 sec for eight 15 min sessions. Results were as follows. Mobility was similar in single and paired animals, and also in dominant and submissive monkeys. Mobility was therefore independent of the social situation lor controls. Taking of pellets delivered automatically every 30 sec decreased significantly in the following order: alone, dominant, submissive. Some behavioural categories were modified significantly depending on the social situation. Administration of 0.1–0.3 mg/kg diazepam did not produce changes in single or dominant animals, but had significant effects on the behavioural profiles of submissive monkeys. Administration of 3.0–10.0 mg/kg diazepam produced diminution of body mobility in the three situations, being more prominent in the submissive monkeys. Pellet intake also diminished. In the dominant animals, no changes appeared in locomotion, drinking, picking, or grooming. Administration of 01 mg/kg diazepam decreased aggressive acts by 50%. The natural order of dominance was not reversed even after the administration of the highest doses. Administration of diazepam to the submissive animal decreased aggressive behaviour of the dominant animal, perhaps reflecting the diminished challenge to its authority. It is concluded that submissive animals show an extreme sensitivity to diazepam, and that individual hierarchy is an important element in the behavioural effects of diazepam. Our experimental procedure should be useful for future testing of psychopharmacological agents, especially those which could improve the social adaptability of mental patients.</t>
+          <t>The effects of a combination of sound-speed and current fluctuations on propagation of a cw signal in a deep-ocean model are analyzed. The mean sound-speed structure is assumed bilinear, and the channel boundaries are horizontal. The horizontally independent sound speed oscillates with a 12-h period, while the spatially uniform currents consist of quasisteady and diurnally varying components. The total acoustic field for surface-reflected–bottom-reflected rays is investigated for dependence on time, source-receiver separation, and environmental parameters. Multipath propagation is demonstrated for larger propagation ranges, for which case the number, depths, and occurrence times of amplitude fades are shown to be very sensitive to parameter changes. Where the total field is dominated by one ray, contributions from combined sound-speed and current fluctuations to phase are investigated. In both cases, phase generally can be influenced by both sound-speed and current fluctuations, but the former more effectively influence amplitude.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2012862520</t>
+          <t>https://openalex.org/W2005363351</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/153857447601000501</t>
+          <t>https://doi.org/10.1002/1097-0142(197710)40:4&lt;1425::aid-cncr2820400411&gt;3.0.co;2-q</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ikeda et al. (1976)</t>
+          <t>Pérez et al. (1977)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Surgical Treatment of Vascular Lesions of the Spinal Cord</t>
+          <t>Radiation therapy in the definitive treatment of localized carcinoma of the prostate</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Paravertebral block and resection of upper thoracic sympathetic ganglions were performed on cases in which vascular disturbance of the spinal cord was considered partly responsible. Block was performed in 14 cases and clinical improvement was seen in 10 cases out of them while resection was considered effective in 2 out of 3 cases. The evoked EMG of patients was assumed recovery of a part of synaptic function in the ischemic cord after the block. On the other hand, the skin temperature of the lower extremity did not show considerable change and this supports the view that the restoration of clinical picture was not due to the improvement of the periphral circulation of extremities. From these observations, it would be well presumed that favorable effect of sympathectomy consists partly in the improvement of vascular disturbance of the spinal cord.</t>
+          <t>CancerVolume 40, Issue 4 p. 1425-1433 ArticleFree Access Radiation therapy in the definitive treatment of localized carcinoma of the prostate Carlos A. Perez MD, Corresponding Author Carlos A. Perez MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, MissouriDivision of Radiation Oncology, 4511 Forest Park Blvd., St. Louis, MO 63108===Search for more papers by this authorWalter Bauer MD, Walter Bauer MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, Missouri Division of Surgical Pathology, Washington University School of Medicine.Search for more papers by this authorRaul Garza MD, Raul Garza MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, Missouri Division of Surgical Pathology, Washington University School of Medicine.Search for more papers by this authorRobert K. Royce MD, Robert K. Royce MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, Missouri Division of Urology, Washington University School of Medicine, St. Louis, Missouri.Search for more papers by this author Carlos A. Perez MD, Corresponding Author Carlos A. Perez MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, MissouriDivision of Radiation Oncology, 4511 Forest Park Blvd., St. Louis, MO 63108===Search for more papers by this authorWalter Bauer MD, Walter Bauer MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, Missouri Division of Surgical Pathology, Washington University School of Medicine.Search for more papers by this authorRaul Garza MD, Raul Garza MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, Missouri Division of Surgical Pathology, Washington University School of Medicine.Search for more papers by this authorRobert K. Royce MD, Robert K. Royce MD Division of Radiation Oncology, Mallinckordt Institute of Radiology, St. Louis, Missouri Division of Urology, Washington University School of Medicine, St. Louis, Missouri.Search for more papers by this author First published: October 1977 https://doi.org/10.1002/1097-0142(197710)40:4&lt;1425::AID-CNCR2820400411&gt;3.0.CO;2-QCitations: 72 AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Abstract A progress report on the treatment of 15 patients with Stage B and 97 patients with Stage C histologically proven adenocarcinoma of the prostate shows that the cumulative absolute 5-year survival rate is approximately 60% for patients with Stage B and 42% for those with Stage C. Patients received 7000 rads to the prostate, 6000 rads to the external iliac and hypogastric pelvic nodes, and 5000 rads to the common iliac nodes; 22 MeV Betatron photons were used with progressively decreasing AP-PA fields. The local control rate is 82%. Most of the patients failing have developed distant metastases, particularly those in the poorly differentiated carcinoma group. The morbidity of this treatment is acceptable to physicians and patients; the major complications occurred in approximately 5% of patients, and none of them were fatal. The 5-year survival rates for patients with well- and moderately differentiated tumors are significantly better (50-65%) than for those with poorly differentiated tumors (15%). There was no significant difference in survival between a group of 41 patients treated with radiation alone compared with 50 patients treated with a combination of irradiation and hormonal therapy. From the data currently available, it seems that definitive radiation therapy should be adequately evaluated in the treatment of patients with carcinoma of the prostate localized to the pelvis, before hormonal therapy is instituted. In addition, the advisability of staging laparotomies must remain uncertain until the information obtained from such procedures can be directly applied to improving survival. In view of the poor prognosis and high propensity for distant dissemination in patients with poorly differentiated carcinoma of the prostate, it is felt that clinical trials are needed to evaluate the potential use of cytotoxic agents combined with pelvic irradiation as a cytoreductive agent. References 1 Anderson, K. M., and Liao, S.: Selective retention of dihydrotestosterone by prostatic nuclei. Nature 219– 277, 1968. 2 Bagshaw, M. A., Ray, G. R., Pistenma, D. A., Castellino, R. A., and Meares, E. M. Jr.,: External beam radiation therapy in primary carcinoma of the prostate. Cancer 36: 723– 728, 1975. 3 Bagshaw, M. A., Ray, G. R., Slazman, J. R. and Meares, E. J. Jr.,: Extended field radiation t</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2015018059</t>
+          <t>https://openalex.org/W2007300576</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0376-8716(76)90023-5</t>
+          <t>https://doi.org/10.1071/ea9770969</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Smart (1976)</t>
+          <t>Curll &amp; Smith (1977)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Spontaneous recovery in alcoholics: A review and analysis of the available research</t>
+          <t>Topdressing requirements of established perennial pastures with a substantial history of superphosphate use</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cet article poursuit le double objectif d’une recension des écrits et d’une mise à jour de la documentation sur le thème de la rémission sans traitement des personnes souffrant d’une consommation problématique d’alcool. Il est établi à partir d’une sélection de 26 publications parmi les 95 références recensées. Longtemps considérée comme un phénomène d’intérêt négligeable, la rémission sans traitement acquiert ses lettres de noblesse dans les pays anglo-saxons. De solides études empiriques montrent que la majorité des sujets qui ont une consommation problématique ne consultent jamais mais qu’une importante partie d’entre eux arrive malgré tout à atteindre une rémission. Ce phénomène permet de constater que les trajectoires de changement sont multiples, hétérogènes, et peuvent se situer en dehors de l’utilisation des services de réadaptation. D’importantes lacunes demeurent au niveau de l’opérationnalisation du concept et des méthodes qui permettent de dépister cette population cachée. Néanmoins, les principaux facteurs explicatifs font ressortir le déterminisme de l’environnement et les conséquences négatives de la consommation, notamment sur la santé et les ressources financières.This article pursues the double goal of a review of the literature and of an update of the documentation on remission without treatment for individuals with dual diagnosis disorders. It has been elaborated from a selection of 26 publications among the 95 selected listed references. The difficulties in the responsibility of taking charge of patients, the increase in demand, the low rate of success of the treatment are all elements that made natural recovery seem an impossible phenomenon. This article explores the items related to natural recovery and provides the groundwork for a better definition of this phenomenon : must one regard natural recovery as a reduction in the volume of alcohol consumed, as a reduction in the clinical signs of alcohol disorders ? What is the time required before one can assume the stability of the phenomenon and the avoidance of relapses ? These questions must be considered as empirical studies show that the majority of people with a problematic use of alcohol never consult a physician, but that a substantial part does reach a state of remission. How can we understand this data ? The studies show that remission without treatment, observed on a range of serious disorders related to alcohol, happens more often with people whose problems are less serious and who have intrinsic resources. The studies show that rather than a formal model of abstinence, natural recovery may be a pathway out of addiction in which certain forms of consumption remain present (except in cases of severe problematic use where complete abstinence is mandatory). This data thus questions the capacity of reaching these populations and also questions the current objectives of treatments. A compilation of several studies has allowed us to propose an estimate of the rate of prevalence of remission without treatment. Finally, a summary of the principal instigating factors and of the duration of remissions based on quantitative and qualitative studies is proposed as well as a comparison with other substances. In brief, this phenomenon shows alcoholism in a different light. Pathways of change are multiple and heterogeneous and may be found without calling for rehabilitation services. However, important gaps remain on the operational level of the concept and on the methods to reach this hidden population. Nevertheless, the main explanatory factors emphasize the determinism of the environment and more particularly the negative consequences of consumption on health and on financial resources.</t>
+          <t>Topdressing requirements of grazed perennial pastures with histories of substantial super phosphate use were assessed from 25 field trials in the high rainfall area of the Southern Slopes of New South Wales during 1972 and 1973. Yield responses from an application of superphosphate were related to a number of site variables including yield of unsupered pasture, total past superphosphate application, 'time since last application', available soil phosphate determined by three extractant methods, the phosphate sorption capacity of the soil, soil buffering capacity, and plant phosphate. Significant reponses were recorded on 16. of the 25 sites but no single site variable adequately predicted these responses. Analysis also revealed no significant change in the proportion of responsive and nonresponsive sites when these were classified as low, medium or high on the basis of extractable soil phosphate. Multiple regression analysis using the best combination of site variables to predict yield of unsupered pasture, yield increase from superphosphate and yield increase as a percentage of unsupered yield, was similarly unsuccessfuI ; only 3ZI4 and 44 per cent of variation respectively, was accounted for. These results suggest that the direct approach of applying a superphosphate strip and assessing the pasture's response is the best practical method currently available for deciding if a paddock with a substantial superphosphate history requires topdressing.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016112322</t>
+          <t>https://openalex.org/W2009493882</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/p29760000258</t>
+          <t>https://doi.org/10.1353/pbm.1977.0000</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Halton et al. (1976)</t>
+          <t>Shen-Miller (1977)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cyclopropa-arenium cations. Part II. Carbon-13 nuclear magnetic resonance spectra of 1-halogenocyclopropabenzenium cations and their 1,1-dihalogeno-precursors</t>
+          <t>Harvesting the Sun: A Biological Approach</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The 13C n.m.r. spectra of 1-fluorocyclopropabenzenium cation (9), 1-chloro-2, 5-diphenylcyclopropabenzenium cation (12), 1-fluoro-2, 5-diphenylcyclopropabenzenium cation (13), and their 1, 1-dihalogeno-precursors have been measured and the chemical shift differences between the neutral and charged species have been used to estimate the positive charge distributions. These empirical charge density distributions are in qualitative agreement with SCC–EH MO calculations for the parent cyclopropabenzenium ion (8). Only a relatively small amount of charge is delocalised into the phenyl substituents of (12) and (13). For (9) and (13) the significant increase in the values of the 13C–19F coupling constants and the reduced total downfield shifts of their carbon atoms compared with (12), indicate a substantial withdrawal of charge by back bonding from the fluorine atom.</t>
+          <t>HARVESTING THE SUN: A BIOLOGICAL APPROACH J. SHEN-MILLER* And pluck till time and times are done . . . The golden apples of the sun. [William Butler Yeats, "The Song of Wandering Aengus"] The exploitation of natural reserves by man and the squandering of energy in our daily living will soon leave an earth barren of riches. On the day when we use up our last drop of oil, what will the landscape be? Will it be fields of luscious green trees and plants, or will it be a bleak scene of nuclear plants? A happy medium would be a combination, and now is the time for an interdisciplinary collaboration between biologists and engineers to seek and apply other resources, resources such as the energy ofthe sun, in fuel production. The annual radiation that reaches the earth's surface is 3 x 1021 kj, which is four orders of magnitude greater than the total global energy consumption of 1970 [I]. The United States seems to see no great urgency in developing this renewable resource, but I hope this view will change. It cannot be emphasized enough that this is the time to give this matter a high priority and substantial funding. According to one estimate, the times. for average depletion rate of global coal, oil, and gas reserves are 150, 50, and 49 yr, respectively [2]. Judging from the demand for energy, with the assumption ofan increasing consumption per capita, the fossil fuel reserves of the United States have a depletion time of 500 yr [3, 4]. Nuclear power is most likely the major practical hope, but the development of reactors and other energy sources (geothermal, wind, etc.) will take time, and alternate approaches are just as essential for supplementing energy needs. (Even the diehard nuclear enthusiasts do not wish to put all our eggs in the nuclear basket.) Tapping of solar energy for fuel is just such an alternative. This article *I received support for this work from the U.S. Energy Research and Development Administration as a member of the Division of Biological and Medical Research, Argonne National Laboratory, Argonne, Illinois 60439. I am grateful to Dr. D. Miller, Total Systems , for stimulating discussions and for furnishing some ofthe current references, and to Drs.J. F. Thomson, Argonne National Laboratory, and R. S. Bandurski andJ. W. Hanover of Michigan State University for critical comments. Perspectives in Biobgy and Medicine ¦ Autumn 1977 | 77 will cover only the biological harvest from the sun; photoelectric and photochemical approaches are other means of harvest [5, 6]. Green plants, converting energy from the sun, synthesize cellulose, which is the most abundant organic compound on earth; about 1011 tonnes (1 tonne is equivalent to 2,204 lb, or 1.102 ton) are produced annually [I]. Cellulose is a clean fuel which does not add accumulated Co2, sulfur, and radionuclides into the atmosphere [7, 8], and it is a renewable resource. The major sources of cellulose come from agricultural , forest, and aquatic production, most of which are disseminated into agricultural, industrial, and municipal wastes. The contribution of individual sources ofcellulosic waste is seemingly minute, a fraction ofa percent of the total energy demand; however, adding them together could amount to 8% ofthe total estimated U.S. energy demand for 2000 and a monetary value of $48.3 billion (assuming an average retail cost for 2000 to be $2.84/10* kj [9]). The above estimate is based on the cellulosic waste alone. If large-scale "energy farming" is employed and research (basic and applied) in this area receives greater support, the increase in the supply of cellulose will be manyfold greater. Although nuclear power plants play a dominant role in fuel development, presently they contribute only 3% of the total energy supply in the United States [9]. In this article, I will discuss the various cellulosic sources, gross fuel production from each source, some ofthe fuel production processes and problems, and the necessary areas of biological research. Cellulosic Sources AGRICULTURAL Crop and crop residues constitute a sizable amount of the total cellulosic material generated each year. Among the high-yield crops, in terms of biomass production, are corn, sugarcane, sorghum, etc. The corn crop yields about 14...</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018452045</t>
+          <t>https://openalex.org/W2012115748</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0002-1571(76)90040-6</t>
+          <t>https://doi.org/10.1103/physrevb.15.3906</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Rose et al. (1976)</t>
+          <t>Dean et al. (1977)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Water transport from soil through plant to atmosphere: a lumped-parameter model</t>
+          <t>Potential-dependent electron and hole&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mi&gt;g&lt;/mml:mi&gt;&lt;/mml:math&gt;values and quenched diamagnetism in GaP. I. Experimental results and properties of the donor states</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>A lumped-parameter model has been developed which allows the simulation of water transport from soil to atmosphere through a single plant or a crop. This model accepts the fact that there is current uncertainty as to whether the dominant liquid-phase resistance to water lies in the soil or the plant, and no assumptions are made on this question. The model is based on the Ohm's law analogue and on two experimentally derived functions. The model structure is thought to be generally applicable although these two empirical relationships are derived from an experiment with cotton plants in pots. The model may be suitable for the simulation of transpiration on a daily basis in a variety of soil and atmospheric environments, and also within-daily changes in transpiration and water potentials. One such simulation is compared with those of other models, and with other experiments.</t>
+          <t>In this paper we present the results of an investigation of the radiative recombination of excitons bound to neutral S, Se, and Te donors in GaP in external magnetic fields of up to 16.5 T and, in one case, 18 T. The complete set of spectroscopic $g$ values for the initial bound exciton and the final donor state and the different diamagnetic effects are evaluated for all three donors. This is the first report of diamagnetic effects in GaP. A diamagnetic shift and a splitting are observed, both anomalously small. A small tendency for an increase in the diamagnetic coefficients of the principal bound-exciton transition which leaves the donor in its ground state and a more dramatic increase for transitions to donor excited states with increasing quantum number are established. It is suggested that the principal two-electron lines all involve transitions to the $s({A}_{1})$ donor excited states. This new identification provides a more plausible position of the series limit ${E}_{\mathrm{lim}}$ of the donor than hitherto. The electronic ${g}_{e}$ value of the donor turns out to be equal to 2.00, independent of the chemical nature of the donor. This value agrees with the value derived from ESR experiments. A recent supposition, that in general there might be a difference between luminescence and ESR ${g}_{e}$ values is disproved. The isotropic hole $g$ value is observed to decrease with increasing localization of the hole due to changes in the impurity central cell potential. These effects are given a detailed interpretation in the following paper.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026912362</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/bjo.60.4.256</t>
+          <t>https://openalex.org/W2021422712</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Anderson &amp; Fuglsang (1976)</t>
+          <t>Rohleder (1977)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Droplet degeneration of the cornea in North Cameroon. Prevalence and clinical appearances.</t>
+          <t>Lake Bosumtwi, Ashanti</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The prevalence of droplet degeneration of the cornea in a defined population of 517 persons in north Cameroon was similar in males and females, but severe changes were commoner in elderly men. Most cases showed only mild changes of granularity and droplet formation in Bowman's zone, but they were sometimes widespread. More severe changes were seen in only nine patients. The clinical appearances are compared with those described from other parts of the world. In support of the aetiological role of direct sunlight, droplet degeneration was much more prevalent in the savanna than in the rain-forest in Cameroon. The condition ranges in severity from very mild to very severe, but difficulties in differential diagnosis, particularly in advanced cases, make it doubtful whether the same basic condition is being described in all cases. These doubts will be resolved only by properly conducted epidemiological studies in different parts of the world.</t>
+          <t>THE following paper was written during six months' reconnaissance and prospecting work in the immediate vicinity of Lake Bosumtwi, which lies approximately 20 miles south-east of Kumasi, the capital of Ashanti, at an altitude of approximately 350 feet above sea-level. The shape is roughly circular with an average djameter of 5 miles at the lake surface and 6I2 miles at the caldera rim which surrounds the lake depression. The inner slopes of the latter, rising up to I2oo feet above lake-level, are very steep, whereas the outer slopes are gentle and at times scarcely recognizable when approaching the lake from the neighbouring country. As the name derives from obosom meaning God and twe the name of the lake spirit, the spelling Bosomtwe appears to be more correct than the usual Bosomtwi.I The lake is an object of native superstition. Any effort to solve the problem of origin of this mysterious lake is faced by exceptional obstacles. The lake is still within the dense forest belt of Ashanti, accessible only along native paths and hunters' tracks, which are quite numerous, and occasionally by a stream-bed. If one wishes to examine beyond this, one is forced to cut a way through the thick bush, and even then the soil is covered with decaying vegetation and undergrowth. The slopes of the depression are so steep that after a heavy rainfall it is neither possible to climb down nor up, and unfortunately the lake depression is known to be a locality of exceptionally frequent and heavy rainfall. The geology and character of the problem are extremely complicated. With the exception of practically recent clays and very scanty, relatively young agglomerates, the only rocks in the vicinity are of Birrimian (precambrian) age. But these comprise a whole petrological collection: sedimentary, metamorphic and igneous rocks; of the latter intrusive, hypabyssal and extrusive, acid, intermediate and basic, effusive and explosive types. Of the breccias some are possibly of tectonic origin. But what of all this is actually connected with the origin of the lake? The whole earth's history lies between. Rocks of Birrimian age can look as fresh as if they were recent, whereas nearly all types of quite young rocks may under the highly tropical conditions of West Africa change soon into lateritic or bauxitic alteration products. Previous work on the subject is scanty. In spite of very little concrete evidence, three theories have been put forward: the meteoric theory; origin of the basin through subsidence; volcanic origin. The meteorite theory originates from Malcolm Maclaren (i), and since the date of his publication (I93I) meteoric craters have become known from all parts of the world (2). At one time two points seemed strongly in favour of this theory: the apparent absence of any young volcanic material or other geological features explaining this sudden deep depression, and the fact that this lake is an isolated occurrence incomparable with any other geological</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2027200459</t>
+          <t>https://openalex.org/W2022161539</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/443317</t>
+          <t>https://doi.org/10.1039/dt9770000565</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sprague &amp; Gadow (1976)</t>
+          <t>Ainscough &amp; Brodie (1977)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>The Role of the Teacher in Drug Treatment</t>
+          <t>Sulphur-ligand–metal complexes. Part 7. The interaction of some diphosphine dichalcogenides and tetra-alkylthiuram disulphides with halogens and some first-row transition-metal salts</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessThe Role of the Teacher in Drug TreatmentRobert L. Sprague and Kenneth D. GadowRobert L. Sprague Search for more articles by this author and Kenneth D. Gadow Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Volume 85, Number 1Nov., 1976The Hyperactive Child and Stimulant Drugs: Definitions, Diagnosis, and Directives Article DOIhttps://doi.org/10.1086/443317 Views: 1Total views on this site Citations: 42Citations are reported from Crossref Journal History This article was published in The School Review (1893-1979), which is continued by the American Journal of Education (1979-present). Copyright 1976 The University of ChicagoPDF download Crossref reports the following articles citing this article:My T. Lien, John S. Carlson, Shana Hunter-Oehmke, Kelly A. Knapp A Pilot Investigation of Teachers' Perceptions of Psychotropic Drug Use in Schools, Journal of Attention Disorders 11, no.22 (May 2007): 172–177.https://doi.org/10.1177/1087054707300992Michel Dugas, Manuel-Pierre Bouvard 168. Les chimiothérapies, (Sep 2004): 2905–2937.https://doi.org/10.3917/puf.diatk.2004.01.2903Cynthia R. Ellis, Nirbhay N. Singh Psychopharmacological Approaches, (Jan 1999): 199–216.https://doi.org/10.1007/978-1-4615-4755-6_11Kenneth D. Gadow Prevalence of Drug Therapy, (Jan 1999): 51–67.https://doi.org/10.1007/978-1-4899-0086-9_3Nirbhay N. Singh, Donald P. Oswald, Cynthia R. Ellis Mental Retardation, (Jan 1998): 91–116.https://doi.org/10.1007/978-1-4615-5905-4_4EDITH E. NOLAN, KENNETH D. GADOW Children With ADHD and Tic Disorder and Their Classmates: Behavioral Normalization With Methylphenidate, Journal of the American Academy of Child &amp; Adolescent Psychiatry 36, no.55 (May 1997): 597–604.https://doi.org/10.1097/00004583-199705000-00009Rosemary Tannock, Russell Schachar, Gordon Logan Methylphenidate and cognitive flexibility: Dissociated dose effects in hyperactive children, Journal of Abnormal Child Psychology 23, no.22 (Apr 1995): 235–266.https://doi.org/10.1007/BF01447091Kenneth D. Gadow Prevalence of Drug Therapy, (Jan 1993): 57–74.https://doi.org/10.1007/978-1-4615-2884-5_3Steven M. Alessandri, Kathleen Schramm Effects of dextroamphetamine on the cognitive and social play of a preschooler with ADHD, Journal of the American Academy of Child &amp; Adolescent Psychiatry 30, no.55 (Sep 1991): 768–772.https://doi.org/10.1016/S0890-8567(10)80013-9James M. Swanson, Dennis Cantwell, Marc Lerner, Keith McBurnett, Greg Hanna Effects of Stimulant Medication on Learning in Children with ADHD, Journal of Learning Disabilities 24, no.44 (Aug 2016): 219–230.https://doi.org/10.1177/002221949102400406Nirbhay N. Singh, Michael H. Epstein, Jerry Luebke, Yadhu N. Singh Psychopharmacological Intervention I, The Journal of Special Education 24, no.33 (Aug 2016): 283–295.https://doi.org/10.1177/002246699002400303Kenneth D. Gadow Attention Deficit Disorder and Hyperactivity, (Jan 1988): 215–247.https://doi.org/10.1007/978-1-4613-0983-3_10Michael H. Epstein, Ellen Olinger Use of Medication in School Programs for Behaviorally Disordered Pupils, Behavioral Disorders 12, no.22 (Feb 2017): 138–145.https://doi.org/10.1177/019874298701200203P. L. Holborow, P. S. Berry Hyperactivity and Learning Difficulties, Journal of Learning Disabilities 19, no.77 (Aug 2016): 426–431.https://doi.org/10.1177/002221948601900713Stephen J. Bagnato, Richard E. Mattison, Susan Dickerson Mayes Diagnostic Assessment of Affective and Behaviour Disorders in Children, School Psychology International 7, no.11 (Jan 1986): 40–54.https://doi.org/10.1177/014303438600700106C.T. Gualtieri, R.E. Hicks Neuropharmacology of Methylphenidate and a Neural Substrate for Childhood Hyperactivity, Psychiatric Clinics of North America 8, no.44 (Dec 1985): 875–892.https://doi.org/10.1016/S0193-953X(18)30661-0Lynda W. Slimmer, Ronald T. Brown Parents' Decision-Making Process in Medication Administration for Control of Hyperactivity, Journal of School Health 55, no.66 (Aug 1985): 221–225.https://doi.org/10.1111/j.1746-1561.1985.tb04125.xP.L. Holborow, P. Berry, J. Elkins Prevalence of Hyperkinesis, Journal of Learning Disabilities 17, no.77 (Aug 2016): 411–417.https://doi.org/10.1177/002221948401700706Ronald T. Brown, Lynda W. Slimmer, Martha Ellen Wynne How Much Stimulant Medication is Appropriate For Hyperactive School Children?, Journal of School Health 54, no.33 (Mar 1984): 128–130.https://doi.org/10.1111/j.1746-1561.1984.tb08787.xDaniel J. Safer Broader clinical considerations in child psychopharmacology practice, Comprehensive Psychiatry 24, no.66 (Nov 1983): 567–573.https://doi.org/10.1016/0010-440X(83)90025-1Daniel J. Safer, John M. Krager Trends in Medication Treatment of Hyperactive School Children, Clinical Pediatrics 22, no.77 (Jul 2016): 500–504.https://doi.org/10.1177/000992288302200707Kenneth D</t>
+          <t>Iodine interacts with R2P(X)·[CH2]n·(X)PR2[R = Ph, X = S, n= 1 (L′); R = Ph, X = S, n= 2 (L2); or R = Me, X = S, n= O (L4)] to give charge-transfer adducts of the type L·2l2 or L·l2, whereas corresponding reactions with R2N·CS·S2·CS·NR2[R = Me (L5) or Et (L6)] give products of the type L′·l6 in which L′ is oxidised probablyto give a dication with the cyclised structure [graphic omitted]2+(A)(L8, R = Et; L9, R = Me) with two [l3]– as counter ions. The interactions of L′ with FeCl3, CO[BF4]2· 6H2O and CoCl2·6H2O (all in excess) in diethyl ether or acetone–chloroform also give products containing the species (A) in the following complexes; [L9][FeCl4]2, [L8][FeCl4]2, [L9][BF4]2 and [L9][CoCl4] as well as dithiocarbamato-complexes. Dimethylcarbamoyi dimethylthio-carbamoyl disulphide and bis(diethyldithiocarbamylthio)methane with FeCl3 are each thought to produce cyclised dications similar to (A). With the appropriate copper(II) salts (in excess) and L′ in acetone, the copper(III) derivatives [CuCl2(S2CNR2)] and [Cu(S2CNR2)2][BF4](R = Me or Et) have been isolated. In the first two cases when the solvent is changed to chloroform–ethanol the copper(II) derivatives [CuCl(S2CNR2)] are found. With Ni[BF4]2·6H2O and NiCl2·6H2O in excess and acetone as solvent, L′ gives [Ni(S2CNMe2)3]X (X = BF4– or Cl–), the oxidation state of nickel probably being IV, while excess of Fe[ClO4]2·6H2O gives the known iron(IV) derivative [Fe(S2CNMe2)3][ClO4].</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2030981369</t>
+          <t>https://openalex.org/W2025587979</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/bjs.1800631221</t>
+          <t>https://doi.org/10.1016/s0022-2011(77)80052-9</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Gurry &amp; Rb (1976)</t>
+          <t>Entwistle &amp; Adams (1977)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>An elemental diet as preoperative preparation of the colon</t>
+          <t>Prolonged Retention of Infectivity in the Nuclear Polyhedrosis Virus of Gilpinia hercyniae (Hymenoptera, Diprionidae) on Foliage of Spruce Species</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>In a study comparing patients prepared for colonic surgery with an elemental diet (Vivonex) with a control group there was no significant difference in incidence of wound infection or other complications between groups. Furthermore, there was no change in the population levels of the colonic microflora nor were the numbers of species decreased after 2-4 days on the diet. Although in most cases aiding in the mechanical preparation of the colon, the elemental diet has not been shown to confer any other advantage.</t>
+          <t>Insect baculoviruses can survive between epidemics as infectious particles external to the host. Many pathogens persist in reservoirs, i.e., microhabitats where survival is enhanced, for example due to protection from the degrading effects of UV irradiation. However, the probability of infecting new susceptible hosts is usually reduced. Persistence of pathogens and their movement in and out of reservoirs is an important, albeit little understood, aspect of insect pathogen ecology. This study investigated interactions between the behaviour of infected insect hosts, virus distribution and plant species on the persistence of the winter moth (Operophtera brumata) nucleopolyhedrovirus. Habitat influenced the persistence of infectious baculovirus in the field: virus on Sitka spruce (Picea sitchensis) and oak (Quercus robur) in forested areas retained more infectivity than virus on heather (Calluna vulgaris) in an unshaded habitat. Plant species per se did not directly affect the persistence of virus on the foliage of potted seedlings. Virally infected insects had altered behaviour and moved down plants relative to control insects, whereas in other systems larvae show height-seeking behaviour. Consequently, the majority of virus particles were distributed on plant stems. In two experiments (one using winter moth NPV and one Mamestra brassicae NPV) virus persisted better on plant stems relative to foliage. Neonate larvae were shown to be able to acquire infections from tree stems contaminated with a low level of virus. These data suggest that plant stems may be important reservoirs for between-year persistence of this pathogen. The observed virus-induced changes in host behaviour in winter moth could enhance the viral persistence by increasing the deposition of occlusion bodies in these reservoirs.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033417675</t>
+          <t>https://openalex.org/W2028436701</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1210/jcem-42-5-958</t>
+          <t>https://doi.org/10.1016/0093-691x(77)90161-3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Dufau et al. (1976)</t>
+          <t>Brown‐Woodman &amp; White (1977)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>In&lt;i&gt;Vitro&lt;/i&gt;Bioassay of LH in Human Serum: The Rat Interstitial Cell Testosterone (RICT) Assay</t>
+          <t>Investigation of the spermicidal action of quinine and emetine</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A sensitive bioassay for serum LH and hCG has been developed by utilization of the testosterone response of collagenase-dispersed rat Leydig cells to gonadotropic stimulation in vitro. Testosterone production by dispersed interstitial cells is stimulated by human, ovine, bovine, porcine, rat and rabbit LH, and by hCG and pregnant mare serum gonadotropin. The rat testis interstitial cell assay gives parallel dose-response curves for all steroidogenic gonadotropins tested, and thus permits cross-species comparison of the intrinsic biological activities of native and modified gonadotropins. The sensitivity of the rat interstitial cell bioassay is equal to or higher than that of radioimmunoassay, with detection limits of 50 μU for hMG and 20 μU for hCG. The optimum conditions for bioassay of serum gonadotropins were provided by incubation of dispersed interstitial cells in the presence of 1-methyl 3-isobutyl xanthine with the addition of gonadotropin-free serum or 5% BSA to ensure a constant proportion of serum protein in all assay samples and standards. Assays performed under these conditions gave parallel dose-response curves and identical maximum responses to both standards and serum samples containing endogenous LH or hCG. All responses to human gonadotropin standards and serum samples in the bioassay were abolished by incubation in the presence of antisera to LH or hCG. This sensitive and specific method permits bioassay of basal levels of LH in male and female serum, and of tlie higher gonadotropin levels in postmenopausal and pregnant subjects after appropriate dilution of the serum samples. For normal men and women, serum samples of 25–100 fA are employed, while volumes of 1–20 μl are adequate for assay of LH in postmenopausal or hypogonadal subjects. Serum LH values in hypopituitary and oral contraceptive-treated subjects were usually undetectable, while LH levels in normal subjects were always measurable with good precision. The within-assay coefficient of variation for measurement of a normal male plasma pool (30 mU/inl) was ±10%, and the between-assay variation was ±15%. The precision of the assay (A) was 0.035 ± 0.015 (n = 72). In 42 normal females, the bio:immuno (B:I) ratio for serum LH was 1.20 ± 0.40 (SD), and no consistent change in ratio was observed throughout the menstrual cycle. By contrast, significantly higher B:I ratios were observed in normal males (2.5 ± 0.4), postmenopausal females (2.6 ± 0.6) and patients with Turner's syndrome (2.6 ± 0.6). These findings suggest that the LH circulating in normal female plasma is similar in biological and immunological activity to hMG, whereas the LH present in normal male plasma and in states of increased gonadotropin secretion has a relatively higher biological activity. The rat interstitial cell bioassay provides for the first time a practical and precise assay for measurement of the biologically active LH levels in serum of normal human subjects.</t>
+          <t>Some suitably substituted acrylophenones, quinolines and dithiocarbamate were synthesized as new generation, non-detergent spermicides and were studied for their mechanism of action in comparison with various known spermicides belonging to several different classes of chemical compound. Nonoxynol-9, benzalkonium chloride, Sapindus saponins, verapamil, emetine and tartaric acid were used as reference molecules to study the effect of new spermicides on human sperm motility parameters (using computer-assisted semen analyzer), plasma membrane integrity, lipid peroxidation and defense system against reactive oxygen species (ROS). Results have indicated that sperm plasma membrane remains the primary site of action of most of the spermicides, though the effect may be predominantly on the physiological integrity rather than the structural integrity in case of the new compounds. Lipid peroxidation may play an important role in disrupting sperm membrane physiology that may or may not be accompanied with a detrimental effect on the defense system of the human spermatozoa against the ROS.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033548822</t>
+          <t>https://openalex.org/W2029141707</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/zna-1976-3-401</t>
+          <t>https://doi.org/10.1353/hph.2008.0561</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Creswell et al. (1976)</t>
+          <t>Johnson (1977)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Detection of the Millimeter Wave Spectrum of Hydrogen Isocyanide, HNC&lt;sup&gt;1,2&lt;/sup&gt;</t>
+          <t>The Politics of Motion: The World of Thomas Hobbes (review)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>The rotational spectra of three isotopic species of HNC have been observed in the millimeter wave region. In the case of the parent species, H 14 N 12 C, our measurement of the J = 1←0 transition unequivocally confirms the assignment of the U90.7 interstellar line to HNC. For the parent species the molecular constants obtained are B 0 = 45332.005(40) MHz and D 0 = 0.1019(50) MHz. Structural parameters derived from the ground state rotational constants of this linear molecule are r(H-N) = 0.987 (3) Å and r(N-C) =1.171 (4) Å.</t>
+          <t>226 HISTORY OF PHILOSOPHY This kind of awkwardness unfortunately appears in the translations of many of the letters, especially (and inevitably) in the more formal ones. Perhaps the most successful translations are those of the series of humorous and familiar letters which Erasmus wrote to his closest friend Andrea Ammonio during 1511 and 1512. These, less encumbered with the conventional effusions of the more formal letters, read with much of the vivacity of the originals. It is perhaps unfair to criticize a translation which attempts the impossible: to express convincingly and naturally, and at the same time accurately, a style which we now find entirely foreign to us. Those who want to read and evaluate Erasmus as a literary figure (the role which he himself wanted most of all) will have to go to the Latin text; but for those whose interest in him is philosophical, theological or historical, this volume, its predecessor, and, one hopes, its successors will be indispensable. A final note: the book itself is beautifully printed and refreshingly free of misprints. I noted only one error: "Sympleades" for Symplegades on page 62. LINDAGARDINERJANIK Wellesley College The Politics of Motion: The World of Thomas Hobbes. By Thomas A. Spragens, Jr. (Lexington : The University Press of Kentucky, 1973. Pp. 224. $7.75) Modern commentators on Hobbes have tended to play king's men to his Humpty-Dumpty. Finding his self-proclaimed system a jumble of parts they could not put together, they set about tidying up the mess, throwing aside the indigestible-lookingparts and seeing what might be cooked up from the rest. These cleverly performed and occasionally enlightened efforts have, unfortunately, resulted in nearly as many Hobbeses as there are king's men. The guiding impulse of most of these synthetic reconstructive attempts has been to put together a Hobbes sufficiently modern to be usefully applied to some twentieth-century concern as perceived by the individual interpretor. Hobbes's own clearly stated intentions have been blithely ignored and, needless to say, the historical Hobbes all but lost in the scramble. Standing nearly alone against this tendency has been J. W. N. Watkins with his excellent study Hobbes's System of Ideas. Add now Spragens. As his title announces, Spragens aims to connect the very endpoints of Hobbes's system, namely, motion, where the analytic phase of Hobbes's metaphysical method (if I may put it so) comes to rest, and politics, the crown point of the synthetic phase. Spragens approaches this task, difficult enough in itself, by simultaneously undertaking to resolve the subtle question of Hobbes's relationship to Aristotle. Interestingly , the outcome is considerable enlightenment on both matters. A number of Hobbes scholars have commented on a more positive influence of Aristotelian ideas on Hobbes than is suggested by his unfailingly hostile remarks about Aristotle. But with the exception of Strauss's claim that Hobbes was influenced by the Rhetoric, no careful attempt has been made to bear this out. Certainly no systematic one; and "systematic," Spragens would insist, is precisely the right word. His argument is that Hobbes launches his attack on certain substantive Aristotelian concepts from a base camp squarely in the center of a whole field of Aristotelian metaphysical and epistemological principles. These can be expressed, "rather sketchily" as Spragens says, in six propositions: 1. The created order of the world may be designated by the term nature. 2. Nature is a unified whole, with the same fundamental principles operative throughout. 3. Man himself is a part of nature.... 4. The constituents of nature are a) change or motion, b) substance, or that which remains constant through change, c) accidents, or the perishable attributes of substance.... 5. Methodologically,one must understand nature by looking at its simplestelements, primary conditions and first principles. 6. Among these first principles, the nature of motion is of peculiar importance, for it must be understood before nature can be understood. (Pp. 46-47). BOOK REVIEWS 227 In the Polanyian terms which Spragens uses as part of his heuristic arsenal, these propositions form for Hobbes a tacit background of assumptions on which he relies while offering radically new answers to the substantive questions on which his attention is focused...</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033836464</t>
+          <t>https://openalex.org/W2029205115</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1095-8649.1976.tb04703.x</t>
+          <t>https://doi.org/10.1063/1.434669</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Smith &amp; Ramos (1976)</t>
+          <t>Ben‐Naim (1977)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Occult haemoglobin in fish skin mucus as an indicator of early stress</t>
+          <t>Inversion of the Kirkwood–Buff theory of solutions: Application to the water–ethanol system</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Early induced stress may result in the release of free haemoglobin into the skin mucus of teleostean fishes. If this were the case, it could be indicated quickly and simply by the colour change of a commercially available haemoglobin test strip. Preliminary tests on Mugil cephalus (grey mullet) encouraged more extensive investigations with Chanos chanos (milkfish), Caranx ignobilis (papio), Albula vulpes (bonefish), and Chaetodon miliaris (butterfly fish). The results indicated that unstressed individuals of these species have no detectable haemoglobin in their skin mucus but, within 2–4 min, the pigment will appear in occult amounts if stress is applied. Additional studies confirmed that it was haemoglobin and no other possible contaminants in the mucus which caused the colour change of the test strip. The technique is simple and quick, and is itself harmless to the fish. It is of immediate potential value to fish culturists for the detection of early stress conditions. Efforts can then be made to lessen or remove the stress conditions before debility and possibly overt disease take over. A further application of the technique may be the identification of individuals genetically better able to resist disease.</t>
+          <t>A general procedure is outlined whereby experimental data such as partial molar volumes, isothermal compressibilities, and partial vapor pressures may be processed to obtain information on the extent of the affinity between two species in a mixture of two (or more) components. A particular example of the water–ethanol system is processed in this manner to obtain the quantities Gαβ which are integrals over the pair correlation functions between two species α and β. This information is relevant to several topics of interest in the field of aqueous solutions, such as the solvation of solutes, hydrophobic interactions, and structural changes in the solvent brought by the addition of solutes to water. More generally it may be used to characterize the properties of various mixtures on a molecular level.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033862837</t>
+          <t>https://openalex.org/W2029367523</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/260537</t>
+          <t>https://doi.org/10.1016/0005-2760(77)90239-9</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ben-Porath (1976)</t>
+          <t>Mitropoulos &amp; Venkatesan (1977)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Fertility Response to Child Mortality: Micro Data from Israel</t>
+          <t>The influence of cholesterol on the activity, on the isothermic kinetics and on the temperature-induced kinetics of 3-hydroxy-3-methylglutaryl coenzyme a reductase</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Previous articleNext article No AccessPart II: Labor Supply and the FamilyFertility Response to Child Mortality: Micro Data from IsraelYoram Ben-PorathYoram Ben-Porath Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 84, Number 4, Part 2Aug., 1976Part 2: Essays in Labor Economics in Honor of H. Gregg Lewis Article DOIhttps://doi.org/10.1086/260537 Views: 25Total views on this site Citations: 80Citations are reported from Crossref Copyright 1976 The University of ChicagoPDF download Crossref reports the following articles citing this article:Fang Xia Infant Mortality and Desired Fertility: The Case of the Free Health Care Initiative in Sierra Leone, The Journal of Development Studies 58, no.1010 (Jun 2022): 2001–2020.https://doi.org/10.1080/00220388.2022.2081501Javier Santiago Ortiz-Correa, Ariel Dinar Civil war's impact on the environment and on access to water and sanitation services: the case of Colombia, Sustainable Water Resources Management 8, no.55 (Aug 2022).https://doi.org/10.1007/s40899-022-00718-wPaulino Font Gilabert From Daughters to Mothers: Fertility, Schooling, and Upward Human Capital Spillovers, SSRN Electronic Journal 1 (Jan 2021).https://doi.org/10.2139/ssrn.3987986Juan Pimentel, Umaira Ansari, Khalid Omer, Yagana Gidado, Muhd Chadi Baba, Neil Andersson, Anne Cockcroft Factors associated with short birth interval in low- and middle-income countries: a systematic review, BMC Pregnancy and Childbirth 20, no.11 (Mar 2020).https://doi.org/10.1186/s12884-020-2852-zJeffrey C. Schiman, Robert Kaestner, Anthony T. Lo Sasso Infant mortality and adult wellbeing: Evidence from wartime Britain, Labour Economics 60 (Oct 2019): 12–29.https://doi.org/10.1016/j.labeco.2019.05.001Kati Kraehnert, Tilman Brück, Michele Di Maio, Roberto Nisticò The Effects of Conflict on Fertility: Evidence From the Genocide in Rwanda, Demography 56, no.33 (May 2019): 935–968.https://doi.org/10.1007/s13524-019-00780-8Lili Vargha, Gretchen Donehower The Quantity‐Quality Tradeoff: A Cross‐Country Comparison of Market and Nonmarket Investments per Child in Relation to Fertility, Population and Development Review 45, no.22 (Apr 2019): 321–350.https://doi.org/10.1111/padr.12245Daniel J. Hruschka, Rebecca Sear, Joseph Hackman, Alexandria Drake Worldwide fertility declines do not rely on stopping at ideal parities, Population Studies 73, no.11 (Oct 2018): 1–17.https://doi.org/10.1080/00324728.2018.1513164Arthur van Soest, Unnati Rani Saha, Bolajoko O. Olusanya Relationships between infant mortality, birth spacing and fertility in Matlab, Bangladesh, PLOS ONE 13, no.44 (Apr 2018): e0195940.https://doi.org/10.1371/journal.pone.0195940Damian Clarke CHILDREN AND THEIR PARENTS: A REVIEW OF FERTILITY AND CAUSALITY, Journal of Economic Surveys 32, no.22 (Apr 2017): 518–540.https://doi.org/10.1111/joes.12202Ufuk Akcigit Economic Growth: The Past, the Present, and the Future, Journal of Political Economy 125, no.66 (Dec 2017): 1736–1747.https://doi.org/10.1086/694617Fernando Alvarez Monetary Economics, Journal of Political Economy 125, no.66 (Dec 2017): 1825–1830.https://doi.org/10.1086/694619Stephane Bonhomme and Azeem M. Shaikh Keeping the ECON in Econometrics: (Micro-)Econometrics in the Journal of Political Economy, Journal of Political Economy 125, no.66 (Dec 2017): 1846–1853.https://doi.org/10.1086/694620George M. Constantinides Asset Pricing: Models and Empirical Evidence, Journal of Political Economy 125, no.66 (Dec 2017): 1782–1790.https://doi.org/10.1086/694621Douglas W. Diamond, Anil K. Kashyap, and Raghuram G. Rajan Banking and the Evolving Objectives of Bank Regulation, Journal of Political Economy 125, no.66 (Dec 2017): 1812–1825.https://doi.org/10.1086/694622Eugene F. Fama Finance at the University of Chicago, Journal of Political Economy 125, no.66 (Dec 2017): 1790–1799.https://doi.org/10.1086/694623David W. Galenson Economic History, Journal of Political Economy 125, no.66 (Dec 2017): 1747–1752.https://doi.org/10.1086/694624Lars Peter Hansen Time-Series Econometrics in Macroeconomics and Finance, Journal of Political Economy 125, no.66 (Dec 2017): 1774–1782.https://doi.org/10.1086/694625James J. Heckman Chicago Labor Economics, Journal of Political Economy 125, no.66 (Dec 2017): 1840–1845.https://doi.org/10.1086/694626Ali Hortaçsu Auctions in the Journal of Political Economy, 1894–2017, Journal of Political Economy 125, no.66 (Dec 2017): 1915–1920.https://doi.org/10.1086/694627Emir Kamenica Information Economics, Journal of Political Economy 125, no.66 (Dec 2017): 1885–1890.https://doi.org/10.1086/694628Greg Kaplan Inequality, Heterogeneity, and Consumption in the Journal of Political Economy, Journal of Political Economy 125, no.66 (Dec 2017): 1767–1774.https://doi.org/10.1086/694629Steven D. Levitt The Economics of Crime, Journal </t>
+          <t>The activity of 3-hydroxy-3-methylglutaryl coenzyme A reductase was assayed in liver microsomal preparations from rats fed cholesterol, cholestyramine or the standard diet, without and after treatment with digitonin. The activity of the enzyme in the microsomal fraction was high in the preparations from rats fed cholestyramine and low in the preparations from rats fed cholesterol as compared with the activity of the enzyme in preparations from rats fed the standard diet. The concentration of free cholesterol and of cholesterol esters was different in the microsomal fraction from the rats in the three experimental conditions. Treatment of the microsomal fraction with digitonin resulted in all three cases in solubilization of free cholesterol and of cholesterol esters, but the specific activity of hydroxymethylglutaryl-CoA reductase was higher in the digitonin-treated preparation than in the corresponding microsomal fraction. There was no detectable activity of hydroxymethylglutaryl-CoA reductase in the supernatant obtained after treatment of the microsomal fraction with digitonin. Isothermic kinetics showed that hydroxymethylglutaryl-CoA reductase in the microsomal fraction from rats fed cholesterol has an affinity for substrate that is many times higher than that in the microsomal fraction from rats fed cholestyramine and that the enzyme in microsomes from rats fed the standard diet has an intermediate affinity for substrate. In all three experimental conditions enzyme activity in the microsomal fraction was inhibited at high substrate concentrations. Treatment of the microsomal fraction with digitonin has decreased the apparent Km, in all three conditions, as compared with the value observed with the corresponding untreated microsomes. In all three experimental conditions, preincubation of the enzyme present in the microsomal fraction or in digitonin-treated microsomal preparation, resulted in an increased V, but the apparent Km value obtained with the preincubated microsomal fraction was similar to the value obtained with the corresponding microsomal fraction assayed without preincubation. Preincubation revealed hydroxymethylglutaryl-CoA reductase activity in the supernatant obtained from the treatment of the microsomal fraction with digitonin, in all three experimental conditons. The soluble enzymes, from cholestyramine-fed rats and from rats fed the standard diet, had identical apparent Km values. The differences in the Arrhenius plots of hydroxymethylglutaryl-CoA reductase in the microsomal fractions from rats in the three experimental conditions and the changes brought about by the treatment of the various microsomal fractions with digitonin are consistent with the possibility that such differences are due to changes in the free cholesterol concentration in the membrane of the various microsomal preparations. It is suggested that there is a pool of free cholesterol in the immediate lipid environment of hydroxymethylglutaryl-CoA reductase and that the size of this pool is important for the intracellular regulation of hydroxymethylglutaryl-CoA reductase.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2035341828</t>
+          <t>https://openalex.org/W2030910685</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/dt9760000851</t>
+          <t>https://doi.org/10.2307/2060462</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Findlay (1976)</t>
+          <t>Stinson (1977)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Geometric and electronic structures of cyclohexane and cyclotriborazane,(BH2NH2)3</t>
+          <t>Improving the accessibility of data from the census of Canada</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Non-empirical minimal-basis-set calculations of the geometric and electronic structures of cyclohexane and cyclotriborazane predict that the latter is likely to adopt an eclipsed boat conformation in the gas phase, and is also thermodynamically unstable with respect to disproportionation. Changes in ionisation potential and orbital nature are discussed in terms of the relative atomic orbital energies. Several open-shell calculations have been made, giving improved agreement with experimental ionisation energies, while the associated electronic relaxation energies are considered in the context of the 〈r2〉 expectation value.</t>
+          <t>Improving access to its data resources can be considered one of the major objectives for the Census of Canada. The samc could be said for the wide range of statistical activities undertaken by Statistics Canada, the National Statistical agency in Canada. Obviously, accessibility is only one consideration, and it must be viewec jointly with the needs of users and the actual packaging of the data products The Census data resource, aside from its statutory purpose for establishing Parliamentary Representation, has a very-wide and varied audience. This factor creates substantial challenges in trying to establish some (sub) optimal mix for the contents of the preplanned outputs. With respect to outputs, we have to be concernec in the public interest with the cost aspects to provide rational substantiation of the funding, and with the practical limitations on the organization's ability to actually produce the materials in acceptable time frames. We have also become exposed in the current time frame (with the 1971 Census of Canada) to the full force of significant changes and technological expansion in the area of automated information processing. These changes, as many people realize, have not been easy to keer up with nor have they been the solution tc all our problems. All otf a sudden we are in a new ball game, and the comfortable stability gained from experience with past errors and conventional products and methods of producing the latter is now overshadowed by the need to gain at least an appreciation for the new technical operating environment and the development of some competency in assessing the impact of such technological changes, not only for internal operations but in the user environment. This paper deals with the variety of steps taken to address the problems of accessibility. Some of these were by design and planned; others, however, were developed by dynamic adjustment to the situations and environment. The development of technologically current products and innovative approaches to the process of dissemination of information are essential if there is to be any degree of compatibility between the users' application needs and the nature of products and services available. Improvements in accessibility will be determined, in general terms, by the degree to which one can expand and communicate the collective knowledge about the information readily or potentially available and the degree to which the potential of the data base(s) can be exploited. Data availability and the facility to</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2035864170</t>
+          <t>https://openalex.org/W2032033139</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0148-9062(76)90704-x</t>
+          <t>https://doi.org/10.1016/0014-4827(77)90353-6</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Olsson &amp; Peng (1976)</t>
+          <t>Rungger‐Brändle (1977)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Microcrack nucleation in marble</t>
+          <t>Morphogenetic deficiencies in transplanted gonadal anlagen of the mutant l(3)pl (lethal-polyploid) in Drosophila hydei</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>In this study it has been found that in marble the inhomogeneous nature of plastic flow on the scale of the grain size can result in the nucleation of microcracks. Specimens of Tennessee marble were deformed in compression at confining pressures of 0–46 MN/m2 and at a strain rate of 10−5/sec. Four types of microcrack nucleation mechanisms have been identified. Types I and II operate at the intersections of glide lamellae with grain boundaries. The crack forms at a high angle to the lamellae in the type I case, and parallel to the lamellae in the type II case. The microcrack resulting from the operation of a type III mechanism forms at the intersections of lamellae; that from a type IV is caused by a wedging action of a combination of weak and strong grains. Mechanisms I, III and IV lead to microcracks subparallel to the direction of maximum compression. Mechanism II produces a crack lying in a plane of high shear stress. Faults are composed of en echelon arrays of subaxial cracks connected by packets of inclined twin lamellae.</t>
+          <t>Larval gonads of Drosophila hydei, homozygous for the lethal gene l(3)pl (lethal-polyploid), were cultured in normal hosts. Ovaries of the late third larval instar were implanted into metamorphosing larvae. These can attach to the gonoduct system of the host and transform into adult ovarian structures but the spectrum of their capacity to differentiate varies largely. In favourable cases mature oocytes can be formed which are fertile. More frequently mitotic disturbances in the follicle cells and cystocytes lead to the formation of abortive egg chambers and abnormally shaped oocytes. Testes of the middle third larval instar were cultured for 2 weeks in adult females. Primary spermatocytes are able to sustain meiotic divisions and form early spermatids, even though the occurrence of fractionated nuclei in post-meiotic germ cells indicates defective meiotic divisions. Post-meiotic differentiation is blocked in mutant spermatids which fail to elongate. The mutant gene l(3)pl thus, not only affects cell divisions, but also interacts in certain cytodifferentiation processes such as spermatid elongation and egg shaping. All cellular processes found so far to be abnormal in mutant tissues involve microtubular function. This suggests that the gene l(3)pl interacts with the microtubular system and several aspects of this interpretation are discussed.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2037158589</t>
+          <t>https://openalex.org/W2032569629</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0006-8993(76)90721-6</t>
+          <t>https://doi.org/10.2118/77-04-05</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Rhoades &amp; Chalupa (1976)</t>
+          <t>Lunardini (1977)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Directional selectivity in the superior colliculus of the golden hamster</t>
+          <t>Thawing of Permafrost Beneath a Buried Pipe</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sensory neurons often display an ordered spatial arrangement that enhances the encoding of specific features on different sides of natural borders in the visual field (for example, [1, 2, 3]). In central visual areas, one prominent natural border is formed by the confluence of information from the two eyes, the monocular-binocular border [4]. Here, we investigate whether receptive field properties of neurons in the mouse superior colliculus show any systematic organization about the monocular-binocular border. The superior colliculus is a layered midbrain structure that plays a significant role in the orienting responses of the eye, head, and body [5]. Its superficial layers receive direct input from the majority of retinal ganglion cells and are retinotopically organized [6, 7]. Using two-photon calcium imaging, we recorded the activity of collicular neurons from the superficial layers of awake mice and determined their direction selectivity, orientation selectivity, and retinotopic location. This revealed that nearby direction-selective neurons have a strong tendency to prefer the same motion direction. In retinotopic space, the local preference of direction-selective neurons shows a sharp transition in the preference for nasal versus temporal motion at the monocular-binocular border. The maps representing orientation and direction appear to be independent. These results illustrate the important coherence between the spatial organization of inputs and response properties within the visual system and suggest a re-analysis of the receptive field organization within the superior colliculus from an ecological perspective.</t>
+          <t>Abstract The rate of thaw beneath the center of a hot pipe buried in permafrost was calculated by the quasi-steady approximate method. The solution assumes a purely conductive heat transfer model. The heat loss at the surface was included for the case of a pipe buried at a finite depth. Functions are presented which allow the thaw Tate below the pipe and the heat transfer from the pipe to be calculated for any pipe radius, burial depth, temperature of the pipe surface, as well as initial temperature and thermal properties of the surrounding permafrost. The method allows a quick estimate to be made of the effect of burial depth, temperature and soil thermal properties on the phase change beneath a pipe. The same details can also be applied to the case of freezing around a buried pipe. Introduction THE PROBLEM OF THAWING beneath a hot pipe buried in permafrost, or in permafrost regions, has been of considerable interest. Unfortunately, the nonlinear nature of the problem precludes exact solutions when the geometry of the system is curvilinear. However, the exact solution for the semi-infinite region, known as the Neumann problem(1) is available and the details of this solution demonstrate the validity of the quasi-steady, or Stefan(2), approximate method. This idea relies on the fact that the rate of movement of the phase change interface is slow enough that the heat transfer for each region is essentially steady-state at any instant of time. This method was extended by Khakimov(3) to the case of a cylinder embedded in an infinite medium, where the concept was used of a finite volume around the cylinder in which the temperature is disturbed. Gupta'" extended the method to the analogous case of the sphere. There are numerous numerical solutions of the problem, such as those of Lachenbruch(5), but these methods are lengthy when applied to two-dimensional problems and are not convenient for quick estimates. Theory Consider the case of thawing of a medium initially frozen at temperature To. A hot cylinder with a surface temperature Ta is inserted into the medium at zero time. The thermal effect will extend, at any time, to a finite distance (a), i.e., the initial temperature of the medium will be unchanged at a location sufficiently far from the hot cylinder. This distance is denoted by the radius (a) and it can be assumed that the ratio α = a/R is a constant, using α = 4.5, as did Khakimov. Using the quasi-steady assumption and letting 0 = T ? To, the temperature for each region (see Fig. 1) will be the solution of the one dimensional conduction equation: (Equation Available In Full Paper) The energy required to thaw region 1 and increase the temperature of regions 1 and 2 is the sum of the latent plus the sensible heats and can be written as:</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040351977</t>
+          <t>https://openalex.org/W2035348166</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1749-6632.1976.tb52917.x</t>
+          <t>https://doi.org/10.1111/j.1467-8306.1977.tb01158.x</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bell et al. (1976)</t>
+          <t>Winters (1977)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ALCOHOLISM, LIFE EVENTS, AND PSYCHIATRIC IMPAIRMENT</t>
+          <t>TRADITIONAL URBANISM IN THE NORTH CENTRAL SUDAN</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Annals of the New York Academy of SciencesVolume 273, Issue 1 p. 467-479 ALCOHOLISM, LIFE EVENTS, AND PSYCHIATRIC IMPAIRMENT* Roger A. Bell, Roger A. Bell Department of Family Practice School of Medicine University of Louisville Louisville, Kentucky 40201Search for more papers by this authorKim A. Keeley, Kim A. Keeley Department of Psychiatry and Behavioral SciencesSearch for more papers by this authorRay D. Clements, Ray D. Clements Upper Kentucky River Mental Health Mental Retardation Comprehensive Care Center Hazard, Kentucky 41701Search for more papers by this authorGeorge J. Warheit, George J. Warheit Departments of Psychiatry and Sociology University of Florida Gainesville, Florida 32601Search for more papers by this authorCharles E. Holzer III, Charles E. Holzer III Departments of Psychiatry and Sociology University of Florida Gainesville, Florida 32601Search for more papers by this author Roger A. Bell, Roger A. Bell Department of Family Practice School of Medicine University of Louisville Louisville, Kentucky 40201Search for more papers by this authorKim A. Keeley, Kim A. Keeley Department of Psychiatry and Behavioral SciencesSearch for more papers by this authorRay D. Clements, Ray D. Clements Upper Kentucky River Mental Health Mental Retardation Comprehensive Care Center Hazard, Kentucky 41701Search for more papers by this authorGeorge J. Warheit, George J. Warheit Departments of Psychiatry and Sociology University of Florida Gainesville, Florida 32601Search for more papers by this authorCharles E. Holzer III, Charles E. Holzer III Departments of Psychiatry and Sociology University of Florida Gainesville, Florida 32601Search for more papers by this author First published: May 1976 https://doi.org/10.1111/j.1749-6632.1976.tb52917.xCitations: 11 * Supported in part by National Institute of Mental Health Grant 15900-SO-1. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL References 1 Cannon, W. B. 1929. Bodily Changes in Pain, Hunger, Fear and Rage. Appleton-Century-Crofts. New York , N.Y. 2 Meyer, A. 1951. The life chart and the obligation of specifying positive data in psychopathological diagnosis. In The Collected Papers of Adolph Meyer. E. E. Winters, Ed. III. The Johns Hopkins Press. Baltimore , Md. 3 Selye, H. 1956. The Stress of Life. McGraw-Hill Book Company. New York , N.Y. 4 Wolff, H. G. 1950. Life stress and bodily disease–-a formulation. In Life Stress and Bodily Disease. H. G. Wolff S. G. Wolff &amp; C. C. Hare, Eds. The Williams &amp; Wilkins Co. Baltimore , Md. 5 Hinkle, L. E. &amp; H. G. Wolff. 1958. Ecologic investigations of the relationship between illness, life experiences and the social environment.. Ann. Intern. Med. 49: 1373– 1388. 6 Hinkle, L. E. 1959. Physical health, mental health, and the social environment: some characteristics of healthy and unhealthy people. In Recent Contributions of Biological and Psychological Investigations to Preventive Psychiatry. R. H. Ojemann, Ed. Iowa State University Press. Iowa City , Iowa. 7 Eliot, R. A. 1974. In Stress and the Heart. R. S. Eliot, Ed. Vol. I. Futura Publishing Co., Inc. Mount Kisco , N.Y. 8 L. S. Syme &amp; L. G. Reeder, (Eds.) 1967. Social stress and cardiovascular disease.. Milbank Mem. Fund Quart. 45(2). 9 Jenkins, C. D. 1971a. Psychologic and social precursors of coronary disease (part I).. N. Engl. J. Med. 284(5): 244– 255. 10 Jenkins, C. D. 1971b. Psychologic and social precursors of coronary disease (part II).. N. Engl. J. Med. 284(6): 307– 317. 11 Dohrenwend, B. P. 1961. The social psychological nature of stress: a framework for causal inquiry. J. Abnormal Social Psychol. 62: 294– 301. 12 Lehrman, E. W. 1967. Social class and coronary heart disease: a sociological assessment of the medical literature. J. Chronic Diseases 20: 381– 391. 13 Dohrenwend, B. P. &amp; B. S. Dohrenwend. 1969. Social Status and Psychological Disorder: A Causal Inquiry. John Wiley &amp; Sons, Inc. New York , N.Y. 14 A. M. Lilienfeld, (Ed.) 1965. Symposium on epidemiology of cardiovascular diseases.. J. Chronic Diseases 18. 15 Scotch, N. &amp; H. J. Geiger. 1963. The epidemiology of essential hypertension.. A review with special attention to psychologic and sociocultural factors: II. Psychologic and sociocultural factors in etiology. J. Chronic Diseases 16: 1183– 1213. 16 French, J. R. P. 1963. The social environment and mental health. J. Social Issues 19: 39– 56. 17 Milbank Memorial Fund. 1953. Interrelations between the social environment and psychiatric disorders. New York , N.Y. 18 Milbank Memorial Fund. 1961. Causes of mental disorders: a review of epidemiologic knowle</t>
+          <t>ABSTRACT The traditional Muslim cities of the north central Sudan (from c. 1520 until 1898) can be connected with the familiar model or “archetype'’of the Muslim city. They functioned as trading centers and had in common with the Muslim cities of the Middle East certain morphological features such as irregular streets. Islam in north central Sudanese cities was to some extent popular, not orthodox, in nature. Teaching institutions were sometimes more important than mosques, and urban morphology was dominated by tombs of holy men. Islam in Sudanese cities was in some respects only a veneer over a Black African base. Sudanese cities often were centered on a palace, they had low urban intensity, they were divided into village-like residential districts where agriculture dominated, and they were associated with an African, not Middle Eastern, technological system. Notes 1On the “Yoruba city,” see A. L. Mabogunje, Yoruba Towns: Based on a lecture entitled “Problems of preindustrial urbanization in West Africa” given before the Philosophical Society on 12 April 1961 (Ibadan: Ibadan University Press, 1962); and idem., Urbanization in Nigeria (London: University of London Press, 1968), especially pp. 74–106, 186–237; on the “Muslim city,” see Xavier de Planhol, Le monde islamique (Paris: Presses Universitaires de France, 1957), translated as The World of Islam (Ithaca: Cornell University Press, 1959), pp. 1–41; G. E. von Grunebaum, “Structure of the Muslim Town,” in Islam: Essays in the Nature and Growth of a Cultural Tradition (New York: Barnes and Noble, 1961), pp. 141–58; idem., “The Sacred Character of Islamic Cities,” in ‘Abd al-Rahmän Badawí, ed., Mélanges Taha Husain, Offerts par ses Amis et ses disciples à l'occasion de son 70iéme anniversairel Melanges ilä tähä husain fi ‘íd míäd al-sab‘ín, diräsã muhdä min asdiqä’i-hi wa talamídhi-hi (Cairo: DÅ al-Ma‘Åif, 1961), pp. 25–37; and Ira M. Lapidus, Muslim Cities in the Later Middle Ages (Cambridge: Harvard University Press, 1967). The “Muslim city” is very much like the “Middle Eastern city” the latter concept emphasizes the regional distinctness of this archetype. On the “Middle Eastern City,” see Ira M. Lapidus, ed., Middle Eastern Cities: A Symposium on Ancient, Islamic, and Contemporary Middle Eastern Urbanism (Berkeley and Los Angeles: University of California Press, 1969); and L. Carl Brown, ed., From Madina to Metropolis: Heritage and Change in the Near Eastern City (Princeton: The Darwin Press, 1973); on the “medieval city,” see Henri Pirenne, Medieval Cities: Their Origins and the Revival of Trade (Princeton: Princeton University Press, 1925): and Fritz Rörig, Die europäische Stadt im Mittelalter (Göttingen: Vanderhoek &amp; Ruprecht, 1955), translated as The Medieval Town (Berkeley and Los Angeles: University of California Press, 1967); on the “colonial city,” see T. G. McGee, The Southeast Asian City: A Social Geography of the Primate Cities of Southeast Asia (New York: Praeger, 1967), pp. 42–45, and 52–73. On the “preindustrial city,” see Gideon Sjoberg, The Preindustrial City: Past and Present (Glencoe, Illinois: The Free Press, 1960); and, on the “ceremonial center,” see Paul Wheatley, Pivot of the Four Quarters: A Preliminary Inquiry into the Origins and Character of the Ancient Chinese City (Chicago: Aldine Publishing Company, 1971), especially pp. 316–30. Wheatley seems to use the phrase “ideal type” in the same sense as I use “urban archetype.” The lists above are, of course, far from exhaustive. 2David Harvey, Social Justice and the City (Baltimore: Johns Hopkins University Press, 1973), pp. 196–284; and Henri Lafebvre, La rèvolution urbaine (Paris: Gallimard, 1970), especially pp. 7–8. 3Urban archetypes logically involve a classification system, and an identification of a city with a particular archetype involves classifying that city. As would be true of any classification system, there are inevitably some rough edges left when urban archetypes are set up. These rough edges have inspired a considerable literature. For example, many people have questioned some aspects of the standard conception of Middle Eastern Muslim urbanism, among them Ira M. Lapidus, “Traditional Muslim Cities: Structure and Change,” in Brown, op. cit., footnote 1, pp. 51–59; and Paul Ward English, City and Village in Iran: Settlement and Economy in the Kirman Basin (Madison: University of Wisconsin Press, 1966), pp. 112–33. 4Wheatley, op. cit., footnote 1; Horace Miner, The Primitive City of Timbuctoo (Princeton: Princeton University Press, 1953); and Paul Ward English, “The Preindustrial City of Herat, Afghanistan,” paper presented at the meetings of the Association of American Geographers, Washington, D.C., 1968. 5Examples of such a situation are described in: Ann E. Larimore, “The Africanization of Colonial Cities in East Africa,” paper presented at the meetings of the Association of American Geographers, Washington, D.C., 1968; and Ernst C. Griffin and Larry R. Ford, “</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2049889835</t>
+          <t>https://openalex.org/W2041285258</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-2852(76)90326-x</t>
+          <t>https://doi.org/10.1111/j.1467-8470.1977.tb00092.x</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Suzuki &amp; Fujii (1976)</t>
+          <t>Conacher (1977)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interpretation of electronic spectra by configuration analysis MO theoretical interpretation of the spectral changes caused by substitution in naphthalene</t>
+          <t>Conservation and geography: the case of the Manjimup woodchip industry, southwestern Australia</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Abstract The spectral changes caused by the introduction of a substituent into naphthalene are mainly dependent on the position of the introduced substituent but are almost independent of the electron-donating or the electron-accepting nature of the substituent. An attempt was made to analyze this using the MO theoretical interpretation of the spectral changes in substituted naphthalenes based on the method of configuration analysis. It was found empirically that the magnitudes of the spectral shifts are determined primarily by the extent of charge-transfer contributions. From the analysis of the contribution of charge-transfer configurations, the spectral behavior characteristic of the substituted naphthalenes is satisfactorily interpreted by the pairing properties of naphthalene molecular orbitals.</t>
+          <t>Australian Geographical StudiesVolume 15, Issue 2 p. 104-122 Conservation and geography: the case of the Manjimup woodchip industry, southwestern Australia A. J. CONACHER, A. J. CONACHER Mr Conacher is Senior Lecturer in the Department of Geography at the University of Western Australia. This paper was presented to the 14th Institute of Australian Geographers' Conference at Armidale in February, 1977.Search for more papers by this author A. J. CONACHER, A. J. CONACHER Mr Conacher is Senior Lecturer in the Department of Geography at the University of Western Australia. This paper was presented to the 14th Institute of Australian Geographers' Conference at Armidale in February, 1977.Search for more papers by this author First published: October 1977 https://doi.org/10.1111/j.1467-8470.1977.tb00092.xCitations: 6 AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Ahlgren, I. F. and Ahlgren, C. E., 1960: Ecological effect of forest fires, Bot. Rev., 26, 483–533. Anderson, H. W., 1949: Flood frequencies and sedimentation from forest watersheds, Trans. Amer. Geophys. Union, 30, 567–623. Arcus, G. R., 1976: Beekeeping in Western Australia, Unpub. B.A. (Hons.) Thesis in Geography, University of Western Australia. Armstrong, P. H., 1976: Memorandum on the size, shape and disposition of nature reserves, national parks and similar conserved areas, in Comments on the proposed Shannon reserve and alternatives, a submission to the Environmental Protection Authority by the South-West Forests Defence Foundation, Nedlands, 4–11. Armstrong, P. H., 1977: A forest is more than a collection of trees., South-West Forests Defence Foundation, P.O. Box 203, Nedlands , W.A . Australian Advisory Committee on the Environment, 1975: Land use in Australia, Report No. 4, December 1974, Austr. Govt. Publ. Serv., Canberra . Australian Conservation Foundation, 1970: Bushfire control and conservation, Viewpoint Series, No. 5, Australian Conservation Foundation. Australian National Travel Association, 1973: Developing tourism in the southwest region, Perth. Batini, F. E., Thomas, J., Bennett, D. and Eckersley, P., 1976: Research into land use planning, in M. J. Mulcahy ( 1976), 54–61. Bormann, F. H. and Likens, G. E., 1967: Nutrient cycling, Science, 155, 424–9. Bormann, F. H. and Likens, G. E., 1968: Nutrient loss accelerated by clear-cutting of a forest ecosystem, Science 159, 882–4. Brown, G. W., Gahler, A. R. and Marston, R. B., 1973: Nutrient losses after clear-cut logging and slash burning in the Oregon coast range, Water Res. Res., 9, 1450–3. R. W. Kates, (Eds.), 1965: Readings in resource management and conservation, Chicago U.P . Campaign to Save Native Forests, n.d. (1975: W.A.'s native forests threatened, broadsheet published in July 1975, c/o The Environment Centre, 537 Wellington St , Perth . Campaign to Save Native Forests, 1975: The threat to the forests, a submission to the Australian Senate Standing Committee on the Social Environment concerning the impending Manjimup woodchip project from the Campaign to Save Native Forests (W.A.), The Environment Centre, Perth . Christensen, P. and Kimber, P. C., 1975: Effects of prescribed burning on the flora and fauna of south-west Australian forests, Proc. Ecol. Soc. Aust., 9, 85–106. Conacher, A. J., 1973: Statement concerning the proposed marri woodchip project in the south-west of Western Australia, Paper presented to the 45th ANZAAS Congress, Perth. Conacher, A. J., 1974: Rehabilitation of salt scalds in the Western Australian wheatbelt by the interception and diversion of overland flow and throughflow on valley-side slopes, Sci. and Aust. Technol., 11, 14–16. Conacher, A. J., 1975a: Environment-industry conflict: the Manjimup woodchip industry proposal, southwestern Australia, Geowest No. 4, Working Papers of the Department of Geography, University of Western Australia. Conacher, A. J., 1975b: Throughflow as a mechanism responsible for excessive soil salinisation in non-irrigated, previously arable lands in the Western Australian wheatbelt: a field study, Catena, 2, 31–68. Conacher, A. J., 1976: Salinity problems and geographical education, Western Geographer, 2, 60–70. Conacher, A. J., 1977: Water quality in southwestern Australia, a submission to the Australian Senate Standing Committee on national resources inquiry into the Commonwealth's role in the assessment, planning, development and management of Australia's water resources, Department of Geography, University of Western Australia. Conacher, A. J., Brine, A.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2052694638</t>
+          <t>https://openalex.org/W2045145753</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1130/0016-7606(1976)87&lt;725:mobmoa&gt;2.0.co;2</t>
+          <t>https://doi.org/10.1111/j.1432-1033.1977.tb11356.x</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Hower et al. (1976)</t>
+          <t>Chazal et al. (1977)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Mechanism of burial metamorphism of argillaceous sediment: 1. Mineralogical and chemical evidence</t>
+          <t>Méthionyl‐tRNA synthétase des embryons de blé: dissociation en sous‐unités</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Research Article| May 01, 1976 Mechanism of burial metamorphism of argillaceous sediment: 1. Mineralogical and chemical evidence JOHN HOWER; JOHN HOWER 1Department of Earth Sciences, Case Western Reserve University, Cleveland, Ohio 44106 Search for other works by this author on: GSW Google Scholar ERIC V. ESLINGER; ERIC V. ESLINGER 2Department of Geology, West Georgia College, Carrollton, Georgia 30117 Search for other works by this author on: GSW Google Scholar MARK E. HOWER; MARK E. HOWER 3Department of Mathematics, Middlebury College, Middlebury, Vermont 05753 Search for other works by this author on: GSW Google Scholar EDWARD A. PERRY EDWARD A. PERRY 4Department of Geology, University of Massachusetts, Amherst, Massachusetts 01002 Search for other works by this author on: GSW Google Scholar Author and Article Information JOHN HOWER 1Department of Earth Sciences, Case Western Reserve University, Cleveland, Ohio 44106 ERIC V. ESLINGER 2Department of Geology, West Georgia College, Carrollton, Georgia 30117 MARK E. HOWER 3Department of Mathematics, Middlebury College, Middlebury, Vermont 05753 EDWARD A. PERRY 4Department of Geology, University of Massachusetts, Amherst, Massachusetts 01002 Publisher: Geological Society of America First Online: 01 Jun 2017 Online ISSN: 1943-2674 Print ISSN: 0016-7606 Geological Society of America GSA Bulletin (1976) 87 (5): 725–737. https://doi.org/10.1130/0016-7606(1976)87&lt;725:MOBMOA&gt;2.0.CO;2 Article history First Online: 01 Jun 2017 Cite View This Citation Add to Citation Manager Share Icon Share Facebook Twitter LinkedIn MailTo Tools Icon Tools Get Permissions Search Site Citation JOHN HOWER, ERIC V. ESLINGER, MARK E. HOWER, EDWARD A. PERRY; Mechanism of burial metamorphism of argillaceous sediment: 1. Mineralogical and chemical evidence. GSA Bulletin 1976;; 87 (5): 725–737. doi: https://doi.org/10.1130/0016-7606(1976)87&lt;725:MOBMOA&gt;2.0.CO;2 Download citation file: Ris (Zotero) Refmanager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentBy SocietyGSA Bulletin Search Advanced Search Abstract A detailed mineralogical and chemical investigation has been made of shale cuttings from a well (Case Western Reserve University Gulf Coast 6) in Oligocene-Miocene sediment of the Gulf Coast of the United States. The &lt;0.1-, 0.1- to 0.5-, 0.5- to 2-, 2- to 10-, and &gt;10-µm fractions from the 1,250- to 5,500-m stratigraphic interval were analyzed by x-ray diffraction. Major mineralogic changes with depth take place over the interval 2,000 to 3,700 m, after which no significant changes are detectable. The most abundant mineral, illite/smectite, undergoes a conversion from less than 20 percent to about 80 percent illite layers over this interval, after which the proportion of illite layers remains constant. Over the same interval, calcite decreases from about 20 percent of the rock to almost zero, disappearing from progressively larger size fractions with increasing depth; potassium feldspar (but not albite) decreases to zero; and chlorite appears to increase in amount. Variations in the bulk chemical composition of the shale with depth show only minor changes, except for a marked decrease in CaO concomitant with the decrease in calcite. By contrast, the &lt;0.1-µm fraction (virtually pure illite/smectite) shows a large increase in K2O and Al2O3 and a decrease in SiO2 The atomic proportions closely approximate the reaction smectite + Al+3 + K+ = illite + Si+4. The potassium and aluminum appear to be derived from the decomposition of potassium feldspar (and mica?), and the excess silicon probably forms quartz. We interpret all the major mineralogical and chemical changes as the response of the shale to burial metamorphism and conclude that the shale acted as a closed system for all components except H2O, CaO, Na2O, and CO2. Compositional changes in the shale as a function of metamorphic grade closely parallel compositional changes in shale as a function of geologic age. First Page Preview Close Modal You do not have access to this content, please speak to your institutional administrator if you feel you should have access.</t>
+          <t>Wheat -embryo methionyl-tRNA synthetase is a dimeric protein of beta2 structure. When highly diluted, it loses the capacity to catalyze ATP-[32P]PPi exchange and to aminoacylate tRNAMet: at low enzymatic concentrations the rates of formation of[32P]ATP and [14C]methionyl-tRNAMet are lower than those predicatedby extrapolating the rates determined at higher enzyme concentrations. The difference between observed and expected rates becomes greater with decreasing enzyme concentration. Filtration of purified, dilute enzyme preparations on Sephadex G-200 results in the separation of dimer and monomer fractions. The proportion of monomer present increases with increasing pre-incubation times before the assay and demonstrates an equilibrium between active dimers and being shifted towards the production of monomers. Datapreviously gathered for Escherichia coli prolyl-tRNA synthetase and for bovine-pancreatic tryptophanyl-tRNA synthetase, coupled with the present results, suggests that the dissociation of dimeric synthetases may be a general phenomenon in eukaryotes as well as in prokaryotes. The number of sub-units and the dissociation constant were obtained at equilibrium, according to relations adapted to the case of oligomeric enzymes (KD congruent to 13 nM at 25 degrees C and pH 7.5). Rate constants were determined by kinetic studies of the attainment of equilibrium. The rate constant k1 for monomolecular dissociation was determined to be 1.85- 10-3 s-1 and k2 for the bimolecular association to be 0.145 - 106 M-1 s-1. The KD calculated from k1 and k2 was coherent with the experimentally determined value, at equilibrium. The sub-unit interactions, which involve only a small quantity of energy (delta G degree congruent to + 11 kcal mol-1; +45 kJ mol-1) at 25 degrees C, depend on the ionic environment of the medium and the presence of substrates. Alkaline pH favors monomer production, while the presence of methionine, (Mg-ATP)2- and tRNAMet protect the synthetase from dissociation. 2-mercaptoethanol and dithioerythritol prevent only slightly the loss of activity. Bovine serum albumin, however, protects the enzyme from dissociation under dilute conditions.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2059681722</t>
+          <t>https://openalex.org/W2049863370</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3406/cmr.1976.1273</t>
+          <t>https://doi.org/10.2118/6790-ms</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Lincoln (1976)</t>
+          <t>Dorfman et al. (1977)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>The ministers of Alexander II : A survey of their backgrounds and service careers</t>
+          <t>Self-Potential Profiling - A New Technique For Determination Of Heat Movement In A Thermal Oil Recovery Flood</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>William Bruce Lincoln, The ministers of Alexander II: A survey of their backgrounds and service careers. To be sure, there were a number of outward similarities between the ministers of Alexander II and his father Nicholas I, but there were significant differences as well. Alexander's ministers had a considerably higher level of education than was the case with his father's ministerial appointees, and, perhaps most important, Alexander's appointees included a significant percentage of men who had risen to high rank because of technical or administrative expertise. Yet, even if the type of men appointed to head Russia's ministries under Alexander II had changed, the nature of autocracy, and the over-all functioning of the bureaucracy, remained much the same as in the past and, in the end, these factors served to limit the effectiveness of the men whom Alexander appointed to ministerial positions. As a result, even though Alexander's ministers were better equipped by education and training to deal with the problems which Russia confronted, the nature of the system in which they were obliged to function, as well as the nature of their earlier experiences in the state service, limited their effectiveness in dealing with the many crises which Russia faced during the 1860's and 1870's.</t>
+          <t>Abstract Self-potential profiling, a technique long used to locate mineral deposits, has recently been found by various investigators to be an excellent tool for locating and delineating buried geothermal reservoirs in clastic and pyroclastic environments. Laboratory experiments indicate that application of heat to the surface of various core samples result in an instantaneous generation of electric current, due to thermoelectric coupling effects which are related to conductivity contrasts within the inhomogeneous media. These currents can be detected over geothermal deposits by profiling across the boundary between normal and abnormally high heat flow. Field tests at the Slocum Oil Field, Texas, show that heat fronts can also be established by self-potential profiling over an artificial geothermal reservoir—a profiling over an artificial geothermal reservoir—a thermal oil recovery flood. Tests have been run over shallow reservoirs in which both steam and fire floods are in progress, with significant results. Successive profiles appear to indicate that the temperature distribution within the reservoir, as well as changes in location of the heat front with time, can also be determined by this comparatively simple technique. Introduction Self-potential (SP) voltages result from natural earth currents that are relatively stable in time, in both direction and magnitude. If two metal stakes are placed in conductive ground and connected to a sensitive voltmeter, an electric voltage is found to exist between them. Such voltages normally range up to a few millivolts and are known as "background potentials"; they are the spontaneous voltages due to potentials"; they are the spontaneous voltages due to such factors as variations in concentrations of the electrolytes in the ground, or small streaming potentials due to flow of groundwater through the pores potentials due to flow of groundwater through the pores of rocks. A host of other factors can give rise to natural or artificial background potentials; these include bioelectric activity of plant roots, the topographic effect of the normal atmospheric electric gradient, and such phenomena as corrosion of buried pipelines and of the metal stakes used as electrodes. pipelines and of the metal stakes used as electrodes. Accordingly, non-polarizable electrodes are always used for these measurements. The method is best employed in areas where the ground offers a good conductive layer, and is extremely unreliable in areas of bad surface conduction such as dry crystalline rock, or frozen ground. The mapping of natural electric potentials in the ground has been studied for many years, and has been used extensively for locating anomalies associated with metallic ore deposits. Voltages ranging from a few tens of millivolts to a volt have been noted over sulphide bodies, notably those containing pyrite, chalocopyrite and pytrhotite. Graphite, pyrolusite, magnetite and anthracite coal often result in measurements of over one volt. Due to the sometimes mineralized surface conditions, SP mapping of ore bodies has been considered only partially reliable. However, in recent years, SP surveys have begun to be used in sedimentary environments for other purposes and with more consistent results. Nourbehecht, for example, in an exhaustive theoretical study of self-potential, discussed the results of a self-potential anomaly caused by a nuclear explosion in Nevada; Corwin, Morrison and others have reported self-potential anomalies as precursors to earthquakes in California and China, presumably due to streaming potentials generated by the flow of water into a dilatent zone.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060094247</t>
+          <t>https://openalex.org/W2051452082</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0304-4165(76)90402-5</t>
+          <t>https://doi.org/10.1121/1.2016265</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Barber (1976)</t>
+          <t>Powers (1977)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Cyclic nucleotides and platelet aggregation effect of aggregating agents on the activity of cyclic nucleotide-metabolizing enzymes</t>
+          <t>Effects of temperature on the aging rate of piezoelectric polymer</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>The activities of adenylate and guanylate cyclase and cyclic nucleotide 3':5'-phosphodiesterase were determined during the aggregation of human blood platelets with thrombin, ADP, arachidonic acid and epinephrine. The activity of guanylate cyclase is altered to a much larger degree than adenylate cyclase, while cyclic nucleotide phosphodiesterease activity remains unchanged. During the early phases of thrombin-and ADP-induced platelet aggregation a marked activation of the guanylate cyclase occurs whereas aggregation induced by arachidonic acid or epinephrine results in a rapid diminution of this activity. In all four cases, the adenylate cyclase activity is only slightly decreased when examined under identical conditions. Platelet aggregation induced by a wide variety of aggregating agents including collagen and platelet isoantibodies results in the "release" of only small amounts (1-3%) of guanylate cyclase and cyclic nucleotide phosphodiesterase and no adenylate cyclase. The guanylate cyclase and cyclic nucleotide phosphodiesterase activities are associated almost entirely with the soluble cytoplasmic fraction of the platelet, while the adenylate cyclase if found exclusively in a membrane bound form. ADP and epinephrine moderately inhibit guanylate and adenylate cyclase in subcellular preparations, while arachidonic and other unsaturated fatty acids moderately stimulate (2-4-fold) the former. It is concluded that (1) the activity of platelet guanylate cyclase during aggregation depends on the nature and mode of action of the inducing agent, (2) the activity of the membrnae adenylate cyclase during aggregation is independent of the aggregating agent and is associated with a reduction of activity and (3) cyclic nucleotide phosphodiesterase remains unchanged during the process of platelet aggregation and release. Furthermore, these observations suggest a role for unsaturated fatty acids in the control of intracellular cyclic GMP levels.</t>
+          <t>Results of aging measurements at 20°C, 57°C, and 66°C are presented for commercially available piezoelectric polymer (28-μm thick, poled polyvinylidene fluoride). The g31 (electric field/stress) and d31 (charge density/stress) piezoelectric constants were measured by a static dead weight tension test. The relative dielectric constant K33T was obtained from a 1-kHz capacitance measurement. At room temperature (20°C), aging rates of 10%/time decade for g31, 15%/time decade for d31, and 7%/time decade for K33T were obtained over a 100-day period from date of poling. Values of g31 and K33T were measured (at room temperature) for samples held at 57°C and 66°C for 100 days starting at 400 days from poling. For the 57°C case, g31 values at 401, 410, and 500 days showed a 3%, 10%, and 16% decrease over the 400-day value. The 66°C case showed decreases of 16%, 19%, and 21% in g31 over the same time period. No change in K33T was observed for either of these cases. [Work supported by R. R. Smith, Code 302, Naval Ocean Systems Center, San Diego, CA.]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2064927303</t>
+          <t>https://openalex.org/W2056248210</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/eb055305</t>
+          <t>https://doi.org/10.1038/ki.1977.51</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Richbell (1976)</t>
+          <t>Strihou &amp; Dieu (1977)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Participation and Perceptions of Control</t>
+          <t>Potassium deficiency acidosis in the dog: Effect of sodium and potassium balance on renal response to a chronic acid load</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Many managements have responded to the problem of decreasing control in the work situation by implementing participative schemes. Such schemes involve a change from the more traditional confrontation or pure conflict process of bargaining to an approach based on joint problem‐solving and the enhancement of common interest. In the terminology of Walton and McKersie, there is a move from ‘distributive’ to ‘integrative’ bargaining. This paper is concerned with the fact that, in many cases, the approach to participation has tended to ignore the pluralistic nature of organizations. Often, the problem of loss of control in organizations is seen in global terms and the considered solution is deemed to lie in some generalized form of participation.</t>
+          <t>Potassium deficiency acidosis in the dog: Effect of sodium and potassium balance on renal response to a chronic acid load. Balance studies were carried out in 24 dogs in order to evaluate the effect of sodium and potassium depletion on the kidney's adaptation to a chronic acid load. In a first set of experiments, 12 dogs, adapted to an electrolyte-free diet supplemented with acid (either ammonium chloride, 1.7 mmoles, or calcium chloride, 1.25 mmoles/kg of body wt per day), were given repeated injections of furosemide, The resulting sodium and potassium deficit was associated with a sustained 2 mEq/liter fall in plasma bicarbonate, whereas urine pH remained at control levels. In order to dissociate the respective roles of sodium and potassium depletion in the maintenance of this increased metabolic acidosis, six dogs were given sodium chloride and the six others, potassium chloride. Correction of the sodium deficit failed to modify acid-base equilibrium. By contrast, repair of the potassium deficit resulted in a prompt 4.8 mEq/liter increase in plasma bicarbonate, a sustained fall in urine pH, and a transient rise in urine ammonia. Similar results were obtained when the six dogs, previously given sodium chloride, received a potassium chloride supplement. In a second set of experiments, 12 dogs in which potassium deficiency had been induced by a cation exchange resin were given an electrolyte-free diet supplemented with sodium chloride. Administration of a low (ammonium chloride, 1.7 mmoles/kg of body wt per day) or a high (ammonium chloride, 7 mmoles/kg of body wt per day) acid load resulted, respectively, in a 2 and 7 mEq/liter fall in plasma bicarbonate. Repair of the potassium deficit produced a sustained fall in urine pH, a rise in urine ammonia, and a 4.5 and 3 mEq/liter rise in plasma bicarbonate, respectively. Urinary aldosterone excretion, measured prior to and during repair of the potassium deficit, remained stable. From these data we conclude that a) a moderate sodium deficit does not alter the steady state response to a chronic acid load, b) potassium depletion impairs the adaptation and the steady state renal response to a chronic acid intake, c) this disorder does not result from an inadequate delivery of sodium to distal exchange sites but from an apparent inability to lower urine pH, d) it is unlikely that changes in aldosterone secretion mediate this effect. It is suggested that potassium deficiency does not only enhance ammoniogenesis but also impairs the pH gradient achieved across the tubular cells. Our data indicate that the latter effect is predominant in the determination of the steady state response to a chronic acid load. Acidose kaliopenique chez le chien: Effet du bilan potassique et sode sur l'adaptation du rein a une surcharge acide chronique. Des bilans ont ete pratiques chez 24 chiens pour evaluer l'influence du deficit en sodium et en potassium sur l'adaptation du rein a une surcharge acide chronique. Dans une premiere serie d'etudes, 12 chiens, ingerant une alimentation depourvue d'electrolyte, enrichie en acide (soit NH4Cl, 1.7 mmoles, soit CaCl2, 1.25 mmoles/kg poids/jour) recoivent quatre injections successives de furosemide. Les deficits potassique et sode qui en resultent reduisent de 2 mEq/litre le taux de bicarbonate plasmatique sans que le pH urinaire soit modifie. Pour analyser le role joue respectivement par les depletions sodee et potassique dans le maintien de cette acidose aggravee, six chiens recoivent du NaCl et six autres du KCl. La correction du deficit sode ne modifie pas l'equilibre acidobasique. Au contraire, la reparation de la depletion potassique eleve de 4.8 mEq/litre le taux plasmatique de bicarbonate, reduit le pH urinaire et augmente transitoirement l'ammoniurie. Des resultats similaires sont obtenus quand on rend du KCl aux chiens dont le deficit sode a ete prealablement corrige. Dans une seconde serie d'experiences, 12 chiens depletes en potassium par l'ingestion d'un regime depourvu d'electrolytes et de resines echangeuses d'ions recoivent un supplement de NaCl. L'absorption d'une surcharge acide moderee (NH4Cl, 1.7 mmoles/kg poids/jour) ou elevee (NH4Cl, 7 mmoles/kg poids/jour) reduit de 2 et de 7 mEq/liter respectivement le taux plasmatique de bicarbonate. La correction du deficit potassique produit une chute du pH urinaire, une hausse transitoire de l'ammoniurie et un accroissement de 4.5 et de 3 mEq/litre respectivement du taux plasmatique de bicarbonate. L'aldosteronurie mesuree avant et pendant la reparation du deficit potassique reste stable. De ces donnees nous concluons que a) un deficit sode modere ne modifie pas la reponse renale a une surcharge acide prolongee b) la depletion potassique entrave l'adaptation du rein et la reponse a long terme a un apport acide chronique, (c) ce desordre ne provient pas d'un debit insuffisant de sodium au niveau des sites tubulaires distaux d'acidification mais reflete l'incapacite du tubule distal a re</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066518479</t>
+          <t>https://openalex.org/W2057909442</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1365-2028.1976.tb00151.x</t>
+          <t>https://doi.org/10.1353/phl.1977.0015</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Leuthold &amp; Leuthold (1976)</t>
+          <t>Martin (1977)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Density and biomass of ungulates in Tsavo East National Park, Kenya</t>
+          <t>&amp;lt;i&amp;gt;The Romantic Sublime: Studies in the Structure and Psychology of Transcendence&amp;lt;/i&amp;gt; (review)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Summary In view of the substantial vegetation changes in Tsavo National Park and their possible effects on the herbivore fauna, this study was undertaken to obtain quantitative information on densities of several ungulate species and their biomass. Road strip counts (belt transects) constituted the main method used, supplemented by aerial counts in parts of the study area. Densities of most ungulate species are rather low, the maximum of 2–25 per km 2 being attained by zebra in the southern poition of the study area. There are significant differences between two parts of the study area, related to differences in vegetation types. Mean biomass density is around 4000 kg/km 2 , of which ⅔‐¾ is made up of elephants. Total biomass density compares well with that in areas of similar climatic conditions but is much lower than that in moist savannas of western Uganda and Zaire with higher rainfall.</t>
+          <t>360Philosophy and Literature The sensitive ways in which Richter uses his apparatus to illuminate the works discussed suggest that it has considerable critical value; but if we are to take his concluding generalizations seriously, a number of fundamental issues need to be clarified, especially concerning the nature of the rhetorical persuasion which a fable attempts, a matter on which Richter seems confused. His official doctrine appears to be that a sharp distinction can be drawn between "philosophical proof" and "fictional" persuasion; in his first case study he tells us that "only the illusion of inductive argument is provided us; as a serious philosophical proof, Rasselas could hardly stand much scrutiny" (p. 58), and in the final chapter we are assured that, by means of modern narrative techniques, an audience "may be 'convinced' of the truth of propositions which, on a literal philosophical level, it would resist" (p. 182). Such a distinction he often reaffirms and presupposes elsewhere. Yet we find frequent suggestions that the connections between a fable's persuasive power and our appraisal of the truth of its thesis are much closer than such an account would allow. Our "sense of the completeness" of Candide partly turns on the knowledge we bring to the text (pp. 45 and 60), V fails because "emotional conviction" is a "precondition for intellectual assent" (pp. 134 and 169), and the experience of reading Lord ofthe Flies gives us "knowledge" (p. 78). With The Stranger this last suggestion is spelled out; its "formal end" is the "communication of some form of intuitive knowledge, a philosophy understood immediately through experience rather than mediately through the terms of logical argument" (p. 83), its denouement counts as a "proof" (pp. 95 and 169), and we are pointed to "the higher lucidity of fiction" (p. 96). Other instances could be given. How seriously we are intended to take these suggestions is unclear; Rkhter's considerable critical acumen is marred by recurrent imprecision. But his difficulty in keeping to his official distinction perhaps indicates that we need a richer set of categories for assessing the rationality of conviction. University of WarwickMartin Warner The Romantic Sublime: Studies in the Structure and Psychology of Transcendence, by Thomas Weiskel; pp. xi &amp; 214. Baltimore: The Johns Hopkins Press, 1976, $12.00. For those of us fortunate enough to have encountered the Romantic poets during our formative years of reading and writing poetry seriously, Thomas Weiskel has made it possible to return to the level of intellectual intensity within which the Romantics were once studied, discussed, and—if we were writers—imitated. Following the emergence of the New Criticism in the thirties and its rise in the universities in the forties, the major Romantic poets—Wordsworth , Shelley, and Keats in particular—fell from their earlier prominence as interpreters of experience and sensibility, of the "sublime" in literature that previous generations were taught to accept and enjoy. In tracing the Shorter Reviews361 Romantic impulse in poetry, Weiskel ranges freely and perceptively from Longinus, Edmund Burke, and Immanuel Kant (among others) to the poetical practices of Blake, Milton, and the major Romantic poets of England. "The Romantic sublime," Weiskel contends, "was an attempt to revise the meaning of transcendence precisely when the traditional apparatus of sublimation . . . was failing to be exercised or understood" (p. 4). From this basis, he proceeds in a surprisingly coherent synthesis of intellectual history to demonstrate that behind and beyond the Romantic preoccupation with thought, feeling, and emotional dramatization there exists an "opposition between the positive (metonymical) and negative (metaphorical) versions of the sublime" (p. 31). While the positive sublime is attributed primarily to Wordsworth, Shelley, and Keats, it exists in dialectical opposition to the negative sublime of Kant and Burke. Weiskel has set his sights admirably high—the reconstruction of the Romantic notion that man, through feeling and speech, can transcend the human. This is a difficult task, and Weiskel does it well considering the problems involved in achieving a coherent synthesis from the large body of work that obviously stands behind his study. In addition to literary and historical relationships, Weiskel incorporates psychoanalytic and semiotic approaches in tracing the Romantic impulse up to Freud's theory of transference from the sublime...</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069958513</t>
+          <t>https://openalex.org/W2061183242</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/154205</t>
+          <t>https://doi.org/10.4043/2836-ms</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Nye &amp; Thomas (1976)</t>
+          <t>Frink et al. (1977)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Solar magneto-atmospheric waves. I - an exact solution for a horizontal magnetic field</t>
+          <t>Interpretive Methods Of Stratigraphic Modeling</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>view Abstract Citations (66) References (17) Co-Reads Similar Papers Volume Content Graphics Metrics Export Citation NASA/ADS Solar magneto-atmospheric waves. I. An exact solution for a horizontal magnetic field. Nye, A. H. ; Thomas, J. H. Abstract The linearized theory of magneto-atmospheric waves (involving the combined restoring forces due to buoyancy, compressibility, and magnetic field) is developed for the case of a horizontal magnetic field. A general propagation equation is derived for adiabatic perturbations with arbitrary vertical distributions of the sound speed c, Alfve'n velocity VA, and local density scale height H. An exact analytical solution to the propagation equation is obtained for the case of an isothermal atmosphere permeated by a uniform horizontal magnetic field, without making the usual short- wavelength assumption. This solution is applied to an idealized model of the low-corona- chromosphere transition region for comparison with observations of flare-induced coronal waves. The results show that disturbances may propagate horizontally in the low corona in a wave guide formed by the sudden density increase into the chromosphere below and by the rapidly increasing AlfVe'n velocity with height in the corona. The group velocity of the guided wave modes is nearly independent of wavelength, so that a disturbance propagates as a compact wave packet. Subject headings: hydromagnetics Sun: atmospheric motions - Sun: corona - Sun: magnetic fields Publication: The Astrophysical Journal Pub Date: March 1976 DOI: 10.1086/154205 Bibcode: 1976ApJ...204..573N Keywords: Chromosphere; Magnetic Field Configurations; Magnetohydrodynamic Waves; Solar Atmosphere; Solar Magnetic Field; Adiabatic Conditions; Astronomical Models; Boundary Value Problems; Phase Velocity; Solar Corona; Vertical Distribution; Wave Packets; Wave Propagation; Solar Physics full text sources ADS |</t>
+          <t>ABSTRACT The technique described is of utmost importance in stratigraphic interpretation because it measures sonic velocities and densities and their lateral variations. It will work on layers as thin as 40 feet. These changes can be indicative of facies changes or changes in lithology. The relative amplitudes and stacking velocities of seismic data comprise the required input to the method, however, if sonic and density logs from the area are available, this information" can be incorporated leading to greater control of the final results. The procedure requires that the shape of the propagating wavelet in the data be known and that it be a symmetric, zero-phase wavelet. The method is automated, and the end product is velocity and density information for a stacked seismic trace which is displayed similar to velocity and density logs. An iterative scheme minimizes the differences between the response of a seismic modeling system and the seismic data, based on matching amplitude ratios of the data. The method can be performed on as many stacked traces in an area as is necessary to achieve the objective of the explorationist. The technique has been applied to marine data from several different geologic provinces. When the results were compared to. sonic and density logs in the proximity of the seismic data, the correlations were good. INTRODUCTION In order to effectively use seismic data to define and evaluate potential stratigraphic traps, we must be able to detect lateral changes in velocity or some lithology-related physical parameter such as acoustic impedance. We will demonstrate two modeling methods which use the amplitude information in the data to transform seismic data into velocity or acoustic impedance logs. A related problem concerns the correlation of seismic data and well log information. The sonic and density logs give detailed information at the well which can be correlated to lithology; however, they can only measure velocity and density at the borehole. Conversely, seismic data, while lacking in the detail possessed by log data, can be used to detect and measure lateral variations in velocity. We will show methods which make seismic and well log data more correlative. We will further develop techniques for using the detailed velocity information available at the well to calibrate the logs derived from seismic data. These logs will then be used to measure velocities and their lateral variations away from the well. GENERAL SEISMIC PROCESS Figure 1 is a schematic representation of the seismic process and the role of the interpreter. In the center of the figure is a seismic trace which is the result of collecting seismic data over the subsurface depicted on the left of the figure. This operation can be expressed in terms of simple communications theory as the convolution of the earth reflection series with a propagating wavelet.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071404452</t>
+          <t>https://openalex.org/W2062393320</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-2361(76)90072-7</t>
+          <t>https://doi.org/10.1016/0006-3207(77)90067-2</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Mahajan et al. (1976)</t>
+          <t>Duffey (1977)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Differential scanning calorimetry studies on coal. 1. Pyrolysis in an inert atmosphere</t>
+          <t>The re-establishment of the large copper butterfly Lycaena dispar batava obth. on Woodwalton Fen National Nature Reserve, Cambridgeshire, England, 1969–73</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Results of thermal changes involved during the pyrolysis of twelve US coals of various ranks in a helium atmosphere at 5.6 MPa (gauge) and temperatures up to 580 °C are reported. Thermal effects during pyrolysis of coals ranging in rank from anthracite to HVC bituminous are endothermic in nature over the temperature range investigated. Exothermic heats are observed only in the case of sub-bituminous and lignitic coals. The net thermal effects, that is the resultant of endothermic and exothermic heats, go from endothermic to exothermic with increase in carbon content, a transition occurring around 66% carbon and another in the reverse direction at about 75% carbon. A maximum in exothermicity occurs around 71% carbon and in endothermicity at about 81% carbon. Results have been compared with published DTA data on coals. The fallacy in the interpretation of published DTA thermograms of coals, where weight changes accompany thermal effects, is discussed.</t>
+          <t>The Dutch race of the large copper butterfly (Lycaena dispar Haw.), was introduced to Woodwalton Fen in 1927 and with careful management survived until 1969, following an exceptional July flood in 1968 which submerged the food plants, greatly reducing oviposition. This paper records the re-establishment of the butterfly in 1970 from caged stock and the population growth in the following three years in relation to weather conditions and fen management. It is suggested that the insect is not perfectly adapted to a fen environment because it has specialised requirements in terms of size and situation of the food plant. It is at risk from drowning if floods occur before or after the hibernation period and slight changes in the growth form of fen plants, which may overshade the food plant, can influence egg production. Experimental work suggests that when the fen vegetation is modified by cattle-grazing during June and July egg production increases because the food plants are made more accessible to the female butterflies. The heaviest mortality occurs in the period from oviposition to the beginning of hibernation but there is no known management technique which will reduce this. However, after emergence in the spring, protection in muslin cages significantly increases the survival rate. It is estimated that only about 30 ha of the Fen can be maintained in a suitable condition for the butterfly to breed successfully. It seems likely that this is too small an area for the insect to maintain itself without artificial aid such as protection for some of the larvae, creation of germination conditions for the food plant, continuance of a controlled grazing regime and the maintenance of a reserve stock in case re-introduction becomes necessary.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2074695523</t>
+          <t>https://openalex.org/W2065748548</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1130/0016-7606(1976)87&lt;873:ddoidi&gt;2.0.co;2</t>
+          <t>https://doi.org/10.1016/0022-2852(77)90279-x</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Keany et al. (1976)</t>
+          <t>Bouchy &amp; Roussy (1977)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Diachronous deposition of ice-rafted debris in sub-Antarctic deep-sea sediments</t>
+          <t>Microwave spectrum of phenyl isocyanate</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Research Article| June 01, 1976 Diachronous deposition of ice-rafted debris in sub-Antarctic deep-sea sediments JOHN KEANY; JOHN KEANY 1Graduate School of Oceanography, University of Rhode Island, Kingston, Rhode Island 02881 Search for other works by this author on: GSW Google Scholar MICHAEL LEDBETTER; MICHAEL LEDBETTER 1Graduate School of Oceanography, University of Rhode Island, Kingston, Rhode Island 02881 Search for other works by this author on: GSW Google Scholar NORMAN WATKINS; NORMAN WATKINS 1Graduate School of Oceanography, University of Rhode Island, Kingston, Rhode Island 02881 Search for other works by this author on: GSW Google Scholar TER-CHIEN HUANG TER-CHIEN HUANG 1Graduate School of Oceanography, University of Rhode Island, Kingston, Rhode Island 02881 Search for other works by this author on: GSW Google Scholar GSA Bulletin (1976) 87 (6): 873–882. https://doi.org/10.1130/0016-7606(1976)87&lt;873:DDOIDI&gt;2.0.CO;2 Article history first online: 01 Jun 2017 Cite View This Citation Add to Citation Manager Share Icon Share Facebook Twitter LinkedIn MailTo Tools Icon Tools Get Permissions Search Site Citation JOHN KEANY, MICHAEL LEDBETTER, NORMAN WATKINS, TER-CHIEN HUANG; Diachronous deposition of ice-rafted debris in sub-Antarctic deep-sea sediments. GSA Bulletin 1976;; 87 (6): 873–882. doi: https://doi.org/10.1130/0016-7606(1976)87&lt;873:DDOIDI&gt;2.0.CO;2 Download citation file: Ris (Zotero) Refmanager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentBy SocietyGSA Bulletin Search Advanced Search Abstract A simple model to explain the distribution of ice-rafted debris in deep-sea sediments of the Southern Ocean proposes that ice-rafted debris maxima in the high latitudes are associated with interglacial periods and in the lower latitudes with glacial periods. Initial testing of this model is now extended using nine Eltanin piston cores from the southeast Indian Ocean. Frequency variation in the Antarctic radiolarian Antarctissa strelkovi is used as a paleotemperature index, and the ice-rafted debris is measured for the 62- to 250-µm fraction. The merit in using ice-rafted debris–temperature relationships (rather than magnitudes of debris) is demonstrated by the presence of high concentrations of ice-rafted debris in cores of low sedimentation rate, showing that the debris can be a residual coarse fraction rather than an index of higher deposition rates from icebergs.Departures from the predicted ice-rafted debris-paleotemperature correlations during the Brunhes epoch suggest complexities that could be due to such factors as anomalous ice-shelf development, ice surges, variations of preferred iceberg tracks, periods during which conditions are transitional between extreme glacial and interglacial, or between differential sea-floor dynamic processes. To evaluate such possibilities, the model is now developed to include stages intermediate between extreme glacial and interglacial conditions. Complex ice-rafted debris variations are predicted to result across north to south traverses as climatic fronts sweep between extreme climatic conditions, resulting in difficulty in determining between-core correlations.Attempts have been made to isolate periods of departure from the predicted ice-rafted debris–paleotemperature correlations by computation of down-core–running correlation coefficients between the two variables. A lack of fine stratigraphic control, at present, makes it impossible to test definitively the implications of the more complex model, and thus it stands as a proposed, yet un-proven, source of departures from the simple model predictions. This content is PDF only. Please click on the PDF icon to access. First Page Preview Close Modal You do not have access to this content, please speak to your institutional administrator if you feel you should have access.</t>
+          <t>The microwave spectra of the ground state and three excited states of the most abundant species of phenyl isocyanate have been recorded between 8 and 40 GHz. From aR-type transitions the ground-state rotational constants were calculated. The A value showed clearly a tilt of the NCO group from the C2v axis. They yielded the r0-type parameters. A centrifugal distortion treatment confirmed the validity of the rigid rotor approximation. The dipole moment components μa and μb were derived from the field strength dependence of six Stark lobes of five transitions. The values found were μa = (2.50 ± 0.02) D, μb &lt; 0.2 D. From relative intensity measurements, the lowest vibrational excitation energies were determined. We assigned the lowest one to the NCO group torsion. All aR-type transitions of excited states were found unsplit by the internal rotation of the NCO group. The weakness of the μb dipole moment component and of the overall spectrum intensity did not allow us to find μb-type transitions and so, no splitting was observed on the ground-state spectrum. An evaluation of the V2 high barrier is given.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2085503028</t>
+          <t>https://openalex.org/W2074094096</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/5976-ms</t>
+          <t>https://doi.org/10.2307/1936926</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Gaffney et al. (1976)</t>
+          <t>Huey &amp; Pianka (1977)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Economic Appraisal of the Potential Petroleum Resources of the Asian Pacific Region</t>
+          <t>Seasonal Variation in Thermoregulatory Behavior and Body Temperature of Diurnal Kalahari Lizards</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Recent successes in the Asian Pacific Region serve to underline the area's long term potential as a major petroleum producing province. At the same time it is apparent that economic and political factors are contributing to subtle, but significant changes in the pattern of petroleum development within the region. The emergence of a degree of competition between consumers and producers has caused a marked increase in the surplus production capacity of certain countries; in addition the economic production capacity of certain countries; in addition the economic pressures in developing countries generally have produced a degree of pressures in developing countries generally have produced a degree of competitive demand for the limited capital and technical abilities available worldwide within the industry. The cumulative effect of changes in the economic base of the oil industry, both in terms of intraregional and extra-regional factors, has led to a serious reassessment of future plans on the part of producing countries and international oil companies alike. The conclusion is that these overall changes will promote a healthy and less concentrated political environment in which the development of petroleum resources in this vast region will continue to outpace the other major world areas of activity. To this end it is projected that production over the next 10 years will rise from the present level of 3.8 million barrels per day to more than 11.5 million present level of 3.8 million barrels per day to more than 11.5 million barrels daily, a more than threefold increase. Introduction Definition of the Asian Pacific Region in the context of the oil industry has been continuously expanded in recent years in response to the emergence of exploration activity in hitherto neglected developing countries. Reference to the map attached to this paper illustrates the enormous extent both land and marine, of the region. At present exploratory work is being conducted at varying levels of intensity in some 19 countries across an arc stretching from India in the West to Japan in the North East and South to Australasia. Including China and the Indian sub-continent the Region encompasses no less than one half of the world's population and one fifth of its land area and foreign companies are now committed to exploration in every country in the Region except China; even here, many feel that it will only be a matter of time before foreign companies are invited to participate in offshore exploration. It is for this reason that the updated forecast has been expanded to include China and the Indian subcontinent. During the past 8 years more than 300 companies have assumed petroleum investment commitments in the Region, establishing it as one of the major provinces of petroleum activity in the world. More than one-tenth of the global mobile drilling rigs are currently operational in the area and with some 33 rigs due for completion in the next twelve months, the Region's share of overall activity is bound to grow. For the international companies, the increasing spread of prospective exploratory areas, which may effectively be managed from one or possibly two locations in the Region, provides the ideal degree of diversification potential that is provides the ideal degree of diversification potential that is so critical to management policy in the industry today. For this reason it may be safely assumed that the Region as a whole will retain its basic rig fleet and expenditure commitments, even though operating conditions in specific countries may cause swings within the area from time to time. Current Activity During 1974 the pace of the 'quiet' boom, which had started as early as 1968, reached a peak as more and more countries opened their doors to the international companies. Even though areas such as the North Sea have proved to be more prolific in recent years than the Asian Pacific area, the prolific in recent years than the Asian Pacific area, the consistent high rate of success, attractive and pragmatic operating terms and lower cost environment, have all helped to promote the influx of a large number of companies, including many smaller, entrepreneurial concerns. With a total of 66 rigs active in Indonesia at the end of 1975 this country alone had the fourth highest total of active rigs in the world, ranking only after the U.S., Canada and Mexico. For the region as a whole, the active rig tally was 180, more therefore than either Europe or the Middle East. Historically the small independent companies have gained an impressive success record in the region through aggressive exploratory programs. However the very nature of small company operations renders them more subject to political pressure and this factor undoubtedly contributed to the pressure and this factor undoubtedly contributed to the 1975 slowdown following the Malaysian disagreement between two major companies and Petronas. In assessing the impact of fluctuations in a</t>
+          <t>We discuss seasonal variation in thermoregulatory behavior and its consequences on body temperature for 12 species of diurnal lizards in the southern Kalahari semidesert of Africa and also evaluate several methods of attempting to document thermoregulatory behavior using a descriptive data base. Lizards vary time of activity among seasons, which limits the variation in ambient conditions actually experienced. Ground—dwelling lizards and probably arboreal lizards move nonrandomly with respect to sun and shade; thus the percentage of lizards in sun in inversely proportional to air temperature. Arboreal lizards shift to higher perches at midday in summer and to logs or ground in winter thus decreasing and increasing incident heat loads, respectively. Both juveniles and adults of 3 species, only juveniles of 2 species, and only adults in 1 species are active in winter: both adults and juveniles of 6 species brumate [= hibernate]. Mean body temperature (T b ) varies within days and among months and is positively correlated with corresponding mean air temperature (T a ) in almost all species. Nonetheless, correlation and regression analysis suggests that thermoregulatory behaviors reduce the impact of variations in ambient conditions on Kalahari lizards. The mean T b of different species reflect evolutionary relationships. In summer, mean T b is proportional to the percentage of lizards in sun and with the tendency of lizards to be active only in summer. Thus, lizards with inferred low optimal temperatures are active during more months of the year.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2109895460</t>
+          <t>https://openalex.org/W2085245901</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-8543.1976.tb00062.x</t>
+          <t>https://doi.org/10.1203/00006450-197704000-01037</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Jackson &amp; Sisson (1976)</t>
+          <t>Stanley et al. (1977)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>EMPLOYERS‘ CONFEDERATIONS IN SWEDEN AND THE U. K. AND THE SIGNIFICANCE OF INDUSTRIAL INFRASTRUCTURE</t>
+          <t>RELATIONSHIP BETWEEN INTESTINAL COLONIZATION WITH SPECIFIC BACTERIA AND THE DEVELOPMENT OF NECROTIZING ENTEROCOLITIS</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>British Journal of Industrial RelationsVolume 14, Issue 3 p. 306-323 EMPLOYERS‘ CONFEDERATIONS IN SWEDEN AND THE U. K. AND THE SIGNIFICANCE OF INDUSTRIAL INFRASTRUCTURE Peter Jackson S. S. R. C., Peter Jackson S. S. R. C. Research Associate Industrial Relations Research Unit, University of WarwickSearch for more papers by this authorKeith Sisson, Keith Sisson Lecturer in Industrial Relations, University of WarwickSearch for more papers by this author Peter Jackson S. S. R. C., Peter Jackson S. S. R. C. Research Associate Industrial Relations Research Unit, University of WarwickSearch for more papers by this authorKeith Sisson, Keith Sisson Lecturer in Industrial Relations, University of WarwickSearch for more papers by this author First published: November 1976 https://doi.org/10.1111/j.1467-8543.1976.tb00062.xCitations: 16AboutPDF ToolsExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES 1 Collective Bargaining and the Social Contract, London, T. U. C., 1974. Google Scholar 2 The Attack on Inflation. Cmnd. 6151, London, HMSO, 1975. Google Scholar 3 Svenska Arbetsgivareföreningen. Google Scholar 4 Landsorganisationen i Sverige. Google Scholar 5 Tjänstemännens Centralorganisation. Google Scholar 6 Sveriges Akademikers Centralorganisation. Google Scholar 7 Sveriges Industritjänstemannaforbund (Clerical and Technical Workers). Google Scholar 8 Sveriges Arbetsledareförbund (Foremen). Google Scholar 9 Civilingenjörforbund (Graduate Engineers). Google Scholar 10 Privattjänstemannakartell. Google Scholar 11 For general studies of industrial relations in Sweden in English, see T. L. Johnston, Collective Bargaining in Sweden, London, Allen and Unwin, 1962; Google Scholar 12 P. H. Norgren, The Swedish Collective Bargaining System, Cambridge, Mass., Harvard University Press, 1941; 10.4159/harvard.9780674429345 Google Scholar 13 J. S. Robbins, The Government of Labor Relations in Sweden, Chapel Hill; University of North Carolina Press, 1942. Google Scholar 14 For the earlier developments in centralised bargaining, see also B. Kugelberg, ‘The Salts-jöbaden Agreements between the Federation of Swedish Employers and the Confederation of Swedish Trade Unions’, Skandinaviska Banken Quarterly Review, Oct., 1946; Google Scholar 15 and L. Lohse, ‘Centralisation of Bargaining in Sweden Since 1939,’ Monthly Labor Review, Nov., 1958.. Google Scholar 16 For developments in centralised bargaining over pay, see among others S. A. Anderman, ‘Central Wage Negotiations in Sweden’, British Journal of Industrial Relations, Vol. 5, 1967; 10.1111/j.1467-8543.1967.tb00516.x Google Scholar 17 G. Edgren, K-O Faxen and C-E Odhner, Wage Formation and the Economy, London, Allen and Unwin, 1973; Google Scholar 18 K-O Faxen, ‘Incomes Policy in Sweden: Problems and Developments’, British Journal of Industrial Relations, Vol. 2, 1964; 10.1111/j.1467-8543.1964.tb00320.x Web of Science®Google Scholar 19 International Labour Office, ‘Wage Negotiations and Wage Policies in Sweden I’, International Labour Review, Vol. 80, 1959: Google Scholar 20 International Labour Office, ‘Wage Negotiations and Wage Policies in Sweden II’, International Labour Review, Vol. 80, 1959; Google Scholar 21 J. Mouly, ‘Wage Policy in Sweden, International Labour Review, Vol. 95, 1967; Web of Science®Google Scholar 22 B. C. Roberts, National Wages Policy in War and Peace, London, Allen and Unwin, 1958. Google Scholar 12 The most recent version of the constitution was published in English by S. A. F. in 1972. Google Scholar 13 G. K. Ingham, Strikes and Industrial Conflict, London, Macmillan, 1974. 10.1007/978-1-349-01454-5 Google Scholar 14 The relationship which Ingham posits between centralised bargaining and the institutionalisation of industrial conflict has already come in for considerable criticism. See J. Fulcher, ‘Critical Note: Industrial Conflict in Britain and Sweden’, Sociology, Vol. 9, 1975. 10.1177/003803857500900306 Web of Science®Google Scholar 15 Ingham, op. cit., p. 42. Google Scholar 16 Ibid., p. 42. Google Scholar 17 J. S. Bain, International Differences in Industrial Structure, New Haven, Yale University Press, 1966. Google Scholar 18 F. L. Pryor, An International Comparison of Concentration Ratios, Review of Economics and Statistics, Vol. 54, 1972. 10.2307/1926273 Web of Science®Google Scholar 19 Ingham, op. cit., p. 41. Google Scholar 20 Ingham, p. 42. Google Scholar 21 Ingham, p. 44. Google Scholar 22 Ingham (op. cit., pp. 59–60) adds a caveat to the effect that such mediation processes do take place, but he does not assi</t>
+          <t>The incidence of necrotizing enterocolitis (NEC) among infants in our intensive care nurseries dropped from 5.4 percent in 1973-5 to 2.8 percent in 1976. Only two cases occurred in the last nine months of 1976, the first time since 1972 that there had been as long as four weeks without appearance of a new case. This striking decrease was not related to any change in frequency of arterial cannulation or perinatal asphyxia; nor were there any significant alterations in nursery procedures. It did occur concurrent with the emergence of Serratia marcescens as the predominant hospital-acquired nursery flora. Among patients initially colonized with Klebsiella the likelihood of developing NEC was .172 as compared to .06 in those with other predominant organisms. At diagnosis K pneumonias was isolated in 51 percent of patients with NEC in 1973-5 and 64 percent in 1976. Serratia was recovered from only four infants with NEC. This data supports the concept that intestinal colonization with specific bacteria is necessary for the development of NEC.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2126558630</t>
+          <t>https://openalex.org/W2091818139</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1440-1827.1976.tb00872.x</t>
+          <t>https://doi.org/10.1086/283241</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Takahashi et al. (1976)</t>
+          <t>Connell &amp; Slatyer (1977)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>GYTOLOGICAL CHARACTERIZATION AND HISTOGENESIS OF EWING'S SARCOMA</t>
+          <t>Mechanisms of Succession in Natural Communities and Their Role in Community Stability and Organization</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>In addition to a light-microscopical and histochemical investigation of primary and metastatic lesions in 27 cases of Ewing's sarcoma, biopsy materials from the primary bone lesions of 7 patients with this neoplasm were examined histochemically, enzyme -cytochemically and electron microscopically to elucidate the histogenesis and nature of the neoplasm. Ultrastructural observation has revealed that besides intracytoplasmic and extracellular deposition of glycogen the tumor cells possess several cytological features characterized by intracytoplasmic microfilaments of varying thickness up to 80 Å, occasional appearance of dense patches, fat droplets, desmosomal connections and reminiscent attachment bodies. The tumor cells are mostly round, oval or polygonal in shape, but spindle or elongated cells are intermingled and occasionally contain well-developed rough endoplasmic reticulum, resembling pericytes or fibroblasts. In the intercellular spaces amongst the tumor cells, varying amounts of variable-shaped amorphous materials are found, which are compatible with acid mucopolysaccharides and glycoproteins histochemically verified. These findings may suggest that Ewing's sarcoma is a highly malignant neoplasm originating from a transitional cell developed from pericytes to vascular smooth msucle cells in the bone marrow.</t>
+          <t>The sequence of species observed after a relatively large space is opened up is a consequence of the following mechanisms. "Opportunist" species with broad dispersal powers and rapid growth to maturity usually arrive first and occupy empty space. These species cannot invade and grow in the presence of adults of their own or other species. Several alternative mechanisms may then determine which species replace these early occupants. Three models of such mechanisms have been proposed. The first "facilitation" model suggests that the entry and growth of the later species is dependent upon the earlier species "preparing the ground"; only after this can later species colonize. Evidence in support of this model applies mainly to certain primary successions and in heterotrophic succession. A second "tolerance" model suggests that a predictable sequence is produced by the existence of species that have evolved different strategies for exploiting resources. Later species will be those able to tolerate lower levels of resources than earlier ones. Thus they can invade and grow to maturity in the presence of those that preceded them. At present there exists little evidence in support of this model. A third "inhibition" model suggests that all species resist invasions of competitors. The first occupants preempt the space and will continue to exclude or inhibit later colonists until the former die or are damaged, thus releasing resources. Only then can later colonists reach maturity. A considerable body of evidence exists in support of this model. In the majority of natural communities succession is frequently interrupted by major disturbances, such as fires, storms, insect plagues, etc., starting the process all over again. However, if not interrupted, it eventually reaches a stage in which further change is on a small scale as individuals die and are replaced. The pattern of these changes will depend upon whether individuals are more likely to be replaced by a member of their own or another species. If the former, stability will be assured. However, in terrestrial communities, conditions in the soil in the immediate vicinity of long-lived plants may become modified in such a way that offspring of the same species are much less favored than those of other species. A likely cause is the buildup of host-specific pathogenic soil organisms near a long-lived plant. In this case, the species at each local site keep changing, producing local instability. Whether the average species composition of the whole tract does not change, exhibiting global stability, or whether it keeps changing has not yet been decided for any natural community.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2141260355</t>
+          <t>https://openalex.org/W2103066851</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1936180</t>
+          <t>https://doi.org/10.1037/0003-066x.32.7.513</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Wright (1976)</t>
+          <t>Bronfenbrenner (1977)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>The Impact of Forest Fire on the Nutrient Influxes to Small Lakes in Northeastern Minnesota</t>
+          <t>Toward an experimental ecology of human development.</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>The Little Sioux fire of May 1971 burned most of the mixed coniferous—deciduous forest on the watersheds of Meander and Lamb lakes, two small, low conductivity lakes located in the Boundary Waters Canoe Area (BWCA) of northeastern Minnesota, USA. During 1972, hydrologic and chemical (Ca, Mg, K, Na, and P) budgets were determined for the terrestrial watersheds of Meander and Lamb lakes and for the lakes themselves. Budgets were also measured for Dogfish Lake, a lake physically and chemically similar to Meander Lake but whose watershed was not burned in the Little Sioux fire. These budgets show that the atmosphere supplies a significant fraction of the cations and phosphorus (Ca, 90%; Mg, 35%; K, 95%; Na, 55%; P, 95%) to the BWCA watersheds, with the remainder coming from chemical weathering. The budgets are similar to those reported for other Canadian Shield lakes and watersheds. The impact of the Little Sioux fire on nutrient fluxes was evaluated by comparing the budgets measured at Dogfish Lake with those measured at Meander Lake. This comparison showed that as a result of the burning of Meander Lake watershed, runoff increased 60% and the K and P exports increased 265% and 93%, respectively. The exports of Ca, Mg, and Na did not change significantly. The increase in runoff, probably due to the reduction in vegetative transpiration, is comparable to that measured after the 1970 Entiat fire (western Washington) and to that resulting form clear—felling experiments at Hubbard Brook (New Hampshire) and Coweeta (North Carolina). The increased nutrient losses after fire are less than those observed at Hubbard Brook and Coweeta. There was no indication of a drastic increase in nitrate export such as occurred after the Entiat fire and at Hubbard Brook. The increase in phosphorus loading of Meander Lake due to the fire was 38% (to 25 mg/m 2 °yr), a value that probably falls within the natural year—to—year variation in supply, and it did not represent a major impact on Meander Lake. Fire is a natural part of the BWCA forest ecosystems. The results of this study indicate that nutrient losses after the Little Sioux fire were minimal, perhaps because it was a spring fire. Fall fires may cause larger nutrient losses because more of the forest—floor material is likely to be consumed and revegetation does not begin until the following spring.</t>
+          <t>A broader approach to research in hu- j man development is proposed that focuses on the pro-  gressive accommodation, throughout the life span, between the growing human organism and the changing environments in which it actually lives and grows.  The latter include not only the immediate settings containing the developing person but also the larger social contexts, both formal and informal, in which these settings are embedded. In terms of method, the approach emphasizes the use of rigorousj^d^igned exp_erjments, both naturalistic and contrived, beginning in the early stages of the research process. The chang- ing relation between person and environment is con- ceived in systems terms. These systems properties are set forth in a series of propositions, each illus- trated by concrete research examples.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2149121215</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1107/s0567739476001678</t>
+          <t>https://openalex.org/W2114455354</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Jefferson et al. (1976)</t>
+          <t>Koolen (1977)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>The role of multiple scattering in the study of lattice images of graphitic carbons</t>
+          <t>Soil loosening processes in tillage : analysis, systematics and predictability</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>The effect of multiple scattering upon the nature of the electron-microscope images of graphitic specimens has been investigated by theoretical calculations within the systematics multislice approach. For perfect, infinite specimens, imaged under axial illumination, the results agreed closely with those predicted by a simple three-beam dynamical treatment. In all cases the weak-phase-object approximation was found to be invalid, even qualitatively, whenever specimen thicknesses exceeded 50 Å. Calculations were also performed for finite crystal sizes and various plausible types of structurally imperfect graphites. The calculated images demonstrate the need for great care in interpreting experimental images of structurally defective graphitic solids. In particular, the positions of missing layers in a crystal of graphite can be 'filled' by spurious fringes under certain conditions of defocus, and fringes corresponding to layers of an intercalated species turn out to have ill defined positions. Characteristics such as these are equally prominent in all images, irrespective of the magnitude of multiple scattering, suggesting that these perturbations arise primarily from instrumental aberrations.</t>
+          <t>The soil movements and the inter-particle forces in the vicinity of an operating tool of a tillage implement may be called a soil tillage process. Examples are the tillage processes of tines, plough-bodies etc. (soil loosening processes) and the influence on the soil of land rollers, wheels etc. (load bearing processes). The report is limited to soil loosening processes. Modern farming requests that the energy consumption and the results (in terms of soil pulverization, soil configuration after tillage etc.) of soil loosening processes can be predicted. This necessitates not only prediction methods, but also a systematics of soil loosening processes. The report presents a systematics of soil loosing processes, which starts with the distinction between tines and plough-bodies. The latter group includes rotatiller blades, harvester lifting blades etc. The plough-bodies are considered to be composed of 3 parts; firstly, the part that loosens still firm soil; then, the part that induces a further tillage; and, finally, the part where the soil is leaving the sphere of direct influence of the tool. For a number of basic shapes of tines and plough-body parts, the process types that may be induced by these basic shapes are presented. Which process type will occur in a given situation, will depend on the soil type, soil porosity, soil moisture content, soil structure, and tool speed. The proposed basic shapes are not intended to keep a permanent place in the systematics; as the requirements of agricultural practice change and research advances, other shapes may become basic. In the current situation, the 2-dimensional curved blade with a small cutting angle and a small working depth-blade height ratio is an important basic tool. An investigation into this blade is reported in detail. The report also presents a systematic treatise of the methods that are available for the prediction of process aspects (such as the amount of energy consumption and the degree of soil pulverization), together with a discussion on the advantages and disadvantages of these methods, as well as directives for use in the development of new prediction methods. New contributions to the predictability of aspects of 2-dimensional blades are published in the report. When it is necessary to extend the systematics or to develop new prediction methods, experiments must be performed. A survey of aids to analysis is, therefore, included.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2149483645</t>
+          <t>https://openalex.org/W2114805139</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/6.1976-267</t>
+          <t>https://doi.org/10.1016/0092-8674(77)90163-5</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Flannery &amp; Alward (1976)</t>
+          <t>Weiss et al. (1977)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Seasonal effects on the performance of Earth Horizon Sensors</t>
+          <t>The size and genetic composition of virus-specific RNAs in the cytoplasm of cells producing avian sarcoma-leukosis viruses</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Earth horizon sensors, operating in the infrared spectral band, commonly have been the primary attitude reference for Earth-orbiting spacecraft. These devices do not always achieve the on-orbit accuracy that is predicted by analysis or extrapolation of laboratory test data. One major reason for the discrepancy is that inadequate attention has been paid to the modeling or simulation of radiance gradients, internal to the Earth's disk. These gradients change significantly with season, and so Earth sensors on many operational spacecraft operating at synchronous altitudes have exhibited attitude bias errors that are a strong function of time of year. In order to achieve the higher accuracies required for future applications, Earth sensor design parameters must be optimized to bound this error source. This paper demonstrates that the realized gradients can be modeled, and, when combined with the transfer function for the sensor under evaluation, the predicted performance is within the range of performance observed on orbit.</t>
+          <t>The genome of avian sarcoma virus (ASV) contains four known genes: gag, encoding structural proteins of the viral core; pol, encoding the viral RNA-directed DNA polymerase; env, encoding the glycoprotein(s) of the viral envelope; and src, which is responsible for neoplastic transformation of the host cell. We have located these genes on virus-specific RNAs in cells productively infected with both nondefective and defective strains of ASV by using molecular hybridization with DNAs complementary to specific portions of the ASV genome. The cytoplasm of cells producing nondefective ASV contains three species of polyadenylated virus-specific RNA, each of which has chemical polarity identical to that of the viral genome. The largest species has a molecular weight of 3.3 × 106 daltons and a sedimentation coefficient of 38S, encodes all four viral genes, and is probably identical to the viral genome. A second species has a molecular weight of 1.8 × 106 daltons and a sedimentation coefficient of 28S, and encodes the 3′ half of the viral genome, including env, src and a genetically silent region known as “c.” The smallest species has a molecular weight of 1.2 × 106 daltons and a sedimentation coefficient of 21S, and encodes only src and “c.” All three species of virus-specific RNA contain nucleotide sequences at least partially homologous to a sequence of 101 nucleotides found at the extreme 5′ end of the ASV genome. This sequence may not be present in the portions of the ASV genome which encode the 28S and 21S virus-specific RNAs, and hence may be joined to these RNAs during their maturation from precursor molecules. The size and genetic composition of virus-specific RNAs in cells producing defective deletion mutants reflect the nature of the deletion. Deletions of either src or env eliminate the 28S virus-specific RNA, leaving a 21S RNA (which contains either env and “c” in the case of src deletions or src and “c” in the case of env deletions) and a 35S RNA which is probably identical to the viral genome. Based on these and related results, we propose a model for viral gene expression which conforms to previous suggestions that eucaryotic cells initiate translations only at the 5′ termini of messenger RNAs.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2151263245</t>
+          <t>https://openalex.org/W2116386867</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1143/ptps.59.36</t>
+          <t>https://doi.org/10.4141/cjps77-002</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Wadati (1976)</t>
+          <t>Dexter &amp; Matsuo (1977)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Transformation Theories for Nonlinear Discrete Systems</t>
+          <t>THE SPAGHETTI-MAKMG QUALITY OF DEVELOPING DURUM WHEATS</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transformation theories for nonlinear discrete systems are summarized. As a model system, the special interest is paid on a one-dimensional exponential lattice (Toda lattice) with infinite length. Bäcklund transformation and a canonical transformation for Toda lattice is explicitly presented. It is shown that the Bäcklund transformation is closely related to inverse scattering method and the existence of an infinite number of conservation laws. A remarkable transformation which relates solutions of Toda lattice equation and a nonlinear self-dual network equation is found. The transformation may be thought as a discrete version of the well-known Miura transformation. Furthermore, it is shown that a class of nonlinear differential-difference equations which appear to have N-solution solutions can be derived naturally from the Volterra system. It is suggested that the Volterra system which is first order in time is a fundamental equation in the theory of lattice soliton. In the presentation mathematical similarities between continuous and discrete case are emphasized.</t>
+          <t>The quality of spaghetti processed from two Canadian durum wheats (Triticum durum Desf.) and one Argentine durum wheat was evaluated in terms of flour characteristics at four stages of kernel development. Rapid changes in the nature of the flour components within each cultivar resulted in substantial improvement of spaghetti quality during development. Flour pigment levels decreased during development for all three cultivars which resulted in decreased spaghetti pigment levels. Flour brownness, which was related to spaghetti brownness decreased during development for all three cultivars. The brownness of the Argentine durum flour and spaghetti was much greater thaw that of the Canadian durums at al stages of development. Spaghetti cooking quality improved during development for all three durum wheats until the 6–10 days preripe stage. The cooking quality of spaghetti processed from 6–10 days preripe durum was essentially equal to the cooking quality of spaghetti prepared from the corresponding ripe durum. Solubility distributions of the flour proteins and gel filtration elution profiles of the flour proteins established a relationship between improved spaghetti cooking quality and an increased proportion of glutenins.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2163141195</t>
+          <t>https://openalex.org/W2131422883</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/qj.49710243106</t>
+          <t>https://doi.org/10.1007/978-1-4615-9038-5_39</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Trenberth (1976)</t>
+          <t>Rankin &amp; Hodgson (1977)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Fluctuations and trends in indices of the southern hemispheric circulation</t>
+          <t>Cue Exposure: One Approach to the Extinction of Addictive Behaviours</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Abstract Indices of the southern hemisphere circulation are derived for the Australasian area using sea level pressure data. As well as considering indices of zonal and meridional flow, indices are derived based on the empirical orthogonal function analysis of Trenberth (1975). The first two patterns, P1 and P2, of this analysis can be approximately represented by only a few station values, and in this way their time series can be extended. ‘Regimes’ of weather are defined based on the short term mean behaviour of P1 and P2. These regimes are also characterized by large changes in the periodicities at which most of the variance occurs. The quasibiennial oscillation shows up as a fairly stable feature of the meridional indices and P2. Trends in both P1 and P2 since the 1940s are related to the rising temperature trend in New Zealand. There has been a trend for less westerly especially between 25 and 45°S, some increase in westerly south of 45°S and less southwesterly or more northeasterly component to the flow across the whole of New Zealand as a result of the increased tendency for anticyclones to persist to the east of New Zealand rather than over Australia and the Tasman Sea, and their preference for higher latitude blocking.</t>
+          <t>In recent years there has been growing dissatisfaction with the traditional treatment approach to alcoholism, the goal of total abstinence based on the hypothesis that alcoholism is an irreversible disease. Jellinek (1960) stressed that the disease concept of alcoholism should be only a “working hypothesis” to be discarded if disconfirmed by empirical evidence. Evidence against the disease model is gradually accumulating and many research workers believe that we are at this very moment in the throws of a rather violent paradigm shift, (Sobell, 1976). To this end, studies have demonstrated relatively poor outcome for all sorts of different approaches while others (e.g., Edwards and Guthrie, 1967) have been unable to demonstrate that the traditional in-patient approaches are at all effective. In these circumstances we must generate alternative working hypotheses as to the nature and treatment of addictive behaviours and then make sure that these working hypotheses do not become dogma but are adequately and repeatedly tested.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2172104429</t>
+          <t>https://openalex.org/W2139860720</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1029/jb081i023p04157</t>
+          <t>https://doi.org/10.1177/019262337700500304</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Cande &amp; Kent (1976)</t>
+          <t>Homburger (1977)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Constraints imposed by the shape of marine magnetic anomalies on the magnetic source</t>
+          <t>Inbred Hamsters as Animal Models of Disease</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>A two-layer source model for marine magnetic anomalies can accommodate several observations made on the shapes of anomalies in the Pacific and southeast Indian oceans. The layers are defined on the basis of cooling history and magnetic properties. The upper layer consists of rapidly cooled basalts, which acquire a strong magnetization near the ridge axis. This layer, with narrow transition zones, can account for the observed short polarity events. The lower layer consists of moderately magnetized, slowly cooled intrusive rocks in the lower oceanic crust. The transition zones in this layer are broad, sloping boundaries reflecting the delayed acquisition of magnetization with depth as, for example, along a sloping Curie point isotherm. The lower layer can account for a skewness discrepancy of 10°–15° in the observed skewness of some anomalies. It is shown that the upper layer has to contribute about three quarters of the total amplitude of magnetic anomalies in order for this model to simulate the observed shape of the anomalies. The model predicts that a deep drill hole located just to the older side of a reversal boundary in the upper part of the oceanic crust should encounter a magnetization polarity reversal within the lower oceanic crust.</t>
+          <t xml:space="preserve">T h e terms “animal model,” “animal model of hum a n disease,” “animal model in biomedical research,” etc., have different meanings to different individuals. Some c h o o s e primates as the best model of human disease bec a u s e of the closeness of the a p e s and monkeys to hum a n s in the evolutionary scale; others prefer rodents bec a u s e of ease of handling, fecundity in reproduction, and . short life span. T h e widespread and most naive definition is that of the mouse as “a little man who lives his seventy years in two.” In a much broader sense , however, any biological system from viruses to primates can be a model for human disease because the fundamental disease processes may take place in microorganisms, as well as in more complex structures. Perhaps the best, and certainly one of the most important models, h a s been the sweet pea which produced for Mendel, the laws of Mendelian genetics which prevail for man and animal. The Syrian hamster, about which this discussion centers, entered the research laboratory in 1941, having been earlier caught and domesticated in Syria by biologists of Jerusalem University (1). T h e development of inbred strains is even more contemporaneous and w a s initiated by workers such as Billingham, Robertson, Whitney, and Nixon. The last two n a m e s were both associated with Bio-Research Institute, a n d it is to their efforts that w e owe our present 27 inbred strains. T h e s e inbred strains are kept in our foundation stock at Cambridge where additional inbred lines a r e worked o n by C.H. Yoon under a resources grant from NIH. Basic research at Bio-Research Institute centers around the further definition of these inbred strains of hamsters, and s o m e are being developed for commercial production by Bio-Research Consultants, Inc., of Cambridge, a n d its subsidiary, TELACO, Bar Harbor, ME. Table I lists t h e s e strains and summarizes their characteristics. It is noticeable from that table that a rather simple parameter like life expectancy varies markedly and significantly between strains even though, in s o m e cases of shorter survival, t h e c a u s e of earlier death has not yet been ascertained. Recently described mutations discovered in inbred Syrian hamsters are hydrocephalus (2) and retinal degeneration (3). A list of the disease models, in addition to t h e mutations mentioned, is contained in Table II, and s o m e of these models will now be discussed in more detail. Cystic prostatic hypertrophy or hyperplasia (Fig. 8) w a s described by Homburger and Nixon (4) in 1970. At that time, six strains were investigated and classed in two groups of a g e s , namely, up to 115 days and beyond. Among the older animals, two lines showed marked hypertrophy of t h e prostate as expressed in its weight, and the histological examination showed a cystic hyperplasia of the prostate gland in these affected lines, namely, the 2.4 and 87.20 lines. Schaffner (5) has used the 87.20 line to study the effects of various factors on this type of prostatic disease, and h e found in his animals that the older animals all suffered from a hyperplastic prostate. T h e s a m e situation h a s prevailed in our colonies, whereas in the colony of the Ciba-Geigy Corp., in Ardsley, NY (6), Steinetz found that in the 2.4 line 6 months or older, marked testicular atrophy occurred but no hyperplasia of the prostate w a s present. This contradiction h a s not as yet been fully explained although it would appear as a possible explanation that, in the absence of females in the surroundings of the animals, the aging male does undergo testicular atrophy. In our colony, the animals were kept-the s e x e s separated-but nevertheless there were always females in the environment, whereas Steinetz’s colony may have been limited to males only. Another interesting model is that of obesity (Fig. 2) which still is largely unexplored. This was observed in an inbred line with frequent spontaneous adrenal tumors, described by Homburger and Russfield in 1970 (7). Obesity occurred relatively late in life-more frequently and with greater severity in females than in males-and w a s not related to the presence or absence of adrenal tumors. Hind-leg paralysis (Fig. 1) has been described by Nixon and Connelly in 1968 (8) as a sex-linked, recessive characteristic, and in the view of Manuelidis, constitutes a model for amyotrophic lateral sclerosis, whereas Nauta h a s felt that there is also present a peripheral demyelinizing disorder. (Personal communication from Manuelidis a n d Nauta on their studies of a few animals.) Spontaneous seizures are unkown in rodents where the classical example of a possible model for epilepsy is the audiogenic seizures of mice and rabbits. Yoon and co-workers (9) described spontaneous seizures in Golden’ hamsters which appear to be transmitted as a simple recessive. The condition maintains itself throughout the youth of the hamsters until about a g e 60 days when the seizures </t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2194332352</t>
+          <t>https://openalex.org/W2142800574</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/brain/99.4.735</t>
+          <t>https://doi.org/10.1007/978-3-642-66679-7_4</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Horten &amp; Rubinstein (1976)</t>
+          <t>Holde et al. (1977)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>PRIMARY CEREBRAL NEUROBLASTOMA</t>
+          <t>Association Equilibria of Callianassa Hemocyanin</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>A series of 35 primary cerebral neuroblastoma is reported. These rare tumours occur most often in children in the first half of the first decade. Grossly the tumors are often massive, discrete, lobular, firm and cystic. Histologically three variants, largely determined by the extent and distribution of the fibrous connective tissue stroma, are recognized: (1) a classical variant, which most resembles the peripheral neuroblastoma and is characterized by a high frequency of Homer Wright rosettes and a relatively high frequency of ganglionic differentiation; (2) a desmoplastic variant, which is characterized by an intense connective tissue stroma; and (3) a transitional variant, in which both the classical and the desmoplastic features may be present within the same case, either concurrently or consecutively. Both the desmoplastic and the transitional forms are less likely to exhibit differentiation to mature ganglion cells, but the importance of identifying the primitive cell elements as neuroblasts is emphasized. With rare exceptions, this can be established only by specific silver impregnations on frozen material. Occasionally the direction of growth may be largely leptomeningeal. Seven illustrative clinical histories with pathological correlations are described. The over-all clinical behaviour of these tumours is that of malignant neuroepithelial neoplasms, characterized by a high recurrence rate. Recurrence may, however, be a late development, in some cases occurring five or seven years after apparently successful surgical removal. The tumour shows shows a high incidence of metastatic spread, almost 40 per cent of the cases examined at autopsy having disseminated in the cerebrospinal pathways. Exceptionally, extraneural metastases may also develop. However, long post-operative survival occasionally occurs, and the subsequent clinical course is not always predictable in the individual case. The differential diagnosis is briefly discussed. The cellular nature of the tumour and its biological behaviour recall those of the cerebellar medulloblastoma. Post-operative radiation to the entire neuraxis should be considered for these neoplasms.</t>
+          <t>The hemocyanins exhibit some of the most complex patterns of quaternary organization known among proteins. In arthropod hemocyanins at least, the individual polypeptide chains are fairly small (about 75,000 daltons). Yet they assemble, via a series of hierarchical levels of structural complexity, into objects which weigh, in some instances, millions of daltons (van Holde and van Bruggen, 1971). It has been recognized since Svedberg’s time that hemocyanins could be caused to dissociate to various levels of subunit structure by modifications in the solution environment (Eriksson-Quensel and Svedberg, 1936). In some cases such dissociation appeared to be at least partially reversible. However, it has become apparent in more recent studies that many of these supposedly “reversible” dissociation processes are complicated in a peculiar way: they do not appear to follow the mass action law. In other words, a dilution or concentration of what is by other criteria an equilibrating mixture does not yield the expected shift in composition. Such behavior has been observed, by DiGiamberardino (1967), Konings et al. (1969), and Siezen and van Driel (1973).</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2233947750</t>
+          <t>https://openalex.org/W2150517863</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.2946164</t>
+          <t>https://doi.org/10.1111/j.1468-2311.1977.tb00335.x</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Maple (1976)</t>
+          <t>Bottoms (1977)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Superconductivity — A Probe of the Magnetic State of Local Moments in Metals</t>
+          <t>Reflections on the Renaissance of Dangerousness*</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>The superconducting properties of exemplary matrix‐impurity systems in the three distinct regimes of magnetic character of the impurity which have been identified are reviewed. The three regimes can be distinguished by the detailed behavior of the depressions of (1) the superconducting transition temperature Tc as a function of impurity concentration n and (2) the specific heat jump ΔC at Tc as a function of Tc. These systematic s of superconductivity in the presence of local moments appear to be sufficiently well established that it is possible to (1) ascertain whether the solute spin is long‐lived (magnetic) or short‐lived (nonmagnetic) compared to thermal fluctuation lifetimes at superconducting temperatures, (2) determine the sign and magnitude of the conduction electron‐impurity spin exchange interaction parameter ℓ and the temperature dependence of the exchange scattering of conduction electrons by long‐lived solute spins, (3) derive, in favorable cases, information pertaining to the energy level structure of rare earth ions in the crystalline electric field of their superconducting metallic host, and (4) observe magnetic‐nonmagnetic transitions of an impurity induced by the application of an external pressure or variation of the composition of a binary alloy matrix.</t>
+          <t>The Howard Journal of Criminal JusticeVolume 16, Issue 2 p. 70-96 Reflections on the Renaissance of Dangerousness* A. E. Bottoms, A. E. BottomsSearch for more papers by this author A. E. Bottoms, A. E. BottomsSearch for more papers by this author First published: October 1977 https://doi.org/10.1111/j.1468-2311.1977.tb00335.xCitations: 114 † *Inaugural Lecture as Professor of Criminology in the University of Sheffield, delivered 12th January, 1977. A few amendments have been made to the text as delivered, and footnotes and references have been added. I should like to express my gratitude to the Ecole de Criminologie at the Universite Catholique de Louvain, Belgium, whose invitation to lecture there in May, 1976 first turned my attention seriously to the subject of dangerousness. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Aarvold Committee (1973) Report of the Review of Procedures for the Discharge and Supervision of Psychiatric Patients subject to Special Restrictions, Cmnd. 5191. Google Scholar Advisory Council on the Penal System (1974) Young Adult Offenders, H.M.S.O. Advisory Council on the Treatment of Offenders (1963) Preventive Detention, H.M.S.O. Google Scholar American Friends Service Committee (1971) Struggle for Justice, New York, Hill and Wang. Google Scholar Ancel, M. (1965) Social Defence, London, Routledge and Kegan Paul. Google Scholar Baldwin, J. and Bottoms, A.E. (1976) The Urban Criminal, London, Tavistock. Google Scholar Beccaria, C. (1764) Dei delitti e delle pene Eng. trans, as On Crimes and Punishments H. Paolucci, Indianapolis, Bobbs-Merrill. Google Scholar Beyleveld, D. and Wiles, P. (1975) Man and Method in David Matza's ‘Becoming Deviant Brit. Jnl. Criminology, 15, 111–127. Web of Science®Google Scholar Blennerhassett Committee (1976) Drinking and Driving; Report of the Departmental Committee, H.M.S.O. Google Scholar Bottoms, A. E. and McClintock, F.H. (1973) Criminals Coming of Age, London, Heinemann. Google Scholar Brody, S.R. (1976) The Effectiveness of Sentencing, Home Office Research Studies No. 35, H.M.S.O. Google Scholar Butler Committee (1975) Report of the Committee on Mentally Abnormal Offenders, Cmnd. 6244. Google Scholar Carr, R. (1973) Speech to N.A.C.R.O., Norwich, March 31st. Google Scholar Carson, W.G. (1970) ‘White Collar Crime and the Enforcement of Factory Legislation Brit. Jnl Criminology, 10, 383–398. 10.1093/oxfordjournals.bjc.a046261 Web of Science®Google Scholar Carson, W.G. (1976) ‘ Crime in Industry’ (Letter), The Sunday Times, April 11th. Google Scholar Clarke, J., Hall, S., Jefferson, T. and Roberts, B. (1976) ‘ Subcultures, Cultures and Class’ in S. Hall and T. Jefferson (Eds.) Resistance through Rituals, London, Hutchinson. Google Scholar Cross, Sir R. (1975) The English Sentencing System, (second edition), London, Butterworths. Google Scholar Durkheim, E. (1895) Les Regies de la Methode Sociologique; Eng. trans, as The Rules of Sociological Method G. Catlin, Free Press, 1950. Google Scholar Durkheim, E. (1901) ‘Deux Lois de L'evolution penale,’L'Annee Sociohgique, 4, 65–95; Eng. trans, as ‘Two Laws of Penal Evolution’, with introduction by T.A. Jones and A.T. Scull, (1973) Economy and Society, 2, 278–308. Google Scholar Duster, T. (1970) The Legislation of Morality, Glencoe, Free Press. Google Scholar Eysenck, HJ. (1970) Crime and Personality, ( rev. ed.) St. Albans, Paladin. Google Scholar George, V. and Wilding, P. (1976) Ideology and Social Welfare, London, Routledge and Kegan Paul. Google Scholar Halfon, A., David, M., and Steadman, H. (1971) ‘The Baxstrom Women: a four-year follow-up of behaviour patterns. Psychiatric Quarterly, 45, 518–27. 10.1007/BF01563213 CASPubMedWeb of Science®Google Scholar Hart, H.L.A. (1961) ‘ Negligence, Mens Real and Criminal Responsibility’, in A.G. Guest Oxford Essays in Jurisprudence, London, Oxford University Press; reprinted in H.L.A. Hart (1968) Punishment and Responsibility, Oxford, Clarendon Press. Google Scholar Holden, A. (1974) The St. Albans Poisoner: The Life and Crimes of Graham Young, London, Hodder and Stoughton. Google Scholar Home, O. (1976a) Children and Young Persons Act 1969: Observations on the Eleventh Report of the Expenditure Committee, Cmnd. 6494. Google Scholar Home, O. (1976b) Report of the Parole Board for 1975, H.M.S.O. Google Scholar Hood, R. (1974) ‘ Some Fundamental Dilemmas of the English Parole System, and a Suggestion for Reform’ in D.A. Thomas (Eds) Parole: Its Implications for the Criminal Justice and Penal</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2275572800</t>
+          <t>https://openalex.org/W2158227202</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/ajp.133.2.142</t>
+          <t>https://doi.org/10.2307/800135</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NA (1976)</t>
+          <t>Pleck (1977)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Crime and violence among mental patients</t>
+          <t>The Work-Family Role System</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Back to table of contents Previous article Next article No AccessCrime and violence among mental patientsPublished Online:1 Apr 2006https://doi.org/10.1176/ajp.133.2.142AboutSectionsView articleAbstractPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail View articleAbstractThe authors studied the arrest rates of 867 patients from the Bellevue catchment area who were discharged from the psychiatric division of Bellevue Hospital. They found that the arrest rates of these patients for two years preceding and two years following their admissions to the study were higher than the arrest rates for the general population of the Bellevue catchment area as well as those for 4,601 cities in the United States. They discuss the implications of this finding for the post discharge care of mental patients, particularly in the light of current discharge policies. Access content To read the fulltext, please use one of the options below to sign in or purchase access. Personal login Institutional Login Sign in via OpenAthens Purchase Save for later Item saved, go to cart PPV Articles - American Journal of Psychiatry $35.00 Add to cart PPV Articles - American Journal of Psychiatry Checkout Please login/register if you wish to pair your device and check access availability. Not a subscriber? Subscribe Now / Learn More PsychiatryOnline subscription options offer access to the DSM-5 library, books, journals, CME, and patient resources. This all-in-one virtual library provides psychiatrists and mental health professionals with key resources for diagnosis, treatment, research, and professional development. Need more help? PsychiatryOnline Customer Service may be reached by emailing [email protected] or by calling 800-368-5777 (in the U.S.) or 703-907-7322 (outside the U.S.). FiguresReferencesCited byDetailsCited byThe Use of Machine Learning Techniques to Solve Problems in Forensic Psychiatry1 January 2023ReferencesCukurova Medical Journal, Vol. 43, No. 4R&amp;S - Research Studies Anatolia Journal, Vol. 1, No. 2Aggression and Violent Behavior, Vol. 12, No. 5A Comparison of Australian Men with Psychotic Disorders Remanded for Criminal Offences and a Community Group of Psychotic Men who have not Offended26 June 2016 | Australian &amp; New Zealand Journal of Psychiatry, Vol. 40, No. 3Panic-Agoraphobic Spectrum and Light Sensitivity in a General Population Sample in Italy1 January 2005 | The Canadian Journal of Psychiatry, Vol. 50, No. 1, Vol. 12At Work with Threats and ViolenceCan Involuntary Outpatient Commitment Reduce Arrests among Persons with Severe Mental Illness?30 June 2016 | Criminal Justice and Behavior, Vol. 28, No. 2New Directions for Mental Health Services, Vol. 2001, No. 90Journal of Criminal Justice, Vol. 29, No. 4Persons with Serious Mental Illness in the Criminal Justice System: Background, Prevalence, and Principles of Care11 December 2016 | Criminal Justice Policy Review, Vol. 11, No. 4International Journal of Law and Psychiatry, Vol. 22, No. 1Persons With Severe Mental Illness in Jails and Prisons: A ReviewH. Richard Lamb, M.D., and Linda E. Weinberger, Ph.D. 1 April 1998 | Psychiatric Services, Vol. 49, No. 4Complications of Severe Mental Illness Related to Alcohol and Drug Use DisordersA Reassessment of the Link between Mental Disorder and Violent Behaviour, and its Implications for Clinical Practice17 November 2016 | Australian &amp; New Zealand Journal of Psychiatry, Vol. 31, No. 1Let's get serious about dangerousness1 January 2006 | Criminal Behaviour and Mental Health, Vol. 6, No. S1Death by Inmate: Multiple Murder in a Maximum Security Prison27 July 2016 | International Journal of Offender Therapy and Comparative Criminology, Vol. 40, No. 3International Journal of Law and Psychiatry, Vol. 19, No. 1The Journal of Nervous and Mental Disease, Vol. 184, No. 7State psychiatric hospital patients with past arrests for violent crimes1 April 2006 | Psychiatric Services, Vol. 46, No. 8International Journal of Law and Psychiatry, Vol. 18, No. 1Psychology, Crime &amp; Law, Vol. 2, No. 1British Journal of Psychiatry, Vol. 166, No. 5Schizophrenics Remanded to the Forensic Psychiatric Institute of British Columbia, 1975–199024 June 2016 | Medicine, Science and the Law, Vol. 34, No. 3International Journal of Law and Psychiatry, Vol. 17, No. 3Journal of Clinical Forensic Medicine, Vol. 1, No. 1Child and Adolescent Psychiatric Clinics of North America, Vol. 3, No. 2British Journal of Psychiatry, Vol. 165, No. 1Homicide, Schizophrenia and Substance Abuse or Dependency1 October 1993 | The Canadian Journal of Psychiatry, Vol. 38, No. 8The Criminality of Mentally Disordered Offenders30 June 2016 | Criminal Justice and Behavior, Vol. 20, No. 2Evaluation and Program Planning, Vol. 16, No. 4British Journal of Psychiatry, Vol. 162, No. 1Mental Illness and Criminal Behavior Revisited17 September 2016 | International Journal of Offender Therapy and Comparative Criminology, Vol. 36, No. 1Internatio</t>
+          <t>The study of work and the study of the family have traditionally constituted separate sub-disciplines in sociology. Rapoport and Rapoport (1965) and Kanter (1976), among others, have aptly stressed the need for greater examination of work and family in relation to each other. Such joint consideration is necessary to describe how individuals' functioning in either of these spheres is affected by their involvement in the other. Further, the current examination of brings added impetus to the analysis of interrelationships. A major part of what is usually meant by change in sex roles is specifically change in the traditional allocation of work and family between men and women. Traditional role norms prescribed the specialization of work and family responsibilities by sex, but a new option for each to integrate in both work and the family is now emerging. This paper analyzes some aspects of what I term the work-family role system. The role system is composed of the male work role, the female work role, the female family role, and the male family role. Each of these may be fully actualized, or may be only partly actualized or latent, as is often the case with the female work role and the male family role. The analysis of these four as a system provides a useful way of organizing research about the relations among these roles, and suggests new relations to be examined. It also makes possible some inferences about the dynamics of future changes in women's and men's in work and the family. Analyzing men's and women's work and family as components of a role system involves specifying how each role articulates with the others to which it is linked, and how variations in the nature of each role, or whether the role is actualized at all, affects the others. For example, to describe the link between the female work and the female family roles, we consider how the extent of the female work role (ranging from no paid work at all, to the most demanding and highest status full time work) both affects and is affected by the extent of the female family role. These links can be considered at two conceptual levels. They can be analyzed at the level of the individual couple, e.g., the relation between wives' employment status and wives' role performance in the family. Each link can also be considered at the</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2276457128</t>
+          <t>https://openalex.org/W2159365805</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/s0034670500024979</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Jw &amp; Rt (1976)</t>
+          <t>Agresto (1977)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>World fertility, 1976: an analysis of data sources and trends.</t>
+          <t>Liberty, Virtue, and Republicanism: 1776–1787</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Fertility levels and trends are analyzed for all countries according to type of data available i.e.: for countries and territories with complete birth registrations (76; 43 developed and 33 developing) for those with systems other than civil registration (37) and for those with no available national statistical data on fertility since 1970 (86). Declines in birthrates have been registered in all 3 categories each of which represents approximately 1/3 of the worlds population. The effects of family planning programs on fertility are contrasted in 32 countries and territories with vigorous programs (Singapore Mauritius Taiwan Costa Rica Hong Kong South Korea Fiji Colombia Sri Lanka Trinidad and Tobago Barbados Chile West Malaysia Thailand Egypt and Indonesia) and 16 without vigorous programs (Algeria Bangladesh Belize Bolivia Brazil Ecuador Ethiopia Ivory Coast Jordan Kenya Mexico Nicaragua Pakistan Peru Syria and Uganda). The data presented indicate that of the former group Singapore and Mauritius had declines of over 50% in TFRs between 1960 and 1973-1974; Taiwan Costa Rica Hong Kong and South Korea had declines of over 40% for the same time period while Colombia Sri Lanka and Trinidad and Tobago experienced drops of over 30%. Fertility silhouettes charting ASFRs by time are provided for the 32 above-mentioned countries and territories and for 105 additional ones. Also included are a world population map classifying nations by CBRs and 2 graphs detailing changes in CBRs and in the absolute number of births between 1965-1974 for approximately 100 countries and territories. The case of China is discussed in detail and varying estimates of its past and present birthrates and fertility levels compared. The demographic transition theory believed by many to be relevant to current efforts at fertility reduction is discussed.</t>
+          <t>In recent years two ideas concerning America's republicanism have gained fairly general currency. First, there is now a growing recognition that a shift in understanding occurred in the decade after the revolution over the nature of republicanism and the political, social, and moral prerequisites necessary for establishing such a government. In particular, the notion of the absolute necessity of “virtue” or “public spiritedness” as the operative principle of republicanism became, for most American political thinkers, not only problematic but nearly indefensible. Second, there is a growing body of literature, journalistic and popular as well as scholarly, calling upon us to reopen the question of civic virtue and to reexamine anew its connection with republican health. After briefly reviewing the theoretical and practical connections made in the revolutionary era between virtue and self-government, this article will attempt to trace the causes for the early declension of the necessity of virtue in America's understanding of the foundations of republicanism. This accomplished, concerned citizens might then be able to evaluate more carefully the contemporary rediscovery of the links between moral character and modern republicanism by contemporary scholars and public men.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2299582982</t>
+          <t>https://openalex.org/W2169348212</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3133/ofr75659</t>
+          <t>https://doi.org/10.1111/j.1754-7121.1977.tb01892.x</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Leenheer et al. (1976)</t>
+          <t>Johnston (1977)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Physical, chemical, and biological aspects of subsurface organic waste injection near Wilmington, North Carolina</t>
+          <t>Coastal zone management in Canada: purposes and prospects</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>From May 1968 to December 1972, an industrial organic waste was injected at rates of 100 to 200 gallons per minute (6.3 to 12.6 litres per second) into a sand, gravel, and limestone aquifer of Late Cretaceous age by Hercules Inc. located near Wilmington, North Carolina. This report presents both field and laboratory data pertaining to the physical, chemical, and biological effects of waste injection into the subsurface at this particular site, a case history of the operation, predictions of the reactions between certain organic wastes and the aquifer components, and descriptions of the effects of these reactions on the subsurface movement of the wastes. The case history documents a situation in which subsurface waste injection could not be considered a successful means of waste disposal. The first injection well was used only for 1 year due to excessive wellhead pressure build-up above the specified pressure limit of 150 pounds per square inch (10.3 bars). A second injection well drilled as a replacement operated for only 5 months before it too began to have problems with plugging. Upward leakage of waste into shallower aquifers was also detected at several wells in the injection-observation well system. The multiple problems of plugging, high pressures, and waste leakage suggested that the reactive nature of the waste with the aquifer into which it was injected was the primary reason for the difficulties experienced with waste injection. A site study was initiated in June 1971 to investigate wasteaquifer interactions. The first stage of the study determined the hydrogeologic conditions at the site, and characterized the industrial waste and the native ground water found in the injection zone and other aquifers. The injection zone consisted of multiple permeable zones ranging in depth from about 850 to 1,000 feet (259 to 305 metres) below land surface. In addition to the injection zone, aquifers were found near depths of 60, 300, 500, and 700 feet (18, 91,152, and 213 metres) below land surface. The aquifers from 300 feet (91 metres) down to the injection zone were flowing artesian with the natural pressure of the injection zone being 65 feet (20 metres) above land surface at the site. The dissolved solids concentration in the native ground water increased with depth to an average value of 20,800 mg/1 (milligram per litre) (two-thirds that of seawater) in the water from the injection zone. Sodium chloride was the major dissolved solid, and all of the ground water below 300-feet (91-metres) depth was slightly alkaline. Dissolved organic carbon of the industrial waste averaged 7,100 mg/1 and 95 percent of the organic carbon was identified and quantified. The major organic waste constituents in order of decreasing abundance were acetic acid, formic acid,p-toluic acid, formaldehyde, methanol, terephthalic acid, phthalic acid, and benzole acid. Prior to injection, the waste was neutralized with lime to pH 4 so that the major inorganic waste constituent was calcium at a concentration of 1,300 mg/1. The second stage of the site study involved the observation of waste-aquifer interactions at various wells as the waste arrived and passed by the wells. Water samples obtained from three observation wells located 1,500 to 2,000 feet (457 to 607 metres) from the original injection well gave evidence for biochemical waste transformations at low waste concentrations. Gas that effervesced from these water samples contained up to 54 percent methane by volume. Ferrous iron concentrations as high as 35 mg/1, hydrogen sulfide gas, and sulfide precipitates were additional indicators of biochemical reductive processes in the subsurface environment. Approximately 3,000 organisms per millilitre were found in uncontaminated ground water from the injection zone whereas in waste-contaminated wells, the number increased to levels as high as 1,000,000 organisms per millilitre. High concentrations of waste were found to be toxic to microorganisms. Most of the organisms isolated from uncontaminated wells were facultative, aerobic genera whereas the population changed to anaerobic strains in the contaminated wells. Methanogenic bacteria of the genus Methanobacterium and genus Methanococcus were isolated in pure culture from ground-water samples in which methane was found. The relative ratios of formic acid, p-toluic acid, and terephthalic acid to acetic acid were lower in these ground-water samples than in the injected waste indicating degradation or sorption of formic, p-toluic, and terephthalic acids relative to acetic acid during the period of waste travel to these observation wells. The construction of the screened section of the observation wells allowed dilution of the waste and internal circulation of ground water so that it was impossible to determine quantitative waste concentrations in the various waste-receiving zones within the injection zone. Highly contaminated ground-water samples obtained from five observation wells, locat</t>
+          <t>Abstract. Coastal zone management ( czm ), though a relatively new concept in Canada, has become the dominant approach to coastal planning in the United States. Its saliency has much to do with the fact that it represents an acceptable blend of views of environmentalists and public administrators, especially those concerned with land use control and natural resource management problems in coastal areas. Although not aggravated to the same degree by urban congestion, these problems in Canada are becoming sufficiently serious to require a close look at the possible benefits of czm in this country. The timeliness of this concept is underlined by the fact that Canada has just entered the ‘economic zone’ phase of ocean management with the extension of its limits of national jurisdiction for fishery purposes to 200 miles. Under the existing system of allocation of powers in this country, it is impossible to envisage any ambitious czm scheme for Canada except on the basis of joint federal‐provincial undertakings, in which federal agencies would tend to have a predominant involvement in maritime activities and provincial agencies in land use issues. Moreover, the spatial conception of a single uniform zone for coastal management presents considerable difficulty. For these reasons it seems futile to recommend the sweeping organizational changes that would be desirable in order to bring about a fully systematic approach to coastal management in Canada. In particular, it would be unrealistic at this early stage to attempt to establish a single comprehensive agency to direct the diverse functions of a broad‐based system of coastal management. But although a high degree of unifunctionalism will have to be maintained within the existing system of public administration, the urgency of many coastal resource problems requires that a much higher degree of inter‐agency coordination be attained as a matter of national priority. To this end it is suggested initially that three Coastal Zone Commissions should be established. The mandate of each would be to identify and appraise the managerial requirements of the coastal areas within the designated region with a view to influencing policy discussions at all three levels of Canadian authority, and also perhaps those at the international level. Each Commission should also be empowered to address recommendations for further initiatives to the appropriate agencies. Sommaire. La gestion de la zone c&amp;amp;#x006f;&amp;amp;#x030c;tière ( gzc ), concept relativement nouveau au Canada, est devenu l'objet principal de la planification c&amp;amp;#x006f;&amp;amp;#x030c;tière aux Etats‐Unis. La prédominance de cette notion vient de ce qu'elle représente un amalgame acceptable des points de vue des spécialistes de l'environnement et d'administrateurs publics, et plus particulièrement de ceux qui s'occupent de l'usage des terres et des problèmes de gestion des ressources naturelles dans les régions c&amp;amp;#x006f;&amp;amp;#x030c;tières. Bien que ces problèmes ne soient pas trop compliqués par la congestion urbaine, ils sont néan‐moins suffisamment sérieux pour justifier un examen approfondi des avantages éventuels de la gzc dans ce pays. Le fait que la Canada vienne d'entrer dans la phase «économique » de la gestion océanique, avec l'extension des limites de sa juridiction nationale pour la pěche à 200 milles, accroi&amp;amp;#x030c;t la pertinence de ce concept à un moment opportun. Dans le cadre du système existant de répartition des pouvoirs dans ce pays, il n'est possible d'envisager un programme ambitieux de ce genre pour le Canada, que comme entreprise conjointe fédérale‐provinciale, avec participation dominante des organismes fédéraux pour les activatés maritimes et des agences provinciales pour les questions concemant l'usage des terres. De plus, la concession spatiale d'une zone uniforme unique présente des difficultés considérables. Pour ces raisons, il semble futile de recommander le boulversement nécessaire pour adapter la gestion c&amp;amp;#x006f;&amp;amp;#x030c;tière au Canada de façon absolument systématique. Il serait particulièrement peu réaliste à ce stade de créer un organisme général unique pour diriger les différentes fonctions d'un large système de gestion c&amp;amp;#x006f;&amp;amp;#x030c;tière. Il faudra done maintenir dans une grande mesure l'unifonctionnalisme dans le cadre du système actuel d'administration maritime, mais l'urgence de nombreux problèmes concernant les ressources c&amp;amp;#x006f;&amp;amp;#x030c;tières exige beaucoup plus de coordination entre les organismes, coordination qui devrait constituer une priorité nationale. Pour ce faire, on a proposé initialement la création de trois commissions de zones c&amp;amp;#x006f;&amp;amp;#x030c;tières. Elles auraient pour mandat de dégager et d'évaluer les besoins administratifs des zones c&amp;amp;#x006f;&amp;amp;#x030c;tières dans les différentes régions, afin d'influencer les débats politiques aux trois niveaux gouvernementaux et peut‐ětre aussi au niveau international. Chacun</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2314928416</t>
+          <t>https://openalex.org/W2201545053</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://doi.org/10.9753/icce.v15.71</t>
+          <t>https://doi.org/10.7901/2169-3358-1977-1-139</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Hattori &amp; Suzuki (1976)</t>
+          <t>Marcus (1977)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>CONCEPT FOR INFERRING THE LITTORAL DRIFT TREND</t>
+          <t>A BAD DAY AT BUNKER POINT</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>To infer the rate and prevailing direction of littoral transport along a given coast is of prime importance in the functional and rational designing of coastal structures as well as in the environmental consideration of coastal zones. Many efforts have been made to develop the inferring method from field evidences such as 1) coastal landforms and shore configurations in the vicinity of existing structures1'~°', 2) alongshore variations in beach and bed sediment properties V)~12)j 3) statistical analysis of incident wave properties 13)~16)/ 4) movements of natural or artificial tracers 17)-20)^ an(j so on_ Among these evidences, the alongshore variations of indigeneous beach materials have served as a powerfull, practical and economical tool in the inference of general trend of littoral transport. Properties of beach sediment, such as grain size of sand and volume and shape of gravels, indicate some progressive trends with alongshore distance from supply sources2D. Thus the littoral transport direction along a given coast is inferable from variations in beach sediment properties. However, inferring criteria of prevailing direction from variations in various beach sediment properties have not yet been fully established. For example, the prevailing direction of littoral transport should be defined to be alongshore component of intergrated vector of littoral transport during several years or decades along a given coast. But this direction is often confused with the alongshore dislocating or traveling direction of beach sediment, which is indicated by the variations. It has also been concluded simply that the variation series obtained from backshore samples show a long-term trend of littoral transport, whereas those from foreshore indicate a short-term trend such as seasonal changes. In this inferring procedure any considerations have never been paid on differences in grain size of beach materials (sand and gravels) and in wave conditions during the period of field study. Rate or intensity of littoral transport has scarcely been inferred from the variation series of beach sediment properties even quantitatively. To solve these problems, the present study proposed a new concept on the basis of field evidences obtained on the Enshu Coast, Central Japan.</t>
+          <t>ABSTRACT The first phase of a four-part program by Gulf Trading and Transportation Company (GT&amp;amp;T) to improve existing oil spill policies and procedures was completed recently. This phase, known as the “Bad Day at Bunker Point” seminars, utilizes multimedia, role-playing exercises designed to sensitize key ship personnel and terminal managers to the problems and responsibilities of doing business in today's world. Other phases in the GT&amp;amp;T program include visits by the safety and environmental inspection team to all of the company's 60 major terminals to evaluate operational procedures and equipment and to recommend needed changes and updating. Later, the inspection team will make periodic, but unscheduled, spot-checks of these terminals to make sure previous recommendations have been carried out and to insure that contingency plans are changed as technology improves. The final element of the program is establishment of a “fast-response team” made up of representatives of marine operations, engineering, public relations, environmental, legal, insurance and personnel departments to assist terminal personnel in the event of a major oil spill.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2315946770</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/621984</t>
+          <t>https://openalex.org/W221709364</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Geyl (1976)</t>
+          <t>Laganelli &amp; Howe (1977)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Tidal Palaeomorphs in England</t>
+          <t>Prediction of Pressure Fluctuations Associated with Maneuvering Re-entry Weapons. Volume I</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Tidal palaeomorphs are valleys shaped by tidal action when sea level was higher in the past, and can be recognized by their morphological and morphometric similarity to tidal neomorphs, the tidal landforms of the present. Both are characterized by great and rapidly increasing size, shown by valley- or channel-meander wavelength and width in relation to catchment area or stream length, when compared with rivers. Wadden channel-type and estuarine channel-type neomorphs are here only briefly discussed, and the corresponding palaeomorphs are briefly treated in theory. A number of examples of suspected tidal palaeomorphs in England are presented. THIS study presents some English examples of suspected 'tidal palaeomorphs' (Geyl, 1968); these are valleys which have the morphologic and morphometric characteristics of 'tidal neo- morphs', that is present-day tidal channels (Geyl, in press). The idea of valleys shaped by tidal action is not altogether new, but has been in limbo since fluvialism ousted marinism about a century ago; one has to go back to the time of Charles Lyell and his marine dissectionism to find specific reference to the role of tidal currents in valley formation (Chorley et al., 1964). If supporting evidence for the hypothesis of tidal genesis, such as marine-estuarine fossils in superficial deposits, was more common than in fact it is, and if Chamberlin's (1897) exhorta- tions for the application of the method of multiple-working hypotheses had found greater response, the Lyellian hypothesis would have survived in a modified form and would today be incorporated in current theory. In the case of some landforms, a particular process can be seen to be creating them today, and interpretation of their genesis is then relatively simple, even if the explanation of the dynamics of the process may not always be so. In the case of other landforms, it may be thought that present-day processes are incapable of their formation, and processes differing in degree or kind, operating when environmental conditions in the past were different, must have created them. The present writer calls such relict landforms 'palaeomorphs', in line with palaeoclimates and palaeosols. They may be the result of other climates and corresponding morphogenic regimes in the past, and these can be called zonal palaeomorphs; or they may have been formed by marine or related tidal action when the sea level was higher (or lower) in the past, and these can be called azonal palaeomorphs. Interpretation of palaeomorphs requires the actualist ('uniformitarian') approach, which involves a search for similar forms in situations where present processes can be shown to be responsible. Purely visual assessment of similarity of form may, however, be too subjective. Morphometry can then be applied as a test of the visual recognition. Furthermore, the modern geomorphologist, despite his restrictive name, will pay due attention to correlative sediments, and will apply sedimentological, palaeontological, strati- graphical, and any other relevant techiques to determine their environment of deposition, as further tests of the geomorphological hypothesis. Little attention, however, is paid to such techniques in this study, which is mainly of a theoretical geomorphological nature.</t>
+          <t>Abstract : An experimental program was conducted at the AEDC vonKarman facility, Tunnels A and B, in which acoustic pressure fluctuation data were acquired on a 7 degree half-cone-angle model featuring a control surface. The objective was to define the aeroacoustic environment applicable to re-entry vibration response analysis for both ballistic and maneuvering vehicles. Wind tunnel measurements were obtained at Mach 4 and 8 for several values of freestream Reynolds number and model angle of attack. Stationary zones of laminar, transitional, and turbulent flow over the model were achieved. Acoustic data were reduced to rms fluctuating pressure, and power and cross-power spectral densities. Results were normalized using local boundary layer parameters for comparison with previous high speed measurements. The present study re-examined the aeroacoustic environment prediction capability relative to compressible flow conditions. Moreover, boundary layer characteristic lengths and velocities were reviewed in order to develop normalization procedures required for development of appropriate aeroacoustic scaling laws. It was determined that fluctuating pressure characteristics described by incompressible theory as well as empirical correlations could be modified to a compressible state through a transformation function. In this manner, compressible data were transformed to the incompressible plane where direct use of more tractable prediction techniques are available for engineering design analyses.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2325451407</t>
+          <t>https://openalex.org/W2309020203</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3038139</t>
+          <t>https://doi.org/10.1080/03772063.1977.11451492</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Weissman &amp; Rentz (1976)</t>
+          <t>Tyagi et al. (1977)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Zoogeography of the Grasshoppers and Their Relatives (Orthoptera) on the California Channel Islands</t>
+          <t>Doubly Excited Slab-Shaped Magneto-Plasma with the Help of the Lines of Magnetic Currents</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Twelve of fifty-four Orthoptera species (22-2 %) found on the eight California Channel Islands off the coast of Southern California are endemic, 11 9% in the northern four-island subgroup and 22 2 % in the southern four-island subgroup. A general analysis of the distribution of these endemics, especially those in the cricket genus Cnemotettix and those endemic species capable of flight, was conducted. The results indicate that autochthonous speciation, and not the occurrence of mainland relicts, explains these high endemic numbers. A regression analysis of log island area versus log number of Orthoptera species yields results similar to those of other plant and animal species. Faunistically rich land masses that lie within 20 km of one Channel Island are disproportionately more important as source areas than those land masses at distances exceeding 20 km. Simple regression of environmental components correlated with faunal diversity shows that for untransformed data, Orthoptera species numbers are significantly explained by area (82 %) and elevation (74 %). For log transformed data, the significance of area in explaining Orthoptera species number is diminished to 5700, while elevation explains 78 %, which is almost unchanged from before transformation. * Present address: David B. Weissman, University of California, Irvine, College of Medicine, Medical Student Affairs, Irvine, California 92717. Introduction Island biogeography, with its conceptual base largely laid by early works of Preston (1962) and MacArthur &amp; Wilson (1963, 1967), is rapidly becoming an explicit, predictive portion of ecological theory. Insights into explanations of species distributions, community structure, and competitive interactions among species on islands come from many sources (see Diamond, 1973; Simberloff, 1974). Several such works (i.e. Diamond, 1969, 1971; Power, 1972; Lynch &amp; Johnson, 1974; Hunt &amp; Hunt, 1974; Johnson, Mason &amp; Raven, 1968; Savage, 1967; von Bloeker, 1967) were specifically conducted on the California Channel Islands (see Fig. 1). These islands are particularly useful for testing many biogeographical tenets because only eight islands are involved: the Channel Islands are closer, fewer, and smaller than other island groups (i.e. Hawaiian, Galapagos, Canary, West Indies, etc.) from which extensive empirical biogeographical data have also come. Additionally, all eight Channel Islands are presently located near the mainland. This permits identification and comparison of island and mainland (source) faunas and assessment of probable speciation patterns. Also, the four northern (San Miguel, Santa Rosa, Santa Cruz, and Anacapa) and four southern (San Nicolas, Santa Catalina, San Clemente, and Santa Barbara) islands are themselves cohesive subgroups with reference to (i) geological similarity (see below) and (ii) gradients of size (and corresponding topographic diversity) and isolation (see Table 2). This paper is the first to present a comprehensive zoogeographical analysis of any insect group (specifically the Orthoptera) found on the Channel Islands. Six years (1969-74) of extensive field work on all the Channel Islands and adjacent mainland areas form the foundation for this analysis. Detailed census methods and complete species list are presented elsewhere (Rentz &amp; Weissman, 1973, 1976).</t>
+          <t>The excitation of solid semiconductor plasma and gaseous plasma with the two magnetic line sources (having similar and dissimilar frequencies) has been studied while magnetic field is present in the direction parallel to that of line sources. The amplitude of the radiation field has some interesting features while considering the changes in a, ν/ω, ων/ω and ω,/ω for both the plasmas. For different a values in almost all the cases, one intense peak is followed by other less intense peaks. Radiation peaks obtained for lossless plasma get their magnitudes reduced when lossy behaviour of plasmas is taken into account. The change in a affects the direction and magnitudes of radiation peaks for lossy and lossless plasmas. Considering the dissimilarity of the source frequencies, the 0° radiations (for semiconductor) attain the maximum for a particular difference in two source frequencies having less amplitude before and after the maximum radiation. The dissimilarity, in case of geseous plasma gives the oscillating nature of 0° radiations having more amplitude of radiation against the increase in one of the source frequencies.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2327966896</t>
+          <t>https://openalex.org/W2314154367</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/004056397603700102</t>
+          <t>https://doi.org/10.1537/ase1911.85.83</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Granfield (1976)</t>
+          <t>Sato (1977)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Episcopal Elections in Cyprian: Clerical and Lay Participation</t>
+          <t>Electromyographic Study of Muscle Fatigue in Sustained Isometric Contractions</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>THE DEACON Pontius, the first biographer of the martyr-bishop of Carthage, wrote devotedly that Cyprian will probably never cease to speak even to the end of the world. The words of Pontius appear to have been prophetic, since Cyprian has had to date significant influence on the development of the Christian Church. He has been repeatedly appealed to as an authority by other Church Fathers, by medieval theologians, by both the Reformers and their opponents, by countless generations of Christian leaders and preachers, and by present-day ecumenists in almost all Christian denominations. Cyprian's enduring popularity is due in no small measure, as Quasten observes, to those noble qualities of heart that attract charity and gentleness, prudence and spirit of union. In the Roman Catholic communion today the writings of Cyprian are referred to with increasing frequency and approval. This is especially evident in contemporary research on the nature of episcopal ministry and on the coresponsibility of all levels of Church membership. The witness of Cyprian is important at time when demands are being made for structural reform and greater democratization of the Roman Church. Cyprian furnished valuable information on the practical operation of shared responsibility in the election of bishops. He stated emphatically that the entire community—clergy, laity, and neighboring bishops— should participate in the selection of episcopal leaders. In this he anticipated the important assertion made by Leo the Great two centuries later: Qui praefuturus est omnibus, eligi debet ab omnibus. Cyprian's consistency in recognizing the popular voice in the election of bishops is particularly remarkable when compared with his teaching on the elevated status of the episcopacy. He was, as Monceaux has noted, a man of authority, who staunchly affirmed that bishop's actions could only be judged by the Lord; yet no other early Christian writer, before or</t>
+          <t>The power spectra of bipolar surface EMG during sustained isometric contractions of the biceps brachii were obtained by the autocorrelation and its Fourier transformation technique. The power of the frequency components below about 75 Hz increased with time. The ratio of the power below about 40 Hz to the total power increased. Two phases were suggested in a sustained contraction. In the first phase, the total power increased slightly, and relative increase in the power below 40 Hz took place. In the second phase, the total power increased more steeply in parallel with the power around 15 Hz, and the peak frequency shifted to about 15 Hz near exhaustion in most cases. A decrease of discharge frequency with recruitment may explain the first phase, and grouping of discharges in the recruitment may explain the second phase. No corresponding peak was observed between the power spectra of EMG and those of the upper arm tremor recorded simultaneously.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2328070383</t>
+          <t>https://openalex.org/W2315147894</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0304-3746(76)90147-5</t>
+          <t>https://doi.org/10.2307/487671</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Spedding (1976)</t>
+          <t>Hohendahl &amp; Silberman (1977)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Unifying concepts in ecology</t>
+          <t>Introduction to Reception Aesthetics</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>In arid regions, water resources are under immense pressure and multiple stresses. Excessive use of water resources without proper management occurs in the present situation, and it will be intensified under future climate change conditions. Finding a good strategy for water resources management is essential to preserve sustainability in such watersheds. In this study, the first purpose is to optimize water use for the agricultural crops in the Eshtehard watershed in Iran, where the aquifer is a strategic resource for irrigated agriculture and is facing intensive drawdown because of over-extraction. A hydro-agronomic simulation-optimization approach is used for agronomy and groundwater management in which the agricultural production and water level variation are simulated by linking SWAT and MODFLOW, and the optimal crops pattern is searched for by the PSO algorithm. The crops’ area and their irrigation water consumption are the decision variables with the objective of maximizing the net benefit gained from the crops’ yield while the groundwater drawdown is limited to a pre-defined stability level. For the following purpose, the climate change impact on the optimal crop pattern across the watershed under two representative concentration pathways scenarios (RCPs 2.6 and 8.5) downscaled by the data of the HadGEM2-ES General Circulation Model for the near future is evaluated. Results show that irreparable damage to groundwater depletion is reduced in the optimum state, and lower stress is imposed on the aquifer under the climate change impacts by executing the optimum crop pattern. To see this, a part of the winter wheat and cotton crops’ area must be replaced by winter barley. Also, the crop’s irrigation amount must be decreased for winter wheat, winter barley and cotton by 45%, 7%, and 10%, respectively, which reduces groundwater extraction in the optimum situation.</t>
+          <t>and idealistic models in favor of an analysis of communicative processes, despite the fact that he had no theoretical model of communication at his disposal. Although he was not blind the psychological aspects of reading, Schiicking stressed the social basis of the projected history of taste. This means that he demanded the localization of those social strata and groups which, as vehicles of taste, sustain and steer the literary process. Of course, the social history of readers was only one part of Schiicking's program, be supplemented by cultural, geographical and anthropological perspectives. The resulting blur in his focus affected the method adversely and contributed perhaps discredit Schiicking's undertaking. Even in his later works the empirical implementation remained limited; it was left Robert Escarpit and his school extend empirical research beyond Schiicking's attempts. The crisis in literary evaluation motivated early positivistic reader studies. Coinciding with the increasing uncertainty of the literary canon in pluralistic society, these studies attempted at least make visible and thus objectify the process of aesthetic evaluation. The hidden background of the discussion consisted of the metamorphosis of the reader: the evolution of a massified, fragmented reading public, the erosion of the literary public sphere of the bourgeoisie and the transformation of traditional cultural institutions into instruments of culture industry. Scholarly debate reflected this dilemma of the bourgeois public sphere, though sometimes in a distorted form. Schiicking already recognized and described the disintegration of the bourgeois reading public, the dissolution of literary societies and clubs which had served as control points for aesthetic communication in the 19th century. Yet this analysis ignored social and economic causes. Similarly, Robert Escarpit identified later This content downloaded from 157.55.39.177 on Sat, 19 Nov 2016 04:31:59 UTC All use subject http://about.jstor.org/terms RECEPTION AESTHETICS 37 the difference between an educated and a mass public23 and made suggestions for transcending the barriers without however considering the underlying social mechanisms which this separation owes it origins and its perpetuation. Sartre's interest differs from this empirical research in that the social history of writer and reader provides him with material for the political question about the relationship between author and public.24 this relationship is defined as a contract of generosity and freedom in which the completion of the draft is left the reader, then the social history of reading has the task of reconstructing those moments in which the emancipation of author and reader manifests itself. In other words, for Sartre a sociology of the reading public constitutes not only the basis for a history of taste but also serves as the instrument for understanding the contemporary literary and social situation. The central question is: what is the task of the literary producer in an epoch in which the needs of the masses are the issue but where the only recipient is the bourgeois public? Sartre (and later Escarpit) offers some relevant conceptual differentiations for narrative studies by asserting that a work is always directed a reader but that the intended reader is not necessarily indentical with the real public. Earlier theories (Lubbock, Stanzel, Limmert) hardly considered the reader since his function appeared obvious and, therefore, unproblematical. Primary interest revolved around the producer who, as narrator, could employ the most diverse strategies. The discovery by Weinrich, Iser, Harth, Poulet and others of the role of the reader was apparently generated, even forced by structural changes in the modern novel. When the author removes the formerly guaranteed message from the novel and compels the reader first and foremost construct the meaning of the content, then the author-reader relationship and the relationship between the narrator's role and the reader's role in the text become problematical. The question of the reader, which Schiicking and a sociology of the reading public sought anwer primarily in terms of social factors, now enters into the analysis of the text because it has become apparent that the communicative aspect is inherent in the work of art. The phenomenological investigations of Iser25 and Netzer26 aim in the same direction in that they examine the structure of address (Appellstruktur) in the text. Of course, these phenomenological studies lack insight into the connection between the evolving public and the changing degree 23. Robert Escarpit, Das Buch und der Leser: Entwurf einer Literatursoziologie (Cologne, 1961). 24. Jean Paul Sartre, What is Literature? (New York, 1965). 25. Wolfgang Iser, Die Appellstruktur der Texte (Konstanz, 1970). 26. Klaus Netzer, Der Leser des Nouveau Roman (Frankfurt am Main, 1970). This content downloaded from 157.55.39.177 on Sat, 19 Nov 201</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2328133800</t>
+          <t>https://openalex.org/W2315318537</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4157/grj.49.43</t>
+          <t>https://doi.org/10.3358/shokueishi.18.375</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kohchi (1976)</t>
+          <t>Gyobu (1977)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>INCISED MEANDERS IN THE CHUGOKU MOUNTAINS, SOUTHWEST JAPAN</t>
+          <t>Enterotoxin Production of Clostridium perfringens Originated from Food-poisoning and Characteristics of Enterotoxin-producing Strains</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>In the Chugoku Mountains, Southwest Honshu, there are many incised meanders, but few free meanders. The purpose of this paper is to inquire into the distribution and the origin of incised meanders in the Chugoku Mountains, and to consider the relationship between their wave-lengths and drainage areas and also their relation to rock properties. As is shown in Fig. 1, the distribution of the incised meanders in the Chugoku Mountains coincides with the distribution of planation surfaces which are presented as “gentle slopes” in the 1:500, 000 geomorphological map (Economic Planning Agency, 1968). A half of all the incised meanders cuts into the Kibi Plateau Surface, and they are concentrated in the areas of the Kibi and Iwami Plateaus. While one third of all the meanders cut conse-quently the boundary slope between the Kibi and the Backbone Ridge Surface. The in-cised meanders which cut into the erosion surfaces are either entrenched meanders and ingrown intrenched meanders. They may be inherited from free meanders. The incised meanders that develop on the boundary between erosion surfaces are of the type of ingrown meanders, and have no erosion surface that might have produced free meanders, because they can develop during an initial cycle of erosion. In comparison with incised meanders in Paleozoic rocks, those in granitic rocks are greater in the width of the meander belt and of the valley. According to the histogram of sinuosity of incised meanders (Fig. 5), incised meanders in granitic rocks have greater sinuosity and variance, the mean sinuosity being 2.10 and the variance 0.75, than those in Paleozoic rocks, of which the corresponding values are 1.96 and 0.59 respectively. Many incised meanders in granitic rocks are structurally controlled by joints (Fig. 4), and have an irregular and zigzag pattern of stream courses. On the contrary, those in Paleozoic rocks generally form regular and smooth curve. Although geologic structure and lithology affect the shape and scale of the incised meanders, the incised meanders in the Chugoku Mountains develop in all sorts of bedrocks, and have no preference to particular rocks. Figure 6 shows the relation between the wave-length and the drainage area for the incised and free meanders in the Chugoku Mountains as well as for those in Europe and North America. According to this, there is no substantial difference between the relations for the Chugoku Mountains and for. Europe and North America. However, the. streams in the Chugoku Mountains have not manifestly underfitted due to climatic change, as in the case of Europe and North America. From the above mentioned relations, the former drainage area before stream capture can be estimated for three rivers, as shown in Fig. 6.</t>
+          <t>After establishing the screening method for detecting Cl. perfringens enterotoxin, its production by these organisms of various origins was examined, and the characterization of enterotoxin-producing strains was attempted.1. The micro-cell-culture technique, using the serial dilutions of 45hr culture supernatant of G. K medium inoculated with heat-treated thioglycollate culture and VERO cell suspensions, was the combenient system for the screening test.2. The enterotoxin-producing strains were detected from all of 9 different food poisoning cases (27 out of 33 strains of food poisoning origin), while none of 54 strains isolated from human feces or various soil samples produced this toxin. This implies that the close relationship exists between Cl. perfringens food poisoning and the enterotoxin.3. Heat resistant and enterotoxin-producing strains of food poisoning origin could not be distinguished from other strains isolated from healthy human feces in relation to the Hobb's serological type, toxin production, sporulation and other biochemical characters.4. The sporulation ratio was found to be decreased in case enterotoxin positive strains became negative during storage, although the frequency of this change was not very high.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2330984155</t>
+          <t>https://openalex.org/W2319541585</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1626/jcs.45.131</t>
+          <t>https://doi.org/10.2307/142978</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Hozyo &amp; Kato (1976)</t>
+          <t>Whitney (1977)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Thickening Growth Inhibition and Re-thickening Growth of Tuberous Roots of Sweet Potato Plants (Ipomoea batatas Poiret)</t>
+          <t>Striking a Blow against Desertification: Cooperative Initiative in Chungwei County, Ninghsia-Hui Autonomous Region, China</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>The morphological and physiological features of tuberous roots in the process of thickening growth inhibition and re-thickening growth were tested by means of the light exposure treatment for growing tuberous roots. Cultivar (Okinawa, No.1OO) was used as sample and the light exposure treatment for the growing tuberous roots were conducted in the field. The tuberous roots were outcropped on the ground by washing away the soil covering the hills. Those outcropped tuberous roots were exposed to the sun light for about thirty to seventy days. The light exposure treatment was stopped by covering the outcropped tuberous roots with soil. The results are as followed: (1) The thickening growth of tuberous roots was inhibited by exposing them to the light. On the contrary, the translocation of photosynthates to tuberous roots had continued and the thickening growth of underground part of the treated tuberous roots (tuberous roots exposed to the light) was apparently promoted. (2) The starch content in the treated tuberous roots decreased in the extreme and the accumulation of starch granules decreased starting from the cortex to the central cylinder with the lapse of time after the treatment and the size of starch granules diminished also. Such changes were brought about in parallel with the decrease in the starch content. (3) In case of the treated tuberous roots, the sclerenchymalization of parenchymatous cells near the primary cambium was found apparently. It showed an increase also in the number of vessels near the primary cambium. But, the number of parenchymatous cells in the central cylinder decreased due to the treatment. (4) The re-thickening of tuberous roots of the plants was found due to the stop of treatment. The starch content had increased with the re-thickening of tuberous roots and the histochemical features were similar to those of the non-treatment tuberous roots. (5) From the above-mentioned facts, it may be considered that the thickening of tuberous roots of sweet potato plants is related to the development of starch storage function and that the starch storage furnction is concerned with the activity of starch biosynthesis, starch accumulation, and the increase in parenchymatous cells. Viewed from the result of tuberous roots to the light as well as of the re-thickening growth of tuberous roots due to the stop of the treatment, it may be suggested that the starch storage function of tuberous roots is apt to adapt itself to the environmental conditions</t>
+          <t>My name is Chang Hang-chih, a party member of the Sun Chihhui production brigade and a member of the Chungwei County Revolutionary Committee of the Ninghsia-hui Autonomous Region. Until this area was liberated by the Red Army in 1949, the Tengri Desert had been advancing on our lands at the rate of about 15 kilometers per century. feudal landlords and rapacious officials of Chungwei County did nothing to prevent this encroachment. Indeed, their greed for higher taxes and rents contributed to the rapid advance of the sand because the peasants were forced to raise more crops than the land could support, and fallow land had to be put under cultivation until all the precious top-soil had been blown down to the sand beneath. An old folk-song that used to be sung in the county sums up the predicament well: 'Dead wood and yellow sands fill the eyes with sadness.' When I was fifteen years old our family's land was engulfed by the sand and we were forced to flee to neighboring Shensi Province. Later, I joined the Red Army and returned to my homeland in 1950 determined to apply the principles of socialism to transform the people and the land of my birthplace. Success was not achieved easily, however. I was faced with both natural and human opposition. Little more than 50 mm of rain falls on Chungwei County every year and the evaporation is twenty-three times that amount. There are no permanent rivers or streams, and water fills the riverbeds only for a short time after occasional heavy storms. main problem is that even if a small plot of land can be reclaimed from the desert the sand dunes blown by the strong northwest winds in winter soon engulf it. Before the Cultural Revolution grain yields averaged around half a ton per hectare per year, insufficient to feed the 100,000 people living in the county, and making it necessary for the deficit to be provided by the state. Today, yields average 3.5 tons and the county even sells surplus grain to the state. Then there was the human opposition to change. Years of oppression and defeat had made the peasants listless and fatalistic and unwilling to take the initiative in controlling their own destiny. They said: 'The shifting sands can never be conquered. We should be thankful that when the shifting sands engulf one area, the sand is blown from others.' Some of the comrades in the Chungwei Party Committee opposed me saying: 'Nothing can be done until the state gives us bulldozers and machines to push the sand away.' The main problem before the communes were established in 1958 was to mobilize the masses for collective action against the desert. Each family unit was too small and impotent by itself to do much, and was unwilling to give labor for collective action for fear that effort applied to someone else's land would mean reduced yields on one's own. The real battle against the desert started with the rise of the People's Communes. commune pooled the resources of separate communities and mapped out unified plans. In Spring and Autumn every year each commune concentrated its manpower, transportation</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2331208278</t>
+          <t>https://openalex.org/W2320051765</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2424565</t>
+          <t>https://doi.org/10.2307/2387860</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Larson &amp; Bader (1976)</t>
+          <t>Howden (1977)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Maternal Effects in Odontometric Traits of House Mice</t>
+          <t>Beetles, Beach Drift, and Island Biogeography</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>The technique of cross-fostering was employed to determine the relative importance of prenatal and postnatal maternal effects on the size and variance of second (M2) and third (M3) mandibularmolar widths in three strains (two inbred and one random-bred) of the house mouse (Mus musculus L.). M2 and M3 widths were significantly altered in size consequent to fostering; mean 35-day body weights were also affected, the change in each case being in the same direction as that of the dentition. Because of the large changes in body weight and the possibility of a general growth phenomenon, it was not possible to demonstrate that M2 and M3 widths were capable of responding to the postnatal maternal environments in directions opposite to one another as had been shown in a previous study. The two inbred strains were dissimilar with respect to maternal performance, and the results of several analyses reflected the disparity. The results of analyses of variance of molar width supported those of a previous study which demonstrated that the relative contributions of several components of the total maternal variance were, in general, correlated with the developmental histories of the two molars. This study showed, in addition, that the relative contributions of several components to the total maternal variance also reflected the quality of the maternal environments and the presence or absence of genetic variability. Contributions of the maternal effect to the total phenotypic variance ranged from 33 to 70% and were greater for the M3 than for the M2. Percents of the total phenotypic variance due to fluctuating asymmetry ranged from 7 to 34% and were similar for the two molars within population type. Regressions of nonfostered offspring on dam in the random-bred strain yielded heritability estimates of 0.48 and 0.44 for M2 and M3 widths.</t>
+          <t>Thirty-one families of beetles were collected in December 1974 in beach drift near Gerroa, New South Wales, Australia. The taxonomic composition of the beetles in the beach drift was neither entirely representative of, nor proportional to, that of the adjacent forest beetle fauna but more closely resembled oceanic island faunas. Comparisons are made with the fauna of the Samoan and Hawaiian Islands. Inferences are made on the usefulness of beach-drift studies as a method that can assist in determining long-distance chance dispersal. LONG-DISTANCE DISPERSAL to islands or between continents has long been a subject of speculation. Various aspects of the subject have been investigated by numerous authors, both from observational and theoretical points of view. However, one aspect, that of utilizing the fauna occurring in beach drift as an indicator of potentially readily dispersible groups, has largely been ignored. The present paper mentions a few aspects of current research, then discusses the seeming usefulness of beach-drift studies. A variety of dispersal mechanisms such as rafting, wind and water transport, and the element of chance have been recognized, being summarized by Carlquist (1965, 1974), Darlington (1938), Vagvolgyi (1976), and Simpson (1952). MacArthur and Wilson (1967) have developed models that relate immigration and extinction, the size of islands. and their distance from a source area. A major problem in considering long-distance dispersal has been the testing of these various assumptions. Variables include: the size and similarity of the source and the island (the target of some authors), the distance over water or other barriers, the chance of hitting the target, the number of propagules. and the length of time. The time element alone, with its implications of past changes in land configurations. changes in oceanic and air currents, and even evolutionary changes in the organisms, makes the testing of any hypotheses extremely difficult. Zimmerman (1948) discussed in detail the origin of the Hawaiian fauna, which seemingly had to have reached the islands by over-water dispersal. Few other oceanic islands have been so well analyzed. Age and proximity to land in earlier geological times have caused debate when similar analyses have been made elsewhere. Recently Wilson and Simberlof (1969) and Simberlof and Wilson (1969, 1970) defaunated a number of small islands in the Florida Keys and studied their reinvasion, showing that they were rapidly repopulated but not necessarily with the same species. Vuilleumier (1970) studied birds in the Andean paramo and found that the MacArthur and Wilson models, relating to island size and distance, had a good predictive value. However, similar studies by Brown (1971) using boreal mammals in the isolated mountains in the North American Great Basin failed to conform to the same models, but Johnson's study (1975) of birds of the same area did fit the models. The volcanic island of Surtsey, formed in 1963 just south of Iceland, allowed scientisits to study the arrival of both flora and fauna. A number of interesting observations were made by Lindroth et al. (1973). Approximately 158 species of terrestrial anthropods reached Surtsey with four becoming established. Lack of any plant cover undoubtedly influenced this initially low success rate. The Surtsey study also showed that aerially transported insects did have some control over landing sites. The results indicated that while long-distance transport to the island may have been by chance. insects could control their landing. Gressitt and Yoshimoto (1964) found a large amount of aerial plankton (mainly insects) in studies made in the South Pacific (see table 1) which primarily showed that many small organisms may be transported long distances by air currents. Many fortuitous observations on windblown grasshoppers, birds, etc., and on rafts of vegetation have also appeared in the literature, but how much these contribute to the development of isolated biotas remains an unanswered question. In December 1974, while my wife and I were staying near Gerroa, New South Wales, Australia, there was an eight-day period of very windy, stormy weather. One coastal strip, named Seven Mile Beach, which was largely undeveloped and had an excellent fringing forest, was visited daily during this period. On the first day we noted tremendous aggregations of insects along the high-tide drift line (figs. 1-4). BIOTROPICA 9(1): 53-57 1977 53 This content downloaded from 207.46.13.160 on Mon, 17 Oct 2016 05:15:55 UTC All use subject to http://about.jstor.org/terms Since we were both interested in Coleoptera we carefully examined the drift and after the second day made an effort to collect representatives of all of the species of beetles (Coleoptera). We also attempted to estimate the relative abundance (very common, common, uncommon, or rare) of each species and noted whether each was alive or dead (table 1). Hymenoptera, Hemiptera, and</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2403905291</t>
+          <t>https://openalex.org/W2329169617</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/421914</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Walser et al. (1976)</t>
+          <t>Michelat &amp; Simon (1977)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Evidence for an anabolic action of essential amino acid analogues in uremia and starvation.</t>
+          <t>Religion, Class, and Politics</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Nitrogen-free analogues of essential amino acids, when administered with those essential amino acids for which analogues are ineffective or unavailable, exert three actions that may be beneficial in protein-deficient or protein-intolerant subjects. First, they bring about an increase in the concentrations of essential amino acids in the blood at the expense of the concentrations of certain non-essential amino acids, notably alanine and glutamine. This effect is most readily demonstrated in children with congenital defects of the urea cycle enzymes, but can also be seen during daily therapy of adults with portal-systemic encephalopathy. Second, these compounds promote nitrogen balance through their suppressive effect on urea synthesis (an effect not attributable to re-utilization of ammonia derived from urease action in the gut). This action is demonstrable in obese subjects who are already conserving nitrogen maximally at the end of a prolonged fast and can also be shown in the first week of fasting when the branched-chain keto acids alone are administered. In both situations, improved nitrogen conservation persists long after the analogues are metabolized, suggesting enzyme adaptations. In chronic uremics, nitrogen balance can be maintained in some (but not all) patients on very low nitrogen intakes. Third, these mixtures may delay or reverse the progressive decline in glomerular filtration rate characteristic of chronic renal failure in some cases: thus, for example, 5 of 6 patients taken off chronic dialysis have maintained lower serum urea concentrations without evidence of protein malnutrition for periods of 2-24 months.</t>
+          <t>It is generally agreed that for many years religious and political cleavages in France tended to coincide, and that there was no better criterion than religion to distinguish Left from Right. 1 It is also widely acknowledged that religion played an important role in politics and that conservative parties were supported by Catholic church.2 Today, however, most observers consider tie between religion and politics a thing of past. Religious issues such as problem of church-state relations and even school question are no longer at center of political debates. As in a majority of developed countries, most important political questions are economic and social in nature involving choice of a type of society. This change, especially since 1968, is a striking development in French politics. As a result of it, the end of conflict between church and state has had political effect of freeing Catholic forces which are no longer compelled to focus their efforts on defense of 'the church's rights.' 3 Conversely, parties of Left consider religious differences of secondary importance in social and political conflicts. The attitude of church on political matters has also been profoundly modified. Until 1958, church hierarchy, either through clergy or Catholic press, intervened directly in electoral process against Left and especially against Communist party.4 Today, this is no longer case and aloofness of church from electoral arena seems to meet with approval of a majority of people.5 Furthermore, in wake of Second Vatican Council,6 political and religious conservatism of nineteenth century is no longer, at least in France, a dominant doctrine even at episcopacy level. Finally, drastic and radical challenges have affected Catholic movements and clergy itself. These</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2410337003</t>
+          <t>https://openalex.org/W2341678223</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0030-6665(20)32667-0</t>
+          <t>https://doi.org/10.1042/bj1660399</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Carpenter &amp; Artenstein (1976)</t>
+          <t>Carter &amp; Cannon (1977)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Use of Diagnostic Microbiologie Facilities in the Diagnosis of Head and Neck infections</t>
+          <t>Structural requirements for the inhibitory action of 12,13-epoxytrichothecenes on protein synthesis in eukaryotes</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Synucleinopathies such as Parkinson ́s disease (PD), Dementia with Lewy bodies (DLB) and Multiple System Atrophy (MSA) are characterized by deposition of misfolded and aggregated α-synuclein. Small aggregates (oligomers) of α-synuclein have been shown to be the most relevant neurotoxic species and are targeted by anle138b, an orally bioavailable small molecule compound which shows strong disease-modifying effects in animal models of synucleinopathies.Anle138b was studied in a single-centre, double-blind, randomised, placebo-controlled single ascending dose (SAD) and multiple ascending dose (MAD) study in healthy subjects. Eligible participants were randomly assigned (1:1 for sentinel subjects and 1:5 for main group) to placebo or anle138b (dose range 50 mg to 300 mg per day), respectively. In addition, the effect of food on the pharmakokinetics of anle138b in healthy subjects was examined in doses of 150 mg per day. Participants were randomized to treatment sequence (fed→fasted) or (fasted→fed). Treatment was administered orally in hard gelatine capsules containing either 10 mg or 30 mg of anle138b or excipient only. The primary endpoints were safety and tolerability, the secondary endpoint was pharmakokinetics. Data from all randomized individuals were evaluated. Clinicaltrials.gov-identifier: NCT04208152. EudraCT-number: 2019-004218-33.Between December 17th, 2019 and June 27th, 2020 196 healthy volunteers were screened and 68 participants were enrolled. Of these, all completed the study per protocol. There were no major protocol deviations. Adverse events in this healthy volunteer trial were mostly mild and all fully recovered or resolved prior to discharge. From baseline to completion of the trial no medically significant individual changes were observed in any system organ class. Already at multiple doses of 200 mg, exposure levels above the fully effective exposure in the MI2 mouse Parkinson model were observed.The favourable safety and PK profile of anle138b in doses resulting in exposures above the fully effective plasma level in a mouse Parkinson model warrant further clinical trials in patients with synucleinopathies.This study was funded by MODAG GmbH and by the Michael J. Fox foundation for Parkinson's Research.</t>
+          <t>1. The inhibitory actions of ten trichothecene antibiotics were investigated, in reticulocyte cell-free systems synthesizing protein in vitro, by studying polyribosome profiles and kinetics of amino acid incorporation in the presence or absence of the drugs. 2. The modes of action observed were critically dependent on the drug concentrations used, but the antibiotics tested could be divided into four distinct groups, each exerting a characteristic inhibitory response. 3. The inhibitory action observed in every case was controlled by the chemical structure of the individual trichothecene and in particular was closely related to the nature of the substituent groups present on C-3, C-4, C-8 and C-15 of the molecule.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://openalex.org/W24599030</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1521/jaap.1.1976.4.2.171</t>
+          <t>https://openalex.org/W2411437048</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Kestenbaum &amp; Stone (1976)</t>
+          <t>Js (1977)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>The Effects of Fatherless Homes Upon Daughters: Clinical Impressions Regarding Paternal Deprivation</t>
+          <t>Toward a more normative assessment of maldistribution: the Gini Index.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>The Effects of Fatherless Homes Upon Daughters: Clinical Impressions Regarding Paternal DeprivationClarice J. Kestenbaum and Michael H. StoneClarice J. KestenbaumSearch for more papers by this author and Michael H. Stone1 Division of Child and Adolescent Psychiatry, St. Luke's Hospital Center, New York, New York.2 General Clinical Service, New York State Psychiatric Institute.Search for more papers by this authorPublished Online:July 2017https://doi.org/10.1521/jaap.1.1976.4.2.171PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations AboutReferencesBach G. R. (1946), Father fantasies and father-typing in father-separated children, Child Develop., 17, 63–80. Google ScholarBemmels V. G. (1964), Survey of mental health problems in social agency caseloads, Amer. J. Psychiat., 121, 136–146. Google ScholarBiller H. B. (1971), Father, Child, and Sex Role, Heath Lexington Books, Lexington, Massachusetts. Google ScholarBowlby J. (1966), Maternal Care and Mental Health, Schocken Books, New York. Google ScholarConger J. J. (1973), Adolescence and Youth: Psychological Development in a Changing World, Harper &amp; Row, New York. Google ScholarEisendorfer A. (1943), The clinical significance of the single parent relationship in women, Psychoanal. Quart., 12, 223–239. Google ScholarFenichel O. (1931), Specific forms of the Oedipus complex, in The Collected Papers of Otto Fenichel, 1, 1954, W. W. Norton, New York. Google ScholarFreud A. and Burlingham D. T. (1943), War and Children, Lehrman P. R., Ed., Medical War Books, New York. Google ScholarFreud S. (1905), Three essays on sexuality, in Standard Edition, 1953, Hogarth Press, London, 135–243. Google ScholarFreud S. (1925), Some psychical consequences of the anatomical distinction between the sexes, Standard Edition, 1953, Hogarth Press, London, 248–258. Google ScholarFreudenberger H. and Overby A. (1969), Patients from an emotionally deprived environment, Psychoanal. Rev., 56, 299–312. Google ScholarHerzog E. and Sudia C. E. (1968), Fatherless homes, Children 15, 177–182. Google ScholarHollingshead A. B. and Redlich F. C. (1958), Social Class and Mental Illness, John Wiley, New York. Crossref, Google ScholarJoint Commission on Mental Health of Children (1969), Crisis in Child Mental Health: Challenge for the 1970's, Harper &amp; Row, New York. Google ScholarKeiser S. (1953), A manifest Oedipus complex in an adolescent girl, Psychoanal. Study of the Child, 8, 99–107. Google ScholarKety S. S., Rosenthal D., Wender P. H., and Schulsinger F. (1968), The types and prevalence of mental illness in the biological and adoptive families of adopted schizophrenics, in Transmission of Schizophrenia, Rosenthal D. and Kety S. S., Eds., Pergamon Press, Oxford, 345–362. Crossref, Google ScholarLewis M. and Weinraub M. (1974), Sex of Parent X Sex of Child: Socioemotional Development, in Sex Differences in Behavior, Friedman R. C., Richart R. M., and VandeWeile R. L., Eds., John Wiley, New York, 165–189. Google ScholarMeiss M. L. (1952), The oedipal problem of a fatherless child, Psychoanal. Study of the Child, 7, 216–229. Google ScholarNeubauer P. (1960), The one-parent child and his oedipal development, Psychoanal. Study of the Child, 15, 289–309. Google ScholarReich A. (1954), Early identification as archaic elements in the Super-Ego, J. Amer. Psychoanal. Assoc., 2, 218–238. Google ScholarRutter M. (1966), Children of sick parents, Maudsley Monographs, No. 16 Oxford, England. Google ScholarSolnit A. J. (1974), Depression and mourning, in American Handbook of Psychiatry, Vol. II, 2nd ed., Arieti S., Ed., Basic Books, New York, 107–115. Google ScholarStone M. H. (1975), Object loss in borderline and psychotic conditions, J. Thanatol, in press. Google ScholarStone M. H. and Kestenbaum C. J. (1974), Maternal deprivation in the children of the wealthy: a paradox in socioeconomic vs. psychological class, History of Childhood Quart., 2, 79–106. Google ScholarWolfenstein M. (1966), How is mourning possible?, Psychoanal. Study of the Child, 21, 93–123. Google Scholar Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Complications in the development of a female sexual identityOnline publication date: Go to citation Crossref Google Scholar2. Psychoanalytic Concepts of Fatherhood: Patriarchal Paradoxes and the Presence of an Absent AuthorityOnline publication date: Go to citation Crossref Google Scholar3. Paternal AbsenceOnline publication date: Go to citation Crossref Google Scholar4. LiteraturOnline publication date: Go to citation Crossref Google Scholar5. Fathers and daughters: The father's contribution to feminine identification in girls as depicted in fairy tales and mythsOnline publication date: Go to citation Crossref Google Scholar6. BibliographyOnline publication date: Go to citation Crossref Google ScholarClarice J. Kestenbaum7. Some Practical Considerations in the Assessment and Treatment of Adolescent G</t>
+          <t>health care delivery system in the United States are discussed. The thrust of the recent Health Professions Educational Assistance Act (P.L. 94-484) lends support to the allegation that this defect exists and the possible myth that it is growing rapidly in dimension. On the other hand, there is little empirical support in the way of objective data and analysis, either of comparative or normative nature, other than simple comparisons of practitioner/population ratios among essentially political areas.1 For the most part, the acceptance of maldistribution as legitimate policy target has been prompted by a ground swell of social concern, popular journalism, professional discussion and politi? cal action, which suggests it has some basis in reality.2 The purpose of this research is to attempt comparative statistical measurement and anal? ysis of health manpower resources and facility geographic unevenness?and by framing the results in theoretical perspective?to suggest additional steps that might be taken toward the realization of more normative measurement of maldistribution. The Gini Index of Concentra?</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2461565434</t>
+          <t>https://openalex.org/W2413506889</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bojanovsky &amp; Lischka (1976)</t>
+          <t>Kl (1977)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[Cutaneous granulomatous cladosporiosis].</t>
+          <t>[Rehabilitation of rheumatoid arthritis and ankylosing spondylitis: a study of the pre-requisites (author's transl)].</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>The case of a 41 year old man with a tumorlike cutaneous cladosporiosis on the fifth right finger is described. Histologically seen there was an unspecific granulomatous inflammatory cellular infiltrate in the upper and middle corium, whereas in the deeper corium there were found big macrophages phagocytizing fungical elements pointing to cladosporiosis. The fungi grew up very slowly at a temperature of 30 degrees C. Since 1971 the patient was suffering from a "symptomatic" epilepsy medicamentally controlled. Though a neurotropic action of some cladosporion species is well known there could not be found any hint for a cerebral abscess.</t>
+          <t>Rheumatoid arthritis/chronic polyarthritis and ankylosing spondylitis belong to the most common inflammatory rheumatic diseases. Owing to their progressive character they can result in morphological and functional defective conditions making rehabilitation procedures necessary. In contrast to other diseases calling for rehabilitation treatment the rehabilitation of these two diseases is in the majority of cases a life-long process, during which a change in rehabilitation goals and procedures is not seldom. Hence, rehabilitation is a dynamic process which requires flexible adjustment. A positive rehabilitation outcome is dependent upon the following factors: (1) the patient's disease (duration, stage, type of affection, progression, inflammatory and immunological activity, general condition and drug tolerance), (2) the patient's personality (age, intelligence, motivation), (3) the patient's home and vocational environments. In addition to technical pre-requisites, which are also important, the following medical ones have to be outlined: early diagnosis and initiation of therapy and the availability of a comprehensive treatment programme embracing drug, surgical, physical and balneological therapies, also as an in-patient. A further pre-requisite is the high rheumatological qualification of the responsible physician, who must maintain good contacts with the other members of the rehabilitation team. In the long run, this qualification can only be achieved with the provision of adequate training programmes, and if rheumatology is accepted as an independent discipline.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2471908312</t>
+          <t>https://openalex.org/W2417484886</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Kj (1976)</t>
+          <t>Ds (1977)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Mormon sexuality and American culture.</t>
+          <t>Health and the search for new knowledge.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>In a recent essay on the Mormons, David Brion Davis observed that history, in relation to American history, is much like Hamlet's play-within-theplay. Although analogies have their limitations, this one may prove useful in delineating the changing contours of Mormon sexuality. I am suggesting that Mormon culture experienced a transformation from a to a society analogous to the one occurring in the larger American culture but within a different time frame. Much of the friction between Mormons and Gentiles was a result of the fact that the two metamorphoses were out of phase. In the first half of the nineteenth century, when American culture was experiencing intense cultural transformation or modernization, the Mormons were attempting to establish their traditionally oriented and yet innovative restoration movement. By the twentieth century, as the Saints adopted the modern, nineteenth-century values of their erstwhile antagonists, American society was beginning to move into what some commentators have called a post-modern phase. For the purposes of this article the term traditional identifies a society in which norms are sanctioned by external controls—by the force and weight of the community; while the term modern defines a society in which external controls and communal sanctions have broken down, and have been replaced by an individualistic ethos in which internalized values are maintained by mechanisms of self-control. In colonial America sexual attitudes and behavior were firmly rooted in a biblically oriented Calvinism or Anglicanism and in a social order reflecting the values of these religions. Fornication and adultery, as well as other less common sexual transgressions, were regarded not only as heinous sins but crimes, and were punished severely. For later generations, Puritanism became a synonym for sexual repression. As Edmund Morgan's revisionist study pointed out long ago, however, the Puritans were far from being the sexual prudes that a hostile literature made them out to be. They regarded sex in marriage not only as a means of procreation but also as a natural expression of the love between husband and wife. Celibacy in healthy persons was regarded as unnatural and against the will of God, as, of course, was sexual transgression. In either case, man was wilfully rejecting the laws of God. However severely they condemned sin the Puritans realized that living as they did in a fallen world, even they could not be absolutely certain about the state of their souls. Virtue could be achieved only at the cost of eternal vigilance.</t>
+          <t>The extraordinary growth in biom?dical research and development of the past quarter-century seems now to have ended, and it is likely to be followed by a period of reassessment and adjustment. The choices made regarding the support and direction of the now vigorous research apparatus over the next decade will be critical for the future health and productivity of the medical sciences. And biom?dical research today determines medical practice tomorrow. From results of research come the means of improving the quality of health care and, ultimately, of reducing its costs. Yet the ready translation of the findings of health research into benefits for patients is limited. A great deal of research cannot be coupled directly to the solution of health needs, and only a small fraction of the yield at any one time is convertible to useful technology. Moreover, the application of new medical technology is far more tedious and complex than is generally realized. In contrast to the relative ease with which many infectious diseases are controlled by immunization and antibiotics, the use of drugs and devices to combat chronic diseases can be costly in both time and resources. In addition, the price of technology is often too high in the short term, or too high in terms of its benefits. The last quarter of the twentieth century will find scientists, health-care pro viders, and consumers drawn into a much closer community of interests. These will include: (1) field trials to examine, in statistically valid terms, the potency and safety of new medicines, instruments, and techniques; (2) far more extensive health educa tion, emphasizing individual responsibility and the relation between benefit and cost; and (3) an increasing awareness of environmental hazards, and an increasing ability to assess genetic differences among individuals in their adaptation to the environment. Because innovations in the system can only be evaluated through sensitive measurement of changes in the health of populations, data about people and the results of their encounters with the health system will have to be gathered on a vastly larger scale. The health of Americans is much affected by social and economic factors and by the choices people make in the way they live. These are now beyond the realm of conventional biom?dical research; should they be included, debate about the ethical and moral aspects of such research is likely. By the nineteen-eighties, competi tion for resources can be expected to decrease that part allocated to science, threatening the pursuit of new research at a time when revolutionary techniques such as cell hybridization and fast-reaction measurements (among others) are reducing the gene, the cell, and even the brain to molecular terms. In the next decade the research community must demonstrate its ability to 159</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2514331788</t>
+          <t>https://openalex.org/W24698025</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5926/arepj1962.15.0_102</t>
+          <t>https://doi.org/10.2172/7328462</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>邦男 et al. (1976)</t>
+          <t>Rapp (1977)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Independent Symposium III REEXAMING THE PROBLEMS IN EDUCATIONAL MEASUREMENT AND EVALUATION</t>
+          <t>Fundamental studies of metal fluorination reactions. Progress report, May 1, 1976--April 31, 1977</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>This symposiumw as plannedt o achievet he followingo bjectives.(1) Despite of the criticisms offered by Prof. Mantaro Kido, Prof. Masaki Masashi and Prof. AritsuneT suzuki,t he problemsi n educationalm easurementa nde valuationh ave so far been discussed without considering the goal and value of education. As a consequence, m ost of the researcheso n educationale valuationh ave ignoreds tudyingth e taxonomy of education,a nd have shownn o concerna bout the studyo f teachinga nd learning. In addition,t hey have causedm uchd elay in studyingt he validityo f achievementte st. Under these circumstancesw, e attemptedt o clarifyt he causes for sucht rends, and finds ome clues for solving the problem.(2) It is difficult to recognize that the research on measurement and evaluation has developedi n a relationshipc loselyi nterwovenin to the practiceo f education. In this symposium, therefore, we intended to establish a much closer relationship between them by criticizings ome aspectso f the researchesi n this area.The contentso f the reportss ubmittedb y four reporters can be summarizeda sfollows:Report1(DaisukeM itsui)He presented his arguments from the viewpoint of industrial psychology(1) The recent trend in dealing with test and evaluation in education has become very similar in nature to that in industry. In the industrial field, the need of the employer is the most important factor, while the needs and feeling of the employees are a factor of secondary importance. On the other hand, in the educational field, we should not only evaluate the present state of the abilities of a child, but also make any possible efforts in the process of evaluation to develope his potential capabilities which will prepare him for the future.(2) It is generally said that emphasis should be placed upon evaluation rather than measurement. However, the interrelationphip between these two approaches needs further investigation.(3) In order to formulate a new test theory on the basis of criterion referenced measurement, we have to make a survey of the prevalance of scholastic abilities, and reexamine the concepts of the objectivity and validity of testing.Report2 (idenori Akiba)He reported the historical development of test and evaluation from which he suggested that we should learn the following two points.(1) Although it has been asserted that measurement should be replaced by evaluation, this has not yet been brought to realization. Therefore, we should return to the age of “Eight Years tudy”, and reexamine that Study from the viewpoint of the contemporary new thought of ability.(2) The movement for measurement in the 19th century was carried out in the age which did not pay any attention to the “Right of Learning”. Nowadays we should investigate the study of evaluation from the standpoint of “Right of Learning” and “Right of Development”Report3 (Kuniaki Miyajima).The method of evaluation in the prevailing cumulative record has adopted a form in which bnth the methods of analitical evaluation and norm referenced evaluation exist together. However, we find a great inconsistency between these two methods of evaluation because we think that, in theory, analitical evaluation is inevitably associated with criterion referenced evaluation, while synthetical evaluation, with norm referenced evaluation. In this sence, a proposition made by the Kyoto Prefectural Board of Education is worthy of our consideration.Report4 (Keiichi Saito)He defined educational evaluation by stating that a teacher judges whether his educational action upon his pupils is effective or not in the process of teaching, and then evaluate the direction of his teaching; in other words, educational evaluation can be thought to be a judgement for selecting a direction for his teaching.</t>
+          <t>The present research is being undertaken to study some fundamental thermodynamic and transport properties and detailed mechanisms pertinent to metal fluorination reactions. The program consists of determining the following properties using solid-state, CaF/sub 2/-electrolyte galvanic cells: (A) solubility and diffusivity of fluorine in metals, specifically nickel, and (B) the nature of the point defects (type, concentration and mobility) in metal fluorides as a function of fluorine partial pressure, temperature and impurity concentration. The latter study encompasses the study of the electrical conductivity of metal fluorides under thermodynamically well-defined conditions. Another objective of the program is to design and construct a fluorine probe for the measure of fluorine chemical potentials in gaseous environments. The probe must be evaluated in oxygen-containing atmospheres which might limit its accuracy and lifetime. For several technical reasons, the specific experimentation has deviated somewhat from that originally proposed. For two reasons, a probable phase change in CaF/sub 2/ at a temperature around 1175/sup 0/C and a thermal expansion coefficient which differs greatly from solid nickel, CaF/sub 2/ single crystal electrolytes could not yet be interfaced perfectly to solid nickel for electrochemical studies. However, these problems were avoided by the successful substitution of copper for nickel in the studies of solubility and diffusivity. Some problems also arose in the study of the electrical conductivity of NiF/sub 2/, namely, only relatively impure NiF/sub 2/ was available, and NiF/sub 2/ exhibited poor mechanical stability as electrodes. Therefore, the proposed methods were used mostly for the study of B-PbF/sub 2/, for which previous studies also provided values for comparison. With the experience gained from the work reported here, future experimentation with nickel metal and NiF/sub 2/ should be successful.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2592069304</t>
+          <t>https://openalex.org/W2491487727</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.30548</t>
+          <t>https://doi.org/10.1017/s0094837300005388</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Beille et al. (1976)</t>
+          <t>Waters (1977)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>The weak ferromagnetic properties of disordered-concentration transition metal alloys</t>
+          <t>Quantification of shape by use of Fourier analysis: the Mississippian blastoid genus &lt;i&gt;Pentremites&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>The magnetic moments of transition atoms in disordered‐concentrated metallic alloys depend on their immediate surrounding as well as on the mean electronic properties of the alloys. We discuss, using a few examples, the homogeneity of these alloys in the concentration range for the onset of ferromagnetism and of the effects of high magnetic fields, temperatures and pressures on their magnetic moment. Among the examples chosen are the NixOt1−x, NixPd1−x, FexGe1−x, FexCo1−xSi and rare earth‐yttrium‐cobalt Y1−xTxCo2 systems. Their physical properties are largely dependent on non‐strongly magnetic transition atoms.</t>
+          <t>Psychological evidence suggests that the visual outline of an object is the most important character for discriminating differences in external morphology. External morphology is an important taxonomic character in describing living and fossil species, for example, the blastoid Pentremites. Comparison of different views of the same specimen utilizing Fourier series suggests that the skeleton of Pentremites commonly is not rotationally symmetrical and that the asymmetry is not associated with any specific ray. Analysis of a growth series indicates that the amplitudes of the second and third harmonics are significantly correlated with growth, which is demonstrated to be anisometric. Definable changes in the lateral outline can be attributed to changes in harmonic amplitudes and a wide range of morphological forms comparable to known taxa can be generated by systematically varying the amplitudes of the first four harmonics. The population used in this study probably represents Pentremites robustus Lyon and is from Bangor Limestone in the abandoned Moulton Quarry, Lawrence County, Alabama.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2605785371</t>
+          <t>https://openalex.org/W2497591821</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2151/jmsj1965.54.4_226</t>
+          <t>https://doi.org/10.1007/978-1-349-02721-7_22</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Hastenrath (1976)</t>
+          <t>Packer (1977)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Daily Variation of the Atmospheric Mass and Moisture Budget over the Tropical Western Pacific</t>
+          <t>A metabolic study of the Quokka, Setonix brachyurus, in varying regimes of temperature and humidity</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Periodic variations of divergence and vertical motion and the daily march of the atmospheric moisture budget are evaluated based on special upper-air and surface observation programs conducted over the Western Tropical Pacific in April-July 1956 and 1958. Daily variations of divergence and vertical motion are in their timing broadly consistent with the tidal pressure and wind oscillations. For the daily average, estimates of large-scale atmospheric water vapor flux convergence, precipitation, and evaporation are 6.5, 10.0, and 2.8 mm H2O day-1, respectively. The vector departure from the daily mean of the vertically integrated moisture flux shows a periodic clockwise turning in the course of the day, which is linked with the mechanism of the tidal pressure and wind variation. Budget terms with the largest daily range are, in order, change in precipitable water, water vapor flux convergence, and precipitation rate.</t>
+          <t>An increasing number of studies in recent years have attempted to determine how the individuals in a population survive in harsh environments. Few free-living animals, if any, spend their entire life cycle in constant conditions. Most are exposed to a wide variety of physical and biological factors which fluctuate, either with reasonably predictable periodicity (for example, temperature, light, salinity, etc.) or more irregularly (for example, population density, food supply, rainfall, etc.). Even those factors, such as temperature, which generally follow a predictable pattern (that is, higher during day than night) may vary in intensity from day to day. Short-term adjustments to changes in the physical and biological environment are achieved through physiological and behavioural responses. This paper examines some responses of the Quokka, Setonix brachyurus, to varying temperature and humidity regimes under laboratory conditions, relating them to observed behaviour in the field. For further studies of Australian macropods in relation to their environments see Tyndale-Biscoe (1973), Russell (1974), Waring, Moir and Tyndale-Biscoe (1966) and Kaufmann (1974).</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2922599379</t>
+          <t>https://openalex.org/W26280406</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Whiting (1976)</t>
+          <t>Drury &amp; Glenboski (1977)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Studies on the safe administration of drugs : evaluation and prevention of drug interactions</t>
+          <t>Peace Hawk: A Case Study of a Foreign Military Sales Program and Its Management</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>It is virtually impossible for a practising doctor to sustain the mass of detailed information which is now available on drug interactions. To overcome this problem, a simple, portable drug interaction warning system, the Drug Disc, has been developed. It consists of a reversible unit of two concentric superimposed discs which pivot freely about their common centre. Interactions are indicated by symbols which appear in a window cut into the upper disc when individual drugs or drug categories shown on the two discs are brought into alignment. The information presented embraces the majority of drug interactions which have a bearing on therapeutics and different symbols are used to grade interactions according to their degree of clinical significance. This grading was based on the nature and severity of the interaction, the adequacy of published information, and opinions expressed by the developers of the Disc, including a Working Party established by the Scottish Home and Health Department, and 450 doctors and pharmacists who participated in a trial of the Disc in the United Kingdom. This survey of attitudes about the warning system indicated that the majority of participants found the information provided to be both clinically useful and informative. Subsequent consumer research in other countries has confirmed that the system would be of value both as a practical aid in prescribing and in teaching. The degree of interest and enthusiasm stimulated by the Drug Disc showed that drug interactions are an aspect of modem medicine that cannot be ignored, and suggested that this kind of aid to prescribing was warranted* It is planned to effect a free distribution of the Disc to Health Service Doctors in the United Kingdom and the Excerpta Medica Foundation has accepted responsibility for its worldwide distribution. Further experience with drug combinations and the introduction of new drugs will largely dictate much of the relevance of drug interactions in the future. The Drug Disc will be subjected to constant review and appropriate changes made whenever necessary. It is hoped that a system of this kind will foster a more critical approach to multiple drug therapy and help to reduce many of the hazards implicit in drug combination. _x000D_
-_x000D_
-Publications:_x000D_
- _x000D_
-Skellem, G.G., Meier, J. and Whiting, B. (1976) The application of_x000D_
-high-pressure liquid chromatography to the determination of_x000D_
-some 1,4 benzodiazepines and their metabolites in plasma._x000D_
-II Farmaco_x000D_
-_x000D_
-Sumner, D.J., Russell, A.J. and Whiting, B. (1975) Digoxin kinetics :_x000D_
-Multicompartmental analysis and its clinical implications._x000D_
-British Journal of Clinical Pharmacology_x000D_
-._x000D_
-Wallace, S. and Whiting, B. (1974) Some clinical implications of the_x000D_
-protein binding of digoxin. British Journal of Clinical Pharmacology._x000D_
-1, 325-328._x000D_
-_x000D_
-Wallace, S., Whiting, B. and Runcie, J. (1976) Factors affecting drug_x000D_
-binding in plasma of elderly patients. British Journal of Clinical_x000D_
-Pharmacology_x000D_
-_x000D_
-Whiting, B., Rodger, J.C. and Sumner, D.J. (1972) New formulation of_x000D_
-digoxin. Lancet. 2, 922._x000D_
-_x000D_
-Whiting, B., Goldberg, A. and Waldie, P.S. (1973) Hie Drug Disc ;_x000D_
-Warning system for drug interactions. Lancet. 1, 1037-1038._x000D_
-_x000D_
-Whiting, B., Goldberg, A. and Waldie, P.S. (1974) Hie Drug Disc._x000D_
-A warning system for drug interactions. Drug Therapy. Feb. 1974&gt;_x000D_
-79-82.</t>
+          <t>Abstract : The purpose of this thesis is to present an FMS case study which provides a comprehensive synthesis of the management structure and functions of Peace Hawk. The effectiveness of Peace Hawk is examined against its objectives of providing F-5 aircraft to Saudi Arabia and enabling the Saudis to achieve maximum self-sufficiency in all facets of F-5 operations, training, and support. To accomplish this purpose, this study begins with a discussion of the Peace Hawk environment and then chronologically develops the six phases of Peace Hawk. Phases I, II, IV, and VI involved the sale of F-5B/E/F aircraft to Saudi Arabia. Phases III and V involved maintenance, training, and construction in support of those F-5 aircraft. Many organizations, including the DOD, HQ USAF, AFSC, AFLC, the United States Military Training Mission in Saudi Arabia, San Antonio Air Logistics Center Detachment 22, the Northrop Corporation, and the Peace Hawk Project Office of the Royal Saudi Air Force have had active roles in Peace Haw. The functions of these organizations and their impact on Peace Hawk are discussed. Several Peace Hawk problem areas also are listed, and actions taken to correct them are noted.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2979838825</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5796/kogyobutsurikagaku.44.572</t>
+          <t>https://openalex.org/W2725965424</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Kozawa (1976)</t>
+          <t>Barbacovi (1977)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Reaction Mechanism of Hydrogen Absorbers Made of Manganese Dioxide</t>
+          <t>The Handicapped Children Act--P.L. 94-142: Implication for Principals.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Previously the author found that manganese dioxide which was catalyzed with palladium Qr silver is an excellent hydrogen gas absorber．In order to understand the mechanism of the reaction between hydrogen gas and manganese dioxide，various oxides sucb as PbO2，RuO2，MnO2，Mn203，Mn304，：CuO， HgO，AgO，Ag20were tested for hydrogen absQrption、The excellent hydrogen absorption capability of MnO2and RuO2was attributed to the nature of the unique oxide system，which is reduced by accepting protons without changing the essential stτucture．Other oxides such as PbO2，HgO．CuO， etc．were far poorer in hydrogen absorption compared to RuO2and MnO2．This was attributed to the fact that the oxides are a two phase(or heteτogeneous phase)oxide system in the e玉ectrochemical reduction，whereas MnO2and RuO2are one phase redox systems． 1 1ntro uctio皿 Previously two types of hydrogen absorbers， both of which were made of manganese dioxide， were reported1)-4)．One was MnO2which was catalyzed with palladium1)・2)and the other was MnO、which was catalyzed with Ag-Mn3)，4)． The pu駆》se of this paper is to propose a proba． ble mechanism for the hydrogen absorption reaction and provide some experimental support for this mechanism． 2 Proposed Mechanism As we well know，oxygen gas and hydrogen gas do not react with each other unless a cata． lyst(θ。g。，Pt black)is present。Similarly MnO、 or other oxides(PbO2，HgO，Ag，0，αo．)do not react with hydrogen gas without a proper catalyst such as palladium1)・2)or an Ag-Mn cata-1yst3)・4)which is an intimate mixture of Ag20 (or AgO or Ag salt)and MnO、(or other Mn oxide or Mn salt)． An effective and practical hydrogen absorber must be composed of two essential components． ＊Union Carbide Corporation，</t>
+          <t>Provided is a frame of reference for considering the potential impact of Public Law 94-142, Education of All Hanaicapped Children Act, on school administrators. It is explained that Public Law 94-142 may reshape three traditional aspects of existing school environments: first, it might be anticipated that the underlying approaches used to accomplish the mission of schools may change; second, the role relationships between and among educational professionals, social service professionals, parents, and students may change; and third, changes in the rationale and processes of educational decision making may occur. Due process and procedural safeguards, individualized educational programs, and the concept of least restrictive environment are also considered. (Author/SBH) *********************************************************************** Documents acquired by ERIC include many informal unpublished * materials not available from other sources. ERIC makes every effort * * to obtain the best copy available. Nevertheless, items of marginal * * reproducibility are often encountered and this affects the quality * * of the microfiche and hardcopy reproductions ERIC makes available * * via the ERIC Document Reproduction Service (FDRS). EDRS is not * responsible for the quality of the original document. Reproductions * * supplied by EDRS are the best that can be made from the original. *********************************************************************** IP 4. S DEPARTMENT OF HEALTH. EDUCATION &amp; WELFARE NATIONAL INSTITUTE OF EDUCATION THIS OOCUMENT HAS BEEN REPRO. OUCED EXACTLY AS RECEIVE0 FROM THE PERSON OR ORGANIZATION ORIGIN. ATING IT POINTS OF VIEW OR OPINIONS ST ATEO 00 NOT NECESSARILY REPRESENT OFF ICIAL NATIONAL INSTITUTE OF EOUCATION POSITION OR POLICY THE HANDICAPPED CHILDREN ACT P.L. 94-142: IMPLICATION FOR PRINCIPALS* Don R. Barbacovi William Brown Richard W. Clelland Gerald Griffin Constance A. Halter Michael E. Norman David J. Rostetter Jeffery J. Zettel Initially educators were startled by what was envisioned to be the overriding effects of Public Law 94-142, The Education of All Handicapped Children Act of 1975. Though the law went into effect in November, we reactsid to it as with most educational legislation that the drafters of the legislation again failed to seek our input. We are now settling down and gaining an understanding of how to implement this national public policy with the least amount of difficulty. We now-realize that 1980 is just around the corner, that P.L. 94-142 is unlikely to be legislatively modified or amended, and that there are 15 to 20 percent of school children and youth who need highly individualized and specialized instruction. purpose of this paper is to provide a frame of reference for considering the potential impact of P.L. 94-142 on school administrators. impact on the school organization including professional relationships and parental participation are discussed with an orientation of change. Planning, implementation and evaluation strategies as well as due process considerations will be summarized. P.L. 94-142, The Education of All Handicapped Children Act of 1975, may reshape three traditional aspects of existing school environments for administrators. First, it might be anticipated that the underlying approaches used to accomplish the mission of schools may change. Second, the role relationships between and among educational professionals, social service professionals, parents and students may change. Third, changes in the rationale and processes of educational decisioning may occur. Each of these propositions will be reviewed in the context of the provisions of the law. *A paper prepared for the National Association of Secondary School Principals Annual Convention, New Orleans, Louisiana, January, 1977.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3010884847</t>
+          <t>https://openalex.org/W2732981641</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s1474-6670(17)66920-9</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Curtis &amp; Hartle (1976)</t>
+          <t>Aoki (1977)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Wind enhanced planetary escape: Collisional modifications</t>
+          <t>Evaluation and Optimization of Environmental Planning under the Risk-Aversion of Non-Repairable Damage</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The problem of thermal escape is considered in which both the effects of thermospheric winds at the exobase and collisions below the exobase are included in a Monte Carlo calculation. The collisions are included by means of a collisional relaxation layer of a background gas which models the transition region between the exosphere and the thermosphere. The wind effects are considered in the limiting cases of vertical and horizontal flows. Two species are considered: terrestrial hydrogen and terrestrial helium. In the cases of terrestrial hydrogen the escape fluxes were found to be strongly filtered or throttled by collisions at high exospheric temperatures. The model is applied to molecular hydrogen diffusing through a methane relaxation layer under conditions possible on Titan. The results are similar to the case of terrestrial hydrogen with wind enhanced escape being strongly suppressed by collisions. It is concluded that wind enhanced escape is not an important process on Titan.</t>
+          <t>The aim of this study is to clarify the mean of total optimization of planning and to derive a condition of optimization under the two different goals of economical maximization and minimization of ecological risk on environmental planning. Environmental damages are classified into repairable and non-repairable loss and an evaluating system formulated as aprobabilistic state transition system with gain, is analyzed. For two different criteria, the concepts of set ordering and parato ray optimum are defined. By those concepts, the fact that optimal level of planning can be determined uniquely is showned and the example case is studied numerically.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3022857013</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/s0252921100051320</t>
+          <t>https://openalex.org/W2749274279</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Link et al. (1976)</t>
+          <t>Neunteufel (1977)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1.1.3 Preliminary Results of the Helios a Zodiacal Light Experiment</t>
+          <t>The State of the Art in Modelling of Food and Agriculture Systems</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Helios A was launched on December 10, 1974 into a highly elliptical orbit with a perihelion of 0.31 A.U., which was reached on March 15, 1975. The zodiacal light experiment on Helios, described in the preceding paper, worked flawlessly and provided the first observations of the zodiacal light from inside the Earth’ orbit. A typical example from the raw data of the 15° – photometer is shown in Fig.1. There is a strong intensity increase towards the sun and a remarkably flat intensity distribution at large elongations. The Milky way is superimposed on the zodiacal light at longitudes 135° to 180° and 315° to 360°. Due to the orbital motion of Helios the star background is being shifted with respect to the zodiacal light, which will facilitate its separation from the total observed intensity. The peak at the right side of Fig.1 is due to the star α CMi, which we intend to use for the calibration of the instrument in addition to the ground calibrations. A preliminary evaluation showed less than 20% difference between the two calibrations. This is typical for other stars and for the other photometers, too, and gives a safe upper limit for the accuracy of the absolute calibration. Temperature effects are comparatively small and have not been corrected so far.</t>
+          <t>The study is composed of two parts: at first we briefly discuss some questions of modelling the food and agriculture system over the long run, illustrating them with concrete model examples. The questions are: population and economic development; technological change and investments; environment and agricultural production; and international relationships. 
+The second part contains short notes about the 43 models which have built the base of the study. The notes give information about the models' main characteristics, structure and applicability. 
+A bibliography is also enclosed listing references of papers and books which although not incorporated in this study may nevertheless be of interest to agricultural modellers.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://openalex.org/W330322887</t>
+          <t>https://openalex.org/W2950249721</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ashley et al. (1976)</t>
+          <t>Jean &amp; Ache (1977)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Energy and the environment: a risk benefit approach. [Assemblage of 11 papers from nine seminars during Autumn Quarter, 1974]</t>
+          <t>Positronium reactions in micellar systems</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>This book is based on nine seminars delivered during autumn quarter, 1974, and centered on the theme ''Energy and the Environment, a Risk-Benefit Approach.'' Risk-benefit analysis is defined in Dr. Starr's opening lecture on ''General Philosophy of Risk-Benefit Analysis.'' He summarizes the central issues of allocating limited national resources among the future energy options that are now being developed. Ten papers and their authors that follow are entitled: Future Alternatives and Technical Options for the National Energy System, by Chauncey Starr; Health Effects of Electricity Generation from Coal, Oil, and Nuclear Fuel, by Lester B. Lave; Public Health Aspects of Energy Systems, by Leonard Sagan; The Rate of Discount for Long-Term Public Investment, by Kenneth J. Arrow; Benefit-Risk Trade-offs in Nuclear Power Generation, by Wolf Haefele; Options for the Conversion of Fossil Fuels, by E. J. Gornowski; U.S. Options for a Transition from Oil and Gas to Synthetic Fuels, by Alan S. Manne; Fault-Tree Analysis as an Example of Risk Methodology, by Gerald J. Lieberman; Energy and Human Welfare, by Richard J. Gonzalez; and Energy and the Environment, by Richard J. Gonzalez. (MCW)</t>
+          <t>The rate constants for Ps reactions with nitrobenzene and CuCl/sub 2/ in various micellar systems such as sodium dodecylsulfate, sodium octylsulfate and -sulfonate, hexadecyltrimethylammonium-bromide and -chloride, hexadecylpyridiniumchloride and tergital were measured. The results show that in most cases the Ps reactivity toward nitrobenzene is significantly reduced when the latter is located in the micellar phase as compared to the homogeneous aqueous phase. On the other hand the observed reaction constants do not coincide with the constants measured for Ps-nitrobenzene in the corresponding alkanes either, with the exception of sodiumoctylsulfate and -sulfonate. Since Ps-nitrobenzene reaction rate constants were found to be sensitive to the environment in which they occur, these results may suggest that the nitrobenzene probe molecule is located in the Stern layer where it forms complexes with the various head groups, in which form its reactivity toward Ps will be decreased. An exception could be the sodiumoctylsulfate system, where nitrobenzene may be in an aqueous environment, or the sodiumoctylsulfonate where the nitrobenzene may reside in the hydrocarbon-like environment.In micellar solutions containing Cu/sup + +/ ions, no change in the Ps rate constants is observed in the case of the neutral tergital or the cationic hexadecylpyridiniumchloride micellar systems, whereas inmore » the presence of the anionic micelles, sodium dodecylsulfate or sodiumoctylsulfate or -sulfonate which easily adsorb Cu/sup + +/ ions, the rate constants drastically drop.« less</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://openalex.org/W346965549</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21236/ada029723</t>
+          <t>https://openalex.org/W3024563470</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Berteussen et al. (1976)</t>
+          <t>Bövre et al. (1977)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Re-evaluation of the NORSAR Detection and Location Capabilities</t>
+          <t>Oxidase positive rods from cases of suspected gonorrhoea. A comparison of conventional, gas chromatographic and genetic methods of identification.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Abstract : Analysis on a regional basis of the NORSAR seismic bulletin data for the three years from April 1972 to March 1975 shows that there has been no significant temporal change in the detectability during this time period. The detectability has been examined using the least squares cumulative method, the least squares incremental method and the Lacoss-Kelly incremental method. The results are fairly consistent, although the incremental methods as expected give higher thresholds; for example, for the Japan-Kuriles-Kamchatka region the three methods give, for the 90% detectability, values at NORSAR magnitudes 3.8, 3.9 and 4.0, respectively. The b- values have also been estimated using a weighted least squares method and the Utsu method, and the median of the b- values from the five techniques are for all regions in the range 0.7 to 1.1, with some regional variations. An extensive comparison with PDE solutions from USGS shows that norsar generally reports somewhat smaller magnitudes. The event locations as published by NORSAR since the beginning of 1973 are generally better than before. For the best regions the median location defference between NORSAR and USGS estimates is about 100 km, and very few regions show any significant differnece between the average distances and azimuths as reported by the two institutions.</t>
+          <t>Genito-urethral specimens from 3260 women and 1170 men, with ailments suggestive of gonorrhoea, were examined for growth of oxidase positive rodshaped bacteria, as well as of gonococci. Moraxella osloensis was identified in 26 cases (0.64 per cent of women and 0.43 per cent of men). Three patients harboured phenylalanine negative (or weakly reacting) and tryptophan deaminase negative M. phenylpyrouvica and, in three cases, a Flavobacterium species was detected. Among six oropharyngeal specimens from patients suspected of gonorrhoea, two yielded growth of oxidase positive rods, Kingella kingae and Neisseria elongata, respectively, N. gonorrhoeae was isolated from 537 patients, i.e., 12.1 per cent of all cases. The isolates of oxidase positive rods were in most cases completely identified by streptomycin resistance transformation. On this basis, the diagnostic reliability of some morphological and cultural-biochemical tests and gas chromatography was examined. Gas chromatographic analysis of fatty acid and alcohol composition of whole cells proved distinctive of species defined genetically, irrespective of confusing behaviour of some strains in other tests.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205253121</t>
+          <t>https://openalex.org/W3048292234</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/qkh.1976.0009</t>
+          <t>https://doi.org/10.2172/7081364</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Frost (1976)</t>
+          <t>Tompkins (1977)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Articles in Quaker Periodicals</t>
+          <t>Research on cross-flow filtration for solids removal from coal syncrudes. Quarterly technical progress report, September 1--November 30, 1976</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ARTICLES IN QUAKER PERIODICALS By J. William Frost The Friend Charles H. Davies, "The Quakers' Line," describes the Stockton and Darlington Railway, one of the earliest railroads to use steam locomotives. Vol. 133, No. 34, Aug. 22, 1975, pp. 949-952. Joyce Godber, "'Sufferings' in the Early Days," is an imaginative recreation of the early work of the Meeting for Sufferings which is now celebrating its tercentenary. Vol. 133, No. 43, Oct. 24, 1975, pp. 1199-1201. Joe Charlesworth, "Learning from the Recent Past," discusses the renewal movement in English Quakerism in the 1890's and the reaction against it today. Vol. 134, No. 11, 12, March 5, 12, 1976, pp. 245-246, 281-282. Hugh McG. Ross, "George Fox on Some Roots of Peace," prints for the first time a 1668 document by Fox. Vol. 134, No. 14, April 2, 1976, pp. 371-372. Friends Journal Leonore Turner Henderson, "Emily Green Balch," ponders the recent neglect of a prominent Quaker social worker, college teacher, and pioneer for peace who received the Nobel Peace Prize. Vol. 21, Na 20, Dec. 1, 1975, pp. 621-622. Horst Brückner, tr. M. C. Morris, "Fifty Years of German Quakerism," is a brief sketch of changes in the small community of German Friends. The same issue contains a note from M. C. Morris entitled "First Minute Book Found," telling how the minutes of the Quaker meeting in Berlin 1920-1939 which were misplaced for twenty-five years have been rediscovered. Vol. 21, No. 21, Dec. 15, 1975, pp. 660-661. Peter Fingestan, "George Fox and the Scriptures" uses Fox's Journal to assess his use of the Bible. Vol. 22, No. 2, Jan. 15, 1976, pp. 42-44. Warder Henry Cadbury, "Washington's Weathervane," tells the story of a dove of peace made for George Washington by a Quaker in 1787 which is now pictured on a stamp. Vol. 22, No. 4, Feb. 15, 1976, p. 116. Friends Quarterly L. Hugh Doncaster, "Diversity and Unity in the Society of Friends," and Pamela Oliver, "Problems of Authority, Discipline and Tradition in the First Century of English Quakerism," attempt to show how seventeenthcentury Friends arrived at spiritual unity and focus upon various schisms. Vol. 19, No. 3, July 1975, pp. 107-114, 115-125. Ingmar Hallsing, "A Happy Radical for our Time: John Woolman," suggests how Woolman in contrast to St. Francis and Marx would deal with the major political and economic issues today. Vol. 19, No. 4, Oct. 1975, pp. 169-175. 121 122QUAKER HISTORY Ben Vincent, "The Liberal Party on its Knees," assesses why modern middle class Friends have dropped their allegiance to Labor-socialism. Vol. 19, No. 4, Oct. 1975, pp. 176-182. Anne Park, "Charles Lamb and the Lloyds of Birmingham," commemorates the bi-centenary of Charles Lamb by recounting the relationship of the Lloyd family with Lamb. Vol. 19, No. 4, Oct. 1975, pp. 183-186. Maurice Creasey, "Relevance? or Truth?" is a review of the October 1974 issue devoted to George Fox. Creasey finds the articles too sympathetic, parochial and unadventurous; he suggests an emphasis upon Fox's mistakes as well as his positive contributions. Vol. 19, No. 5, Jan. 1976, pp. 195-204. Lawrence Jones, "The Early Friends and Us," describes the first Quakers as forming a revolutionary prophetic community. Vol. 19, No. 5, Jan. 1976, pp. 213-225. Jon E. North, "Smashing Satan's Dominion," deals with the changing Quaker attitude to persecution and the origins of the London Meeting for Sufferings. Vol. 19, No. 6, April 1976, pp. 253-262. Journal of the Friends Historical Society Andrew Brink, "Paradise Lost and James Nayler's Fall," shows the parallels between Milton's description of Adam's fall and the Nayler incidents. Vol. 53, No. 2, 1973, pp. 99-112. Kenneth L. Carroll, "Henry Fell, early Publisher of Truth," fills in die details of die life of a little known early Friend. Vol. 53, No. 3, 1973, pp. 113-123. Jean E. Mortimer, "An Early Quaker Poet: Mary (Southworth) MoIlineux ," contains a biography and evaluates the poetry of a Quakeress whose Fruits of Solitude went dirough six English and three American editions in the eighteenth century. Vol. 53...</t>
+          <t>System construction activities are complete through Task 46 of the PERT diagram, with the remaining two tasks underway. Temporary replacement seals for the main process pump have been supplied by the manufacturer and should allow the initiation of the test protocol. As indicated in previous reports, a unique approach to the measurement of feed and filtrate flow rates has been proposed for this investigation. Due to the nature of SRC and the filtration process, significant changes in fluid properties can be expected (solids loading, viscosity, density) to occur during processing. Thus, traditional flow measurement devices (rotameters, orifice meters, etc.) can be expected to yield only a qualitative indication of actual flow rates at best. Diversion of a process stream with collection over a measured time interval and subsequent weighing represents an improvement in flow indication, but requires assessment of density to yield accurate flow rates. A true volumetric flow indicator, insensitive to changing fluid properties, appears to be desirable. The approach to be taken in this investigation for flow measurement is the periodic diversion of the process stream to be measured into a calibrated volume, with the volumetric throughput followed by means of a capacitance level-indicating probe with associated electronics. By following the progress of the SRC/nitrogen interface for a known time interval, an exact indication of volumetric flow rate (independent of fluid properties) should be obtained. To date, the capacitance probes with required electronics have been received and assembled. Preliminary performance evaluations have been carried out to confirm the applicability of the measurement principle.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4212946010</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/j.1540-6563.1976.tb01898.x</t>
+          <t>https://openalex.org/W308879569</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NA (1976)</t>
+          <t>Bulyginskii et al. (1977)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Book Reviews</t>
+          <t>Plasma confinement in a purely toroidal magnetic confinement system with a self-consistent electric field</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Book review in this Article Bronze Age Migrations in the Aegean: Archaeological and Linguistic Problems in Greek Prehistory (Proceedings of the First International Colloquium on Aegean Prehistory, Sheffield [1970]. Edited by R. A. Crossland and Ann Birchall. Goddesses, Whores, Wives, and Slaves: Women in Classical Antiquity. By Sarah B. Pomeroy. The Venture of Islam: Conscience and History in a World Civilization, volume 1: The Classical Age of Islam The Reformation in the Cities. By Steven E. Ozment. The Military Intellectual and Battle: Raimondo Montecuccoli and the Thirty Years War. By Thomas M. Barker. Rural Change and Urban Growth 1500–1800: Essays in English Regional History in Honour of W. G. Hoskins. Edited by C. W. Chalkin and M. A. Havinden. Elizabeth Tudor: Portrait of a Queen. By Lacey Baldwin Smith. Charles I's Lord Treasurer: Sir Richard Weston, Earl of Portland (1577–1635). By Michael van Cleave Alexander. The Statistical Movement in Early Victorian Britain: The Foundations of Empirical Social Research. By Michael J. Cullen. Thank God We Kept the Flag Flying: The Siege and Relief of Ladysmith, 1899–1900. By Kenneth Griffith. Ireland, Britain and Germany, 1871–1914: Problems of Nationalism and Religion in Nineteenth‐Century Europe. By Felician Prill. The War Generation: Veterans of the First World War. Edited by Stephen R. Ward. Society and Culture in Early Modern France: Eight Essays. By Natalie Zemon Davis. Morality and Social Class in Eighteenth‐Century French Literature and Painting. By Warren Roberts. The Election of 1827 in France. By Sherman Kent. The Fascist Ego. A Political Biography of Robert Brasillach. By William R. Tucker. Intellectual and Social Developments in the Habsburg Empire from Maria Theresa to World War I; Essays Dedicated to Robert A. Kann. [East European Monographs, no. 11]. Edited by Stanley B. Winters and Joseph Held, in collaboration with Istvan Deak and Adam Wandruszka. The Downfall of the Anti‐Semitic Political Parties in Imperial Germany. By Richard S. Levy.The Historian The Rise of German Industrial Power, 1834–1914. By W. O. Henderson. Confrontation in Central Europe: Weimar Germany and Czechoslovakia By F. Gregory Campbell. Max Weber: A Biography. By Marianne Weber. Translated and edited by Harry Zohn. The Politics of Illusion: The Fischer Controversy in German Historiography. By John A. Moses. Bulgaria During the Second World War. By Marshall Lee Miller. Legitimacy through Liberalism: Vladimir Jovanovi and the Transformation of Serbian Politics. By Gale Stokes. The Politics of Catherinian Russia: The Panin Party. By David L. Ransel. Sweden's Development from Poverty to Affluence 1750–1970. Edited by Steven Koblik. Translated by Joanne Johnson in association with the University of Minnesota Press and Steven Koblik. The Cambridge History of Africa: Volume 4 from c. 1600‐c. 1790. Edited by Richard Gray. The Other Livingstone. By Judith Listowel. The Tide at Sunrise: A History of the Russo‐Japanese War, 1904–1905. By Denis and Peggy Warner. China's Imperial Past; An Introduction to Chinese History and Culture. By Charles O. Hucker. The fall of Imperial China. By Frederic Wakeman, Jr. Colonial New York: A History. By Michael Kammen. Money and Politics in America, 1755–1775: A Study in the Currency Act of 1764 and the Political Economy of Revolution. By Joseph Albert Ernst. Leadership in the American Revolution. [Library of Congress Symposia on the American Revolution.] Alfred H. Kelly, et al. Manuscript Sources in the Library of Congress for Research on the American Revolution. Compiled by John R. Sellers, et. al. The Middle Colonies and the Coming of the American Revolution. By John A. Neuenschwander. Inventors of the Promised Land. By Lawrence J. Friedman. Slavery and the Churches in Early America, 1619–1819. By Lester B. Scherer. Slavery and the Numbers Game. A Critique of “Time on the Cross”. By Herbert G. Gutman. Hired Hands and Plowboys: Farm Labor in the Midwest, 1815–60. By David E. Schob. Edward Stanly: Whiggery's Tarheel “Conqueror.” [Southern Historical Publications No. 18.] By Norman D. Brown. Advocacy and Objectivity: A Crisis in the Professionalization of American Social Science, 1865–1905. By Mary O. Furner. The Dukes Of Durham, 1865–1929. By Robert F. Durden. Safeguarding the Public Health: Newark, 1895–1918. By Stuart Galishoff. The Public Image of Big Business in America, 1880–1940: A Quantitative Study in Social Change. By Louis Galambos, with the assistance of Barbara Barrow Spence. Mills and Markets: A History of the Pacific Coast Lumber Industry to 1900. By Thomas R. Cox. Americans and the California Dream, 1850–1915. By Kevin Starr. The Democratic Party and California Politics, 1880–1896. By R. Hal Williams. California und the Dust Bowl Migration. [Contributions in American History, Number 21.] By Walter J. Stein. Uncle Sam's Farmers: The New Deal Communities in the Lower Mississippi Valley. By Donald Holley. Dogma, Depression, and the New D</t>
+          <t>A qualitative analysis is made of a possible mechanism for the formation of an equilibrium plasma configuration in a current-free toroidal plasma in a conducting chamber in a toroidal magnetic field. In this case the role of the rotational transform is played by the plasma rotation about the minor azimuth in the crossed fields. Sufficiently strong electric fields are automatically produced by the charge separation caused by toroidal drift or the preferential loss of particles of one species. The macroscopic force balancing the uncancelled part of the gas kinetic pressure along the major radius is the force due to the interaction of the net plasma charge with the image charge at the inner wall of the conducting chamber. Estimates show that the fields required here are not excessively strong if the polarizability of a dense plasma is taken into account. This configuration is free of ''trapped'' particles and the related effects.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233704518</t>
+          <t>https://openalex.org/W323412454</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2523/5902-ms</t>
+          <t>https://doi.org/10.21236/ada050116</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Laird (1976)</t>
+          <t>Safford (1977)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Three Cone Rock Bit Design and Metallurgical Considerations </t>
+          <t>Impedance-Based Motion Prediction, Scaling, and Environmental Simulation for Shock Applications.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Three Cone Rock Bit Design and Metallurgical Considerations Jack B. Laird Jack B. Laird Hughes Tool Co. Search for other works by this author on: This Site Google Scholar Paper presented at the SPE Rocky Mountain Regional Meeting, Casper, Wyoming, May 1976. Paper Number: SPE-5902-MS https://doi.org/10.2118/5902-MS Published: May 11 1976 Cite View This Citation Add to Citation Manager Share Icon Share Twitter LinkedIn Get Permissions Search Site Citation Laird, Jack B. "Three Cone Rock Bit Design and Metallurgical Considerations." Paper presented at the SPE Rocky Mountain Regional Meeting, Casper, Wyoming, May 1976. doi: https://doi.org/10.2118/5902-MS Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll ProceedingsSociety of Petroleum Engineers (SPE)SPE Rocky Mountain Petroleum Technology Conference / Low Permeability Reservoirs Symposium Search Advanced Search American Institute of Mining, Metallurgical, and Petroleum Engineers, Inc.This paper was prepared for the Improved Oil Recovery Symposium of the Society of Petroleum Engineers of AIME, to be held in Tulsa, Okla., March 22–24, 1976. Permission to copy is restricted to an abstract of not more than 300 words. Illustrations may not be copied. The abstract should contain conspicuous acknowledgment of where and by whom the paper is presented. Publication elsewhere after publication in the JOURNAL OF PETROLEUM TECHNOLOGY or the SOCIETY OF PETROLEUM ENGINEERS JOURNAL is usually granted upon request to the Editor of the appropriate journal provided agreement to give proper credit is made.Discussion of this paper is invited. Three copies of any discussion should be sent to the Society of Petroleum Engineers office. Such discussion may be presented at the above meeting and with the paper, may be considered for publication in one of the two SPE magazines.AbstractIn rock bit design, the main limitation is one of space, since the tool has to go into a cylinder of the desired size. The designer has to rely on past history and experience. Little formal use is made of the fundamentals of machine design.A bearing pin angle is selected based on past experience and a general knowledge of the type of formation which is to be drilled. This angle determines the outside contour of all three cones and influences the sizes and dimensions of all cutter and bearing elements.Offset is introduced by offsetting the bearing pin in the direction of rotation. This is generally built into soft or medium formation bits. Offset causes a gouging and scraping action to be imparted to the cutter teeth, increasing the penetration rate.Tungsten carbide insert bits are made by employing many of the same techniques which are used to make steel tooth bits. The main difference is in the cutting elements. These consist of tungsten carbide inserts of various shapes pressed into holes which have been machined into the surface of the cones.Bearing arrangements are usually subject to severe space limitations. A series of compromises are made in order to obtain the best overall design. Many types are equipped with lubrication systems and seals which exclude the abrasive laden drilling fluid. Journal or friction type bearings may also be utilized. These afford a more uniform loading of the bearing pins. Special alloy materials are used in the bearings to help absorb radial and thrust loads.Metallurgical requirements dictate the use of alloy steels in the manufacture of cutters, heads and bearings. All parts must be carefully processed. Ball and roller bearings must be made to resist breakage. Cutters and head bearings must be made to have a hard, abrasive resistant case with a strong, tough core material to resist shock loading.Abrasive resistant hardfacing materials are employed on the gage surfaces of the cutters to maintain full gage hole. Hardfacing is also used on many designs on the inner rows of teeth to retard abrasive wear and to maintain good penetration rates.IntroductionThe design criteria of the three cone type bits have been under development since the introduction of the first "unit" bit design in 1933. Keywords: strength, steel, roller bearing, bearing pin, bit design, cutter, cone rock bit design, teeth, interfit, Upstream Oil &amp; Gas Subjects: Drill Bits, Bit design This content is only available via PDF. 1976. Society of Petroleum Engineers You can access this article if you purchase or spend a download.</t>
+          <t>Abstract : The ability to predict and simulate acceleration-time histories at the actual mounting locations of weapon system components will provide vital knowledge for protecting and hardening these components to meet present and changing mission requirements of naval ships and submarines. Mechanical impedance/mobility techniques, long a tool of the experimenter, have now evolved to practical methods under engineering conditions. This report summarizes current activities in the measurement of structural dynamic functions, usable methods for predicting response to environmental threats, and a new method for environment-simulation testing.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4256185402</t>
+          <t>https://openalex.org/W4243631603</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/509389.509392</t>
+          <t>https://doi.org/10.1017/cbo9780511621178</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Macri (1976)</t>
+          <t>Hollis (1977)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Deadlock detection and resolution in a CODASYL based data management system</t>
+          <t>Models of Man</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>In a multi-task computer system many different types of situations may occur in which productive computation may be brought to a standstill. One of these is deadlock or "deadly embrace". Some of the earliest investigation into this problem was undertaken by Dijkstra [1], Habermann [2] and Havender [3]. A detailed presentation of the deadlock problem and its ramifications may be found in [1, 2, 3, 4, 5].Because deadlock is so costly, modern computer system software is designed so that deadlock is either impossible [6, 7] or the probability of its occurrence is minimized at the system level. For example, the INGRES data base management system [7] accomplishes deadlock prevention without compromising data base integrity. Unfortunately, the CODASYL design [8] does not preclude the possibility of deadlock. It leaves the burden of minimizing the probability of its occurrence to the design of the application. There are two parts to the application design: the database design and the software design. Judicious design of both parts can sometimes minimize deadlock. However, deadlock cannot be prevented in all cases. Therefore, deadlock detection and resolution mechanisms are essential for operation in a multi-thread environment. Initially, the CODASYL based data management system employed (DMS 1100 [11]) had very simple deadlock detection and resolution mechanisms. The deadlock detection mechanism was based on the sufficient condition that deadlock exists when the number of transactions registered with the data management system equals the number of transactions locked out of resources. A least number of page alterations criterion was used by the deadlock resolution mechanism to resolve deadlock. That is, the transaction with the least number of altered pages was rolled back in an attempt to resolve deadlock. If this failed to resolve deadlock, the roll back selection process was repeated until deadlock was resolved. It was discovered that these mechanisms seriously degraded throughput on our system and a new approach was needed. This paper contains a description of the deadlock detection algorithm and the deadlock resolution algorithm which was implemented to overcome this defficiency. The former detects deadlock and the latter resolves deadlock in a manner consistent with maximum system throughput.In order to establish a common framework for discussion, the concepts of lock out and deadlock will be defined before proceeding.</t>
+          <t>All social theorists and philosophers who seek to explain human action have a 'model of man', a metaphysical view of human nature. Some make man a plastic creature of nature and nurture, some present him as the autonomous creator of his social world, some offer a compromise. Each view needs its own theory of scientific knowledge calling for philosophic appraisal and the compromise sets harder puzzles than either. Passive accounts of man, for example, have a robust notion of causal explanation but cannot either find or dispense with a self to apply them to. Active accounts rightly stress an autonomous self, but lack a proper concept of explanation. Martin Hollis takes these tensions and contrasts from the thought of sociologists, economists, and psychologists. He then develops a model of his own - one which seeks to connect personal and social identity through an ambitious theory of rational action and a priori knowledge, proposing a sense in which men can act freely and still be a subject for scientific explanation.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4290161480</t>
+          <t>https://openalex.org/W4245456933</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0076-5392(08)61836-6</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Perrine (1976)</t>
+          <t>NA (1977)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Alcohol and highway crashes. Closing the gap between epidemiology and experimentation.</t>
+          <t>Chapter 7 Conformally Invariant Problems</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>It is frequently observed that alcohol-impaired drivers involved in certain types of crashes apparently 'couldn't stop in time'. However accurate this observation, it is simply a description and is not an adequate explanation. Therein lies the basis for the gap between epidemiology and experimentation. If alcohol actually does degrade a motorist's performance and increase the probability of his being responsible for a fatal crash, then alcohol-induced changes in driving behavior should be manifest and should be measurable. However, no controlled study has previously been conducted to obtain systematic but unobtrusive data on the actual influences of alcohol upon real-world driving behavior in its natural environment. One recently completed field study is reported which was designed to provide such data by means of unobtrusive electronic measures of nocturnal driving performance. In the present paper, to illustrate one approach to closing the gap between epidemiology and experimentation, one combination variable was selected which lends itself readily to comparison across the full spectrum of alcohol investigation: reaction time and braking performance. A review of the literature concerning this interrelated variable examined alcohol influences upon reaction time as investigated in laboratory, simulator, and instrumented car experiments, as well as alcohol influences upon braking performance in instrumented car experiments and in our recent field study involving unobtrusive electronic measures. The reviewed experiments were interpreted in terms of a conceptualization of the information-processing sequence which leads up to brake use. On the basis of the reviewed results, it was concluded that alcohol increases reaction time (both simple and choice) appreciably more in driving situations than in laboratory experiments. It was also concluded that a consistent alcohol impairment of the qualitative aspects of braking performance is manifest in driving situations, for example, as reflected by changes in brake-pressure modulation. More specifically, the braking performance of motorists and subjects at high BACs is abrupt, unsmooth, and less controlled than that of sober motorists or the same subjects with no alcohol. It was concluded that at least in terms of quality, alcohol impairs response implementation of the final stage of the information-processing sequence. It was hypothesized that the abrupt, lower quality braking performance observed at high BACs results--at least in part--from less time remaining available for stopping because the information-processing time has been increased by alcohol at some previous stage--apparently the response-selection stage. At the most general level, it was suggested that high BACs both increase the time necessary to begin applying the brakes, as well as reduce the degree of control in the actual use of the brakes during the course of stopping. These two factors in combination probably account for a large part of the alcohol contribution to highway crashes.</t>
+          <t>Publisher SummaryThis chapter discusses the conformally invariant problems. Conformal transformations have enjoyed considerable attention in problems of mathematics for a long time, especially in theoretical and practical applications to the Dirichlet problem. It is shown that a unique point transformation results from a given coordinate transformation and, therefore, these two notions are equivalent. Every real conformal point transformation in an n-dimensional Euclidean space, with a positive definite metric gap, can be composed of a motion and an inversion or a motion and adilation. The consequence of imposing conformal invariance upon a multiple integral variation problem over a region in four-dimensional space-time, whose Lagrangian depends upon a scalar function and its first derivatives, are discussed in the chapter. It is suggested that, using the fundamental invariance identities, it is possible to go a long way toward characterizing such Lagrangians. It is emphasized that the conformal identities are not the conservation laws, but rather invariance identities that are necessary conditions for the fundamental integral to be invariant under the special conformal transformations.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383343553</t>
+          <t>https://openalex.org/W4247997598</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tech.1976.a891750</t>
+          <t>https://doi.org/10.1001/jama.237.23.2471</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Hughes (1976)</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>The Development Phase of Technological Change</t>
+          <t>NA (1977)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>The Development Phase of Technological Change INTRODUCTION THOMAS P. HUGHES Because the history of technology is a recently cultivated field of scholarly activity, not many of its critical research problems have been identified. As research and reflection continue, however, problems will emerge and in some cases will be identified as critical ones worthy of the attention of a number of scholars over a considerable period of time. In the history of science, a comparable field firmly established earlier, scholars long ago focused upon the nature of the scientific method as a critical problem. As a result, probing and enlightening monographs and books have been published about the subject. It seems likely that the nature of technological change, a subject for study comparable to that of the scientific method, will be identified as a critical problem for the history of technology. Technological change will probably prove to be more complex and difficult to define than the scientific method. For this reason, in order to study it, it may prove advisable to break it down into subcategories. One set of categories already widely used in discussing this process includes in­ vention, research, development, and innovation. Nevertheless, definitions of these still complex and difficult subcategories are numerous and differ considerably. Among these phases of technological change, development has re­ ceived the least attention. Many popular books have been written about invention, because it is an activity that appeals to the imagina­ tion. Economic historians have cultivated the study of innovation, for they associate innovation with the bringing of new machines, devices, and processes on to the market. Development, in contradistinction, has been neglected as a research problem, probably because it lacks Dr. Hughes, of the University of Pennsylvania, is the author ofElmer Sperry: Inventor and Engineer, which was awarded the Dexter Prize of the Society for the History of Technology in 1972. Most recently he has edited a volume on Changing Attitudes toward American Technology. He organized the program at the 1972 SHOT meeting at which the following papers were presented and edited them for publication. 423 424 Thomas P. Hughes the presumed excitement of invention and seems to lack the general social and economic significance of innovation. Yet those of us in the history of technology who have studied the process of technological change have found that those populating the world of technology—inventors, engineers, appliers of science, and entrepreneurs—give much of their time and resources to an activity that they label development, even though they do not clearly define it. Therefore I asked historians of technology Lynwood Bryant, Richard Hewlett, Thomas Smith, and Charles Siisskind, who like me had found development a central subject and conceptual problem in their studies, to participate in a program session that would raise and probe questions about the development phase of the process of technologi­ cal change and perhaps help the discipline decide if development is in fact a critical problem deserving further research. The following three papers and commentary were presented at the annual meeting of the Society for the History of Technology held in Washington, D.C., in December 1972. Since then the papers have been revised for publication in this issue of Technology and Culture. * * * Elmer Ambrose Sperry (1860-1930), a professional inventor who greatly admired Thomas Edison, contradicted that eminent Ameri­ can on at least one point: invention, Sperry asserted, is not 99 percent sweat and 1 percent genius; it is 110 percent sweat. Sperry was not a great mathematician, but he was wise in the ways of invention, and his statement adds up well. He perceived invention as an instant of genius followed by months of persistent work, sometimes culminating in a new device or process. The months of sweat are not often written about or even understood well; focus has been placed upon the more dramatic manifestations of genius. The brilliant flashes, the “Eureka” moments, and the sharp insights of invention are legion. Histories of invention, ranging from the intel­ ligent literary essays of Samuel Smiles to more recent surveys of economic and technological history, seldom fail to recount moments like those on Glasgow Green when James Watt conceived of the sepa­ rate condenser or when Alexander Graham...</t>
+          <t>&lt;h3&gt;To the Editor.—&lt;/h3&gt; Healing of osseous metastases is usually described as a recalcification process and is best seen in osteolytic lesions.&lt;sup&gt;1&lt;/sup&gt;Osteoblastic lesions are more difficult to evaluate. Eighty percent of the skeletal metastases in prostatic carcinoma are purely osteoblastic in nature&lt;sup&gt;2&lt;/sup&gt;; thus, the evaluation of improvement is difficult. Endocrine therapy may bring about a dramatic clinical improvement associated with return of acid and alkaline phosphatase values to normal, but the roentgenographic appearance of the blastic lesions rarely changes. In an early report, Huggins and co-workers&lt;sup&gt;3&lt;/sup&gt;claimed that all patients with prostatic carcinoma who underwent orchiectomy had increased osteosclerosis of the skeletal metastases. Others&lt;sup&gt;2&lt;/sup&gt;have reported an occasional shrinkage of osteoblastic lesions, but complete disappearance of osteoblastic metastases has never, to our knowledge, been previously reported. Two patients treated with estramustine phosphate (Estracyt) who were observed for more than three years exhibited a gradual complete disappearance</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://openalex.org/W566608953</t>
+          <t>https://openalex.org/W4250647164</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3133/pp655l</t>
+          <t>https://doi.org/10.1111/j.1467-8306.1977.tb01126.x</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Hanson &amp; Dawdy (1976)</t>
+          <t>NA (1977)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Accuracy of evapotranspiration rates determined by the water-budget method, Gila River flood plain, southeastern Arizona</t>
+          <t>BOOK REVIEWS</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Evapotranspiration by phreatophytes (primarily saltcedar) was determined by the water-budget method for 5,500 acres (2,230 ha) of the Gila River flood plain in southeastern Arizona. The water budget consists of 12 components including surface and subsurface flow through the study area, precipitation on the area, and soil-moisture changes in the unsaturated soil profile. Nine years (1963-71) of hydrologic data were collected on four reaches within the area. These data provided over 400 measurements of evapotranspiration for twoor three-week periods. Midway through the study the vegetation was removed from the flood plain. The evapotranspiration measurements are therefore defined for both natural vegetative cover and essentially bare-ground conditions. This report shows how each component of the water budget was evaluated, demonstrates the significance of each component in relation to the total evapotranspiration, and describes the methods used to evaluate the relative accuracy of each component. The two most significant components of the water budget are, generally, the Gila River inflow and outflow. One of the least significant is tributary inflow, which occurred only 4 percent of the time during the 9-year study. Soil-moisture change is highly significant during periods of low streamflow and is one of the more difficult components to measure. The ground-water flow components are the least variable in the water budget, fluctuating only in response to seasonal changes in the downvalley ground-water slope. The total measurement error of each component consists primarily of a sampling error which is dependent on the number of observation points used to measure the component. This error is time variant, reflecting both the variability in repetitive measurements and the error due to missing data. Included in the total measurement error is a bias error which gives a constant overestimate or underestimate of the component. Only the ground-water flow components introduce a measurable bias error, but the direction of this error is unknown and its magnitude in relation to evapotranspiration is relatively insignificant. The total measurement error in evapotranspiration is not related to the magnitude of evapotranspiration but rather to the total volume of water moving through the area. Thus, the minimum errors occur during the midsummer months of maximum evapotranspiration when streamflow is low and precipitation is negligible. Evapotranspiration rates computed for reach 1 indicate that phreatophyte clearing reduced summer rates by nearly 45 percent. The average computed measurement errors in summer evapotranspiration rates, before and after clearing, are ±59 percent and ±113 percent, respectively, and the average measurement error in the change in summer evapotranspiration as a result of clearing is nea^y ±200 percent. These large computed measurement errors are shown to overestimate substantially the true measurement variable in evapotranspiration. The computed errors do give, however, a good indication of the relative significance of each evapotranspiration value and provide a means of selecting those values which should be used in computing average evapotranspiration rates. Furthermore, the results of this error analysis show that reliable estimates of summer evapotranspiration can be determined and that a significant difference in summer evapotranspiration could be detected as a result of clearing phreatophytes from the flood plain.</t>
+          <t>Abstract Book Reviewed in this article: The Experience of Landscape. Jay Appleton. Glacial Geomorphology. Cliflord Embleton and Cuchlaine A. M. King. Cultural Regions of the United States. Raymond D. Gastil. An Introduction to Scientific Reasoning in Geography. Douglas Amedeo and Reginald G. Golledge. Western River Transportation: The Era of Early Internal Development, 1810–1860. Erik F. Haites, James Mak, and Gary M. Walton. Imperial Russia in Frontier America. The Changing Geography of Supply of Russian America, 1784–1867. James R. Gibson. Patterns of Urban Growth in the Russian Empire During the Nineteenth Century. Thomas Stanley Fedor. A History of the Cartography of Russia up to 1600. Leo Bagrow, edited by Henry W. Castner. A History of Russian Cartography up to 1800. Leo Bagrow, edited by Henry W. Castner. The Yukpa Cultivation System. A Study of Shifting Cultivation in Colombia and Venezuela. Kenneth Ruddle. Cities of Canada. Volume 1: Theoretical, Historical and Planning Perspectives. George A. Nader. Cities of Canada. Volume 2: Profiles of Fifteen Metropolitan Centres. George A. Nader. Metropolitan Impacts on Rural America. Richard Lamb. Arctic and Alpine Environments. Jack D. Ives and Roger G. Barry (Eds.). Land and People; A Cultural Geography of Preindustrial New Jersey: Origins and Settlement Patterns. Peter O. Wacker. Coastal Resource Use: Decisions on Puget Sound. Robert L. Bish, Robert Warren, Louis F. Weschler, James A. Crutchfield and Peter Harrison. Urban Vegetation: A Review and Chicago Case Study. James A. Schmid. The New Urban History. Quantitative Explorations by American Historians. Leo F. Schnore (Ed.).</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://openalex.org/W615820749</t>
+          <t>https://openalex.org/W4254850530</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/sec.1977.0000</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Fernandez-Renau (1976)</t>
+          <t>Rosbottom (1977)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>DEEP FOUNDATIONS IN OPEN EXCAVATIONS</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>THIS GENERAL REPORT COVERS THE BROAD AREA OF BOTTOM HEAVE IN DEEP EXCAVATIONS, STABILITY CALCULATIONS FOR THE BOTTOM OF DEEP EXCAVATIONS, CHOICE OF SOIL PARAMETERS, PLASTICITY OF LOCALIZED REGIONS OF EXCAVATION BOTTOMS, AND PREVENTION OF HEAVE BY DE-WATERING TECHNIQUES. AN ATTEMPT IS MADE TO EVALUATE THE CHANGES IN THE STATE OF STRESS, AND FURTHER DETAILED ACCOUNTS ARE GIVEN OF: USE OF FINITE-ELEMENT METHODS TO DETERMINE PERMISSIBLE EXCAVATION DEPTHS IN CLAY; MEASUREMENTS OF HEAVE IN OVER-CONSOLIDATED CLAY AND USE OF LIGHTLY REINFORCED TENSION PILES TO RESIST HEAVE; INSTRUMENTATION, MEASUREMENT, HEAVE AND CONSTRUCTION PROCEDURES FOR A SUSPENSION BRIDGE ANCHORAGE TO RESIST 380 MN HORIZONTAL FORCE; CONSTRUCTIONAL AND MONITORING PROCEDURES FOR A LARGE DEEP EXCAVATION IN MUNICH; PROBLEMS IN THE CALCULATION AND MEASUREMENT OF HEAVE; FOUNDATIONS FOR THE DANUBE POWER STATION AT SCHLIER; PROBLEMS IN THE DERIVATION OF SOIL PARAMETERS FOR THE MATHEMATICAL ANALYSIS OF THE STABILITY OF EXCAVATIONS; INFLUENCE OF THE EXCAVATION ON THE STRENGTH OF THE ADJOINING GROUND; INTERPLAY BETWEEN THE GROUND AND THE STRUCTURE IN THE CONSTRUCTION OF A COMPLEX TUNNEL LAYOUT BY CUT-AND-COVER IN SANDS AND CLAY; A REMEDIAL SCHEME FOR THE LEANING TOWER OF PISA; EARTH PRESSURE STRESSES ON CAISSON COMPARED WITH MODEL TEST RESULTS, AND THEIR EVALUATION BY MATHEMATICAL MODELLING. THE COVERING ABSTRACT FOR THE CONFERENCE IS IRRD NO 306088.</t>
+          <t>Preface Discovering an a posteriori order in a varied collection of essays is an artificial enterprise. Yet, such artificiality fascinated the thinkers and writers of the eighteenth century in Europe. The readers of this volume will take, I trust, subtle esthetic pleasure in the realization that, through no fault of the editor, these essays as a group treat, with varying emphasis, one of the universal prob­ lems that confronted the writers of the Enlightenment. In fact, had a title been required for this collection, I would have provided something like “Seeing is Believing: Essays on Cultural Perception in the Eighteenth Century.” For the majority of the essays in volume six of Studies in Eighteenth-Century Culture treat percep­ tual activities as specific as reading or as general as recognizing the presence of an Other: the self, another, or other societies. The analysis of the act of perception and how it leads to cognition and how the resultant knowledge is turned into action does provide the artificial order referred to above. This is a strongly literary volume, with a good number of essays on the verbal arts (though one, that of Professor Carroll, deals effectively with how one French composer “perceived” Horace and brought him into the musical context of the eight­ eenth century). Among the dominant figures in this collection are Johnson, Lessing, Rousseau, Franklin, Prevost, Swift, and Wollstonecraft . However, such a bias is to be expected, since literature was, more than any other artifact, at the interface of the self and ix X / Preface society. It dealt then, even more than now, in a consistently efficacious and insinuating way, with perception and the processes of cognition. In one of the most influential essays written in the eighteenth century, we read, The fact of our existence is the first thing taught us by our sensations and, indeed, is inseparable from them. From this it follows that our first reflective ideas must be concerned with ourselves, that is to say, must concern that thinking principle which constitutes our nature and which is in no way distinct from ourselves. The second thing taught us by our sensations is the existence of external objects, among which we must include our own bodies, since they are, so to speak, external to us even before we have defined the nature of the thinking principle within us. This passage, written and published at mid-century, comes from D’Alembert’s “Preliminary Discourse” to the Encyclopedie. It is the formalization of two of the most significant ethical and esthetic preoccupations of the eighteenth century, namely, how civilized man perceives others, himself, and his cultures, and how he defines the relationships among these activities. There are several essays in this volume which examine in depth such concerns as cultural definition and perception. Pierre Aubery’s essay subtly delineates the complex way in which the French saw the English in America, as well as how the European French perceived the American French. He shows how stereo­ typical images became concretized and discusses the political significance of their maintenance. There are also several papers (forming one of the ISECS workshops) which deal effectively with the perception of women and of woman’s “place” in the context of eighteenth-century society. Besides Professor Myers’ somewhat revisionist view ofMary Wollstonecraft, Professors Cynthia Matlack, Irene Dash, and Roseann Runte all discuss the relationship between cultural values and esthetic considerations in terms of the de­ piction of women in literature and on the stage. Dash’s paper especially shows to what lengths writers went to define and Preface I xi propagate a feminine image consonant with the dominant per­ ception of the social function of woman. Specifically, she dis­ cusses how Shakespeare’s A Winter’s Tale was bowdlerized so that “the weaker sex” syndrome could be emphasized. Christine Sjogren’s essay analyzes the role that Lessing played in the defense of feminism. English Showalter’s study of the novelist Madame de Graffigny reveals the precarious social and financial status of female artists in eighteenth-century France. And Kay Wilkins details how the French image of womanhood changed over several decades (from the 1720s to the 1780s) as seen in the pages of two...</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://openalex.org/W630371757</t>
+          <t>https://openalex.org/W4256246586</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevb.15.214</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Gilbert (1976)</t>
+          <t>Miller et al. (1977)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>CASE HISTORIES OF LIQUEFACTION FAILURES</t>
+          <t>Zero-temperature properties of matter and the quantum theorem of corresponding states. II. The liquid-to-gas phase transition for Fermi and Bose systems</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Liuqefaction of loose, saturated, cohesionless soils is a phenomenon in which the soil mass suddenly loses shear strength, behaves as a fluid, and acquires a degree of mobility sufficient to permit large movements. This report reviews various case histories to determine common characteristics associated with liquefaction failures. A review of case histories reveals that liquefaction failures are dependent upon (a) a collapsible soil structure, (b) a saturated and undrained condition, and (c) a triggering mechanism. Typically collapsible soils which liquefied were fine, uniform, loose sand deposits with D sub 10 sizes ranging from 0.05 to 1.0 mm and a coefficient of uniformity ranging from 2 to 10. Saturated-undrained conditions provided a situation conducive to high pore pressure development upon collapse of the soil structure. Generally, water was the pore fluid; however, several unusual cases were reported with air as the pore fluid (termed fluidization). A variety of triggering mechanisms, including monotonically changing stresses, earthquakes, explosive blasts, and cyclic vibrations, were found to cause luquefaction failures. However, monotonically increasing shear stresses and earthquakes are the most common triggering mechanism. Density is the most important property controlling the susceptibility of saturated- undrained sands to liquefaction. It was found that sands which liquefy when subjected to earthquake shakings do not become significantly more stable against reliquefaction. Conversely, vibrations appear to alter the sand structure, making a deposit less susceptible to liquefaction than indicated by density increases.</t>
+          <t>The zero-temperature properties of matter with an interaction pair potential of the Lennard-Jones form are studied further within the context of the quantum theorem of corresponding states. In particular, the phase transition between the liquid and gaseous phases is studied for systems obeying either Bose-Einstein or Fermi-Dirac statistics. In contrast to well-known systems, the nature of this transition in these quantum systems depends on the statistics in a fundamental way. We find that it is illuminating to extend the usual thermodynamic variable space to include the corresponding-states quantum parameter $\ensuremath{\eta}=\frac{{\ensuremath{\hbar}}^{2}}{m\ensuremath{\epsilon}{\ensuremath{\sigma}}^{2}}$. It is shown that the phase transitions occur at zero temperature as $\ensuremath{\eta}$ is varied. For Bose systems it is found that a second-order liquid-to-gas transition occurs at a value of $\ensuremath{\eta}=0.456$. Thus, for Bose systems there is no coexistence region. In sharp contrast, for Fermi systems, there is a range of values of $\ensuremath{\eta}$ for which the liquid and gaseous phases can coexist. This coexistence region exists in the range $0.29\ensuremath{\le}\ensuremath{\eta}\ensuremath{\le}0.33$. The essential features of the behavior of both Bose and Fermi systems can be understood in terms of simple models. Detailed numerical results are presented for both cases.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://openalex.org/W761901171</t>
+          <t>https://openalex.org/W48454945</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/9789004266551_005</t>
+          <t>https://doi.org/10.1016/s0044-4057(77)80084-1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Birdsall (1976)</t>
+          <t>Hirte (1977)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Rational Eclecticism and the Oldest Manuscripts: A Comparative Study of the Bodmer and Chester Beatty Papyri of the Gospel of Luke</t>
+          <t>Zur Lebensfähigkeit und Überlebensfähigkeit allochthoner und autochthoner Bakterien im Boden nach einer Superinfektion</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>George Kilpatrick has been in the present generation the reviver of rational eclecticism in the textual study of the New Testament, although he acknowledges C. H. Turner as a forerunner through his studies of Marcan style. Kilpatrick has applied his knowledge and acumen to the text without reference to the codicological history of the witnesses to any reading chosen or rejected by him, while always having in view as the ultimate object the restoration of the original text. Kilpatrick has suggested that while frequent use of pronouns was a feature of Hellenistic Greek, the tendency was to remove them under the influence of the more succinct norm of classical Greek. This chapter analyzes the writings of Kilpatrick under the following topics: orthography, changes of case, gender and number, presence of the article, and changes in the verb and pronouns. Keywords: codicological history; George Kilpatrick; Hellenistic Greek; Marcan style; New Testament; Orthography ; rational eclecticism</t>
+          <t>1. The behaviour of hygienic suspect allochthonic bacteria has been studied on the example of E. coli and coliform bacteria, respectively, in modeltests in the soil. The purpose of this work was to find out the dependence of the viability and the rate of dying, respectively, from different factors. This is important in relation to a longtime contamination of the soil and the danger of environmental pollution by infiltration into the groundwater. 2. The behaviour of the allochthonic microorganisms has been studied in relation to the autochthonic soil-microorganisms. After superinfection of the soil the numbers in both bacteria groups decrease. The autochthonic bacteria were only diminished to a distinct number in conformity with their natural presence in the soil. This corresponds to the ecophysiological life possibilities of the respective autochthonic species in the soil. In contrast to that the allochthonic microorganisms are completely eliminated out of the soil population after a certain time. 3. The investigations for viability and surviability of the allochthonic microorganisms have been studied on the example of colibacteria. It was demonstrated that these organisms are only viable a distinct time in the soil and that their tenacity is the resultant between a certain promotion in the soil and the sum of negative factors of interaction. 4. The dying rate of E. coli mainly depends on the biological activity of the soil, that means of the concurrence effect of the autochthonic microorganisms. Nearly all the factors which promote this effect decrease the chance of viability of E. coli. This could be clearly observed by the influencing factors temperature and pH. 5. Therefore it is not right to take the tenacity of coliform bacteria etc. as absolute amount and to deduce from that hygienic and technological arrangements for the sewage and liquid manure disposal because the survival time is determined by complex acting factors in relation to the starting number of microorganisms by infecting the soil. 6. The most important factors are: quantity and quality of organic substances, soil temperature, soil type, and as a complex factor the biological activity. 7. In winter the survival time of coliform bacteria and other allochthonic organisms is the resultant of two factors: 1. the “conserving action” of lower temperatures and 2. the killing of a considerable part of microorganisms by freezing and rethawing of soil frost. 8. Altogether the investigations demonstrate that by a higher and longer treatment with sewage and liquid manure, this means with greater quantities of organic materials, there is no principle change of the soil environment. The soil environment is also in such cases not sufficient suitable for the promotion of allochthonic microorganisms, the soil is sufficient biologically buffered and maintains its purification power even by a longer and higher treatment with epidemic hygienic suspect material (sewage, liquid manure etc.). 1. Das Verhalten seuchenhygienisch bedenklicher, allochthoner Bakterien wurde am Beispiel von E. coli bzw. coliformer Bakterien im Boden in Modellversuchen studiert. Zielstellung war dabei, die Abhängigkeit der Lebensfähigkeit bzw. der Absterberate von verschiedenen Faktoren zu ermitteln, vor allem im Hinblick auf Langzeitverseuchung des Bodens und der Gefahr einer Umweltverschmutzung durch Einwaschung in das Grundwasser. 2. Das Verhalten der allochthonen Mikroorganismen wurde im Verhältnis zu authochthonen Bodenmikroorganismen studiert. Nach Superinfektion des Bodens sinken die Zahlen beider Bakteriengruppen ab. Während die autochthonen Bakterien aber nur bis zu einer bestimmten Keimzahlhöhe abnehmen, die ihrem natürlichen Vorkommen im Boden entspricht und somit der ökophysiologischen Lebensmöglichkeit der jeweiligen Mikroorganismenart im Boden zuzuschreiben ist, werden die allochthonen Mikroorganismen nach einer gewissen Zeit vollkommen aus der Bodenpopulation eliminiert. 3. Die Untersuchungen zur Lebens- und Überlebensfähigkeit der allochthonen Mikroorganismen am Beispiel von Colibakterien haben gezeigt, daß sich diese Organismen nur eine begrenzte Zeit im Boden halten können und ihre Tenazität die Resultante zwischen einer gewissen Vermehrungsfähigkeit im Boden und der Summe negativer Beeinflussungsfaktoren darstellt. 4. Die Absterberate von E. coli ist vor allem von der biologischen Aktivität des Bodens abhängig, d. h. von der Konkurrenzwirkung der bodeneigenen Mikroorganismen. Fast alle Faktoren, die diese fördern, vermindern die Überlebenschance von E. coli. Dies konnte deutlich an den Beeinflussungsfaktoren Temperatur und pH-Wert festgestellt werden. 5. Die Tenazität als absolute Größe festzulegen und daraus hygienische und technologische Maßnahmen der Abwasser- und Gülleverwertung abzuleiten, ist somit falsch, da die Überlebenszeit durch die komplex wirkenden Faktoren in Zusammenhang mit der Startmenge der bei einer Bodenbehandlung eingebrachten Mikroorganismen b</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://openalex.org/W773461011</t>
+          <t>https://openalex.org/W53998696</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/3574733</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Kourtides et al. (1976)</t>
+          <t>Baquey et al. (1977)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Thermoplastic polymers for improved fire safety</t>
+          <t>ESR Study of γ-Irradiated Sodium Heparinate</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>The thermochemical and flammability characteristics of some typical thermoplastic materials currently in use and others being considered for use in aircraft interiors are described. The properties studied included (1) thermomechanical properties such as glass transition and melt temperature, (2) changes in polymer enthalpy by differential scanning calorimetry, (3) thermogravimetric analysis in anaerobic and oxidative environments, (4) oxygen index, (5) smoke evolution, (6) relative toxicity of the volatile products of pyrolysis, and (7) selected physical properties. The generic polymers that were evaluated included: acrylonitrile butadiene styrene, bisphenol A polycarbonate, 9,9 bis (4-hydroxyphenyl) fluorene polycarbonatepoly (dimethyl siloxane) block polymer, phenolphthalein bisphenol A polycarbonate, phenolphthalein polycarbonate, polyether sulfone, polyphenylene oxide, polyphenylene sulfide, polyaryl sulfone, chlorinated polyvinyl chloride homopolymer, polyvinyl fluoride, and polyvinylidene fluoride. Processing parameters, including molding characteristics of some of the advanced polymers, are described. Test results and relative ranking of some of the flammability, smoke, and toxicity properties are presented.</t>
+          <t>The present paper deals with the nature and reactivity of paramagnetic species created during γ irradiation of sodium heparinate. Evidence for the presence of the $\dot{{\rm S}}{\rm O}{}_{3}{}^{-}$ radical ion is given. The change in paramagnetism when irradiated samples are kept either under vacuum or in the presence of air has been studied; in both cases, the overall decrease seems to obey a first order kinetic law. We also have studied the reactivity of these paramagnetic species towards vinyl monomer vapors, so as to test the ability of heparin to be radiation grafted. Among the monomers tried, acrylic acid is the most efficient in decreasing the paramagnetism of irradiated samples and it is demonstrated that the $\dot{{\rm S}}{\rm O}{}_{3}{}^{-}$ radical ion is not responsible for this phenomenon.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1481151702</t>
+          <t>https://openalex.org/W807001644</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Gates (1982)</t>
+          <t>Trimble (1977)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Modeling the Telephone Traffic for a National Forest</t>
+          <t>COSMOLOGY - MANS PLACE IN UNIVERSE</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>The Forest Service is in the process of updating its telecommunication and information systems. Included in this update are proposed changes to the telephone systems of selected National Forests with an eye toward telephone cost reductions over current system architectures and modes of operation. This document defines a Forest teletraffic model derived from correlations between teletraffic statistics and real-world experiences. The model is developed through nine Forest Service teletraffic observations. An example of its application is made to the Boise National Forest. Effective teletraffic and switch engineering must be based on the communication manager's common sense appraisal of the model results and his or her own forest teletraffic statistics.</t>
+          <t>Virginia Trimble What I want to try to do in the next few pages is to review the history of the Universe from the earliest times for which we have any evidence down to the present day, with special em- phasis on how conditions favorable for life seem to have arisen, and then to explore the extent to which this history is dependent upon the Uni- verse having roughly the properties it does, and finally to inquire into the implications of varying those prop- erties. A Cook’s tour of the universe and its early history Let’s start by taking a look (Table 1) at the scales of the things we will be discussing. Notice that the human scales in each case are close to the geometric means of the astronomical and atomic scales. Thus, we should not be surprised to find that our presence here is dependent both on Virginia Trimble is grateful to the Aspen Center for Physics, where much of this was written, for hospitality, and to the Alfred P. Sloan Foundation for a Research Fellowship (1972-74). The author&amp;#39;s thoughts on the Universe and its contents have inevitably been influenced by more people than can conve- niently be mentioned, but those from whom she first heard some of the ideas discussed here, and whom she would therefore like to thank especially, include Dave Arnett, Wil- liam A. Fowler, Jim Gunn, Philip Morrison, Paula Moddel, Bohdan Paczyriski, Martin Rees, Bill Saslaw, Starling Trimble, and (last only in this deliberately alphabetical list) Joe Weber. Address: Department of Physics, University of California, Irvine CA 92717 (January to June); Astronomy Program, University of Maryland, College Park MD 20742 (July to December). 76 American Scientist, Volume 65 Cosmology: Man’s Place in the Universe In which we review the history of the Universe and explore the relationships between its properties and the presence of life the large-scale phenomena of as- tronomy and on the details of atomic physics. The largest phenomenon of all is, of course, the Universe itself. It is im- portant to be sure we agree about what we mean by “the Universe” and the various other terms we will be using. The earth and eight other planets, about 34 moons, and a vari- ety of smaller objects are in gravita- tionally bound orbits around a star called the sun. We refer to this grouping as the Solar System. It has a total mass of about 2 X 1033 grams (virtually all in the sun, though most of the angular momentum is in the planets), a diameter of about 2 X 1015 cm, and an age of about 5 X 109 yr. The sun is a perfectly typical star, having a mass of 2 X 1033 g (the solar mass, abbreviated Me, is often used as a unit for other stars), an electro- magnetic radiation energy output of 4 X 1033 ergs/sec (one solar luminos- ity, Le), a spectrum approximately that of a 5700 K black body, a radius of 7 X 10q’ cm (1 R9), and a compo- sition by weight (at least in its outer, visible layers) about 73% hydrogen, 25% helium, and 2% everything else (about half of it carbon and oxy- gen). The sun, in turn, is one of about 2 X 10“ stars that are gravitationally bound in a rotating, roughly spherical system (although the most conspic- uous members are concentrated in a plane considerably flatter than the proverbial pancake) called the Milky Way Galaxy (or just the Galaxy). It has a mass of at least 3 X 1044 g (but see Ostriker et al. 1974 for evidence that it may be ten times more massive than this) and a diameter of about 1023 cm. It is at least 10q’ yr old. The Milky Way, in turn, is bound in a small cluster of about 30 galaxies (all but one much less massive than ours) called the Local Group. It is not certain whether higher-order struc- tures are gravitationally bound, but there does seem to be some clustering of the clusters (Hauser and Peebles 1973). The clusters range from small ones like the Local Group up to much richer ones containing thousands of galaxies and having masses of 10‘5 M9. Completely isolated galaxies are probably rare (Tifft and Gregory 1976). The properties of the medium between the galaxies (except within the rich clusters, where a hot intra- cluster gas is often a strong source of X rays; Kellogg et al. 1973) are very poorly known. The average density could be anywhere from 0 to 1O‘5 particles cm‘3, the intergalactic me- dium comprising anywhere from 0 to 90% of the total average density over large regions of space. If the density is high, the matter must also be rather hot (~1O6 K) or exceedingly clumpy to prevent detection. A preponder- ance of the evidence (as summarized, e.g., by Gott et al. 1974) now seems to favor an intergalactic density at the low end of the possible range. The clusters of galaxies (or perhaps the superclusters) appear to be dis- tributed at random through space, with separations such that they con- tribute an average density of at most 10‘31 g cm‘3 (Ostriker et al. 1974). There is no detectable falloff of the density of clusters of galaxies out to the largest distances at which they can be seen with pre</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1486403351</t>
+          <t>https://openalex.org/W840575592</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Strauch (1982)</t>
+          <t>Brooke (1977)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Battle Simulation for Command and Control Training</t>
+          <t>The breeding biology of the Manx shearwater</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Abstract : In response to a need for better capabilities for the training of battle staff personnel and the evaluation and analysis of command and control systems and capabilities, the Air Force is exploring the development of a Tactical Force Management Training and Analysis Facility (TFMTAF). Such a facility would use computer support to provide a realistic, simulated combat environment that would respond to the actions of command and control personnel and systems in much the same way that a real combat environment might, allowing free play to a degree not currently possible in manual exercises. This paper suggests a need for a hybrid form of combat simulation in which the computer is used to complement and support the breadth and depth of understanding human controllers bring to their task. Computerized models tend to emphasize the regularities of combat and play down the idiosyncrasies and variabilities to which good combat decisionmaking must be sensitive. Computer models depict combat from a single perspective, usually as mechanical contest between opposing forces; competent human decisionmakers must maintain multiple perspectives on the same combat process and be able to switch back and forth between them in response to changing circumstances. A hybrid simulator might overcome these limitations. It could be designed to take better advantage of the human-computer combination of capabilities than does any approach relying too much on either one alone.</t>
+          <t>﻿ Chapter 1 is purely introductory and gives a brief account of the taxonomic status of the subject of this thesis, the Manx Shearwater Puffinus puffinus . The main study area, Skokholm Island, Pembrokeshire is described and a general account of what is already known of the breeding biology of the Manx Shearwater is provided as a background to the more detailed studies described in the present work which was continued over five breeding seasons, 1973-1977. In Chapter 2 I demonstrate that male and female Manx Shearwaters differed in the length of their bills and tarsi but not in wing length. However most of the chapter is concerned with the weights and measurements of shearwaters, most of which were of known age but unknown sex, caught at the colony by night. In 1973 and 1974 the weight of all age groups was highest in March and then declined to a minimum in June and July. Weight increased slightly in August. It was generally true that the older a bird was, the heavier it was in any particular month, and this effect appeared to hold good until the birds were 8-10 years old. Unlike weight, bill and wing length did not alter with age. The implications of these results are discussed in the light of current hypotheses concerning the delayed onset of breeding shown by many seabirds including the Manx Shearwater. In the pre-laying period, covered by Chapter 3, both male and female Manx Shearwaters lost weight up until about two weeks before laying. Males lost weight more rapidly than females and this was related to the fact that males visited the burrow more regularly. In the two weeks prior to laying the male continued regularly to visit the burrow at night but the female was virtually absent from the colony; it appears that she may travel into the Bay of Biscay to feed during this period of absence. In the pre-laying period the weight of breeding birds was not different from the weight of birds which have bred formerly but which were not known to be breeding during the current season. However, breeding birds tended to be heavier than birds which started to breed in a future year. To test the possibility that young birds may be prevented from breeding by a shortage of burrows artificial burrows were dug, and some were occupied by young birds, probably breeding for the first time. A burrow-blocking experiment was also carried out. The possibility that competition for burrows was greater in an area of higher as opposed to lower burrow density was investigated by comparing the pre-laying attendance pattern of breeders in the two areas. No difference was found. Chapter 4 shows that the breeding success of newly-formed pairs was lower than that of established pairs, mostly because newly-formed pairs were less successful at incubation. The lower success of new pairs was not due to the new pairing per se but to the fact that such new pairs tended to include birds without previous breeding experience. Thus experienced birds may avoid the disadvantageous consequences (to breeding success) of forming a new pair if they mate with another experienced bird, and this they did. Divorce and change of breeding burrow were both more likely after a breeding failure than a success. Both the laying date and egg volume of individual female Manx Shearwaters varied little from year to year, once the first few years of breeding were passed. I am unable to reconcile this finding with Perrins' (1970) suggestion that the laying date of the female Manx Shearwater is determined by the difficulties she may encounter early in the season in building up sufficient food reserves to form the egg. Instead I propose that, although early laying would be advantageous from the point of view of chick survival (Perrins 1966), the shearwaters do not lay earlier because of the difficulties that would be encountered in successfully incubating an early egg. Evidence supporting this idea is presented. In each of the four study years the fledging weight of chicks declined as the season progressed, as described in Chapter 5. Various lines of evidence, including an egg-swapping experiment, support the view that this decline was mostly due to a deterioration of feeding conditions late in the season, rather than to a tendency for parents less proficient at rearing heavy young to breed later. It seems that date of fledging and weight at fledging may both influence the fledgling's chances of survival but I am unable to determine the relative importance of these two factors. Different pairs of shearwaters differed in their ability to feed chicks, but chick-feeding performance was not related to age or breeding experience. Chapter 6 evaluates the parameters necessary for the construction of a life table. Of the chicks which fledge from Skokholm at least 25andnbsp;% survive to breed on Skokholm, whilst adult survival is about 90andnbsp;%. About 20andnbsp;% of those adults known to be alive and to have bred previously do not breed in any one year- The age of first breedi</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1504829845</t>
+          <t>https://openalex.org/W848202311</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ndyetabura (1982)</t>
+          <t>Anderson et al. (1977)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>The purpose and assessment of practical work in school science : an enquiry into the purpose and assessment of practical work in high schools and matriculation colleges in Tasmania as perceived by teachers of general science, physics and chemistry, and school students taking those subjects</t>
+          <t>DEEP-DRAFT NAVIGATION USER CHARGES: RECOVERY OPTIONS AND IMPACTS</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Practical work has always been Considered by the majority of science teachers and educators to be fundamental to the teaching of the physical sciences. However, there has been less agreement by experts on the purpose, most suitable type of practical work, most suitable assessment procedures and the optimum time that should be spent on it. Inevitably, these differences in opinion have affected the nature and emphasis given to the assessment of practical work. The last twenty years has seen a dramatic upsurge in curriculum development which in the physical sciences has been strongly oriented towards pupil-centred practical work._x000D_
-This 'curriculum phase' in the developed countries including Australia, would seem to have finished. The emphasis is now on consolidation. It would seem an opportune time to review the. present situation with regard to the purpose and assessment of practical work and at the same time place it within historical perspective. This thesis is mainly concerned with purpose and assessment of practical work in Tasmanian High Schools and Matriculation Colleges. In considering the notion of purpose it was decided to examine the relative importance of the aims of practical work as perceived by teachers, then to establish the orientation_x000D_
-of students towards these perceived aims (called influences by us) and finally to make a comparison of the aims of teachers with the influences as perceived by 'students. Regarding the assessment procedures of practical work, an examination of the current practices, its historical evolution and a study of preferences are made. Three questionnaires were constructed in this descriptive Survey in order to obtain the information_x000D_
-necessary for the examination of the above mentioned problem's. All High and Matriculation science teachers (N=256 response rate) received one set of questionnaires, a. sample of High School students (N=459 response rate) received the second set, and all Matriculation students studying physics and chemistry' at second year matriculation level (N=265 response rate) received the third set. The samples in the latter two cases are representative of the Tasmanian populations. Also, it was possible to interview six of the seven_x000D_
-supervisors/superintendents of science for the period 1950-1982, and they responded specifically to their role; prompts concerning: major changes in the science syllabuses; major changes regarding practical work; policy regarding assessment of practical work during their period of office. Our findings would suggest that teachers' perceptions of the aims of practical work, appear, in some respect, to be Misjudged or misguided at present, and when viewed against student perceptions indicate some major mis-matches. High School students would seem to perceive practical work as more of a visual aid than an experimental enterprise, while Matriculation students perceive their practical work to be much more technique-oriented than it was intended to be ccording to teachers and curriculum developers. With regard to the assessment of pratical work, specifically, teachers and students in Tasmanian schools are strongly in favour of it being school based, with a particular strong preference for continuous assessment at all levels by teachers. There is clearly considerable mistrust of external examinations in this area. On the other hand, Tasmanian teachers and and students favour a contribution of practical work to the students' overall mark which far exceeds its real weighting at present. There is a strong commitment to laboratory based teaching within the profession and a recognition that such skills must substantially affect the students' overall mark. This study of aggregate perceptions of teachers and_x000D_
-students, and the individual perceptions of science supervisors is hoped could provide an evaluative imension for Australian teachers and educators regarding this particularly important aspect of science teaching - the assessment of practical work. In conclusion a comparative examination is made of similar surveys of students' and teachers' perceptions regarding practical work in the U.K. and South Africa. There are some quite striking differences particularly in regard to orientations 'careful observation.', 'finding out' and 'acquisiton of skills and techniques' which suggest that aggregate perception of the purpose of practical work is not the same in these three countries.</t>
+          <t>Alternative cost recovery options for Federal deep-draft navigation expenditures are investigated and the impacts of user charges on waterborne trades and commodity traffic, both foreign and domestic (Great Lakes and coastwise), are assessed. In addition, the foreign experience in port governance, pricing, and investment policies is examined, including representative levels of port-use fees. A detailed commodity traffic analysis for petroleum, grain, coal, iron ore, and general cargo has revealed that 100-percent recovery of total Federal deep-draft costs by uniform (on vessel or cargo tonnage for example) user charges will not substantially disrupt domestic or foreign waterborne traffic levels or patterns. However, port-specific user charges can significantly affect future port development and traffic levels in certain smaller and more costly ports, and encourage port consolidation. Action by domestic overland carriers, waterborne carriers, and shippers may act to minimize any adverse impacts. For traffic which navigates both inland river and coastal ports, effects of potential double (shallow- and deep-draft) user charges are examined. In general, a vessel-based system use-recovery approach will tend to minimize impacts across waterborne trades and commodity flows as well as traffic using both shallow- and deep-draft systems.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1509529080</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-1-349-06361-1_2</t>
+          <t>https://openalex.org/W87885373</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Carter (1982)</t>
+          <t>Gottwald (1977)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>International Effects of Energy Conservation</t>
+          <t>[Neurologic and psychiatric syndromes of rare para-rheumatic diseases (author's transl)].</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>This paper reports on an energy conservation scenario computed by the United Nations World Model. Energy prices are assumed to rise as they did in the base runs but shifts in fuel mix and energy-saving are assumed to be achieved through increased labor and capital costs. Results suggest that vigorous energy conservation would substantially decrease, but not eliminate, the payments stresses in the reference case. Regional effects vary greatly. Payments-constrained regions could develop somewhat faster despite additional requirements for investment goods. Developed economies would achieve improved trade balances through higher investment and some consumption sacrifice.</t>
+          <t>In Wegener's granulomatosis peripheral nerves are more often involved than central nervous structures; functional psychoses are secondary e.g. to renal complications. Neurologic-psychiatric symptoms are varied and result from local spread from the upper respiratory tract with separate granulomata and vasculitis. Striped muscle is involved in about 10% of cases. Specific vegetative disturbances of function do not appear to occur. This is also true for Granuloma gangrenescens. Its multicentric inflammatory, ulcerating and necrotic foci involve midline structures and often start at the anterior neuroporus. Becet's disease, however, shows clear characteristic localisation, symmetry of various dermatologic phenomena in the extremities and the almost obligatory involvement of mouth, stomach and the genitals and their surroundings. This one may assume to be due to a mesencephalic parasympathicotonic reaction as the basis for the occurrence of perioral and acro-syndroms after Fischer-Brügge and Sunder-plassmann. Some similarity with the localization of other collagenous diseases is evident. The anterior basal ganglia represent a favored focus where e.g. initial, imcomplete and readily recurrent processes, possibly of an exsudative nature, may start off neurovascular changes of limited areas without necessarily producing clinically detectable signs of the usual neurologic-psychiatric type. In Behcet's disease, rather as in scleroderma, the nervous system appears to be decisively involved. About one third of the cases show changes in the nervous system ("Neuro-Behcet" in the usual sense) with little peripheral signs and rare myositis. But Behcet's disease may also-like erythematodes or progressive sclerodermia-simulate a disseminated encephalomyelitis. The pathogenetic factors of Reiter's syndrome appear to be closely related. The relatively constant main symptoms are also localized and permit the conclusion that they depend on vasomotorically linked innervation of the first bulbar segment. The preference for distal localization of bilateral skin involvement hints - as in Behcet's disease at hypothalamic distribution; main localization in midface and the oral mucosa, in eyes and the ends of the midline and, often, also involvement of certain midline and, often, also involvement of certain favored joints permit the assumption of mutural relations between the cranial and sacral fields of incidence of the trophotrop-endophylactic system which is linked via the parasympathic with periphery. According to present knowledge the bundles of Schütz and, further, Krüke may be the pathways. Where pelvic processes predominate viscero-cutaneous or cuto-visceral reflexes may - as in dermatomyositis - be involved. E.g visceroreflectory changes explain coincidences of signs in similar or adjacent segments of the urogenital system, the rectum and certain joints. Psychose on a physical basis are rare. As in other collagen diseases the spinal cord is rarely involved, but "multiple sclerosis" may be simulated...</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1511326671</t>
+          <t>https://openalex.org/W88351543</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Beaven &amp; Lawrance (1982)</t>
+          <t>Bokamba (1977)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>TERRAIN EVALUATION FOR HIGHWAY PLANNING AND DESIGN</t>
+          <t>The Impact of Multilingualism on Language Structures: the Case of Central Africa</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Studies of the terrain to select route locations and sites for detailed geotechnical investigations are essential preliminaries to highway survey and design. The process of using all sources of information, including remote sensing, to derive an understanding of the engineering characteristics of an area is known as terrain evaluation. The basis of terrain evaluation is terrain classification, an effective form of which utilises landform analysis. There are strong links between landform patterns as seen at the surface and the underlaying geology, soils and mositure regime. These patterns may easily be mapped from aerial photographs or satellite images and the terrain classification that results is appropriate for planning preliminary ground surveys. The classification can be used to predict where changes in soil conditions occur and to relate individual samples to the overall project. The two most useful forms of remote sensing are aerial photographs for detailed work and LANDSAT imagery for regional studies. Panchromatic photography is available in many parts of the world and there is increasing experience in its use in the tropics. If more detailed photography using special films is required, the use of a light aircraft carrying small format cameras can provide high quality photography at low cost. LANDSAT imagery has proved useful for preliminary surveys where interpretation of photographic prints of imagery can provide a terrain classification. More detailed analysis can be made with a computer, preferabley using an interactive processor, and the use of these systems will probably increase as their cost decreases. The use of terrain evaluation is illustrated by examples from Africa and Asia. (Author/TRRL)</t>
+          <t>0. Historical linguistics has always had two major objectives: (1) to reconstruct the particular steps by which a language changes in the course of the years; and (2) to hypothesize about the processes of change in general. In this attempt to formulate a general theory of language change, linguists have generally assumed that the only relevant variables for an analysis that can lead to significant generalizations are linguistic data. This assumption, however, has been questioned in a number of recent studies in sociolinguistics (cf. Labov 1968, 1970, 1972; Weinreich, Labov, and Herzog 1968; R. Lakoff 1972; among others) where it has been proposed that an adequate theory of language in general must take into account sociological, factors such as age, sex, social class status, and the educational status of the speaker( s) and addressee( s). The strongest claim made in this respect is one by Weinreich et al. (1968:188) where they state that: (1) Linguistic and social factors are closely interrelated in the development of language change. Explanations which are confined to one or the other aspect, no matter how well constructed, will fail to account for the rich body of regularities that can be observed in empirical studies of language behavior. The phenomenon of concordial agreement simplification, which is very common in Bantu languages and which is the topic of the present study, appears to be an excellent case for testing the validity of Weinreich et al. (1968) claim in (1). This approach to diachronic linguistics, call it 'sociohistorical' linguistics in contrast to the traditional ( i. e. standard theory) approach to historical linguistics, is intuitively interesting, particularly for diachronic syntax. Because, unlike phonological changes where the changes can be viewed in terms of assimilation, dissimilation, and loss of certain features in well-defined phonological environments, there are no equivalents</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1533484632</t>
+          <t>https://openalex.org/W986478469</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Keys (1982)</t>
+          <t>Vorus et al. (1977)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A dissection of settlement change in New South Wales: cases and implications</t>
+          <t>CORRELATIONS OF PROPELLER INDUCED FORCES AND STRUCTURAL VIBRATORY RESPONSE OF THE M.V. ROGER BLOUGH</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t xml:space="preserve">The previous paper in this series identified the emergence of an apparently new pattern of settlement in New South Wales. A drift of population away from the major urban areas of the central coast during the nineteenseventies contributed to a renewal of population growth in several parts of the state which had experienced long periods of relative stagnation and decline, and to a dramatic fall-off in the growth rates of the big cities. The present paper examines this trend in more detail, focussing in particular on those non-metropolitan areas which have experienced either a turnaround from decline to growth in recent years or an acceleration of their rates of growth (Figure 1I. Three sets of issues are addressed. First, an attempt is made to assess the extent of outside the metropolitan core. Second, the various new settlement forms are described and attributed to the particular groups of people whose activities have created them, and, finally, an examination is made of the implications for society of the new forms of development described. Publication Details This report was originally published as Keys, CL, A dissection of settlement change in New South Wales: cases and implications, Wollongong Studies in Geography No.9, Department of Geography, University of Wollongong, 1980, 4p. This report is available at Research Online: http://ro.uow.edu.au/wollgeo/9 WOLlONGONG STUDIES IN GEOGRAPHY No.9 Department of Geography, University of Wollongong. During the late nineteen-&amp;ixties and the early seventies, new' forms of settlement began to take hold. Along the coast the small resort towns began to grow at unprecedented rates and new ones were created. Much of this growth resulted from the influx of retired people from the metropolitan centres hence the weighting Figure 1: Local government areas experiencing demographic revival during the 1970s. to process farm products for shipment to markets, towns of various sizes developed. With the exception of a small number of mining and resort centres, most urban centres operated as central places with minor industrial roles. l M Mumclpaltty ~ Nigher Crowth Rate ~ /97J-79 than /9B/-7J ~ Dec/me J9B/-1/ ~Crowfh/97/-79  TAMWORTH 12 DUBBO 13 W/NCHAM l' YOIJNC 1&amp; JUNEE ,. ilRALLA 17 MUDCEE 1. WELLINeTON 19 COODIlAD/CBEE 20 MULWAIlEE LeAs REFERRED TO IN TEYT 1 PORT STEPHENS 2 aaSFoRD 3 WYONC • WOLLOND/I.J.Y &amp; X/AM,I. • COFFS HAIlBOIJIl 7 PORT MACQIJARIE • BATNI/IlST • ALBURY 10 WACC' WACC' ****** The previous paper in this series identified the emergence of an apparently new pattern of settlement in New South Wales. A drift of population away from the major urban areas of the central coast during the nineteen-seventies contributed to a renewal of population growth in several parts of the state which had experienced long periods of relative stagnation and decline, and to a dramatic fall-off in the growth rates of the big cities. The present paper examines this trend in more detail, focussing in particular on those non-metropolitan areas which have experienced either a turnaround from decline to growth in recent years or an acceleration of their rates of growth (Figure 1I. Three sets of issues are addressed. First, an attempt is made to assess the extent of outside the metropolitan core. Second, the various new settlement forms are described and attributed to the particular groups of people whose activities have created them, and, finally, an examination is made of the implications for society of the new forms of development described. HOW MUCH REVIVAL? C. L. Keys A DISSECTION OF SETTLEMENT CHANGE IN NEW SOUTH WALES: CASES AND IMPLICATIONS Two forms of settlement dominated country areas in New South Wales in the past. The open countryside itself was given over to commercial farming and was, for the most part, settled at low densities of population. To serve the needs of the farm population and During the ten years to 1971, non-metropoJitan New South Wales as a whole experienced, as it had for much of the century, a very slow rate of population growth. A rough estimate of the magnitude of the revival which occurred during the seventies can be obtained by projecting forward to 1979 the rate of growth which had applied between 1961 and 1971. Such a projection produces an 'expected' 1979 population (based on a continuation of previous trends) which can be compared with the actual population for that year. For that portion of the state located outside Sydney, Newcastle and Wollongong the projection of the 1961-71 average annual growth rate of 0.48 per cent produces an 'expected' 1979 population of some 1,181,350. The actual population in that year, however, was 1,274,800 . some 93,450 over and above the projected value !Table 1). This figure represents approximately two thirds of the total growth recorded for non-metropolitan New South Wales during the eight years to 1979. In fact, this is probably best regarded as a minimum estimate of the extent of the demographic revival, since the </t>
+          <t>Propeller induced vibratory forces and structural vibration response of the Great Lakes ore carrier ROGER BLOUGH are calculated and compared with model test data and full-scale data recorded on the ship. The comparative model test data consists of experimental hull surface force estimates before and after the addition of a stern tunnel. The comparative full-scale data is structural vibration data recorded on the ship before and after the addition of the stern tunnel. Because structural changes accompanying the tunnel addition were local changes, the reductions in global vibration level on adding the stern tunnel were a direct reflection of the reduction in the excitation force system. Therefore, the full-scale vibration data provides not only a basis for evaluating the structural response calculations, but also a basis for evaluating both the calculated and experimental hull force estimates.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1566128856</t>
+          <t>https://openalex.org/W110554647</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3133/ofr82260</t>
+          <t>https://doi.org/10.2172/5119085</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Kulp (1982)</t>
+          <t>Younker et al. (1982)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Quality of surface waters in Wilton, Connecticut</t>
+          <t>Geothermal Injection Monitoring Project. Phase I status report, April 1981-April 1982</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Water, bed material, and biological samples were collected and analyzed at 10 surface-water gaging sites on six streams in the town of Wilton, Connecticut over a 2-year period. The data indicate fair to excellent water quality. Fecal coliform bacteria, pH, alkalinity, iron, and manganese are the parameters that most often exceed recommended limits established by either the U. S. Environmental Protection Agency or the Connecticut Department of Environmental Protection. Data from sites on the Norwalk and East Branch Silvermine Rivers indicate little if any undesirable changes in water quality take place as they flow through the study area. (USGS)</t>
+          <t>The feasibility of using remote geophysical techniques to monitor the movement of injected brine has been evaluated. It was established that no single approach is likely to be identified that can be used to accurately monitor the precise location of the injected fluid. Several approaches have been considered in parallel because they add new dimensions to the existing monitoring capabilities, and are likely to cover a range of applications at a variety of geothermal sites. These include: microseismicity - a seismic net is used to record small magnitude events associated with injection; streaming potential - self potential anomalies produced by a moving fluid identify fluid flow direction; cross borehole geotomography - two-dimensional image of flow pathways is constructed using electromagnetic waves; and well pressure response to solid earth tide - changes in pore pressures are used to discriminate fracture/pore porosity and estimate fracture orientations.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1570709058</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0301-4215(82)90036-2</t>
+          <t>https://openalex.org/W11535140</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Gaskin (1982)</t>
+          <t>Munro (1982)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Government policies and North Sea development</t>
+          <t>Surface aspects of the natural and artificial aging of some aromatic polymers as studied by means of ESCA</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>This study focuses on the boundary-spanning nature of sustainable business model innovation, studying multi-stakeholder engagement and alignment. Drawing on the concept of boundary work, we explore the different types of organizational boundary changes between focal companies and their external stakeholders, investigating specifically the process of exploring, negotiating, disrupting and realigning organizational boundaries. Based on an exploratory study of nine different sustainable business model initiatives from for-profit and non-profit organizations, our analysis shows how actors involved need to find alignment at normative, instrumental and strategic dimensions in order to achieve sustainable value creation. However, complexity for alignment emerges through different understandings of value, diverging interests, division of risks and responsibilities, and existing processes and activities that limits actors’ openness to align. Mutual boundary changes are thus necessary in the process of multi-stakeholder engagement in order to enhance organizations’ understanding of value and to capture the envisioned value. This paper functions as an agenda-setting paper, presenting first insights on how the boundary work lens can advance our understanding of alignment processes between focal organizations and their external stakeholders, required for sustainable business model innovation.</t>
+          <t>X-ray photoelectron spectroscopy, (ESCA), has been used to investigate the changes in surface chemistry of some aromatic polymers during natural and artificial weathering. Particular emphasis has been placed on the photodegradation (λ&gt;290nm) of Bisphenol A polycarbonate. Model studies to investigate the changes in surface chemistry as functions of irradiation time, photon flux, temperature and the partial pressure: of oxygen and water at the solid/gas interface have been carried out in conjunction with natural exposures. The results show that photooxidation (involving the gem dimethyl and phenyl groups) and not a photo-Fries type rearrangement is the predominant process in the surface regions. Calculations at the non- and semi-empirical levels on model polycarbonate systems suggest that the first excited singlet state of polycarbonate arises from a II→II transition. The changes in surface chemistry of polycarbonate exposed to reactive oxygen species have been studied and indicate that singlet oxygen does not react with this polymer. The photoaging studies for polycarbonate have been extended to polystyrene, Bisphenol A polysulphone, polyethersulphone, polyphenylene oxide phenoxy resin and polyetherketone and similar trends to those observed for polycarbonate are shown to occur in these systems, i.e. extensive oxygen uptake in the surface regions with the mechanism involving the aromatic groups of the various systems.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1583740133</t>
+          <t>https://openalex.org/W1265950964</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Crawford (1982)</t>
+          <t>Gray (1982)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>The Scottish National Party, 1960-1974 : An investigation into its organisation and power structure</t>
+          <t>Operator Gauge Transformations in Nonrelativistic Quantum Electrodynamics</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Between 1960 and 1974, the Scottish National Party underwent_x000D_
-a remarkable organisational expansion. Not only did the number of_x000D_
-members, branches and constituency associations greatly increase, but_x000D_
-by the end of 1974 the Party also succeeded in getting eleven_x000D_
-parliamentary candidates elected to the House of Commons._x000D_
-This thesis is concerned with the two major organisational_x000D_
-elements of this growth. The actual mechanics of change, this is,_x000D_
-the structural, administrative and personnel dimensions. Secondly,_x000D_
-we examine the nature of the intra-party power relationships as they_x000D_
-evolved in the years under study._x000D_
-In essence, we argue that far from having a devolved power base,_x000D_
-where decision on organisational matters such as publicity; Party_x000D_
-finance; election strategy; and candidate selection etc., were taken_x000D_
-only after consultation with the membership, the SNP had a highly_x000D_
-centralised management structure._x000D_
-This view is contrary to most of the prevailing thinking on the_x000D_
-subject. We summarise all of the major writings on the SNP's organisation_x000D_
-in Chapter Two._x000D_
-We seek to show what factors in the growth of the SNP during this_x000D_
-period, propelled it towards the centralisation of organisation decisionmaking._x000D_
-We utilise Party records to demonstrate that growth brought in_x000D_
-its wake certain strains which could only be contained, and deflected,_x000D_
-within a hierarchical management structure. With this in mind, during the course of the thesis we draw upon_x000D_
-studies in organisational management which have been undertaken in other_x000D_
-fields. These, we contest, confirm our hypothesis regarding the_x000D_
-inevitability of the need for centralisation in a rapidly expanding_x000D_
-organisation._x000D_
-In the specific context of political party management, we test the_x000D_
-relevance of Robert Michels' view of the tendency towards 'oligarchy'_x000D_
-even in parties with an ideological commitment to organisational_x000D_
-democracy. We affirm the value and worth of Michels' views in so far_x000D_
-as these can be applied to the SNP between 1960 and 1974._x000D_
-Our study is largely empirical. Consequently, we examine and_x000D_
-analyse such critical organisational areas as the SNP's internal_x000D_
-communications; finances; management committee structure; and election_x000D_
-organisation. We also look at certain administrative aspects of the_x000D_
-Labour and Conservative parties, to see how these compared in terms of_x000D_
-centralisation etc., with the SNP. In other words, was the SNP, in the_x000D_
-period under study, more decentra1ised, than the two major British_x000D_
-parties? Most researcl1ers have answered that question in the affirmative._x000D_
-We conclude by summarising the factors which, we believe, led to_x000D_
-the centralisation of organisational power within the SNP between 1960_x000D_
-and 1974. Explain what elements complicated intra-party power relations_x000D_
-after 1974. And, finally, outline what has happened to the leadership's_x000D_
-control of the Party in recent years. We relate this to our hypothesis_x000D_
-regarding the SNP's growth and consequent leadership domination.</t>
+          <t>A system of nonrelativistic charged particles and radiation is canonically quantized in the Coulomb gauge and Maxwell's equations in quantum electrodynamics are derived. By requiring form invariance of the Schrodinger equation under a space and time dependent unitary transformation, operator gauge transformations on the quantized electromagnetic potentials and state vectors are introduced. These gauge transformed potentials have the same form as gauge transformations in non-Abelian gauge field theories. A gauge-invariant method for solving the time-dependent Schrodinger equation in quantum electrodynamics is given. Maxwell's equations are written in a form which holds in all gauges and which has formal similarity to the equations of motion of non-Abelian gauge fields. A gauge-invariant derivation of conservation of energy in quantum electrodynamics is given. An operator gauge transformation is made to the multipolar gauge in which the potentials are expressed in terms of the electromagnetic fields. The multipolar Hamiltonian is shown to be the minimally coupled Hamiltonian with the electromagnetic potentials in the multipolar gauge. The model of a charged harmonic oscillator in a single-mode electromagnetic field is considered as an example. The gauge-invariant procedure for solving the time-dependent Schrodinger equation is used to obtain the gauge-invariant probabilities that the oscillator is in an energy eigenstate For comparison, the conventional approach is also used to solve the harmonic oscillator problem and is shown to give gauge-dependent amplitudes.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1588249146</t>
+          <t>https://openalex.org/W136144766</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-94-015-3859-6_12</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Ralph (1982)</t>
+          <t>Bonkowski &amp; Trinchera (1982)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Assessment of ancient land use in abandoned settlements and fields : a study of prehistoric and Medieval land use and its influence upon soil properties on Holne Moor, Dartmoor, England</t>
+          <t>Applied Research for Mini-Finger-Joint</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Ignorance about the pattern of ancient land use within prehistoric and medieval fields on Dartmoor and elsewhere provided the catalyst for the research reported in this thesis, which explores new ways of assessing past land use in abandoned enclosures. The first chapter provides a brief, critical evaluation of relevant earlier archaeological_x000D_
-research; the limitations of current procedures, which reveal little about pastoral land use, are discussed and it is concluded that, although there have been few scientifically rigorous studies of the soils in ancient settlements and fields, soil analysis accompanied by explicit modelling of the interaction of agricultural land use and soils could provide new information about past land use, but only within a framework of research that defines the natural trajectories of soil development as a prerequisite to the isolation of 'land use—deflected' pedogenesis. In Chapter 2, a review of some of the principal features of moorland soils is followed by an assessment of the ways in which they may have been modified by recent, 'extensive' land use. Information provided by pedological and agricultural research is then used to formulate_x000D_
-models of changes in the physical and chemical properties of soil that might be expected to occur as a result of various forms of 'intensive' agricultural land use; particular attention is paid to the pattern of phosphorus redistribution in pastoral enclosures. An environmental and cultural history of Holne Moor on Dartmoor is presented in Chapter 3, and it is shown that this area possesses_x000D_
-archaeological and pedological features that make it eminently suitable as a study area within which to test ideas and predictions about the way in which early land use may have modified soil properties; the chapter concludes with an account of the fieldwork and laboratory strategies_x000D_
-that have been used to investigate the soils within this study area. The results of a field survey of the soils and vegetation on Holne Moor are described and interpreted in Chapter 4; it is concluded that many of the properties of the surface soils reflect a combination_x000D_
-of features acquired during medieval farming and during subsequent pedogenetic reversion. The pattern of soil properties is shown to be consistent with a pattern of land use that can be inferred from archaeological investigations of the medieval enclosures themselves and provides_x000D_
-additional information about land use within the enclosures and the sequence of land abandonment. Qunntitative investigations of soil phosphorus and organic matter_x000D_
-are reported and analysed in Chapter 5. Palaeosol studies provide evidence of the general course of pedogenesis and also allow the conclusion that significant changes in soil phosphorus have occurred since prehistoric times and even over the past thousand years. Analyses of soils in prehistoric houses and monuments, and in the fields of nearby, modern farms are then used to establish a picture of the way in which the soils of the study area have responded to phosphorus inputs and agricultural management. Conclusions reached as a result of these studies, together with the models offered in Chapter 2 1 form the basis for_x000D_
-interpretation of investigations of the soils within medieval and prehistoric agricultural enclosures; these are described in the concluding sections of the chapter, where it is shown that patterns consistent with the models can be identified within these ancient enclosures. Some of the more important conclusions arising from this research are set out in Chapter 6; the primary conclusions are that very detailed_x000D_
-information about medieval land use can be, and has been obtained through intensive field survey alone, and that analysis of soil phosphorus can provide important, new information about the agricultural use of both medieval and prehistoric enclosures.</t>
+          <t>A machine has been developed which utilizes a mini-finger joint to salvage “waste” wood from a pencil slat making operation at our Company. In the main plant, we produce approximately 5,000,000 incense cedar slats per day of dimensions 4.8 mm × 70 mm × 184 mm. These are used around the world for the manufacture of wood-cased pencils. Prior to the invention of our mini-finger plant, we produce approximately 5,000,000 incense cedar slats per day of dimensions 4.8 mm × 70mm × 184mm. These are used around the world for the manufacture of joint machine, many slats which contained defects such as worm holes, knots, rot, or bark, within a portion of the slat were chipped for fuel, or, in some cases, recut to shorter length slats to fill a limited demand for making short pencils. With our present finger-joint operation, many of these nearly valueless slats have been salvaged to make good wood for pencil making. A great deal of research and development went into the creation of our mini-finger-joint machine. The fact that our Company produces a rather unique product posed special problems, and in some cases, severe limitations on the design features of the machine. For instance, the slats which we manufacture with a mini-finger-joint must meet the same standards and tolerances for dimension in thickness and width which we guarantee our customers for ordinary solid wood slats. Since we make the finger-jointed slats from ordinary solid wood slats (except that they have defects), we have no excess dimension for sanding or planing to “finish” the mini-finger-jointed slat. Therefore, a major design consideration for the machine was one of inventing a method to produce very precise joints. This meant building the machine with the capacity to hold the wood in precise alignment during cutting of the mini-fingers and also during gluing of the mini-finger-joint. A special feed mechanism which provides for the creation of 50 matched pairs of mini-finger-joints to be cut in a single pass of the machine, combined with a unique glue spreading apparatus and hammer device, have resulted in a machine having the ability to meet the standards we set for dimension and smoothness in the mini-finger-jointed slat. In consideration of the intended use of our product, the machine had to be designed to produce a very small, tight, durable joint. Such characteristics have been achieved by our mini-finger-joint which uses 8 mm teeth, spaced 2.5 mm apart. In the selection of a suitable adhesive for our mini-finger-joint, we faced certain limitations imposed by our customers. The most popular adhesive used in the pencil industry is poly vinyl acetate. In order to insure customer acceptance, especially at the onset of our introducing finger-jointed pencil slats, we had to use the same PVA glue already accepted throughout the pencil industry. This choice has caused us a variety of problems, mostly related to the lengthy setting and drying times associated with PVA glues. The speed at which the operation had to be run in order to be profitable was determined by estimating the manpower which would be used in the operation, the other features of overhead for the machine, and the values of the raw materials and finished product. The woodworking characteristics of the species to be cut, libocedrus decurrens, was also a consideration when predicting the machine efficiency possible and the speed at which the operation would have to be run. For example, the variation in moisture content of the wood, the presence and proportions of various defects through which the saws and delicate finger-joint head has to cut, the tendency for the wood to chip, tear, or “plug” the finger-joint head, all of these factors had to be taken into consideration before and during development of the machine. We are now approaching completion of our mini-finger-joint development project, it will soon be ready to turn over to a full production schedule. It has been 4 years since we started the machine. Over this period, we have made many modifications and improvements. In its present form, the machine meets the criteria we set for speed and accuracy in the cutting and gluing of mini-finger joints in pencil slats. There are still a few improvements we foresee which we hope will provide for better machine efficiency. The acceptance of the mini-finger jointed slat for making pencils has been very good. We do not discount the price of our slats for having the finger joint. In fact, because we have the versatility to make special sizes (lengths) of slats, a major portion of our current, experimental production is actually sold for more than the customary price of ordinary solid wood slats. To insure the dimensional accuracy of the finger-joint and assure a strongly bonded joint to our customers, we have adopted a system for quality control over the finger-joint operation which includes monitoring of not only the finished product, but also the machinery, saw, and finger-joint head mainte</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://openalex.org/W191888070</t>
+          <t>https://openalex.org/W1573227957</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-12-641420-2.50024-3</t>
+          <t>https://doi.org/10.1017/cbo9780511558245.016</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Siegel (1982)</t>
+          <t>Butzer (1982)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>New Views on Stabilization Policies</t>
+          <t>Diachronic systems I: cultural adaptation</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>This chapter presents a brief summary of a number of the professional discussions of the stabilization issue. The new views on stabilization policies are mostly negative. Policy activism, frequently called fine tuning or demand management, is in serious disrepute with much of the economics profession and with important parts of the official community, such as the Joint Economic Committee of Congress. Econometric models used in policy evaluations yield a variety of policy multipliers whose size and timing uncertainties of policy impacts make them poor tools for policymakers to use. In addition, the forecasting record of economists is unimpressive to such an extent that authorities now fear that policies based upon such forecasts may actually destabilize rather than smooth out the fluctuations of the economy. Rational expectations theorists say that econometric policy evaluation is basically flawed because the models are fitted to data containing reactions to policy changes that in their nature cannot be reproduced for the future. Thus, studies of fixed versus activist policies with econometric models may also be basically flawed and provide no information upon the rules versus activist debate.</t>
+          <t>In the preceding chapters we have considered models and empirical data that seek to describe and explain the spatial processes and configurations of human ecosystems. Two modal categories, mobile hunter-gathers and sedentary farmers, were considered in order to emphasize the variability in spatial behavior. But discussion was necessarily synchronic in order to emphasize the geographical expression of phenomena that archaeologists traditionally view in temporal perspective. A time axis is essential, however, in order to examine the dynamics of individual human ecosystems as well as the record of continuity and change in human history. These diachronic objectives differ in scale rather than in substance, because the trajectory of continuity and change represents the longer-term interactions and transformations of multiple human ecosystems.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1970323340</t>
+          <t>https://openalex.org/W1606207660</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1121/1.2019504</t>
+          <t>https://doi.org/10.2307/1991564</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Kamel &amp; Felsen (1982)</t>
+          <t>Lindsey (1982)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Spectral and hybrid ray‐mode formulations for sound radiation in a weakly range‐dependent ocean</t>
+          <t>How Regulations Affect Monetary Control: Comment</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>By a recently developed theory [reported in J. Acoust. Soc. Am. Suppl. 1 70, S3 (1981)], the method of characteristic Green's functions (resolvents) for range-independent ocean environments has been generalized to accommodate weak range dependence of the bottom. The generalization has been made so as to generate the conventional adiabatic mode representation whenever that is applicable, but the new formulation for the radiated sound field is valid everywhere, including those regions where one of the adiabatic modes passes through cutoff. Numerical evaluation of the Green's function integral for a wedge-shaped ocean has shown close agreement with results computed independently by the parabolic equation algorithm. The analysis has now been carried further to explore alternative representations of the general solution in the water and the bottom. These include a plane wave spectral integral, hybrid ray-mode formulations, and asymptotic evaluations that yield transition functions valid through the cutoff region of one of the adiabatic mode fields. One thereby gains detailed insight into the various ray or mode propagation mechanisms that explain the numerical data. Comparisons are made with other procedures which have recently been presented for this class of propagation problems. Generalizations to depth and range dependent water sound speeds are under study. [Work supported by ONR Ocean Acoustics Branch.]</t>
+          <t>James L. Pierce's paper offers an overview of the nexus between monetary control and virtually the entire regulatory environment. The section on required reserve ratios and reservable liabilities contains a concise discussion of the relevant regulations in the pre and post Monetary Control Act (MCA) environments. He concludes, I think correctly, that once phased in, the MCA will contribute to closer monetary control. ' However, I do not find convincing his argument that during the eight-year transition period, control over M1 could get worse before it gets better unless the Federal Reserve eliminates reserve requirements on deposits not included in narrow money, such as nonpersonal time deposits, interbank deposits, and government deposits. One consideration is that the old reserve requirement structure for members, including reserve requirements on time deposits, is set in stone during its three and one-half year phase-out. Consequently, even though as Pierce notes the Federal Reserve has the legal authority to reduce to zero the reserve ratios on nonpersonal time deposits and Eurodollar liabilities under the new structure, some reserve requirements would still remain on these liabilities until March 1984. A second consideration is that reserve requirements on nonpersonal time deposits, somewhat paradoxically, can be designed to enhance control over M1. By raising required reserves in the aggregate, they reduce the number of institutions that can satisfy reserve requirements wholly through vault cash held in any case to serve operating needs. Owing to vault cash in excess of reserve requirements, such nonbound institutions have no reason to open reserve accounts at the Federal Reserve. Because movements in their surplus vault cash are not closely related to movements in their transactions deposits, the ratio of M1 to a definition of</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1975333904</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2118/7403-pa</t>
+          <t>https://openalex.org/W1645670169</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Mathews &amp; Bourgoyne (1982)</t>
+          <t>Rosner &amp; Chehovits (1982)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>A Feasibility Study on the Use of Subsea Chokes in Well Control Operations on Floating Drilling Vessels</t>
+          <t>SULFATE RESISTANCE OF MORTARS USING FLY ASH AS A PARTIAL REPLACEMENT FOR PORTLAND CEMENT</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Summary The use of a subsea remote-operated adjustable choke between the blowout preventer (BOP) stack and the marine riser was considered as a means for eliminating the need for long subsea flowlines. Well behavior was predicted through computer simulations and showed/that existing problems could be reduced but not eliminated entirely. Introduction During the past 20 years, offshore drilling in water depths up to 350 ft (107 m) has become routine. Deepwater exploratory drilling from floating vessels in water depths as great as 5,000 ft (1524 m) has been achieved in the past few years. Currently drilling vessels are being constructed that are capable of drilling water depths of more than 6,000 ft (1829 m). As drilling extends to such great water depths, the blowout control problem becomes much more difficult. Well control equipment and procedures were developed first for drilling operations on land. With only minor changes, these well control techniques have been applied to bottom-supported drilling rigs such as submersibles, jackups, and rigs operating on offshore platforms. More extensive changes in BOP equipment and procedures were required for floating vessels, which are used almost exclusively for deepwater operations in water depths of more than 350 ft (107 m). The most significant change was the location of the BOP stack at the seafloor rather than at the surface. This paper considers the need for development of additional subsea well control equipment as the search for petroleum is extended to greater water depths. The special well control problems for floating drilling vessels stem primarily from the reduced fracture resistance of the marine sediments and the need for long vertical subsea chokelines between the subsea BOP stack and the drilling vessel. The shallow marine sediments often are unconsolidated and undercompacted, having a relatively low bulk density up to several thousand feet below the mudline. The fracture problem is aggravated because the mud column extends far above the mudline to the flowline above sea level, and mud density generally exceeds seawater density. Thus, when a kick occurs during deepwater drilling operations, formation fracture usually will occur at a lower equivalent mud density than for a similar situation on land. For the example shown in Fig. 1, the fracture gradient computed at a casing seat 3,000 ft (914 m) below the mud line in 3,000 ft (914 m) of water is only 10.6 lbm/gal (1.27 kg/m3). The use of long vertical subsea chokelines in deep water between the subsea BOP stack and the drilling vessel has two disadvantages. The increased chokeline length can result in unacceptably high circulating frictional pressure losses in the chokelines. This can be extremely important because current well control procedures are based on the assumption that frictional pressure losses held against the well annulus are small and can be applied as a convenient safety margin when circulation of the kick is begun. In addition, since the subsea chokelines extend vertically over a considerable length, the density of the fluid in the chokelines contributes directly to the hydrostatic pressure in the well. When the top of a slug of low-density kick fluid reaches the subsea BOP stack, the hydrostatic pressure of the drilling fluid in the chokeline is lost quickly during the rapid elongation of the slug as it exits the large casing and proceeds upward through the small-diameter chokeline. This too is extremely important because current well control procedures are based on the assumption that significant well pressure changes will occur more slowly than the unsteady-state readjustment time of the surface drillpipe pressure, on which choke manipulation is based.</t>
+          <t>This project compared the sulfate resistance of mortars that use fly ash as a partial cement replacement with control mortars that do not contain fly ash. Fly ash from four different sources and at three different replacements, 10%, 15% and 20%, by weight, were evaluated. Three of the fly ashes satisfied ASTM C618, Class F, specifications and one fly ash met all requirements except for the available alkalies. A single portland cement source, meeting the ASTM specifications for Type II, was used. The test procedure followed a recently developed method by K. Mather at the Waterways Experiment Station, U. S. Army Corps of Engineers. One by one by eleven inch mortar bars were subjected to a mixed (sodium and magnesium) sulfate solution environment. Physical measurement of mortar bars include length change, weight change, porosity and relative dynamic modulus. The study concluded that improvements in sulfate resistance over that provided by a Type II cement may be obtained through the use of certain fly ashes in portland cement concrete. Three of the ashes studied significantly improved sulfate resistance as indicated by percent expansion while the fourth ash did not. With the three successful ashes, ash replacement percentage (between 10 and 20 percent) did not significantly influence the amount of improvement in sulfate resistance. The ash R Factor predicted that two of the three successful ashes would improve sulfate resistance and that the unsuccessful ash would reduce sulfate resistance. (FHWA)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://openalex.org/W19986933</t>
+          <t>https://openalex.org/W1787916749</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pazwash (1982)</t>
+          <t>Lock (1982)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Erosion and sedimentation effects of reservoirs</t>
+          <t>Towards a Better Understanding of Gulf Coast Miocene Deep Water Sediments</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Land surface is eroded by natural phenomenon such as precipitation, overland and channel flow, freeze-thaw action, wind and gravitation as well as by human activity. The magnitude (or rate) of erosion by water depends on rainfall regime, soil type and aggregation, land slope, catchment size and vegetational cover. The effects of these factors on the rate of erosion are discussed either qualitatively or quantitatively in this paper. Erosion of land surface results in the production of loose particles, termed sediments, which are carried downstream by overland flow. Some of these sediments reach streams and are transported to lower elevations as suspended sediments (suspended or wash load) or as sediments of the bed (bed load). Formulae or analytic methods to estimate suspended and bed loads of streams are discussed briefly, their limitations are emphasized and practical means of sediment measurement are described. Construction of a dam in a basin results in trapping a major portion of sediment carried by a stream (also called sediment yield of a basin) and also causes a severe erosion of the river channel downstream. These effects are exemplified by a case study which reveals the dangers involved in using empirical formulae to estimate the sediment yieldmore » of a basin.« less</t>
+          <t>ABSTRACT Deep water sands are known from many localities in the lowest Miocene of the Gulf Coast. They are recognized by a combination of paleontological, conventional core, wireline log and regional setting criteria. Almost invariably, subsurface geologic interpretations are difficult to make because of correlation problems. Turbidite deposition probably took place in deep sea fan environments in most cases, but conventional models for these fans are over-simplified for application in studies of the Gulf Coast Miocene. The Miocene outer continental shelf and slope were not characterized by smooth, simple topography, but were extremely irregular, due principally to salt and shale tectonics. Thus the Walker/Mutti and Ricci-Lucchi fan model is inadequate and serves only as a starting point for Miocene studies. Turbidite sand bodies in this setting can be classified into three major types; major channel deposits, levees, and suprafan lobes. In the Walker model, major incised channels with levees are characteristic of the upper fan, and suprafan lobes in the mid fan, but in the Miocene they occur together in a complex manner. In the simplest cases we might anticipate that the channels cut through the lobes, resulting in rapid lateral facies change. Recommended procedure for mapping and interpretation involves preparation of panel diagrams after initial correlations have been made as completely as the data permit. Reduced scale log segments are pinned on a large scale base map, channel trends are indentified and the channel sands contoured, to the exclusion of other data. Lobe sand bodies are then contoured as a secondary operation and a composite sand or net sand isopach prepared. Abrupt changes in contour trend will occur where lobe and channel sands meet, and the two stage contouring process will yield much more accurate isopachs and give a better tool for prediction of sand body extensions.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2003215393</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1306/03b59c8d-16d1-11d7-8645000102c1865d</t>
+          <t>https://openalex.org/W1912933836</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Chan (1982)</t>
+          <t>Hartling et al. (1982)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Progressive Stages of Diagenesis in Early-Middle Eocene Fore-Arc Delta, Shelf, Slope, and Basin Sandstones, Southern Coast Range, Oregon: ABSTRACT</t>
+          <t>THE GEOLOGY AND HYDROCARBON TRAPPING MECHANISMS OF THE MISSISSIPPIAN OUNGRE ZONE (RATCLIFFE BEDS) OF THE WILLISTON BASIN</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>The Flournoy and Tyee formations (early to middle Eocene) of western Oregon are a model example of pervasive diagenesis in volcanic arenites, which extend over a full range of environments: delta, shelf, slope, and basin. Although younger Eocene units in Oregon prove to be good reservoir rocks, the Flournoy and Tyee lack porosity. This is due to fore-arc basin burial and subsequent mechanical and chemical diagenesis. Evaluation of the diagenetic phases indicate deep burial and compaction at an early stage. Unstable volcanic rock fragments and plagioclase grains from all environments show alteration to mixed-layer clays and laumontite, making them more susceptible to mechanical plastic deformation. Cementation and replacement were most common in coarse-grained deltaic and shelf sands, where the depositional porosity was high. An early stage of calcite cementation preserved open framework-supported textures in spherical concretions. A second stage of mixed-layer clays formed cement rims. Clinoptilolite filled remaining pore space. Locally, these two phases are reversed in Flournoy sands. Rare fractures were filled by stilbite. During a late stage, calcite replaced clay rims and zeolites, or filled remaining pores. In other samples, pervasive laumontite, together with minor clays, tightly cemented the coarse-grained sandstones. Slope and basin sandstones are finer grained and contain more matrix than coarse-grained sandstones. Original composition, grain size, and original porosity (a function of depositional setting) controlled diagenetic development. These deeper water sandstones show some clay and calcite cements, but are generally lacking zeolite cements. End_of_Article - Last_Page 558------------</t>
+          <t>ABSTRACT Oungre strata form a small but productive portion of the Mississippian Ratcliffe Beds within the Williston Basin. Oungre sedimentation was characterized by lime mudstone deposition on a broad, shallow marine shelf interior. Numerous shoals developed in response to sea level fluctuations and prolific algal sedimentation. These subtle bathymetric features are overlain by the Oungre Evaporite which marks the final phase of Oungre basin filling. Seepage refluxion of Mg-rich brines through the sediment beneath restricted hypersaline lagoons of the Oungre Evaporite, dolomitized the uppermost few meters of the Oungre Zone. A permeable dolomite reservoir was created downdip of the lagoonal area as the Mg-ion content of the brines waned and crystal size increased correspondingly. The up-dip textural change from finely- to micro-sucrosic dolomite forms a permeability barrier to hydrocarbon migration. Two distinct trapping mechanisms are identified in the Oungre pools: 1) strati-structural and 2) structural. Dolomites form the reservoirs and the extent of dolomitization commonly determines the up-dip limits of the pools. Localized salt tectonics or gentle basin subsidence controlled the structural elements in all cases. A successful Oungre exploration model requires the integration of detailed geology and geophysics to predict depositional trends, diagenetic changes, and to highlight the often subtle structural events.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2009733642</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1306/03b5a291-16d1-11d7-8645000102c1865d</t>
+          <t>https://openalex.org/W1945867763</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Weimer (1982)</t>
+          <t>Cheetham (1982)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Sea-Level Changes and Tectonic Control of Unconformities, Western Interior, U.S.A.: ABSTRACT</t>
+          <t>Revision and exploration : German landscape depiction and theory in the late 18th century</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Unconformities are conspicuous stratigraphic features in the Phanerozoic strata of the Western Interior, U.S.A. Important unconformity traps for petroleum are found in strata of Ordovician, Mississippian, Permo-Pennsylvanian, and Cretaceous ages. The role of the unconformity in trapping petroleum is principally by truncation of porous zones and by providing a seal for the trap. Lenticular zones of porosity and permeability in sandstones immediately above the erosional surface are also important stratigraphic traps, both in marine and nonmarine strata. An unconformity is defined as a sedimentary structure in which two sets of strata (or groups of rocks) are separated by an erosional surface where the erosion may be by subaerial or submarine processes. Factors to be considered in evaluating unconformities are structural discordance, nature of contact, hiatus, duration of erosion, areal distribution, and cause. Principal causes for unconformities are sea-level changes, tectonics, or a combination of both. Two examples of unconformities controlling petroleum occurrences are as follows: (1) porosity beneath a paleokarst surface at the top of the Mississippian carbonates (Kevin-Sunburst field, Montana), and (2) the fluvial sandstones of Early Cretaceous age (Muddy Formation) that fill an incised drainage system resulting from a sea-level drop and subsequent rise approximately 97 m.y.B.P. (Recluse field, Powder River basin, and Third Creek field, Denver basin). End_of_Article - Last_Page 642------------</t>
+          <t>My thesis focuses on the work of German painters in Italy_x000D_
+c.l770-1800, and addresses issues raised by their complex_x000D_
+relationship with the 17th century Italianate landscape_x000D_
+tradition. Jakob Philipp Hackert (1737-1807), Johann_x000D_
+Christian Reinhart (1761-1847), and Joseph Anton Koch (1768-_x000D_
+1839) worked in Italy precisely because they considered themselves_x000D_
+to be the inheritors of the 17th century landscape_x000D_
+style of Claude, Dughet, Rosa, and Nicolas Poussin. But while_x000D_
+the German paintings do resemble the earlier works, they also_x000D_
+revise the 17th century programme of representing Ideal nature._x000D_
+They are more detailed and precise in their depiction of_x000D_
+natural phenomena; they also represent natural events and sites_x000D_
+not included in the traditional canon. Extrapolating from_x000D_
+18th century critical terminology, I have developed the term_x000D_
+particularity to focus attention on this unprecedented_x000D_
+attention to the details of nature. I argue that the late 18th_x000D_
+century German landscapes revise the Italianate landscape_x000D_
+tradition so that it embodies particularity, and that the_x000D_
+impetus for this change comes from two contemporary sources:_x000D_
+natural history -- especially the nascent sciences of geology_x000D_
+and biology -- and art theory._x000D_
+My argument is divided into three sections. In the first, I_x000D_
+establish the existence and visual characteristics of particularity_x000D_
+first by contrasting 17th century versions of the famous_x000D_
+cascades at Tivoli (by Claude, Dughet, and others) with depictions_x000D_
+of the same site by late 18th century German artists, and_x000D_
+second, by describing the new sites which were explored and_x000D_
+depicted by Hackert, Reinhart, and Koch. In the third and_x000D_
+final chapter of this section, I discuss in detail the_x000D_
+relationship of landscape depiction and natural science in a_x000D_
+specific case: the scientific landscape illustrations by_x000D_
+Pietro Fabris for Sir William Hamilton's Campi Phlegraei:_x000D_
+Observations on the Volcanos of the Two Sicilies (1776). The_x000D_
+involvement of British, German and French landscape painters_x000D_
+with discoveries in contemporary natural history is vividly_x000D_
+exemplified by Hamilton's book. In the second section, I_x000D_
+consider the features of German natural history and art theory_x000D_
+c.1770-l800 which encouraged and shaped landscape painting._x000D_
+In two separate chapters I examine the ways in which Herder,_x000D_
+Kant, and Goethe contributed significantly to each of these_x000D_
+areas of thought. The relation between particular and_x000D_
+universal, I argue, is fundamental to both natural history_x000D_
+and art theory at this time, and the particular is emphasized_x000D_
+in both disciplines. In the third section, I take up the_x000D_
+implications for landscape depiction of this emphasis on_x000D_
+particularity by focusing on specific contacts between German_x000D_
+landscape artists and ideas from natural history and art theory.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2015100369</t>
+          <t>https://openalex.org/W1969910087</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00139157.1982.9932490</t>
+          <t>https://doi.org/10.1353/chq.0.0054</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Jackson (1982)</t>
+          <t>Roxburgh (1982)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Natural Resources</t>
+          <t>&amp;lt;i&amp;gt;Anno's Counting Book&amp;lt;/i&amp;gt;: A Semiological Analysis</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Senator Jackson notes that the Reagan administration's strategy of using budget cuts as a policy tool is evident in the area of natural resources, notably by the following: not including urban parks in the national park system; the low priority given to land acquisition; and the emphasis on resource development over conservation. Further, the administration has not requested funding for recreational grant programs, which are administered by the states and already incorporate the concepts of the new federalism. He feels that efforts to turn public lands over to the private sector bear watching because they seek a short-term gain at the expense of future public-land uses. He observes that Interior Secretary Watt's proposal to expedite land and offshore leasing has created a problem where none existed before. At issue in the Reagan initiatives is the proper stewardship of public lands, which should be a bipartisan effort. (DCK)</t>
+          <t>Anno's Counting Book:A Semiological Analysis Stephen Roxburgh Before looking analytically at Anno's Counting Book, I'd like to discuss briefly the appropriateness of applying structuralist, and specifically, semiological analysis, to a picture book. The critical theory I will be using is that outlined by Roland Barthes in his early essay "Myth Today," which was his first extended discussion of the science of signs, and his later refinement and extension of that discussion in Elements of Semiology. In the introduction to that volume, Barthes reverses the Saussurean postulation that linguistics forms only a part of the general science of signs. Barthes insists that semiology is a part of linguistics. He argues that "to perceive what a substance signifies is inevitably to fall back on the individuation of language: there is no meaning which is not designated, and [End Page 48] the world of signifieds is none other than that of language. . . . Semiology is required, sooner or later, to find language in its path." This notion, central to Barthes' way of thinking, suggests the appropriateness of applying his analytical principles to a wordless picture book, a counting book based on the ten arabic numerals. Simply stated, linguistic analysis won't work; semiological analysis will, but, as Barthes argues, only through the mediation of language. Allow me to pursue the simplistic notion that a book, Anno's Counting Book, can constitute a complete system of signification, what Barthes calls a corpus, "a finite collection of materials," which can be examined from one point of view at a given time and be shown to be complete and homogeneous, that is, to fulfill the conditions Barthes presupposes for semiological analysis. To begin I must identify certain fundamental concepts with which you are no doubt familiar but which are variously defined. You should know how I will be using them. First is the linguistic principle, formulated by Saussure, that a signifier and signified exist in an arbitrary relationship. The union of signifier and signified constitutes the sign (a term which is problematical but will suffice for my purposes). A sign, itself consisting of signifier and signified, can be a signifier on a second level, or second order of meaning. A group of signifiers can also combine with one signified to form a complex sign. Both of these, second order and group signification, frequently take their meaning from cultural contexts and are what Barthes calls myth. Second is the crucial distinction between language (langue) and speech (parole). Barthes describes language as "a collective contract which one must accept in its entirety if one wishes to communicate . . . [it] is autonomous, like a game with its own rules, for it can be handled only after a period of learning." The number system is as pure an example of language as any and if you consider the didactic aspect of a counting book you will appreciate the relevance of this concept to an analysis of the genre. "Speech"—as described by Saussure—is "the individual act of selection and actualization." This concept especially, "the individual act of selection and actualization," is crucial to my discussion of Anno's Counting Book. Other aspects of Barthes' theory will be discussed as they become relevant. First Spread: "0" Just as Barthes divided the garment system into three parts, it is helpful to divide Anno's counting book into three interrelated parts: the numeral on the right side of the page, the scale on the left side of the page, and the scene that comprises the spread. We have within this one system, the book, three analogous systems, none of which allows for linguistic analysis, none of which here means anything. One might argue that the scene is a significant unit, a signifier of the concept of snow and sky and river, but it could as well signify the conept of white and blue. Finally, we simply don't know enough. Second Spread: "1" In semiological terms, as we turn the first page, from "0" to "1", all hell breaks loose, but there is order in the chaos. The numeral on the right hand side of the page has changed, but is clearly of a kind with the numeral that preceded...</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2015734716</t>
+          <t>https://openalex.org/W1970323340</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1135/cccc19820570</t>
+          <t>https://doi.org/10.1121/1.2019504</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Strašák &amp; Majer (1982)</t>
+          <t>Kamel &amp; Felsen (1982)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Study of the transition states in the hydroxythallation of alkenes</t>
+          <t>Spectral and hybrid ray‐mode formulations for sound radiation in a weakly range‐dependent ocean</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>The properties of the transition states in the hydroxythallation of alkenes are characterized by means of two mechanistic methods, viz. the structure-reactivity profile method and the internal comparison method. In the case of RCH=CH 2 and R 1 R 2 C=CH 2 alkenes the transition state species is supposed to be a cyclic activated complex possessing a high positive charge localized at the multiply substituted carbon atom, whereas in the case of hydroxythallation of branched internal alkenes an acyclic transition state approaching in nature a carbonium ion is assumed.</t>
+          <t>By a recently developed theory [reported in J. Acoust. Soc. Am. Suppl. 1 70, S3 (1981)], the method of characteristic Green's functions (resolvents) for range-independent ocean environments has been generalized to accommodate weak range dependence of the bottom. The generalization has been made so as to generate the conventional adiabatic mode representation whenever that is applicable, but the new formulation for the radiated sound field is valid everywhere, including those regions where one of the adiabatic modes passes through cutoff. Numerical evaluation of the Green's function integral for a wedge-shaped ocean has shown close agreement with results computed independently by the parabolic equation algorithm. The analysis has now been carried further to explore alternative representations of the general solution in the water and the bottom. These include a plane wave spectral integral, hybrid ray-mode formulations, and asymptotic evaluations that yield transition functions valid through the cutoff region of one of the adiabatic mode fields. One thereby gains detailed insight into the various ray or mode propagation mechanisms that explain the numerical data. Comparisons are made with other procedures which have recently been presented for this class of propagation problems. Generalizations to depth and range dependent water sound speeds are under study. [Work supported by ONR Ocean Acoustics Branch.]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2017402903</t>
+          <t>https://openalex.org/W1973572731</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1029/eo063i015p00233-01</t>
+          <t>https://doi.org/10.1016/0305-4179(82)90003-1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Bell (1982)</t>
+          <t>Mistry et al. (1982)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>How did the Cretaceous world end?</t>
+          <t>Appearance of the sheep red blood cell receptor on burn T-lymphocytes after cold incubation in fetal calf serum—a possible prognostic test</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Factors related to evidence of a major impact on the earth by an extraterrestrial body, at about the time of the close of the Cretaceous period, have been the center of discussion at a number of recent symposia. An example is the one entitled ‘Terminal Cretaceous Extinction: A Comparative Assessment of Causes,’ held at the annual meeting of the American Association for the Advancement of Science, Washington, D.C., in January 1982. Another was simply ‘Terrestrial Impacts and C‐T Extinctions,’ held at the Thirteenth Lunar and Planetary Science Conference, Houston, Tex., March 1982. The possibility that an impact may have caused global‐scale extinctions of terrestrial and marine life was the main reason for organizing the conferences, but the focus that emerged was on the geochemistry and geophysics of the impacts themselves. A possibility is that the impact occurred in an ocean, resulting in some rather major consequences, including oceanic temperature changes of several degrees Centigrade, an earthquake that would rate magnitude 12 on the Richter scale, and a tsunami, initially about 5 km high, that would have traversed the globe, inundating all low‐lying continental areas on the earth within 27 hours.</t>
+          <t>In patients sustaining thermal injury, a longitudinal study was designed to evaluate total T-cells and a subpopulation of active T-cells (T1hr). Additionally, the in vitro effect of overnight incubation at 4°C on the active T1-cells was studied. The preliminary observations were: (1)Within 10 days of thermal injury, a marked depression of total T-cell number occurred which was paralleled with depression in T1-cell number; (2) on follow up, although the total T-cell number showed an increase, it did not reveal any significant alteration in survivors and non survivors. In survivors, there was a gradual return of T1-lymphocyte number to the normal range. Overnight incubation of T1-cells in 10 per cent fetal calf serum at 4°C demonstrated a remarkable increase in survivors only. This observation suggests that incubation of cells at 4°C for 24 hours may help to modify the cell membrane resulting in an increased receptor affinity for sheep red blood cells. Though the exact mechanism remains obscure the above observation might contain some prognostic significance.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2038484430</t>
+          <t>https://openalex.org/W2003113614</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4043/4207-ms</t>
+          <t>https://doi.org/10.1177/073401688200700201</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Matos &amp; Mello (1982)</t>
+          <t>Bennett &amp; Bennett (1982)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Piling of Garoupa Platform</t>
+          <t>Translating Criminological Theory into Action Programs: Theoretical and Political Considerations</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Piling of Garoupa Platform Sergio F.D. de Matos; Sergio F.D. de Matos Petrobras Search for other works by this author on: This Site Google Scholar Jayme Ricardo C. de Mello Jayme Ricardo C. de Mello Petrobras. Search for other works by this author on: This Site Google Scholar Paper presented at the Offshore Technology Conference, Houston, Texas, May 1982. Paper Number: OTC-4207-MS https://doi.org/10.4043/4207-MS Published: May 03 1982 Cite View This Citation Add to Citation Manager Share Icon Share Twitter LinkedIn Get Permissions Search Site Citation de Matos, Sergio F.D., and Jayme Ricardo C. de Mello. "Piling of Garoupa Platform." Paper presented at the Offshore Technology Conference, Houston, Texas, May 1982. doi: https://doi.org/10.4043/4207-MS Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex Search nav search search input Search input auto suggest search filter All ContentAll ProceedingsOffshore Technology ConferenceOTC Offshore Technology Conference Search Advanced Search AbstractFor the development of the first of the oil field in the Campos Basin,l namely Garoupa Field, PETROBRAS ordered a steel jacket type platform. The jacket was installed in May 1980 in a 120m water depth location and foundations consisted of 36 steel pipe piles all skirt type, with an average penetration of 87m.The offshore work was planned based on the previous experience of the installation Contractor and on the available information about environmental and geotechnical conditions at the site. Four piles were pre-installed in the structure in full length inserted in the pile guides and pile sleeve. Remaining piles were built in two sections to ease the offshore handling operations.In some cases, the installation procedures turned out to be meaningless due to unexpected conditions at the site. Environmental conditions happened to be the major limiting factor for the workability of the planned pile driving sequence, because of unexpected high swells and critical clearances for the handling of piles and followers.Unpredicted behavior of superficial calcareous sand resulted in hazards and delays and contingency remedials were necessary. Piles penetrated to 50m depth much easier than foreseen, raising doubts about soil resistance and pile capacity predictions. Pile driving instrumentation provided a better assessment of pile capacities. Much experience was gained from this installation which can be extended to the forthcoming installations in similar areas.IntroductionAfter the transportation from Sao Roque Yard, Ba., to the site, the jacket was launched on May 1st. from M44 barge owned by MICOPERI S.p.A., Milan. This company in joint venture with MONTREAL Engenharia S.A., Rio de Janeiro, had the responsibility to build and install the platform. Figs. I and 2 show the site location and a view of the structure. The jacket was up-ended and positioned by the D/S Pearl Marine over a preinstalled steel template, through which 9 wells had already been drilled.When the jacket touched down it was noticed that the jacket was far off the vertical tolerance. Several tentatives were tried before the jacket was brought into the limits. The behavior of the superficial soils together with the environmental conditions were the main causes of delay for the pile installation. The original schedule was to pile the structure in 32 working days, but it only ended up after 77 working days.This paper describes the main aspects related to the piling of the jacket, outlining the problems faced and solutions undertaken in the field. It also points out potential problems possible to occur when a sandy calcareous formation is present at shallow depths underlaid by a soft soil.BackgroundThe Garoupa platform was designed to stand in 120m water depth and the structure is a steel jacket type platform with eight legs slightly inclined to the vertical (Fig. 2). Jacket dimensions are 56 × 26m at top level and 73 × 54m at base level. Keywords: cementation, installation, calcareous sand, garoupa platform, packer, offshore, upstream oil &amp; gas, limitation, hammer, total time This content is only available via PDF. 1982. Offshore Technology Conference You can access this article if you purchase or spend a download.</t>
+          <t>Criminologists have been unable to successfully translate theory which is intended to orchestrate social change into applied policy programs. This inability is hypothesized to be afunction of two interrelated conditions. First, since effective application of criminological theories requires the identification, specification, and interrelation of causative factors, a valid theory must contain unambiguous causal statements, scope conditions, and calculi. Second, criminological theories are applied in apolitical environment which may or may not allowfor the unfettered change of factors identfied by the theory. Currently, the undeveloped state of criminological theorv and interference by;political interests make successful application almost impossible. This article addresses the problem of theory application in a political environment and presents a strategy for the evaluation and application of criminological theory.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2042130399</t>
+          <t>https://openalex.org/W2011665611</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1365-2125.1982.tb01379.x</t>
+          <t>https://doi.org/10.1353/cwh.1982.0020</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Prescott (1982)</t>
+          <t>Becker (1982)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Assessment of nephrotoxicity.</t>
+          <t>&amp;lt;i&amp;gt;Ulysses S. Grant: Essays and Documents&amp;lt;/i&amp;gt; (review)</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>British Journal of Clinical PharmacologyVolume 13, Issue 3 p. 303-311 Free Access Assessment of nephrotoxicity. LF Prescott, LF PrescottSearch for more papers by this author LF Prescott, LF PrescottSearch for more papers by this author First published: March 1982 https://doi.org/10.1111/j.1365-2125.1982.tb01379.xCitations: 22AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat References ADDIS, T. (1948). Glomerular nephritis. Diagnosis and treatment. New York: Macmillan. Google Scholar BALAZS, T., HATCH, A., ZAWIDZKA, Z. &amp; GRICE, H.C. (1963). Renal tests in toxicity studies on rats. Tox. appl. Pharmac., 5, 661–674. 10.1016/0041-008X(63)90010-3 CASPubMedWeb of Science®Google Scholar BEN-ISHAY, D. (1964). Aminoaciduria induced by salicylates. J. lab. clin. Med., 63, 924–932. CASPubMedWeb of Science®Google Scholar BERG, K.J. (1977). Acute effects of acetylsalicylic acid in patients with chronic renal insufficiency. Eur. J. clin. Pharmac., 11, 111–116. 10.1007/BF00562901 CASPubMedWeb of Science®Google Scholar BROWN, D.M. &amp; HARDY, T.L. (1968). Short-term study of the effect of phenacetin, phenazone and amidopyrine on the rat kidney. Br. J. Pharmac. Chemother., 32, 17–24. 10.1111/j.1476-5381.1968.tb00424.x CASPubMedWeb of Science®Google Scholar BUCHT, G., WAHLIN, A., WENTZEL, T. &amp; WINBLAD, B. (1980). Renal function and morphology in long-term lithium and combined lithium-neuroleptic treatment. Acta med. Scand., 208, 381–385. 10.1111/j.0954-6820.1980.tb01216.x CASPubMedWeb of Science®Google Scholar BURRY, A., CROSS, R. &amp; AXELSEN, R. (1977). Analgesic nephropathy and the renal concentrating mechanism. Pathology Annual, 12, Part 2, 1–31. PubMedGoogle Scholar CHANTLER, C., GARNETT, E.S., PARSONS, V. &amp; VEALL, N. (1969). Glomerular filtration rate measurement in man by the single injection method using: 31Cr-EDTA. Clin. Sci., 37, 169–180. PubMedWeb of Science®Google Scholar COPPEN, A., BISHOP, M.E., BAILEY, J.E., CATTELL, W.R. &amp; PRICE, R.G. (1980). Renal function in lithium and non-lithium treated patients with affective disorders. Acta psychiat. scand., 62, 343–355. 10.1111/j.1600-0447.1980.tb00620.x CASPubMedWeb of Science®Google Scholar CURTIS, J.R. &amp; DONOVAN, B.A. (1979). Assessment of renal concentrating ability. Br. med. J., 1, 304–305. 10.1136/bmj.1.6159.304 CASPubMedWeb of Science®Google Scholar DAVIES, D.F. &amp; SHOCK, N.W. (1950). Age changes in glomerular filtration rate, effective renal plasma flow, and tubular excretory capacity in adult males. J. clin. Invest., 29, 496–507. 10.1172/JCI102286 CASPubMedWeb of Science®Google Scholar DAVIES, D.J. &amp; KENNEDY, A. (1967). The excretion of renal cells following necrosis of the proximal convoluted tubule. Br. J. exp. Path., 48, 45–50. CASPubMedWeb of Science®Google Scholar de WARDENER, H.E. (1956). Vasopressin tannate in oil and the urine concentration test. Lancet, i, 1037–1038. 10.1016/S0140-6736(56)90801-7 Google Scholar DONKER, A.J.M., ARISZ, L., BRENTJENS, J.R.H., VAN DER HEM, G.K. &amp; HOLLEMANS, H.J.G. (1976). The effect of indomethacin on kidney function and plasma renin activity in man. Nephron, 17, 288–296. 10.1159/000180733 CASPubMedWeb of Science®Google Scholar DOSSETOR, J.B. (1966). Creatininemia versus uremia. The relative significance of blood urea nitrogen and serum creatinine concentrations in azotemia. Ann. intern. Med., 65, 1287–1299. 10.7326/0003-4819-65-6-1287 CASPubMedWeb of Science®Google Scholar DUBACH, U.C. &amp; JÖSCH, W. (1967). Urinenzyme nach medikamentoser Nierenreizung durch Salicylat. Schweiz. med. Wschr., 91, 1314–1317. Google Scholar EHRLICH, G.E. &amp; WORTHAM, G.F. (1975). Pseudoproteinuria in tolmetin-treated patients. Clin. Pharmac. Ther., 17, 467–168. 10.1002/cpt1975174467 CASPubMedWeb of Science®Google Scholar FREDRIKSSON, A. (1975). Renal handling of β2-microglobulin in experimental renal disease. Scand. J. clin. lab. Invest., 35, 591–600. 10.3109/00365517509095785 CASPubMedWeb of Science®Google Scholar GALPIN, J.E., SHINABERGER, J.H., STANLEY, T.M., BLUMENKRANTZ, M.J., BAYER, A.S., FREIDMAN, G.S., MONTGOMERIE, J.Z., GUZE, L.B., COBURN, J.W. &amp; GLASSOCK, R.J. (1978). Acute interstitial nephritis due to methicillin. Am. J. Med., 65, 756–765. 10.1016/0002-9343(78)90793-3 CASPubMedWeb of Science®Google Scholar GENT, A.E., TAYLOR, J.F.N. &amp; BROOK, G.C.D. (1968). Effect of frusemide, lactose, and urea on urinary cell loss. Br. med. J., 4, 294–296. 10.1136/bmj.4.5626.294 CASPubMedWeb of Science®Google Scholar GOLDRING, W., CHASIS, H., RANGES, H.A. &amp; SMITH, H.W. (1940). Relations of effective</t>
+          <t>358CIVIL WAR HISTORY dard for such efforts, and one hopes that future editors will select and edit their contributions as carefully. Howard N. Rabinowitz University of New Mexico Ulysses S. Grant: Essays and Documents. Edited by David L. Wilson and John Y. Simon. (Carbondale, Illinois: Southern Illinois University Press, 1981. Pp. xii, 145. $13.95.) The editors of Ulysses S. Grant: Essays and Documents imply that their book affords an outlet for the kinds of articles and documents on Grant appearing in the Newsletter of the Ulysses S. Grant Association until it ceased publication in 1973. Though the articles and documents here would grace a newsletter, they do not clearly merit publication in a book. Neither singly nor collectively do they develop new insights into Grant as a military or political leader. Certainly the first two essays are rather prosaic. In his article, delivered as a paper in 1973, Richard Current argues that Reconstruction was "essentially a continuation of the Civil War" and that Grant, dependent as he was on limited political support and military resources, did about what he could in directing a "Southern Policy." Current calls on scholars to reconsider the role of Grant in Reconstruction, predicting that they would give him much higher marks than he has received in the past. Similarly, E. B. Long, after looking at Grant's "independent" military actions, insists that we are due for "some judicious and fair revisionism" of the stereotypic view of Grant as an inept president. Their calls for rehabilitation , however, have been answered otherwise in recent studies: William McFeely often portrays Grant as an adroit but opportunistic politician who sacrificed the goals of Reconstruction and the Republican party for personal political ambitions; and writing about the retreat from Reconstruction, William Gillette sees Grant as an able tactician who failed to shape a coherent strategy for reconstructing the South. Two essays depict Grant in minor military and diplomatic episodes. Charles Ellington minutely describes Captain Grant's effective command of the Fourth Infantry Regiment in its transit of the Isthmus of Panama in 1852. Biographers of Grant—Lloyd Lewis, for example— have lauded him for his leadership in the isthmian passage, but in less laborious detail. According to Horatio E. Wirtz, Grant was a "diplomat extraordinaire " in 1879 when, on his trip around the world, he conferred with Chinese and Japanese leaders on their conflicting claims over the Ryukyus. He offered, Wirtz asserts, "forthright advice" and acted with "innate tact." Though Grant opened the door to negotiations between the two nations, his diplomacy was not sufficiently "extraordinaire" to lead to a definitive agreement. Appearing in the book are two documents bearing on Grant in the Civil War. One is a journalkept by Quartermaster General Montgomery BOOK REVIEWS359 Meigs on the fighting in 1863 at Orchard Knob, Lookout Mountain, and Missionary Ridge. Published here for the first time, it is similar to Meigs's dispatch to Edwin Stanton that became the standard account of these engagements. Military historians and remnants of Civil War Round Tables may find its description of Grantissuing crucial orders in battle to be of interest. Appropriating nearly half of the book are the reminiscences of Samuel Beckwith, Grant's telegrapher and cipherer. The account was published in the New York Sun in 1913; one may question whether it should have consumed new print. But few biographers of Grant have gone to Beckwith, and he does provide some intimate, though rather bland, sketches of the commander. The editors expect to publish more volumes of this sort. When they do, they might exercise a more careful judgment on the essays and documents deserving a place in Grantiana. Carl M. Becker Wright State University Lost New Orleans. By Mary Cable. (Boston: Houghton Mifflin Company , 1980. Pp. xvi, 235. $21.95.) Architectural history is this book's central theme. Despite the timeless quality of New Orleans, virtually every lot of its real estate has been the site of not one but a succession of structures. Cable's volume deals with notable and less well-known buildings which have fallen before the ravages of swampy terrain, rain and flood, hurricane winds, innumerable fires and, most especially, human wreckers and rebuilders. On most...</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2047891675</t>
+          <t>https://openalex.org/W2016514738</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cwh.1982.0029</t>
+          <t>https://doi.org/10.1097/00006254-198202000-00012</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Johannsen (1982)</t>
+          <t>Pleet et al. (1982)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>&amp;lt;i&amp;gt;The Abraham Lincoln Encyclopedia&amp;lt;/i&amp;gt; (review)</t>
+          <t>Central Nervous System and Facial Defects Associated with Maternal Hyperthermia at Four to Fourteen Weeksʼ Gestation</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>BOOK REVIEWS The Abraham Lincoln Encyclopedia. By Mark E. Neely, Jr. (New York: McGraw-Hill Book Company, 1982. Pp. xii, 356. $45.00.) Over thirty years ago, David C. Mearns observed that of all the thousands of titles in the Lincoln literature, there existed only a "meager handful" of reference books on our sixteenth president. Mearns's statement was occasioned by the publication of Archer H. Shaw's Lincoln Encyclopedia, an ambitious effort to collect and arrange Lincoln's words according to subject in a dictionarylike format. Shaw's work, however, fell short (for reasons Neely details in his preface) and never served as a satisfactory reference work, although it must surely have aided many an after-dinner speaker to locate quickly an appropriate Lincoln quote. Since Shaw's work appeared, there have been other attempts to fill the need—Lincoln dictionaries, anthologies, and the like—but none has met the criteria established by Mearns in 1950, none, that is, until the publication of Mark Neely's Abraham Lincoln Encyclopedia . Mr. Lincoln, to borrow Mearns's phrase, is no longer denied the "comfort and assurance of a cyclopedist." The appearance of Neely's impressive work calls to mind James G. Randall's now rather tired and shopworn reply in 1936 to those who believed that the Lincoln theme was exhausted. Randall's answer is well known. What perhaps is not so well known is Neely's updating of Randall's conclusions in "The Lincoln Theme Since Randall's Call: The Promises and Perils of Professionalism," published in The Papers of the Abraham Lincoln Association in 1979. Randall called upon the professional historian to rescue Lincoln from the heavy hand of the amateur— with the result that professionalism, as Neely points out, became the "major development in the Lincoln field." As his title suggests, however, it was a professionalism fraught with peril as well as with promise. Without delving into the former (interested readers are strongly urged to consult the article), it is sufficient to note that for Neely the future of Lincoln studies lay in developing a new and broader perspective on the man, his ideas, and his achievements. Having traditionally approached Lincoln "from the inside," he suggests, scholars ought now to approach him "from the outside as well," placing Lincoln "properly in American history" and providing comparative standards by which he may be evaluated. To our great good fortune, Neely has followed his own advice. Since 1973 director of the Louis A. Warren Lincoln Library and BOOK REVIEWS173 Museum at Fort Wayne, Indiana, Neely is well qualified for the task. Instead of compiling and arranging Lincoln's own utterances, he has produced a work of research and analysis that is truly encyclopedic in character and dimension. In over three hundred entries, each reflecting the most recent scholarship as well as his own findings, Neely has provided a balanced portrayal of Lincoln's life, times, and legacy. His effort to present a "taste of Lincoln's views" on the events of the time and on the personalities of the individuals with whom he dealt and to offer a "coherent rendering" of Lincoln's changing ideas on the major issues has been remarkably successful. Included are sketches of Lincoln contemporaries ; collectors and biographers (always with the focus on their relationship with Lincoln); and longer, more analytic discussions of Lincoln's thought on such issues as abolitionism, the Constitution, nationalism , the presidency, slavery, and Reconstruction. There are illuminating accounts of Lincoln's personal development—his education, the books he read, his finances, legal practice and physical characteristics, for example—and his involvement in the major events of midnineteenth century America. Although he denies that this is a Civil War encyclopedia, there are insights to be gained into the nature of that conflict and, indeed, into the temperament of America and Americans generally. One neednot agreewith allhis analyses to recognize thevalue of his contribution. The Lincoln that emerges from these pages is a human, sensitive, and humane Lincoln, a child of his time who exhibited all the ambiguities of the nation's formative years, yet one who was capable of rising above the limitations of his own day. He was a man totally...</t>
+          <t>In a previously published retrospective study, the authors stressed the possible teratogenicity of hyperthermia, as opposed to infection, at 4 to 16 weeks' gestation. At the same time, they delineated the similarities in phenotype in exposed offspring, which are dependent upon the timing of exposure to hyperthermia. In the present paper, they expand on the previous study by analyzing 14 additional cases, with emphasis upon the clinical similarites in central nervous system (CNS) dysfunction and facial dysmorphogenesis that arise with exposure after the time of neural tube closure. They correlate these clinical findings with experimental animal studies and explore the implications of the differential effect of the timing of hyperthermic exposure in early gestation. Table 1 presents the clinical findings among the 24 patients for whom hyperthermia could be pinpointed to within a 2-week period. They all fell into the 4− to 14-week period of gestation. In four additional cases, hyperthermic exposure was said to have occurred-either repeatedly or at an indeterminate time during the first trimester of pregnancy. All of the patients showed some form of CNS deficit. Structural abnormalities included microcephaly, microphthalmia, and autopsy evidence of neuronal heterotopias and/or polymicrogyria. Functional deficits included mental deficiency, seizures, micropenis interpreted as secondary to luteinizing hormone deficiency, and therefore a sign of hypothalamic dysfunction, and variable alterations in muscle tone. Five of the 28 patients showed neurogenic contractures, and six patients were reported as being hypotonic, with increased deep tendon reflexes. This hypotonic diplegic pattern, usually associated with a poor neurological prognosis, was more prevalent in the patients exposed after 7 weeks' gestation. Eight of 11 patients exposed at 4 to 7 weeks' gestation showed evidence of facial dysmorphogenesis, including midface hypoplasia, cleft lip and/or palate, micrognathia, and external ear anomalies. Facial dysmorphogenesis was evident in only one of 13 cases exposed after 7 weeks' gestation. All four patients for whom the timing of exposure could not be precisely ascertained within the first trimester showed evidence of midface hypoplasia. In addition, one of these four patients had abnormally small external auditory canals. Other dysmorphic features noted were minor limb abnormalities, including syndactyly (four of 23), one case of polycystic lungs and kidneys, and one case of endocardial cushion defect. The majority of patients showed evidence of postnatal, as opposed to prenatal onset of growth deficiency. In three of the 28 cases, hyperthermia was secondary to prolonged hot tub or sauna bathing. The spectrum of infective etiologies included viral flu-like illnesses, pyelonephritis, laryngotracheobronchitis, and streptococcal pharyngitis. There was no association between the nature of the infectious illness, or medications utilized in treatment of the illness, and the clinical phenotype.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2061900263</t>
+          <t>https://openalex.org/W2024711854</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cwh.1982.0052</t>
+          <t>https://doi.org/10.1306/03b5a19c-16d1-11d7-8645000102c1865d</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Morrison (1982)</t>
+          <t>Shanmugam &amp; Moiola (1982)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Victims, A True Story of the Civil War&lt;/i&gt; (review)</t>
+          <t>Eustatic Control of Deep-Sea Reservoir Facies: ABSTRACT</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>90CIVIL WAR HISTORY it inflicted upon its foe. Bragg's army was still at large and, indeed, would sting Rosecrans once more at Chickamauga and end his career. The greatest significance of Stones River, then, was simply that "the Federal army had prevented a Confederate victory at a time when the Union cause could hardly stand another defeat." And that alone was enough. Confederate morale in Tennessee took a deep dive, a direction vastly enhanced by thewar thatBraggpromptly began to wage upon his own generals. Within the high command of the Army of Tennessee, the repercussions of Stones River were heard for more than a year after the guns stopped. It began the demoralization and disintegration of a great army from within and gave a loss-weary Lincoln a New Year's win in what would be a year of victories, 1863. William C. Davis Civil War Times Illustrated Victims, A True Story of the CivilWar. ByPhillip S. Paludan. (Knoxville: University of Tennessee Press, 1981. Pp. xvi, 144. $11.95.) Phillip Paludan has combined the findings of the social sciences with an exercise in la petite histoire to create an intriguing study. From his base point, the massacre of thirteen Unionist mountaineers atShelton Laurel, North Carolina, the author expands the investigation to embrace larger issues, such as the impact of the Civil War on small communities, the causation and characteristics of guerrilla warfare, and the forces underlying human perversity. Faced with a scarcity of primary material, Paludan turns to anthropology, sociology, and psychology, together with a frank appeal to the emotions, in seeking to explain why the atrocity occurred and what were its long-range effects. Although borrowing ideas from the social sciences, the author shuns their arcane jargon, writing instead in a lucid, forceful style which gives Victims the flavor of a fast-paced historical drama. However, Paludan educates as well as entertains. For example, he clarifies the complex nuances of southern Appalachian society and pohtics and sheds new light on Civil War guerrilla operations. Moreover, several minor errors notwithstanding, the author provides thoughtful insights into the characters of his protagonists, killers and victims alike. Yet this imaginative approach provokes doubts, questions inherent in any attempt to employ the techniques of the "New History," but particularly acute in this instance because of the lack of substantiating evidence. How reliably can the generalizations of modern social scientists depict the psyche of a lone, long-dead mountaineer? To what extent can the hving generations of a clan, no matter how "intertwined with the land" they might be, speak for ancestors who never watched television or rodein a pick-up truck? How precisely do the emotions ofa soldier raised on "Howdy Doodie" and Dr. Spock, fighting hah0 a world book reviews91 away from home, match those of a nineteenth-century partisan out to kill his neighbor with a Harper's Ferry musket? Suchreservations do not necessarily invalidate, but they do enjoin caution. This is not to suggest thatPaludan is disingenuous. On the contrary, he forthrightly discloses his aim and methodology atthe outset. Nor is there reason to suspect that more conventional sources, had they been available , would have contradicted his interpretations. Victims probably is a "true story." The question is whether it is true in the Thucydidean or Rankean sense. Whichever the case, this book deserves careful study by every serious American historian. James L. Morrison, Jr. York College of Pennsylvania Appomattox Commander: The Story of General E. O. C. Ord. By Bernarr Cresap. (San Diego and New York: A. S. Barnes &amp; Co., 1981. Pp. xii, 418. $15.00.) According to Bernarr Cresap, West Pointer Edward Otho Cresap Ord was an "inventive and resourceful" troop commander—an Indianfighting subaltern in Florida, a general in the Civil War, a general and director of Indian-fighting along theTexas-Mexican border in the 1870s. He retired from the army in 1880. Theauthor carefully detailsOrd'swar service, but it is obvious that the general held no significant positions until 1864. In 1861, Ord was forty-three years old and a captain serving on the Pacific coast. Cresap points out that Ord pulled strings in the Adjutant General's Office to gain his promotion to brigadier general of...</t>
+          <t>Global changes in sea level, primarily the results of tectonism and glaciation, control deep-sea sedimentation. During periods of low sea level the frequency of turbidity currents is greatly increased. Episodes of low sea level also cause vigorous bottom currents (i.e., contour currents) which winnow away the fine-grained material of turbidites. In the rock record, the occurrence of most Figure turbidites and winnowed turbidites closely corresponds to lowstands of paleo-sea level. For example, plotting of all known winnowed turbidites on the global sea level curve indicates that 19 of 20 examples fall on or near lowstands. An important exploration attribute of these observations is the possibility of predicting the occurrence of potential deep-sea reservoir facies in the geologic record by using seismic data in conjunction with information on global sea-level changes, basin geometry, and paleo-oceanography. End_of_Article - Last_Page 629------------</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2070315461</t>
+          <t>https://openalex.org/W2035740082</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/03b5a9bc-16d1-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1378/chest.82.4.512</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Pryor (1982)</t>
+          <t>Olivier (1982)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Shales--Their Sedimentology and Geology: ABSTRACT</t>
+          <t>Tetracycline Pleurodesis for Refractory Pneumothorax among Inoperable Elderly Surgical Candidates</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Shale and mud form at least 60% of the world's sediments and have been deposited throughout geologic history. They occur in every major depositional basin. They are major source beds for hydrocarbons, hosts for metallic minerals, sources of ceramic materials, cause unstable foundation conditions, and produce soils for our food. Yet the study of shales has lagged far behind that of other sedimentary rocks. However, the following general observations can be made about these important rocks. More studies have been made of recent muds than of ancient shales. Clay mineralogy, geochemistry, and paleontology of muds and shales are better understood than their stratigraphy, petrology, and sedimentology. Most shales occur in marine sequences and are associated with deltaic depocenters. They are more commonly geosynclinal than cratonic, and are most commonly deposited in deep water as distal turbidites and pelagic muds. Cratonic shales occur as widespread, thin sheets distal from their source land. Sedimentology Most muds are transported in suspension and are commonly deposited as aggregates of floccule or fecal pellet origin. Floccule formation is sensitive to water chemistry--salinity, organic compounds, and turbulence. Mud aggregates are commonly deposited under higher hydraulic energy conditions than previously assumed for muds. Size analyses for mud and shales are generally useless for interpretation of depositional hydraulics. Vertical variations in bedding properties, texture, color, organic content, mineral composition, fossil content, and bioturbation are the most useful parameters for the deduction of depositional environments of shales and muds. These, integrated with basin geometry, hold the most promise for future studies. Stratigraphy Shales almost always have an internal stratigraphy that is well-expressed on wire-line geophysical well logs. Thin beds of high or low density, different lithologies and organic content, and fossil zones or concretions within shale sequences are commonly widespread and are good markers for internal stratigraphy. Most shales have a clinoform internal stratigraphy that can be related to basin geometry and can be observed in seismic profiles. Diagenesis Muds compact more than other sediments and hence expel more fluids. Pore water chemistry, mineralogy, thickness, and density all change as pore water is expelled. Water expulsion concentrates hydrocarbons and metals in interbedded porous reservoirs. Seismic response, heat flow, and our perception of original shape of shale bodies all change with burial compaction. Tectonics The concept of lutokenesis--mud makes its own tectonics--applies. Where deposition has been rapid, buried shales are overpressured and undercompacted. Undercompacted shales can form diapiric structures. Shales thin over rising structures and thicken into synclines and subsiding basins. In large-scale overthrusts, bedding-plane faults form fold trains; shear and flow occur mostly in shale units. Source Beds Shales are major source beds of hydrocarbons. Total organic content is sensitive to the original circulation in the basin, biogenic productivity, and influx of fine terrigenous and carbonate muds--a dilution factor. Preservation of organic matter is best in muddy basins because density stratification inhibits vertical mixing and oxidation--rapid burial inhibits biodegradation. Best indicators of thermal history of shaly basins are kerogen, conodonts, vitrain, and clay minerals. Relating Sedimentology of Shales to Resources Establish internal stratigraphy and facies distribution. Relate every resource variable to internal stratigraphy, and make an isopach map and relate facies distribution of basin. For gas, relate primary and secondary porosity (fracturing and permeability) to maturation, facies, and internal stratigraphy. For oil, correlate kerogen content to internal stratigraphy and maturation. For uranium, correlate kerogen to internal stratigraphy. End_of_Article - Last_Page 1682------------</t>
+          <t>To the Editor: The recent articles by Macoviak et al1Macoviak MA Stephenson LW Ochs R Edmunds HE Tetracycline pleurodesis during active pulmonary-pleural air leak for prevention of recurrent pneumothorax.Chest. 1982; 81: 78-81Abstract Full Text Full Text PDF PubMed Scopus (38) Google Scholar and Goldszer et al2Goldszer R Bennett J Van Campen J Rudnitzky J Intrapleural tetracycline for spontaneous pneumothorax.JAMA. 1979; 241: 724-725Crossref PubMed Scopus (34) Google Scholar prompted a review of my own cases of recalcitrant or recurrent pneumothorax that underwent intrapleural tetracycline instillation. The review encompasses four men who, for preexisting severe cardiopulmonary and other debilitating conditions, were not surgical candidates. These individuals were initially managed by intercostal drainage for seven to ten days. They were addressed to the potential benefit derived with tetracycline (TCN) when used for malignant pleural effusions, and the use of the Heimlich valve attached to the shortened chest tube. All patients chose tetracycline even though it was clearly explained that: 1) its use is occasionally associated with severe, transient pleuritic pain, and mild temperature elevation, and 2) its success or failure rate remains untested by any known human studies. The patients defined as inoperable were exemplified by: 1) a 78-year-old man with bilateral bullous emphysema, congestive heart failure, gastric bleeding ulcer, postoperative pneumonia, cystitis, fungemia, and septicemia; 2) a 73-year-old emphysematous man with an undifferentiated carcinoma of the left mainstem bronchus (almost completely obstructed), and a left pleural effusion (600 ml); 3) a 69-year-old man with severe emphysema and generalized pulmonary congestion; and 4) a 72-year-old man with a right upper lobe mass confluent with the right mediastinum and mid-trachea, acute tracheal obstruction (5 mm lumen), bilateral wheezings, right vocal cord paralysis, and past history of inferior myocardial infarct, coronary bypass and abdominal aortic aneurysmectomy. All presented between June, 1981 and March, 1982 with symptomatic and refractory pneumothorax (&gt;40 percent) unresponsive to intercostal drainage of seven to ten days duration. All except patient 4 had resolution of their pneumothoraces after intrapleural tetracycline; one patient needed repeated instillation with one day interval for complete control. With experience obtained among patients with malignant pleural effusions, powdered tetracycline (500 mg) is dissolved in normal saline solution (30 ml) and 1 percent lidocaine (5 ml); the mixed solution is instilled in the chest tube, and allowed to gravitate to the chest cavity. Concomitantly, the patient is sedated with intravenous nubain or morphine (2-5 mg) for better tolerance of the procedure and the positional changes needed for the subsequent two-four hours. Within 24 hours of administration, the patients (except one) displayed no air leaks of pneumothoraces, and the chest tubes were removed. Tetracycline pleurodesis for active, recurrent pneumothorax clearly falls in the armamentarium of therapeutic measures available, and affords minimal side effects and risks when compared with other sclerosing agents (talc,3Youmans Jr, CR Williams RD McMinn MR Derrick JR Surgical management of spontaneous pneumothorax by bleb ligation and pleural dry sponge abrasion.Am J Surg. 1970; 120: 644-648Abstract Full Text PDF PubMed Scopus (41) Google Scholar quinacrine,4Borda I Krant M Convulsions following intrapleural administration of quinacrine hydrochloride.JAMA. 1967; 210: 1049-1050Crossref Scopus (18) Google Scholar, 5Engel GL Quinacrine effects on the central nervous system.JAMA. 1966; 197: 515Crossref PubMed Scopus (10) Google Scholar kaolin6Joynt CH Laird RC Treatment of spontaneous pneumothorax with kaolin.Chest. 1958; 34: 514-520Scopus (7) Google Scholar), surgical pleurodesis, or the Heimlich valve. Moreover, because of its success among inoperable elderly candidates, the intrapleural use of tetracycline should be projected among the youth appearing with recurrent spontaneous pneumothorax. Failing such a course, the surgeon may then opt for surgical abrasion or pleurectomy. What Dr. Macoviak and his group have demonstrated experimentally has been clinically produced in the human arena among a selected group of patients known to be inoperable. Yet, I must still caution that in patients with massive ruptured bleb (s) or bulla (e), single or multiple tetracycline instillations may not effectively control such active air leak. One should resort to continuous intrapleural drainage or to a Heimlich valve as in patient 4.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2107580252</t>
+          <t>https://openalex.org/W2054031286</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/10429-ms</t>
+          <t>https://doi.org/10.1378/chest.82.6.662</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Cheng (1982)</t>
+          <t>Irwin &amp; Pratter (1982)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>How to Prolong Service Life of Heavy Wall Drill Pipe</t>
+          <t>Treatment of cough</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Abstract Heavy wall drill pipe has found increasing use for weight on the bit in directional holes and smaller vertical holes and as a transition member to reduce damage in the drill pipe run near the drill collars. In these severe applications, proper use, inspection and maintenance is essential. Heavy wall drill pipe should be run in a property tapered drill string above the correct size drill collars. Proper breaker in procedures and make up torque should be used. Periodic inspection and maintenance, using the correct procedures, is essential. Hardbanding will help prevent wear on the tool joints and center upset and should be repaired using the correct procedures when it wears down. Finally, accurate records should be kept of heavy wall drill pipe service and maintenance. Application of these recommendations will greatly extend the useful service life of heavy wall drill pipe and reduce overall drilling costs. Heavy wall drill pipe has found increasing use as a key member in the drill string. In directional holes and smaller vertical holes, heavy wall drill pipe can supply much of the desired weight on bit. Heavy wall drill pipe has also found successful use as a transition member, designed to reduce damage in the drill pipe run near the drill collars. By the nature of its use, either as weight for the bit or as a transition pipe, heavy wall drill pipe receives some of the most severe services of any drill stem member. As will occur with any drill stem member, severe service can adversely affect its useful life. But its usefulness can be greatly extended by proper use, inspection, and maintenance. How Heavy Wall Drill Pipe is Used When heavy wall drill pipe is used for weight in directional holes, the typical assembly consists of four to six stabilized drill collars, 30 to 70 joints of heavy wall drill pipe, followed by conventional drill pipe to the surface. Usually in a directional well, the slope of the hole and the weight of the thick walled pipe causes it to lie on the low side of the hole which prevents it from buckling when run in compression. When used for weight in vertical holes, the heavy wall tube loses the support afforded by the slope and hole curvature. In large diameter vertical holes, buckling and fatigue can occur if excessive weights andhigh RPM's are employed. Field experience has shown that the effect of weight and rotary speed is negligible when the hole size is no larger than the tool joint outside diameter plus four inches Figure 1. For example 4½″ heavy wall drill pipe with a 6¼″ OD tool joint should not be used for weight in vertical holes larger than 10¼″ (6¼″ OD + 4″ = 10¼″)∙ To do so invites possible fatigue damage to the thick wall tube. Heavy wall drill pipe can also be run as a transition member to reduce drill pipe damage. When used in this manner, the heavy wall drill pipe is run in tension and replaces the standard drill pipe in the critical cross-over area from drill collars to drill pipe. Experience indicates that 15 to 21 joints of heavy wall drill pipe will greatly reduce fatigue failures in this transition zone. Improving the Design of the Drill Stem Tapering the drill string to avoid sudden changes in stiffness between various sections can increase the fatigue life of all members. Use of the theory of bending strength ratios (Section Modulus or 1/C, where I is the Moment of Inertia and C is the external radius of the tube) between the various sections of the drill collars and drill pipe, has helped to extend the fatigue life of all members. Field experience has shown that, by setting a limit of 5.5 ratio, the failure rate in the crossover areas can be greatly reduced. In larger hole sizes and in severe drilling conditions, a further reduction of this ratio to 3.5 is often necessary to adequately reduce the frequency of failures. Figure 2 is a graphic representation of data to provide a quick reference for sizing the top stand of drill collars to run below various sizes of heavy wall drill pipe. When larger drill collars are required, at least one stand (three drill collars) of the "suggested upper limit size" should be run between the heavy wall drill pipe and the larger drill collars. Tapered drill collar strings are being used with greater frequency in hole sizes of 9-⅞ and larger, because the larger diameter collars are required on bottom for efficient drilling. Any idealized design using bending strength ratios would require too many different sizes for practical application. When a tapered drill collar string is used, collars are usually limited to two or three sizes because of the time required to change handling tools for each size. Expereience indicates that reduction in size should never exceed 2″ in diameter between sections, and that at least one stand (three joints) of the smaller diameter drill collar should be used at each crossover point. These limitations are especially critical when using drill collars 9″ in diameter or larger. Use of stress reli</t>
+          <t>The treatment of cough can be characterized as confusing and haphazard when it is directed at the symptom rather than at the underlying disease or mechanism. We believe that this characterization is a result of four major factors: 1) there is a large number of different disease entities which may cause cough; 2) the pathophysiologic mechanism of cough is often different depending upon the specific etiology involved; 3) a bewildering array of medications are currently available that make the choice of the appropriate therapeutic agent difficult; and 4) scores of subjective, poorly controlled studies have made inappropriate and/or conflicting conclusions about the usefulness of several drugs. We believe that the treatment of cough does not have to be confusing or haphazard and will present our reasons by posing and answering four questions. Cough can be treated specifically, symptomatically, or if it is acute, self-limited and not troublesome, it can be ignored. Specific treatment is directed either at the specific etiology or the operant pathophysiologic mechanism responsible for cough. Symptomatic or nonspecific treatment is directed at the symptom rather than the underlying etiology or mechanism and includes drugs that may ameliorate cough by antitussive, expectorant or mucolytic actions. It is a generally accepted concept in medicine that the optimal approach to the treatment of any symptom (such as cough) is first to determine, if possible, the specific etiology and the operant pathophysiologic mechanism responsible for the symptom. Theoretically, specific therapy directed at either eliminating the etiologic agent or counteracting the pathophysiologic mechanism should be the optimal way of eliminating the symptom. Since extensive and often conflicting reports had accumulated on symptomatic cough therapy and since there was a paucity of data on the success rate of specific therapy, we prospectively evaluated 49 consecutive and unselected adult patients with chronic persistent cough of at least three weeks’duration to determine the outcome of specific therapy.1Irwin RS Corrao WM Pratter MR. Chronic persistent cough in the adult: the spectrum and frequency of causes and successful outcome of specific therapy..Am Rev Respir Dis. 1981; 123: 413-417PubMed Google Scholar Utilizing a diagnostic protocol based upon the anatomy and distribution of cough receptors and afferent nerves, the cause of cough was consistently determined and the outcome of specific therapy, almost without exception, was successful and sustained. The specific therapy for cough depended upon its etiology or mechanism: 1) asthma was treated with a bronchodilator alone or with corticosteroid; 2) postnasal drip due to sinusitis was treated with an antibiotic, oxymetazoline hydrochloride nasal spray, and an antihistamine-decongestant combination; 3) postnasal drip due to allergic or perennial nonallergic rhinitis was treated with avoidance of environmental precipitating factor(s) and an antihistamine-decongestant combination; gastroesophageal reflux was treated with bed elevation, diet modification, antacids and cimetidine; chronic bronchitis was treated solely with cessation of cigarette smoking, sarcoidosis with corticosteroids, and congestive heart failure with digoxin and furosemide. Symptomatic treatment (codeine) was given to only one patient, a woman with breast carcinoma metastatic to lung and refractory to chemotherapy. In a recent retrospective study of 109 patients with chronic persistent cough, Poe et al2Poe RH Israel RH Utell MJ Hall WJ Chronic cough: Bronchoscopy or pulmonary function testing?.Am Rev Respir Dis. 1982; 126: 160-162PubMed Google Scholar also demonstrated that a specific etiology for cough could almost always be determined and that specific therapy was almost always successful. From these studies we conclude that specific treatment is optimal treatment and that there is no more than a limited role for symptomatic therapy in the treatment of chronic persistent cough in the adult. Although a similar study of chronic persistent cough in children has not been reported, we predict the same conclusions. The key to choosing successful specific therapy is to determine precisely the cause or mechanism of cough and that can be consistently done.1Irwin RS Corrao WM Pratter MR. Chronic persistent cough in the adult: the spectrum and frequency of causes and successful outcome of specific therapy..Am Rev Respir Dis. 1981; 123: 413-417PubMed Google Scholar Few prospective studies have been reported on this problem. However, in this issue, Kuhn et al (see page 713) have clearly defined the role of large doses of the commonly used expectorant, guaifenesin (previously named glyceryl guaiacolate) in the treatment of the cough due to the common cold. There is none. Unlike numerous other studies on the symptomatic treatment of cough, their study cannot be criticized for not being clinically applicable or subjective.3Irwin RS Rosen MJ Cou</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2112865879</t>
+          <t>https://openalex.org/W2055366922</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/chq.0.0565</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Gálvez &amp; Molina (1982)</t>
+          <t>Billman (1982)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Análisis de curvas corriente-potencial en un mecanismo ece consecutivo</t>
+          <t>&lt;i&gt;Sesame Street&lt;/i&gt; Lives!</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>The dc polarographic response for a ECE mechanism with Nernsstian behavior is examined. Equations for the current-potential curves have been deduced which are valid for an electrode expanding in accordance with any power law. Thus, the expressions obtained for a stationary plane electrode or a dme are particular cases of this general solution. It is shown that the analysis of the current-potential curves allows the determination of the rate constants of the chemical reaction when all species are in the solution. In turn, the E r 1/2,1 (i = 1,2) values can be also obtained if the current-potential curves show two waves well defined.</t>
+          <t>Sesame Street Lives! Carol Billman (bio) Though I doubt that anyone will question my title's assertion, a few corroborating facts might be welcome. Sesame Street, the program itself, has been on the public broadcasting airways for over twelve years—the first broadcast was during morning prime time in November 1969—and has as well been aired internationally, thanks to the powerful Communication Satellite Corporation (COMSAT). (I shall say more later about the Latin American variant, Plaza Sesamo.) At home, sure evidence of a show's success is its ability to reproduce: Sesame Street has spawned The Muppet Show and such specials as John Denver and the Muppets, shown this past Christmas season. These spinoffs suggest that Sesame Street has crossed not only national but generational lines, as do cartoons about the show that have appeared in magazines like The New Yorker and Saturday Review. Muppetmania has captured the wide screen as well as the small one. There is a Sesame Street Magazine. And like the Disney characters and the Ice Capades, the plush muppets created by Jim Henson and his associates are a traveling show that plays to audiences in civic arenas around the country. That they are an entrenched part of American "kid culture" can be verified by your own tour through any department store or chain retailer: toys, clothing, lunch boxes and other school paraphernalia that "quote" the show abound. Indeed, we literally consume the program. I have come across, without really looking, two local bakeries in Pittsburgh (one literally in the competition's—Mister Roger's—neighborhood) featuring elaborate Cookie Monster cakes. Reviews, articles, dissertations, and books galore have discussed the program over the past decade, and almost any writing on the broader subject of children's television includes the obligatory comparison with Sesame Street.1 Q.E.D., Sesame Street is more than popular. It has become a staple in our cultural heritage. Big Bird and Oscar the Grouch have a place in our common mythology, alongside Peter Pan and Tinkerbell, Alice and the White Rabbit, Dorothy and the Wonderful Wizard. The obvious question, in light of the show's attractiveness to critics as well as kids, is: what is left to say or do in yet another essay about Sesame Street? I have found three justifications for writing this essay and will spell them out, to suggest what you might expect to learn from what follows. First, because of the number of studies that have been conducted and described, it is useful to have a synthesis of the critics' reviews, and—more tellingly—of what aspects of the show they have attended to. Second, Sesame Street has changed over the years, and it is worth noting how the 1982 version compares with offerings of ten years ago. Third, and for me this is the crucial reason to revisit Sesame Street, serious analysis of television is only now beginning, and it behooves those of us interested in media and children to consider what theorists and scholars of television, using concepts and methodologies borrowed from such disciplines as linguistics, history and anthropology, psychology, art history, and literary theory, have said that can help us better understand the form and content of Sesame Street. No television program has been more thoroughly planned, researched, developed, and evaluated than Sesame Street. In Children and Television: Lessons from Sesame Street,2 the original Educational Director for the show, Gerald Lesser, chronicles the project from its inception when the Office of Education, the Corporation for Public Broadcasting, and several private foundations provided the original funds on March 15, 1968. He reports on the vast array of planning sessions held by the Children's Television Workshop as academics from Harvard and elsewhere, television professionals, and researchers at the Educational Testing Service honed the goals and strategies of the show. The emerging aims were elaborations of those Joan Ganz Cooney had summed up succinctly in her proposal for funding the Sesame Street project: "to promote the intellectual and cultural growth of preschoolers, particularly disadvantaged preschoolers."3 Most assessments of the program that has now become an institution have focussed on the approaches taken by Sesame Street's creators to teach basic intellectual skills...</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2130966773</t>
+          <t>https://openalex.org/W2061900263</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0002-7138(09)60954-7</t>
+          <t>https://doi.org/10.1353/cwh.1982.0052</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Green (1982)</t>
+          <t>Morrison (1982)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Mothers, Grandmothers, and Daughters. Personality and Children in Three-Generational Families</t>
+          <t>&lt;i&gt;Victims, A True Story of the Civil War&lt;/i&gt; (review)</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>South Asian (SA), including Asian Indian and Pakistani Americans, have a high burden of cardiometabolic risk factors and low levels of physical activity (PA). Increasing PA in the U.S. population is a national priority; however, SA American women and girls experience unique barriers to PA that are not addressed by current promotion efforts. To address this gap, our community-based participatory research partnership developed the South Asians Active Together (SAATH) intervention. This study is a two-arm randomized clinical trial to evaluate the effects, mediators, and implementation of the 18-week SAATH intervention. A total of 160 mother-daughter dyads will be randomized in a 1:1 ratio to the SAATH intervention and control groups. The intervention was designed for mother-daughter dyads and targets individual, interpersonal, and family levels through (1) group exercise classes, (2) mother-daughter discussions, and (3) peer group discussions. The intervention targets the environment level through community partner meetings aimed at creating environment changes to enhance PA opportunities for SA women and girls. The control group will receive PA education materials. We hypothesize that dyads who receive the intervention will have significantly greater increases in moderate- and vigorous-intensity PA (MVPA) from baseline to 4 months, compared to the control group. MVPA will be measured at 12 months in intervention participants to examine if changes are sustained. A process evaluation will use the reach, effectiveness, adoption, implementation, and maintenance (RE-AIM) framework. This study will fill knowledge gaps about the effectiveness and implementation of culturally adapted, community-based PA interventions for SA women and girls.</t>
+          <t>90CIVIL WAR HISTORY it inflicted upon its foe. Bragg's army was still at large and, indeed, would sting Rosecrans once more at Chickamauga and end his career. The greatest significance of Stones River, then, was simply that "the Federal army had prevented a Confederate victory at a time when the Union cause could hardly stand another defeat." And that alone was enough. Confederate morale in Tennessee took a deep dive, a direction vastly enhanced by thewar thatBraggpromptly began to wage upon his own generals. Within the high command of the Army of Tennessee, the repercussions of Stones River were heard for more than a year after the guns stopped. It began the demoralization and disintegration of a great army from within and gave a loss-weary Lincoln a New Year's win in what would be a year of victories, 1863. William C. Davis Civil War Times Illustrated Victims, A True Story of the CivilWar. ByPhillip S. Paludan. (Knoxville: University of Tennessee Press, 1981. Pp. xvi, 144. $11.95.) Phillip Paludan has combined the findings of the social sciences with an exercise in la petite histoire to create an intriguing study. From his base point, the massacre of thirteen Unionist mountaineers atShelton Laurel, North Carolina, the author expands the investigation to embrace larger issues, such as the impact of the Civil War on small communities, the causation and characteristics of guerrilla warfare, and the forces underlying human perversity. Faced with a scarcity of primary material, Paludan turns to anthropology, sociology, and psychology, together with a frank appeal to the emotions, in seeking to explain why the atrocity occurred and what were its long-range effects. Although borrowing ideas from the social sciences, the author shuns their arcane jargon, writing instead in a lucid, forceful style which gives Victims the flavor of a fast-paced historical drama. However, Paludan educates as well as entertains. For example, he clarifies the complex nuances of southern Appalachian society and pohtics and sheds new light on Civil War guerrilla operations. Moreover, several minor errors notwithstanding, the author provides thoughtful insights into the characters of his protagonists, killers and victims alike. Yet this imaginative approach provokes doubts, questions inherent in any attempt to employ the techniques of the "New History," but particularly acute in this instance because of the lack of substantiating evidence. How reliably can the generalizations of modern social scientists depict the psyche of a lone, long-dead mountaineer? To what extent can the hving generations of a clan, no matter how "intertwined with the land" they might be, speak for ancestors who never watched television or rodein a pick-up truck? How precisely do the emotions ofa soldier raised on "Howdy Doodie" and Dr. Spock, fighting hah0 a world book reviews91 away from home, match those of a nineteenth-century partisan out to kill his neighbor with a Harper's Ferry musket? Suchreservations do not necessarily invalidate, but they do enjoin caution. This is not to suggest thatPaludan is disingenuous. On the contrary, he forthrightly discloses his aim and methodology atthe outset. Nor is there reason to suspect that more conventional sources, had they been available , would have contradicted his interpretations. Victims probably is a "true story." The question is whether it is true in the Thucydidean or Rankean sense. Whichever the case, this book deserves careful study by every serious American historian. James L. Morrison, Jr. York College of Pennsylvania Appomattox Commander: The Story of General E. O. C. Ord. By Bernarr Cresap. (San Diego and New York: A. S. Barnes &amp; Co., 1981. Pp. xii, 418. $15.00.) According to Bernarr Cresap, West Pointer Edward Otho Cresap Ord was an "inventive and resourceful" troop commander—an Indianfighting subaltern in Florida, a general in the Civil War, a general and director of Indian-fighting along theTexas-Mexican border in the 1870s. He retired from the army in 1880. Theauthor carefully detailsOrd'swar service, but it is obvious that the general held no significant positions until 1864. In 1861, Ord was forty-three years old and a captain serving on the Pacific coast. Cresap points out that Ord pulled strings in the Adjutant General's Office to gain his promotion to brigadier general of...</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://openalex.org/W215387581</t>
+          <t>https://openalex.org/W2070114816</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/oceans.1982.1151892</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Choo &amp; Im (1982)</t>
+          <t>Laevastu et al. (1982)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>A Study on Modern Changes in European Clothing - with an emphasis on the effect of industrial revolution -</t>
+          <t>Evaluation, harvesting and management of fluctuating stocks</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Investigation for industrial revolution has been recognized as an important issue of historical science, since industrial revolution itself was a historical moment in modern economic society and in the forming of modern capitalistic culture. If clothing culture had been developed in close relation to social culture. industrial revolution which gave a base for modern capitalistic culture, would be a birth of modern clothing as well as a moment for modernization of western clothing. As it takes for granted that industrial revolution, historical phenomenon is a developmental base of modern clothing culture. This study tried to enlighten the origin of modern clothing culture phenomenon with investigation of industrial revolution as a historical moment in modern clothing culture through documental study. Historian's point of view and method of studying are important when we investigate the clothing phenomenon. Although culture phenomenon of industrial revolution has been evaluated usually through socialogical aspect, studying for clothing culture phenomenon must be carried out on aethetical as well as well as sociological aspect, on account of dualism of clothing, as it is social and artistic nature. In 19th century, there were technical improvement, changing patterns of production, changing social relation and beginning of mass culture. At the same time clothing culture phenomenon was changed in relation to modern capitalistic society. The findings of the study could be summarized as follows. 1. Technical improvement in textile industry and fitting process brought about mechanization of clothing industry. 2. Appearance of popular clothing culture made it easy to spread to various classes of society. 3. Development of transportation system and communication channel made it internationalization of western clothing. 4. Recognition of importance in functional style of clothing. 5. The pursuit of modern aesthetics made rapid changing mode of clothing. Above distinctive features of modern clothing culture were derived from by-product of machinary culture, mass culture, internationalism, rapidly changing mode of various culture during industrial revolution. Industrial revolution was a change of the material world as well as in industry owing to machine advent, then the culture part that displayed directly these changes was the plastic arts of living that mould the material. The problem of clothing construction caused by industrial revolution was solved by pursuing the functional aesthetics. Clothing phenomenon as a process of value transfer participates mass culture in closs relation to general change of various culture caused by industrial revolution. Therefore western clothing gained the qualities of modern culture, condensed as function, and popularity in the process of modernization.</t>
+          <t>Empirical data show that fish stocks fluctuate considerably and also sustain changes over periods of decades without a commercial fishery. These fluctuations are affected by environmental anomalies and by a fishery. Single-species population dynamics approaches and maximum sustainable yield (MSY) concepts are no longer sufficient for evaluation and management of fishery resources; holistic ecosystem simulations are coming into use. The "natural" fluctuations of the stock biomasses have periods of 4 to 7 years and magnitudes of 35% to 80% of equilibrium biomasses. To cope with such fluctuations, stocks should be managed on an annual basis. Increased efforts and accuracy of resource surveys are also required. The main technological problems of fisheries caused by fluctuating stocks are: 1) increased flexibility in fishing fleets (multipurpose vessels and gear); 2) flexibility in processing and marketing; and 3) more effective utilization of discards (bycatch).</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2326647762</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2534/jjasnaoe1968.1982.115</t>
+          <t>https://openalex.org/W2214464340</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Iitaka (1982)</t>
+          <t>Berdugo et al. (1982)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Fundamental Research of the Dynamics and the Control of an Unmanned Submersible for Underwater Exploration</t>
+          <t>[Nuclear magnetic resonance. Applications to medicine and biology (author's transl)].</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>In the previous paper, the methodology of the evaluation on the design of submersible was proposed based on the optimal control theory. Two sets of control system of longitudinal motion were introduced, which were composed of evaluation index of the optimal control, state equations and output equations. The relationship between the systems structures and 15 design parameters clarified.In this paper, the relation between the control performance of the longitudinal motion and the design parameters is derived and systematized. The relation is obtained from the numerical analysis of the longitudinal motion due to a series of step change of the sea current using optimal control law. The time constant which characterises late response behavior of the control systems is selected to be O. 1 of the mean interval for the sea current change.The following results are clarified by means of systematized relationship : (1) The performance of the control systems is sufficient for the mission of the underwater exploration if the submersible is designed within the proposed design range. Hence, the quality of the control system can be decided by the product of the evaluation index and the weighted factor.(2) The larger slenderness ratio of the body and geometric aspect ratio are, or the smaller tail fin width, time constant of propulsion apparatus and representative length are, the higher the control performance of surging motion is.(3) On the design point of standard model, the sensitivity of the control performance of surging motion to the design parameters is higher in the order, (1) representative length (mass), (2) slenderness ratio of the body, (3) time constant of propulsion apparatus, etc.Moreover, the similar results can be obtained in the case of the motion containing both heaving and pitching motion.It is concluded that the fundumental design of the control system to the longitudinal motion of the submersible, can be established by the usage of the systematized relationship between the control performance and design parameters.</t>
+          <t>Nuclear magnetic resonance (NMR) is a non-invasive exploratory technique based on a principle radically different from those of radiography, radionuclide exploration and ultrasonography. Signals coming from atomic nuclei and reflecting their density and chemical/biochemical environment are collected, thus providing information of the physiological and pathological state of tissues. The technique has multiple applications, either practical (tomographic imaging of the brain, thyroid gland and liver) or in the field of research, e.g. investigating ischaemic myocardial areas and pathological fluid composition, measuring intracellular pH, diagnosing the nature of a tumour and, broadly speaking, understanding the biochemical changes associated with malignant degeneration.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2334394069</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/030437548200800204</t>
+          <t>https://openalex.org/W2247906956</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Chinweizu (1982)</t>
+          <t>Woodward &amp; Philip (1982)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>On the Ecological Viability of Cultures</t>
+          <t>PROBLEMS AND OPPORTUNITIES IN REGULATED MARKET FOR RAILROAD FREIGHT CARS</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>This paper starts from the premise that a species or society must adapt itself to, and live within, its ecosystem, or else perish. In the event of an ecological accident, the species must rapidly adapt itself to survive. In the event of ecological misbehaviour of a society – i.e. destabilizing the ecosystem beyond the ecosystem's recuperative capacity (e.g. by nuclear poisoning), or so changing itself that it becomes incompatible with the ecosystem (e.g. by genetic engineering), the society puts itself on the road to extinction. The paper then outlines the tests for judging the ecological viability of a culture. It goes on to show how, by its homo-centric world-view, by its social philosophy, by its value system, by its culture forms, by its economic system, by its folk wisdom, by the example and precept of the culture's high priests, the Western culture makes a resource demand far beyond the earth's finite yielding capacity, and discharges a waste load far beyond the biosphere's absorptive capacity. This is a warning clear enough to those non-Western societies which, under duress or blandishment or both, set out to imitate the West, ‘catch up’ with the West, ‘beat the West at its own game’ – all in the tantalizing name of ‘modernization’. It is a game not worth playing, because in such a game even victory will be total defeat.</t>
+          <t>Railroads are compelled by the existing regulatory structure that concerns car hire and car service to adopt strategies that result in excessive empty miles. During surplus periods for example, owning railroads drastically reduce their reuse of foreign equipment and instead use system equipment for on-line and off-line loading in order to maximize short-term per diem income, which results in dramatic increases in the number of empty miles generated on all railroads. The Interstate Commerce Commission and the railroad industry have responded to this problem recently and have proposed and implemented changes in both the car-hire and car-service areas. In this paper, the nature of these changes is described and the actual experience of the industry to date with these changes is analyzed to illustrate the inherent structural problems that remain. More market-oriented solutions can be implemented to replace the existing set of car-hire and car-service regulations, and several are described in this paper. In such an environment, appropriate incentives will naturally evolve to ensure that (a) the minimum necessary fleet investment is made by car owners and (b) this asset is employed in the most efficient manner by car users. (Author)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://openalex.org/W239916647</t>
+          <t>https://openalex.org/W2278601497</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Glazer &amp; Breneman (1982)</t>
+          <t>Skeet (1982)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Two Views on Tuition Tax Credits.</t>
+          <t>How the other half dies.</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Designed for those interested in possible effects of tuition tax credit plan espoused by Reagan administration, document presents two polar views on subject. Glazer's article, Future under Tuition Tax Credits: The Case for Homogeneity in Schools, is presented from perspective of one who favors such-tax credits. A discussion about necessity for homogeneity of educational values in schools is followed by predictions of possible enrollment shifts that would, occur if tuition tax credits were implemented. The author concludes by stating his opposition to forced association of the aspiring and achieving with those who create an environment in which students can neither aspire or achieve. Breneman's_article, Saying No To Tuition Tax Credits, presents perspective of one who opposes tuition tax credits. By examining lessons drawn from financing of higher education, second author suggests that tuition tax credits would be inefficient, inequitable; and expensive without4'Creating any offsetting social benefits. A consideratin of possible enrollment shifts is followed bythe author's-conclusion that such tax credits would create losses greater than gains on both social and educational grounds by creating a split along socioeconomic class lines and by seeking of private alternatives rather than dealing with problems of public schools. (LH) *********************************************************************** Reproductions supplied by EDRS are best that can be made from original document. *********************************************************************** U.S. DEPARTMENT OF EDUCATION NATIONAL INSTITUTE OF EDUCATION PERMISSION TO REPRODUCE THIS EDUCATIONAL. RESOURCES INFORMATION MATERIAL IN MICROFICHE ONLY CENTER 041C) HAS BEEN GRANTED BY TWO VIEWS ON TUITION TAX CREDITS</t>
+          <t>Few nurses have entered into the controversy surrounding the promotion and sale of powdered baby milks in the 3rd world, and of those who have the majority have condemned the practices outright. To set the record straight, focus here is on the following: breast is not always best; identification of some of the other "baby killers" for which it is most likely that the representatives of infant formula producers have been made scapegoats; and clarification of what the various international agencies and organizations have really said and are actually doing about the problem. There is evidence from many areas of the world that the condition of many mothers is deteriorating. This is particularly the case for developing countries and poor people. One cannot ignore the draconian law of nature by which a fetus is nourished and an infant is fed at the expense of the mother's skeleton. Nurses know that there are very appropriate uses of commercial infant formula and also are aware of the dangers of inappropriate use. The question that arises is whether a product which requires clean water, good sanitation, adequate family income, and literate parents to follow printed instructions can be properly and safely used in areas where the water is contaminated, sewage runs in the streets, poverty is severe, and illiteracy is high. In sum, the real baby killers are poverty, illiteracy, lack of safe water, and sanitation. As part of the World Health Organization's (WHO's) global strategy for health for all by the year 2000, many countries have begun to define national policies, strategies, and plans of action. The key approach is primary health care (PHC) specifically geared to protecting and improving the health of women, infants, and young children, which is recognized to be an essential element of national health strategies. The latter relate to the provision of safe water, adequate nutrition, housing, and education. In May 1981 the 34th World Health Assembly agreed on certain articles as a basis for action. These form the international code of marketing of breast milk substitutes. The code's aim is to contribute to the provision of safe and adequate nutrition for infants by the protection and promotion of breastfeeding and by ensuring the proper use of breast milk substitutes when these are necessary on the basis of adequate information and through appropriate marketing and distribution. Steps must be taken by every individual at each level to ensure that his or her conduct conforms with that code.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2413105792</t>
+          <t>https://openalex.org/W2317920423</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Riedel &amp; Semm (1982)</t>
+          <t>Díez &amp; Arenillas (1982)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[CO2 laser coagulation of benign changes of the portio vaginalis in comparison with the endocoagulation technic (Semm's method)].</t>
+          <t>Littoral Processes in Campello Coasts</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>The CO2-COHERENT laser was therapeutically used by the authors on 31 cases of extensive erythroplakia associated with recurrent and therapy-resistant fluor formation and on cases of highly vascularised transformation zones with contact bleeding. The benign nature of the findings first had been established by repetitive Pap smears and thorough colposcopic examination. The authors suggest that for the time being the CO2 laser is not suitable yet for the treatment of dysplasia or carcinoma in situ, since no material for histological testing is obtainable from that therapeutic approach, and the presence of microcarcinoma with invasive growth cannot be ruled out with absolute safety. CO2 laser treatment was undertaken without hospitalisation of patients, just as endocoagulation of the vaginal portio was carried out on an outpatient basis. Postoperative follow-up checks have been made one, three, and six weeks as well as three and six months from treatment. The therapeutic results obtained from CO2 laser therapy were compared with those recorded from patients who had undergone endocoagulation of the vaginal portio, with the view to checking the advantages claimed for laser therapy in the literature [1, 4, 11, 12, 23, 24], such as no need for anaesthesia, effective destruction of much of the pathological tissue, high-accuracy identification of tissue for destruction by means of colposcopy, low rate of postoperative complications, soon healing, and good haemostatic action. All these advantages were found to be obtainable just as well from the technique of endocoagulation without the need for the great amount of technical input and equipment definitely required for laser therapy [16, 18, 19, 20, 21].</t>
+          <t>The coasts of Campello (fig. 1), just at the North of Alicante, have undergone important erosions in the last few years. A study has developed for over one year to separate seasonal and permanent variations of the shoreline. The geomorphology and the recent generation of these coasts have been established and the study and wind wave regimes have heen defined to evaluate the littoral transports, particularly the longshore ones. The seasonal transverse 1 profiling nay show the seasonal changes in the littoral zone and the sieve and mineralogical analysis of the different samples of +he beaches have completed the data for the discussion. Taking into account other studies of the authors in other parts of the East and Southeast coasts of Spain, an hypothesis on the littoral processes has established, separating the seasonal and the permanent and degradative consequences. Some recommendations to keep at least the present situation of the beaches and to protect the other stretches of the shore are presented as final conclusions.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2427677234</t>
+          <t>https://openalex.org/W2325129558</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5996/newgeo.30.25</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Em (1982)</t>
+          <t>Teramoto (1982)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Properties of calcium receptors that initiate depolarization-secretion coupling.</t>
+          <t>The Development of Grassland Establishment and Stock Raising on the Slope of the North Somma of Mt. Aso</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>The relationship between the binding of divalent metal (Me) activators Ca and Sr and the secretion of acetylcholine (ACh) was studied quantitatively at frog motor nerve terminals using conventional electrophysiological methods. Experiments were designed to evaluate the assumption that maximal secretion requires occupancy of all receptors by testing for the presence of spare Ca receptors on nerve endings. Such a receptor reserve for Ca would invalidate the simple mass action approach to ACh secretion. Experimental log [Me]-ACh secretion curves constructed to saturation for Ca Sr were consistent with the presence of spare Ca receptors. La3+ (greater than or equal to 0.5 microM) and 2-chloroadenosine (25 microM) were employed as irreversible antagonists of depolarization-secretion coupling. Despite the irreversible occlusion of a proportion of Me receptors increases in the extracellular [Ca] overcame this antagonism while increases in [Sr] did not. These results suggest that Ca can produce maximal ACh release while leaving a proportion of receptors unoccupied or spare. Further support for this contention is provided by the excellent agreement between the values of the equilibrium affinity constant for Sr calculated by methods that do or do not require the assumption of spare receptors. The equilibrium affinity constant for Ca and the efficacies (efficacy reflects the ability of the Me species once bound to evoke ACh secretion) for both Ca and Sr were determined experimentally by using the mathematical framework of receptor theory. These constants were then employed to generate theoretical curves of log [Me]-ACh secretion. The theoretical relationships were similar to the experimental results, which suggests that the motor nerve endings behaves as a pharmacological receptor for Me agonists and antagonists. It is speculated that spare Ca receptors are equivalent to spare Ca channels and the efficacy may reflect the affinity of Me for an intraterminal site associated with ACh release.</t>
+          <t>The purpose of this study is to examine the management system of dairy farms on the north Somma of Mt. Aso in Kumamoto prefecture. The farms have been developed by the largescale and government-managed enterprise of grassland establishments undertaken from 1966 to 1973. As the examples, the author have selected two farms which show great difference in the form of management. The Kiotoshi Farm (491 ha) is one of the most large scale farms in Aso district and has been under favourable management. The farm won the first prize in a national grassland contest in 1972. On the other hand, the Shimmiya Farm (142 ha) is smaller than the Kiotoshi Farm in the scale of management, and failed to introduce milch cows and found it difficult to maintain its operation in 1975. At last, the farm turned to be managed by the town authority to save it.To analyze the causes of these different results, the author investigated their natural environment and problems in management of these farms. In this study, the author have made clear the following points.1) The Kiotoshi Farm has enjoyed more favourable natural environment of soil and geomorphological features.2) The difference of staff's technique and the management system between the two farms also seems to have produced the above mentioned results.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2469599943</t>
+          <t>https://openalex.org/W2333515365</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/3671410</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Shapiro (1982)</t>
+          <t>Mahnken &amp; Wilhm (1982)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>REDUNDANCY IN PIERID POLYPHENISMS: PUPAL CHILLING INDUCES VERNAL PHENOTYPE IN PIERIS OCCIDENTALIS (PIERIDAE)</t>
+          <t>Diel Variation in Species Composition and Diversity, Density, and Chlorophyll Content of Phytoplankton in an Intermittent Stream in Oklahoma</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Chilling young pupae of Sierra Nevada Pieris occidentalis induces the vernal-alpine calyce phenotype as effectively as rearing on short days. Temper­ atures of 6°C or less sustained for 10 days or more appear equally efficacious. This redundancy in phenotypic-induction mechanisms parallels that found in various other butterflies, and is underlain by apparent genetic variation in sensitivity within popu­ lations. The Western white, Pieris occidentalis Reakirt, has two seasonal phenotypes once considered separate species (Edwards, 1876). Sha­ piro (1973) demonstrated that rearing on a short day (IOL:14D) with­ out chilling induced the heavily-marked phenotype calyce in Bo­ real Ridge, California stock, and that temperatures of 10°C were ineffective in doing so under long-day (14L: IOD) conditions. Later, Shapiro (1978) demonstrated that redundancy existed in the pheno­ typic-induction systems of various multivoltine Pieridae, including the closely-related species P. protodice Boisduval and LeConte. This discovery prompted a re-evaluation of thermal influences in pheno­ typic determination in P. occidental is ; specifically, chilling of long­ day pupae at lower temperatures than used heretofore. Ova were obtained from a single wild female collected in Donner Pass, of the Sierra Nevada, Nevada County, California (2100 m), 7 August 1980. This locality is about 4.5 km from Boreal Ridge and at similar elevation. Rearing was done under our standard conditions (Shapiro, 1975) with continuous light at 25°C on Lepidium virginicum L. var. pubescens (Greene) Thellung (Cruciferae), a natural host at Donner Pass. Allocation of pupae to treatments was randomized to obviate effects of the sequence of oviposition on offspring quality. Control pupae were held at the rearing conditions. Experimental pu­ pae were refrigerated as close to eight hours after pupation as possible (effectively ± 1 h) and held in one of four regimes: 6°C for 10 days; 5°C for 14 days; 2°C for 14 days; 10 days at 6°C followed by 2 days at 25°C followed by 7 days at 2°C. After chilling, the pupae were re­ turned to 25°C and allowed to develop and eclose. Mortality was neg­ ligible (4/154). Adults were classified into three phenotypic grades based on the degree of melanization of the ventral hind wing; stan­ dards are shown in Fig. 1 and correspond to those used by Shapiro</t>
+          <t>-Physicochemical measurements and phytoplankton were collected every 3 h during four, 24-h sampling periods in summer, 1976 and 1977, from Otter Creek, Oklahoma. Chlorophyll concentration and phytoplankton density were correlated with highest values occurring in late morning or afternoon. Ninety-four taxa of phytoplankton were collected; most were planktonic diatoms, green algae, or euglenophytes. Diel variations in species diversity and equitability was small and generally reflected changes in one or two dominant species. The algal pollution index exhibited considerable diel variation, indicating the importance of considering time of day when using the index. Most of the early literature on stream phytoplankton was qualitative. Numerous lists of the species of phytoplankton present in a stream have been published (Fritsch, 1903; Butcher, 1932; Lackey, 1942; Brinley and Katzin, 1942). In recent years the use of quantitative measures such as species diversity and density of phytoplankton has increased. Staub et al. (1970) studied the species diversity of phytoplankton in the Wolf River and its tributaries in Memphis, Tennessee. Diversity of phytoplankton was measured in the Cape Fear River, North Carolina (Carpenter, 1971) and in the Arkansas River near Ponca City, Oklahoma (Wilhm et al., 1977). Numerous authors have reported density values for stream phytoplankton (Williams, 1964; Weber and Moore, 1967; Carpenter, 1971; Wilhm et al., 1977). Diel periodicities of phytoplankton have been shown in many studies. The phytoplankton of the Saline River, Michigan, exhibited a diel pulse in downstream drift of certain benthic algae, apparently due to daytime oxygen production, which makes them more buoyant and easily carried away by the current (Blum, 1954). Rhythms also have been reported in uptake of nitrogen (Goering et al., 1964), photosynthetic activity (Lorenzen, 1963), and chlorophyll content (Yentsch and Ryther, 1957; Shimada, 1958). Diel rhythm in species diversity of stream phytoplankton has not been studied. The objectives of this study are to: (1) observe the diel rhythm of density, chlorophyll a and pheophytin a content, species diversity, and equitability of stream phytoplankton and (2) measure the diel rhythm of water temperature, dissolved oxygen, pH, and conductivity. STUDY AREA.-Otter Creek is an intermittent stream which flows through Garfield and Logan counties in north-central Oklahoma. The stream originates near Covington, flows 42 km southward, and empties into Skeleton Creek, a tributary of the Cimarron River. The elevation is 363 m at the source and 287 m at the mouth, with an average gradient of 1.8 m/km. The stream has narrow, eroding valleys which reach a depth of 23 m. Stream depth was 1 m at the sampling station. Otter Creek's drainage basin is 302 km2 and is in the mixed-grass prairie association. Broad-leaf trees line the stream banks. Most land in the basin is cultivated or used for pasture. T E SOUTHWESTERN NATURALIST 27(1):79-86 February 19, 1982 This content downloaded from 207.46.13.136 on Sat, 01 Oct 2016 05:52:34 UTC All use subject to http://about.jstor.org/terms The Southwestern Naturalist Further information about the stream is given by Harrel and Dorris (1968) and Seyfer and Wilhm (1977). MATERIALS AND METHODS.-Phytoplankton samples were collected on 28 June 1976 and 11 June, 11 July, and 21 August 1977. Surface samples were taken every 3 h beginning at 0500 h. Eight surface l-liter water samples were taken at each sampling time; four for analysis of phytoplankton were preserved in Lugol's solution and four for chlorophyll determination were placed in an ice chest. Water temperature and conductivity were measured with a Yellow Springs Instrument Co. YSI Model 33 54 oxygen meter. A portable Beckham pH meter was used for determining hydrogen-ion concentration. Three surface measurements of each physiocochemical parameter were made at each sampling time. In the laboratory, l-liter samples for chlorophyll a and pheophytin a determinations were extracted in 20 ml of 90% aqueous acetone. Following storage in a refrigerator at 4? C for 24 h, the optical density of the liquid extract was read before and after acidification with concentrated HC1 on a Beckman DBG spectrophotometer. The optical density readings were used to calculate chlorophyll a using the equations of Lorenzen (1967). Samples for species identification of diatoms were cleaned on a hot plate according to the method described by Weber (1971). Total counts of all species were made on cleared 0.45 jum membrane filters using a magnification of OOO1X. Species diversity and equitability were calculated for each sample by the equations of Shannon and Weaver (1963) and Pielou (1966), respectively. Density was computed for each phytoplankton sample by the equation,</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2484959024</t>
+          <t>https://openalex.org/W2335661105</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-05978-2_9</t>
+          <t>https://doi.org/10.1016/0305-7488(82)90163-3</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Kenneally (1982)</t>
+          <t>Thomas (1982)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>The Changing Contents of O’Casey’s Autobiography</t>
+          <t>The Agrarian history of England and Wales. Vol. I i prehistory</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>The last two volumes of Sean O’Casey’s autobiography, Rose and Crown and Sunset and Evening Star, have been subjected to more adverse criticism than the first four. Critics claim that in these two books there are fewer deeply-felt scenes and too many vindictive sections attacking a host of enemies. The question has even been raised whether the autobiographical nature of the work has somehow been betrayed in these books. Roy Pascal believes that in the last two volumes, the character of the autobiography involuntarily begins to change, the story loses in concrete substantiality; convictions which had the massiveness of experience now thin out into opinions and opinionativeness; and when O’Casey leaves Dublin, inconsequent reminiscence, tender or hilarious, take the place of autobiography…. His arguments with critics and producers, his continued feud with the catholic hierarchy, his ideas, lack direction, and have none of the compulsive reality of the childhood and earlier life.1</t>
+          <t>Central India hosts one of the largest repositories of archaeological sites in the world having a semi-arid climate and distinct eco-geography which is prone to rapid change due to human activities. This paper discusses the changes in land use and land cover for the past twenty-three years in the region altering the rich cultural heritage, revealing by the presence of numerous painted rock-shelter sites in the region. The land cover and land use changes in terms of deforestation, urban growth and development and sandstone mining have been evaluated in the present study. Some of the above-mentioned parameters have been quantified using remote sensing and GIS data by peeping into the past and the present demonstrating sufficient practical and scientific value for the present work. The use of landsat satellite data of appropriate spectral and spatial resolution are imperative in this research where two supervised classificatory schemes viz. MLC (maximum likelihood classification) and SVM (support vector machine) are implemented for image classification. Landsat images of the years 1989, 2000 and 2011 have been processed to detect the current and historical changes of cultural heritage sites in its structural and spectral aspects in one of the remote regions of central India that matched the ground truthing from the present day survey and field work. The techniques provided differential results and in terms of accuracy SVM performed better than MLC while detecting natural and archaeological change estimation of the contested landscape of rock art. The change analysis suggests the gradual and steady destruction of natural and cultural wealth of this area leading to complete fragility. The deforestation led to the exposure of painted sandstone rock-shelters with in situ archaeological deposits. In the recent past intensive sandstone mining till the present years is obliterating unique cultural heritage sites in this region of Central India. Finally, a set of guidelines has been recommended to employ good policies to align heritage conservation and development on the right track to promote sustainable land use cost-effectively.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://openalex.org/W255736462</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/lan.1982.0024</t>
+          <t>https://openalex.org/W2411493245</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Müller (1982)</t>
+          <t>Nissen et al. (1982)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Sprachvariation und Sprachwandel: Probleme der Inter- und Intralinguistik. Akten des 3. Symposions über Sprachkontakt in Europa, Mannheim, 1979 Ed. by P. Sture Ureland</t>
+          <t>Biological characterization of cells derived from a human breast carcinoma. I. Some characteristics of cells cultivated in vitro prior to and after transplantation into nude mice.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>BOOK NOTICES 481 by Bodman. In contrast, Romance linguists will be disappointed by Hall's briefnote, which contains generalities that an introductory course in Romance linguistics should teach. Agard's article , however, is interesting and substantial, especially for specialists in reconstruction: he applies his theory of 'down-tracing' to the history of French—an approach which 'clashes provocatively' (215) with comparative reconstruction , since the two proceed in opposing directions. Messing's essay relates how the Tosk dialect became the official language of Albania in 1945, simply by a political decision of the post-war Communist regime. He points out, however, that the other major dialect, Geg (which was once the standard), continues to be spoken in many areas. As a consequence, 'a new national language [will be] based on Tosk, although incorporating a number of Geg features ' (278). The most interesting article in this collection, from a theoretical standpoint, turns out to be Coetsem's study of Germanic ablaut. Although he is mainly concerned with a synchronic taxonomy of this process, he touches in some detail on the issues of abstractness— as well as the phonological origin of ablaut, its subsequent morphologization, and its eventual lexicalization (318). This constitutes an additional example of concrete morpho(phono)logy, which in the 70's replaced the abstract phonology of the 60's. My over-all assessment of this volume must stress the variety of languages and problems treated, but also its unevenness. It is difficult to recommend it to any particular specialists in historical linguistics; rather, it serves to illustrate the great diversity of the field. [Jürgen Klausenburger, University of Washington.] Sprachvariation und Sprachwandel: Probleme der Inter- und Intralinguistik . Akten des 3. Symposions über Sprachkontakt in Europa, Mannheim, 1979. Ed. by P. Sture Ureland. (Linguistische Arbeiten, 92.) Tübingen: Niemeyer, 1980. Pp. xiv, 193. As a follow-up to the volumes on language contact in the North Sea area (cf. Lg. 55.960-61 , 1979) and on standard language vs. dialect in plurilingual areas of Europe (cf. Lg. 57.228-9, 1981), this book presents seven contributions to the third symposium on language-specific and cross-linguistic variation and change, organized by the Linguistic Circle of Mannheim and the Research Center for Plurilingualism in Brussels. Considering that this was a meeting of sociolinguists , Ureland's presentation of this volume shows a certain lack of awareness about the sociology of linguistics: he gives us no hint of who participated in the meeting, apart from the seven contributors to the proceedings; nor is any record of the actual discussions appended , as it was in the earlier volumes. Yakov Malkiel's criticism of this (Lg. 57.228) can only be repeated here. The historical analogy that U makes in his preface (ix-xiv) is interesting, but perhaps too simplistic: as Georg Wenker's dialect studies challenged the neogrammarian doctrine of exceptionless sound change a hundred years ago, similarly today the domination of linguistics by the generative paradigm has led to a cleavage between theory and practice, to be bridged by the empirical 'Variationslinguistik' explicitly professed by the contributors to this volume. This claim ignores the fact that the regularity of phonetic change still stands as the basis of comparative work; investigation must be restricted only to diasystems ofone dialect or subdialect . It is a-priori wrong to reject generative grammar as a whole, without considering the benefits it has brought to linguistics: distinctions of competence vs. performance, of grammaticality vs. acceptability, and of stress on the syntactic and semantic components oflanguage vs. stress on phonology and morphology. Of the alphabetically arranged articles, the ones presenting synchronic investigations of phenomena already documented by earlier dialect -geographical inquiries are certainly the most appealing. W. Hefner and P. S. Ureland, 'Areal and sociolinguistic variation: The p-lpfisogloss in the Rhine-Neckar-Main area' (51-94), contrast Wenker's idealized findings of 1880 with their own sociolinguistic inquiry into the distribution of? and 'verschobenes' p/in wordinitial and medial position. The results in percentages document the dramatic advance of the p/ forms—especially among the younger generation , which is influenced by the standard language. In 'Morphological change through variation: The formation of the plural in the Flemish dialects...</t>
+          <t>Single cells from a patient (B. E., 65 years) have been isolated by collagenase treatment and cultivated in vitro. The human tumour of the mammary gland showed predominantly simple undifferentiated and also tubular structures. The 5th in vitro passage of these cells was characterized by DNA-distribution pattern, cell doubling time, chromosome number, ultrastructure, hormone and drug sensitivity. Cells of the 5th in vitro passage were i.p. transplanted into nude mice. The characteristics of in vitro cultivated cells (5th in vitro passage) were compared with both ascitic cells (1703/A) and cells of solid tumour material (1703/S) grown in nude mice for several passages (0, 10, 21). DNA-distribution patterns, chromosome numbers and cell doubling times are in good correlation. The number of polyploid cells is increased in ascitic cells. These malignant cells are best able to proliferate in vitro after transplantation into nude mice. Ultrastructure examination of the 21st passage has shown similarity between cultured cells, ascitic cells and cells of solid tumour material grown in nude mice. Virus particles could be observed in cells of solid only. Estrogen binding could be observed in the original tumour material only. All other cell or tissue preparations contained no receptors. Drug sensitivity was changed in the case of Vinblastin, Daunoblastin and Sarkolysin treatment of cells of solid tumour material more than in ascitic cells grown in nude mice. The environment dependence of cells and biological differences between in vivo-in vitro tumours and human neoplasms has to be taken into account when using cells as in vivo or in vitro model systems in experimental and clinical cancer research.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W259320318</t>
+          <t>https://openalex.org/W242303508</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Wagner (1982)</t>
+          <t>Fletcher (1982)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>A framework for analyzing and predicting insurgency.</t>
+          <t>Los Esteros Spillway, Pecos River, New Mexico : hydraulic model investigation</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Abstract : This study develops a method to analyze and predict rural insurgencies in the third world. First it derives a causal model and a process model of insurgency from social science theories and empirical studies. The models help to identify and organize twenty-eight analytical factors describing the society, physical environment, government, and the insurgents. The factors calculate the government-insurgent balance in organization, legitimacy, and coercion. An analyst using the methodology evaluates each factor that is relevant to the current phase of the insurgency and records his responses on a factor scale. The scales are isomorphic, extending from conditions of government to insurgent advantage, and are arranged in parallel on a worksheet. Connecting the selected points produces a graph that suggests the status of the insurgency. The analyst may overlay different worksheets to determine change over time or to compare insurgent situations.</t>
+          <t>Abstract : Tests to investigate the hydraulic performance of the Los Esteros Spillway and discharge channel were conducted using a 1:80-scale model. Emphasis was placed on the development of a design that would pass flows as high as 430,000 cfs without subjecting the downstream dam embankment to excessive surges and current velocities. Approach flows and flows passing over the crest were satisfactory for all anticipated discharges. Discharges above 225,000 cfs induced adverse currents, surges, and stone failure on the downstream face of the dam. Portions of the ravine or discharge channel were excavated and the amount of turbulence, surges, and currents along the downstream face of the dam was reduced to an acceptable level. However, the cost of prototype excavations was considered excessive. Properly designed flow deflectors in the ravine were effective in reducing adverse hydraulic conditions at the downstream dam embankment. The deflectors shifted flow away from the dam and down the Pecos River. A fixed deflector (concrete wall) was effective but considered undesirable for economic reasons. The design adopted by the Albuquerque District consisted of a rock flow deflector in the ravine and a rock fill on the dam embankment constructed of material obtained from the spillway excavation.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W25983264</t>
+          <t>https://openalex.org/W2437075626</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Booij (1982)</t>
+          <t>Jp (1982)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Reproduction of Velocity Profiles in Estuaries by some One-Dimensional Mathematical Models</t>
+          <t>Infant formula physical stability.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>For the prediction of dispersion phenomena and of changes in the morphology of an alluvial bottom, a detailed description of the water flow is necessary. The flow in estuaries is a complicated one, partly because of the time-dependence. To isolate this aspect of tidal flow a simplifying one-dimensional (vertical) flow model 1S used. This one-dimensional model is obtained by the neglect of convective derivatives of the longitudinal velocity and the use of the rigid lid approximation, i.e. the replacement of the free surface by a flat frictionless plate. The error introduced by these approximations is not large for the flow in most tidal channels. Convective derivatives are generally of minor importance. The rigid lid approximation is inaccurate for tidal waves with a large ratio between wave height and water depth. Tidal flow is usually described by simple eddy viscosity models in which various simple distributions of the eddy viscosity are prescribed. Recently models with an eddy viscosity depending on the turbulence energy have gained wide acceptance for all kinds of boundary layer flow. In this investigation the k-model and the k-e:-model are compared to an eddy viscosity model with an appropriate distribution of the eddy viscosity and to the mixing-length model for the case of steady and of time dependent free surface flow. The time dependent free surface flows, considered, represent flows in a tidal channel without a nett discharge over the tidal period. The roughness values and the velocities are typical for tidal channels. The results of the various models differ hardly. The only appreciable difference is around slack water, where all models used are, however, less reliable. The close correspondence is explained by the short adjustment times of the turbulence energy and its dissipation compared to the tidal period and by the small relative roughness height. The flow in a tidal channel can be considered as slowly varying, showing almost logarithmic velocity profiles except around slack water. The hysteresis effect of the shear stress with respect to the surface velocity calculated with all these models is therefore small, in contradiction to the large hysteresis effect as found in some of the prototype measurements.</t>
+          <t>The physical nature of liquid infant formula products is characterized in terms of emulsion, suspension, and solution processes. Such mixtures inevitably undergo phase separation. A variety of physical and chemical phenomena govern the gradual changes in the appearance of these products. The consequent loss of physical elegance is primarily a question of consumer acceptance. Only in the most extreme cases do the physical characteristics deteriorate to the point that swallowing and digestion are affected. Recently, both public and regulatory attention has been focused on the physical characteristics of liquid infant formula products. Formula appearance is the product aspect most readily evaluated by the consumer. The design and manufacture of products that will have consistent appearance over extended periods is a difficult technical problem. This presentation summarizes the phenomena responsible for changes in the physical characteristics of liquid infant formula products. Product defects are discussed and methods for product evaluation are described. Representative data on the effect of storage on product physical elegance also are presented.</t>
         </is>
       </c>
     </row>

--- a/data/tca_corpus/random_250_tca_cases_corpus.xlsx
+++ b/data/tca_corpus/random_250_tca_cases_corpus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,6644 +387,4940 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994107076</t>
+          <t>https://openalex.org/W2002686736</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s001675680016621x</t>
+          <t>https://doi.org/10.1086/394355</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Howorth (1883)</t>
+          <t>Huber (1930)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>III.—The Fauna and Flora of the European Loess, being a Reply to Professor Dr. Nehring</t>
+          <t>Evolution of Facial Musculature and Cutaneous Field of Trigeminus. Part I</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>It is not every controversialist who has the good fortune to persuade two such distinguished warriors as Baron Richthofen and Dr. Nehring to buckle on their armour and do battle with him; and if there were room for vanity in the shifting panorama of Science, I might at least claim to have stated my case with sufficient point and clearness to make it necessary for more than one elaborate reply. There is no room for vanity however. It matters not who wins, so far as I am concerned, if we only get our difficult problem more sifted and get closer to the truth. If there be no room for vanity, there is less for irony; and I am not surprised that Dr. Nehring should feel hurt if he thinks I have openly or covertly had the indecency to sneer at himself or his work. In referring to Cuvier, it was not to minimize what Dr. Nehring has done, but to do justice to an old philosopher, whose memory I reverence, and whose claims had been overlooked by Baron Richthofen. It was he, I must emphatically repeat, if it needs repetition before such an audience as that reached by the Geological Magazine, who first proved the fauna of the European Loess and its correlated deposits in its broad features to be identical with that found under the Siberian tundras. Cuvier was followed by a great crowd of diligent and close students of this subject, especially in France and America, without naming England.</t>
+          <t>Next article No AccessEvolution of Facial Musculature and Cutaneous Field of Trigeminus. Part IErnst HuberErnst Huber Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The Quarterly Review of Biology Volume 5, Number 2Jun., 1930 Published in association with Stony Brook University Article DOIhttps://doi.org/10.1086/394355 Views: 12Total views on this site Citations: 102Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Edwin Dickinson, Adam Hartstone‐Rose Behavioral correlates of fascicular organization: The confluence of muscle architectural anatomy and function, The Anatomical Record 297 (Mar 2023).https://doi.org/10.1002/ar.25187Vlad Tereshenko, Udo Maierhofer, Dominik C. Dotzauer, Gregor Laengle, Martin Schmoll, Christopher Festin, Matthias Luft, Genova Carrero Rojas, Olga Politikou, Laura A. Hruby, Holger J. Klein, Steffen U. Eisenhardt, Dario Farina, Roland Blumer, Konstantin D. Bergmeister, Oskar C. Aszmann Newly identified axon types of the facial nerve unveil supplemental neural pathways in the innervation of the face, Journal of Advanced Research 44 (Feb 2023): 135–147.https://doi.org/10.1016/j.jare.2022.04.009Timothy B. Rowe Evolution of the Mammalian Neurosensory System: Fossil Evidence and Major Events, (Nov 2022): 365–422.https://doi.org/10.1007/978-3-031-13983-3_10Arturo Tozzi To Know them, Remove their Information: An Outer Methodological Approach to Biophysics and Humanities, Philosophia 125 (Sep 2022).https://doi.org/10.1007/s11406-022-00576-yChristin T. Murphy, Marilyn Marx, William N. Martin, Houshuo Jiang, Joy M. Lapseritis, Alison N. French, Nancy B. Simmons, Michael J. Moore Feeling for food: Can rostro‐mental hair arrays sense hydrodynamic cues for foraging North Atlantic right whales?, The Anatomical Record 305, no.33 (Feb 2022): 577–591.https://doi.org/10.1002/ar.24858Deepa L. Ramamurthy, Heather K. Dodson, Leah A. Krubitzer Developmental plasticity of texture discrimination following early vision loss in the marsupial Monodelphis domestica, Journal of Experimental Biology 224, no.99 (May 2021).https://doi.org/10.1242/jeb.236646Julien Benoit, Irina Ruf, Juri A. Miyamae, Vincent Fernandez, Pablo Gusmão Rodrigues, Bruce S. Rubidge The Evolution of the Maxillary Canal in Probainognathia (Cynodontia, Synapsida): Reassessment of the Homology of the Infraorbital Foramen in Mammalian Ancestors, Journal of Mammalian Evolution 27, no.33 (May 2019): 329–348.https://doi.org/10.1007/s10914-019-09467-8Cecilia Mariana Krmpotic, Pedro Fernando Andrés Laube, Claudio Gustavo Barbeito, María Teresa Pombo, Alejo Carlos Scarano, Cleopatra Mara Loza, Alfredo Armando Carlini MORPHOLOGICAL DIVERSITY OF FACIAL VIBRISSAE IN Chaetophractus vellerosus (MAMMALIA, XENARTHRA, DASYPODIDAE) AND DIFFERENTIAL MECHANOPERCEPTION, Zoology 140 (Jun 2020): 125773.https://doi.org/10.1016/j.zool.2020.125773T.B. Rowe The Emergence of Mammals, (Jan 2020): 263–319.https://doi.org/10.1016/B978-0-12-820584-6.00011-8Edwin Dickinson, Emily Atkinson, Antonio Meza, Shruti Kolli, Ashley R. Deutsch, Anne M. Burrows, Adam Hartstone-Rose Visualization and quantification of mimetic musculature via DiceCT, PeerJ 8 (Jun 2020): e9343.https://doi.org/10.7717/peerj.9343Rui Diogo, Vance Powell The Origin and Evolution of Mammalian Head Muscles with Special Emphasis on the Facial Myology of Primates and Modern Humans, (Jan 2019): 253–293.https://doi.org/10.1007/978-3-319-93560-7_11Kylie Owen, K. Curt S. Jenner, Micheline-Nicole M. Jenner, Robert D. McCauley, Russel D. Andrews Water temperature correlates with baleen whale foraging behaviour at multiple scales in the Antarctic, Marine and Freshwater Research 70, no.11 (Jan 2019): 19.https://doi.org/10.1071/MF17288T.B. Rowe The Emergence of Mammals, (Jan 2017): 1–52.https://doi.org/10.1016/B978-0-12-804042-3.00029-4C.C. Caeiro, A.M Burrows, B.M. Waller Development and application of CatFACS: Are human cat adopters influenced by cat facial expressions?, Applied Animal Behaviour Science (Jan 2017).https://doi.org/10.1016/j.applanim.2017.01.005Deepa L. Ramamurthy, Leah A. Krubitzer The evolution of whisker-mediated somatosensation in mammals: Sensory processing in barrelless S1 cortex of a marsupial, Monodelphis domestica, Journal of Comparative Neurology 524, no.1717 (May 2016): 3587–3613.https://doi.org/10.1002/cne.24018Rui Diogo, Gaelle Bello‐Hellegouarch, Tiana Kohlsdorf, Borja Esteve‐Altava, Julia L. Molnar Comparative Myology and Evolution of Marsupials and Other Vertebrates, With Notes on Complexity, Bauplan, and “Scala Naturae”, The Anatomical Record 299, no.99 (Jul 2016): 1224–1255.https://doi.org/10.1002/ar.23390Christopher D. Marshall Morphology of the Bearded Seal ( Erignathus barbatus ) Muscular-Vibrissal Complex: A Functional Model for Phocid Subambient Pressure Generati</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4230363402</t>
+          <t>https://openalex.org/W2020586751</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/027541a0</t>
+          <t>https://doi.org/10.1098/rspb.1996.0148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA (1883)</t>
+          <t>Gandon et al. (1996)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GEOGRAPHICAL NOTES</t>
+          <t>Local adaptation and gene-for-gene coevolution in a metapopulation model</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AT a recent meeting of the Geographical Society of Copenhagen, Capt. Irminger in the chair, Dr. Oscar Dickson was present to give an account of the proposed Swedish expedition to Greenland. The chairman referred to Dr. Dickson as the Maæcenas who enabled Nordenskjöld to carry nut his ideas, while both had an ardent supporter in King Oscar. Of the Arctic expeditions, which wholly or partly owed their origin to Oscar Dickson, he mentioned the following:—The expedition of 1868 to Spitzbergen was almost entirely paid for by him; the expedition of 1870 to Greenland was entirely paid Lr by him; the expedition of 1872–73, which winterel at Spitzbergen, was partly paid by him, while the great deficiency subsequently arising was covered by him; the expedition of 1875 to the Yenissei was entirely paid by him; the expedition of 1876 to the same river, by sea and by land, was chiefly paid by him; the vega expedition of 1879–80 was paid to the extent of one-third by him, and if the vessel had not succeeded in rounding Asia he would have borne the entire cost of this expedition; and eventually the cost of the Swedish expedition of 1883 would be borne by him. It should also not be forgotten that, at the time when the despatch of the Dijmphna expedition was nearly frustrated for the want of 20,000kr. (1150l.), Oscar Dickson came forward to supply the deficiency, and although it was most generously contributed by Mr. Gamédl, every lover of geographical discovery ought to appreciate his noble action. Dr. Oscar Dickson next addressed the meeting. He began by stating that the King of Denmark had sanctioned the new expedition. Nordenskjöld had not desired that the programme of the expedition should be made public too soon, as he was much occupied with preparations for his journey and his duties as a senator, and if his plans should be questioned by savants, he would have no time for discussing them. He next referred to the oldest accounts of Greenland, its colonisation from Iceland, and “Esquimauxising” from America. After this, Greenland was for a time forgotten, until the west coast was rediscovered. The speaker then mentioned the achievements of Hans Egede, and the founding of a commerce. The west coast was one of the best known Arctic countries, both geographically and ethnologically; but not so the east coast. In spite of several expeditions and researches, only the southern portion was known. The interior was a terra incognita. These tracts were, however, too important to remain unknown. He then referred to the wanderings of Nordenskjöld and Lieut. Jensen on ihe inland ice. From these expeditions it was impossible to infer that the interior of Greenland was entirely covered with ice, while in the constant advance of the glaciers and their melting off he (the speaker) found a corroboration of this theory. By the geographical appearance of Greenland, and more especially by the circumstance that the country gradually rose in the interior, it was more than probable that the interior was not entirely covered with ice. Even in the temperature and moistness of the air there seemed a proof that the country would answer to its name. In any case the exploration of the interior of this country was most important, and it was for this purpose that the expedition would make its researches. To these belonged the ascertaining of the extent of the drift ice between Cape Farewell and Iceland, the study of the inland ice, the fossil remains, and the cosmic dust in the island. Eventually it was hoped that, while Nordenskjöld made his expedition across the ice, another party of the members would pay a visit to the west coast, where there were some very peculiar blocks of ironstone. The expedition would possess a complete staff of scientific specialists. The expedition had al o one more object in view, viz, to settle the question as to where the Österbygd had been. Every one who read without prejudice the oldest accounts could but come to the conclusion that its remains must be found on the east coast. After excursions on the inland ice, it was the intention to attempt penetrate northwards along the east coast. In May next the expedition would start in a well-equipped steamer, and, if the state of the ice would permit, first land on the east coast; but as this was not expected to be the case the party would land on the west coast, and when the researches here were at an end they would proceed along the east coast in a channel between the land and the drift ice. In September next the expedition would return.</t>
+          <t>Restricted accessMoreSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InRedditEmail Cite this article Gandon Sylvain , Capowiez Yvan , Dubois Yvain , Michalakis Yannis and Olivieri Isabelle 1996Local adaptation and gene-for-gene coevolution in a metapopulation modelProc. R. Soc. Lond. B.2631003–1009http://doi.org/10.1098/rspb.1996.0148SectionRestricted accessArticleLocal adaptation and gene-for-gene coevolution in a metapopulation model Sylvain Gandon Google Scholar Find this author on PubMed Search for more papers by this author , Yvan Capowiez Google Scholar Find this author on PubMed Search for more papers by this author , Yvain Dubois Google Scholar Find this author on PubMed Search for more papers by this author , Yannis Michalakis Google Scholar Find this author on PubMed Search for more papers by this author and Isabelle Olivieri Google Scholar Find this author on PubMed Search for more papers by this author Sylvain Gandon Google Scholar Find this author on PubMed , Yvan Capowiez Google Scholar Find this author on PubMed , Yvain Dubois Google Scholar Find this author on PubMed , Yannis Michalakis Google Scholar Find this author on PubMed and Isabelle Olivieri Google Scholar Find this author on PubMed Published:22 August 1996https://doi.org/10.1098/rspb.1996.0148AbstractIn several reciprocal cross-infection experiments parasites were found to be significantly more adapted to their local host populations than to hosts from distant populations. We developed a metapopulation model, taking explicit account of both population densities and gene frequencies, to determine the influence of ecological and genetical parameters on the local adaptation of the parasites and on the spatial distribution of resistance and virulence genes. Our results point to the predominant effect of ecological parameters such as parasite growth rate and host and parasite migration rates on coevolutionary outcomes. In particular, the parasites are more likely to be adapted to their local host population than to allopatric hosts when the parasite migration rate is larger than the host migration rate. The opposite should be observed whenever hosts migrate more than parasites.FootnotesThis text was harvested from a scanned image of the original document using optical character recognition (OCR) software. As such, it may contain errors. Please contact the Royal Society if you find an error you would like to see corrected. Mathematical notations produced through Infty OCR. Previous ArticleNext Article VIEW FULL TEXT DOWNLOAD PDF FiguresRelatedReferencesDetailsCited byBest A and Ashby B (2023) How do fluctuating ecological dynamics impact the evolution of hosts and parasites?, Philosophical Transactions of the Royal Society B: Biological Sciences, 378:1873, Online publication date: 27-Mar-2023. Gawecka K, Pedraza F and Bascompte J (2022) Effects of habitat destruction on coevolving metacommunities, Ecology Letters, 10.1111/ele.14118, 25:12, (2597-2610), Online publication date: 1-Dec-2022. Maes T, De Corte Z, Vangestel C, Virgilio M, Smitz N, Djuikwo-Teukeng F, Papadaki M and Huyse T (2022) Large-scale and small-scale population genetic structure of the medically important gastropod species Bulinus truncatus (Gastropoda, Heterobranchia), Parasites &amp; Vectors, 10.1186/s13071-022-05445-x, 15:1 Feijen F, Zajac N, Vorburger C, Blasco‐Costa I and Jokela J (2022) Phylogeography and cryptic species structure of a locally adapted parasite in New Zealand, Molecular Ecology, 10.1111/mec.16570, 31:15, (4112-4126), Online publication date: 1-Aug-2022. Lewis J, Penley M, Sylla H, Ahumada S and Morran L (2022) Antagonistic Coevolution Limits the Range of Host Defense in C. elegans Populations, Frontiers in Cellular and Infection Microbiology, 10.3389/fcimb.2022.758745, 12 Buckingham L and Ashby B (2022) Coevolutionary theory of hosts and parasites, Journal of Evolutionary Biology, 10.1111/jeb.13981, 35:2, (205-224), Online publication date: 1-Feb-2022. Thaenkham U, Chaisiri K and Hui En Chan A (2022) Overview of Parasitic Helminth Diversity: How Molecular Systematics Is Involved Molecular Systematics of Parasitic Helminths, 10.1007/978-981-19-1786-8_3, (61-86), . Solórzano-García B, Vázquez-Domínguez E, Pérez-Ponce de León G and Piñero D (2021) Co-structure analysis and genetic associations reveal insights into pinworms (Trypanoxyuris) and primates (Alouatta palliata) microevolutionary dynamics, BMC Ecology and Evolution, 10.1186/s12862-021-01924-4, 21:1, Online publication date: 1-Dec-2021. Ranke P, Araya‐Ajoy Y, Ringsby T, Pärn H, Rønning B, Jensen H, Wright J and Sæther B (2021) Spatial structure and dispersal dynamics in a house sparrow metapopulation, Journal of Animal Ecology, 10.1111/1365-2656.13580, 90:12, (2767-2781), Online publication date: 1-Dec-2021. Janecka M, Rovenolt F and Stephenson J (2021) How does host social behavior drive parasite non-selective evolution from the within-host</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2047423490</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/bmj.2.2237.1262</t>
+          <t>https://openalex.org/W1521846588</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Primrose (1903)</t>
+          <t>Erchul &amp; Martens (1996)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FILARIASIS IN MAN CURED BY REMOVAL OF THE ADULT WORMS IN AN OPERATION FOR LYMPH SCROTUM</t>
+          <t>School Consultation: Conceptual and Empirical Bases of Practice</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>onovan will be able shortly to elucidate the nature of these very interesting objects.Their size and shape and the arrangement of their chromatin are so constant and character- istic that it is scarcely possible to doubt that they are parasites of some kind, probably protozoa.For my own part, I find some difficulty in adopting Leishman's view that they represent involution stages of trypanosomes in the post-mortem spleen.He describes accurately such forms in the rat; but there, it should be carefully noted, the stained flagella are always present (with a successful Romanowsky technique) in addition to the macronucleus and micronucleus, and are, indeed, the last of the elements to refuse colouration.If, then, these bodies are nothing but disintegrating trypanosomes, we should certainly find a few of the flagella among them.Then, again, neither the large nor the small nucleus in the preparations seems to me to recall those of trypano- somes; and they are, moreover, approximated in a muclh more regular manner than, I think, we observe in dead trypanosomes.Lastly, as Donovan observes, his two preparations made intra vitam exclude post-mortem changes altogether, and should, therefore, contain some unaltered trypanosomes.Prima facie, then, I am strongly inclined to think that we have to do with some quite novel organism.As it has already been found in eight cases of fever and cachexia, it promises to be a common and important one.The charts of two of D)onovan's cases sent by him to me certainly recall the chronic pyrexia with enlarged spleen so frequently observed in India, and are, indeed, not a little suggestive of kala-azar.</t>
+          <t>Preface.- Section One: Background.- Introduction to Consultation.- The Effectiveness of Human Services Consultation.- Historical Influences on the Human Services Consultant Role.- Historical Influences on the School Consultant Role.- Reconceptualizing Consultation for Today's Schools.- The Rest of the Book.- Problem Solving and Response-to-Intervention.- Establishing a Context for RTI and the Modern Practice of School Consultation.- Problem Solving.- Response-to-Intervention.- Conclusion.- Promoting Change in Schools.- Changing Beliefs, Attitudes, and Behaviors within Consultation.- Helping the Consultee to Change.- General Strategies for Effecting Changes in Human Systems.- The Bases of Social Power and Their Application to School Consultation.- Other Means of Influence.- A Power/Interaction Model of Interpersonal Influence and Its Application to School Consultation.- Conclusion.- The School as a Setting for Consultation.- Organizational Traditions in the Public School System.- The Service Structure of Public Schools.- School Consultation from an Administrative Perspective.- Section Two: Consultation Processes And Outcomes.- Bases of an Integrated Model of School Consultation.- Community Mental Health and Mental Health Consultation Bases.- Behavioral Psychology and Behavioral Consultation Bases.- Summary of the Bases of an Integrated Model of School Consultation.- Achieving Entry in School Consultation: Entering the Service Delivery Network.- Model Description and Application.- A Critical Appraisal of Consultation Models.- An Integrated Model of School Consultation.- Assessment in School Consultation.- Functional Behavior Assessment.- Systematic Formative Evaluation.- Brief Experimental Analysis.- Selecting Effective School-Based Interventions.- Effectiveness of Intervention Alternatives.- Conceptual Models of Children's Learning and Behavior Problems.- Implementation Issues.- Section Three: Key Participants InConsultation.- Teachers as Consultees.- Perspectives on Teachers and Teaching.- Perspectives on Teachers and School Consultation.- Increasing the Effectiveness of Consultation with Teachers.- Providing Consultative Support to Teachers.- Students as Clients.- Legislation Governing Service Delivery in the Schools.- Educational Approaches to Classification.- A Contextual Model of Student Achievement.- Consultation Case Study.- Problem Identification Interview: February 18.- Problem Analysis Interview: March 4.- Problem Evaluation Interview: April 9.- Epilogue: The Effective Practice of School Consultation.- References.- Author Index.- Subject Index</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2480447604</t>
+          <t>https://openalex.org/W2332202866</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.28201</t>
+          <t>https://doi.org/10.1080/12538078.1996.10515740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ware (1903)</t>
+          <t>Prach (1996)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>First-hand bits of stable lore, by Francis M. Ware; illustrated from photographs.</t>
+          <t>Degradation and restoration of wet and moist meadows in the Czech Republic: general trends and case studies</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">call that hock smooth?Isn't he over a little mite on that knee?Eyes look kinder blinky.Sure he ain't moon-eyed, hey?Don't kick, does he?Looks kinder mean.Well, hitch him up, and if he don't balk, and ain't much scared of 'lectrics, why, Henry, we'll drive him up to the house and see what grandma and Mr. Brown and the folks think."Now what is a dealer to do with people like that?What would you do yourself to a man who thus maligned a horse you knew to be absolutely all right; a man who, you could tell the moment you saw him, didn't know a horse-car from a car-horse, and was simply FIRST-HAND BITS OF STABLE LORE true on his joints, don't have him, and give the dealer the reason, -that is one thing you can see and judge for yourself.Of course the only probable result is that he may have to wear boots somewhere, but moderate-priced horses are too plenty to make it necessary to bother with the crooked-legged sort.At " bargain-counter " rates the aspect changes, but the $3.98 horse (marked up from $2.37) is better left to the expert (if there are any such individuals)."Real old English " prints give us short back, rare loins, deep ribs, long quarters, great stifles, and second thighs, and all that; English sporting prose and verse record their virtues and extol their necessity, and the result would be as vastly edifying as desirable were it not for the fact that, so far as actual importance goes, every one of these much-lauded points is not only non-essential, but practically of little value!A short back is becoming, is graceful, is acceptable, but many of our best horsesracing, chasing, saddling, trotting, driving, and weight-carry ing -have been as long as a street in the back, as slack as a hammock in the loin, as shallow in back-rib (not front, or round chest) as a soup-plate, as short in the quarters as a Jersey yearling, and as narrow and undeveloped PURCHASE AND PRELIMINARIES in second thighs as a hound pup; in fact not a few breeders of thoroughbreds maintain that this latter characteristic is essential to the race horse, and Hanover and imported Meddler were both entirely wanting in any development there.A tail, well set and gaily carried, is attractive and generally evidence of good courage, yet beware the tail that is carried to one side, for it is almost an infallible signal of an existing weakness of structure somewhere in the anatomy of that side, which may have developed, may be developing, or may never develop, but probably will.The drooping quarter and low-set tail are generally indications that a horse is quick on his feet, and will jump well, so that, in race horse or hunter, this formation is rather desirable.The horse whose hocks are set in will not improbably interfere, over-reach, or " cross-fire;" that is, overreach on to the opposite forefoot.Your veterinary will tell you if he has done any or all of these things, or if he is shod to correct or prevent them; as also whether his teeth show marks of cribbing, his jugular vein has been interfered with by bleeding, etc.On all such matters be guided by him.Above all things get the bugbear of actual soundness out of your head, and be satisfied with II FIRST-HAND BITS OF STABLE LORE the practical, for that's all you can get, anyway.No horse is absolutely sound, so why bother?And if he could be, and you used him hard enough and long enough, he would not remain so.The fact that your bookkeeper has a " baseball" finger does n't worry you; why need the fact that your beast exhibits an odd splint, spavin, bog, etc., so long as they cause no lameness, inconvenience you more than him?An owner may have "spavin on the brain," and it will affect him far more, nine times out of ten, than it does his family slave, who cheerfully carries it about for years.Nothing is so certain as the fact that, if a blemish or unsoundness exists, there PURCHASE AND PRELIMINARIES a duffer you would prove, and was absolutely honest in his representations.Yet trouble ensues, and nothing will convince you that heis not a scamp, and him that you are not a hopeless imbecile.'To prevent any such misunderstandings insist upon driving yourself from the time you leave the stable door -and out of the door also.If the horse is too much for you in any way, say so frankly, and try another, nor let false pride prevent.The dealer is trying to suit ; give him a fair chance and prevent all afterclaps.Drive the horse to the objects you want him to see, and allow no argument against it.Explain this to the owner before you start, and don't let him harness the horse unless the understanding to that effect is clear.His time is worth as much as yours.Don't be satisfied with a trial at Eg FIRST-HAND BITS OF STABLE LORE ing.What matters it that an occasional brute of a man is imprisoned or fined?He knows no better, nor will his descendants learn from his punishment.Show them the why and wherefore of such matters by actual demonstration, talks, lectures, pictures, living examples, and teach them not </t>
+          <t>Summary The main stages of well managed and degraded wet and moist meadows are reviewed together with their respective species diversity. Results of three case studies are presented, demonstrating changes in species diversity under various management and experimental treatments. The studies are of (a) alluvial meadows; (b) wet meadows adjacent to a standing water body; (c) submontane moist meadows. Results indicate that despite the great degradation of the majority of moist (i.e. slightly wet) and wet meadows in the Czech Republic, potential still exists to restore many of them. Re—establishment of a regular cutting regime and a decrease in nutrient inputs are necessary for successful restoration or rehabilitation of the meadows, which can be rapid under certain conditions, especially if the input of diaspores of desirable species is ensured, such as in many flooded alluvial meadows. Résumé Les principaux types de prairies humides bien gérées et dégradées sont présentés avec leurs diversités spécifiques respectives. Les résultats de trois études de cas sont donnés, montrant les changements de diversité spécifique sous différents modes de gestion et traitements expérimentaux: (a) des prairies alluviales, (b) des prairies humides avec une nappe d'eau perchée, (c) des prairies fraîches submontagnardes. Les résultats indiquent que, malgré la dégradation importante de la majorité des prairies humides de la République Tchèque, un potentiel de restauration existe encore pour un grand nombre d'entre elles. Le rétablissement d'un régime de fauche régulier et la diminution des apports de nutriments sont les conditions nécessaires à une restauration ou réhabilitation réussie des prairies. Celle—ci peut être rapide sous certaines conditions, en particulier si l'apport de diaspores des espèces désirables est assuré, comme c'est le cas dans de nombreuses prairies inondables. Key words: meadowsvegetationdiversitydegradationrestoration</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2506205000</t>
+          <t>https://openalex.org/W2900718979</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.19625</t>
+          <t>https://doi.org/10.21954/ou.ro.0000e128</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Walton (1903)</t>
+          <t>McCollum (1996)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A hermit's wild friends; or, Eighteen years in the woods, by Mason A. Walton.</t>
+          <t>On the margins? : an analysis of theory and practice of development education in the 1990s</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NATURE versus MEDICINEEIGHTEEN years ago I was in sore straits.Ill health had reduced my flesh until I resem- bled the living skeleton of a dime show.I realized that a few months more of city life would take me beyond the living stage, and that the world would have no further use for me except to adorn some scientific laboratory.A diagnosis of my case would read as follows: Dyspepsia, aggravated, medicine could give but slight relief.Catarrh, malignant, 11 persistent.A douche was necessary every morning to relieve the severe facial pain.A cough that had worried me by day and by night, and thrived on all kinds of cough medi- cine.Also, my lungs were sore and the palms of my hands were hot and dry.I thought that I was fading away with consumption, but the doctors said my lungs were sound.I was advised to go into the woods and try life in a pine grove.As there was no money for the doctors in this advice, I looked upon it as kind and disinterested, but my mind ran in another direction.When I was young and full of notions, the idea entered my head that I should like a change from fresh to salt water.It resulted in a two months' trip on a fishing schooner.During the trip I had been free from seasick- ness, and had gained flesh rapidly.The memory of that sea voyage haunted me, now that I had become sick and discouraged.It seemed to me that a few weeks on salt water would save my life.With high hopes, I boarded the little HermttsWIld When facing the harbor, I could turn to the left and look across the marsh to Dogtown Common.I had to look above and beyond a straggling portion of the city.Dogtown Common, in Revolutionary days, contained forty dwellings ; now it was houseless.I saw only a boulder-covered region of pasture-land, choked by huckleberry and blueberry bushes, with here and there large tangles of catbrier.The last of March their low song could be heard in the shrub-lands.</t>
+          <t>This study offers, a critical analysis of the theory - and practice of development education in Britain in the 1990s, and it seeks to explore the nature and extent of the marginalization of development education and the ways in which it can be addressed through an analysis' of the internal and -external conditions which circumscribe development education practice._x000D_
+_x000D_
+It starts by charting the evolution, of development education, and identifying the major historical, cultural and theoretical forces which have given shape to it. It draws on key areas of educational, theory and practice and voluntary sector theory and practice which illuminate critical issues for development education. It then identifies shifts in the political and ideological, terrain; in which development education is located._x000D_
+_x000D_
+The empirical work centres around three in-depth case studies of development education centres 'which provide an understanding of the organization, the culture and the role of the centres, and which reveal a set of organizational conditions which serve to undermine development education efforts. Grounded theory is generated from the case studies in order to respond to the practitioners' definitions of situations and to generate theoretical truths grounded in the day to day realities of practice. The case study findings represent a base-line from which to consider a wider range of issues such as evaluation, dissemination and effectiveness of development education, and to ascertain the nature of the contribution the centres can make to development education in the wider context._x000D_
+_x000D_
+Finally it draws together the theory and practice of development education in an analysis of why it has had such a limited impact and outlines the implications for the future practice of development education in Britain. It argues that the problem of marginalization is related to the strategic delinquency which characterizes the centres' behaviour, and it identifies three critical factors which underly the centres' lack of strategic awareness, these are funding conditions, articles of faith and the culture of development education. The final section concludes by identifying priority areas in theory and practice which development education centres need to address in order to fulfil their potential.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4252066405</t>
+          <t>https://openalex.org/W4306764735</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/067320a0</t>
+          <t>https://doi.org/10.4141/cjss96-011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA (1903)</t>
+          <t>Arrouays et al. (1996)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A Romance of the Deep Sea</t>
+          <t>Short-range variability of fallout Pb in a contaminated soil</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TO those of our readers who have followed our successive notices of the great work achieved by Dr. Alcock in the exploration of the Indian Seas, for which lie has just been granted a Coronation honour, the present book, dedicated by the author to his shipmates, will be welcome; while to the general public it-ought to be both interesting and instructive, if only by the nature of its contents and its literary style. It is divided into three parts; the first, of fourteen chapters, giving a popular account of the ship and the voyage, and of apparatus and methods employed; the second, of nine chapters, giving a popular account of the deep-sea fauna of the Indian region; the third, in the form of appendices, being a list of dredging stations and depths, and a complete record of the literature of the expedition as thus far published. The Andaman and Arabian Seas, and the Bay of Bengal, were the scene of action; and, in the intervals of dredging and surveying, land parties were daily put ashore to sound and erect survey marks, and were in some cases left there for a month at a time for tide-watching, shore-collecting and other congenial occupations. Among the islands visited were the Andamans (twice), the Laccadives and the Coco set. Cardamum and Minnikoy a special chapter is given.</t>
+          <t>Studies about Pb variability in contaminated soils, especially in the case of fallout from smelters or facilities, are few and the relevance of geostatistical technique for studying contaminated soil as well as the surface area required for investigation are unclear. Few studies have been conducted on short-range variability of trace elements in soils, and some of them have shown these elements to be randomly distributed while others pointed out the spatial dependence between sample locations. Therefore the main objective of this study is to document the short-range variability of Pb in an area contaminated by fallout, using a case study in France. Soil lead in this site arises from a history of industrial use. No other metals were detected in Pb emissions. On this site, we conducted a statistical and a geostatistical study of Pb content in soil, and of soil characteristics that may affect it. The aims of this work are (i) to separate the spatial structure due to high Pb fallout from a content and diffuse pollution, (ii) to separate the variability due to analytical measurements from ones related to spatial variations, (iii) to point out the soil characteristics correlated with Pb, (iv) to optimize sampling design for monitoring the long-term changes following remedial action. Results demonstrated that in this highly contaminated soil, fallout Pb was mainly located in the surface layer (0–0.2 m depth). The geostatistical study suggested that the study of the spatial structure may help in discriminating fallout Pb from Pb coming from diffuse pollution or geochemical content. However, the large spatial variability of Pb, partly due to microheterogeneity made the monitoring of this toxic element very difficult, and required a larger surface for sampling. Using correlation techniques to detect causations appeared not to be relevant. Therefore, other statistical techniques such as path analysis should be tested. Additionally, microanalysis, mobility and bioavailability studies, as well as lab or bench scale remediation studies should be conducted. Key words: Contaminated soils, fallout Pb, short-range variability, geostatistics</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018363292</t>
+          <t>https://openalex.org/W2088615371</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1744-7348.1927.tb07021.x</t>
+          <t>https://doi.org/10.1161/01.cir.93.3.403</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Crowther et al. (1927)</t>
+          <t>Califf et al. (1996)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SULPHUR TREATMENT OF SOIL AND THE CONTROL OF WART DISEASE OF POTATOES IN POT EXPERIMENTS</t>
+          <t>Operator-Specific Outcomes</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Summary. In a series of pot experiments on potatoes grown in an acid soil artiftcially infected with the wart disease fungus, treatments with sulphuric acid and various combinations of sulphur and calcium carbonate, yieldmg a wide range of soil reaction, gave almost complete freedom from infection when the acidity of the soil had been raised to a very high value ( p H 3.4 or less). Heavy dressings of calcium carbonate, alone or with sulphur, giving a soil reaction of pH 7.5 or more, also reduced infection. The fact that partial and even, in one experiment, complete suppression of disease was obtained at lower acidities, where the effect on the disease was not closely related to the degree of acidity, supports the tentative conclusion already drawn from field experiments that sulphur in controning wart disease does not depend entirely on its effect in raising the acidity, but has also some other mode of action. Whether this toxicity which sulphur exerts apart from its effect on the acidity can be enhanced sufficiently to be of any practical value requires further investigation.</t>
+          <t>HomeCirculationVol. 93, No. 3Operator-Specific Outcomes Free AccessResearch ArticleDownload EPUBAboutView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessResearch ArticleDownload EPUBOperator-Specific Outcomes A Call to Professional Responsibility Robert M. Califf, James G. Jollis and Eric D. Peterson Robert M. CaliffRobert M. Califf From the Department of Medicine, Duke University Medical Center, Durham, NC. Search for more papers by this author , James G. JollisJames G. Jollis From the Department of Medicine, Duke University Medical Center, Durham, NC. Search for more papers by this author and Eric D. PetersonEric D. Peterson From the Department of Medicine, Duke University Medical Center, Durham, NC. Search for more papers by this author Originally published1 Feb 1996https://doi.org/10.1161/01.CIR.93.3.403Circulation. 1996;93:403–406One of the fundamental changes in the transformation of medical practice involves the ability of large purchasers of health care to select among competing providers for health care services. Lacking sufficient information about quality and outcomes, decisions concerning provider selection are driven primarily by price considerations. In the progression to a managed care–dominated system, prices may be driven down to the point where the quality of care is at risk. Sufficient information about healthcare quality will become critical in maintaining an effective healthcare system. The article by Ellis and colleagues1 in this issue of Circulation raises the important question of what outcomes should be measured to assess the quality of percutaneous revascularization and, more importantly, what the potential limitations are of these measures. The recent release of operator-specific outcomes data has ushered in a new terminology known as “scorecard medicine.”23 The use of the term “scorecard,” although having some negative connotations, provides symbolic insight into the issues that must be addressed by the profession. For decades in this country, thousands of fans have carefully followed the statistics of their favorite baseball players (without the benefits of a postgraduate mathematics degree). Intuitive familiarity through years of observation has led the public to widespread sophistication about interpreting these statistics. Small differences in batting averages early in the year are not regarded as important. Hitters with few “at bats” are not considered to have stable estimates of their hitting capabilities; a hitter with 3 hits in his first 10 at bats is not considered to be a “.300 hitter” but rather a batter who needs more exposure to determine his capabilities. Likewise, the fan understands that the runs-batted-in statistic is dependent on the ability of preceding hitters to get on base so that the hitter has an opportunity to drive in runs. Batting averages are often stratified as a function of batting against right-handed and left-handed pitching because of the recognition that expected outcomes differ depending on the pitching. In many ways, the medical scorecard has similar characteristics; the problem is that the important modifying factors are complex and poorly understood and the methods of adjusting for differences are even less well understood. As this field of quantitative outcomes evolves from its current early stage of development, we believe that constant exposure to medical outcome data will eventually lead to intuitive understanding similar to that of the interested baseball fan. Just as managers in other industries depend on information systems to provide support for policy decisions, managers of organized medical systems (managed care organizations) will do the same. Assessment of the value of strategies of medical care—including the value provided by individual practitioners—has become a reality; clinicians and researchers must accept this fact and move forward quickly to guide the development of efficient, fair, and effective methods of measurement. Outcomes can be defined in terms of cost, patient satisfaction with the delivery of medical care, freedom from adverse medical events, and quality of life in its many dimensions. The ease of measuring and understanding outcomes is directly related to the order in which they are listed above. Financial systems now allow measurement of cost at a detailed level, and the methods of analyzing cost data are common to all businesses. Similarly, patient satisfaction surveys are fundamentally similar to customer satisfaction surveys in other industries. Adverse outcomes can range from highly objective (mortality end points) to highly subjective (infarction rates, procedural success), as pointed out by Ellis and colleagues.1 Finally, the measurement of quality of life is extremely complicated because of its multidimensional nature and difficulty with subjective interpretation. Clinical outcomes, previously the sole in</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2065779335</t>
+          <t>https://openalex.org/W2331118737</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/253837</t>
+          <t>https://doi.org/10.4200/jjhg1948.48.427</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Viner (1927)</t>
+          <t>Araki (1996)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adam Smith and Laissez Faire</t>
+          <t>Growth of Vegetable Production in Asahikawa, Hokkaido</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessAdam Smith and Laissez FaireJacob VinerJacob Viner Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 35, Number 2Apr., 1927 Article DOIhttps://doi.org/10.1086/253837 Views: 299Total views on this site Citations: 181Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Stefan Fritsch Adam Smith, just commercial society and corporate social responsibility, Review of International Political Economy 58 (Oct 2022): 1–23.https://doi.org/10.1080/09692290.2022.2127832Edward Frame, Michelle Schwarze Adam Smith on Education as a Means to Political Judgment, Political Research Quarterly 3 (Oct 2022): 106591292211019.https://doi.org/10.1177/10659129221101909Maria Pia Paganelli Vanity and Luck in Adam Smith's Economic Growth, History of Political Economy 54, no.55 (Jun 2022): 859–877.https://doi.org/10.1215/00182702-10005732Jocelyn Hickey Reading the Invisible Hand: An Epistemological Consideration, History of Political Economy 54, no.55 (Jun 2022): 935–950.https://doi.org/10.1215/00182702-10005788Frédéric Ramel Adam Smith, 1723-1790, (Sep 2022): 222–233.https://doi.org/10.3917/scpo.ramel.2022.01.0222Heinz D. Kurz Re-reading Carl Menger’s Grundsätze – another book that “cries out to be surpassed”*, The European Journal of the History of Economic Thought 29, no.55 (Sep 2022): 877–919.https://doi.org/10.1080/09672567.2022.2111450Joost Hengstmengel, Paul Oslington The Curious Tale of Libanius, Grotius and Jacob Viner’s Universal Economy Doctrine, History of Economics Review 5 (Aug 2022): 1–13.https://doi.org/10.1080/10370196.2022.2105132Andrew Lynn Ethics, Economics, and the Specter of Naturalism: The Enduring Relevance of the Harmony Doctrine School of Economics, Journal of Business Ethics 178, no.33 (Apr 2021): 661–673.https://doi.org/10.1007/s10551-021-04819-yJulien Canavera “No hay nada menos libre que el libre mercado”. Intervencionismo liberal y antropogenia en la era del capitalismo postfordista, Revista de Filosofía (Madrid) Avance en línea (Oct 2022): 1–20.https://doi.org/10.5209/resf.75416Andreas Ortmann, Benoît Walraevens The Proper Role for Government, Game-Theoretically, for Smith, (Sep 2022): 113–140.https://doi.org/10.1007/978-3-030-99704-5_5Sean M. Baser, Matt T. Dean, Amy E. Stich Devolution, Disruption, and Denigration, (Sep 2022): 101–122.https://doi.org/10.1007/978-3-030-99097-8_99Ramesh Chandra Adam Smith and Economic Progress, (Nov 2021): 25–60.https://doi.org/10.1007/978-3-030-83761-7_2Jorge López Lloret La mano invisible de Adam Smith: de la sátira a la transformación social, Iberian Journal of the History of Economic Thought 8, no.22 (Nov 2021): 137–152.https://doi.org/10.5209/ijhe.76138Stefanos Ioannou, Dariusz Wójcik Was Adam Smith an economic geographer?, GeoJournal 42 (Sep 2021).https://doi.org/10.1007/s10708-021-10499-yEnrico Petracca On the origins and consequences of Simon’s modular approach to bounded rationality in economics, The European Journal of the History of Economic Thought 28, no.55 (Feb 2021): 708–732.https://doi.org/10.1080/09672567.2021.1877760Peter J Verovšek Taking Back Control over Markets: Jürgen Habermas on the Colonization of Politics by Economics, Political Studies 49 (Jun 2021): 003232172110186.https://doi.org/10.1177/00323217211018621Michael J. Clark Adam Smith as Solon: Accommodating on the edges of liberty, not abandoning it, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 739–747.https://doi.org/10.1016/j.jebo.2020.08.029Jonathon Diesel Adam Smith on usury: An esoteric reading, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 727–738.https://doi.org/10.1016/j.jebo.2020.08.031Scott Drylie Adam Smith on schooling: A classical liberal rereading, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 748–770.https://doi.org/10.1016/j.jebo.2020.08.032Paul D. Mueller Adam Smith on moral judgment: Why people tend to make better judgments within liberal institutions, Journal of Economic Behavior &amp; Organization 184 (Apr 2021): 813–825.https://doi.org/10.1016/j.jebo.2020.08.038Daniel B. Klein Conservative liberalism: Hume, Smith, and Burke as policy liberals and polity conservatives, Journal of Economic Behavior &amp; Organization 183 (Mar 2021): 861–873.https://doi.org/10.1016/j.jebo.2020.11.021Ramesh Chandra Adam Smith, Allyn Young, Amartya Sen and the Role of the State, History of Economics Review 78, no.11 (Jan 2021): 17–43.https://doi.org/10.1080/10370196.2020.1863005Daniel B. Klein TMS’s Appeal Has Moved with Openness to Non-foundationalism: 35 Critics, 1765 to 1949, SSRN Electronic Journal 291 (Jan 2021).https://doi.org/10.2139/ssrn.3893819Sean M. Baser, Matt T. Dean, Amy E. Stich Devolution, Disruption, &amp; Denigration, (Mar 2021): 1–23.https://doi.org/10.1007/978-</t>
+          <t>The economic conditions of Japanese agriculture have been transformed in the past ten years. These transformation are shown in food distribution and food consumption, in addition to farm production which is the main subject of traditional agricultural geography. And the influence of the former upon the latter is not small. Although a large number of studies have been made on agricultural geography, especially farm production, little is known about the importance of the former. The aim of this paper is to clarify the role of food distribution in the growth of agricultural production by adopting the food system approach.The food system approach has been discussed since the latter half of the 1980's in agricultural geography of the West and in the agricultural economics of Japan. What has to be noted is that this approach deals with agricultural input, product processing, food distribution, and food consumption in addition to farm production as the system intermediated by food. And the same approach can hold in a geographical system. But only a few studies have so far been made using geographical or regional systems in agricultural geography of Japan. Therefore the food system approach is beneficial in examing the role of food distribution and in introducing the methods of geographical systems into agricultural geography of Japan.This paper is concerned with vegetable production in Nishikagura, Asahikawa-shi, Hokkaido. The preceding studies have observed that Hokkaido is disadvantageous for vegetable cultivation. But on recent years vegetable production of Hokkaido has been increasing rapidly. Especially Asahikawa is a newly expanding district for shipping to Honshu. On account of these reasuns Asahikawa is selected as case study area.The following results were obtained: First, two marketing strategies are considered to have important roles from the observation of the grown process of vegetable production in this case. One is shipping on a period of short supply and the other is selection of markets. Little attention has been given to these marketing strategies beside farm production. But the marketing strategies promotes the growth of production in Hokkaido which would otherwise be disadvantageous for vegetable cultivation. This accounts for the importance of distribution. And the agricultural cooperatives in Asahikawa have played an active role of these strategies. To put it another way this is the geographical system linking rural and urban (production and consumption) and it is intermedeated by foods.Second, the author investigated farm side items for this growth of production. From the viewpoint of the physical environment, the next two factors became clear: farming methods for various kinds of vegetables, and the long range of the shipping period. The former was introduced to avoid injury from continuous corpping and the latter depends on the differences of soil and temperature in Nishikagura. But these are not unusual cases. Indeed the same observation applies to other districts. It is better to say that agricultural cooperatives have utilized the natural resources around Nishikagura under today's changeable conditions on the agricultural economy. The cost of transportation to Honshu has been a big problem for agriculture in Hokkaido. But the price margin between Hokkaido and Honshu is so much that it deals successfully with the problem of remoteness. However the shortage of agricultural labour in Asahikawa will be a difficult problem in the future and people have not found the solution to this problem.There is one further role of agricultural cooperatives that we must not ignore. That is the regulation of shipping destinations among the marketing cooperatives around Asahikawa. It has been considered that production adjustments are available for the solution of formerly excessive competition.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2094485293</t>
+          <t>https://openalex.org/W2094152005</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/t-aiee.1927.5061364</t>
+          <t>https://doi.org/10.1177/030631296026001009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Grondahl &amp; Geiger (1927)</t>
+          <t>Bowker (1996)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A New Electronic Rectifier</t>
+          <t>How Things Change: The History of Sociotechnical Structures</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A new rectifier utilizing a Tartially oxidized disk of copper as a rectifier unit is described. The disks may be arranged into groups suitable for all fields of rectifier applications. The rectification appears to take place at the junction between the copper and the oxide without observable physical or chemical changes, and is similar in character to rectification by the hot-cathode type of rectifiers. The physical characteristics of assembled rectifiers and a method of designing the same for special purposes are outlined and some of the design problems discussed. It is pointed out that the new rectification phenomenon is of a radically different nature from those observed in structurally some what similar contact rectifiers. The usual theories of contact rectification, which are based on electrolysis or thermoelectricity, are not applicable to the present case. The new phenomenon is discussed in the light of more recent theories based on electron affinities of copper and copper-oxide, which are in better accord with the observations. Some applications are given for which the rectifier seems to be especially suited.</t>
+          <t>curvilinear figures which can represent large technical systems. These figures have many affinities with Cartesian space, which classical science used to describe the real. . . . This organization of the very large scale sociotechnical thus enters into resonance with the scientific representation of nature, with which it shares a model of reality. And, as Ehrhard stresses: 'the network creates and gives form to an imaginary space', and this formation ends, from the system point of view, in making the map the territory. (137) So macro-systems take network shapes that give rise to a network space and time imaginary and actuality. They gain their very possibility from the ability to instantly communicate between parts of the network this allows for feedback control (138). Drawing on Luhmann, Gras goes on to discuss at length the evolution of these technical macro-systems, making many of the points that Callon did in his classic 'Techno-Economic Networks and Irreversibility'.14 Although this evolutionism plays a major role in his text, I am not going to discuss it in detail here. I think that the world needs another somewhat ponderous and amorphous characterization of how big things change rather less than it needs new ways of thinking about large systems. Thus I want to pause here and consider in more detail the relationship between the imaginary and the actual. A first point to make is that despite the 177 This content downloaded from 157.55.39.92 on Tue, 21 Jun 2016 06:11:31 UTC All use subject to http://about.jstor.org/terms Social Studies of Science excellent work of wedding at least three traditions (SCOT, French critical theory and German phenomenology), Gras and the others miss a set of works that provide just the same delightful mixture of high theory and dirty facts that characterizes their own work and could have further enriched it. Cronon's brilliant Nature's Metropolis springs to mind, as do the works of James Beniger and Alfred Chandler.15 More significant, however, is the question of whether one really needs to talk about minds and mentality when describing the mills of humanity. I think that the authors make a very convincing case that one does indeed. There is no real problem of a mental/ material split here. I was reminded while reading these books of Bergson's Matter and Memory, which starts from the position that the brain is, after all, matter.'6 These authors are taking the position that the mind is a social and material phenomenon (for one extreme statement of this position, see Durkheim's student Maurice Halbwachs' marvelous Collective Memory, in which he argues that all memory is social).17 Gras situates the mental in the material as forming a seamless web much like the seamless web that SCOT people wove between the natural and the social during the dark winter nights of the 1980s. He then does things with this new web that one could not do with the old one. What he does is to take the idea of technical systems a la Gille and integrate it with a distributed, collective view of consciousness to produce a shiny new array of causal explanations of the development and change of technical infrastructures. And this is just the move that has been needed in technology studies. Like cats languidly savaging long dead sparrows, historians and sociologists of technology have regularly picked the eyes out of a technological determinism that no-one is sure ever quite existed. Gras and company open the way to new activities. A figure in both of these books is the philosopher Michel Serres, whom I think lays much of the theoretical framework for this evolving tradition. The best access to Serres in English, though the furthest removed in subject area, is Rome; or the Book of Foundations, one of a series on origins culminating in the brilliant Les Origines de la Geometrie.18 Latour has a book of interviews with Serres entitled Eclaircissements which clarifies both Serres and Latour.19 The relationship between the body and the mind and the world is explored by Serres in a series of books beginning with Les Cinq Sens and culminating in Le Tiers Instruit.20 Serres' 178 This content downloaded from 157.55.39.92 on Tue, 21 Jun 2016 06:11:31 UTC All use subject to http://about.jstor.org/terms Reviews: Bowker: How Things Change work has provided a space for thinking cyberetically about communication and control, and through such analysis recognizing a reality in metaphors: so that literary and scientific texts can both be interpreted as talking about the same thing the former can be rigorous and the latter poetic. Latour's work has offered one way of grounding Serres' insights empirically; these books offer another. I have so far given relatively short shrift to Automate. This is a highly frustrating book, which is too close to 'grey literature', namely a commissioned academic report. When it is good, it is very very good and when it is bad it is awful. There is a wonderful section of observations of pilots c</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2317222639</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/1968020</t>
+          <t>https://openalex.org/W934779023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hopkins (1927)</t>
+          <t>Jordan (1996)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Non-Abelian Groups Whose Groups of Isomorphisms are Abelian</t>
+          <t>Social skilling through cooperative learning : a complementary approach to behaviour management</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Introduction. In the appendix of Hilton's Finite Groups (1908), page 233, the question whether non-abelian group can have an abelian group of isomorphisms occurs among a few interesting questions still awaiting solution. A non-abelian group of order 64 whose group of isomorphisms is abelian and of order 128 was later constructed by G. A. Miller.t No other discussian of the problem appears in the literature of Mathematics. In fact, an exhaustive analysis of the properties of non-abelian group whose group of isomorphisms is abelian seems to involve some difficulty, for the reason that little is known concerning isomorphisms of non-abelian group. The nature of an abelian group whose group of isomorphisms is abelian was determined by G. A. Miller,+ who proved that necessary and sufficient condition that an operation of the group of isomorphisms of an abelian group be invariant under this group is that it should transform every operation of this abelian group into the same power of itself. From this it is obvious that the only abelian groups whose groups of isomorphisms are abelian are the cyclic groups. In what follows we shall develop few necessary conditions which must be satisfied by non-abelian group whose group of isomorphisms is abelian. 1. The fundamental theorem. Wle assume non-abelian group G which is restricted solely by the hypothesis that its group of isomorphisms I is abelian. Since the central quotient group of G is simply isomorphic with the group of inner isomorphisms of G, it is clear that every commutator of G is invariant under G. The group G is accordingly the direct product of its Sylow subgroups.? Since every Sylow subgroup of G must correspond to itself in any isomorphism of G with itself, we may confine ourselves to the case where G is of order pm. For convenience we shall introduce the following notation: the symbol G shall consistently denote non-abelian group whose group of isomorphisms I</t>
+          <t xml:space="preserve">Hardly a day goes by without some media reference by teachers, parents and the general community at large, to disruptive behaviour in schools. This reported increase in disruptive behaviour has been attributed to a number of factors. The main one, it is argued, is a marked breakdown in student-teacher relationships in many western countries. Teachers have been de-skilled by social changes_x000D_
+... so profound, so rapid, and so extensive [which] have taken place in education that we have a veritable education revolution in these times. Few people realise as well as our teachers the reason for the changes which all of us are experiencing in all phases of life. The teachers recognise they are due primarily to the transition from an autocratic to a democratic society (Dreikurs 1955, quoted by Balson, 1993, p. vi)._x000D_
+According to Balson (1993), disruptive behaviour reflects the inability of teachers to adapt to this post-war transition. Traditionally the lines of authority between teachers and students were very clear. Students were punished, sometimes severely, for their inappropriate behaviour. School principals had, and in some cases still have, the legal authority to use corporal punishment towards their students. Balson suggests that the problem facing teachers is not of their own making. It reflects the loss of the traditional authoritarian status, which reaffirmed their right to control the behaviour of students._x000D_
+[This change] places the teachers of today in a dire predicament because the traditional methods, the only ones they know, no longer work and new ones are not known. This creates confusion in both children and adults (Balson, 1993, p. vii)._x000D_
+Rationale and methodology_x000D_
+One of the key requirements for securing a classroom in which on-task learning can take place is an absence of misbehaviour, and a great deal of energy is expended in securing this state of affairs._x000D_
+During my early teaching experience, I had been able to secure a happy and productive relationship with my students without a specific discipline plan. When appointed as a senior teacher, I was expected to demonstrate competence in my own class as well as sharing responsibility for discipline throughout the school. The Assertive Discipline (AD) style [see Canter, 1976] adopted in the school conflicted with my teaching philosophy and prior experience. Moreover, it appeared to have only limited success in the school as a whole, suggesting that a behaviour control strategy might not be effective in the longer term. I subsequently transferred to a school with a more cooperative approach to behaviour management, more in keeping with my natural style._x000D_
+These experiences led me to seek explanations for my preferences by exploring the principles and relative effectiveness of different behaviour management models. I therefore conducted the literature review which follows. This stressed the importance of social skills, the necessity to structure the learning experience of students to take this into account and to examine the curriculum, ethos and teaching style within my classroom in this context._x000D_
+Group work was a common feature of my teaching, but the literature has alerted me to the need to structure this more formally to ensure that each individual achieves academic and social targets within the group, and is not simply allowed to 'coast' in the shade of his/her more able or more confident peers. I therefore implemented a short programme of structured social skilling and cooperative learning activities in my classroom, to examine the practical implications of social skilling in a cooperative learning environment._x000D_
+The assumption underlying this action research is that its value lies in the extent to which it supports my practical judgement and increases my capacity to reflect systematically upon the complex situations which I confront in my teaching life (Elliott, 1 98 1)._x000D_
+Chapter 2 of this paper examines some theories of student behaviour and three approaches to behaviour management: the interventionist, the non-interventionist and the interactionist models. The key elements and the implications of each approach for classroom teachers and the students in their care are considered in turn._x000D_
+Chapter 3 discusses social skills and the ways in which they may be developed and explores cooperative learning strategies which may be used in classrooms to enhance and develop social skills which have already been encountered by most of the students in their family and school relationships._x000D_
+Chapter 4 reports a case-study which seeks to explore the structured introduction of cooperative learning as part of a social skilling strategy with a Grade 5/6 class. Data were collected over a six-week period to illustrate the process that has been implemented._x000D_
+Chapter 5 concludes that, despite the brevity of the study, there was some evidence that students became more socially aware and more skilled, as demonstrated by collaboration between wider groups of students </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2326969971</t>
+          <t>https://openalex.org/W2028262595</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/4578325</t>
+          <t>https://doi.org/10.1306/522b38a3-1727-11d7-8645000102c1865d</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oleson (1927)</t>
+          <t>Poelchau (1996)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Iodization of Public Water Supplies for Prevention of Endemic Goiter</t>
+          <t>Thermal conductivity contrast due to gas saturated pore space -- application in basin simulation: ABSTRACT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The theory that endemic goiter is due principally, if not solely, to a relative or absolute deficiency of iodine is now widely accepted. The experimental evidence upon which this conception is based is so convincing and the practical applications are so successful that doubts concerning the tenability of the theory are steadily being dispelled. Following the convincing demonstrations of Marine and his colleagues in preventing goiter among children and lower animals through the administration of small amounts of iodine, public health officials promptly turned their attention to the important matter of applying this new and effective weapon against a disease of long standing. However, in emulating the examples of these pioneer investigators it became apparent that successful prophylaxis is dependent upon the rigid observance of certain well defined and fundamental principles. These requisites for preventing endemic goiter may be stated as follows:</t>
+          <t>Calibration of thermal histories in basin modeling usually relies on matching temperature and vitrinite reflectance distribution in wells. The four main temperature, maximum depth of burial (or eroded overburden), and thermal conductivity of the individual layers of rocks. The last parameter can be used to match the fine structure of the vertical temperature distribution, thermal gradient changes and heat anomalies. While most commercial simulation packages use thermal conductivity values calculated with water as the pore fluid, we have experimented with using decreased conductivity resulting from high gas saturation in the pore space of specific formations in our modeling. One such case study is the Alberta Deep Basin in western Canada, where a large part of the lower Cretaceous section is thought to be gas saturated, underneath a water-saturated seal. Another case study comes from northwestern Siberia, where the largest gas accumulations on earth have been discovered. Results show that the thermal effect of gas in pores, as opposed to water, are significant and cannot be neglected in basin modeling. Such gas saturations can explain frequently observed sudden increases in vitrinite reflectance gradients or so called [open quote]kinky[close quote] reflection profiles. The gas effect can also be used to model heatmore » anomalies in past geologic periods where hypothetical increased heatflow evens cannot be justified.« less</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2912931548</t>
+          <t>https://openalex.org/W1988506773</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-0032(27)90170-7</t>
+          <t>https://doi.org/10.2172/380351</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Leffmann (1927)</t>
+          <t>Ahluwalia (1996)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Field astronomy for engineers and surveyors</t>
+          <t>Mineral nutrition and plant responses to elevated levels of atmospheric CO{sub 2}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Charts of ocean currents from the late nineteenth century show that already by then the patterns of surface circulation in regions away from polar latitudes were well understood. This fundamental knowledge accumulated gradually through centuries of sea travel and had reached a state of near correctness by the time dedicated research cruises, full-depth measurements and the practical application of the dynamical method were being instituted. Perhaps because of the foregoing, many of the pioneering works, critical to establishing what the upper-level circulation is like, the majority of the charts accompanying them, and several of the groundbreaking theoretical treatments on the physics of currents, are only poorly known to present-day oceanographers.In this paper we trace Western developments in knowledge and understanding of ocean circulation from the earliest times to the late-1800s transition into the modern era. We also discuss certain peripheral advances that proved critical to the subject. The earliest known ideas, dating from the Bronze Age and described by Homer, necessarily reflect severe limitations to geographical knowledge, as well as basic human predilections toward conjecture and exaggeration in the face of inadequate information. People considered the earth to be flat and circular, with the ocean flowing like a river around it. They also believed in horrific whirlpools, a concept that persisted into the Renaissance and which would later provide subject material for modern literature. From the Greek Classical Age, we find hydrologic theories of Earth's interior being laced with subterranean channels (Socrates) and all motion deriving from a divine force forever propelling the heavens toward the west, the primum mobile (Aristotle). These ideas, particularly the latter, dominated opinions about ocean circulation into the late Renaissance. By late Antiquity mariners had very likely acquired intimate knowledge of coastal currents in the Mediterranean, but little about them was reported in the Classical works. Following the dark and Middle Ages, when little progress was made, the voyages of discovery brought startling observations of many of Earth's most important ocean currents, such as the North and South Equatorial currents, the Gulf Stream, the Agulhas, Kuroshio, Peru, and Guinea currents, and others. The Gulf Stream appears to have been mapped as early as 1525 (Ribeiro) on the basis of Spanish pilot charts. Some currents were found to be westward, in the direction of the primum mobile as expected by theologians and philosophers, while others were not. The fifteenth through seventeenth centuries were marked by attainments of knowledge that increasingly taxed the abilities of science writers to reconcile new information with accepted doctrine. Consequences of this were descriptions of ocean circulation that questioned doctrine, yet were limited by it (Martyr; Gilbert; Bourne; Varen), while other descriptions disdainfully violated observation (Kircher; Happel). The expectation of a continuous westward oceanic flow around Earth in the direction of the primum mobile was so pervasive that it became central to arguments about a need for a passage through or around the Canadian north, and thus weighed significantly on the exploration and mapping of North America. Religious influences and the conceptual importance of the primum mobile waned by the close of the Renaissance and wind came to be seen as the primary cause of ocean currents (Dampier). The Gulf Stream (Franklin) and other North Atlantic flow patterns (de Brahm), as well as the southern Agulhas Current (Rennell), were mapped in the mid-to-late eighteenth century. Significant advances beyond these in determining the global ocean circulation came only after the routine determination of longitude at sea was instituted. The introduction of the marine chronometer in the late eighteenth century (Harrison) made this possible. By the end of the eighteenth century it was realized that water is a poor conductor of heat and, unlike that of freshwater, the density of seawater continues to increase as it is cooled to its freezing point; the far-reaching significance of the implied vertical convection and deep circulation of the ocean on the moderation of climate was immediately clear (Rumford), though observations were available almost exclusively from the ocean's surface. Largely because of the marine chronometer, a wealth of unprecedentedly-accurate information about zonal, as well as meridional, surface currents began to accumulate in various hydrographic offices. In the early nineteenth century data from the Atlantic were collected and reduced in a systematic fashion (Rennell), to produce the first detailed description of the major circulation patterns at the surface for the entire mid- and low-latitude Atlantic, along with evidence for cross-equatorial flow. This work provided a foundation for the assemblage of a global data set (Humboldt; Berghaus) th</t>
+          <t>The atmospheric concentration of CO{sub 2}, a radiatively-active ({open_quotes}green-house{close_quotes}) gas, is increasing. This increase is considered a post-industrial phenomenon attributable to increasing rates of fossil fuel combustion and changing land use practices, particularly deforestation. Climate changes resulting from such elevated atmospheric CO{sub 2} levels, in addition to the direct effects of increased CO{sub 2}, are expected to modify the productivity of forests and alter species distributions. Elevated levels of CO{sub 2} have been shown, in some cases, to lead to enhanced growth rates in plants, particularly those with C{sub 3} metabolism - indicating that plant growth is CO{sub 2}-limited in these situations. Since the major process underlying growth is CO{sub 2} assimilation via photosynthesis in leaves, plant growth represents a potential for sequestering atmospheric carbon into biomass, but this potential could be hampered by plant carbon sink size. Carbon sinks are utilization sites for assimilated carbon, enabling carbon assimilation to proceed without potential inhibition from the accumulation of assimilate (photosynthate). Plant growth provides new sinks for assimilated carbon which permits greater uptake of atmospheric carbon dioxide. However, sinks are, on the whole, reduced in size by stress events due to the adverse effects of stress on photosynthetic rates and therefore growth. This document reviews some of the literature on plant responses to increasing levels of atmospheric carbon dioxide and to inadequate nutrient supply rates, and with this background, the potential for nutrient-limited plants to respond to increasing carbon dioxide is addressed. Conclusions from the literature review are then tested experimentally by means of a case study exploring carbon-nitrogen interactions in seedlings of loblolly pine.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3151065837</t>
+          <t>https://openalex.org/W2050206251</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0962-6298(03)00076-3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tauroa (1927)</t>
+          <t>Sundberg (2003)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interview with Hiwi Tauroa</t>
+          <t>Conservation and democratization: constituting citizenship in the Maya Biosphere Reserve, Guatemala</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>New Zealand Race Relations Conciliator from 1980 to 1986. Born in Okaiawa, Taranaki, in 1927. Talks about his family background - gives reasons for being called Hiwi rather than his given name Edward. Mentions that his father spoke Maori - talks about the Latin-speaking Kaumatua at Kawhia and his father's important friends. Recalls attending primary school in Waima, Okaiawa and Kawhia - mentions the teachers, other students and travelling to school. Talks about learning Latin at Wesley College and his reasons for continuing his studies at Hawera Technical College - mentions working on a Jersey stud farm at Oeo during the school holidays. Discusses why he did choral work when he became a teacher - mentions singing at Runanga O Whaingaroa in Kaeo. Mentions Pakeha attitudes towards the establishment of Runanga and the reasons for his involvement in Whangaroa College. Recalls how he met his wife Pat.
-Discusses attending Auckland Teachers Training College and the reasons he agreed to teach at Wellington College. Tallks about accepting a position at Okato District High School in Taranaki - mentions the students, the principal Lloyd Tregoweth, and recalls how he coached All Black Grant Fox's father. Also mentions the school's rugby team winning the Moascar Cup. Talks about accepting the position of principal at Tuakau College - mentions some of the parents' reaction to his appointment, his involvement with the Education Department, and the Maori students at Tuakau College. Discusses his later appointment as principal of Whangaroa College.
-Mentions how he was approached to become Race Relations Conciliator - mentions Sir James Henare, Piripi Mokena, Harry Dansey and Jim McLay. Talks about Human Rights Commissioner Pat Downey's reaction to the appointment. Talks about the staff of the Office of the Race Relations Conciliator - mentions Pita Sharples. Describes the changing nature of cases brought to the Office during his time as Conciliator. Discusses gangs and how the Office remedied the lack of outreach programmes - recalls playing rugby at Mt Eden prison and Office's contact with gangs. Defines race relations - describes race relation networks and how they were set up. Discusses the lack of understanding about race relations. Talks about New Zealand's record of race relations - discusses the Treaty of Waitangi negotiations and a possible land dispute in Kaeo. Discusses the future of race relations in New Zealand and the importance of the media in reporting race relations.
-Talks about local schools and the importance of having local input into local issues - recalls the reason for establishing youth forums. Discusses the importance of the education initiatives undertaken by the Office. Discusses his appointment to the Committee of Youth and Law in Our Municipal Society in 1981 - mentions Tau Henare. Talks about the establishment of the Ethical Affairs councils. Discusses biculturalism and multiculturalism. Mentions a trip to China with the China Friendship Society and the establishment of the China New Zealand Maori (CHINZMA) - mentions Rewi Alley. Discusses the concept of whanaungatanga and family - gives comparisons between Tikanga Maori and Pakeha customs.
-Talks about the 1981 Springbok Tour to New Zealand - recalls a visit to South Africa around the same time. Talks about Pacific Island rugby players and the All Blacks. Discusses the use of the haka by the All Blacks.
-Discusses overseas trips while Race Relations Conciliator - recalls trip to the United Nations in Geneva and a trip to Wales and Ireland. Mentions Draft Declarations on the Rights of Indigenous Peoples and relations with American Indian groups at the United Nations. Recalls the building of the Whare Tipuna room in the New Zealand Embassy in Beijing in 1986 - elaborates on how the room was given the name 'He Pakeaka' (Pakiaka). Mentions the Totara wood panels that were carved by different iwi and the role of the carver Paki Harrison. 
-Access Contact - See Oral History Librarian 
-Interviewer(s) - Megan Hutching 
-Accompanying material - Copy of 'He Pakiaka' by Patricia Tauroa, a booklet on the Whare Tipuna room at the New Zealand Embassy, Beijing, China; copies of published articles from magazines and newspapers 
-Arrangement: Tape numbers - OHC-012719, OHC-012720, OHC-012721, OHC-012722 
-Quantity: 4 C60 cassette(s). 1 printed abstract(s). 3.30 Hours and minutes Duration. 
-Finding Aids: Abstract Available - abstracting complete OHA-5447
-Abstract Available - transcript(s) available. 
-Photocopied articles include copies of photographs of Hiwi Tauroa 
-Search dates: 1927 - 1999</t>
+          <t>How does environmental protection intersect with processes of democratization in Latin America? This paper examines this question with a case study in Guatemala centered on the Maya Biosphere Reserve. In particular, I explore how individuals and collectives—who are differently situated socially, politically, and geographically—conceptualize and negotiate the linkages between conservation and democratization in Guatemala. Drawing upon interviews with key players as well as my ethnographic research on the daily practices of conservation in the reserve, I suggest that democratization and environmental protection in Guatemala intersect in uneasy and paradoxical ways. At the heart of these contradictions lay historical patterns of exclusion that restrict who counts as a political actor, (environmental) decision-maker, and therefore citizen. The recent emergence of environmental movements and new conservation policies in Latin American countries is frequently tied to the restoration of democratic regimes in the 1980s. As Stephen Mumme and Edward Korzetz (1997: 46) contend, “liberalization and democratization create a host of new opportunities for environmental mobilization and policy development in the region”. Latin American leaders support the presumed congruence between environmental protection and democracies, as outlined in Our Own Agenda, the Latin American response to the Brundtland Report (UNDP, 1990; Gabaldón, 1992). ‘Green’ activists working in North American or European contexts also promote the notion that environmentalism is essentially a democratic ideology (Eckersley, 1992; see also Payne, 1995). Such claims are hotly contested at theoretical or philosophical levels (Dobson, 1996, Goodin, 1992, Saward, 1993), while empirical researchers find little evidence of natural congruence (Carruthers, 2001, Lafferty and Meadowcroft, 1996, Midlarsky, 1998, Walker, 1999). Instead, ample data demonstrate that conservationist objectives can be and are met without consideration for democratic procedures (Campbell, 2000, Neumann, 1998, Peluso, 1992). In short, although we may wish that environmental protection be accomplished through democratic means, there are no essential linkages between these two social imperatives. Consequently, understanding if and how environmental protection projects support or foster democracy requires geographically situated empirical analysis that is attentive to social relations and every day practices. This paper contributes to the on-going debate about the linkages between environmental protection and democracy with a case study in Guatemala centered on the Maya Biosphere Reserve, created in 1990 to protect 1.6 million hectares of tropical lowland flora and fauna. Specifically, I explore how individuals and collectives—who are differently situated socially, politically, and geographically—conceptualize and negotiate the linkages between conservation and democratization in Guatemala. My interviews with key players as well as my ethnographic research on the daily practices of conservation in the reserve lead me to suggest that democratization and environmental protection in Guatemala intersect in uneasy and paradoxical ways. At the heart of these contradictions lay historical patterns of exclusion that restrict who counts as a political actor, (environmental) decision-maker, and therefore citizen. Citizenship, then, is central to my analysis and I begin this paper outlining how and why this concept is particularly relevant in the Latin American context. I then turn to a more fine-grained analysis of citizenship formation in Guatemala, with a focus on the transition to democracy and emerging environmental movements. Drawing upon interviews with key players in the environmental movement, I consider how the social and political exclusions organizing Guatemalan society shaped the implementation of protected area legislation and the Maya Biosphere Reserve in particular. I next examine how the reserve’s inhabitants experienced the imposition of new environmental governance strategies. In two ethnographic vignettes, I analyze how two social groups, whose class position, gender, and race have historically limited their access to citizenship, negotiated the daily practices of conservation projects. In each case, the outcomes are at once uneven, contradictory, and promising. My analysis draws upon qualitative research between 1996 and 1997 on the politics of conservation in Guatemala and the Maya Biosphere Reserve. I conducted additional fieldwork in August 2000, focusing specifically on the relationship between environmental protection and processes of democratization.1 Unless otherwise noted, all quotations are taken from my taped interviews and field-notes, which I have translated from Spanish. With the exception of some public officials, all names have been omitted/changed to protect the identity of the men and women working both to protect Guatemala’s bio-physical landscapes and to create a</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4234291219</t>
+          <t>https://openalex.org/W2143510389</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/119385b0</t>
+          <t>https://doi.org/10.1890/02-0472</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA (1927)</t>
+          <t>Toms &amp; Lesperance (2003)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The Theory of Electricity</t>
+          <t>PIECEWISE REGRESSION: A TOOL FOR IDENTIFYING ECOLOGICAL THRESHOLDS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>THE first edition of Prof. Livens' “Theory of Electricity,” published in 1918, was reviewed in NATURE in 1919 (vol. 103, p. 142), and therefore the present notice need only take account of the changes introduced in the new edition. In its present form the book has been very much curtailed-from about 700 large octavo pages to rather more than 400 crown octavo pages-but the clear print characteristic of the series of the Cambridge University Press has been retained. A considerable amount of matter, relating principally to the detailed treatment of a considerable number of special problems, has been omitted in all cases where a full account is given in other books, but we are glad to note that the very careful and full discussions of fundamental principles and points of difficulty, so characteristic of the first edition of the book, have been retained in their entirety. Consequently, the work can be as highly recommended as before as an introduction to the theoretical side of electromagnetism, and in conjunction with such a detailed text-book as that of Jeans, gives as full an account of the theory in all its aspects as is to be found in any language.</t>
+          <t>We demonstrate the use of piecewise regression as a statistical technique to model ecological thresholds. Recommended procedures for analysis are illustrated with a case study examining the width of edge effects in two understory plant communities. Piece-wise regression models are “broken-stick” models, where two or more lines are joined at unknown points, called “breakpoints.” Breakpoints can be used as estimates of thresholds and are used here to determine the width of edge effects. We compare a sharp-transition model with three models incorporating smooth transitions: the hyperbolic-tangent, bent-hyperbola, and bent-cable models. We also calculate three types of confidence intervals for the breakpoint estimate: an interval based on the computed standard error of the estimate from the fitting procedure, an empirical bootstrap confidence interval, and a confidence interval derived from an inverted F test. We recommend use of the inverted F test confidence interval when sample sizes are large, and cautious use of bootstrapped confidence intervals when sample sizes are smaller. Our analysis demonstrates the need for a careful study of the likelihood surface when fitting and interpreting the results from piecewise-regression models.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4246655486</t>
+          <t>https://openalex.org/W2036208372</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-0032(27)92078-x</t>
+          <t>https://doi.org/10.2475/ajs.303.5.353</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>J.S.H. (1927)</t>
+          <t>Jolivet (2003)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Early organic chemistry of america</t>
+          <t>Subduction tectonics and exhumation of high-pressure metamorphic rocks in the Mediterranean orogens</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Metals can, when present in excess, or under wrong conditions, and in the wrong places, produce errors in the genetic information system. The present review is limited to three examples of heavy metal genotoxicants, namely arsenic (As), lead (Pb) and mercury (Hg) on plant systems. Exposure to lead is mainly through atmospheric pollutants, to mercury through soil and to arsenic through drinking water.Toxic metal ions enter cells by means of the same uptake processes as essential micronutrient metal ions. The amounts of metal absorbed by a plant depend on the concentrations and speciation of the metal in the soil solution, its movement successively from the bulk soils to the root surface, then into the root and finally into the shoot. Excessive concentrations of metals result in phytotoxicity through: (i) changes in the permeability of the cell membrane; (ii) reactions of sulphydryl (–SH) groups with cations; (iii) affinity for reacting with phosphate groups and active groups of ADP or ATP; and (iv) replacement of essential ions.Mercuric cations have a high affinity for sulphydryl groups and consequently can disturb almost any function where critical or non-protected proteins are involved. A mercury ion may bind to two sites of a protein molecule without deforming the chain, or it may bind two neighbouring chains together or a sufficiently high concentration of mercury may lead to protein precipitation. With organomercurials, the mercury atom still retains a free valency electron so that salts of such compounds form a monovalent ion.The effect of lead depends on the concentration, type of salts and plant species involved. Though effects are more pronounced at higher concentrations and durations, in some cases, lower concentrations might stimulate metabolic processes. The major processes affected are seed germination, seedling growth, photosynthesis, plant water status, mineral nutrition, and enzymatic activities.The phytotoxicity of arsenic is affected considerably by the chemical form in which it occurs in the soil and concentration of the metalloid. Due to its chemical similarity to phosphorus, arsenic participates in many cell reactions. Specific organo-arsenical compounds have been found in some organisms and arsenic has been reported to replace phosphorus in the phosphate groups of DNA. In view of the variety of reactions in plants that involve sulphydryl groups and phosphorus, arsenites and arsenates may interfere with physiological and biochemical processes which constitute growth in a number of ways.Mercury, lead and arsenic are effective mitotic poisons (turbagens) at particular concentrations, due to their known affinity for thiol groups and induce various types of spindle disturbances. The clastogenic effects are S-dependent. The availability of cations affect the number of aberrations produced quantitatively. Effects of metallic salts are related directly to the dosage and duration of exposure. Plants, following lower exposure, regain normalcy on being allowed to recover.Studies on genotoxicity of metals discussed in this review showed that genotoxic effects could be in part responsible for metal phytotoxicity, deserving further examination to elucidate the underlying mechanisms. The most noticeable and consistent effect of mercurials was the induction of c-mitosis resulting in the formation polyploid and aneuploid cells, and c-tumours. Inorganic salts of lead induced numerous c-mitoses together with strong inhibition of root growth and lowering of mitotic activity. As(III) is a weak mutagen but potent comutagen. Genotoxic evaluation of chemical mixtures from soil containing arsenic as component by Tradescantia micronucleus assay showed clastogenic effects, but not related specifically to arsenic.Plants growing on metal-contaminated sites need to develop some degree of tolerance to metal toxicity in order to survive. Since all plants contain at least some metal in their tissues, they clearly are incapable of completely excluding potentially toxic elements, but simply of restricting their uptake and/or translocation. The mechanisms for metal tolerance proposed are: (a) metal sequestration by specially produced organic compounds; (b) compartmentalization in certain cell compartments; (c) metal ion efflux; (d) organic ligand exudation. Inside cells, proteins such as ferritins and metallothioneins, and phytochelatins, participate in excess metal storage and detoxification. When these systems are overloaded, oxidative stress defence mechanisms are activated.Bacterial plasmids encode resistance systems for toxic metal ions including mercury, lead and arsenic. Chromosomal determinants of toxic metal resistance are also known. For mercury and arsenic, the plasmid and chromosomal determinants are basically the same. The largest group of metal resistance systems functions by energy-dependent efflux of toxic ions.Mercury-resistant bacteria have genes for the enzymes mercuric ion reductase and organomercurial</t>
+          <t>Using the peri-Mediterranean blueschist belts as a case study we discuss the mechanisms of syn-orogenic exhumation of high-pressure (HP) and ultra-high-pressure (UHP) rocks. The Mediterranean examples, within an overall convergent zone, show variations in the rates of convergence, rates of slab retreat, available space, and various stages of maturation of accretionary complexes. After a compilation of the deformation history and the kinematic boundary conditions and their evolution through time, we discuss P-T-t paths. Most of the structures found in the field today relate to the exhumation stage and often to quite superficial events related to syn-orogenic detachments. However a significant vertical motion occurred from the depth of eclogites (or UHP eclogites) to the depth of the blueschist or greenschist facies along cold P-T paths. Two types of mountain belts are described: those where a single thermal gradient was recorded throughout its’ history, like the Franco-Italian Alps, which suggest a steady-state evolution; and those where the thermal gradient has changed through time (and space), such as the Aegean region, which suggest a non-steady-state evolution. Slab retreat within a subduction complex does not lead to the exhumation of UHP rocks because the open subduction channel allows for fast circulation and detachment of sediments from the subducting basement. Subducted sediments lubricate the subduction channel and the basement is thus not involved in the return flow. Early exhumation is fast and the thermal regime in the subduction channel is partly controlled by the velocity of convergence and the velocity of slab retreat as well as by the nature of the subducted material. Final exhumation occurs within the accretionary complex at a much slower rate below extensional detachments. The removal of the overburden is achieved primarily by extension in the upper part of the accretionary complex. Extensional faults and shear zones are rooted in the brittle-ductile transition of the accretionary complex. Deeper “extensional” shear zones result from shearing along the base of the upper plate. We discuss a model with several levels of circulation of subducted material and compare it with available thermo-mechanical models.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4254481221</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/119207a0</t>
+          <t>https://openalex.org/W658344586</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA (1927)</t>
+          <t>Jacoby (2003)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[News and Views]</t>
+          <t>Building partnerships for service-learning</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IN his article elsewhere in this issue (p.200), Prof. E. W. Brown makes out a strong case for the belief that the chief outstanding anomalies in the motions of the moon, the sun, and the inner planets are due to errors in time-keeping arising from variations in the earth's rate of rotation.A set of the most puzzling departures of astronomical observation from gravitational theory has therefore been brought into harmony.The ratio of the chief inequalities in the longitudes of the sun and moon is such as to indicate that the variations of the rate of rotation are not associated with any corresponding transfer of angular momentum to the moon's orbital motion, and therefore Prof. Brown attributes them to changes in the earth's moment of inertia.Symmetrical swellings and contractions of the earth would certainly give rise to effects of the type observed.But elastic vibrations of the earth of this type would have periods of the order of minutes, not years, and it is difficult to think of any geological or seismological process that could give simultaneous expansion or contraction over the whole earth.An alternative explanation resting on a phenomenon already known to occur may be found in variations of the thickness of the polar ice-caps.Partial melting of the polar ice and redistribution of the water over the ocean would give changes of the moment of inertia such as are required, and the amount does not seem prohibitive.A small secular increase in the amount of ice would also give a secular acceleration of the earth's rotation, which would go some way towards explaining the outstanding discrepancy between theory and observation with respect to the ratio of the secular accelerations of the sun and moon.There is evidence of a warm climate in Europe about 2000 B.C., which would fit this suggestion.</t>
+          <t>It is clear that service learning has the potential to yield tremendous benefits to students, communities, and institutions of higher education. Increased student learning has been well documented. As communities gain new energy to meet their needs and greater capacity to capitalize on their assets, service learning enables higher education to fulfill its civic responsibility. When service learning lives up to its potential to lead colleges and universities to transform themselves into fully engaged citizens of their communities and the world, its ability to bring about positive social change is limitless. To be successful, service learning must be grounded in a wide range of solid, reciprocal, democratic partnerships. Building Partnerships for Service Learning assembles leading voices in the field to bring their expertise to bear on this crucial topic. Faculty, administrators, student leaders, and community and corporate leaders will find this volume filled with vital information, exemplary models, and practical tools needed to make service learning succeed. Comprehensive in scope, Building Partnerships for Service Learning includes: Fundamentals and frameworks for developing sustainable partnerships; Assessment as a partnership building process; The complex dynamics of collaboration between academic affairs and student affairs; Partnering with students to enhance service learning; How to create campus-wide infrastructure for service learning; Profiles and case studies of outstanding partnerships with neighborhoods, community agencies, and K-12 schools; Partnerships for collaborative action research; Exploring the challenges and benefits of corporate and international partnerships; and, The dynamic relationship of service learning and the civic renewal of higher education. Building Partnerships for Service Learning is the essential guide to taking service learning and partnerships to the next level.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020568115</t>
+          <t>https://openalex.org/W2031282045</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/281140</t>
+          <t>https://doi.org/10.1046/j.1365-2664.2003.00787.x</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Richards &amp; Kavanagh (1943)</t>
+          <t>Firbank et al. (2003)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The Analysis of the Relative Growth Gradients and Changing Form of Growing Organisms: Illustrated by the Tobacco Leaf</t>
+          <t>An introduction to the Farm‐Scale Evaluations of genetically modified herbicide‐tolerant crops</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Next article No AccessThe Analysis of the Relative Growth Gradients and Changing Form of Growing Organisms: Illustrated by the Tobacco LeafOscar W. Richards, and Arthur J. KavanaghOscar W. Richards Search for more articles by this author , and Arthur J. Kavanagh Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The American Naturalist Volume 77, Number 772Sep. - Oct., 1943 Published for The American Society of Naturalists Article DOIhttps://doi.org/10.1086/281140 Views: 5Total views on this site Citations: 67Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Aleksandra Sapala, Adam Runions, Richard S Smith Mechanics, geometry and genetics of epidermal cell shape regulation: different pieces of the same puzzle, Current Opinion in Plant Biology 47 (Feb 2019): 1–8.https://doi.org/10.1016/j.pbi.2018.07.017Lachezar A. Nikolov, Adam Runions, Mainak Das Gupta, Miltos Tsiantis , 131 ( 2019): 109.https://doi.org/10.1016/bs.ctdb.2018.11.006Aleksandra Sapala, Adam Runions, Anne-Lise Routier-Kierzkowska, Mainak Das Gupta, Lilan Hong, Hugo Hofhuis, Stéphane Verger, Gabriella Mosca, Chun-Biu Li, Angela Hay, Olivier Hamant, Adrienne HK Roeder, Miltos Tsiantis, Przemyslaw Prusinkiewicz, Richard S Smith Why plants make puzzle cells, and how their shape emerges, eLife 7 (Feb 2018).https://doi.org/10.7554/eLife.32794Evelyne Kolb, Valérie Legué, Marie-Béatrice Bogeat-Triboulot Physical root–soil interactions, Physical Biology 14, no.66 (Nov 2017): 065004.https://doi.org/10.1088/1478-3975/aa90ddEnrico Coen, Richard Kennaway, Christopher Whitewoods On genes and form, Development 144, no.2323 (Dec 2017): 4203–4213.https://doi.org/10.1242/dev.151910Adam Runions, Miltos Tsiantis, Przemyslaw Prusinkiewicz A common developmental program can produce diverse leaf shapes, New Phytologist 216, no.22 (Mar 2017): 401–418.https://doi.org/10.1111/nph.14449Christopher D. Whitewoods, Enrico Coen Growth and Development of Three-Dimensional Plant Form, Current Biology 27, no.1717 (Sep 2017): R910–R918.https://doi.org/10.1016/j.cub.2017.05.079Graeme Mitchison Conformal growth of Arabidopsis leaves, Journal of Theoretical Biology 408 (Nov 2016): 155–166.https://doi.org/10.1016/j.jtbi.2016.08.023Karen Alim, Shahaf Armon, Boris I Shraiman, Arezki Boudaoud Leaf growth is conformal, Physical Biology 13, no.55 (Sep 2016): 05LT01.https://doi.org/10.1088/1478-3975/13/5/05LT01Adriaan Campo, Przemyslaw Klosiewicz, Joris Dirckx Digital Image Correlation for Full-Field High Resolution Assessment of Leaf Growth, Journal of Plant Growth Regulation 34, no.22 (Jan 2015): 433–439.https://doi.org/10.1007/s00344-015-9477-xPhilip R. Buskohl, Jonathan T. Butcher, James T. Jenkins The influence of external free energy and homeostasis on growth and shape change, Journal of the Mechanics and Physics of Solids 64 (Mar 2014): 338–350.https://doi.org/10.1016/j.jmps.2013.11.012Jerzy Nakielski, Marcin Lipowczan, Gerrit T.S. Beemster Spatial and Directional Variation of Growth Rates in Arabidopsis Root Apex: A Modelling Study, PLoS ONE 8, no.1212 (Dec 2013): e84337.https://doi.org/10.1371/journal.pone.0084337Marcin Lipowczan, Anna Piekarska-Stachowiak, Joanna Elsner, Jacek Pietrakowski The tensor-based model of plant growth applied to leaves of Arabidopsis thaliana: A two-dimensional computer model, Comptes Rendus Biologies 336, no.99 (Sep 2013): 425–432.https://doi.org/10.1016/j.crvi.2013.09.001Edgar P Spalding, Nathan D Miller Image analysis is driving a renaissance in growth measurement, Current Opinion in Plant Biology 16, no.11 (Feb 2013): 100–104.https://doi.org/10.1016/j.pbi.2013.01.001Joanna Elsner, Marek Michalski, Dorota Kwiatkowska Spatiotemporal variation of leaf epidermal cell growth: a quantitative analysis of Arabidopsis thaliana wild-type and triple cyclinD3 mutant plants, Annals of Botany 109, no.55 (Feb 2012): 897–910.https://doi.org/10.1093/aob/mcs005Przemyslaw Prusinkiewicz, Adam Runions Computational models of plant development and form, New Phytologist 193, no.33 (Jan 2012): 549–569.https://doi.org/10.1111/j.1469-8137.2011.04009.xStephen C. Cowin The Specific Growth Rates of Tissues: A Review and a Re-Evaluation, Journal of Biomechanical Engineering 133, no.44 (Feb 2011).https://doi.org/10.1115/1.4003341Dorota Kwiatkowska, Jerzy Nakielski Mechanics of the Meristems, (Jun 2011): 133–172.https://doi.org/10.1007/978-3-642-19091-9_6Amelia A. Green, J. Richard Kennaway, Andrew I. Hanna, J. Andrew Bangham, Enrico Coen, Ottoline Leyser Genetic Control of Organ Shape and Tissue Polarity, PLoS Biology 8, no.1111 (Nov 2010): e1000537.https://doi.org/10.1371/journal.pbio.1000537Stephen C. Cowin Continuum kinematical modeling of mass increasing biological growth, International Journal of Engineering Science 48, no.1111 (Nov 2010): 1137–1145.https://doi.</t>
+          <t>Journal of Applied EcologyVolume 40, Issue 1 p. 2-16 Free Access An introduction to the Farm-Scale Evaluations of genetically modified herbicide-tolerant crops L. G. Firbank, L. G. Firbank Centre for Ecology and Hydrology, Merlewood, Grange-over-Sands, Cumbria LA11 6JU, UK;Search for more papers by this authorM. S. Heard, M. S. Heard Centre for Ecology and Hydrology, Monks Wood, Abbots Ripton, Huntingdon PE17 2LS, UK;Search for more papers by this authorI. P. Woiwod, I. P. Woiwod Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorC. Hawes, C. Hawes Scottish Crop Research Institute, Invergowrie, Dundee DD2 5DA, UK;Search for more papers by this author A. J. Haughton, A. J. Haughton Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorG. T. Champion, G. T. Champion Broom's Barn Research Station, Higham, Bury St Edmunds, Suffolk IP28 6NP, UK; andSearch for more papers by this authorR. J. Scott, R. J. Scott Centre for Ecology and Hydrology, Merlewood, Grange-over-Sands, Cumbria LA11 6JU, UK;Search for more papers by this authorM. O. Hill, M. O. Hill Centre for Ecology and Hydrology, Monks Wood, Abbots Ripton, Huntingdon PE17 2LS, UK;Search for more papers by this authorA. M. Dewar, A. M. Dewar Broom's Barn Research Station, Higham, Bury St Edmunds, Suffolk IP28 6NP, UK; andSearch for more papers by this authorG. R. Squire, G. R. Squire Scottish Crop Research Institute, Invergowrie, Dundee DD2 5DA, UK;Search for more papers by this authorM. J. May, M. J. May Broom's Barn Research Station, Higham, Bury St Edmunds, Suffolk IP28 6NP, UK; andSearch for more papers by this authorD. R. Brooks, D. R. Brooks Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this author D. A. Bohan, D. A. Bohan Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorR. E. Daniels, R. E. Daniels Centre for Ecology and Hydrology Dorset, Winfrith Technology Centre, Dorchester, Dorset DT2 8ZD, UKSearch for more papers by this authorJ. L. Osborne, J. L. Osborne Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorD. B. Roy, D. B. Roy Centre for Ecology and Hydrology, Monks Wood, Abbots Ripton, Huntingdon PE17 2LS, UK;Search for more papers by this author H. I. J. Black, H. I. J. Black Centre for Ecology and Hydrology, Merlewood, Grange-over-Sands, Cumbria LA11 6JU, UK;Search for more papers by this authorP. Rothery, P. Rothery Broom's Barn Research Station, Higham, Bury St Edmunds, Suffolk IP28 6NP, UK; andSearch for more papers by this authorJ. N. Perry, J. N. Perry Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this author L. G. Firbank, L. G. Firbank Centre for Ecology and Hydrology, Merlewood, Grange-over-Sands, Cumbria LA11 6JU, UK;Search for more papers by this authorM. S. Heard, M. S. Heard Centre for Ecology and Hydrology, Monks Wood, Abbots Ripton, Huntingdon PE17 2LS, UK;Search for more papers by this authorI. P. Woiwod, I. P. Woiwod Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorC. Hawes, C. Hawes Scottish Crop Research Institute, Invergowrie, Dundee DD2 5DA, UK;Search for more papers by this author A. J. Haughton, A. J. Haughton Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorG. T. Champion, G. T. Champion Broom's Barn Research Station, Higham, Bury St Edmunds, Suffolk IP28 6NP, UK; andSearch for more papers by this authorR. J. Scott, R. J. Scott Centre for Ecology and Hydrology, Merlewood, Grange-over-Sands, Cumbria LA11 6JU, UK;Search for more papers by this authorM. O. Hill, M. O. Hill Centre for Ecology and Hydrology, Monks Wood, Abbots Ripton, Huntingdon PE17 2LS, UK;Search for more papers by this authorA. M. Dewar, A. M. Dewar Broom's Barn Research Station, Higham, Bury St Edmunds, Suffolk IP28 6NP, UK; andSearch for more papers by this authorG. R. Squire, G. R. Squire Scottish Crop Research Institute, Invergowrie, Dundee DD2 5DA, UK;Search for more papers by this authorM. J. May, M. J. May Broom's Barn Research Station, Higham, Bury St Edmunds, Suffolk IP28 6NP, UK; andSearch for more papers by this authorD. R. Brooks, D. R. Brooks Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this author D. A. Bohan, D. A. Bohan Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorR. E. Daniels, R. E. Daniels Centre for Ecology and Hydrology Dorset, Winfrith Technology Centre, Dorchester, Dorset DT2 8ZD, UKSearch for more papers by this authorJ. L. Osborne, J. L. Osborne Rothamsted Research, Harpenden, Hertfordshire AL5 2JQ, UK;Search for more papers by this authorD. B. Roy, D. B. Roy Centre for Ecology and Hydrology, Monks Wood, Abbots Ripton, Huntingdon PE17 2LS, UK;Search for more papers by this author H. I. J. Black, H. I. J. Blac</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2030782457</t>
+          <t>https://openalex.org/W2028567333</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1104/pp.18.3.498</t>
+          <t>https://doi.org/10.1890/1540-9295(2003)001[0367:mraptb]2.0.co;2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Welker &amp; Wynd (1943)</t>
+          <t>Stenseth et al. (2003)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INFLUENCE OF UNKNOWN FACTORS ON THE VALIDITY OF MATHEMATICAL CORRELATIONS OF BIOLOGICAL DATA</t>
+          <t>Mice, rats, and people: the bio-economics of agricultural rodent pests</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A constantly increasing use has been made of mathematical procedures in evaluating biological data during the past decade. Some of these procedures have been mathematically and biologically sound with a consequent advancement of scientific knowledge. On the other hand, there are many accumulations of biological data which do not lend themselves to usual statistical treatment. Attempts to establish statistical correlations in these instances lead to false conclusions which obscure all efforts to interpret the nature of the phenomena under consideration. One of the most usual methods of investigating a biological problem is the observation of the effect of changes in some aspect of the environment on some measurable response of the organism. The word, environment, in the present instance, is used with its broadest possible connotation, as signifying all factors and influences within the organism as well as external to it which can act to influence the response of the organism. The frequent use of graphs in the presentation of the relationships between cause and effect is sufficient evidence to indicate how universal is this approach to scientific problems. The above sentences, at first hand, appear to state only a truism. Yet it is this approach that leads in many instances to erroneous conclusions. The purpose of the present paper is to call attention, as precisely as possible, to the manner in which these erroneous conclusions may enter into the interpretation of phenomena studied in this way. It is rarely true that a pair of biological characteristics vary exclusively with each other. The more common situation is that each of the characteristics is influenced by a variety of others. For example, the weight of the grain yield of a wheat plant may increase with the size of the root system, but each of these in turn will be affected by the total leaf area, the nutrients in the soil, and many other factors. This interdependency of characteristics complicates the problem of the measurement of the degree of association between the two characteristics being studied ; for example, the extent of the root system and the weight of grain produced. One common statistical measure used in this situation is the Pearson correlation coefficient. It is customary to subject these coefficients to a significance test in an attempt to determine whether or not they are of sufficient ? This study was carried out with funds granted the Graduate School of the University of Illinois by the Cerophyl Laboratories, Inc., Kansas City, Missouri.</t>
+          <t>Frontiers in Ecology and the EnvironmentVolume 1, Issue 7 p. 367-375 ReviewFree Access Mice, rats, and people: the bio-economics of agricultural rodent pests Nils Chr Stenseth, Nils Chr Stenseth Centre for Ecological and Evolutionary Synthesis (CEES), Department of Biology, University of Oslo, Norway E-mail: n.c.stenseth@bio.uio.noSearch for more papers by this authorHerwig Leirs, Herwig Leirs University of Antwerp, Department of Biology, Antwerpen, Belgium Danish Pest Infestation Laboratory, Lyngby, DenmarkSearch for more papers by this authorAnders Skonhoft, Anders Skonhoft Department of Economics, Norwegian University of Science and Technology, Trondheim, NorwaySearch for more papers by this authorStephen A. Davis, Stephen A. Davis Danish Pest Infestation Laboratory, Lyngby, Denmark CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorRoger P. Pech, Roger P. Pech CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorHarry P. Andreassen, Harry P. Andreassen Centre for Ecological and Evolutionary Synthesis (CEES), Department of Biology, University of Oslo, NorwaySearch for more papers by this authorGrant R. Singleton, Grant R. Singleton CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorMauricio Lima, Mauricio Lima Center for Advanced Studies in Ecology &amp; Biodiversity, Pontificia Universidad CatF3lica de Chile, Santiago, ChileSearch for more papers by this authorRobert S. Machang'u, Robert S. Machang'u SUA Pest Management CentreSearch for more papers by this authorRhodes H. Makundi, Rhodes H. Makundi SUA Pest Management CentreSearch for more papers by this authorZhibin Zhang, Zhibin Zhang National Key Laboratory of Integrated Management of Pest Insects and Rodents in Agriculture, Institute of Zoology, Chinese Academy of Sciences, Beijing, ChinaSearch for more papers by this authorPeter R. Brown, Peter R. Brown CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorDazhao Shi, Dazhao Shi Department of Plant Protection, China Agriculture University, Beijing, ChinaSearch for more papers by this authorXinrong Wan, Xinrong Wan National Key Laboratory of Integrated Management of Pest Insects and Rodents in Agriculture, Institute of Zoology, Chinese Academy of Sciences, Beijing, ChinaSearch for more papers by this author Nils Chr Stenseth, Nils Chr Stenseth Centre for Ecological and Evolutionary Synthesis (CEES), Department of Biology, University of Oslo, Norway E-mail: n.c.stenseth@bio.uio.noSearch for more papers by this authorHerwig Leirs, Herwig Leirs University of Antwerp, Department of Biology, Antwerpen, Belgium Danish Pest Infestation Laboratory, Lyngby, DenmarkSearch for more papers by this authorAnders Skonhoft, Anders Skonhoft Department of Economics, Norwegian University of Science and Technology, Trondheim, NorwaySearch for more papers by this authorStephen A. Davis, Stephen A. Davis Danish Pest Infestation Laboratory, Lyngby, Denmark CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorRoger P. Pech, Roger P. Pech CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorHarry P. Andreassen, Harry P. Andreassen Centre for Ecological and Evolutionary Synthesis (CEES), Department of Biology, University of Oslo, NorwaySearch for more papers by this authorGrant R. Singleton, Grant R. Singleton CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorMauricio Lima, Mauricio Lima Center for Advanced Studies in Ecology &amp; Biodiversity, Pontificia Universidad CatF3lica de Chile, Santiago, ChileSearch for more papers by this authorRobert S. Machang'u, Robert S. Machang'u SUA Pest Management CentreSearch for more papers by this authorRhodes H. Makundi, Rhodes H. Makundi SUA Pest Management CentreSearch for more papers by this authorZhibin Zhang, Zhibin Zhang National Key Laboratory of Integrated Management of Pest Insects and Rodents in Agriculture, Institute of Zoology, Chinese Academy of Sciences, Beijing, ChinaSearch for more papers by this authorPeter R. Brown, Peter R. Brown CSIRO Sustainable Ecosystems, Canberra, AustraliaSearch for more papers by this authorDazhao Shi, Dazhao Shi Department of Plant Protection, China Agriculture University, Beijing, ChinaSearch for more papers by this authorXinrong Wan, Xinrong Wan National Key Laboratory of Integrated Management of Pest Insects and Rodents in Agriculture, Institute of Zoology, Chinese Academy of Sciences, Beijing, ChinaSearch for more papers by this author First published: 01 September 2003 https://doi.org/10.1890/1540-9295(2003)001[0367:MRAPTB]2.0.CO;2Citations: 197AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and ac</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2068374293</t>
+          <t>https://openalex.org/W2014693822</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0035-9203(43)90007-0</t>
+          <t>https://doi.org/10.1175/1520-0469(2003)060&lt;1637:ccewan&gt;2.0.co;2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Foy &amp; Kondi (1943)</t>
+          <t>Yang et al. (2003)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lyso-lecithin fragility in blackwater fever and haemolytic jaundice</t>
+          <t>Convectively Coupled Equatorial Waves: A New Methodology for Identifying Wave Structures in Observational Data</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Red cells transfused into a case of haemolysing blackwater fever are destroyed just as readily as the patient's own cells, making it appear that it is not the red cells that are at fault in this condition, but that there is some circulating haemolysin. By an improved spectrophotometric technique it has now been shown that, like those of haemolytic jaundice, the red cells from blackwater fever have an increased fragility to lyso-lecithin, although their fragility to saline is normal, unlike that of the cells of haemolytic jaundice. These two facts taken together make it seem that in blackwater fever the cells may possess some abnormal feature, but that this is probably secondary to more fundamental changes that take place in the cells' environment. By using van Boros' formula it is possible to demonstrate that spherocytosis occurs in blackwater fever and is accompanied by decreases in diameter-thickness ratio, volumes and areas; that these changes in blackwater fever are intermediate between those taking place in haemolytic jaundice and normal controls, and are not related in blackwater fever to changes in hypotonic saline fragility. It is probable that the initial stage in the destruction of the cells is a change in the permeability of the cell membrane, which allows haemoglobin to escape. The cells have later been seen to swell, become “transparent,” and then to disappear. That they have not been broken up can be shown by resuspending them in saline when the “ghosts” reappear. This phenomenon takes place in both lyso-lecithin and snake venom haemolysis. If the process is allowed to continue the cells are finally disrupted, and will not reappear on saline resuspension. In haemolytic jaundice it seems that there may be some defect in the red cell as well as some “splenic factor,” shown by the fact that splenectomy fails to alter the abnormal fragility of the cells to saline, but does stop the periodic haemolysis. A combination of both abnormal cells and splenic factors would seem to be necessary for the destruction of the red cells in this condition. The same cannot be determined for blackwater fever. The enlargement of the spleen in so many of these haemolytic conditions is regarded by many as of considerable significance. The production of lyso-lecithin as a result of the separation of the cells and plasma in this organ has led to the suggestion that this powerfully haemolytic substance may play a part in the haemolyses of certain of these conditions. It is possible that lyso-lecithin fragility is in some way related to the action of this substance on the lipoids or lipo-protein complex in the red cell membrane. It has been shown that the amount of lipoid present in the cell envelope is closely related to the dimensions of the cell, and that the ability of the cell to increase its volume without being disrupted is related to the lipo-protein ratio in its membrane. The kinetics of lyso-lecithin haemolysis have not been worked out, but there is some ground for regarding the process as one of enzyme action where the enzyme lecithinase acting on a substrate of red cells or plasma lecithin results in the production of lyso-lecithin or some allied phosphatide. Lecithinase has been shown to be present in many conditions where haemolytic reactions take place, such as in favism, snake poisoning, Cl. welchii filtrates as well as in the spleen and peripheral blood. The degradation products of the action of lecithinase on lecithin are not always the same, nor are the various lecithinases alike. Although the end product of the action of snake venom lecithinase on lecithin is lyso-lecithin, yet this substance when injected into baboons in relatively huge amounts produces no haemolysis, and only a slight shift of the Price-Jones curve to the right. This is in sharp contrast to the haemolysis that follows the injection of snake venom freed of its neurotoxic factor. It is suggested that this difference may be due to the fact that in the former case the lecithin in the cells and/or plasma is not disturbed, whilst in the case of snake venom injection of the lecithinase present in the venom will split the lecithin of the cells and/or plasma and so disturb the intracellular lipo-protein complex. The part played by the reticulo-endothelial system in the haemolytic process is briefly discussed—the resulting decision being that no precise data are available to enable any conclusions to be reached either upon the part that this system plays in actually destroying red cells, or elaborating haemolysins that later lyse the cells. Proteolytic enzymes may be produced in the macrophages of the reticulo-endothelial system and these have been shown to be capable of destroying red and white cells.</t>
+          <t>Convectively coupled equatorial waves are fundamental components of the interaction between the physics and dynamics of the tropical atmosphere. A new methodology, which isolates individual equatorial wave modes, has been developed and applied to observational data. The methodology assumes that the horizontal structures given by equatorial wave theory can be used to project upper- and lower-tropospheric data onto equatorial wave modes. The dynamical fields are first separated into eastward- and westward-moving components with a specified domain of frequency–zonal wavenumber. Each of the components for each field is then projected onto the different equatorial modes using the y structures of these modes given by the theory. The latitudinal scale yo of the modes is predetermined by data to fit the equatorial trapping in a suitable latitude belt y = ±Y. The extent to which the different dynamical fields are consistent with one another in their depiction of each equatorial wave structure determines the confidence in the reality of that structure. Comparison of the analyzed modes with the eastward- and westward-moving components in the convection field enables the identification of the dynamical structure and nature of convectively coupled equatorial waves. In a case study, the methodology is applied to two independent data sources, ECMWF Reanalysis and satellite-observed window brightness temperature (Tb) data for the summer of 1992. Various convectively coupled equatorial Kelvin, mixed Rossby–gravity, and Rossby waves have been detected. The results indicate a robust consistency between the two independent data sources. Different vertical structures for different wave modes and a significant Doppler shifting effect of the background zonal winds on wave structures are found and discussed. It is found that in addition to low-level convergence, anomalous fluxes induced by strong equatorial zonal winds associated with equatorial waves are important for inducing equatorial convection. There is evidence that equatorial convection associated with Rossby waves leads to a change in structure involving a horizontal structure similar to that of a Kelvin wave moving westward with it. The vertical structure may also be radically changed. The analysis method should make a very powerful diagnostic tool for investigating convectively coupled equatorial waves and the interaction of equatorial dynamics and physics in the real atmosphere. The results from application of the analysis method for a reanalysis dataset should provide a benchmark against which model studies can be compared.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2092034501</t>
+          <t>https://openalex.org/W2017035668</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1590/s0006-87051943000800002</t>
+          <t>https://doi.org/10.1287/orsc.14.1.1.12812</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jensen (1943)</t>
+          <t>McEvily et al. (2003)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Um estudo citológico comparativo de Thalictrum e Ilex</t>
+          <t>Introduction to the Special Issue on Trust in an Organizational Context</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1. New chromosome numbers have been determined tor the following species from material collected in various counties of North Carolina, U . S . A. Thalictrum clavatum n = 7 Th. dioicum n = 14 Th. polygamum n = 42 Th. coriaceum n = 70 Ilex decidua n = 20 I. monticola n = 20 I. vomitoria n = 20 I. opaca n = 18 I. verticillata n = 11. New chromosome numbers have been determined tor the following species from material collected in various counties of North Carolina, U.S.A. Thalictrum clavatum n = 7 Th. dioicum n = 14 Th. polygamum n = 42 Th. coriaceum n = 70 Ilex decidua n = 20 I. monticola n = 20 I. vomitoria n = 20 I. opaca n = 18 I. verticillata n = 18 2. The genus Thalictrum has been rather well investigated cytologically but the genus Ilex has not yet received the attention it merits, and offers cytologists in North, Central, and South America an opportunity ro study an extensive genus which has been, and probably is, undergoing interespecific hybridization while a shift from the hermaphroditic to the unisexual habit is also well established. These two great evolutionary factors, hybridization and the advent of the dioecious condition, appear to stimulate divergent lines of meiotic behavior depending upon whether or not they appear in the phylogeny of a race simultaneously or successively, and in the case of the latter, which came first. The genus Thalictrum was used as a basis for comparison with the situation as found in the eastern North American forms of Hex with the following conclusions. a. The genus Thalictrum is vastly polyploid and meiotically regular. This condition is thought to be the result of previous hybridization of the species before the advent of the dioecious habit. b. The genus Ilex is, as far as research has gone, negatively aneuploid and frequently irregular meiotically. This condition is thought to be the result of previous hybridization of the species after , or no more than simultaneously with, the advent oi the dioecious habit. Heterochromosome Complex Division in first seen Choromatin ejected Other diagnostic hybrid characteristics Species Type of Chromosome I.. decidua Medium Homeotypic One choromatid during second anaphase Laggards anaphase bridges I. monticola. Smallest member of complement Heterotypic One chormatid during first anaphase. Left in cytoplasm Lagging Precocious chorm I. opaca Medium Heterotypic Whole chorm. One chromatid sometimes accepted by complement in second div. Lagging chrom I. verticillata Two types. One tripartite X-- X1Y2 small Other medium Heterotypic Yes. Degenerates during first telophase. Yes Degenerates during first telophase. I. vomitoria Medium sized tripartite complex Heterotypic None found A number of laggards dur-first division 3. Heterochromosomes were found in microsporogenesis of all five species of Ilex, along with other meiotic peculiarities of suggested hybrid origin, but no two were alike. Behavior of the heterochromosomes was not found to be consistent and in approximately 5 0% of the PMCs. meiosis was normal. Findings are summarized in following table.8 4. In view of the generally irabie chromosome number for the five species of Ilex investigated, only such pollen as arises from PMCs. which possess the normal meiosis may produce the gametes which effect fertilization. This presents the problem of explaining how the ability to produce meiotic abnormalities is inherited through cells which dcnot exhibit it or through the female side and its significance on the whole question of the evolution of sex chromosomes from various types of heterochromosomes. 5. A comparison of the cytology or species of Thalictrum and Ilex adds support to the author's earlier contention that so-called sex chromosomes in higher plants have their origin in special types of heterochromosomes which in turn owe their appearance to meiotic disturbances induced by previous hybridization of the species and preserved through the more or less simultaneous advent of the dioecious habit. In the author'- opinion, the genus Ilex offers an opportunity to increase our knowledge of what occur? during the stage intermediate between autosome and the specialized types of sex-linked heterochromosomes.</t>
+          <t>Free AccessAboutSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareShare onFacebookTwitterLinked InEmail Go to SectionFree Access HomeOrganization ScienceVol. 14, No. 1 Introduction to the Special Issue on Trust in an Organizational ContextBill McEvily, Vincenzo Perrone, Akbar ZaheerBill McEvily, Vincenzo Perrone, Akbar ZaheerPublished Online:1 Feb 2003https://doi.org/10.1287/orsc.14.1.1.12812 Back to Top Next FiguresReferencesRelatedInformationCited by20. Læringskultur i operative miljøer – Luftforsvaret som eksempel24 August 2023Passing the torch of knowledge: Star death, collaborative ties, and knowledge creationResearch Policy, Vol. 52, No. 1International Marketing Channel: Systematic Literature Review 2010–2021How do business incubators govern incubation relationships with different new ventures?Technovation, Vol. 116Peeking Inside the Black Box: Inventor Turnover and Patent Termination15 April 2021 | Journal of Management, Vol. 48, No. 4Trust Within the Workplace: A Review of Two Waves of Research and a Glimpse of the ThirdAnnual Review of Organizational Psychology and Organizational Behavior, Vol. 9, No. 1TrustworthinessThe FutureAn Institutional Trust Perspective of Cloud Adoption Among SMEs in South Africa8 March 2020Searching for Answers to Hybrid Approaches in Communication and Learning EnvironmentsHow Does the Entrepreneurship Education Influence the Students’ Innovation? Testing on the Multiple Mediation Model10 July 2019 | Frontiers in Psychology, Vol. 10The moderating effect of trust in management on consequences of job insecurity6 July 2016 | Economic and Industrial Democracy, Vol. 40, No. 2Modelling the Dynamics of Trust Across a Cloud Brokerage EnvironmentTrust, job security and subordinate–supervisor guanxi : Chinese employees in joint ventures and state-owned enterprises6 October 2017 | Asia Pacific Business Review, Vol. 24, No. 5The significance of human capital and social capital: professional–client relationships in the Asia Pacific9 February 2017 | Asia Pacific Business Review, Vol. 24, No. 1Social CommunicationInternational Journal of Interactive Communication Systems and Technologies, Vol. 8, No. 1Different roles of control mechanisms in buyer-supplier conflict: An empirical study from ChinaIndustrial Marketing Management, Vol. 65Bridging the Communication GapUnderstanding Social CommunicationTrust, but Verify: MD&amp;A Language and the Role of Trust in Corporate Culture23 April 2015 | Journal of Business Ethics, Vol. 139, No. 3Do your employees (collectively) trust you? The importance of trust climate beyond individual trustScandinavian Journal of Management, Vol. 31, No. 4Building knowledge integration in buyer-supplier relationshipsInternational Journal of Operations &amp; Production Management, Vol. 35, No. 10Trust‐Based Approaches to Safety and Productivity16 October 2015Understanding social capital, team learning, members' e-loyalty and knowledge sharing in virtual communities8 January 2014 | Total Quality Management &amp; Business Excellence, Vol. 26, No. 5-6Joining Forces or Going It Alone? On the Interplay among External Collaboration Partner Types, Interfirm Governance Modes, and Internal R&amp;D13 October 2014 | Journal of Product Innovation Management, Vol. 32, No. 3COOPERAÇÃO NO APL DE SANTA RITA DO SAPUCAÍRAM. Revista de Administração Mackenzie, Vol. 16, No. 1Trust, But Verify: MD&amp;A Language and the Role of Trust in Corporate CultureSSRN Electronic JournalModelling the Dynamics of Trust across a Cloud Brokerage EnvironmentInformation Resources Management Journal, Vol. 28, No. 1Social Networking and Individual Perceptions: Examining Predictors of Participation17 February 2013 | Public Organization Review, Vol. 14, No. 3Trust Calculation Model in Knowledge Community1 September 2014 | Applied Mechanics and Materials, Vol. 631-632In Search We TrustInternational Journal of Knowledge Society Research, Vol. 5, No. 1Information System Outsourcing Dynamics: A Case Study as Seen by a Client Boundary Role Person13 August 2014On the institutionalisation of trust research and practice: Heaven awaits!Journal of Trust Research, Vol. 3, No. 2Trust and context in cyberspace2 October 2013 | Archives and Records, Vol. 34, No. 2A cross-level process theory of trust development in interorganizational relationships23 January 2013 | Strategic Organization, Vol. 11, No. 3Reorganizing the Boundaries of Trust: From Discrete Alternatives to Hybrid FormsBill McEvily, 17 May 2011 | Organization Science, Vol. 22, No. 5Where can capabilities come from? network ties and capability acquisition in business groups23 December 2010 | Strategic Management Journal, Vol. 32, No. 8The Role of Communication and Trust in Global Virtual Teams: A Social Network Perspective8 December 2014 | Journal of Management Information Systems, Vol. 28, No. 1Measuring trust in organisational research: Review and recommendationsJournal of Trust Research, Vol. 1, No. 1Servant leadership as antecede</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2322144020</t>
+          <t>https://openalex.org/W2156414808</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/jn.1943.6.1.39</t>
+          <t>https://doi.org/10.1287/mnsc.49.4.0.14421</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galambos &amp; Davis (1943)</t>
+          <t>Argote et al. (2003)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>THE RESPONSE OF SINGLE AUDITORY-NERVE FIBERS TO ACOUSTIC STIMULATION</t>
+          <t>Introduction to the Special Issue on Managing Knowledge in Organizations: Creating, Retaining, and Transferring Knowledge</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ArticlesTHE RESPONSE OF SINGLE AUDITORY-NERVE FIBERS TO ACOUSTIC STIMULATIONRobert Galambos, and Hallowell DavisRobert Galambos, and Hallowell DavisPublished Online:01 Jan 1943https://doi.org/10.1152/jn.1943.6.1.39MoreSectionsPDF (3 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInEmailWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformationCited ByThe burst gap is a peripheral temporal code for pitch perception that is shared across audition and touch30 June 2022 | Scientific Reports, Vol. 12, No. 1Signatures of cochlear processing in neuronal coding of auditory informationMolecular and Cellular Neuroscience, Vol. 120A Broadly Applicable Method for Characterizing the Slope of the Electrically Evoked Compound Action Potential Amplitude Growth Function1 January 2022 | Ear &amp; Hearing, Vol. 43, No. 1A Survey of Encoding Techniques for Signal Processing in Spiking Neural Networks22 July 2021 | Neural Processing Letters, Vol. 53, No. 6Encoding sound in the cochlea: from receptor potential to afferent discharge29 March 2021 | The Journal of Physiology, Vol. 599, No. 10Simultaneous spike-time locking to multiple frequenciesFabian H. Sinz,* Carolin Sachgau,* Jörg Henninger, Jan Benda,* and Jan Grewe*16 June 2020 | Journal of Neurophysiology, Vol. 123, No. 6Tapping Into the Language of Touch: Using Non-invasive Stimulation to Specify Tactile Afferent Firing Patterns19 May 2020 | Frontiers in Neuroscience, Vol. 14Temporal processing properties of auditory DUM neurons in a bush-cricket20 July 2019 | Journal of Comparative Physiology A, Vol. 205, No. 5Perfidious synaptic transmission in the guinea-pig auditory brainstem4 October 2018 | PLOS ONE, Vol. 13, No. 10Responsiveness of the Electrically Stimulated Cochlear Nerve in Children With Cochlear Nerve DeficiencyEar &amp; Hearing, Vol. 39, No. 2A Brief Introduction28 April 2018Distorting temporal fine structure by phase shifting and its effects on speech intelligibility and neural phase locking17 October 2017 | Scientific Reports, Vol. 7, No. 1Decoding sound level in the marmoset primary auditory cortexWensheng Sun, Ellisha N. Marongelli, Paul V. Watkins, and Dennis L. Barbour1 October 2017 | Journal of Neurophysiology, Vol. 118, No. 4Mechanisms of synaptic depression at the hair cell ribbon synapse that support auditory nerve function21 August 2017 | Proceedings of the National Academy of Sciences, Vol. 114, No. 36Mass Potentials Recorded at the Round Window Enable the Detection of Low Spontaneous Rate Fibers in Gerbil Auditory Nerve13 January 2017 | PLOS ONE, Vol. 12, No. 1Spike timing in auditory-nerve fibers during spontaneous activity and phase locking17 August 2016 | Synapse, Vol. 71, No. 1Afferent Coding and Efferent Control in the Normal and Impaired Cochlea1 September 2017Differential Group Delay of the Frequency Following Response Measured Vertically and Horizontally26 February 2016 | Journal of the Association for Research in Otolaryngology, Vol. 17, No. 2Cochlear hair cells: The sound-sensing machines31 August 2015 | FEBS Letters, Vol. 589, No. 22The functional anatomy of central auditory processing13 May 2015 | Practical Neurology, Vol. 15, No. 4Basic response properties of auditory nerve fibers: a review29 April 2015 | Cell and Tissue Research, Vol. 361, No. 1Estimation of Neural Phase Locking from Stimulus-Evoked Potentials3 June 2014 | Journal of the Association for Research in Otolaryngology, Vol. 15, No. 5Organization and trade-off of spectro-temporal tuning properties of duration-tuned neurons in the mammalian inferior colliculusJames A. Morrison, Faranak Farzan, Thane Fremouw, Riziq Sayegh, Ellen Covey, and Paul A. Faure15 May 2014 | Journal of Neurophysiology, Vol. 111, No. 10IntroductionExperiments in comparative hearing: Georg von Békésy and beyondHearing Research, Vol. 293, No. 1-2Biological Psychology26 September 2012A variational approach to behavioral and neuroelectrical laws20 July 2012 | Biological Cybernetics, Vol. 106, No. 6-7Auditory nerve fibre responses in the ferret14 June 2012 | European Journal of Neuroscience, Vol. 36, No. 4Is fast auditory change detection feature specific? An electrophysiological study in humans16 May 2012 | Psychophysiology, Vol. 49, No. 7Historical Introduction7 November 2011Level-Tuned Neurons in Primary Auditory Cortex Adapt Differently to Loud versus Soft Sounds10 May 2010 | Cerebral Cortex, Vol. 21, No. 1Mechanisms of Sound Localization in MammalsBenedikt Grothe, Michael Pecka, and David McAlpine1 July 2010 | Physiological Reviews, Vol. 90, No. 3Influence of inhibitory synaptic kinetics on the interaural time difference sensitivity in a linear model of binaural coincidence detectionThe Journal of the Acoustical Society of America, Vol. 127, No. 2Models of the Superior Olivary Complex8 February 2010Historical milestones of Neuroscientific PsychophysiologyInternational Journal of Psychophysiology, Vol. 73, No. 2Variation </t>
+          <t>Free AccessAboutSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareShare onFacebookTwitterLinked InEmail Go to SectionFree Access HomeManagement ScienceVol. 49, No. 4 Introduction to the Special Issue on Managing Knowledge in Organizations: Creating, Retaining, and Transferring KnowledgeLinda Argote, Bill McEvily, Ray ReagansLinda Argote, Bill McEvily, Ray ReagansPublished Online:1 Apr 2003https://doi.org/10.1287/mnsc.49.4.0.14421 Back to Top Next FiguresReferencesRelatedInformationCited BySmart Knowledge Engineering for Cognitive Systems: A Brief Overview18 February 2022 | Cybernetics and Systems, Vol. 53, No. 5Positive Chair-CEO work relationships: Micro-relational foundations of organizational capabilitiesLong Range Planning, Vol. 55, No. 3Knowledge management effects and performance in health care: a systematic literature review14 February 2022 | Knowledge Management Research &amp; Practice, Vol. 84Transcending the silos through project management office: Knowledge transactions, brokerage roles, and enabling factorsInternational Journal of Project Management, Vol. 40, No. 2Network Structures and ComponentsCausal Machine Learning and Business Decision MakingSSRN Electronic Journal, Vol. 33Knowledge Transfer, Knowledge-Based Resources, and Capabilities in E-Commerce Software ProjectsMicrofoundations of collaborative networks: The impact of social capital formation and learning on investment risk assessmentTechnological Forecasting and Social Change, Vol. 161Chapitre 22. Le management des connaissances et les économies en développementSharing Managerial Tacit KnowledgeArgote, Linda: Advancing Research on Organizational Learning25 September 2020Collaborative know-how and trust in university–industry collaborations: empirical evidence from ICT firms9 February 2018 | The Journal of Technology Transfer, Vol. 44, No. 6National strategy for supporting school principal's instructional leadershipJournal of Educational Administration, Vol. 57, No. 5Sustainable Social Enterprise Model: Relationships and Consequences10 July 2019 | Sustainability, Vol. 11, No. 14Branded Gamification in Technical EducationTeachers' motivation to learn: implications for supporting professional growth2 March 2017 | Professional Development in Education, Vol. 44, No. 1The computation of boundary spanning for the IT-enabled commercial ecosystem28 June 2017 | Cluster Computing, Vol. 20, No. 4ANTECEDENTS OF EMPLOYEE CREATIVITY AND ORGANISATIONAL INNOVATION: AN EMPIRICAL STUDY19 September 2017 | International Journal of Innovation Management, Vol. 21, No. 07Promoting the school learning processes: principals as learning boundary spannersInternational Journal of Educational Management, Vol. 31, No. 7Knowledge Transfer, Knowledge-Based Resources, and Capabilities in E-Commerce Software ProjectsJournal of Global Information Management, Vol. 25, No. 3Modelling the relationship between entrepreneurial orientation, organizational integration, and programme performance in local sustainability30 June 2016 | Public Management Review, Vol. 19, No. 4Learning by Doing in Multiproduct Manufacturing: Variety, Customizations, and Overlapping Product GenerationsCarolyn D. Egelman, Dennis Epple, Linda Argote, Erica R. H. Fuchs22 March 2016 | Management Science, Vol. 63, No. 2Knowledge Creation Processes Between Open Source Intelligence and Knowledge Management23 June 2017Sharing Managerial Tacit KnowledgeA systems approach for forward and reverse logistics designThe International Journal of Logistics Management, Vol. 27, No. 3In search for the not-invented-here syndrome: the role of knowledge sources and firm success8 April 2015 | R&amp;D Management, Vol. 46, No. S3An exploration for knowledge evolution affected by task assignment in a research and development team: perspectives of learning obtained through practice and communication28 June 2016 | SIMULATION, Vol. 92, No. 7Knowledge loss and retention: the paradoxical role of ITFrom Project's Information Management to Project-Based Organizational LearningEntrepreneurial orientation and knowledge acquisition: effects on performance in the specific context of women-owned firms17 August 2014 | International Entrepreneurship and Management Journal, Vol. 11, No. 3Learning by hiring or hiring to avoid learning?Journal of Managerial Psychology, Vol. 30, No. 5Exploring the role of Transactive Memory Systems in virtual teams: Review and synthesis of literatureDesafios da Pesquisa em Aprendizagem OrganizacionalCadernos EBAPE.BR, Vol. 13, No. 1From Project's Information Management to Project-Based Organizational LearningKnowledge sharing in project-based organizations: Overcoming the informational limboInternational Journal of Information Management, Vol. 34, No. 6The Meaning and Measure of Organizational Learning Mechanisms in Secondary Schools4 November 2013 | Educational Administration Quarterly, Vol. 50, No. 4Cognition and knowledge sharing in post-acquisition integration: insigh</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2323499126</t>
+          <t>https://openalex.org/W2057476049</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2292969</t>
+          <t>https://doi.org/10.1094/pdis.2003.87.7.756</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gillum (1943)</t>
+          <t>Norelli et al. (2003)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The Negro Folksong in the American Culture</t>
+          <t>Fire Blight Management in the Twenty-first Century: Using New Technologies that Enhance Host Resistance in Apple</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>One hears much, in these days, of value of music as a builder of morale. There is found to be much conscious effort directed toward creation of a song which will weld American nation into Oneness of spirit so necessary to successful conclusion of present confusing conflict. One might wonder, amid brief bursts of enthusiasm for pseudo-patriotic commercial mediocrities that America has endured for past few months, at failure of such a song to emerge. There is no mystery here, however. The creative Muse will not be coerced. The song for which America strives will be result of an overwhelming unity of spirit, not cause. As a supreme example of power of song in lives of human-kind, America might well turn to her Negro. The Negro, as a people, has seemed instinctively to realize that end of all Being is Expression; with a sort of esoteric wisdom he perceives intense sublimation of group expression of Self. His music, growing as it does out of his bewilderment at his sufferings as a slave, is not an experiment, but an experience, with every deep significance that this word implies. The conjoining influence upon Negroes was religion. In this he found escape. God became reality, slavery illusion. When true American ideal of freedom for all once again becomes crystallized, over and above all prejudice and greed for power and wealth, when minds of people are able to penetrate cloud of political intrigue which now obscures real issues, then, and then only, may we expect song, which, having grown out of reality, can only serve greater purpose of enlarging scope of that reality. A short time ago (as time is counted in history of men and nations), a few brave souls, sick of static degradation of a Europe victimized by that eternal fetish the balance of power, launched forth in face of unknown dangers in order to establish upon new American continent a citadel of freedom, where men could live as men, honest God-fearing men. These founders of American nation meant to reject ways of Europe and all they represent. An isolated geographical position made this course possible. The introduction of Negro slavery rendered such a course inescapable. Here begins counterinfluence of impingement of two cultures of entirely different spiritual and physical backgrounds, one upon other. This counter-influence took place in native background of neither, but in an altogether new and common natural surrounding. The old traditions of mother countries could not fit this new environment. The average white American will not recognize tremendous influence that Negro has exercised over his economic, social and political life. He will not wish to see perhaps that a</t>
+          <t>HomePlant DiseaseVol. 87, No. 7Fire Blight Management in the Twenty-first Century: Using New Technologies that Enhance Host Resistance in Apple PreviousNext OPENOpen Access licenseFire Blight Management in the Twenty-first Century: Using New Technologies that Enhance Host Resistance in AppleJohn L. Norelli, Alan L. Jones, and Herb S. AldwinckleJohn L. NorelliCorresponding author: John L. Norelli, USDA-ARS, Appalachian Fruit Research Station, Kearneysville, WV 25430 E-mail: E-mail Address: [email protected]Search for more papers by this author, Alan L. JonesSearch for more papers by this author, and Herb S. AldwinckleSearch for more papers by this authorAffiliationsAuthors and Affiliations John L. Norelli , USDA-ARS, Appalachian Fruit Research Station, Kearneysville, WV Alan L. Jones , Michigan State University, East Lansing Herb S. Aldwinckle , Cornell University, Geneva, NY Published Online:23 Feb 2007https://doi.org/10.1094/PDIS.2003.87.7.756AboutSectionsPDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InRedditEmailWechat DetailsFiguresLiterature CitedRelated Vol. 87, No. 7 July 2003SubscribeISSN:0191-2917e-ISSN:1943-7692 Metrics Article History Issue Date: 25 Jan 2008Published: 23 Feb 2007 Pages: 756-765 InformationThe American Phytopathological Society, 2003PDF downloadCited byDetection and infected area segmentation of apple fire blight using image processing and deep transfer learning for site-specific managementComputers and Electronics in Agriculture, Vol. 209Evaluation of biopesticides for the control of Erwinia amylovora in apple and pear22 May 2023 | Journal of Plant Pathology, Vol. 81On-site applicable diagnostic fluorescent probe for fire blight bacteriaiScience, Vol. 26, No. 4Proof of concept for management of shoot blight and fire blight cankers on pear with preventive spray applications of giant knotweed extract16 March 2023 | Frontiers in Horticulture, Vol. 1Fire blight rootstock infections causing apple tree death: A case study in high-density apple orchards with Erwinia amylovora strain characterization13 March 2023 | Frontiers in Horticulture, Vol. 2Field study of the fire‐blight‐resistant cisgenic apple line C44 .4.14621 February 2023 | The Plant Journal, Vol. 113, No. 6Three novel Erwinia billingiae phages isolated from organic waste represent three new genera20 January 2023 | Archives of Virology, Vol. 168, No. 2Evaluation of the Antimicrobial Potential and Characterization of Novel T7-Like Erwinia Bacteriophages23 January 2023 | Biology, Vol. 12, No. 2Mfu16 is an unstable fire blight resistance QTL on linkage group 16 of Malus fusca MAL004527 January 2023 | Journal of Plant Pathology, Vol. 12An Overview of Streptomycin Resistance in Erwinia amylovora from Ohio Apple OrchardsAlejandra M. Jimenez Madrid and Melanie L. Lewis Ivey29 March 2023 | Plant Health Progress, Vol. 24, No. 1Genomic Analysis Unveils the Pervasiveness and Diversity of Prophages Infecting Erwinia Species27 December 2022 | Pathogens, Vol. 12, No. 1Monitoring the Reoccurrence of Fire Blight and the Eradication Efficiency of Erwinia amylovora in Burial Sites of Infected Host Plants Using Sentinel PlantsResearch in Plant Disease, Vol. 28, No. 4Investigating the Biocontrol Potential of the Natural Microbiota of the Apple Blossom15 December 2022 | Microorganisms, Vol. 10, No. 12Breeding and genetics of disease resistance in temperate fruit trees: challenges and new opportunities20 April 2022 | Theoretical and Applied Genetics, Vol. 135, No. 11Identification and Characterization of Erwinia Phage IT22: A New Bacteriophage-Based Biocontrol against Erwinia amylovora5 November 2022 | Viruses, Vol. 14, No. 11Fire blight resistance, irrigation and conducive wet weather improve Erwinia amylovora winter survival in cankers18 October 2022 | Frontiers in Microbiology, Vol. 13Survey of Oxolinic Acid-Resistant Erwinia amylovora in Korean Apple and Pear Orchards, and the Fitness Impact of Constructed MutantsThe Plant Pathology Journal, Vol. 38, No. 5In-Orchard Population Dynamics of Erwinia amylovora on Apple Flower StigmasSuzanne M. Slack, Jeffery K. Schachterle, Emma M. Sweeney, Roshni R. Kharadi, Jingyu Peng, Megan Botti-Marino, Leire Bardaji, Emily A. Pochubay, and George W. Sundin30 April 2022 | Phytopathology®, Vol. 112, No. 6Identifying more targeted antimicrobials active against selected bacterial phytopathogens1 June 2022 | Journal of Applied Microbiology, Vol. 132, No. 6Trunk Injection as a Tool to Deliver Plant Protection Materials—An Overview of Basic Principles and Practical Considerations19 June 2022 | Horticulturae, Vol. 8, No. 6Effects of Acibenzolar-S-methyl on the Probing Behaviour and Mortality of Cacopsylla pyri on Pear Plants6 June 2022 | Insects, Vol. 13, No. 6Breaking the Rebellion: Photodynamic Inactivation against Erwinia amylovora Resistant to Streptomycin19 April 2022 | Antibiotics, Vol. 11, No. 5Plant organ and sampling time point determine the taxonomic structure</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2332685015</t>
+          <t>https://openalex.org/W2039482349</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1437774</t>
+          <t>https://doi.org/10.1080/0958159031000097625</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Oliver (1943)</t>
+          <t>Yeatman (2003)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The Status of Uta ornata lateralis Boulenger</t>
+          <t>Food and nutrition policy at the local level: Key factors that influence the policy development process</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>THE lizard genus Uta (auct.) has long been a poorly understood assemblage greatly in need of careful revisionary study. Mr. Myron B. Mittleman has recently published a series of papers on Uta culminating in what purports to be a revision of the genus, in which he proposes a number of taxonomic changes. Close examination of his papers and of the few data presented therein reveals the fact that he has contributed little to a clarification of the status of the forms comprising the group. Many of Mittleman's proposals are difficult to evaluate because of the absence of the data upon which his conclusions are based and because of a confused presentation of certain points. The attempt to find dichotomous differences where only average differences exist has apparently contributed to his confusion. An occasion arose to examine part of Mittleman's revisionary paper during the course of a study of some of the Mexican reptiles in the collection of the American Museum of Natural History. Difficulties were encountered in attempts to allocate specimens from southern Sonora and northern Sinaloa according to his arrangement. A more detailed examination of the works treating the forms of this region seemed to be in order, in addition to an examination of additional specimens in other collections.1 A new revision has not been attempted, nor has all pertinent material been examined, but a sufficient number of specimens have been studied to show that Mittleman's arrangement of the forms in this geographic region is not correct. From an examination of 204 specimen's of the species ornata from Sonora, Sinaloa, and the Tres Marias Islands, it is clear that Mittleman's action (1941b) in synonymizing lateralis Boulenger and resurrecting schottii Baird is not justified. Nor can his views be accepted that linearis and lateralis intergrade in northern Sonora in a belt bordered on the north by the line Reforma-Cananea, and on the south by the line Caborca-Magdalena. These points will be more fully discussed below. Because of Mittleman's misconceptions regarding the status of lateralis, it will be redescribed as defined herein and its status considered in some detail.</t>
+          <t>Abstract Little empirical work has been undertaken examining the policy process at the local level, where the majority of public health professionals work. This has resulted in a lack of understanding of how the policy development process works at this level and of the relevance of policy theory to local policy processes and outcomes. This paper discusses the findings of four case studies undertaken during 1995-96 that examined the process of developing food and nutrition policies within Australian local governments. At two of the sites food and nutrition policies were introduced. At the other two sites the development of food and nutrition policies was funded but policies were not endorsed or implemented. Semi-structured interviews were held with key personnel and document analysis was undertaken of reports and minutes of meetings. Factors examined in the study included the roles of individuals, groups and organized interests, the influence of organizational and governmental structures and the interaction between these factors. The relevance of the policy theories of localism, agenda setting and political power and policy making to locally based health policy development is discussed. Key findings of this study are that local policy action is a function of the nature of the policy issue, it is dependent on the political and organizational environments within which it is developed and action by individuals can be very influential in the policy process.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4252540167</t>
+          <t>https://openalex.org/W2101609420</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/151078b0</t>
+          <t>https://doi.org/10.1029/2003ja009916</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA (1943)</t>
+          <t>Němeček et al. (2003)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>School Science Teaching</t>
+          <t>Structure of the outer cusp and sources of the cusp precipitation during intervals of a horizontal IMF</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>THE recent issue of the School Science Review (No. 92, Nov. 1942) contains an interesting article, “School Science Teaching after the War”, by Mr. E. T. Harris. Mr. Harris points out that science teaching before the War was greatly affected by economic and social conditions which, in some cases, created a hostile attitude. But now, due to its contribution to the war effort, science is valued and appreciated. The changed social conditions likely to prevail after the War should give impetus to the modern movement to stress the applications of science, but the principles should not be omitted. “. . . Science is a social phenomenon, and is only to be understood in relation to the human society in which it has developed and is developing. Its principles and its applications are closely interrelated aspects of the same social phenomenon, and they must be studied in conjunction.” In discussing how this principle may be applied in teaching, Mr. Harris cites the introduction of general science and the greater attention which biology is receiving nowadays (see NATURE, 149, 456; April 25, 1942). There are two aspects to the study of science, (I) its historical and logical development and its social uses, and (2) its application to the pupil's life-his home, body, food, etc. Later in the science course should come a broadening of these early ideas, so that science is regarded as a struggle of mankind to master Nature for knowledge, power, and freedom.</t>
+          <t>The cusp represents a place where the magnetosheath plasma can directly penetrate into the magnetosphere. Since the main transport processes are connected with merging of the interplanetary and magnetospheric field lines, the interplanetary magnetic field (IMF) orientation plays a decisive role in the formation of the high‐altitude cusp. The importance of the sign of the IMF B Z component for this process was suggested about 40 years ago and later it was documented by many experimental investigations. However, situations when IMF B Z is the major IMF component are rather rare. The structure of the cusp during periods of a small IMF B Z has not been as widely investigated, probably due to the fully three‐dimensional nature of the interaction. The present case study reveals the importance of horizontal IMF components on the global magnetospheric configuration as well as on small‐scale processes at the cusp‐magnetosheath interface. We have used simultaneous measurements of several spacecraft (ISTP program) operating in different regions of interplanetary space and two closely spaced satellites (INTERBALL‐1/MAGION‐4) crossing the cusp‐magnetosheath boundary to show the connection between the short‐scale and large‐scale phenomena. In the Northern Hemisphere, observations suggest a presence of two spots of cusp‐like precipitation supplied by reconnection occurring simultaneously in both hemispheres. A source of this bifurcation is the positive IMF B Y component further enhanced by the field draping in the magnetosheath. This magnetic field component shifts the entry point far away from the local noon but in opposite sense in either hemisphere.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W113073405</t>
+          <t>https://openalex.org/W2069039251</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/0034-4885/66/9/202</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Johnson &amp; Bomar (1964)</t>
+          <t>Dose (2003)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Planning School Library Quarters.</t>
+          <t>Bayesian inference in physics: case studies</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The provision of centralized libraries in schools, through new construction and through renovation of existing plants, is booming. The growing demand for school libraries springs in part from increases in school population, which require new school construction, but more significantly from the pressure of rising expectations?that is, from the increasing ac ceptance of the school library as an essential element of instructional programs. As state, regional, and national standards reinforce this acceptance, more and more school people are becoming involved in planning school library quarters. The articles in this issue of the ALA Bulletin are directed to several basic points of view about the nature of their responsibility. Planning and designing school library quar ters is an exciting and important business. It is also complex, involving many areas of spe cialized knowledge and many people. Since the school library is not only an entity in itself, but also part of a larger whole, the school, planning demands that close attention be given to the relationship between the school program and the library, as well as library location. It often calls for compromise between alternate positions, which is frequently based on what we want versus what we can afford. It always involves communication and interaction be tween people?librarians, teachers, administra tors, consultants, architects, engineers. The concern in this issue is the school librarian's contribution to the process, most of which, as Mr. Johnson's article points out, should take place before the architect draws a line. The starting point in planning facilities is knowledge of the program to be accommodated. Here we must turn to the school for direction, since its purposes, curriculum, and methods shape the library program. Next comes the projection of a program of library services to meet these needs, followed by examination of the program in terms of what it will require in physical facilities. The school librarian makes his biggest contribution at this point by work ing with other staff members to define the pro gram and its physical requirements. Mrs. Grazier describes what will happen in the li brary, or rather what should happen, for she writes from the conviction that planning should aim for the desired program, not the status quo. Communicating information about the serv ices to be accommodated in school library quarters is the librarian's next responsibility. Knowing what informaton to provide and when and how to convey it calls for understanding of the steps and procedures followed in educa tional planning. Mr. Johnson's article deals with the function of the architect and the means and steps by which he arrives at solutions to design problems. Mr. Gardner discusses the role of the school staff and, in particular, the school librarian, giving suggestions for pre paring educational specifications for the school library. Some principles and features of good design are illustrated in the case studies of recently constructed elementary and secondary school libraries. Although they share many elements, these quarters present varied design solutions, each tailored to the particular program served. Their variety is a reminder of the principle that form follows function. Considerable foresight is needed to make the libraries planned today fit the programs of to morrow. All people involved in the planning need to anticipate future directions in school library service. Their ability to look ahead may depend upon the librarian's vision, as well as his skill in communicating the potential for library service. In the closing article, Miss Gaver establishes guidelines based on trends in school organization, teaching methods, and materials and on their implications for ex panded school library programs.</t>
+          <t>This report describes the Bayesian approach to probability theory with emphasis on the application to the evaluation of experimental data. A brief summary of Bayesian principles is given, with a discussion of concepts, terminology and pitfalls. The step from Bayesian principles to data processing involves major numerical efforts. We address the presently employed procedures of numerical integration, which are mainly based on the Monte Carlo method. The case studies include examples from electron spectroscopies, plasma physics, ion beam analysis and mass spectrometry. Bayesian solutions to the ubiquitous problem of spectrum restoration are presented and advantages and limitations are discussed. Parameter estimation within the Bayesian framework is shown to allow for the incorporation of expert knowledge which in turn allows the treatment of under-determined problems which are inaccessible by the traditional maximum likelihood method. A unique and extremely valuable feature of Bayesian theory is the model comparison option. Bayesian model comparison rests on Ockham's razor which limits the complexity of a model to the amount necessary to explain the data without fitting noise. Finally we deal with the treatment of inconsistent data. They arise frequently in experimental work either from incorrect estimation of the errors associated with a measurement or alternatively from distortions of the measurement signal by some unrecognized spurious source. Bayesian data analysis sometimes meets with spectacular success. However, the approach cannot do wonders, but it does result in optimal robust inferences on the basis of all available and explicitly declared information.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1572108051</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7907/r906-t104.</t>
+          <t>https://openalex.org/W629389818</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gardner (1964)</t>
+          <t>Phillips (2003)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Earthquakes in the Walker Pass Region, California, and their Relation to the Tectonics of the Southern Sierra Nevada</t>
+          <t>Sustainable Place: A Place of Sustainable Development</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The locations and depths of earthquakes occurring in the Walker Pass Region, California, and the surrounding area have been examined for the period from January, 1934, to December, 1963. Whenever possible, least-square computer locations programs have been used to check or revise the previously determined epicenters and origin times. In most cases, epicenters determined by machine methods are within ten kilometers of those previously assigned. Accurate depths, whenever they could be calculated, were always found to be less than fifteen kilometers and usually less than ten kilometers. The sequence of earthquakes occurring in the Walker Pass region in March, 1946, has been carefully examined. While no major shifts in epicenters were found, the depth of the main shock of this series has been revised from twenty-one kilometers to less than ten kilometers. This revision cast doubt on the assertion that the earthquake originated on the Sierra Front Fault and made it likely that the earthquake occurred on one of the northwest-southeast trending faults in the interior of the Sierra mass. Finally, the general distribution of earthquakes furnishes no evidence for the existence of a continuous deep-lying structure traversing the southern part of the Sierra Nevada. While the possibility of the existence of such a structure has not been excluded, practically all of the evidence upon which such a speculation might be based has been removed. Any relation between activity in this region and the activity in the nearby White Wolf Fault region must instead be explained by means of a mutual transfer of strain between systems of different trend and character. The computer programs used for the location of the earthquakes reported in this study are discussed in Appendices A and B.</t>
+          <t>Preface. Introduction. CHAPTER ONE: CURRENT BACKGROUND Dialectical Process -- Vehicle of Change -- Local Agenda 21 -- Energy and Environment as a Driver for Change -- Conclusion. CHAPTER TWO: PROBLEMS AND RESOLUTIONS Kyoto Climate Treaty and Bonn Agreement -- Initiatives Toward Energy Efficiency -- The Ecological Tax Reform (E.T.R) -- Unequal Distribution of Wealth and Social Inequality -- Environmental Assessment -- Globalisation -- Biodiversity -- Urban Megalopolis -- The City -- Conclusion. CHAPTER THREE: FOUR PREMISES Interconnectedness -- Limits to Growth -- Energy--Interaction of Architecture and the Environment -- An Environmental Aesthetic -- Conclusion. CHAPTER FOUR: A FRAMEWORK OF ASSESSMENT. Master Plan -- Indicators -- Interconnectedness -- Methodology -- The Assessment and its Use -- The Application of the Assessment -- The Case Studies. CHAPTER FIVE: CASE STUDY: SAN GIMIGNANO, ITALY. Introduction -- Stage 1 Observational Studies -- Stage 2 Indicator Assesments -- Stage 3 Capability Assessment -- Stage 4 Determining. CHAPTER SIX: CASE STUDY: LUDLOW, UK. Introduction -- Stage 1 Observational Studies -- Stage 2 Indicator Assessments -- Stage 3 Capability Assessment -- Stage 4 Determining. CHAPTER SEVEN: IN SEARCE OF AN AESTHETIC. Twentieth Century Background to Architecture -- Twentieth Century Background to Landscape -- Environmental Traditions -- Leon Battista Alberti -- Jay Appleton -- Steven Bourassa and Roger Scruton. CHAPTER EIGHT: COMING THROUGH. Millennium Consortium, Redevelopment of the Fort Area of Colombo, Sri Lanka -- Master Plan, Canona s Marsh, Bristol Harbourside, UK. Edward Cullinan Achitects -- Coffee Creek Center, Chesterton, Indiana, USA. William McDonough and Partners. Conclusion. References. Acknowledgements.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W163917185</t>
+          <t>https://openalex.org/W109925207</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-1-4832-2841-9.50004-0</t>
+          <t>https://doi.org/10.1177/105268460301300603</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jeżowska‐Trzebiatowska (1964)</t>
+          <t>Donaldson &amp; Scribner (2003)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>THE ROLE OF OXYGEN IN COORDINATION COMPOUNDS</t>
+          <t>Instructional Cohorts and Learning: Ironic Uses of a Social System</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oxygen in complex compounds plays an essential role, which arises from its ability to form various types of bonds with other atoms, namely: the ion-, covalent-, donor σ-and donor π-bonds. At the same time, the oxygen valency state changes from +2 to —2. The capacity of oxygen for bond formation results from its electron-orbital structure, connected with the value of the electron affinity and atomic radius. When the difference in the electronegativity of oxygen and its partners is not very great, and when the partner's atom possesses the accessible orbitals d or f, then very strong couplings are formed and a system of molecular orbitals occurs. Oxygen thus complexed with metals forms a new chemical species, sometimes passing without change from compound to compound. Three types of oxygen-metal nuclei appear in the complex compounds of transition elements: type I MeO, type II MeO2, type III Me-O-Me. In each case the complexes become stable owing to oxygen-metal π-bonds. It particularly applies to complexes of II and III. A strong coupling with oxygen often causes a change in the magnetic properties of metal atoms and gives the absorption spectrum its characteristic trait. The author discusses the electron orbital structure of the complexes with the nuclei of all the 3 types mentioned above. It is demonstrated that the molecular orbital theory may be applied to explain magnetic and optical properties of oxygen metal nuclei. In the Me-O-Me nucleus, oxygen bonds two metal atoms.</t>
+          <t>This research explored the organizational nature of cohorts with particular focus on the relation between structural factors, including conventions, culture, power, and unintended learning. An in-depth case study of a cohort project team of educational leadership students led to identification of four major themes. Students employed a product-centered orientation that blurred distinctions between learning and performance. This orientation was a consequence of recipes for action appropriated by students from other institutions, conditions of action (including deadlines imposed by instructors), and structural rules the team constructed to guide its work. Implications for instructional practice are identified.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1967149148</t>
+          <t>https://openalex.org/W2130008867</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0013-4694(64)90030-6</t>
+          <t>https://doi.org/10.1177/0730888403251755</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Angeleri et al. (1964)</t>
+          <t>Blom &amp; Melin (2003)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Electrical activity and reactivity of the rhinencephalic, pararhinencephalic and thalamic structures: Prolonged implantation of electrodes in man</t>
+          <t>Information Society and the Transformation of Organizations in Finland</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The authors present some of the principal considerations based on observations during simultaneous deep cerebral recording in 94 cases of neuro-psychiatric disorders, which could be classified as follows: 32 cases of epilepsy, 56 cases of extrapyramidal syndromes, four cases of schizophrenia and two of severe psychasthenia with associated motor manifestations. The discussion is concerned primarily with the manifestations of temporal lobe epilepsy, but reference is also made to the phenomena encountered in cases of “centrencephalic” epilepsy (grand mal, myoclonic petit mal.) The non-epileptic cases have been included in this investigation only for the purpose of pointing out some substantial differences between their records and those of the epileptic patients. After a brief introduction concerning the phenomena of diffusion, spread and activation, considered on the basis of the data obtained by animal experiments, a number of conclusions are reported, which can be summarized as follows: 1. It appears to have been adequately demonstrated that the hippocampo-amygdalar structures play a predominant part in the precipitation and maintenance of epileptic attacks, in the first place those of temporal, but also those of so-called centrencephalic nature. The activity of either structure, or their synergic activities, may be regarded as the “starter” of the temporal attack; they play a very important role in bringing about certain functional conditions of the neopallium which facilitate the occurrence of generalized attacks of the grand mal type. 2. The relationship between the convulsive electrical activity of the rhinencephalic structures and activity of the same type in the neopallium are rather complicated, but it appears justifiable to state that the attacks of these two structures run a dissociated course. 3. The importance of the rhinencephalic system in bringing about the alterations of so-called centrencephalic epilepsy is definitely confirmed but it has proved rather doubtful whether the thalamus is also concerned in these abnormal manifestations. 4. The observations made during stimulation of the rhinencephalic structures, and the occurrence of after-discharge in these structures, have yielded material that is useful for the interpretation of the electrical aspects of temporal attacks and the clinical phenomena which are associated with these attacks. The data obtained by depth and surface recording in human subjects are briefly considered against the background of the experimental findings in animals, with emphasis on the advantages of investigations carried out directly in epileptic patients.</t>
+          <t>In this article, the authors analyze and evaluate the nature of organizational change in Finland. This is against the backdrop of social theories that emphasize the transformation of work based on new technology and increasing knowledge intensity. Our empirical data are drawn from three case studies: Metso Automation, the global market leader in paper and pulp machine automation; Telenor, which produces and sells internet-based business catalogs; and the city of Ylöjärvi, which is responsible for social services. Our study shows that there are large differences between organizational types in terms of team formation, pay systems, recruitment, and forms of control. We argue that organizational differences reflect more general differences between traditional and proactive, flexible workplaces that coexist in the emerging information based society.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1979170209</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1148/83.1.48</t>
+          <t>https://openalex.org/W187222614</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mori et al. (1964)</t>
+          <t>Gunasekara (2003)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The Radiological Spectrum of Aging and Emphysematous Lungs</t>
+          <t>The role of universities in the development of regional innovation systems in Australia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Emphysema of the lungs is becoming recognized as the most common condition to produce pulmonary disability in later life (37). Recently changing clinical and pathologic concepts (20, 24, 29, 30, 36) point up the need for re-evaluation of the classic criteria of radiologic interpretation. A variety of diagnostic methods, including history, physical examination, radiographic studies, and various pulmonary function tests are used in the appraisal of emphysematous patients. Limitations in the reliability of history and physical findings are considered elsewhere (31). Pulmonary function tests are valuable in assessing the degree of functional impairment (14), but in many instances are not as readily available as radiography. Accordingly, a study was performed to ascertain the radiologic features of emphysematous and normal aging subjects on plain films, the ability of competent observers to detect such changes, and the reliability of present criteria in differentiating aging and emphysematous patients. This work is one part of a continuing multi-disciplinary study of emphysema (1–6, 31). Emphysema is derived from the Greek word “emphysao” which means “inflate” or “blow up” (38). With the development of more precise knowledge of pulmonary pathology and physiology, the term pulmonary emphysema has come to refer to “obstructive lung disease” of a chronic nature (25). This is reflected in the recent definition by the American Thoracic Society (35): “Emphysema is an anatomic alteration of the lung characterized by an abnormal enlargement of the air spaces distal to the terminal non-respiratory bronchiole accompanied by destructive changes in the alveolar walls.” Hyperinflation (overinflation) is a general term which refers to overdistention of the lungs from any cause (35). Hyperinflation is characterized by enlargement and rounding of the thorax and compression and displacement of surrounding structures (5, 19,28). Although hyperinflation may be a manifestation of pulmonary emphysema, it may also be observed in normal subjects with a large vital capacity, as a manifestation of the normal aging process, and in asthma or any other condition producing airway obstruction. Physiologic aging changes, e.g., the barrel configuration of the chest, may suggest emphysema (Figs. 1 and 2) and yet be associated with no significant physiologic or pathologic alteration (18, 23, 28). These patients are sometimes reported on radiographic examination of the chest as having senile emphysema which, according to the current definition of emphysema, is a misnomer. Therefore, the extent to which normal aging changes could be differentiated radiographically from emphysema was considered. Methods and Materials The evaluation of radiographic signs and diagnosis reported here was based on the interpretation of radiographs of aging and emphysematous patients as practiced in the daily routine of physicians devoting full time to radiology.</t>
+          <t>The role of universities in regional innovation has evolved over the last twenty years. Universities were once regarded as focusing on two key roles, teaching and research, which were exogenous to, and independent from, the innovative activities of firms and other organisations. The triple helix model of university-industry-government interactions and the emerging literature on university engagement, have pointed to a third role performed by universities as regional innovation organisers and animators of regional economic and social development. Sitting alongside their traditional roles in education and research, yet, re-shaping them, the third role of universities has been conceptualised in the triple helix model as hybrid in nature, overlapping with the roles traditionally performed by industry and the state. Being co-equal with industry and the state, universities, in this view, may perform a generative role in driving economic development, rather than being mere providers of research inputs, subordined to industry. The university engagement literature speaks of a broad-based, developmental contribution made by universities to regional innovation, underpinned by a range of 'push' and 'pull' forces. These forces, which include government and industry demands for greater responsiveness to the practical problems of industry, the regionalisation of production and community pressure on universities to support renewal, have, increasingly, linked universities to place. Universities, thus, perform broad, deep transformative functions in shaping regional innovation environments, through incubators, science parks, spin offs and collaborative research centres, as well as supporting regional knowledge needs, animating associative regional governance and fostering the development of supportive regional cultural norms of openness to learning, trust and cooperation. While these developments have been heralded in the international literature, little attention has been devoted to exploring the nature of the third role performed by universities in the Australian setting, and there has been little explanation of variations in the roles performed by universities in different regional settings. This study has sought to fill that gap. The dissertation undertakes an analysis of the role performed by Australian universities in the development of regional innovation systems. It analyses the third role of universities in regional development, as discussed in the triple helix and university engagement literatures and draws a distinction between generative and developmental roles performed by universities. The generative role of universities, grounded in the triple helix literature, focused on entrepreneurial, knowledge capitalisation initiatives that create, or generate, growth. The developmental role of universities, while accepting the importance of entrepreneurial activities, suggests a broader focus on the adaptation of teaching and research to be regionally-relevant, for example, through a stronger emphasis on student recruitment from the proximate region and graduate retention therein. Universities were specified as performing either a generative or developmental role with reference to four key elements of regional systems that emerged from the literature. These elements were: regional agglomeration; the availability of a stock of capital, which, in regard to the role of universities, pointed to human capital, in particular; an associative governance framework and supportive regional cultural norms. A distinction was also drawn between the primary and secondary regional contexts of university engagement, to obtain a richer perspective of the nature of regionality in university roles. The primary regional context was the commonly understood proximate regional space within which the university engaged with its community. Secondary regional contexts referred to university engagement initiatives in other regional environments, beyond the primary regional context. In explaining the role universities played in the development of regional systems, a number of factors relating to universities and their regions were considered. These factors were: the orientation of universities to regional engagement; the history of university-region linkages; the degree of complementarity between the research strengths of a university and regional knowledge needs; the presence of key champions of university-region engagement; the nature of the regional industry base and political and economic conditions. The research design explored other possible explanations, and a number of additional factors emerged from the case studies, relating to regional and university characteristics. Using this analytical framework, three comparative case studies of non core-metropolitan Australian universities were undertaken, which sought to capture the institutional and regional diversity in the Australian higher education system. The case studies, which involved over</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994349482</t>
+          <t>https://openalex.org/W2103549615</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00220671.1964.10883089</t>
+          <t>https://doi.org/10.1017/s1350482703005061</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Payne (1964)</t>
+          <t>Hall (2003)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Achievement in Sixth-Grade Science Associated with Two Instructional Roles of Science Consultants: Second Report</t>
+          <t>The interpretation of non‐homogeneous hydrometeorological time series: a case study</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EARLY IN 1960, a study was conduct ed by a group at the University of Chicago investigating the role of science consultants in an elementary school system. * Specifically, the investigation addressed itself to the comparative a c h i e v ement of sixth grade students in two situations in which the roles assumed by the science consultants differed. In the first situation, the science consultants worked with the teachers, and the teachers were then re sponsible for all instruction of students in the sci ence unit being studied. In the second situation, the consultants assumed the responsibility for the direct instruction of students once a week and the teachers planned and taught follow-up sessions based on the consultants' presentations. The 1960 study was concerned with student achievement dur ing the unit on light. The results of the study showed that achievement was significantly greater when the consultants worked only with the teachers than when they assumed the instructional role. This paper presents a report on a second study of similar design which was conducted in March and April of 1961. The second study involved eight sixth-grade classes in the same school system as in the first study. It also included five of the same teachers and the same two consultants. The six week unit on electricity was selected for the second study. The design of the study again involved two sit uations with four classes in each. In Situation I the consultants' time was spent in giving assistance to teachers in planning learning activities for the unit. In Situation II the consultants' time was spent in planning and giving weekly demonstrations which were attended by teachers as well as students. The teachers then planned the activities for the science periods following each demonstration. For the demonstrations, classes were combined with two classes attending each demonstration, in an effort to make the most efficient use of instructional time and materials. Each consultant's time was planned so that the total amount of time devoted to Situation I teachers was approximately equal to that devoted to Situation II classes. Cert ain materials such as flashlight kits, elec trical wiring boards, and textbooks were made available to all classes. In addition, special visual materials were prepared at the University of Chi cago for the project. To decrease the effect of individual differences in teachers, the study was planned so that teachers who participated in the project last year would be assigned to a different situation this year. That is, if the teacher was in Situation I in the 1960 study, he was assigned to Situation II in the 1961 study. This change was made for all but one of the five teachers who participated in both studies. Each of the two science consultants was assigned to work with selected groups in both Situations I and II. The study was a further attempt to answer the question, Which use of the science consultants is associated with greater learning on the part of the students? To answer this question, certainmeas ures of achievement were needed. The remainder of this paper describes the methods of evaluating student achievement and the results of applying these methods.</t>
+          <t>Abstract Long records of hydrological and hydrometeorological variables are of inestimable value for the planning, design and management of water resource systems. Unfortunately, such long series invariably exhibit inconsistencies and non‐homogeneities arising from a wide variety of causes –for example, changes in instruments and observation practices, and alterations to the general environment of the instruments themselves. Both non‐parametric and parametric statistical tests are available to detect the presence of long‐term movements in recorded time series, but the interpretation of results from such testing has often to be carried out in the absence of sufficient station metadata. A case study of precipitation records for 20 stations in Scotland over the period from 1961–99 has demonstrated that the results from statistical testing for inconsistency and non‐homogeneity should also be interpreted in the context of prevailing weather systems. In particular, the increases in both annual and winter (Dec–Feb) rainfall totals recorded during this period at sites in western Scotland appear to reflect the changes in the winter atmospheric circulation over the Northern Hemisphere as encapsulated in the North Atlantic Oscillation Index (NAOI). Sustained periods of positive values of the NAOI, albeit less severe than during those of the 1970s and 1980s, are evident in the historical record of this index. The trends in rainfall totals identified could therefore be interpreted as arising from natural variability or even greenhouse gas forcing rather than from any inconsistency and non‐homogeneity. Copyright © 2003 Royal Meteorological Society</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1996190527</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/00206816409474625</t>
+          <t>https://openalex.org/W2228400647</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nekrasov (1964)</t>
+          <t>Ulkuniemi (2003)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FORMATION OF FAULTS ORIENTED ACROSS THE STRIKE OF FOLDED STRUCTURES</t>
+          <t>Purchasing software components at the dawn of market</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cross-faults, i.e., faults across the strike of a folded structure, often evolve from ordinary break-off fissures under the action of regionally operative oriented tangential compressive forces or, as a special case, by the action of distending forces along the strike of a fold. Cross-faults develop, as a rule, in mobile narrow tectonic blocks or at bends (flexures) in axes of folds. In environments typified by a lead-barite deposit in Central Kazakhstan, cross-faults may function as an important feature of the structural control of deposition of the ores and accordingly as a guide in the exploration.- -V. P. Sokoloff.</t>
+          <t>This study explores the role and nature of purchasing and supplier relationship management in the specific, complex industry setting. The purpose is to develop concepts to describe, conceptualise and analyse the emerging software component market from the point of view of the industrial buyer. The theoretical discussion on the market is concluded with a framework consisting of two parts; one describing the main elements of the market from the buyer's perspective and another describing the dynamism of the market. The theoretical framework suggests that the elements of the market from the buyer company's perspective are (1) the own needs, (2) the industry demand, (3) the object of exchange, (4) the exchange mechanism, (5) the exchange counterpart and (6) the industry supply. In the dynamic part of the framework, the development of the software component market, i.e. the progression of the market process is understood through change of heterogeneity of supply and demand. The empirical part of the study includes an embedded single-case study where a buyer perceived COTS software component market is analysed. First, the elements of the case market are studied and variables describing these elements are identified. Following this, the dynamic part of the framework is used as basis for identifying alternative types of markets for the development of the COTS software component market. This is resulted in a typology of four market types from the purchasing perspective; (1) Co-operation projects, (2) Ideal market, (3) Competitive supply management and (4) Horizontal competition. It is argued that all these represent a different type of situation from the industrial purchasing perspective. Finally, it is suggested how the different elements of the market process represent themselves and how they can be used in managing purchasing and influencing the markets in each of these possible market types.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1997938006</t>
+          <t>https://openalex.org/W2028192678</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0362152900016342</t>
+          <t>https://doi.org/10.1097/01.ss.0000100473.96182.91</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Watt (1964)</t>
+          <t>Pardo‐Igúzquiza &amp; Dowd (2003)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The Theory of Papal Monarchy in the Thirteenth Century: The Contribution of the Canonists</t>
+          <t>ASSESSMENT OF THE UNCERTAINTY OF SPATIAL COVARIANCE PARAMETERS OF SOIL PROPERTIES AND ITS USE IN APPLICATIONS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The work of the medieval canonists has always formed a significant chapter in the histories of medieval political thought. The law of the Church and its attendant juristic science forms the proper source material for the examination of the system of ideas which lay behind the functioning of papal government. Ecclesiastical jurisprudence was the practical branch of sapientia Christiana . It was concerned with a constitution and the exercise of power within its terms; with an organization and the methods by which it was to be run. It had of necessity to be articulate about the nature of the papacy, the constitutional and organizational linchpin. In consequence the canonists were the acknowledged theorists of papal primacy. To them rather than to the theologians belonged that segment of ecclesiology which treated of the nature of the Church as a visible corporate society under a single ruler. In that period of nearly a century which lay between the accession of Alexander III and the death of Innocent IV, canonists were required to register the increasingly numerous and more diverse applications of papal rulership to the problems of Christian society. The concept of papal monarchy came to be reexamined in academic literature because of the accelerating tempo of papal action. Under the stimulus of an active papacy, the canonists were led to examine many of the assumptions on which the popes based their actions and claims. The world of affairs conditioned the evolution of a political-theory, which in turn helped to shape the course of events.</t>
+          <t>The spatial variability of soil variables is a critical component of modeling, estimation, prediction and risk assessment in soil science. On one hand, spatial variability must be taken into account for optimal spatial interpolation (e.g., kriging) and risk assessment (e.g., evaluating the probability that the value of a given property is higher than an established threshold); on the other, spatial variability influences the output of physically based models (e.g., rainfall-runoff). As soil variables are usually known at only a small number of experimental locations, their spatial variability must be evaluated using statistical tools such as the spatial covariance (or the semivariogram), which, in turn, are modeled by a few parameters (e.g., nugget variance, sill, range). These covariance parameters, however, can only be inferred with an associated statistical uncertainty. The main objective of this paper is to show that this uncertainty can be assessed by a maximum likelihood approach to inference. Three different methods for obtaining joint confidence intervals of spatial covariance parameters are considered: (i) the Fisher information matrix, (ii) likelihood intervals, and (iii) the likelihood ratio statistic. The authors show that, when expressed as likelihood intervals, the confidence regions provided by the likelihood ratio statistic are especially suitable for applications because of its straightforward calculation. A second objective of the paper is to demonstrate how the uncertainty of the spatial covariance parameters can be included in applications. The interpolation uncertainty is included by Bayesian kriging whereas it is included in risk assessment and physically based models by geostatistical simulation. A case study of the zinc content of soils of the Swiss Jura is used to illustrate the methodology.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2000769542</t>
+          <t>https://openalex.org/W1965317728</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/pbm.1964.0042</t>
+          <t>https://doi.org/10.1002/rra.691</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Haldane (1964)</t>
+          <t>Cioffi &amp; Gallerano (2003)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A Defense of Beanbag Genetics</t>
+          <t>A two-dimensional self-adaptive hydrodynamic scheme for the assessment of the effects of structures on flooding phenomena in river basins</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A DEFENSE OF BEANBAG GENETICS J. B. S. HALDANE* My friend Professor Ernst Mayr, of Harvard University, in his recent book Animal Species and Evolution [i], which I find admirable, though I disagree with quite a lot ofit, has the following sentences on page 263. The Mendelian was apt to compare the genetic contents ofa population to a bag full ofcolored beans. Mutation was uie exchange ofone kind ofbean for another. This conceptualization has been referred to as "beanbag genetics." Work in population and developmental genetics has shown, however, diat the thinking ofbeanbag genetics is in many ways quite misleading. To consider genes as independent units is meaningless from the physiological as well as the evolutionary viewpoint. Any kind ofthinking whatever is misleading out ofits context. Thus ethical thinking involves the concept of duty, or some equivalent, such as righteousness or dharma. Without such a concept one is lost in the present world, and, according to the religions, in the next also. Joule, in his classical papers on the mechanical equivalent of heat, wrote of the duty ofa steam engine. We now write ofits horsepower. It is ofcourse possible that ethical conceptions will in future be applied to electronic calculators, which may be given built-in consciences! In another place [2] Mayr made a more specific challenge. He stated that Fisher, Wright, and I "have worked out an impressive mathematical theory ofgenetical variation and evolutionary change. But what, precisely , has been the contribution ofthis mathematical school to evolutionary theory, ifI may be permitted to ask such a provocative question?" "However ," he continued in the next paragraph, "I should perhaps leave it to Fisher, Wright, and Haldane to point out what they consider their major contributions." While Mayr may certainly ask this question, I may not answer it at Cold Spring Harbor, as I have been officially informed that * Address: Genetics and Biometry Laboratory, Government of Orissa, Bhubaneswar-3, Orissa, India. 343 I am ineligible for a visa for entering the United States.1 Fisher is dead, but when alive preferred attack to defense. Wright is one ofthe gentlest men I have ever met, and if he defends himself, will not counterattack. This leaves me to hold the fort, and that by writing rather than speech. Now, in the first place I deny that the mathematical theory ofpopulation genetics is at all impressive, at least to a mathematician. On the contrary , Wright, Fisher, and I all made simplifying assumptions which allowed us to pose problems soluble by the elementary mathematics at our disposal, and even then did not always fully solve the simple problems we set ourselves. Our mathematics may impress zoologists but do not greatly impress mathematicians. Let me give a simple example. We want to know how the frequency ofa gene in a population changes under natural selection. I made the following simplifying assumptions [3]: 1)The population is infinite, so the frequency in each generation is exactly that calculated, notjust somewhere near it. 2)Generations are separate. This is true for a minority only ofanimal and plant species. Thus even in so-called annual plants a few seeds can survive for several years. 3)Mating is at random. In fact, it was not hard to allow for inbreeding once Wright had given a quantitative measure ofit. 4)The gene is completely recessive as regards fitness. Again it is not hard to allow for incomplete dominance. Only two alleles at one locus are considered. 5)Mendelian segregation is perfect. There is no mutation, non-disjunction , gametic selection, or similar complications. 6)Selection acts so that the fraction ofrécessives breeding per dominant is constant from one generation to another. This fraction is the same in the two sexes. With all these assumptions, we get a fairly simple equation. If^n is the frequency ofthe recessive gene, and a fraction k ofrécessives is killed off when the corresponding dominants survive, then Qn- kqn* * In spite ofthis ineligibility I have, since writing this article, been granted an American visa, for which I must thank the federal government. However, I am not permitted to lecture in North Carolina, and perhaps in other states, without answering a question which I refuse to...</t>
+          <t>Abstract In order to assess the effects of river and floodplain engineering projects on flooding, a new self‐adaptive hydrodynamic scheme for the simulation of two‐dimensional river flows is proposed. The depth‐averaged motion equations are solved numerically using a fractional step method, in which the convective terms are calculated using the inverse characteristics method and the remaining terms with an explicit method based on a finite difference method. The integration is performed on a dynamically self‐adaptive calculus grid, which allows representation of the movable boundary between wetting and drying regions of the basins to follow the effective development, in time and space, of the expansion phenomenon of flood. The proposed procedure allows the grid's dynamic refinement to avoid coordinate transformation or the use of unstructured grids. The proposed method is simple and allows the thickening of the grid to accommodate the flooding phenomena on the floodplain and to calculate the velocity in the domain regions in which a higher space resolution is required. Therefore, flows running through structures such as weirs, gates, bridges or culverts can be simulated. In the paper two different case studies, approached with the proposed self‐adaptive calculation scheme, are discussed. The studies concern the analysis of the effects of structures, such as roads or embankments, on flooding phenomena in the Tiber and Tanaro basins respectively. Copyright © 2003 John Wiley &amp;amp; Sons, Ltd.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2001123004</t>
+          <t>https://openalex.org/W4252244586</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0926-6550(64)90131-8</t>
+          <t>https://doi.org/10.1046/j.1365-2575.2002.00127.x-i3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Wettstein et al. (1964)</t>
+          <t>Avison et al. (2003)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Effect of cycloheximide on ribosomal aggregates engaged in protein synthesis in vitro</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Neurites projecting to their target tissues during embryogenesis are subject to many perturbations that could influence their rate of growth. For example, environmental influences such as supply of neurotrophic factor or electrical activity profoundly influence the rate of neuronal protein synthesis. Because accumulation of protein is necessary for outgrowth to proceed normally, a perturbation in protein synthesis could cause a net change in the rate of accumulation of proteins with the result that neurite outgrowth rate increases or decreases. That neurite outgrowth does not normally seem to be subject to such perturbations suggests involvement of a homeostatic system controlling the rate of outgrowth. Consistent with this hypothesis, we show here that the rate of growth of neurites of sympathetic neurons is highly resistant to decreased rates of protein synthesis. Chronic suppression of protein synthesis by 60% had no significant effect on neurite outgrowth over a 2-day period while complete suppression halted it almost immediately. By the 3rd day of exposure, 60% suppression slowed outgrowth. Sustained suppression of protein synthesis rate by 33% had no effect on rate of outgrowth even after 7 days. We show that the ability of the growing neurites to resist protein synthesis suppression appears to be caused, at least in part, by a parallel decrease in the rate of protein degradation. The result of this coupling between degradation and synthesis is that proteins can continue to accumulate even when protein synthesis rate decreases, allowing normal rates of neurite outgrowth.</t>
+          <t>Our first paper by Tom Butler is an additional contribution to our special issue of last time, Volume 13, Number 2, 2003. We have been impressed by the quality of submissions in our special issues, and we aim to have at least one of these per year. So if you have any suggestions for others, or indeed, if you might edit one in the future, please let us know. But be warned, there is the same rigorous refereeing process as for conventional papers! The question that Tom Butler addresses is whether the development of web-based information systems (IS) gives rise to the same social and organizational problems that arise with other applications development. Readers may not be surprised by the answer – the fundamental nature of IS development processes does not change because the applications happen to be web based. What is particularly interesting, however, is the author's use of institutional theory to illustrate ‘how the commitments of social actors influence and shape organizational endeavours’. The research approach used is case-based research in one organization and this provides an in-depth look at web development. There are numerous citations from the actors, which brings the organization to life. Of course, the potential criticism of such research is that it is more difficult to generalize than, say, a survey of many companies. However, the tradition of the Information Systems Journal (ISJ) is to support in-depth research. John Mingers provides an excellent overview of multimethod research in IS. It might surprise readers to learn that although multimethod research is espoused by many leading researchers in the field, evidence of such research is not common, and even when it does occur, it refers mainly to a mix of traditional approaches. We think that these findings are disappointing, but important. This paper might be usefully read in conjunction with our earlier paper of Joe Nandhakumar and Matthew Jones (1997). The ISJ has been in the forefront of those journals encouraging submissions of papers that offer originality in research approach as well as content and general contribution, and we take this opportunity to state again our welcome for multimethod research, along with other papers that take a less conventional research approach. The third paper of Vassilis Serafeimidis and Steve Smithson returns to a major IS research stream over many years: that of the evaluation of IS. However, unlike most of its predecessors which look at more formal and positivistic characteristics, it concentrates on the organizational roles of the key stakeholders within four evaluation contexts, which they refer to as control, sense-making, learning and exploratory. These are examined as an organization chosen as the case study (a UK insurance company) changes from an ad hoc evaluation practice to a more business-driven one. IS evaluation is seen as a complex, human-centred activity that cannot be divorced from its organizational context. Another important research theme concerns the adoption of IS by organizations. Erja Mustonen-Ollila and Kalle Lyytinen present a longitudinal study that looks at 200 IS process innovation adoption decisions in three organizations (originally part of the same company) over four decades. Although they find that some adoptions can be explained by the factors that Rogers (1995) identified in his classic text, the authors also suggest extensions to Rogers’ Diffusion of Innovation theory. However, a major observation from the study is that: ‘a large number of IS process innovation adoptions followed no discernable pattern’. Such challenging conclusions will hopefully lead to other researchers following up this study.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2010496679</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/sf/43.1.18</t>
+          <t>https://openalex.org/W1543389226</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Friedland (1964)</t>
+          <t>Zhong et al. (2003)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>For a Sociological Concept of Charisma</t>
+          <t>Foundations of Intelligent Systems: 14th International Symposium, ISMIS 2003, Maebashi City, Japan, October 28-31, 2003, Proceedings</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Weber's concept of charisma has not been empirically useful to sociology even tiough it has influenced sociological thinking considerably. reason is that Weber dealt with charisma more as psychological than social phenomenon. concept can be useful, however, in the analysis of social change if the focus of attention is concentrated on the social context within which charisma develops rather than on charisma or charismatics. Utilizing the example of modern African leadership in Tanganyika, charisma appears in situations where (a) leaders formulate inchoate sentiments deeply held by masses; (b) the expression of such sentiments is seen as hazardous; (c) success-as definied by the relevant social groups-is registered. he enormous interest of sociologists * in the work of Max Weber is indicated by the popularity of his books and by the many articles dealing with Weber in recent times.1 What has probably been most significant in Weber's work has been his typology of authority and, of the three types of authority, the bureaucratic-legal has had the most influence on present-day sociology. literature of recent years is replete with articles dealing with bureaucracy, miiost of whicl acknowledge some debt to Weber. However, Weber's two other types of authority-the traditional anid the cliarismatichave been almost totally ignored by sociologists in empirical research. Traditional authority lhas been bypassed largely because it has fallen within the purview of anthropology. Although this is an accident of intellectual history, sociologists have concentrated their energies on moderln societies ancd had little involvemiient witlh traditional societies and traditional autlhority. Chlarisma, to paraplhrase Mark Twain, is stubject about whiclh miiuch has been said but little dcone. In spite of Parsonis' contention that Chalrisma is not mietaphysical entity but strictly empirical observable quality of men and thlings in relati.on to lhumiian acts and attitudes,2 remarkably little researchl has been un.de,rtaken to elutcidate thtis ostensibly e';npirical quality.3 This fact is all the more remark* Revision of paper read at the 1962 meeting of the American Sociological Association. Data dealing with Tanganyika were collected uinder Foreign Areas Training Fellowship of the Ford Foundation during 1959-1960. This paper has benefited from critical readings of earlier drafts by William G. Rothstein and Neil H. Cheek, Jr. I Substantial interest in Weber began in the United States with an introduction to his worlc by Talcott Parsons in Structure of Social Action (Glencoe: Free Press, 1949), Chapters 14-17, the first edition of which was published in 1937. This was followed by Hans H. Gerth and C. Wright Mills, From Max Weber: Essays in Sociology (New York: Oxford University Press, 1946); and Max Weber, Theory of Social and Eco?omic Orgarnizatioib (Glencoe: Free Press, 1947), translated by A. M. Henderson and Talcott Parsons. After this came veritable flood of Weberian writing and commentary. Reinhard Bendix, Max Weber: An Intellecthal Portrait (Garden City: Doubleday and Co., 1960), presents an excellent summary of Weber's ideas. 2 Structutre . . . , op. cit., pp. 668-669. 3 One needs only to examine the literature to note the dearth of empirical research on For example, the Index to the Amcericant Sociological Reziew contains no category for charisma. A search of various indices and journals reveals, indeed, that charisma has been utilized more by political scientists than sociologists. Cf., Carl J. Friedrich, Leadership and the Problem of Power, Journal of Politics, 23 (February 1961), pp. 3-24; James C. Davies, This content downloaded from 157.55.39.147 on Wed, 21 Sep 2016 05:35:37 UTC All use subject to http://about.jstor.org/terms CONCEPT OF CHARISMA 19 able when one considers the empphasis placed on the concept by Weber's translators and cominentators.4 dearth of empirical studies by sociologists can be explained, this writer believes, by the manlner in which Weber and his successors dealt with the concept. While Weber clearly indicated social dimension to charisma, he also stressed charisma as psychological attribute of person. Weber's successors have lhad similarly divided orientationls toward charisma but emphasis has been, on the whole, on the idea of an individual commanding certain gifts. Sociologists have been unable to come to grips empirically with the concept because, while charisma has been interesting, as presently developed, it lies outside the purview of disciplinary interests. This paper seeks to examine charisma and clarify the psychological preoccupations of the concept and attempts to refocus the concept in terms relevant to sociological interests. In so doing, it will be shown that Weber dealt, at least to some extent, with sociological components of charisma but that his concerns were mainly psychological. An empirical case-social change in Tanganyika-will be utilized to indicate how the concept may be dealt</t>
+          <t>Invited Papers.- New Challenges in the World Wide Wisdom Web (W4) Research.- Grounding to the Real World - Architecture for Ubiquitous Computing -.- Data Mining: Fast Algorithms vs. Fast Results.- Knowledge Discovery Services and Tools on Grids.- Regular Papers.- Space Decomposition in Data Mining: A Clustering Approach.- Time Series Rule Discovery: Tough, Not Meaningless.- Mining Diagnostic Rules with Taxonomy from Medical Databases.- Comparing Simplification Methods for Model Trees with Regression and Splitting Nodes.- Goodness-of-Fit Measures for Induction Trees.- PDL with Maximum Consistency Monitors.- Comparing and Merging Ontologies: A Concept Type Hierarchy Approach.- Integrating Information under Lattice Structure.- Functional Ontology for Intelligent Instruments.- Constructing an Ontology Based on Hub Words.- Integration of Heterogeneous, Imprecise and Incomplete Data: An Application to the Microbiological Risk Assessment.- Intelligent Protein 3D Structure Retrieval System.- Cognitive Vision Systems in Medical Applications.- An Automated School Timetabling System Using Hybrid Intelligent Techniques.- Representing Audio Data by FS-Trees and Adaptable TV-Trees.- A Framework of Rough Sets Based Rule Generation in Non-deterministic Information Systems.- Granular Computing Based on Rough Sets, Quotient Space Theory, and Belief Functions.- Searching for the Complex Decision Reducts: The Case Study of the Survival Analysis.- Clustering Supermarket Customers Using Rough Set Based Kohonen Networks.- Multi-rough Sets and Generalizations of Contexts in Multi-contexts Information System.- MetaNews: An Information Agent for Gathering News Articles on the Web.- Enacting an Agent-Based Digital Self in a 24x7 Web Services World.- Light-Weight Agents for E-learning Environments.- Towards a Pragmatic Methodology for Open Multi-agent Systems.- Using Similarity to Implement Distributed Ubiquitous Software Services.- MIC: Algebraic Agent Environment.- Using the SPACE Intermediate Model to Help to Implement Agents.- Belief Revision and Text Mining for Adaptive Recommender Agents.- NETMARK: A Schema-Less Extension for Relational Databases for Managing Semi-structured Data Dynamically.- Program Generation for Application Domain Users by Selecting Model Candidates.- Traffic Sign Recognition in Disturbing Environments.- Design Patterns in Intelligent Systems.- Temporal Feature Extraction from Temporal Information Systems.- Parallel Ant Colony Systems.- Some Case-Refinement Strategies for Case-Based Criminal Summary Judgments.- G-STRIPS - A Generalized STRIPS System for Handling State Change over Dynamic Domains.- Classifying Document Titles Based on Information Inference.- Building Topic Maps Using a Text Mining Approach.- Improving the Performance of Text Classifiers by Using Association Features.- Korean Document Summarization Using Topic Phrases Extraction and Locality-Based Similarity.- Improving Naive Bayes Text Classifier with Modified EM Algorithm.- Mining Environmental Texts of Images in Web Pages for Image Retrieval.- Towards a Contextual Content of Ontologies.- An Email Classifier Based on Resemblance.- The Characterization on the Uniqueness of Answer Set for Prioritized Logic Programs.- A New Approach to Constraint Inductive Logic Programming.- Extending the CLP Engine for Reasoning under Uncertainty.- Logic for Multi-path Message Forwarding Networks for Mobile Agents.- ?-Subsumption and Resolution: A New Algorithm.- Supporting E-consent on Health Data by Logic.- Towards the Theory of Relaxed Unification.- Probability Logic Modeling of Knowledge Discovery in Databases.- Constructing Extensions of Bayesian Classifiers with Use of Normalizing Neural Networks.- Fuzzy Multiset Model for Information Retrieval and Clustering Using a Kernel Function.- Validation of Fuzzy Partitions Obtained through Fuzzy C-Means Clustering.- Generating Fuzzy Thesaurus by Degree of Similarity in Fuzzy Covering.- Design of Iconic Language Interface for Semantic Based Korean Language Generation.- Incremental Feature Extraction Based on Empirical Kernel Map.- On Lookahead Heuristics in Decision Tree Learning.- Empirical Evaluation of Dissimilarity Measures for Time-Series Multiscale Matching.- First-Order Rules Mining Guided by Information Gain.- Simultaneous Row and Column Partitioning: Evaluation of a Heuristic.- Partial Prefix Sum Method for Large Data Warehouses.- Spatio-Temporal Association Mining for Un-sampled Sites.- Development of Generic Search Method Based on Transformation Invariance.- Hierarchical Ordering for Approximate Similarity Ranking.- Space Transformation Based Approach for Effective Content-Based Image Retrieval.- Collaborative Filtering - Safe and Sound?.- RNA Structure as Permutation: A GA Approach Comparing Different Genetic Sequencing Operators.- Evolutionary Computation for Optimal Ensemble Classifier in Lymphoma Cancer Classification.- Floorplan Design Using Improved Genetic Algorithm.- Some Enhancements in Genet</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2012972710</t>
+          <t>https://openalex.org/W4253622090</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1713831</t>
+          <t>https://doi.org/10.1080/1467880032000151699</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tiller &amp; Sekerka (1964)</t>
+          <t>NA (2003)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Redistribution of Solute During Phase Transformations</t>
+          <t>Book reviews</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The redistribution of solute during phase transformations where solute partitioning occurs at the two-phase interface has been mathematically treated for (i) the special case of equal diffusion rate in both the liquid and solid and (ii) diffusion only in the liquid under the additional force of a constant electric field. This one-dimensional analysis shows that (i) diffusion in the solid has a small effect on the grown-in solute distribution for k0&amp;amp;lt;1 but an appreciable effect for k0&amp;amp;gt;1 and (ii) the presence of an electric field can significantly alter the grown-in solute distribution. Further, one can deduce from the latter analysis a new experimental method for determining the effective ionic mobility of the solute species in the liquid phase.</t>
+          <t>Fragile Peace: State Failure, Violence and Development in Crisis Regions Tobias Debiel and Axel Klein, Eds Zed Books, London, 2002, pp. 256. ISBN 184277171X Nobly, Fragile Peace: State Failure, Violence and Development in Crisis Regions seeks to address how 'deep-rooted structures of violence' can be transformed to enable development, which will 'facilitate socio-economic welfare and political participation, as well as... the realization of cultural identity'. (p. 3.) With a focus on 'concrete policy recommendations geared towards practical politics', Fragile Peace is a discussion of post-conflict reconstruction and peace building with case studies drawn from the Caucusus, Central America and the Horn of Africa. The contributors for this edited volume originally were participants in a series of five international workshops, entitled the Development and Peace Foundation's Policy Forum on Regional Conflict Management, conducted between November 1999 and 2000. Reflecting the diverse nature of the workshops' participants, the authors hail overwhelmingly from think tanks and academia in Germany and the UK, but also include contributors from South America, the United States and Georgia.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2013776636</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1051/lhb/1964045</t>
+          <t>https://openalex.org/W249272058</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Browzin (1964)</t>
+          <t>Panko &amp; Arlidge (2003)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nouvelle méthode d'application de quelques fonctions de la variable complexe aux calculs des sous-pressions agissant sous les ouvrages de retenue</t>
+          <t>Online Information: The Spider's Sticky Web</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The integral of Schwarz and Christoffer is used to find the complex variable function which transforms the positive half plane into a polygon with one point located in the infinity. The polygon represents the field of flow under a dam with one non-symmetrical cutoff built on an infinitely deep layer of pervious soil. The half plane represents a field of flow in similar conditions but without cutoff. By regrouping the members of the transforming function, the polygon can be transformed into a half plane with the dam located non-symmetrically about the origin of coordinates. A second transformation brings it to a symmetrical position. Since the solution for a symmetrical dam without cutoff is known, this solution can be used for the case of flow under a dam with cutoff by calculating conjugated points by use of the transforming formula. This method is due to Pavlovsldi and is exposed in his treaty of 1922 (5, 11). The two transformations, the first, from the cutoff case to a non- symmetrical dam and the second, to a similar symmetrical dam can easily be made for the bottom line of the dam by calculation as well as by a simple graphical procedure. The new application of Pavlovskii method, which is due to Firchakoy, consists of the use of the transfoming function, derived for a simple cutler case, for the analysis of multi-cutoff dams and of dams with the base located Mellow the ground line, i.e., of dams with any arbitrary shape of the underground profile inc1uding an impervious layer located at a given depth. The underground profile is first divided into several sections, each containing one cutler and a common point with adjacent sections. The conform transformation of each section is made separately. Special monographs may he used. However, the writer found it more practical to use the commonly available tables of hyperbolic functions and that of elliptical integrals, which he illustrates by numerical examples. The accuracy of the new method in calculating the uplift acting in particular points of the dam foundation profile is in general greater than 2 to 3 per cent; only in single points, for example, in re-entrant angles it decreases to 5 per cent, hut the accuracy in calculating the total up lift must he estimated as insuring an accuracy of a least 3 per cent. The numerical values of the uplift calculated in various points of the dam can serve as departing points for the construction of the flow net. However, the flow net is of relatively minor interest when the uplift is already calculated. The gradient of escaping velocities can also he determined from the calculations provided by the method.</t>
+          <t>Abstract This case study examines the online experiences of nine participants and two faculty members involved in an undergraduate level course examining information literacy in an online learning environment. Participants took part in diverse evaluative Internet searches, and were then asked to examine and reflect on these techniques. They also considered ways in which they could integrate similar authentic processes of information access and dissemination into their own teaching strategies. Participants recognised the value of the asynchronous online discussion, and found that this had helped them to develop a deeper level of learning by providing the opportunity to reflect on their contributions in a way that was not possible in a face-to-face setting. Introduction This case study examines the online experiences of participants involved in an undergraduate level course entitled 'Information, Knowledge and Learning'. This course was designed to enhance teachers' information and teaching skills in a rapidly changing world, using a variety of information sources, particularly those of the Internet and online databases. Issues ranged from dilemmas of equity and access, to pedagogy and power, with the focus extending from the individual learner and teacher, to the institutional organisation and the global village. Background to the course The course was offered in an experiential manner, which is to say that, in addition to classroom presentations and debates, the participants took part in diverse evaluative online searches, and then examined and reflected on these techniques. As an extension of this process, they were required to consider ways in which they could integrate similar authentic processes of information access and dissemination into their own teaching strategies. All the participants worked in the adult education sector, some as tutors, while others came from the public library and professional development areas. All had access to the Internet and used the Blackboard web management system to obtain material, to access additional external links and to communicate with one another. The use of Blackboard also enabled teaching faculty to recommend specific websites to students and to provide easy access for these students to online course material such as PowerPoint presentations. The course was delivered in 'blended mode,' in which face-to-face sessions were combined with significant periods of independent study supported by collaborative online group work. Information searching tasks during the face-to-face sessions took place on computers linked to the Internet and ranged from teacher-led to completely self-directed exploration. These included: * Viewing recommended websites via Blackboard as part of class discussions and group tasks, * Guided searches on faculty selected topics (i.e. definitions of information literacy), * Interactive online quizzes, and * Independent searches focussed on assignment topics. As part of the overall course grading structure the online discussion was assessed based on criteria designed to encourage interactivity and promote deeper level learning (Campbell, 2001). These were: * Regularity of contributions, so that on-going dialogue was encouraged throughout the course, * Links or references to the comments of others, to allow the development of a social learning environment, * Sharing of ideas and experiences, to place experiences in a practical setting, * Demonstration of cognition, that could demonstrate the learners' depth of understanding and metacognitive processes, and, * Reference to appropriate readings or Websites for the group to share. The online discussion Computer conferencing, used in this context as Discussion Boards, has been defined as, 'Asynchronous computer-mediated communication (CMC) that allows participants in an electronic community to easily exchange (threaded) text messages free of the constraints of time and place' (Rawson, 1996). …</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020095570</t>
+          <t>https://openalex.org/W4231030786</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.7971273</t>
+          <t>https://doi.org/10.1080/09581590302769</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Thomas (1964)</t>
+          <t>Yeatman (2003)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A Proposed Codification for Photo-optical Instrumentation</t>
+          <t>Food and nutrition policy at the local level: key factors that influence the policy development process</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jean St. Thomas and I had a very gratifying working association for more than two years during the mid-fifties. St. Thomas was obsessed with the desire to do something about the problem of codification. It was apparent that he had a keen insight into the re-quirement and the problem. He made serious attempts to verbalize the nature and the scope of the problem in various papers. St. Thomas reflected later that his early proposals were "premature, incomplete, and unsuitable for indexing." This statement of construc-tive self-criticism was presented by a man who is earnestly involved with an unquenchable desire for a workable solution. St. Thomas probed, discussed, revised, re-considered and has currently presented a base from which a system of codification can now be initiated. I was requested by the Society of Photographic Instrumentation Engineers to review and introduce the revised work and to add my endorsement. I am delighted to comply: The codification of Photo-Optical Instrumentation Engineering under the Dewey Decimal System, as proposed by St. Thomas, is the result of the analysis and selection of a currently recognized classification system to serve as the structure from which an immediate and workable solution to the indexing of "hardware" can be accomplished for the systematic storage and retrieval of information. The practical experiences gained from other serious attempts to codify the field has been considered in the St. Thomas proposal. The accelerated growth of technological knowledge is creating an ever increasing demand for the service of storing and retrieving PhotoOptical Instrumentation information. It is recommended that the proposal receive the immediate attention of the responsible parties who are in the authorized position to initiate and execute a plan of action.</t>
+          <t>Little empirical work has been undertaken examining the policy process at the local level, where the majority of public health professionals work. This has resulted in a lack of understanding of how the policy development process works at this level and of the relevance of policy theory to local policy processes and outcomes. This paper discusses the findings of four case studies undertaken during 1995-96 that examined the process of developing food and nutrition policies within Australian local governments. At two of the sites food and nutrition policies were introduced. At the other two sites the development of food and nutrition policies was funded but policies were not endorsed or implemented. Semi-structured interviews were held with key personnel and document analysis was undertaken of reports and minutes of meetings. Factors examined in the study included the roles of individuals, groups and organized interests, the influence of organizational and governmental structures and the interaction between these factors. The relevance of the policy theories of localism, agenda setting and political power and policy making to locally based health policy development is discussed. Key findings of this study are that local policy action is a function of the nature of the policy issue, it is dependent on the political and organizational environments within which it is developed and action by individuals can be very influential in the policy process.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026913713</t>
+          <t>https://openalex.org/W1997759598</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tct.1964.1082264</t>
+          <t>https://doi.org/10.1046/j.1365-2788.2003.00540.x</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Carlin (1964)</t>
+          <t>Meininger (2003)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Singular Network Elements</t>
+          <t>Intellectual disability, ethics and genetics – a selected bibliography</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The properties of &lt;tex xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;n&lt;/tex&gt; -ports can be examined in terms of simple properties of linear vector spaces. This approach leads to a very general type of network formalism which in turn casts light on the physical realizability (or nonrealizability) of the singular linear network elements: the nullator (simultaneously an open and a short circuit), and the norator (the unique nonreciprocal one-port with arbitrary port voltage and current). Furthermore, a two-port (the "nullor") which combines these two elements can be shown to be a unique active building block which exhibits the extraordinary nature of the two singular one-ports, but which has other properties which make it amenable for use in practical systems.</t>
+          <t>Journal of Intellectual Disability ResearchVolume 47, Issue 7 p. 571-576 Intellectual disability, ethics and genetics – a selected bibliography H. P. Meininger, H. P. Meininger Department of Theology, Vrije Universiteit, De Boelelaan 1105, 1081 HV Amsterdam, the NetherlandsSearch for more papers by this author H. P. Meininger, H. P. Meininger Department of Theology, Vrije Universiteit, De Boelelaan 1105, 1081 HV Amsterdam, the NetherlandsSearch for more papers by this author First published: 30 September 2003 https://doi.org/10.1046/j.1365-2788.2003.00540.xCitations: 1 Herman P. Meininger, Department of Theology, Vrije Universiteit, De Boelelaan 1105, 1081 HV Amsterdam, the Netherlands (e-mail: [email protected]). Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL References Annas G. J. &amp; Elias S. (eds) (1992) Gene Mapping: Using Law and Ethics as Guides. Oxford University Press, New York, NY. Bartels D. M., LeRoy B. S. &amp; Caplan A. L. (eds) (1993 ) Prescribing Our Future: Ethical Challenges in Genetic Counseling. Aldine de Gruyter, Hawthorne, NY. Berger E. M. &amp; Gert B. (1991) Genetic disorders and the ethical status of germ-line gene therapy. Journal of Medicine and Philosophy 16, 667– 83. Brock D. W. (1995) The Non-identity problem and genetic harm. The case of wrongful handicaps. Bioethics 9, 269– 75. Callahan T. C., Durfy S. J. &amp; Jonsen A. R. (1995) Ethical reasoning in clinical genetics: a survey of cases and methods. Journal of Clinical Ethics 6, 248– 53. Chadwick R. F., Shickle D., Ten Have H. A. M. J. &amp; Weisling U. (1999) The Ethics of Genetic Screening. Kluwer, Dordrecht. Cowan R. (1992) Genetic technology and reproductive choice: an ethics for autonomy. In: The Code of Codes: Scientific Social Issues in the Human Genome Project (eds D. J. Kevles &amp; L. Hood), pp. 244– 64. Harvard University Press, Cambridge, MA. Davis D. S. (1997) Genetic dilemmas and the child's right to an open future. Hastings Center Report 27, 7– 15. DeVaro E. &amp; Turner L. (1997) Prenatal testing for genetic disability[research notes]. Hastings Center Report 27, 48. Durfy S. J. (1993) Ethics and the human genome project. Archives of Pathology and Laboratory Medicine 117, 466– 9. Fader B. (1992) Ethics and the Use of Genetic Information. Tough Questions by Students. Conference Report, Pugwash USA, 7 November. Galjaard H. (1994) Prenatal diagnosis: foretelling the quality of life. Unesco Courier, September, 17– 19. Gert B., Berger E. M., Cahill C. F. Jr. (1996) Morality and the New Genetics: a Guide for Students and Health Care Providers. Jones and Bartlett, Boston, MA. Harris J. (1998) Clones, Genes, and Immortality: Ethics and the Genetic Revolution. Oxford University Press, Oxford. Jonsen A. R. (1994) Genetic testing, individual rights, and the common good. In: Duties to Others (eds C. Campbell &amp; A. Lustig), Kluwer Academic, Boston, MA. Juengst E. T. (1997) Can prevention be distinguished from enhancement in genetic medicine? Journal of Medicine and Philosophy 22, 125– 42. Mayer R. N., Smith K. R., Zick C. D. &amp; Botkin J. R. (1999) Coercion, control and consequences in genetic testing: views on insurance among tested individuals and the general public. In: Genetic Information: Acquisition, Access and Control (Eds A. K. Thompson &amp; R. F. Chadwick), pp. 41– 56. Kluwer Academic/Plenum Publishers, New York, NY. McCrary S. V., Allen W. L., Moseley R. E. (1993) Ethical and practical implications of the human genome initiative for family medicine. Archives of Family Medicine 2, 1158– 63. Moseley R. E., Crandall L. A., Dewar M. A. (1991) Ethical implications of a complete human gene map. Business and Professional Ethics 10, 1– 14. Ostrer H., Allen W. L., Crandall L. A., Moseley R. E., Dewar M. A., Nye D. &amp; McCrary S. V. (1993) Insurance and genetic testing: where are we now? American Journal of Human Genetics 52, 565– 77. Rothstein M. A. (ed.) (1991) Legal and Ethical Issues Raised by the Human Genome Project. University of Houston Health Law and Policy Institute, Houston, TX. Smith D. H., Quaid K. A., Dworkin R. B. (1998) Early Warning: Cases and Ethical Guidance for Presymptomatic Testing in Genetic Diseases. Indiana University Press, Bloomington, IN. Thornton J. G. (1994) The ethics of prenatal screening and abortion for fetal abnormality: a personal view. Journal of Reproductive and Infant Psychology 12, 155– 61. Wertz D. C. (1992) Ethical and Legal implications of the new genetics: issues for discussion. Social Science and Medicine 35, 495– 505. References Berg J. M. (1986) Prenatal diagnosis of mental retardation and it</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2029056003</t>
+          <t>https://openalex.org/W2137727550</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1540-6261.1964.tb02865.x</t>
+          <t>https://doi.org/10.1046/j.1523-1739.2003.01728.x</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sharpe (1964)</t>
+          <t>Fiedler (2003)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CAPITAL ASSET PRICES: A THEORY OF MARKET EQUILIBRIUM UNDER CONDITIONS OF RISK*</t>
+          <t>Quantifying Our Children's Necessity for Nature</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>One of the problems which has plagued those attempting to predict the behavior of capital markets is the absence of a body of positive microeconomic theory dealing with conditions of risk. Although many useful insights can be obtained from the traditional models of investment under conditions of certainty, the pervasive influence of risk in financial transactions has forced those working in this area to adopt models of price behavior which are little more than assertions. A typical classroom explanation of the determination of capital asset prices, for example, usually begins with a careful and relatively rigorous description of the process through which individual preferences and physical relationships interact to determine an equilibrium pure interest rate. This is generally followed by the assertion that somehow a market risk-premium is also determined, with the prices of assets adjusting accordingly to account for differences in their risk. A useful representation of the view of the capital market implied in such discussions is illustrated in Figure 1. In equilibrium, capital asset prices have adjusted so that the investor, if he follows rational procedures (primarily diversification), is able to attain any desired point along a capital market line.11 Although some discussions are also consistent with a non-linear (but monotonic) curve. He may obtain a higher expected rate of return on his holdings only by incurring additional risk. In effect, the market presents him with two prices: the price of time, or the pure interest rate (shown by the intersection of the line with the horizontal axis) and the price of risk, the additional expected return per unit of risk borne (the reciprocal of the slope of the line). At present there is no theory describing the manner in which the price of risk results from the basic influences of investor preferences, the physical attributes of capital assets, etc. Moreover, lacking such a theory, it is difficult to give any real meaning to the relationship between the price of a single asset and its risk. Through diversification, some of the risk inherent in an asset can be avoided so that its total risk is obviously not the relevant influence on its price; unfortunately little has been said concerning the particular risk component which is relevant. In the last ten years a number of economists have developed normative models dealing with asset choice under conditions of risk. Markowltz,22 Harry M. Markowitz, Portfolio Selection, Efficient Diversification of Investments (New York: John Wiley and Sons, Inc., 1959). The major elements of the theory first appeared in his article “Portfolio Selection,” The Journal of Finance, XII (March 1952), 77–91. following Von Neumann and Morgenstern, developed an analysis based on the expected utility maxim and proposed a general solution for the portfolio selection problem. Tobin33 James Tobin, “Liquidity Preference as Behavior Towards Risk,” The Review of Economic Studies, XXV (February, 1958), 65–86. showed that under certain conditions Markowitz's model implies that the process of investment choice can be broken down into two phases: first, the choice of a unique optimum combination of risky assets; and second, a separate choice concerning the allocation of funds between such a combination and a single riskless asset. Recently, Hicks44 John R. Hicks, “Liquidity,” The Economic Journal, LXXII (December, 1962), 787–802. has used a model similar to that proposed by Tobin to derive corresponding conclusions about individual investor behavior, dealing somewhat more explicitly with the nature of the conditions under which the process of investment choice can be dichotomized. An even more detailed discussion of this process, including a rigorous proof in the context of a choice among lotteries has been presented by Gordon and Gangolli.55 M. J. Gordon and Ramesh Gangolli, “Choice Among and Scale of Play on Lottery Type Alternatives,” College of Business Administration, University of Rochester, 1962. For another discussion of this relationship see W. F. Sharpe, “A Simplified Model for Portfolio Analysis,” Management Science, Vol. 9, No. 2 (January 1963), 277–293. A related discussion can be found in F. Modigliani and M. H. Miller, “The Cost of Capital, Corporation Finance, and the Theory of Investment,” The American Economic Review, XLVIII (June 1958), 261–297. Although all the authors cited use virtually the same model of investor behavior,66 Recently Hirshleifer has suggested that the mean-variance approach used in the articles cited is best regarded as a special case of a more general formulation due to Arrow. See Hirshleifer's “Investment Decision Under Uncertainty,” Papers and Proceedings of the Seventy-Sixth Annual Meeting of the American Economic Association, Dec. 1963, or Arrow's “Le Role des Valeurs Boursieres pour la Repartition la Meilleure des Risques,” International Colloquium on Econometrics, 1952. none has yet attempted to extend it</t>
+          <t>Children and Nature: Psychological, Sociocultural, and Evolutionary Investigations. Kahn, P. H., and Kellert, S. R. , editors . 2002 . The MIT Press , Cambridge, MA . 348 pp. $24.95 (paperback). ISBN 0-262-61175-9 . In one slim volume this interesting compendium brings together research and essays from diverse fields of scientific inquiry to present irrefutable reasons to keep our local “pocket” parks alive and our kids outdoors. Children and Nature incorporates research from cognitive science, developmental psychology, ecology, education, environmental studies, evolutionary psychology, political science, primatology, psychiatry, and social psychology. The authors examine the evolutionary significance of nature during childhood; the formation of children's perceptions, values, and sympathies toward the natural world; how contact with nature effects children's physical, emotional, and mental development; and the educational and political consequences of the weakened childhood experience of nature in modern society. The book is specifically compiled to lay out the current research and question its underlying assumptions, to provide some history of ideas about children and nature, to acknowledge the emotional nature of the queries, and to challenge younger scientists into further research. But perhaps best of all, this book sounds the trumpet call. Children and Nature provides poetry as well as quotable research data in bits that can be dropped directly into a proposal for a local community nature park. There is so much to applaud in this book, but it needs to take the last step: a bulleted list of its best insights and facts, ready to be slapped onto the overhead projector at town hall. It is, however, a well-planned campaign in its own right. Kahn and Kellert have done a marvelous job of organizing diverse material, holding our hands, as it were, to help us find those quotable passages for ourselves. The introduction stands on its own as a definitive, cogent overview of the book's large vista and is well worth the read. The conclusions at the end of each chapter are indispensable; consider reading them both before as well as after the chapter itself. Although the chapters are written by a wide array of authors, the tone throughout the book is remarkably consistent—equally authoritative, questioning, and congenial. The congeniality will be a relief to naturalists, administrators, and educators who may well be using the book in nonscientific presentations. Each chapter concludes with a list of references that substantiate and extend the work without bogging it down. There is a conspicuous lack of posturing when results don't match expectations, and the authors generously follow with specific topics for further inquiry—a boon for young researchers. Such acts of promotion make it clear that all of the contributors care about this subject keenly. With their editors, they have presented their individual expertise with a consistently compelling, compassionate voice to assert that “… direct and indirect experience of nature has been and may possibly remain a critical component in human physical, emotional, intellectual, and even moral development” ( p. vii ). Children and Nature abounds with surprises in a topic that at first glance seems self-evident but remains little documented by science. Editors Kahn and Kellert have organized the volume into three perspectives—evolutionary, psychological, and sociocultural-but what is disarming is the mix of poetry, reflection, lab work, and anecdotes together. Amid the primate studies creating evolutionary perspectives, the reader delights to imagine Girl Scouts intermingled in a group of mandrills calling the bluff of a “dead” toad. We learn of gorilla use of herbal medicines; we note that our boys are armed against our primal natural foes-snakes and mushrooms-in their favorite videogames. And we are touched by the account of a chimpanzee's kiss for his caretaker upon being given a backyard romping lawn. The theory of “biophilia”—that humans have a genetic need to affiliate themselves with nature—receives support from these studies of primates. In the psychological perspective of “folkbiology”—how children conceptualize the natural world—we learn that Japanese children attribute “life” generously, including to mountains, whereas Israeli children are less generous, denying even plants the status of the living. A study in Houston, Texas, shows us that poverty-stricken parents care equally—and overwhelmingly—about their children's education about the environment as well as drugs. In chapters detailing research on cognitive and emotional development, the quotations range from such ecological philosophers as Rachel Carson and Edith Cobb to the pediatric social psychologist Robert Coles, to the personal remembrances of poets Dylan Thomas and Walt Whitman. Careful consideration is given to the role of animals-actual and virtual animals, wild animals, companion animals, and zoo anim</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2037477138</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1086/349863</t>
+          <t>https://openalex.org/W616173177</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carozzi (1964)</t>
+          <t>Politis (2003)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Lamarck's Theory of the Earth: Hydrogeologie</t>
+          <t>Identifying the Competence Requirements for Human Capital at Different Types of Digital Printing Companies : Case studies at Graphic Arts Companies in Sweden and Greece</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessLamarck's Theory of the Earth: HydrogeologieAlbert V. CarozziAlbert V. Carozzi Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Isis Volume 55, Number 3Sep., 1964 Publication of the History of Science Society Article DOIhttps://doi.org/10.1086/349863 Views: 20Total views on this site Citations: 10Citations are reported from Crossref Copyright 1964 History of Science Society, Inc.PDF download Crossref reports the following articles citing this article:Agnes Kneitz Quantifying Ocean Currents as Story Models: Global Oceanic Currents and Their Introduction to Global Navigation, (Dec 2017): 219–238.https://doi.org/10.1007/978-981-10-4053-5_10 Bibliography, (Oct 2017): 744–842.https://doi.org/10.1002/9781405166201.biblioJONATHAN D. OLDFIELD, DENIS J.B. SHAW V.I. Vernadskii and the development of biogeochemical understandings of the biosphere, c. 1880s–1968, The British Journal for the History of Science 46, no.22 (Mar 2012): 287–310.https://doi.org/10.1017/S0007087412000015Guido Giglioni Jean-Baptiste Lamarck and the Place of Irritability in the History of Life and Death, (Apr 2013): 19–49.https://doi.org/10.1007/978-94-007-2445-7_2Frank N. Egerton History of Ecological Sciences, Part 34: A Changing Economy of Nature, Bulletin of the Ecological Society of America 91, no.11 (Jan 2010): 21–41.https://doi.org/10.1890/0012-9623-91.1.21Snait Gissis Interactions Between Social and Biological Thinking: The Case of Lamarck, Perspectives on Science 17, no.33 (Oct 2009): 237–306.https://doi.org/10.1162/posc.2009.17.3.237David Oldroyd Lamarck, Jean‐Baptiste Pierre Antoine de Monet de, (Apr 2001).https://doi.org/10.1038/npg.els.0002468Ernst Mayr Lamarck revisited, Journal of the History of Biology 5, no.11 (Mar 1972): 55–94.https://doi.org/10.1007/BF02113486Robert P. Multhauf, Bernard S. Finn, Aleida V. H. Cattell, Gertrude B. Calvert, and Diana D. Menkes Ninetieth Critical Bibliography of the History of Science and Its Cultural Influences (To 1 January 1965), Isis 56, no.44 (Oct 2015): 490–657.https://doi.org/10.1086/350074 H. A. M. Snelders , and Albert V. Carozzi Lamarck's Theory of the Earth: Comments, Isis 56, no.33 (Oct 2015): 356–357.https://doi.org/10.1086/350007</t>
+          <t>This doctoral thesis discusses the competence structures and the development of human capital in the graphic arts and media sector. The study has focused on exploring the new media landscape and in particular the structural changes that influence the sector, the print-versuselectronic- media debate and the future of print media. The influence of new technologies and management concepts on the graphic arts and media sector has also been investigated, as has the role and the importance of people in new societal and industrial settings as well as new ways of managing and developing people in changing media environments.The primary research objective was to identify the competence requirements and characteristics for existing and potential employees in the graphic arts and media sector and, in particular, the areas of digital printing and cross-media publishing. The second objective was to elucidate the various actions and strategies established and applied for the professional development of people in the graphic arts and media sector, such as further training, recruitment policies and the evaluation and certification of competence. The third objective of the study was to suggest the formation of a strategy for the professional development of people in the graphic arts and media sector – namely the creation of a human capital development strategy. An important issue was to identify the various components (or substrategies) of the strategy and determine if it was possible to integrate them under a common platform.The work has been based on literature studies, industry reports and observations, market analyses and forecasts, and empirical studies. Participatory research methods have also been used. In addition, case-study research has been performed at the company and sector levels. Human resource management and development concepts have been surveyed to determine whether they are efficient for the professional development of people in the entire spectrum of an industry sector.The graphic arts and media sector – including print media – will remain active for the foreseeable future; however, the results presented here show that the sector has been significantly influenced by structural changes that have taken place over the last decade, affecting organizations, companies and people involved in the sector, and this process of change will continue.The study shows that there is indeed a need for new competence in people employed in or to be recruited to the graphic arts and media sector. The initial identification and description of the competences for the new structure of the graphic arts and media industry is proposed. Various actions for the development of people in the sector, mainly regarding education, further and continuous learning, and recruitment, are also identified. However, these activities have been established mainly at the national level by various organizations (educational institutes, industrial partners and the governmental/European Union authorities).Finally, the principal characteristics of a human capital development strategy are described, and components (or substrategies) that form a strategy that could be introduced for the graphic arts and media sector in Europe are proposed.Keywords: Graphic arts and media sector, digital printing, cross-media publishing, human capital, intellectual capital, human resource management and development, human capital development strategy.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2038358970</t>
+          <t>https://openalex.org/W2019735931</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/v64-284</t>
+          <t>https://doi.org/10.1016/j.chiabu.2003.10.002</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>McBryde (1964)</t>
+          <t>Fontes (2003)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A SPECTROPHOTOMETRIC REEXAMINATION OF THE SPECTRA AND STABILITIES OF THE IRON (III) – TIRON COMPLEXES</t>
+          <t>Re: Cultural norms versus state law in treating incest: a suggested model for Arab families, by K. Abu Baker and M. Dwairy</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Variations in the spectra of the aqueous solutions of the iron (III) – sodium catechol disulphonate (Tiron) complexes may be interpreted in relation to pH of the solutions to show which complexes are present at any chosen pH. With this knowledge it is possible in this system to evaluate equilibrium constants for the formation of each complex in turn. Combining these with separately determined acidity constants for Tiron, the stability constants of the complexes may be calculated. These have been determined for background solutions of potassium nitrate or sodium perchlorate each at three different concentrations, and for three different ratios of reagent to metal. Averages of a number of determinations made under these conditions are given in Table III of the paper. The constant K 1 in perchlorate media shows an unmistakable dependence suggestive of the existence of a protonated species at low pH as well as the simple complex ML. However, there is some ambiguity in the interpretation of the results so that the exact nature of the protonated complex cannot be decided.</t>
+          <t>Emergency nurses are at higher risk than the average worker of experiencing lumbar pain. This is the first study to undertake real time monitoring to quantify lumbar movements of nurses working in the emergency department (ED).Emergency nurses at a single Australian ED were recruited for a prospective observational case study. Participants worked in four discrete clinical areas of the ED; In-charge, triage, resuscitation, and cubicles. Data collected included participant demographics, lumbar pain pre- and post-shift, and real-time recording of lumbar movements.Sixty-two nurses participated. There were statistically significant differences in time spent standing (p = 0.005), sitting (p ≤ 0.001) and in locomotion (moving) (p ≤ 0.001) when compared by clinical role. Triage nurses spent over half their shift sitting, had the most sustained (&gt; 30 s) flexions (60+ degrees) and had a median of 4 periods of uninterrupted sitting (10−30 mins) per shift.Differences in movement demands were identified based on various clinical roles in the ED. Triage was associated with greater periods of uninterrupted sitting and with greater degrees of sustained flexion, both of which are predictors for back pain. This study provides foundation evidence that triage may not be the most appropriate location for staff returning from back injury.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2051933990</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1086/109378</t>
+          <t>https://openalex.org/W1510809598</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Seitter (1964)</t>
+          <t>Adler (2003)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Atlas for Objective Prism Spectra and Information Obtainable from Low-Dispersion Spectrograms of Nova Herculis 1963.</t>
+          <t>Research Design and Communication in Production System Experiments - A Multiple-Case Study in the Nordic Countries</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The 340/500/ 1375 mm Schmidt telescope of Bonn Observatory is equipped with three objective prisms of dispersions 240, 645, and 1280 A/mm at H Several investigations have shown all dispersions to be useful for work in stellar statistics and on selected objects. To facilitate future investigations with dispersions in that range work was started a year ago on a spectral atlas using the Johnson-Morgan standards as reference stars. Special attention has been givel~ to ultraviolet and infrared criteria. One of the objectives of the atlas is to show the change of criteria with changing dispersions. Examples are given of the appearance of the spectra which are enlarged 18 to 40 fold for the atlas prints. The bright Nova Herculis 1963 may serve as ai~ example of applying the above-mentioned dispersinus to an individual object. Thirty-one spectrograms taken between February and October 1963 allowed following the spectral development of the i~ova. Continuum ii~tensities were determined from microphotometer tracings and the radiation was found to correspond to that of a nebula with Te = 20 0000K and Ne = 5 X 10~ cm-3. Emission line intensities were traced until the disappearance of the features. During the early stages H, 0 1, ai~d N I emissions were quite pronounced. By May the neutral 0 and N lines, except for 0 1 8446, had disappeared. Permitted and forbidden lines of 0 II, O iii, N ii, and N iii were strong from March to July. [Ne IIIJ and [Ne vJ emissions were observed in May and later. In the second half of July, Ha, [0 IIIJ 4363 and [0 iiij 5007 dominated the spectrum. By October, 5007 had increased markedly with respect to 4363. The varying strength of absorption lines could be observed until the end of March. Radial velocity measurements yielded average values of 1000,1400, and 1700 km/sec for different hydrogen absorptions.</t>
+          <t>Since the 1980s, production system experiments are a commonly used research strategy in ecological farming in the Nordic countries. This type of experiments fit in under the holistic oriented framework of farming systems research, which was developed in the 1970s as a reaction to the negative impacts of the Green Revolution in developing countries. The approach is to investigate farming systems as a whole and integrate researchers, extensionists and farmers actively in the research design. _x000D_
+_x000D_
+In the Nordic countries, 48 production system experiments are identified in a survey. By using the criteria of 1) research orientation, 2) experimental area, 3) duration and 4) other criteria, the design of the production system experiments could be characterised as more reductionistic or more holistic. _x000D_
+_x000D_
+A qualitative multiple-case study of production system experiments at the research station Apelsvoll (Norway), and the research farms Logarden, Ojebyn and Tingvall (all Sweden) was accomplished to relate communication between researcher, extensionist, farmer and consumer back to research design. Both formal and informal communication forms indicate differences in the communication networks of the cases. Apelsvoll has a more reductionistic research design and a hierarchic one-way communication. Tingvall has a holistic full-scale design that includes other actors and a more developed communication network, which is less hierarchic and two-way. Logarden and Ojebyn have features of both reductionistic and holistic research design. Also social aspects play an important role for the development of communication channels. _x000D_
+_x000D_
+In the multiple-case study a relation was found between reductionistic research design and a less developed communication network on one hand, and holistic research design and well-developed communication. However, the integrative approach of the Logarden project and the Tingvall project is not embedded in the research methodology. New knowledge is needed about ecological farming at a farming systems level, which includes also social aspects. This is necessary to meet rapid changes in social and economical structures on farms and in society in general. _x000D_
+_x000D_
+Insights gained in this study may help to improve the existing research design of ongoing production system experiments and to develop new research strategies under the framework of farming systems research in the Nordic countries. This work may also contribute to more focus on interdisciplinary approaches and closer interaction between existing production system experiments.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2055003962</t>
+          <t>https://openalex.org/W2049350126</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1713541</t>
+          <t>https://doi.org/10.1111/j.0012-155x.2005.00410.x</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Soohoo (1964)</t>
+          <t>Hickey &amp; Mohan (2005)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Magnetic Transition Layer Spin Configuration</t>
+          <t>Relocating Participation within a Radical Politics of Development</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The spin configuration in the transition layer between an antiferromagnet and a ferromagnet is investigated. The calculation is carried out by minimizing the free energy of the system with exchange, anisotropy, magnetostatic, and Zeeman terms. The results of our calculation indicate that a domain wall is formed between the antiferromagnetic and ferromagnetic media. The configuration of the walls, although similar to that in ferromagnets, is more complex and sensitively dependent upon the relative values of the exchange constant and anisotropy for the two media as well as upon the strength and nature of the interaction across the interface. A specific example involving an oxidized ferromagnetic film is given to illustrate the utility of our general result. It is noted that the formation of an antiferromagnetic-ferromagnetic domain wall may influence the magnetization of and surface spin pinning in thin films.</t>
+          <t>Development and ChangeVolume 36, Issue 2 p. 237-262 Relocating Participation within a Radical Politics of Development Sam Hickey, Sam Hickey lecturer in development studies at the Institute for Development Policy and Management, University of Manchester, Oxford Road, Manchester M13 9QH, UK.Search for more papers by this authorGiles Mohan, Giles Mohan senior lecturer in development studies at the Open University, Milton Keynes MK7 6AA, UK.Search for more papers by this author Sam Hickey, Sam Hickey lecturer in development studies at the Institute for Development Policy and Management, University of Manchester, Oxford Road, Manchester M13 9QH, UK.Search for more papers by this authorGiles Mohan, Giles Mohan senior lecturer in development studies at the Open University, Milton Keynes MK7 6AA, UK.Search for more papers by this author First published: 13 May 2005 https://doi.org/10.1111/j.0012-155X.2005.00410.xCitations: 258 This article is a shortened version of three chapters by the authors in Hickey and Mohan (2004). Many thanks to Tony Bebbington, Uma Kothari, Diana Mitlin, Kristian Stokke and Neil Webster for their insightful comments on this work, and also to two anonymous reviewers for their helpful comments and suggestions on this particular paper. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract In response to (and in sympathy with) many of the critical points that have been lodged against participatory approaches to development and governance within international development, this article seeks to relocate participation within a radical politics of development. We argue that participation needs to be theoretically and strategically informed by a radical notion of 'citizenship', and be located within the 'critical modernist' approach to development. Using empirical evidence drawn from a range of contemporary approaches to participation, the article shows that participatory approaches are most likely to succeed: (i) where they are pursued as part of a wider radical political project; (ii) where they are aimed specifically at securing citizenship rights and participation for marginal and subordinate groups; and (iii) when they seek to engage with development as an underlying process of social change rather than in the form of discrete technocratic interventions — although we do not use these findings to argue against using participatory methods where these conditions are not met. Finally, we consider the implications of this relocation for participation in both theoretical and strategic terms. References Abers, R. 1998 'From Clientelism to Cooperation: Local Government, Participatory Policy and Civic Organising in Porto Alegre, Brazil', Politics and Society 26(4): 511–23. 10.1177/0032329298026004004 Web of Science®Google Scholar ActionAid 2003 'Our Priorities: Education: REFLECT'. Available online http://www.actionaid.org Google Scholar Arce, A. and N. Long 2000 'Reconfiguring Modernity and Development From an Anthropological Perspective', in A. Arce and N. Long (eds) Anthropology, Development and Modernities, pp. 1–31. London: Routledge. Web of Science®Google Scholar Archer, D. 1998 'The Evolving Conception of Literacy in REFLECT', PLA Notes 32: 100–108. Google Scholar Archer, D. and S. Cottingham 1997 'REFLECT: A New Approach to Literacy and Social Change', Development in Practice 7(2): 199–202. Google Scholar Barten, F., R. P. Montiel, E. Espinoza and C. M. Carbonell 2002 'Democratic Governance — Fairytale or Real Perspective? Lessons from Central America', Environment and Urbanization 14(1): 129–44. Web of Science®Google Scholar Baumann, P. 2000 'Sustainable Livelihoods and Political Capital: Arguments and Evidence from Decentralisation and Natural Resource Management in India'. ODI Working Paper 136. London: ODI. Google Scholar Bebbington, A. 2004 'Movements and Modernizations, Markets and Municipalities: Indigenous Federations in Rural Ecuador', in R. Peet and M. Watts (eds) Liberation Ecologies: Environment, Development and Social Movements, (2nd edn), pp. 396–421. London: Routledge. Google Scholar Bebbington, A. J. and D. H. Bebbington 2001 'Development Alternatives: Practice, Dilemmas and Theory', Area 33(1): 7–17. 10.1111/1475-4762.00003 Web of Science®Google Scholar Blair, H. 2000 'Participation and Accountability at the Periphery: Democratic Local Governance in Six Countries', World Development 28(1): 21–39. 10.1016/S0305-750X(99)00109-6 Web of Science®Google Scholar Booth, D. 1994 'Rethinking Social Development: An Overview',</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2067087905</t>
+          <t>https://openalex.org/W1966151326</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1029/jz069i023p04923</t>
+          <t>https://doi.org/10.1016/j.anbehav.2004.08.006</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Frank &amp; Allen (1964)</t>
+          <t>Cross et al. (2005)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Measurements of energetic electrons in the vicinity of the sunward magnetospheric boundary with Explorer 14</t>
+          <t>Disentangling association patterns in fission–fusion societies using African buffalo as an example</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Observations with the satellite Explorer 14 to radial distances of 16 RE (earth radii) on the generally sunward side of the earth establish the mean geocentric radial distance of the magnetospheric boundary near the sun-earth line as ∼11 RE during May-August 1963, a period of relatively low geomagnetic activity in the epoch six years after sunspot maximum. Isolated ‘spikes‘ of electrons having 40&lt;Ee&lt;200 kev and omnidirectional intensities lying between the detector's threshold of ∼5×103 and ∼105 cm−2 sec−1 are often but not always observed in a transition region of radial thickness 2 to 3 RE beyond the magnetospheric boundary. These electrons are interpreted as being in the high energy tail of the spectrum of the quasi-thermalized plasma Ee∼1 to 10 kev observed in this region by Explorer 12. The incidence of the spikes and the complexity and intensity of their radial profiles increase with increasing KP. The geocentric radial distances of both the magnetospheric boundary and the outer boundary of the transition region increase with increasing angle from the sun-earth line toward local evening, and the latter boundary apparently lies beyond 16 RE on the local sunset meridian. Electrons of energies exceeding 1.6 Mev are observed in localized ‘hot spots’ in the transition region near local morning, implying further heating of electrons in the solar plasma as it flows around the magnetosphere. It is suggested that the temporal variations of intensity of electrons Ee∼1.5 Mev, for example, in the outer radiation zone can be attributed in large part to inward, radial diffusion of electrons Ee∼300 kev from the magnetospheric boundary when relatively strong electron heating occurs in the adjacent transition-region plasma during geomagnetically disturbed periods, and that a diffusion mechanism operates continuously within the earth's magnetosphere, thus accounting for the sporadic, large increases of intensity of energetic electrons Ee∼1.5 Mev in the outer radiation zone following periods of geomagnetic activity as being due to a variable source in the transition region.</t>
+          <t>African protected areas strive to conserve the continent's great biodiversity with a targeted focus on the flagship ‘Big Five’ megafauna. Though often not considered, this biodiversity protection also extends to the lesser-known microbes and parasites that are maintained in these diverse ecosystems, often in a silent and endemically stable state. Climate and anthropogenic change, and associated diversity loss, however, are altering these dynamics leading to shifts in ecological interactions and pathogen spill over into new niches and hosts. As many African protected areas are bordered by game and livestock farms, as well as villages, they provide an ideal study system to assess infection dynamics at the human-livestock-wildlife interface. Here we review five zoonotic, multi-host diseases (bovine tuberculosis, brucellosis, Rift Valley fever, schistosomiasis and cryptosporidiosis)—the ‘Microscopic Five’—and discuss the biotic and abiotic drivers of parasite transmission using the iconic Kruger National Park, South Africa, as a case study. We identify knowledge gaps regarding the impact of the ‘Microscopic Five’ on wildlife within parks and highlight the need for more empirical data, particularly for neglected (schistosomiasis) and newly emerging (cryptosporidiosis) diseases, as well as zoonotic disease risk from the rising bush meat trade and game farm industry. As protected areas strive to become further embedded in the socio-economic systems that surround them, providing benefits to local communities, One Health approaches can help maintain the ecological integrity of ecosystems, while protecting local communities and economies from the negative impacts of disease.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2076014668</t>
+          <t>https://openalex.org/W2126912334</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1073/pnas.51.4.653</t>
+          <t>https://doi.org/10.1007/4-431-31014-2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Feller (1964)</t>
+          <t>Omasa et al. (2005)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ON SEMI-MARKOV PROCESSES</t>
+          <t>Plant Responses to Air Pollution and Global Change</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The global agri-food system is simultaneously a major contributor to, and severely affected by, climate change. Agroecological farming systems can contribute to creating resilient agri-food systems. Based on a multiyear qualitative case study, ...Supporting transitions to sustainable, resilient agri-food systems is important to ensure stable food supply in the face of growing climate extremes. Agroecology, or diversified farming systems based on ecological principles, can contribute to such ...</t>
+          <t>Preface by Kenji Omasa, Isamu Nouchi and Luit J. De Kok Contributors Plant Responses to Air Pollution: Metabolism of atmospheric sulfur gases in onion.- Impact of atmospheric NH3 deposition on plant growth and functioning - a case study with Brassica oleracea L..- How sensitive are forest trees to ozone? - New research on an old issue.- Northern conditions enhance the susceptibility of birch (Betula pendula Roth) to oxidative stress caused by ozone.- Physiological responses of trees to air pollutants at high elevation sites.- Complex assessment of forest condition under air pollution impacts.- Evaluation of the ozone-related risk for Austrian forests.- Causes of differences in response of plant species to nitrogen supply and the ecological consequences.- Plant Responses to Climate Change: Long-term effects of elevated CO2 on sour orange trees.- Plant responses to climate change: impacts and adaptation.- Effects of elevated carbon dioxide concentration on wood structure and formation in trees.- Plant Responses to Combination of Air Pollution and Climate Change: Carbon dioxide and ozone affect needle nitrogen and abscission in Pinus ponderosa.- Effects of air pollution and climate change on forests of the Tatra Mountains, Central Europe.- Genetics and Molecular Biology for Functioning Improvement: MAPK signalling and plant cell survival in response to oxidative environmental stress.- Expression of cyanobacterial ictB in higher plants enhanced photosynthesis and growth.- Improvement of photosynthesis in higher plants.- Modification of CO2 fixation of photosynthetic prokaryote.- Specificity of diatom Rubisco.- Regulation of CO2 fixation in non-sulfur purple photosynthetic bacteria.- Experimental Ecosystem and Climate Change Research: Experimental ecosystem and climate change research in controlled environments:lessons from the Biosphere 2 Laboratory 1996-2003.- Importance of air movementfor promoting gas and heat exchanges between plants and atmosphere under controlled environments.- Pros and cons of CO2 springs as experimental sites.- Global Carbon Cycles in Ecosystem and Assessment of Climate Change Impacts: Carbon dynamics in response to climate and disturbance: Recent progress from multi-scale measurements and modeling in AmeriFlux.- Synthetic analysis of the CO2 fluxes at various forests in East Asia 3-D remote sensing of woody canopy height and carbon stocks by helicopter-borne scanning lidar.- Assessments of climate change impacts on the terrestrial ecosystem in Japan using the Bio-Geographical and GeoChemical (BGGC) Model.- Air Pollution and Global Change in Asia: Establishing critical levels of air pollutants for protecting East Asian vegetation - A challenge.- Major activities of acid deposition monitoring network in East Asia (EANET) and related studies.- Land degradation and blown-sand disaster in China.- Impact of meteorological fields and surface conditions on Asian dust.- A case study on combating desertification at a small watershed in the hills-gully area of loess plateau, China.- A recipe for sustainable agriculture in drylands.- Index</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2088643409</t>
+          <t>https://openalex.org/W2071748348</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5006/0010-9312-20.2.57t</t>
+          <t>https://doi.org/10.1108/13673270510590227</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Streicher (1964)</t>
+          <t>Guzmán &amp; Wilson (2005)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Effect of Heat Treatment, Composition and Microstructure on Corrosion of 18Cr-8Ni-Ti Stainless Steels in Acids</t>
+          <t>The “soft” dimension of organizational knowledge transfer</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Abstract Titanium additions to 18Cr-8Ni steels can effectively eliminate susceptibility to intergranular attack associated with the precipitation of chromium carbides. However, these additions also drastically reduce the grain size of these steels and promote the formation of sigma phase. Both of these factors modify the behavior of titanium-stabilized steels in corrosive environments. A detailed investigation of the influence of heat treatment and microstructure on the corrosion resistance of four titanium-stabilized, AISI 321, heats is described. Incomplete stabilization of carbon by titanium leads to precipitation of chromium carbides on heating in the range of 800 F to 1600 F. This type of susceptibility is readily detected in the oxalic acid etch test, the nitric-hydrofluoric acid test, the copper sulfate-sulfuric acid test, the ferric sulfate-sulfuric acid test, and in the nitric acid test. A second type of susceptibility to intergranular attack is associated with the formation of sigma phase, which may precipitate in a sub-microscopic form during heating in the range of 1150 to 1550 F. It is detected only in the nitric acid test and, to a lesser extent, in the ferric sulfate-sulfuric acid test. The action of various acid solutions on titanium-stabilized stainless steels are compared by means of metallographic studies of microstructures and of progressive corrosion, and by measurements of weight loss and change in electrical resistance of corroding specimens. The data obtained are used to explain the action of acids on these steels and to recommend procedures for evaluation testing.</t>
+          <t>Purpose This paper aims to advance a theoretical framework that integrates knowledge management, change management and “soft” issues, focussing on uncovering the nature of “soft” issues embedded in knowledge management and change management processes. Design/methodology/approach Both empirical work (case study at an electronics contract manufacturing plant) and literature review were used in order to build the proposed theoretical framework. Findings It argues that the “soft” dimension assists in better understanding the process of organizational knowledge transfer. In this context, “soft” issues refers to the mutual understanding – of both sender and receiver units – of underlying assumptions, the role of macro‐institutional factors affecting firm level actions (the macro‐micro link) and interpretative aspects that permeate the process of organizational knowledge transfer, including knowledge management and change management issues. Practical implications Guidelines for managerial action were formulated in order to make explicit, be aware of and understand embedded “soft” issues. Presented guidelines represent an attempt to uncover the crucial “soft” issues that are usually overlooked by the conventional literature. Originality/value This paper offers an alternative framework for guiding both practical intervention and further research on knowledge management‐related issues. It contributes to a better understanding of the process of organizational knowledge transfer.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2092202816</t>
+          <t>https://openalex.org/W2109200844</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/712-pa</t>
+          <t>https://doi.org/10.1086/427525</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gondouin &amp; Heim (1964)</t>
+          <t>Connell (2005)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Experimentally Determined Resistivity Profiles In Invaded Water and Oil Sands for Linear Flows</t>
+          <t>Change among the Gatekeepers: Men, Masculinities, and Gender Equality in the Global Arena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Abstract Invasion experiments were run on Berea sandstone cores to get laboratory measurements of resistivity and saturation profiles characteristic of water and oil sands invaded by mud filtrate. Injection rates were as low as 1.13 cm/D, and the cores were 30 to 36 in. long, cut parallel to the bedding planes. In the water-sand case, the resistivity profiles revealed the existence of an extensive transition zone between flushed and uncontaminated zones. In the linear geometry of the experiment, the width of the transition zone increased as the square root of the injected fluid volume. For the oil-sand case the core was prepared by displacing the formation water with kerosene to in minimum water saturation. During the subsequent invasion experiment. oil saturation was measured directly by means of an oil-soluble radioactive tracer, and resistivity profiles along the core were taken at the same time. These data were interpreted in terms of an oil-water front, followed by a formation water bank, a zone of mixed waters, and finally, invaded mud filtrate near the borehole. Micro-fingering and capillarity seemed to affect considerably the resistivity profiles observed in the invaded oil-sand experiment. Beyond the regular conductive annulus or "low zone", it was found that a resistive "and-annulus" could also be formed. As a result of these experiments, some simplified invasion profiles have been accepted and are being used in Grand Slam* interpretations. Introduction The importance of the mud filtrate-invaded zone in interpreting electrical logs has long been recognized. In trying to account for its effect, only very simple models of the resistivity profiles in the radial direction from the borehole have been used. In fact, most log interpretation charts have been based on resistivity models consisting of two media of uniform resistivity (R and R5) abruptly separated at the diameter of invasion. Such a clean separation of the media of different resistivities seems unrealistic, since flushing may not be perfect and may vary with radial distance into the formation. ** The nature of the transition zone, when it is within the radius of investigation of the surveying devices, may affect the log readings. Campbell and Martin verified that a conductive annulus containing a high percentage of formation water may be formed when mud filtrate invades an oil-bearing sand. Interpretations which are to include the effect of such an annulus require the addition to the model of a conductive zone located at the outer rim of the invaded zone. Using the Buckley-Leverett relations, saturation profiles may be derived, from which resistivity profiles can be calculated. Results of such computations by K. S. Kunz and J. H. Moran were given in a paper by Dumanoir, Tixier and Martin, and led to the construction of log interpretation charts which were based on a representation with three media of resistivities Rxo, Ran and Rt. Fig. 1 shows a schematic representation of a resistivity profile which includes an annulus. Campbell and Martin realized that, during the invasion of an oil sand, both capillarity and mixing would contribute to rounding of the profile shown in Fig. 1. JPT P. 337ˆ</t>
+          <t xml:space="preserve">Previous articleNext article No AccessChange among the Gatekeepers: Men, Masculinities, and Gender Equality in the Global ArenaR. W. ConnellR. W. ConnellFaculty of Education and Social WorkUniversity of Sydney Search for more articles by this author Faculty of Education and Social WorkUniversity of SydneyPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Signs Volume 30, Number 3Spring 2005 Article DOIhttps://doi.org/10.1086/427525 Views: 6218Total views on this site Citations: 237Citations are reported from Crossref © 2005 by The University of Chicago. All rights reserved.PDF download Crossref reports the following articles citing this article:Carrie K. W. Li The Applicability of Social Structure and Social Learning Theory to Explain Intimate Partner Violence Perpetration Across National Contexts, Journal of Interpersonal Violence 37, no.23-2423-24 (Feb 2022): NP22475–NP22500.https://doi.org/10.1177/08862605211072166Eva Soares Moura "I Can't Because I Am a Man": Masculinity, Manhood, and Gender Equality in Sport for Development, Sociology of Sport Journal 39, no.33 (Sep 2022): 231–239.https://doi.org/10.1123/ssj.2020-0166Jasmine Kelland, Duncan Lewis, Virginia Fisher "Viewed with suspicion, considered idle and mocked‐working caregiving fathers and fatherhood forfeits", Gender, Work &amp; Organization 29, no.55 (Apr 2022): 1578–1593.https://doi.org/10.1111/gwao.12850Mu He An "ethnically unique" athlete: An analysis of media representations of Jeremy Lin during the 2010–2011 and 2016–2017 NBA seasons, Newspaper Research Journal 43, no.33 (Jul 2022): 258–275.https://doi.org/10.1177/07395329221105504Bosco Mapunda, Furaha August, Dorkas Mwakawanga, Isaya Mhando, Andrew Mgaya, Everton Falcão de Oliveira Prevalence and barriers to male involvement in antenatal care in Dar es Salaam, Tanzania: A facility-based mixed-methods study, PLOS ONE 17, no.88 (Aug 2022): e0273316.https://doi.org/10.1371/journal.pone.0273316Maia C. Behrendt Settler colonial origins of intimate partner violence in Indigenous communities, Sociology Compass 12 (Aug 2022).https://doi.org/10.1111/soc4.13019Melissa Joy Wolfe Erasures of gender in/equity in Australian schooling: ' The program is not about turning boys into girls ', Gender and Education 7 (Jul 2022): 1–17.https://doi.org/10.1080/09540253.2022.2094349Carrie K. W. Li, Jianhong Liu, Xuan Chen Chinese Women's Financial Independence and Their Intimate Partner Violence Victimization Experiences, Violence Against Women 3 (Jun 2022): 107780122210971.https://doi.org/10.1177/10778012221097143Inge Bleijenbergh How change agents mobilise masculinities to support gender equality in academia, Organization 25 (May 2022): 135050842210968.https://doi.org/10.1177/13505084221096810Maya Tsfati, Adital Ben-Ari Gay Israeli Fathers: Reframing Societal Views on Surrogacy, Men and Masculinities 25, no.11 (Oct 2021): 167–183.https://doi.org/10.1177/1097184X211034197Ilona Domen, Daan Scheepers, Belle Derks, Ruth van Veelen It's a man's world; right? How women's opinions about gender inequality affect physiological responses in men, Group Processes &amp; Intergroup Relations 25, no.33 (Apr 2022): 703–726.https://doi.org/10.1177/13684302211042669Clotilde de Maricourt, Stephen R. Burrell #MeToo or #MenToo? Expressions of Backlash and Masculinity Politics in the #MeToo Era, The Journal of Men's Studies 30, no.11 (Jul 2021): 49–69.https://doi.org/10.1177/10608265211035794Almudena Moreno-Mínguez, Ángel L Martín-Román, Alfonso Moral Father Parental Leave Use in Spain: The Role of the Female Partner Labour Situation, Work, Employment and Society 141 (Feb 2022): 095001702110628.https://doi.org/10.1177/09500170211062808Gilly Hartal, Orna Sasson-Levy Failing Homonationalism? Gay Israeli Eurovision Geeks Negotiating Nationalism and Masculinity, Journal of Homosexuality 2 (Feb 2022): 1–24.https://doi.org/10.1080/00918369.2022.2038967Emmanuel Mayeza, Deevia Bhana, Delarise Mulqueeny Normalising violence? Girls and sexuality in a South African high school, Journal of Gender Studies 31, no.22 (Jan 2021): 165–177.https://doi.org/10.1080/09589236.2021.1881460Jutta Joachim, Andrea Schneiker What does gender got to do with it? PMSCs and privatization of security revisited, Small Wars &amp; Insurgencies 33, no.1-21-2 (Nov 2021): 196–223.https://doi.org/10.1080/09592318.2021.1985690Elizabeth L. Brannon The Appointment of Men as Representatives to the United Nations Commission on the Status of Women, Political Research Quarterly 4 (Feb 2022): 106591292110661.https://doi.org/10.1177/10659129211066124David Lynn Painter, Brittani Sahm, Paul Schattschneider Framing sports' corporate social responsibility: US women's vs men's soccer leagues, Corporate Communications: An International Journal 27, no.11 (Jun 2021): 1–14.https://doi.org/10.1108/CCIJ-03-2021-0035Ananya Rajagopal Entrepreneurship and Human Relations, (Mar 2022): </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2103368675</t>
+          <t>https://openalex.org/W1968633912</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/3.2561</t>
+          <t>https://doi.org/10.1111/j.1365-2524.2005.00542.x</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Stancil (1964)</t>
+          <t>Poland et al. (2005)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A new approach to steepest-ascent trajectory optimization</t>
+          <t>'Working at the margins' or 'leading from behind'?: a Canadian study of hospital-community collaboration</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>HE primary difference between the present method and others described in the literature concerns the determination of the change in control (angle of attack) in the optimizing direction. The determination of the change in control required to correct errors in specified end conditions is the same as in other versions of the gradient method. In the case where the final velocity is to be maximized, for example, the optimizing angle-of-attack increment is usually determined by specifying a desired increase in velocity. In the method of this paper, we first determine approximate partial derivatives of final velocity with respect to the final values of the other variables. We then proceed to find the angle of attack as if we were using the classical calculus of variations technique, i.e., from the partial derivatives we determine final values of the Lagrangian multipliers. These final values determine the values of the multipliers through the entire trajectory, and the angle of attack can be solved for from the appropriate Euler or adjoint equation. The usual gradient techniques are used to determine the variations in final velocity which would occur as a result of specifying changes in the final values of the other variables, and these variations determine the partial derivatives mentioned previously. Another factor that has been found useful in stabilizing the iteration in particularly sensitive cases is the use of attitude angle 6 as the controlling parameter rather than angle of attack a. In order to use 0 control, it is necessary to estimate the change in path angle 7 which will occur at the next trajectory, because experience has shown that, when the 6 control is determined by adding the new a. to the current value of 7 (0 = 7 + a), the iteration will almost always not converge. Good convergence properties are obtained by determining the value of 6 from 6 = 7 + ^7 + anew The techniques just described and others that are discussed in the paper result in a method for determining trajectories which is believed to combine the best features of the steepest ascent, or gradient method, and the classical methods of the calculus of variations. A computer program using these new techniques has been developed for solving the rocket boost vehicle mission optimization problems that were analyzed in Ref. 1 (using the classical methods of the calculus of variations). As in Ref. 1, a variable coasting time may be included, and the optimum value is determined by the procedure. Effects of planet rotation, aerodynamic forces, variable atmosphere, time-variant thrust, and vehicle design or physiological limitations are included. A numerical example is shown to illustrate the convergence properties of the current method in a somewhat difficult (sensitive) case.</t>
+          <t>Collaboration between hospitals and community organisations has been promoted over the past 20 years by various levels of government, hospital associations, health promotion advocates, and others at the state/province, national and international levels as a way to improve the 'efficiency of the system', reduce duplication, enhance effectiveness and service coordination, improve continuity of care, and enhance community capacity to address complex issues. Nevertheless, and despite a growing literature on interagency collaboration, systematic documentation and empirical analysis of hospital-community collaboration (HCC) is almost completely lacking in the literature, particularly as regards collaborations that address the determinants of health beyond the hospital walls. In this paper, we describe the methodology and key findings from a research study of HCC. The Hospital Involvement in Community Action (HICA) study undertook detailed qualitative case studies (in four urban, suburban, rural and northern locations) and a telephone survey (of 139 community organisations in a large urban centre) in order to learn about the range of collaborations and working relationships that exist between hospitals and community agencies in the province of Ontario (Canada), and the factors that influenced (enabled and/or hindered) HCC. Particular attention was paid to barriers and enablers at three nested levels of context (policy, hospital and community) and, drawing primarily on the qualitative case studies, it is this aspect that is the focus of this paper. That such collaborations continue to be widespread despite a generally unfavourable policy environment and hospital institutional culture that poses significant barriers, suggests that the extent to which HCC flourishes (or exists at all) crucially depends on the presence and ongoing enthusiasm/commitment of one or more 'champions' within the hospital, and the commitment of both parties to overcome the marked cultural differences between hospital and community. We conclude with a discussion of implications for policy and practice.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2154872896</t>
+          <t>https://openalex.org/W1991305985</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0002-1571(64)90037-8</t>
+          <t>https://doi.org/10.1016/j.jrurstud.2005.10.001</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Begg et al. (1964)</t>
+          <t>Cañada &amp; Vázquez (2005)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Diurnal energy and water exchanges in bulrush millet in an area of high solar radiation</t>
+          <t>Quality certification, institutions and innovation in local agro-food systems: Protected designations of origin of olive oil in Spain</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The diurnal energy and water relationships of a crop of bulrush millet (Pennisetum typhoides S. et H.) were examined in an area of high solar radiation at Katherine, N.T., Australia (latitude 14.3°S). The vertical distribution of the components contributing to the net upward water flux was evaluated by a simple heat-budget method from vertical profiles of net radiation, water vapour and temperature, as well as soil heat flux. The physiological response of the plant to diurnal changes in the environment was measured in terms of relative leaf water content, photosynthetic activity and stomatal aperture. The average illumination within the crop was obtained from light readings made with a flat surface and an omnidirectional photometer in vertical profiles during the day. The total dry matter and leaf area in the crop profile were determined from stratified samplings. Soil water relationships were also evaluated. At the time of the study, the soil water content in the surface 150 cm of soil was approaching the −15 bar value. A decrease in transpiration and an increase in sensible-heat loss demonstrated a marked influence on the energy balance by stomatal closure during the middle of the day. During the recovery period in the afternoon, transpiration increased, at a time when net radiation was decreasing, by gaining advected sensible heat from the atmosphere and also from the lower leaf layers. The fraction of net radiation utilized for transpiration generally decreased with depth into the plant canopy. It is postulated that both physiological and meteorological factors contribute to this phenomenon. The maximum proportion of direct evaporation from the soil in relation to the total evaporation appeared to be about 10%.</t>
+          <t>This article examines the interrelations between establishment of territorial quality certification systems (Protected Designations of Origin or PDOs), diffusion of innovations through local agro-food chains, and the role of the institutions overseeing geographical designations. Empirical analysis is applied to olive oil PDOs in Spain and entails a detailed case study of the “Sierra Mágina” PDO in Andalusia. Making use of the neoinstitutional concept of ‘organised proximity’—and focussing specifically on the problematic of organizational quality—the article assesses characteristics that support the competitive positions of local certified-product production systems. In particular, the authors find that collective organisation and coordination between PDO agents who are locally responsible for quality assurance and protection can enhance local competitiveness. Three hypotheses are confirmed. First, PDO labels can, through the action of PDO regulators, become quality assurance systems for distributors. Second, PDO Regulatory Boards can enhance and coordinate local inter-professional activities, particularly with respect to the diffusion of quality-enhancing innovations and knowledge. Third, the study indicates that local certified-product systems are starting to incorporate quality attributes linked to the environment and sustainable development, although much remains to be accomplished in this regard.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W224612880</t>
+          <t>https://openalex.org/W2027765533</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-1-4832-2841-9.50010-6</t>
+          <t>https://doi.org/10.1111/j.1752-1688.2005.tb03804.x</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kirschner et al. (1964)</t>
+          <t>Tang et al. (2005)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SOME FACTORS INFLUENCING THE OPTICAL ROTATORY DISPERSION OF ASYMMETRIC COMPLEX INORGANIC COMPOUNDS</t>
+          <t>MINIMIZING THE IMPACT OF URBANIZATION ON LONG TERM RUNOFF</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Considerable interest in the optical rotatory dispersion of asymmetric organic and inorganic compounds has arisen in recent years, especially with regard to the application of this technique to the elucidation of the structures of such compounds. Recent significant advances in instrumental techniques for the determination of optical rotatory dispersion have undoubtedly contributed materially to the renewed interest in this field. One of the factors found in this study to influence the optical rotatory dispersion of asymmetric complex ions is the nature of the optically inactive ions of opposite charge associated with them. A study of the effects of optically inactive ions on the rotatory dispersion of optically active complex ions indicates that there is a strong correlation between ion-pair association, the Cartledge ionic potential of the inactive ions, and the degree of rotation at the maxima and minima of the dispersion curves. There appears to be little effect exerted by the inactive ions on the frequencies of the peaks, troughs and crossover points of the curves. A study of the effects of changing the dielectric constant of the solvent on the optical rotatory dispersion of asymmetric complex ions indicates that shifts to more positive optical rotations (at certain wave-lengths) and little change in the peak, trough, and crossover frequencies of the rotatory dispersion occurs with a reduction of the dielectric constant of the solvent. Studies of the effect of loading a solution with excess inactive ions on the optical rotatory dispersion of asymmetric complex ions also indicate that ion-pair formation produces significant changes in the optical rotatory dispersion in this case as well. Other studies now under way on the optical rotatory dispersion of complex compounds are also discussed.</t>
+          <t xml:space="preserve">JAWRA Journal of the American Water Resources AssociationVolume 41, Issue 6 p. 1347-1359 MINIMIZING THE IMPACT OF URBANIZATION ON LONG TERM RUNOFF1 Zhenxu Tang, Zhenxu Tang Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by this authorBernie A. Engel, Bernie A. Engel Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by this authorKyoung J. Lim, Kyoung J. Lim Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by this authorBrayn C. Pijanowski, Brayn C. Pijanowski Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by this authorJon Harbor, Jon Harbor Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by this author Zhenxu Tang, Zhenxu Tang Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by this authorBernie A. Engel, Bernie A. Engel Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by this authorKyoung J. Lim, Kyoung J. Lim Respectively, Research Assistant, Professor, and Post-Doctoral Research Associate, Department of Agricultural and Biological Engineering, Purdue University, 225 South University Street, West Lafayette, Indiana 47907–2093; Associate Professor, Department of Forestry and Natural Resources, Purdue University, 195 Marsteller Street, West Lafayette, Indiana 47907–2033; and Professor, Department of Earth and Atmospheric Sciences, Purdue University, 550 Stadium Mall Drive, West Lafayette, Indiana 47907–2051 (E-Mail/Engel: [email protected] ).Search for more papers by </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2266636690</t>
+          <t>https://openalex.org/W2007285809</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sw/9.1.19</t>
+          <t>https://doi.org/10.1108/09544780510583254</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Levine (1964)</t>
+          <t>Tønnessen (2005)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Treatment in the Home</t>
+          <t>Continuous innovation through company wide employee participation</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Much has been written and said about lowproblem family in ways they may be able income, multiproblem families and about to use. This experiment tries to reduce their apparent resistance to social agency their alienation and unfamiliarity by in services, especially to mental health clinics, traducing a new learning experience — The reasons given run something like this: learning from going through a treatment These are uneducated people who are process together, a process tailored to what socially and culturally impoverished, who they can understand and accept, rather know hardship, even brutality, who are than one that demands that they fit into often teetering on the edge of hunger and the ways in which clinics operate, despair. They feel alien to middle-class The primary technique used is demon values and are alienated from the rest of stration, in contrast with discussion alone, society. to help people reduce conflicts in intra Social workers know many of the reasons familial relationships. It is combined with for these conditions but too little still about provision of concrete services. The essen ways of combating them so that these tial elements in this technique are activity, people can use the resources the community intervention, and discussion, has to offer in order to improve their lot. While treatment in the is in some Perhaps this is so because, despite the sharp respects similar to the familiar technique contrast in standards and values, social in social casework practice of visiting, workers nevertheless expect this group to it differs sharply in method and objectives, make the big leap from one milieu and its Among various points of similarity, both values to another that is wholly unfamiliar, serve a diagnostic purpose in that they pro to which they feel hostile, and which is vide a picture of environmental influences hostile toward them. and family interaction. Hence, insights in the home is an approach are gained through observation and ex being used in an experimental way by the ploration. Both are used as follow-up Mental Hygiene Clinic of Henry Street when office appointments are not kept. Settlement in an effort to bring mental The differences in this experiment are: health services to the low-income, multi1. Treatment is shifted from the clinic to the and takes place with con tinuity of regular appointments, system RACHEL A. LEVINE, MS, is Executive Director, MentaI atically sustained Hygiene Clinic, Henry Street Settlement, New York g jn r Q? discussion w;th ntg City. Families discussed in this paper are the sub■ , ,, , , , ., 1 . y , , ., . . , j , , .... only, all members of the family are present; iects of a three-year pilot protect undertaken m thu ... , , .i</t>
+          <t>Purpose The paper aims to address the failure of prevailing international management concepts to utilize the potentials of company wide employee participation in innovation, and give the reader some practical solutions and some ideas about how to exploit these potentials more efficiently. Design/methodology/approach These solutions and ideas are developed mainly through two Norwegian action research programmes that have been carried out together with industry over a ten‐year period. The main topic of research has been to see how good practice from prevailing international management concepts like total quality management and business process re‐engineering may be integrated with good practice from the Norwegian industrial democracy tradition into a new approach to continuous innovation. A case study approach has been used. Findings The case studies showed that a better utilization of the potentials of company wide employee participation in innovation gives efficiency as well as working environment improvements. Research limitations/implications The case studies also showed that more knowledge and a further development of practical tools that ease participation in innovation is an important challenge for future R&amp;amp;D. Practical implications In order to fully exploit the potentials of employee participation in innovation companies and consultants need to adjust their practice in the direction of a more participatory approach. Originality/value The paper gives consultants, academics, managers and shop stewards a framework and some practical tools for employee participation in innovation that may be used at the different company levels. It is argued and shown how activities at the different levels may be co‐ordinated and work reciprocal supportive.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2312851900</t>
+          <t>https://openalex.org/W2039681241</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5026/jgeography.73.253</t>
+          <t>https://doi.org/10.1111/j.1945-5100.2005.tb00187.x</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kiuchi (1964)</t>
+          <t>Lorand et al. (2005)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Basic Problems of Regional Development. With special comments on the development of Toyama district on the Japan Sea coast</t>
+          <t>Sulfide mineralogy and redox conditions in some shergottites</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A regional development is not the sole problem of a science or of a technology, but a comprehensive and cooperative work of various scientific fields, technology, and administration. Geography, as a science of region, has the responsibility for offering basic ideas and techniques of research, including mapping of the area confronted.It aims at the development of human life with higher income and better social services ; that is, the most important consideration is the development of spiritual-physical ability of inhabitants and to know that any economic development is the tool for human progress. Geographers will participate in a project with basic survey methods, analyzing the regional structure and relation of regions.Though actual aims of development would be much different by each regions, one of the most up-to-date ones in Japan is the adjustment of town and country inconsistency, or more strictly speaking, to find the solution of regional economic and social differences between overcrowded metropolitan areas, such as Tokyo and Osaka, and depressing countrysides with smaller towns, in a high national economic growth.Hokuriku, to which Toyama district belongs, is one of the low developed regions, compared with the Pacific coast. Long winter with heavy snow and remoteness from the metropolitan cores have prevented its economic growth.After the World War II, Japanese government took the policies of regional development of which objects have been changed by periods.(1) 1946-49. Under military occupation and devastation by the War, urgent land exploitation was taken place to settle unemployed people and to supply food. This policy was nearly unsuccessful, as most of the reclaimed land were poor in natural conditions, bad in accessibility, because of low standard of agricultural techniques of new settlers, with insufficient fund and equipments.(2) 1950-55. Japan has recovered the self government and the break-out of the Korean War, followed by the reconstruction of manufacturing industries and War-damaged cities. The integrated regional planning was established for 19 districts and Hokkaido, with the aims to improve the use of natural resources, to control floods and other damages, to increase food and other primary industrial products, to reconstruct manufacturing industries and improve social welfare. TVA was one of the most brilliant examples. These items of planning had been done separately by each governmental 'sections or by each prefectures, but the new plans seemed to be regionally integrated and districts were delimited by natural regions, such as drainage area, mountains, islands and etc. Until 1961, 850 billion yen (2.36 billion US dollars) were spent and 86 % of estimated projects were completed, as the Government reported. In fact, a considerable progress has been made, but still regional income difference was not overcome. Also, integrated program was poorly executed.(3) 1956-present. Industrialization and metropolitanization have been accelerated.Especially, in Tokyo metropolitan area, population has increased rapidly, which has resulted in a shortage of public facilities, such as water supply, transportation, and housing. In 1955, the Capital Region Project, which covers the circle with 100 km radius from the centre of Tokyo, was started. The Greater London Plan was its precedent. The project is under way, but it has a great difficulty of abrupt rise of I land price and ever increasing population, business concentration, and suburban sprawl.</t>
+          <t xml:space="preserve">Meteoritics &amp; Planetary ScienceVolume 40, Issue 8 p. 1257-1272 Free Access Sulfide mineralogy and redox conditions in some shergottites Jean-Pierre LORAND, Jean-Pierre LORAND Laboratoire de Minéralogie, CNRS UMR 7160, Department Histoire de la Terre, Muséum National d'Histoire Naturelle, 61 Rue Buffon, CP 52, Paris, FranceSearch for more papers by this authorVincent CHEVRIER, Corresponding Author Vincent CHEVRIER CEREGE, Europôle de l'Arbois, BP80, 13545 Aix-en-Provence Cedex 04, France*[email protected]Search for more papers by this authorViolaine SAUTTER, Violaine SAUTTER Laboratoire de Minéralogie, CNRS UMR 7160, Department Histoire de la Terre, Muséum National d'Histoire Naturelle, 61 Rue Buffon, CP 52, Paris, FranceSearch for more papers by this author Jean-Pierre LORAND, Jean-Pierre LORAND Laboratoire de Minéralogie, CNRS UMR 7160, Department Histoire de la Terre, Muséum National d'Histoire Naturelle, 61 Rue Buffon, CP 52, Paris, FranceSearch for more papers by this authorVincent CHEVRIER, Corresponding Author Vincent CHEVRIER CEREGE, Europôle de l'Arbois, BP80, 13545 Aix-en-Provence Cedex 04, France*[email protected]Search for more papers by this authorViolaine SAUTTER, Violaine SAUTTER Laboratoire de Minéralogie, CNRS UMR 7160, Department Histoire de la Terre, Muséum National d'Histoire Naturelle, 61 Rue Buffon, CP 52, Paris, FranceSearch for more papers by this author First published: 26 January 2010 https://doi.org/10.1111/j.1945-5100.2005.tb00187.xCitations: 62AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract Abstract— Magmatic sulfide mineralogy has been studied in 2 olivine-phyric shergottites (DaG 476 and SaU 005) and 4 basaltic shergottites (Zagami, Shergotty, Los Angeles, and NWA 480). Modal abundances of magmatic sulfides, as estimated by image analysis on thin section, are high (0.16 to 0.53 area percent) and correlate positively with abundances of Fe-Ti oxides. Sulfides are mesostasis minerals, being mostly interstitial grains or locally enclosed in post-cumulus melt inclusions (e.g., SaU 005) in olivine. Sulfides in shergottites are composed of major pyrrhotite containing pentlandite exsolutions associated with minor amounts of Cu sulfides (chalcopyrite and/or cubanite). Hot desert finds (e.g., DaG 476) show abundant fracture-filling iron (oxy)hydroxides of probable terrestrial origin. Unaltered sulfides show metal-rich hexagonal pyrrhotite compositions with metal/sulfur (M/S) ratio ranging between 0.936 ± 0.005 and 0.962 ± 0.01. This compositional range corresponds to the two-phase structural domain 2C + nC of the Fe-S system; however, the high-temperature disordered hexagonal 1C pyrrhotite structure would be in better agreement with magnetic properties of shergottites. Ni contents in pyrrhotite increase from Los Angeles (&lt;0.05 at%) to Shergotty, Zagami, and NWA 480 (0.2–0.5 at%), and DaG 476 and SaU 005 (up to 3 at%). The higher Ni values of pyrrhotite in olivine-phyric shergottites correlate with the abundance of pentlandite exsolutions, both reflecting more primitive Ni-rich sulfide liquids where abundant olivine crystallized. This result and the strong correlation between sulfide abundances and Fe-Ti oxides argue for a primary magmatic origin of these sulfides. Although they reproduce the trend of magmatic oxygen fugacity conditions determined from Fe-Ti oxide pairs, observed pyrrhotite compositions are systematically more metal-deficient compared to those calculated from the Fe-S-O system. This suggests post-magmatic oxidation during cooling on Mars, followed by terrestrial weathering for hot desert finds. REFERENCES Arnold R. G. 1966. Mixtures of hexagonal and monoclinic pyrrhotite and the measurement of the metal content of pyrrhotite by X-ray diffraction. American Mineralogist 51: 1221–1227. Barrat J. A., Gillet P., Sautter V., Jambon A., Javoy M., Göpel C., Lesourd M., Keller F., and Petit E. 2002a. Petrology and chemistry of the basaltic shergottite Northwest Africa 480. Meteoritics &amp; Planetary Science 37: 487–499. Barrat J. A., Jambon A., Bohn M., Gillet P., Sautter V., Göpel C., Lesourd M., and Keller F. 2002b. Petrology and chemistry of the picritic shergottite Northwest Africa 1068 (NWA 1068). Geochimica et Cosmochimica Acta 66: 3505–3518. Barton P. B., Jr. 1970. Sulfide petrology. Mineralogical Society of America Special Paper #3 pp. 187–198. Batt H. P. 1972. Nickel distribution in hexagonal and monoclinic pyrrhotite. Canadian Mineralogist 11: 893–897. Bogard D. D. and Johnson P. 1983. Martian gases in an </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2331971841</t>
+          <t>https://openalex.org/W181637594</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2472/jsms.13.1006</t>
+          <t>https://doi.org/10.1007/0-306-47632-0_4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Honda et al. (1964)</t>
+          <t>Petersson (2005)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>X-Ray Investigation on the Fatigue Damage of Metals Containing α-and β-Phases</t>
+          <t>Complete Basis Set Models for Chemical Reactivity: from the Helium Atom to Enzyme Kinetics</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>In the field of mechanical engineering, the need for a simple but effective way of evaluating the fatigue strength and life of structural materials is an important problem with which the design engineers have faced. Accordingly, a considerable amount of investigations have been made in this field. However, the basic nature of fatigue damage and the conditions which lead to the initiation and propagation of fatigue cracks are not sufficiently understood. Nor any satisfactory method of assessing the exact state of fatigue damage has yet been found.In order to approach the problem of understanding the response of materials to various external forces, in this connection, the authors, considering it to be important to combine many fields of information, have investigated the fatigue damage of metals under various conditions of stress by employing the X-ray technique. Namely, the authors have studied the mechanism of fatigue of metals by observing the changes in half-value breadth, residual stress and micro-structure under constant and varying stress amplitudes with or without mean stresses. Some investigations1)∼3) have been performed to study the relation between the changes in half-value breadth and the number of stress cycles. They offered a certain interesting knowledge on the behaviour of materials under cyclic stresses and a reliable means for predicting the fatigue life in principle. In the other series of experiments, 4)∼6) the authors have made discussions on the changes in half-value breadth in relation to the basic mechanism of fatigue, and also suggested a noticeable information to attack the fatigue problem in the future.It is clear at present, however, that the values of half-value breadth and residual stress are affected by the type of internal stress state seriously.7)∼9) For example, in steel, the iron carbide (Fe3C) lamella in ferrite may be in equilibrium with the matrix under a certain condition, that is, when it is formed or annealed, but upon cooling to room temperature or by plastic deformation, extremely high-locked stresses develop in the surrounding matrix because of the difference in some elastic and plastic properties or in thermal expansion coefficient. Really, the presence of the so-called “Gefügespannungen”has been pointed out, and it is considered to be due to the difference in the yield stresses of the various phases coexisting in an alloy.10)∼12) Therefore, if we consider that the “Gefügespannungen”are caused by the progress of fatigue slips and the growth of micro-cracks in certain grains of the phase, they may contribute to the behaviour of line broadening and the state of residual stress in the fatigue process.For these reasons, in the present paper, the authors attemped to investigate the fatigue mechanism of metals containing the α- and the β-phases (6-4 brass) in relation to the“Gefügespannungen”, and carried out some experiments on the changes in the half-value breadth and residual stress due to stress repetitions using the (α+β) brass. The conclusions obtained are as follows:(1) The general feature of the changes in the half-value breadth of the α- and the β-phases during the stress repetitions is quite similar to that of the (310) diffraction lines, which was pointed out previously on annealed carbon steel.13) However, the (310) and (321) diffraction line widths of the β-phase show changes greater than any others, while those of (400), (420) and (331) diffraction lines of the α-phase are very small in the fatigue process.</t>
+          <t>SummaryPair natural orbital extrapolations to the complete basis set limit provide the foundation for a sequence of cost-effective CBS models. The current models: CBS-QCI/APNO, CBS-QB3, and CBS-4M, are applicable to species with 5, 10, and 20 non-hydrogen atoms, and are reliable to ca. 0.5, 1.0, and 2.0 kcal/mol respectively. These methods are applicable to transition states for chemical reactions with the IRCMax procedure. The ZC-VTST CBS-QCI/APNO model is capable of quantitative predictions of absolute rate constants. A double extrapolation promises a new generation of significantly more accurate and reliable models that will no longer require empirical corrections. The Δ5-ketosteroid isomerasecatalyzed conversion of Δ5 - to Δ4-androstene-3, 17-dione provided a case study for the extension of such high-accuracy methods to enzyme kinetics. The impact that high-accuracy computational quantum chemistry is currently having on combustion chemistry will soon be extended to biology. This is an exciting time for computational science.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2332107337</t>
+          <t>https://openalex.org/W1590525143</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/367373</t>
+          <t>https://doi.org/10.1108/13620430510588293</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Seckinger (1964)</t>
+          <t>Broadbridge &amp; Parsons (2005)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Conant on Education as a Discipline</t>
+          <t>Gender and career choice</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>In his The Education of American Teachers,' Dr. James B. Conant rejects the idea that education is an academic discipline. The argument he develops is a logically simple one that follows a rather familiar pattern. Education, like medicine, is both a practical art where scientifically derived generalizations may helpfully guide action, and a deductive-theoretical endeavor where the wide premises of culture, largely unexamined, condition decision-making. And in education, since these two modes of thought-the practical and the theoretical-are inseparable, it is impossible to designate so vast a field of human activity directed toward practical ends as a separate science or a discipline. For knowledge and insight into the nature of education and medicine, the teacher and the physician cannot turn to the educationist or the medicinist, but must look to those established independent sciences and disciplines that touch upon these areas of human service. The doctor has such sciences as biology and chemistry to which to turn for truth about the healing arts; the teacher has the educational sciences which are the academic disciplines-political science, anthropology, psychology, history, philosophy, and sociology-from which to get understanding about the teaching arts. In this way does Conant the logician destroy the theoretical underpinnings of the idea of a separate discipline of education and, in the process, reassert the legitimacy of the claims of the scholarly sciences and disciplines over this now fractured and disposesssed academic orphan.</t>
+          <t>Purpose This paper extends the debate on gender and career choice using the case study of managers in charity shops in the UK, a group that have previously not been researched. The charity retail sector has undergone considerable change over the last few years, particularly in its effort to professionalize. As a result shop managers' positions have changed from being voluntary to paid. With the changes taking place in the sector, the purpose of this research was to explore the views of current charity shop managers with regard to their career choice and career development issues. Design/methodology/approach The methodological approach taken to the research was qualitative and used a series of in‐depth interviews with 22 shop managers. Findings The research found that charity retail management serves an important purpose for many women in the transition from the home to working environment. It provides the balance necessary to effectively combine the multiple role demands between personal and professional lives. Career success for these managers was less to do with occupational status or income, but encompassed the satisfaction, autonomy, challenge and self‐fulfillment the job presented them. As such, the majority had little interest in progressing their careers linearly but were contented with other forms of career development. Research limitations/implications Being an exploratory study, the results are not generalisable to the population. A quantitative research methodology could be utilized to test the findings of this paper and enable researchers to draw firmer conclusions. Originality/value The findings of this research may aid recruitment and selection practices for the future recruitment and development of charity shop managers.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2335906354</t>
+          <t>https://openalex.org/W2022796480</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5980/jpnjurol1928.55.1_83</t>
+          <t>https://doi.org/10.1242/jeb.008912</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Siga (1964)</t>
+          <t>Shadwick (2008)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EXPERIMENTAL STUDIES ON LIGATION OF VENA CAVA CAUDALIS</t>
+          <t>FOUNDATIONS OF ANIMAL HYDRAULICS: GEODESIC FIBRES CONTROL THE SHAPE OF SOFT BODIED ANIMALS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The author investigates the modes of development of collateral venous pathways and the effects on general circulation and renal function following ligation of the vena cava caudalis, because in radical surgery of the kidney ligation or resection of the vena cava inferior became sometimes necessary.In 59 adult mongrel dogs the vena cava caudalis was ligated through following 4 methods: Group I, ligation below the level of both renal veins; Group 2, oblique ligation tying the point above right renal vein and the point below left renal vein; Group 3, oblique ligation tying the point above left adrenal vein and the point below right renal vein; and Group 4, ligation above the level of left adrenal and right renal veins. Modes of development of collateral venous pathways were investigated by venography and autopsy. Circuratory changes were examined by measurements of venous pressure and by electrocardiography. Renal damages were studied by intravenous pyelography, determination of blood chemistry and histological examination.The results are as followed:(I) Survival rates of groups 1, 2, 3, and 4 were 75%, 50%, 36.6% and 50%, respectively. Early deaths following the ligation were found to be due to diminition of returning blood volumes to the right auricle and acute renal failure. There was no difference of survival rates between male and female dogs.(2) Maximal venous pressures of the versa saphena parva were measured within 24 hours after the ligation. They returned nearly to normal within a week. The results of venous pressure, serial venography and chemical data of the blood indicated that collatral venous pathways would be accomplished one to two after the ligation.(3) Main collateral venous pathways were verified to be vena vertebralis, venae lumbales ascendens, venae lumbales and vena azygos in every group of the experiments. In addition to them, somtimes, vena spermatica interna, veins of the abdominal wall, versa subcostalis, venae intercostales and right and/or left retroperitoneal veins (vena circumflexa ilium profunda-vena phrenica inferioradrenal vein) became also collateral pathways. In the early stage after the ligation dilatations of veins of the abdominal wall and retroperitoneal veins were marked, but they were subsided gradually according to the development of collateral pathways through vena spermatica interna. Dilatation, elongation and tortuosity of vena ovarica were more marked than vena testicularis.(4) Any difference of histological and pyelogrphic findings between right and left kidneys was not observed after restoration from renal damages by accomplishment of perirenal collateral venous pathways, even if there had been a temporary venous congestion of the kidneys.(5) Any marked post-ligation sequlae was not observed in all survival cases of the experiment.</t>
+          <t>In 1958 R. B. Clark and J. B. Cowey published a paper in which they presented a simple geometric model, based on the idea of a fibre-reinforced cylinder, to explain the mechanism underlying shape changes in ribbon worms and flatworms (Clark and Cowey,1958). While their results may have been of interest to only a few biologists at that time, the essential idea of this paper, that a structure composed of inextensible fibres could accommodate large extensibility, has endured and its application has become widespread, first in numerous biomechanical case studies and, more recently, in modern biomimetics and mechanical engineering. The basic model that was developed is now entrenched as a design principle in biomechanics. The paper continues to be cited, and its summary concept (as seen in Fig. 1) has been reproduced in numerous texts or reviews over the past several decades (e.g. Alexander,1968; Alexander,1979; Alexander,1988; Chapman,1975; Clark, 1964; Gray, 1968; Vogel, 1988; Vogel, 2003; Wainwright et al., 1976; Wainwright, 1988).What set the stage for this work? The 1940s and early 1950s produced many descriptive and experimental studies that investigated how soft-bodied animals move. The idea that hydrostatic pressure plays a role in invertebrate support and locomotor systems had been explored by other researchers (e.g. Batham and Pantin, 1950; Chapman, 1950; Chapman and Newell, 1947; Chapman and Newell, 1956; Harris and Crofton, 1957; Newell, 1950; Wells, 1944); phenomenological explanations were established and the concept of a `hydrostatic skeleton' came into use. This term defines a system in which muscles shorten to act against a contained volume of fluid, rather than rigid skeletal elements, to maintain shape and effect movement. These earlier papers described the basic workings of hydrostatic skeletons of cnidarians, annelids and nematodes.The initial focus of the Clark and Cowey research was to find a functional explanation for the high extensibility of some nemerteans (such as the extremely long bootlace worm, Lineus longisimus). To a certain extent the role of circular and longitudinal muscles in producing dimensional changes in some invertebrates was understood, but the mechanism responsible for limiting shape changes was not. For example, it was not clear exactly how length changes were related to diameter changes produced by circular muscle contractions, or how a worm-like animal could move if it had only one set of muscles (as in the case of nematodes). So Cowey and Clark set out to match morphology with mechanics, an approach that had been well established at the Journal of Experimental Biology under the influence of Sir James Gray. The idea that the geometry of the reinforcing fibres in the body wall was the key to the solution was first explored in a study of structure and extensibility of a common British nemertean, Amphiporus lactifloreus,and published in a 1952 paper in which Cowey affirms the partnership by acknowledging the assistance of R. B. Clark `in mathematical matters'(Cowey, 1952). They showed that the epidermal basement membrane of Amphiporus was invested with silver-staining `reticulin' (primarily collagen) fibres that were nearly inextensible and laid down in crossed arrays in a latticework that could change shape, `just as in the extension and retraction of lazy-tongs'. They then suggested that the orientation and inextensibility of the fibres set the physical limits on length changes that can occur, and showed how these limits can be extreme, with changes of more than 5 fold being observed in Amphiporus. This subject was explored further in the 1958 paper,which presented additional experimental data and a more detailed exposition of their geometric model.The essence of this model is presented in Fig. 1, which shows the familiar representation of a worm as a fluid-filled tube stiffened by helical wrappings of inextensible fibres. The length of a segment bounded by one full turn of the fibre is controlled by the fibre angle θ, defined as the inclination of the fibres to the longitudinal axis. With extension, the segment's diameter and fibre angle both decrease; conversely, with segment shortening the fibre angle and diameter increase. If the segment maintains a circular cross-section, its volume, V, will vary, according to the curve in Fig. 1C. Vdecreases towards zero as θ goes to 0° (a long, thin thread) or 90° (a flat disc), and it peaks at an intermediate angle of 54.74°. But an extensible worm, in most cases, does not change volume, so it cannot follow the curve. However, according to Clark and Cowey, `The system can always contain less than this volume if the cross-section is elliptical instead of circular,' allowing a worm to adopt a flattened, elliptical cross-section as it changes length along a horizontal line of constant volume,as shown in Fig. 1C. The extremes of shortening and lengthening occur where this line intersects the V vs θ curve and only here will the wo</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2916113793</t>
+          <t>https://openalex.org/W2119342217</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/4122359</t>
+          <t>https://doi.org/10.1080/17541320802457111</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lawrence (1964)</t>
+          <t>Greenberg (2008)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>BIOLOGY AND MEDICINE SEMIANNUAL REPORT, SPRING 1963</t>
+          <t>The idea of “the liberal media” and its roots in the civil rights movement</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>distribution of Cm/sup 2//sup 4//sup 2/ in rats. Tracer studies in female cancer patients who had received pituitary irradiation gave evidence in support of a direct conversion of testosterone to estrogens. The apparatus and prccedures are described. High-resolution radioautography, following the administration of tritiated thymidine to mice, was used to study plasmocytopoiesis in the regional lymph nodes of mice after multiple injections of antigen. Procedures and results are described. Studies of mating behavior in Drosophila are reported in which the mating preferences of D. melanoaaster were determined when individual males were allowed to choose between two females of the same genotype or two females of different genotypes. Results are reported from a series of studies on the effects of radiation on proteins. The results support the concept that major chemical effects of both the direct and indirect action of ionizing radiation on protein involve reactions at C-N bond loci, that these reactions under appropriate conditions can lead to C-N bond cleavage, and . that the fundamental characteristics of the cleavage reactions are essentially independent of the mature of the group or linkage with which the C-N bond is associated. Studies on the chemical nature of erythropoietic hormone activity are described. Whole-body radioactivity counts are reported for normal individuals, patients with tracer doses of Fe5/sup 5//sup 9/, and a variety of cases of exposure to intermal radionuclides. A list is included of staff publications during the period covered. (C.H.)</t>
+          <t>Abstract Scholars often ask whether the mainstream news media exhibit a liberal bias, but rarely where the idea of such a bias first came from. This article traces the idea's origins to the civil rights movement. In the late 1950s and early 1960s, white Southerners grew resentful toward national journalists who covered the movement, whom they saw as advocating desegregation. Losing the battle for public opinion, Southern spokesmen such as Alabama Governor George Wallace adopted a populistic idiom, promoting the notion that an elite, left‐leaning Northeastern media were distorting the news to fit their politics – an idea that soon, under President Nixon, became conservative dogma. Keywords: civil rights movementVietnam Warconservatismconservative populismliberalismliberal mediamedia biasobjectivityjournalismthe EstablishmentUnited States politics Notes 1. Eric Alterman uses this very phrase, "the so‐called 'liberal media,'" in his book, What Liberal Media?: The Truth About Bias and the News. As the term suggests, Alterman denies that there is any liberal orientation to the dominant news media; he argues that the idea of a liberal bias has taken hold because conservatives have convinced people – including influential journalists – that it is real. 2. The best known is Goldberg, Bias. Other recent examples include Anderson, South Park Conservatives; Bozell, Weapons of Mass Distortion; Kohn, Journalistic Fraud; and McGowan, Coloring the News. The genre dates back to Efron, The News Twisters. 3. Gallup poll, 12–15 September 2005. Question No. 78. Accessed through Lexis/Nexis Reference Statistics, 4 August 2008. The telephone poll of 921 participants found that 16% of respondents considered the media "just about right" and 16% "too conservative." Other polls from recent years show similar though not identical numbers. 4. Alterman, What Liberal Media, is the most prominent example. Arguments from the extreme left include Herman, The Myth of a Liberal Media; and Edwards, Cromwell, and Pilger, Guardians of Power. These ideological tracts, left and right, have their correlatives in the various "watchdog" groups that have arisen over the years, on the left (Fairness and Accuracy in Media; Media Matters) and the right (Accuracy in Media; Media Research Center). 5. Journalists have consistently made such claims ever since the debate about media bias first burst onto the scene. For example the author and former New York Times reporter David Halberstam wrote in 1974: "In the give and take and scrambling for status among their peers, liberalism, do‐goodism and bleeding‐heartism are really not deeply admired. Tartness, skepticism, irreverence, fatalism are much more valued among reporters … the sense at least of partial alienation." David Broder, the Washington Post reporter and columnist, made a similar claim in 1987: "The evidence I have seen—and the personal experience of thirty years' political talk with other journalists—makes me think the charge of ideological bias in the newsroom laughable," he argued. "There just isn't enough ideology in the average reporter to fill a thimble." Halberstam, "Press and Prejudice," 111; Broder, Behind the Front Page, 332. 6. The argument about professional norms holds that to remain successful, a news outlet has to safeguard its reputation for quality among its key constituencies, including readers, advertisers, and other journalism practitioners, who dole out subtle and tangible rewards and punishments. Thoroughgoing or recurring bias will tar a paper as left‐wing or right‐wing. While a market, of course, exists for opinionated news – a market that may in fact be growing – such outlets remain a supplementary source of news for most people. Moreover, audiences expect the categories of news and opinion to be kept separate, like a finicky child vigilantly supervising his dinner plate to make sure his peas don't touch his noodles. Thus, at least for now, the marketplace and the entrenched norms of our culture have created strong incentives for journalists in the mainstream media to eschew partisan stands. A good summation of the argument that professional norms regulate bias can be found in Schudson, The Sociology of News, 33–63. A leading example of empirical research into how journalists make decisions, which reaches the conclusion that professional norms matter greatly, is Gans, Deciding What's News. For a dissenting view, endorsing the idea of liberal media bias, see Lichter, Rothman, and Lichter, The Media Elite, though see also the critique of that book by Gans, "Are U.S Journalists Dangerously Liberal?" 7. Halberstam, The Powers That Be; Prochnau, Once Upon a Distant War. 8. Scholarly investigation has borne out the claim that media coverage turned public opinion against the war or led to the American withdrawal. John Mueller showed that the growing opposition to the war was attributable to rising casualties, and Peter Braestrup argued that the public's view of the war was not in a</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255115928</t>
+          <t>https://openalex.org/W1547725069</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cwh.1964.0070</t>
+          <t>https://doi.org/10.18419/opus-61</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dykstra (1964)</t>
+          <t>Helmy (2008)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The Continuing War</t>
+          <t>Urban branding strategies and the emerging Arab cityscape : the image of the Gulf city</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>THE CONTINUING WAR Robert Dykstra The ways in which modern Americans put their Civil War to use continues to fascinate. In last December's column we discussed a littleknown group calling itself the Society for Correct Civil War Information , founded by the distinguished newspaperman, author, and "muckraking " reformer, Charles Edward Russell. Another such organization was the Lincoln-Lee Legion, established by Howard Hyde Russell. The former society flourished in the late 1930's to defend the Union cause against its twentieth-century "enemies." The Lincoln-Lee Legion, on the other hand, proves to have been an older group, formed at the turn of the century to help combat alcohol consumption in diis country. Both thus embraced equally militant, not entirely historical purposes; both represented curious survivals of the Civil War theme in twentiethcentury popular thought. No formal relationship appears to link the two founding Russells. By an intriguing coincidence, however, both lived as youngsters in Davenport , Iowa, in the early 1870's. That Mississippi River city's many wartime associations, of which the Confederate prisoners' graves on offshore Rock Island remained the most tangibly dramatic, were then fresh. Charles' father, a former abolitionist editor, still managed the Davenport Gazette, while Howard's father, an Episcopal clergyman, served as professor of mathematics at local Griswold College. Charles worked in his father's editorial office, or was soon to do so; Howard finished prep school at Griswold in 1871 and for two years worked as a clerk at the Rock Island Arsenal. If a family or social connection between the boys existed it remains altogether obscure. Their respective entries, now facing one another on opposite pages of old Who's Who volumes, reveal no concrete clue. But our story concerns Howard. After teaching school and editing a newpaper for a year or two he commenced the study of law, which he then practiced until 1883. In that year he underwent conversion at a religious revival. He abrupdy rejected his flourishing legal practice and studied five years at Oberlin College, emerging as a Congregational ministerwho subsequendy heldpastorates in Kansas City, Chicago, and various Ohio communities. While serving in Chicago he dedicated his life to the anti-liquor movement. 200 At Oberlin, Ohio, in 1893, Russell founded what was to become the powerful and militantAnti-Saloon League. Serving as its national superintendent until 1903, and as state chairman of the pivotal New York Anti-Saloon League until 1908, he thereafter resumed high executive office in the organization. The A.S.L. turned its attention increasingly to national prohibition. Passage of the Eighteenth Amendment is often ascribed to its vigorous efforts. The organization naturally declined following prohibition's repeal in 1933, and since 1948 has existed under another name entirely. One of Russell's most unique contributions to the cause after his initial pioneering work was founding the Lincoln-Lee Legion. During a sojourn at Springfield, Illinois, in 1900, he visited a drugstore whose proprietor owned a desk used by Abraham Lincoln. While talking with die druggist Russell learned diat one Cleopas Breckenridge, still living near Springfield, possessed first-hand knowledge of Lincoln as a temperance advocate. Seeking out Breckenridge, Russell was told diat in 1847 Lincoln presided at a temperance meeting at die Soutii Forks School House in Sangamon County at which all present were asked to sign an abstinence pledge composed by the future Emancipator. "Sonny, don't you want your name on this pledge?" Lincoln asked the ten-year-old Breckenridge. The boy answered yes, but admitted that he did not know how to write. Lincoln gladly signed it in his behalf. Subsequendy satisfyinghimself as to the truth of the story, and filling in some missing details, Russell obtained what was supposedly die wording of die pledge composed by Lincoln on diat occasion: "Whereas , The use of intoxicating liquors as a beverage is productive of pauperism , degradation and crime; and believing it is our duty to discourage that which produces more evil than good, we therefore pledge ourselves to abstain from die use of intoxicating liquors as a beverage." Russell, realizing die propaganda value of tiiis charming Lincolnian encounter with Cleopas Breckenridge, built around it a new total abstinence and moral suasion...</t>
+          <t>Since 1970, oil has given the Arab Gulf cities the opportunity to break regional and international records in development and economic growth, experiencing dramatic changes in the political, economic and socio-cultural domains, and especially in architecture and urbanism. The development of oil urbanization was shaped by the different practices of and city marketing processes. More important, presents the duality of the emerging cityscape, in which the perceived of the city as a tangible experience of the urban landscape interacts with the of the city created by the media generated image or urban establishing new approaches and directions for research and interpretation. _x000D_
+The research is concerned with three main enquiries: 1.To what extent can the creation of a successful image make changes in the landscape? 2.What are the opportunities offered by branding to guide or to control the appearance of the conventional typical elements of the city image over the special identity of the cities? 3.How have cities succeeded (or not) in their branding processes and why? _x000D_
+The research aims at examining whether a balance between the presentation of the identity of places and the development of the Gulf cities can be achieved. Also, it aims to establish a planning framework that incorporates the practice of branding in the design and planning of cities. _x000D_
+_x000D_
+The research is based on a thematic approach combining empirical descriptive approach and comparative analysis method in analyzing and assessing selected examples and the interpretation of case studies. _x000D_
+The research focuses on the investigation of selected case studies for Arab Gulf cities - Dubai, United Arab Emirates; Doha, Qatar; Kuwait City, Kuwait; and Jeddah, Saudi Arabia - that may have succeeded (or not) in creating an image of the emerging city that has become nationally or internationally recognized. The analysis is based on selected themes, in which the most related illustrative analysis techniques are extensively used. _x000D_
+Following the investigation of the case studies, a comparative analysis for the case studies systematically scrutinizes and evaluates the elements that characterized the process by which imaging processes, both visual and brand images, affecting the Gulf city form. The objective is to identify the common elements between the presented case studies in order to synthesis the major characteristics of the phenomenon of the Gulf city imaging. The findings of the comparative analysis highlight the relationships between branding and city form, including the impact of branding on the development of the city image. _x000D_
+The suggested conceptual approach is based on incorporating the practice of branding in the design and development processes of the Gulf cities. The approach is based on the argument that city images are deemed to be those elements used to represent a city as a whole and its associated meanings. Hence, the suggested approach is conceived in terms of a triad, consisting of three major components: the city identity, the visual image, and the branding image. Each of these components encompasses other smaller components integral to the building of the approach itself. Consequently, the three components address ways in which city image(s) can be integrated and how the desired integration would meet the capacity of planning the city image. _x000D_
+There are different branding strategies that could be developed based on diverse city development objectives and visions, such as large scale projects, signed architecture, events, media, etc. The study focuses on strategies that tend to combine tangible aspects of the Gulf cities - their built environment, culture, heritage, infrastructure, etc. - and a number of intangible aspects - their slogan, their identity, etc. The study focuses on thee main areas: branding location strategies including natural settings, flagship projects, and landmark buildings, branding through city life, festivals and special events and branding through Mediascape, (advertising, publications, slogans, logos, etc.). _x000D_
+The guidelines and recommendations are arranged according to their context, current issues, planning objectives and suggested specific exemplary actions. Suggested planning guidelines deal with the following areas of action: skyline, public space, architecture, heritage, public art, and recommendations for the media generated images: festivals and events, logos, slogans and cities' websites. Illustrative examples from both international and regional successful experience are used in a joint concern of city planning and city branding. 
+Seit 1970 hat Ol den arabischen Golfstaaten das Brechen mehrerer, regionaler und internationaler Rekorde auf dem Gebiet des Stadtebaus und der Wirtschaftsentwicklung ermoglicht. Dadurch hat die Region dramatische Veranderungen im politischen, wirtschaftlichen und sozio-kulturellen Bereich, vor allem in den Bereichen Architektur und Stadtplanung, erlebt. Die Entwicklung der Ol-U</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W48488907</t>
+          <t>https://openalex.org/W2060191389</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0041-5553(64)90143-0</t>
+          <t>https://doi.org/10.1080/03057070802456839</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pyt’ev (1964)</t>
+          <t>Siwisa (2008)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Asymptotic properties of the dynamic variables in the theory of spinor and scalar meson fields</t>
+          <t>Crowd Renting or Struggling from Below? The Concerned Citizens' Forum in Mpumalanga Township, Durban, 1999–2005</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>THE present paper will discuss some asymptotic properties of the dynamic variables and of the conservation laws in field theory, that correspond to fields with progressive singularities. The method which we shall adopt throughout is based on interpretation of all the equations in the sense of the theory of Schwartz distributions. In our case it is completely equivalent to a description of the field with the aid of weak solutions, though it possesses considerable technical advantages. As regards the equations discussed, we shall adopt the point of view of [1], namely, we shall consider the equations whose characteristic manifolds are described by the eikonal equation∗∗ Here Ai are the electromagnetic potentials, c is the velocity of light, s the action, and e and m respectively the charge and mass of the particle described by (1). We shall consider below the second order hyperbolic equation in the scalar function W, describing certain types of meson, Gσμδ2Wgdxσδxμ = 0 (2) and the first order hyperbolic system, describing the spinor particles, γσ δUδxσ = 0, (3) where U is the four-component spinor and γσ are the familiar Dirac matrices, satisfying the anticommutational relations γiγj + γjγi + γjγi = − 2δij, γ4 = I − giγi.</t>
+          <t>Abstract This article considers the problems of water in Mpumalanga Township in Durban, South Africa, and examines the emergence and activities of the Concerned Citizens Forum (CCF), for whom activism around water services was centrally important. It contributes to the debate over the backlog in municipal services delivery and the attendant emergence of new social movements in post-apartheid South Africa. Set against a background of changes in water policy, a profile of the water industry and the drive to cost recovery, the article provides an account of collective action in Durban, by investigating the history and activities of the CCF. The article questions the standing of the movement and argues that the CCF is given to ‘crowd renting’, lacks transparency, and is prone to disorderly decision-making and racial and leadership crises. The article contextualises CCF's collective action programmes, including its activism over water disconnections, by situating them in Mpumalanga's neighbourhood politics. By doing so, the reader encounters councillors of the ruling and opposition parties, CCF city-based intellectual-cum-activists, African township youth activists and local council officials and bureaucrats. The collusion and conflicts between these various parties highlight political opportunism, careerism, and the ruthless pursuit of self-enrichment, revealing the complexities of collective action and the contentious politics of new social movements. The article also highlights the looming crisis of the breakdown of social citizenship in relation to cost recovery and the struggles over water services. Notes 1 This article is a revised chapter from my unpublished D.Phil. thesis, B.S. Siwisa, ‘“This is People's Water!”: Water Services Struggles and the New Social Movements in Mpumalanga, Durban, 1998 – 2005’ (D.Phil. thesis, University of Oxford, St. Peter's College, submitted in April 2006). 2 I set out on many occasions to meet up with and interview the leaders of the CCF, namely; Ashwin Desai, Fazel Khan and Fatima Meer. Professor Meer was sick and bedridden during that time, and therefore it was not possible to interview her. I made many arrangements to interview Ashwin Desai, but despite agreeing to meet me, on each occasion he failed to turn up and never offered an explanation for why this was so. Dates and interview times were successfully set up with Fazel Khan, but he always pulled out at the eleventh hour, usually a couple of days before the interview when I called to confirm times and dates. 3 S. Tarrow, Power in Movement: Social Movements and Contentious Politics (Cambridge, Cambridge University Press, second edition 2000). 4 D. della Porta and M. Diani, Social Movements: An Introduction (Oxford, Blackwell Publishers, 1999). 5 This is South Africa's macro-economic policy which was formally adopted by the government in June 1996. It is premised on tight fiscal policies and the liberalisation of the economy. GEAR was adopted within a whirlwind of disagreement among the tripartite alliance (ANC, Congress of South African Trade Unions, and the South African Communist Party). 6 D. Atkinson, ‘Taking to the Streets: Has Developmental Local Government Failed in South Africa?’ In S. Buhlungu, J. Daniel, R. Southall and J. Lutchman (eds), State of the Nation: South Africa 2007 (Cape Town, HSRC, 2007). 7 F.F. Piven and R.A. Cloward, Poor People's Movements: Why they Succeed, How they Fail (New York, Pantheon Books, 1977). 8 Piven and Cloward, Poor People's Movements. 9 Tarrow, Power in Movement, p. 6. 10 Interview with Heinrich Bohmke, Salmon Grove Chambers, Durban, 24 October 2002. 11 P. Dwyer, ‘The Concerned Citizens Forum: A Fight within a Fight’, in R. Ballard, A. Habib and I. Valodia (eds), Voices of Protest: Social Movements in Post-Apartheid South Africa (Pietermaritzburg, University of KwaZulu-Natal Press), p. 107. 12 Draft White Paper on Water Services (Department of Water Affairs and Forestry (DWAF), South Africa, 2002), p. 15. 13 Ibid. 14 Free Basic Water Implementation Strategy, Case Study, Durban Uni-City, prepared by Palmer Development Group (Department of Water Affairs and Forestry, Republic of South Africa, 2001). Also see http://www.dwaf.gov.za/FreeBasicWater/Docs/Casestud%20%Study%20Durban.pdf (retrieved March 2002). 15 http://www.umgeni.co.za/company/companyphilosophy/intro.htm#managementstructure (retrieved March 2002). 16 Ibid. 17 Free Basic Water Policy and Water Services Development Plan, http://www.dwaf.gov.za/FreeBasicWater/Defaulthome.asp (retrieved March 2002). 18 www.engineeringnews.co.za/eng/news/business/?show = 30537 (retrieved March 2002). 19 www.kzntopbusiness.co.za/Public_Services/Umgeni_Water.htm (retrieved March 2002). 20 www.engineeringnews.co.za/eng/news/business/?show = 30537 (retrieved March 2002). 21 ‘Free Water for 55% of South Africa’, Daily Dispatch, 6 November, 2001. See www.queensu.ca/msp/pages/In_The_News/2001/November/55.htm (retrieved January 2002). 22 Free Basi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W988168155</t>
+          <t>https://openalex.org/W2474649961</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s1054-3589(08)61114-x</t>
+          <t>https://doi.org/10.1057/9780230228450_14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Deneau &amp; Seevers (1964)</t>
+          <t>Churchill et al. (2008)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pharmacological Aspects of Drug Dependence</t>
+          <t>Modernist Periodicals and Pedagogy: An Experiment in Collaboration</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Drug dependence in man does not develop to many of the classes of drugs that induce tolerance, and tolerance does not develop to some of the drugs to which man may become dependent. Both tolerance and dependence develop to two major classes of central nervous system depressants, narcotic analgesics and the sedative hypnotics. The clinical techniques for evaluating a drug's capacity to induce physical dependence have been discussed in this chapter. The factors that influence the development of physical dependence and the postulates concerning the mechanism underlying its development have also been reviewed. The factors that favor the optimal development of physical dependence to the narcotic analgesics are related to the nature of the particular drug, to the manner of its administration, and to the species. Although, the clinical literature dealing with psychogenic or psychic dependence is enormous, only recent laboratory studies have initiated to determine whether this phenomenon could be demonstrated in animals. The search for an analgesic drug devoid of morphine's undesirable properties continues unabated. A morphine derivative has been found in which the analgesic property has been dissociated from the most undesirable property of all-that of producing physical dependence. A variety of other drugs have been produced that resemble morphine, or more frequently codeine, in their over-all spectra of pharmacological actions. A variety of antagonists have been developed in the morphinan and benzomorphan series. Many of these have been assayed as analgesics in man. It is recently found that some of the narcotic analgesics produce analgesia but do not produce physical dependence. Moreover substances that are effective antitussives and that completely lack the capacity to induce physical dependence have also been discovered in recent years.</t>
+          <t>“A review is not a human being saving its soul, but a species of food to be eaten,” writes Ezra Pound in 1930, underscoring a magazine’s function as an item for consumption (697). His emphasis on material products (rather than great minds) presages by decades the shift in modernist studies from a focus on individual genius toward an accent on modernity as a complex cultural milieu. As Sean Latham and Robert Scholes observe, periodical studies has emerged as a crucial field, requiring not only new methodologies for research, but also new approaches to teaching (517–518). Magazines offer students a glimpse of the diversity and chaos of modernism, revealing litera-ture’s entanglement in the commerce of everyday life. With the expansion of digital archives such as the Modernist Journals Project (MJP), periodicals have become a more accessible teaching resource — a tempting item to serve to students of the “Net Generation,” who prefer web-surfing to trekking over to the library. This essay will lay out theoretical grounds for teaching modernism with magazines, discuss practical applications, and offer a case study of an experimental undergraduate seminar. Collaboration, I conclude, is key to periodical pedagogy.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1518654272</t>
+          <t>https://openalex.org/W2358933854</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fulco (1969)</t>
+          <t>Shen &amp; Yang (2008)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The biosynthesis of unsaturated fatty acids by bacilli. I. Temperature induction of the desaturation reaction.</t>
+          <t>Spatial Distribution of Density Fractions of Soil Organic Carbon at a Sloping Farmland of a Black Soil</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The biosynthesis of unsaturated fatty acids in bacilli has been investigated by studying the way that various species and strains carry out the desaturation of palmitic-1-14C acid. By this method, two distinct desaturation systems have been elucidated. One system, found in six different strains, results in the conversion of palmitate to 5-hexadecenoate, with no other double bond isomers appearing. A second system, found in five strains, results in a spectrum of double bond isomers centering around position 9 but including Δ8 and Δ10 isomers, sometimes as the major constituents. The two desaturating systems are further differentiated by the manner in which they respond to temperature changes of the medium. Thus, cultures desaturating palmitic acid in positions 8, 9, or 10 show no significant change in desaturation rate when the temperature of incubation with palmitate is varied between 20° and 30° (or in the case of Bacillus stearothermophilus 12977, between 20° and 60°). On the other hand, the rate of desaturation of palmitate to 5-hexadecenoate is under strict temperature control. Bacillus megaterium 14581 and other Δ5-desaturating bacilli desaturate palmitate readily at 20° but not at 30°. The rate of desaturation of palmitate is determined by the temperature at which the cultures are incubated with this substrate and not by the temperature of growth. Thus, B. megaterium grown at either 20° or 30° desaturates palmitate at 20° but does not do so at 30°. Further investigation of the temperature effect revealed that the Δ5-desaturating enzyme of B. megaterium is not present at 30° but can be induced by previously incubating a 30° grown culture at 20° for 1 or 2 hours. Chloramphenicol, if added at the beginning of the preliminary incubation period, completely prevents induction of the enzyme but has only an inhibitory effect, increasing with time, if added after preliminary incubation. This inhibitory effect at 20° is presumably due to slow inactivation of desaturating enzyme under circumstances in which replenishment by further protein synthesis is blocked. The induced enzyme is much more rapidly destroyed at 30°. Cultures grown in medium lacking iron have no desaturating activity but activity can be restored by the addition of iron (as ferric ammonium citrate) to the incubation medium. However, iron is not necessary for the temperature induction of the desaturating enzyme but rather appears to be acting as a cofactor in the desaturating system.</t>
+          <t>A typical undulating farmland in Black Soils region of Northeast China was taken as a case study to analyze the impact of soil erosion and deposition process on density fractions of soil organic carbon based on measurement of light and heavy organic carbon in different geomorphic positions, which were under various levels of erosion. The results showed that the carbon concentration in light fraction decreased with increasing in soil depth. In the surface 20 cm soil, light fraction carbon (LF-C) ranged from 45.3 mg kg-1 to 65.8 mg kg-1, which account for 2.91-5.87% of total soil organic carbon (TOC). The amount of LF-C, HF-C and TOC at the shoulder-slope where is subject to serious erosion was 27.4, 17.2 and 18.1% lower than those of summit where erosion is weak. Relevant to total soil organic carbon, the LF-C is more sensitive to soil erosion and deposition process, but the decrease of TOC is the combination of the decrease of LF-C and HF-C. The change of LF-C/TOC is similar as LF-C, indicating that soil erosion can preferentially cause the loss of LF-C. Accordingly, LF-C can be a good indicator of the early change of soil equality as affected by soil erosion. At foot-slope and toe-slope positions, C re-deposition has lead to significantly higher of LF-C compared than that at shoulder-slope. LF-C and microbial biomass carbon (MBC) showed the similar pattern along the slope, indirectly indicating that the dependence of soil microbes on the light-fraction of organic matter. The fate of the LF-C deposited in the foot-slope and toe-slope positions should be studied further, and HF-C is still the dominating fraction in deposited area.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1603072915</t>
+          <t>https://openalex.org/W564784227</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0003-9861(69)90162-3</t>
+          <t>https://doi.org/10.14217/9781848590212-en</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Blondin et al. (1969)</t>
+          <t>Tanzarn (2008)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The mechanism of mitochondrial swelling</t>
+          <t>Gender Impacts of Revenue Collection in Uganda</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alkali metal salts can induce large amplitude swelling of mitochondria in absence of either electron transfer or hydrolysis of ATP. This type of swelling is referred to as pseudoenergized swelling. The requirements for pseudoenergized swelling in salt media have been systematically investigated. The ammonium, sodium, and lithium salts of weakly dissociating acids (e.g., acetate, phosphate, arsenate, phenylacetate) are competent in the induction of rapid swelling when present at 0.15 m concentration whereas the potassium, cesium, and rubidium salts of the same series of acids, at the same concentration, are not competent. The incompetent salts can become competent in presence of one or another reagent of the peptide-antibiotic family (e.g., valinomycin, gramicidin, nigericin). These reagents facilitate selectively the entry of appropriate alkali metal salts into or through the mitochondrial membranes; this facilitation overcomes the distinction between competent and incompetent alkali metal salts. The chlorides of alkali metals as a class are incompetent in inducing pseudoenergized swelling but again the presence of reagents of the peptide-antibiotic family can confer competence. Thus, competence is a function of the rate of penetration of the mitochondrial membranes by the salts in question. Gramicidin shows little or no discrimination with respect to the nature of the alkali metal ion or the nature of the anion in respect to its facilitating action; valinomycin shows some discrimination with respect to the nature of the alkali metal ion; and nigericin is specific for alkali metal salts of weak acids. Cadmium ions at 10−4m can duplicate the action of gramicidin in facilitating the induction of pseudoenergized swelling by alkali metal chlorides. This facilitation by cadmium does not extend to the alkali metal acetates. Calcium ions at 10−4m also have gramicidin-like action but this action is manifest only after the ions in question have been translocated into the mitochondrion in an energized process. Once inside the mitochondrion, calcium ions have the same capability as does cadmium for potentiating pseudoenergized swelling induced by alkali metal chlorides. Hypotonic swelling is viewed as a special case of pseudoenergized swelling in which the induction is achieved not by exogenous salt but rather by salts contained within the mitochondrion. Three factors play a paramount role in pseudoenergized swelling: (1) the Donnan effect that provides the driving force; (2) the interaction of salt with groups in the membrane that leads to the conformational changes intrinsic to swelling; and (3) the permeability of the membrane that determines which salts are competent in inducing swelling and which are not. Solutes that do not penetrate the mitochondrial membranes can suppress pseudoenergized swelling.</t>
+          <t>Gender-responsive budget analysis is increasingly becoming a tool for managing critical governance issues and for assessing the impact of economic policies on women. Commonwealth Plan of Action for Gender Equality 2005-2015The Commonwealth Secretariat has played a pioneering role in conceptualising genderresponsive budgeting (GRB) and initiated the development of relevant tools and methodologies.The promotion and implementation of GRB has been a key focus of the work of the Secretariat's gender programme for a number of years.Since 2005, Common wealth Finance Ministers have committed to promoting and implementing GRB, and their meetings have reviewed progress every two years.GRB has also been endorsed by Commonwealth Heads of Government Meetings, including in the 2007 Kampala Communiqué.This is because GRB is a key instrument in tracking how governments are investing in advancing gender equality and equity.The rationale for its use derives not only from the need to reduce gender inequality as a social justice issue but also from economic arguments based on efficiency and growth.Its importance was reflected in the themes of the Commonwealth Eighth Women's Affairs Ministers Meeting (8WAMM) in 2007 and the 52nd Session of the United Nations Commission on the Status of Women (CSW) in 2008, both of which focused on financing for gender equality and the empowerment of women.GRB initiatives have become increasingly important in the context of globalisation and trade liberalisation, the changing nature of the aid architecture and increasing fiscal devolution to provincial or state governments and local government authorities.It is estimated that gender budget work in some form or another has been initiated in approximately 60 countries, of which at least half are members of the Commonwealth.Much of this work has focused on the expenditure side of the budget.However, and especially for those countries that have already implemented GRB initiatives, there is a need to look also at the revenue side.This means analysing the gendered impact of the revenue and tax system (not only taxes on personal and corporate income, but also indirect taxes, changes in tariffs and trade taxes and the introduction of user fees) and accounting for the care economy, focusing on the invisible contributions of women.An earlier economic paper, Gender Impacts of Revenue Collection: The Case of Taxation, reviewed the literature on the gender dimensions of taxation and their implications for tax policy.It provided a starting point and framework for analysis of the nature of the differential impacts of tax systems on men and women, and emphasised the need for the design of gender-sensitive revenue measures.This paper, on the impact of tax reform in Uganda, is one of two case studies that examine these issues in the context of a specific country.* It looks at tax collection structures, the gender impacts of direct taxv Foreword * The other is Gender Impacts of Revenue Collection in India by Nirmala Banerjee.ation and the current burdens of taxation, and the impacts of user fees and value added tax (VAT).It also includes a gender analysis of the 2007/08 Budget Speech.The research involved a desk study and national-level consultations, as well as field work in two districts.Both focus group discussions and in-depth interviews contributed to the findings.We would like to express our gratitude to Nite Tanzarn for writing this paper.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1656039501</t>
+          <t>https://openalex.org/W2398291447</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-94-010-3411-1_57</t>
+          <t>https://doi.org/10.1108/02580541211249556</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Binns (1969)</t>
+          <t>NA (2012)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A Chondritic Inclusion of Unique Type in the Cumberland Falls Meteorite</t>
+          <t>Learning through experience</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>New chemical, mineralogical and electron-probe data reveal one of the black chondrite inclusions in Cumberland Falls to be a variety bridging the apparent gap between enstatite and olivine-bronzite chondrites. Transitional properties include oxidized iron content, abundance of olivine and of the minor constituents schreibersite, daubreelite and alabandite, and average composition of olivine and pyroxene. The inclusion contains no taenite, but its kamacite lacks the alloyed silicon characteristic of enstatite chondrites. Although its overall state of oxidation is low (FeO≑2%), the Mg:Si ratio (0.94) of this inclusion suggests affinities with ordinary chondrites rather than enstatite chondrites, and its total iron content (19.5%) resembles that of LL group chondrites. The inclusion is texturally primitive, in that clinoenstatite is the dominant pyroxene and some chondrules contain fresh or finely devitrified glass. It is also unequilibrated. Pyroxene ranges up to 17 mol. % in ferrosilite content, and the olivine up to 5% in fayalite content, but in each case highly magnesian varieties predominate. Post-consolidation shock or reheating is implied by the blackened character of the inclusion. The white host material in Cumberland Falls is more thoroughly brecciated, and its pyroxene more extensively disordered, than most other enstatite achondrites. Petrographic relationships indicate that the chondritic and achondritic portions of the stone accumulated together after having been shocked, but do not reveal any fundamental genetic relationship between the two components. Indeed, the unrecrystallized character of the dark fragments, and the contrasted oxidation states of the chondritic and achondritic portions, suggest that they were not closely associated on the same parent body prior to fragmentation. The unique composition of the Cumberland Falls inclusions implies that chondritic stones do not display the complete range of possible oxidation states. A biased sampling process may be responsible for the restricted compositional variation of chondrites with earth-intersecting orbits.</t>
+          <t>Purpose This paper aims to review the latest management developments across the globe and pinpoint practical implications from cutting‐edge research and case studies. Design/methodology/approach The paper is prepared by an independent writer who adds their own impartial comments and places the articles in context. Findings Public sensitivity to issues that include climate change, preservation of natural resources, oppression and human rights has risen drastically over recent decades. A key upshot of this concern is the belief that businesses have some obligation towards these and other issues. The burden of expectation is daunting for some firms. To others, however, this societal shift equals opportunity rather than threat. Corporate responsibility is now high on the agenda of such companies to a degree that they are constantly seeking innovative ways to function in a more sustainable manner. Exploiting developments and trends demands effective leadership. But without the necessary array of skills and attitudes, senior leaders will struggle to successfully navigate their organizations through the sea of global change. How to best develop these desired leadership capabilities remains a challenge for those charged with management training. Practical implications The paper provides strategic insights and practical thinking that have influenced some of the world's leading organizations. Originality/value The paper saves busy executives and researchers hours of reading time by selecting only the very best, most pertinent information and presenting it in a condensed and easy‐to digest format.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1673485705</t>
+          <t>https://openalex.org/W2027789314</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/3.5176</t>
+          <t>https://doi.org/10.1080/00167223.2012.741888</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wang (1969)</t>
+          <t>Reenberg et al. (2012)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Electron and ion distributions in chemical nonequilibrium boundary-layer flows.</t>
+          <t>Causal relations and land use transformation in the Sahel: conceptual lenses for processes, temporal totality and inertia</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>When the sheath thickness for the weakly ionized gas of a chemically nonequiltbrium boundary layer over a hypersonic re-entry vehicle is of the same order as the boundary-layer thickness, the ion and electron densities can no longer be considered as identical and treated as ambipolar. It is shown that this situation will prevail in certain re-entry regimes of interest. In the present paper, this important behavior has been considered in the analysis and a correct description of the ion and electron distributions is obtained. It is found that the electric field exerts a strong influence on the ion and electron density distributions. In particular, the peak electron density is modified by more than an order of magnitude as compared to that of ambipolar case. The ion density due to its strong coupling with the neutrals, however, is much less affected. Investigations also show only slight changes in the ion and electron density distributions for relatively large variations (100%) in ion diffusion coefficient. The effect of nonequilibriu m electron temperature was found to be moderate on the electron density distribution and justifies, at least a posteriori, the simplifications adapted for the analysis in the energy conservation relations. Nomenclature A = modifying factor for polarization C — mass fractions do = peak mass fraction of ion D = diffusion coefficient !ID — Debye length, m Rm = mass ratio of ion to electron K = mobility k = Boltzmann constant kb = backward rate constant, cm3/mole-sec kf = forward rate constant, cm3/mole-sec L = characteristic length, m M = molecular weights p = pressure, kgf/m2 T = temperature, °K u = £ component of the mass velocity of the gas mixture v = 77 component of the mass velocity of the gas mixture W = mass rate of formation of species d = boundary-layer thickness 8t = transformed boundary-layer thickness p = density 0 = electric potential X = mean free path, m £ = X/L, streamwise coordinate •n = T I P/Pidy Subscripts</t>
+          <t>Abstract The paper addresses the challenge of conceptualizing and analyzing complex change processes and causal explanations in human–environment systems. To illustrate this challenge empirically, the paper takes its point of departure in the apparent paradox that the agricultural practices in the desert fringe zone of the Sahel seem to remain remarkably unchanged despite huge and accelerating changes in major driving forces such as climate variations, population pressure, policies and market access. Such partly unexpected trends suggest that novel insight is needed into the human environment interactions that shape the use of land for cultivating purposes in this region. As a background for the paper's conceptual discussion, recent developments in the Sahelian land use system are briefly described, using documentation from empirical case studies conducted in the northernmost region of Burkina Faso over the past 20 years. Specific attention is given to presenting (a) main trends in the transformation of the land use and livelihoods, (b) the co-evolution of possible driving forces that enables and constrains conditions for change and (c) characteristic trajectories of change. Inspired by the notions of process, temporal totality and inertia, the paper suggests employing a portfolio of complementary perspectives to investigate change processes. More precisely, four different conceptual lenses to analyze human–environment interaction are proposed and examined (the land change science framework, the double exposure notion, the system dynamics (SD) approach and coupled human–environmental timelines). Specific attention is given to the potential contribution of these respective lenses to enhancing our understanding of the land SD and to uncovering important causal relations. It is concluded that these conceptual lenses, in concert, can help to put process, in the sense of a sequence of successive stages, in the centre of our understanding of change and causal relationships in human–environmental systems. Keywords: system dynamicsland change sciencehuman–environment timelinesexposures Acknowledgement The research is funded by two major projects: a grant from Danida-FFU (09-001-KU) (A region wide assessment of land systems resilience and climate robustness in the agricultural frontline of the Sahel) and the ERC project Waterworlds. The authors appreciate the constructive comments of two reviewers.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1892629282</t>
+          <t>https://openalex.org/W1986196424</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22458/rna.v4i2.543</t>
+          <t>https://doi.org/10.1108/17468801211237063</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Rosales &amp; Chaves (1969)</t>
+          <t>Hatum et al. (2012)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Turismo rural comunitario en Frailes de Desamparados: propuesta de competitividad y puesta en valor de productos endógenso culturales</t>
+          <t>Organizational identity as an anchor for adaptation: an emerging market perspective</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>En el siglo pasado, el entorno rural dejó de ser escenario exclusivo de generación de alimentos y favoreció el desarrollo de otras actividades económicas como el turismo rural comunitario que reconoce y valora las especificidades patrimoniales de índole natural y cultural. En consideración, el escrito sobrepone el turismo como actividad económica, que bien aprovechada puede incrementar la competitividad de comunidades rurales. En esa dirección, señala, la necesidad de promover y sostener la estructura y la oferta productiva tradicional, aunado al conjunto de factores y recursos naturales y culturales disponibles como verdaderas ventajas. El planteamiento de la comunidad de Frailes en Costa Rica, de ofertar proyectos culturales productivos se percibe como experiencia potencial, dentro del marco de sostenibilidad e integralidad. En este caso, el uso de las capacidades endógenas culturales locales sirve de referente, puesto que la comunidad ha comprendido la necesidad de pertenecer a un sistema socio-organizacional conformado por vecinos con los que establecen relaciones para armonizar intereses y lograr aspiraciones comunes. En ese contexto, la adopción de estrategias empresariales convenidas por el colectivo favorece la promoción y expansión de actividades económicas nuevas; particularmente, para lograr competitividad y mejorar la calidad de vida de las zonas rurales.ABSTRACT Last century saw a change in rural communities that moved from just being generators of agricultural products and food to become developers of other economic activities including rural tourism, an activity that values the specificities of natural and cultural patrimonies. This paper highlights tourism as an economic activity that, effectively oriented, can increase competitiveness in rural communities. It points to keep and promote traditional productive offers and structures and, as the same time, to consider available cultural and natural resources as real advantages. The case of Frailes, a community in Costa Rica that offers productive cultural projects, is seen as a highly potential experience related to sustainability and integrality. In this case, the use of local endogenous cultural capabilities works as a reference since the community has understood the need of being part of an organizational social system formed by neighbors that establish relationships to harmonize their interests and achieve common aspirations. In this context, the adoption of enterprising strategies agreed upon by the collective favors the promotion and expansion of new economic activities, mainly, to achieve competitiveness and to improve the quality of life in rural areas.KEYWORDS: COMMUNITY RURAL TOURISM, CULTURAL HERITAGE, RURAL DEVELOPMENT, SUSTAINABLE DEVELOPMENT, COMPETITIVENESS, ENDOGENOUS CAPABILITY.</t>
+          <t>Purpose There is little doubt that organizational identity – that which is central, distinctive, and enduring about an organization – mediates in adaptive processes. Exactly how this mediation takes place, and whether it is favorable or unfavorable to adaptation, must still be fully established. The purpose of this paper is to add to the literature on identity and adaptation by exploring the relationship between these two constructs in family firms operating in an emerging economy. Based on measures of strength of identity, the authors examine how identity affects the adaptive processes of issue identification, strategic impulse definition, and implementation, where the authors look at pace of adjustment. Design/methodology/approach Longitudinal and comparative case studies were conducted of polar types presenting two pairs of organizations in two separate industries. These organizations faced the challenge of founder succession and a radical shift in macroeconomic conditions over a period of three decades. Through these four cases the authors hope to provide clear pattern recognition of strength of identity and adaptation – and of the relationship between these two constructs – in the face of severe internal and external shocks. The approach seems adequate in the larger context of inductive theory development and particularly suitable to the exploration of theoretical constructs, as it allows the researcher to unravel the underlying dynamics of path dependencies and/or evolutionary processes. Findings It is found that strong‐identity organizations are able to foresee relevant changes in their industries, define adequate strategic responses, and implement them in an evolutionary (i.e. smooth) manner. Conversely, loose‐identity organizations misread industry trends, incur strategic paralysis, and must eventually enforce revolutionary (i.e. violent) changes in order to ensure survival. Originality/value The paper addresses a critical issue for the advancement of organizational theory: the relationship between organizational identity and adaptation in emerging economies. In addition, it has important practical implications for managers doing business in turbulent environments. It makes a sound theoretical contribution and has important managerial implications.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1939086736</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1152/jappl.1969.26.1.4</t>
+          <t>https://openalex.org/W2257788772</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fisher et al. (1969)</t>
+          <t>Kramer (2012)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Effect of carbon monoxide on function and structure of the lung.</t>
+          <t>User Experience in the Age of Sustainability: A Practitioner's Blueprint</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ArticleEffect of carbon monoxide on function and structure of the lung.A B Fisher, R W Hyde, A E Baue, J S Reif, and D F KellyA B Fisher, R W Hyde, A E Baue, J S Reif, and D F KellyPublished Online:01 Jan 1969https://doi.org/10.1152/jappl.1969.26.1.4MoreSectionsPDF (3 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByCarbon Monoxide Fate in the Environment as an Inspiration For Biorefinery Industry: A Review22 February 2022 | Frontiers in Environmental Science, Vol. 10Dying “from” or “with” COVID-19 during the Pandemic: Medico-Legal Issues According to a Population Perspective22 August 2021 | International Journal of Environmental Research and Public Health, Vol. 18, No. 16Soy Biodiesel Exhaust is More Toxic than Mineral Diesel Exhaust in Primary Human Airway Epithelial Cells27 August 2019 | Environmental Science &amp; Technology, Vol. 53, No. 19Carbon Monoxide25 June 2017Carbon Monoxide17 October 2016Carbon Monoxide Transport and Actions in Blood and Tissues1 January 2011Health effects of exposure to ambient carbon monoxideChemosphere - Global Change Science, Vol. 1, No. 1-3Pulmonary Vascular Stress from Carbon MonoxideToxicology and Applied Pharmacology, Vol. 154, No. 1Life-Saving Effect of Pyridoxalated Hemoglobin-Polyoxyethylene Conjugate on Carbon Monoxide Intoxication of RabbitsArtificial Organs, Vol. 18, No. 8Smoke inhalation: Diagnosis and treatmentWorld Journal of Surgery, Vol. 16, No. 1Acute carbon monoxide poisoning: animal models: A reviewToxicology, Vol. 62, No. 2Inhalation injuriesAnnals of Emergency Medicine, Vol. 17, No. 12Toxic smoke compounds and inhalation injury—a reviewBurns, Vol. 14, No. 6Smoke inhalationBurns, Vol. 14, No. 6Clearance of Aerosolized 99mTc-Diethyle nettaminepentacetate Before and After Smoke InhalationChest, Vol. 94, No. 1Diffusion of Gases Across the Alveolar Membrane1 January 2011Treatment of burnsCurrent Problems in Surgery, Vol. 24, No. 6Pulmonary Injury in Burned PatientsSurgical Clinics of North America, Vol. 67, No. 1Laser smoke effect on the bronchial systemLasers in Surgery and Medicine, Vol. 7, No. 3Pulmonary Injury in Burned PatientsCritical Care Clinics, Vol. 1, No. 1Lung as a model for evaluation of critical intracellular PO2 and PCOA. B. Fisher, and C. Dodia1 July 1981 | American Journal of Physiology-Endocrinology and Metabolism, Vol. 241, No. 1Carbon Monoxide Effect on Alveolar Epithelial PermeabilityChest, Vol. 78, No. 5The effect of carbon monoxide exposure on morphology of lungs and pulmonary arteries in rabbitsArchives of Toxicology, Vol. 43, No. 4Effect of exposure to 0.5 ppm hydrogen cyanide singly or combined with 200 ppm carbon monoxide and/or 5 ppm nitric oxide on coronary arteries, aorta, pulmonary artery, and lungs in the rabbitInternational Archives of Occupational and Environmental Health, Vol. 44, No. 1Pulmonary edema in acute carbon monoxide poisoningInternationales Archiv f�r Arbeitsmedizin, Vol. 33, No. 2EFFECTS OF ELEVATED CARBOXYHEMOGLOBIN ON GAS EXCHANGE IN THE LUNGAnnals of the New York Academy of Sciences, Vol. 174, No. 1 Biological EfCARBON MONOXIDE IN THE PREGNANT MOTHER AND FETUS AND ITS EXCHANGE ACROSS THE PLACENTAAnnals of the New York Academy of Sciences, Vol. 174, No. 1 Biological Ef More from this issue &gt; Volume 26Issue 1January 1969Pages 4-12 https://doi.org/10.1152/jappl.1969.26.1.4PubMed5762875History Published online 1 January 1969 Published in print 1 January 1969 Metrics</t>
+          <t>User Experience in the Age of Sustainability focuses on the economic, sociological and environmental movement in business to make all products including digital ones more sustainable. Not only are businesses finding a significant ROI from these choices, customers are demanding this responsible behaviour. The author looks at user experience practice through the lens of sustainability whether it be a smart phone, service - based subscription solutions or sustainable packaging to expose the ways in which user researchers and designers can begin to connect to the sustainability not merely as a theoretical. This book has a practical take on the matter providing a framework along with case studies and personal stories from doing this work successfully. Both hardware and software design are covered. Learn about the fundamentals of sustainability and how it can change the future of user experience professionals Learn how to integrate sustainability into designs with a solid framework using user research methodology, techniques, and purposeful metrics Find out how to integrate sustainability frameworks into the software and product development cycles Find out how sustainability applies to mobile and digital products with discussions on user messaging, dematerialization, and efficient design See how companies have made it work with case studies</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1967545193</t>
+          <t>https://openalex.org/W3122956422</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0020-1693(00)92559-3</t>
+          <t>https://doi.org/10.1386/macp.8.2-3.269_1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hastie et al. (1969)</t>
+          <t>Thurman et al. (2012)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Reactions and structures of matrix-isolated SiO species at low temperatures from infrared spectra</t>
+          <t>Can big media do Big Society? A critical case study of commercial, convergent hyperlocal news</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>The condensation-polymerization of essentially monomeric SiO has been followed in rare gas matrices using infrared detection over the range 33–4000 cm−1. The species (SiO)2 with a cyclic Vh structure, (SiO)3 with a cyclic D3h structure, and higher polymers have been observed. All possible infrared active frequencies were observed for (SiO)2, e.g., 809.5 (B2u, 766.7 (B3u) and 79 (B1u) cm−1 and the structured verified from the observed Si-isotope shifts for the B2u and B3u modes. For (SiO)3 the E′-mode frequencies of 978, 628 and 311 cm−1 were observed. In more concentrated matrices many new frequencies appeared which may be attributed to higher polymers of SiO and most likely (SiO)5. From this data the entropy of the dimer has been calculated as S29s° = 70.29 eu and bond energy relationships for the polymers indicated. Co-condensation of SiO with BF3, SiF4 and SiF2 in dilute rare gas matrices produced new frequencies in the latter two cases although the self polymerization of SiO was a stronger competing reaction.</t>
+          <t>The UK Government is committed to helping ‘nurture a new generation of local media companies’. Changes to local media ownership rules allowing companies to follow their customers from platform to platform are supposed to assist in this by encouraging economies of scale. This article provides a timely case study examining a UK-based commercial local news network owned by Daily Mail &amp;amp; General Trust that leverages economies of scale: Northcliffe Media’s network of 154 Local People websites. The study evaluates the level of audience engagement with the Local People sites through a user survey, and by looking at the numbers of active users, their contributions and their connections with other users. Interviews with ten of the ‘community publishers’ who oversee each site on the ground were conducted, along with a content survey. Although the study reveals a demand for community content, particularly of a practical nature, the results question the extent to which this type of ‘big media’ local news website can succeed as a local social network, reinvigorate political engagement or encourage citizen reporting. The Government hopes that communities, especially rural ones, will increasingly use the Internet to access local news and information, thereby supporting new, profitable local media companies, who will nurture a sense of local identity and hold locally elected politicians to account. This case study highlights the difficulties inherent in achieving such outcomes, even using the Government’s preferred convergent, commercial model.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969197323</t>
+          <t>https://openalex.org/W1998662995</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1121/1.1973511</t>
+          <t>https://doi.org/10.1093/jahist/jas164</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hollien &amp; Malone (1969)</t>
+          <t>Pulido (2012)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>On-Line Evaluation of Three HeO2 Speech Unscramblers</t>
+          <t>Bridges of Reform: Interracial Civil Rights Activism in Twentieth-Century Los Angeles</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>The purpose of this project was to evaluate the improvement in speech intelligibility levels provided by three HeO2 “unscramblers” developed for the Navy. It is well established that a talker in an environment of high helium concentration and under high ambient pressure experiences severe distortion in the intelligibility of his speech. The three devices investigated consist of electronic circuitry that essentially attempts to return the speech formants—that have been shifted upward on the frequency continuum—to their normal regions. The site of the project was one of the multiple-room compression chambers at the Experimental Diving Unit, Washington Navy Yard; a special 2.5-day “communications” dive (12 days over-all) was scheduled for this purpose. Since the reason for these evaluations was to provide data on the units prior to their use in Sealab-3, the experiment was carried out at 600 ft (slightly in excess of 19 ATA) in a helium/nitrogen/oxygen breathing mixture of 92.4%/6.0%/1.6%, respectively. Talkers were four Navy divers in training for Sealab; the speech material consisted of PB25 word lists. Recordings were made on a Honeywell 8100 FM tape recorder that simultaneously recorded the unprocessed speech and the output of the three unscramblers situated on line. Listeners were (at least) 10 University of Florida students trained for tasks of this nature. Intelligibility data are reported for the following conditions: (1) when the divers reached the experimental depth, (2) after two days at saturation depth, (3) for two different microphones, and (4) for two underwater communication rigs used in the chamber's wet pot. Over-all results indicate that, while substantial improvement in intelligibility levels was afforded by the use of the speech processing systems evaluated, such improvement was not sufficient to provide good voice communication with individuals under the HeO2/ambient pressure conditions studied. [This project was supported by the U. S. Navy Deep Submergence Systems Program and by the Physiological Psychology Branch of the Office of Naval Research.]</t>
+          <t>Shana Bernstein's Bridges of Reform is a welcome addition to the literatures on Los Angeles, comparative ethnic studies, and political activism. Bridges of Reform offers a carefully researched, in-depth analysis of interracial activism among African Americans, Mexican Americans, Jews, and to a much lesser extent, Asian Americans, from the 1930s through the Cold War. While many of the organizations and actors will be familiar to students of Los Angeles history, Bernstein provides a new lens through which to view the political landscape. Despite the title, the book centers on the Cold War, culminating in a case study of the Community Service Organization (cso). Bernstein's basic argument is that the conditions of the Cold War compelled many organizations to work together, and in this way, the era promoted interethnic relationships and solidarity. Bernstein begins by sketching out Los Angeles's community activism in the 1930s, an era in which a dense and diverse activist infrastructure was developed that would be transformed by World War II. She discusses the Cold War and how civil rights activists responded to the new political climate. Bernstein details how organizations had to determine the goals around which to mobilize, with whom to ally, and who was a liability. Her focus narrows to organizations committed to surviving and working toward racial justice in an “acceptable” way. To survive, many organizations not only severed ties with activists considered too leftist but they also denounced them. Repudiating former comrades was called “pro–civil rights anticommunism” (p. 102).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972359859</t>
+          <t>https://openalex.org/W2148933113</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3402/tellusa.v21i4.10108</t>
+          <t>https://doi.org/10.1108/09534811211280609</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Tengström (1969)</t>
+          <t>Langstrand &amp; Elg (2012)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>An attempt to solve the Geodetic Boundary Value Problem, using a double layer approach for Malkin’s function Stokes’ accuracy accepted</t>
+          <t>Non‐human resistance in changes towards lean</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The Boundary Value Problem of Physical Geodesy is usually treated as the problem of finding reliable corrections to be applied to an accepted ellipsoidal model of the Earth in order to get the true values of the gravitational force and the shape of its level surfaces in external space. The accuracy in determining these corrections corresponds, as a rule, to neglecting errors of the order of the flattening of the Earth (3‰, of obtained values). This first approximation identifies the Earth's topography with the so-called Telluroid (see Fig. 1 and below), and uses as only boundary values s.c. true free air anomalies (see not:s).To study the solvability of this problem, integral equations are well suited. For numerical work, they are now-a-days not difficult to handle, because of the availability of powerful high-speed computers. As to my opinion, there is not yet any fully satisfactory solution obtained, which fulfills all boundary conditions. If it should turn out, that no available harmonic models can satisfy the surface-condition and the infinity-conditions (see below) with sufficient accuracy (see above), we have to admit, that we need additional information along the Earth's surface to be able to solve this important problem, by reducing it to the level case of Stokes (see Appendix 1).The paper describes a direct use of a double-layer approach for the s.c. Malkin's function Hy (see below), from which all wanted corrections in space may be deduced. This approach is suggested, because the solvability condition of the resulting singular Fredholm-equation can be used for defining, beforehand, the correct model gravity y. The solution, by definition of the double layer potential, satisfies the weaker infinity condition.</t>
+          <t>Purpose The importance of social issues is well established in the literature on resistance to change. However, much can be gained by including physical objects in the analysis. Using actor‐network theory, this paper aims to explore the resistance of non‐human actors in organizational change and contribute to an expanded understanding of resistance to change. Design/methodology/approach The article is based on a longitudinal case study of the introduction of lean in a large Swedish manufacturing company. The empirical basis consists of interviews, observations and document studies. Actor‐network theory is used as a theoretical lens to identify non‐human resistance to change. Findings The paper proposes that non‐human actors can inhibit change through a lack of alignment with the overall change initiative. This may cause large variation in the interpretation of the proposed change and a lengthy process of construction and negotiation. The paper provides examples of four different types of non‐human resistance that result from this lack of alignment. Practical implications It is proposed that change initiatives need to be aligned with existing practice and anchored in objects that are integrated in organizational routines. The four types of non‐human resistance presented in the paper may be used as a checklist to reduce the risk of failure. Originality/value The predominant focus on social issues tends to disregard the impact of the physical environment in change processes. Actor‐network theory and the inclusion of the physical environment will help to expand and improve the understanding of resistance to change.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972444689</t>
+          <t>https://openalex.org/W2486939287</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00221546.1969.11773845</t>
+          <t>https://doi.org/10.1177/0008429812441314</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Marshall (1969)</t>
+          <t>Richman (2012)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The Liberal Arts</t>
+          <t>Religion at the Epicenter</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>It seems unlikely that a fall on the ice just as winter was turning to spring would lead to thoughts about the expected race riots during the long hot summer to come, thence to the whole problem of Black Power, and from that burning issue to the campus demand for Student Power. However, this did happen to me during an eight-day confinement in the neurological ward of a New York City hospital. There is no better vantage point, I discovered, from which to appreciate the depth and beauty and transforming power of the contribution which Negroes make in one area to the ongoing life of America's largest city. A private hospital room would have cut me off from the colorful, endless, and apparently tireless parade of nurses' aides, practical nurses, student nurses, registered nurses, and doctors, among whom the colored-to-white ratio is practically the same as that on our planet-three to one. After one's pulse, temperature, and blood pressure have been taken sometimes by white and sometimes by dark hands, he wonders whether perhaps he has stumbled into some Great Good Place where no one seems in the least aware of color differences but only of the job which needs to be done cooperatively. Not only was there no overt reference to color on the part of patients, whose language was otherwise most uninhibited, but neither was there the slightest trace of self-consciousness among those who with such aplomb and good nature carried bedpans, gave baths, changed linen, brought ice water, and distributed cooling fruit juice. These were not like the ministrations of a wholly white crew, which might have bred a kind of strained condescension or the sentimental overcompensation of treating the patients as children. The Negro nurses and aides performed all their functions efficiently and with a kindly touch yet as if their main concern were elsewhere, on the wider business of living. The nurse, although interested in what she was doing, was able to sweep her patients up and out of themselves and into the world beyond the hospital walls-where children asked to be taken for long walks, where one was trying to obtain the best high-schooling for one's eighth-grade sons and daughters, with an eye on four years of college education later. While keeping their eye on the patients' troubles, these nurses enticed the patients into self-forgetfulness. A hospital is always, necessarily, a world apart, but only apart from</t>
+          <t>The earthquake of 12 January 2010 devastated Léogâne, crumbling buildings and crushing bodies unable to dodge unearthly torrents of concrete blocks and cloudbursts of white dust. Whereas an assessment of the material and biological impacts of the seismic tremors may be undertaken without prior, personal familiarity with the subjects of concern, understanding the effects of the earthquake on local religious faith and practice requires knowledge of the pre-existing and continuing religious contexts of the communities affected by the disaster. Lack of longitudinal data has not, however, hampered the dissemination of speculative claims about earth-shattering religious change. It is claimed, for example, that large numbers of former Vodouists are converting to Christianity; they are simultaneously pushed by disappointment with their Vodou spirits for failing to prevent the disaster and pulled by admiration for the modern messages and aid proffered by the ubiquitous Christian non-governmental organizations involved in the rescue and recovery. This paper presents data from an ethnographic case study extending over three decades, as well as historical texts, to demonstrate that the cataclysm that ruptured the physical spaces of Léogâne did not produce equally devastating fractures in the local religious landscape. Le séisme du 12 janvier 2010 a dévasté Léogâne, en cassant des bâtiments et en écrasant des corps incapables d’esquiver des torrents surnaturels de blocs de béton et de nuages de poussière. Alors qu’une évaluation des impacts matériels et biologiques des tremblements sismiques peut être entreprise sans familiarité préalable avec les sujets d’intérêt, pour bien comprendre les effets du séisme sur la foi et la pratique religieuse locale, il faut une connaissance de la préexistence, et de la continuation, des contextes religieux des communautés affectées par le désastre. Le manque de données longitudinales n’a pas, pourtant, entravé la diffusion de revendications spéculatives du changement religieux fracassant. On a dit, par exemple, que les grands nombres d’ancien Vodouistes passent prétendument au Christianisme; ils sont simultanément poussés par la déception avec les esprits Vodous pour manquer de prévenir le désastre et tirés par l’admiration pour les messages modernes, et par l’aide offerte par les organisations non-gouvernementales chrétiennes douées d’ubiquité, qui sont impliquées dans le secours et la récupération. Cette étude présente des données d’une étude de cas ethnographique qui a duré plus de trente ans, aussi bien que des textes historiques, pour démontrer que le cataclysme qui a fait éclater les espaces physiques de Léogâne n’a pas produit de fractures tout aussi ravageuses dans le paysage religieux local.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1991370398</t>
+          <t>https://openalex.org/W2169241353</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/qkh.1969.0016</t>
+          <t>https://doi.org/10.2139/ssrn.2037815</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Swift (1969)</t>
+          <t>Wareham et al. (2012)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&amp;lt;i&amp;gt;Some Form of Peace: True Stories of the American Friends Service Committee at Home and Abroad&amp;lt;/i&amp;gt; (review)</t>
+          <t>Paradox in Technology Ecosystem Governance</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Book Reviews119 Some Form of Peace: True Stories of tL· American Friends Service Committee at Home and Abroad. By Marvin R. Weisbord. New York: Viking Press. 1968. 168 pages. $5.95. This is a realistic and dramatic presentation of the range of the labors of the American Friends Service Committee since its founding. It is written by a nonpacifist admirer who has painstakingly sought out background data and the vivid day-to-day events in the lives of selected participants in seven different chapters of the Committee's fifty-year history. Weisbord writes well, selects colorful yet representative persons as his dramatis personae, catches the human misery or desolation or prejudices which prompted a given AFSC venture, and makes the most of the occasional striking break-throughs in achievement, after long labor and against frustrating odds. The first twenty pages are devoted to the initial work of the AFSC in France from 1917 to 1920. Focusing on the attitudes, experiences, and accomplishments of Edward Webster, young Quaker engineer from Frankford, Pennsylvania, the author presents a masterful sketch of the medical work, house construction, and agricultural reconstruction carried on in the region around Sermaize, which had been pulverized by the German offensive. Memorable glimpses are given of surgeon James Babbitt; of the heroic Quaker evacuation of the helpless as the Germans reconquered the area in 1918; and of the efficient, large-scale post-war distribution, under Leslie Heath's canny management, of United States dumps of lumber, wire, tools, and farm implements. Subsequent chapters tell of the birth of the influential national Mental Hygiene Program out of the Civilian Public Service work in mental hospitals during World War II; of famine relief in Russia in 1921 and 1922 (AFSC distributing food provided by Hoover's American Relief Administration); of the development of the Mountaineer Craftsman's Cooperative Association and the Arthurdale Subsistence Homestead out of William and Ruth Simkins' work in 1932 with unemployed miners near Morgantown, West Virginia; of the Pine Mountain, Kentucky, work camp in the summer of 1951, thefirstinterracialAFSC camp in the South; of Bard McAllister's labors to help a desolate California community of Negro farm workers secure water rights, health services, and projects to augment their incomes; and of VISA (Volunteer International Service Assignments) workers Werner Müller and Helen Tyson, who eventually made something significant out of frustrating assignments in Tanzania. One considerable virtue in this book lies in the fact that the claims made for the Quaker way are restrained. To be sure, the immense caring for individual persons, suffering or benighted, and the practical ingenuity, and the persistence in devilishly discouraging circumstances are all made clear. Yet Weisbord never falls into the trap of implying that the projects and methods of the AFSC, if only extended, would solve the world's ills. Rather, at certain moments and places, AFSC volunteers have merited the tribute paid them by an officer in the American Red Cross in World War I1 and quoted by Weisbord, "They did the thing needed and did it with unusual intelligence. And they all fell to with their hands as well as their heads." This is the ideal, but would-be AFSC volunteers would do well 120Quaker History to read this whole book; for it makes clear the confusions, the casting about, the tensions and hostilities, and above all the ambiguities as to long-term accomplishment which attend most Quaker programs. Some readers may feel that the book does not affirm the Quaker peace testimony strongly enough. There is, after all, only a modest claim in the title, taken from Joseph Conrad's statement, "What all men are really after is some form, or perhaps only some formula, of peace." But in a time when many persons and groups, private and public, are seeking to put beliefs into action, and when most programs and much motivation are having to be radically re-examined, Weisbord's tone of restrained affirmation seems to be the right one. Wesleyan University, Middletown, ConnecticutDavid E. Swift Quakers and Politics. Pennsylvania, 1681-1726. By Gary B. Nash. Princeton, N.J.: Princeton University Press. 1968. 362 pages. $8.50. In the last twenty years a substantial number of...</t>
+          <t>Technology platform strategies offer a novel way to orchestrate a rich portfolio of contributions made by the many independent actors who form an ecosystem of heterogeneous complementors around a stable platform core. This form of organising has been successfully used in the smartphone, gaming, social-networking, and commercial software industries, amongst others. Technology ecosystems require stability and control to leverage common investments in standard components, yet also need creativity and variety to meet heterogeneous market demand. While this control-creativity tension has been addressed conceptually in the literature, additional empirical analysis can deepen our understanding of this tension, and identify additional tensions common in technology ecosystems. Tensions may manifest as dualisms, where actors are faced with contradictory, either/or decisions. Alternatively, they can manifest as dualities, where tensions are framed as complementary and mutually-enabling. We explore these issues through an extensive case study of a business software ecosystem consisting of a major multinational software manufacturer at the core, and a system of independent implementation partners and solution developers on the periphery. Our research analyses three primary tensions: control-creativity, standardisation-variety, and individual-collective. We explore the mechanisms of the ecosystem governance that accommodate these tensions, and highlight the specific properties that can be generalizable to other technology ecosystems. Finally, we identify triggers in the case data where latent, mutually enabling tensions become manifest as salient, disabling tensions. By identifying transitions between the complementary and contradictory logics, our study contributes to the understanding of both the design of the ecosystem governance, but also the constant managerial finesse needed to achieve equilibrium and avoid problems of "market failure" in technology ecosystems that function as semi-regulated marketplaces.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1996487805</t>
+          <t>https://openalex.org/W150315355</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0020-7225(69)90040-8</t>
+          <t>https://doi.org/10.48416/ijsaf.v19i3.209</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Edelen (1969)</t>
+          <t>Zagata (2012)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Non-local variational mechanics—I stationarity conditions with one unknown</t>
+          <t>‘We Want Farmers’ Markets!’ Case Study of Emerging Civic Food Networks in the Czech Republic</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>(for Non-Local Variational Mechanics, I–VII). This series of seven papers extends the classical (local) variational mechanics so as to include those cases where the Lagrangian function (action density) involves integrals of the field variables and their derivatives as arguments. We thus obtain Euler equations that are non-local. By non-local we mean that the Euler equations involve the values of the fields and their derivatives at all points in the domain of the independent variables; the Euler equations become integro-differential equations rather than just differential equations. The non-local variational mechanics involving only one field variable is studied first. A reasonably straightforward algorithm is developed for the calculation of the Euler-Lagrange operator applied to Lagrangian function, the annihilation of which gives the non-local Euler equations. The properties of this operator are studied with particular emphases on characterizing those Lagrangian functions that are identically annihilated by the Euler-Lagrange operator. A detailed study is then given of those Lagrangian functions that result in linear Euler equations. This serves to point out the degree of generality afforded by the non-local Euler equations and to provide the basis for saying when a given linear equation can be realized as the Euler equation for some Lagrangian function. With one field variable this is possible only when the homogeneous part of the given equation defines a self-adjoint linear operator. Boundary conditions are considered next. It is shown that, for linear equations, a problem with non-natural boundary conditions can always be obtained from the Lagrangian function for the corresponding problem with natural boundary conditions by adding to the latter Lagrangian function a Lagrangian function that is identically annihilated by the Euler-Lagrange operator. This result is combined with earlier ones and the essential aspects of the non-local variational mechanics so as to obtain a general theorem concerning the representation of the eigenvalues of arbitrary nonlinear operators by means of a generalized Rayleigh quotient method. The non-local variational mechanics with several field variables is then developed; vectors of Euler-Lagrange operators, properties of the Euler-Lagrange operators, Lagrangian functions that are identically annihilated by the vector of Euler-Lagrange operators, etc. It is shown that the Euler-Lagrange operators give an automatic adjoint calculator, and the application of this method allows us to show that any linear system of integro-differential equations can be imbedded in a variational statement. This imbedding, in turn, leads to a simple method of obtaining necessary conditions for the existence of solutions to the Euler equations. An important aspect of this method is that it is the same for differential equations, integral equations, and integro-differential equations. A generalization of the notion of a momentum-energy complex (a matrix that contains the essential information concerning conservation laws) is obtained for the non-localizable fields and the associated strong and weak identities are derived. These identities are used to examine the question of quadratures of the Euler equations. Transformation properties of the Euler-Lagrange operators are considered where the field variables are subjected to transformations that depend on both the field variables and the independent variables. The treatment concludes with an extension of the Lagrange multiplier theorem to non-local variational problems with non-local constraints. This extension is such that it reduces to the classical results and provides a uniform method for a much wider class of problems than previously considered. For instance, if the problem is an isoparametric one, the Lagrange multiplier functions turn out to be equivalent to constants and the problem reduces to the usual Lagrange multiplier method, but without the prior assumption that the multipliers are constants. Whether or not the multipliers are constants is automatically dictated by the method and need not be assumed at the start. (Mécanique variationnelle non locale, parties I á VII). Cette série de sept articles étend la mécanique variationnelle classique (ou locale) aux cas dans lesquels la fonction de Lagrange (densité d'action) met enjeu des intégrales des variables de champ avec leurs dérivées comme arguments. Nous obtenons ainsi des équations d'Euler non locales, c'est-á-dire portant sur les valeurs des champs et de leurs dérivées en tout point du domaine des variables indépendantes; les équations d'Euler deviennent alors des équations intégro-différentielles plutôt que des équations purement différentielles. Nous étudierons d'abord le cas de la variable unique et élaborerons un algorithme assez simple pour le calcul de l'opérateur d'Euler-Lagrange appliqué á la fonction de Lagrange dont l'annulation donne les équations d'Euler non locales. Les pr</t>
+          <t>The purpose of the article is to provide an empirical insight into non-conventional food initiatives in the Czech Republic, as representative of a post-Socialist country in Central/Eastern Europe, and more specifically to provide an answer to the questions of how the citizen-driven food networks in the Czech Republic evolve and what forms they take. The article presents detailed findings from a case study of farmers’ markets, which have been spreading all over the country since 2010 as a result of the strong, new engagement of consumer groups that first stood up for farmers’ markets in Prague, and later in other large cities. The case study employs different data collection techniques in order to describe and explore the initiative. Primary data for the study have been collected through semi-standardized interviews with organizers of the farmers’ markets, engaged farmers and local stakeholders, in order to understand the factors that have enabled this initiative to grow and challenge the dominant food networks. The study explores critically the active role of consumers in the transition of the current food networks, the mechanisms of the transitional process and the transformative potential of the initiative with regard to the sustainability of food production.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2005442531</t>
+          <t>https://openalex.org/W2025405702</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2135/cropsci1969.0011183x000900020023x</t>
+          <t>https://doi.org/10.4304/jsw.7.1.237-242</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Russell (1969)</t>
+          <t>Hajjdiab et al. (2012)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hybrid Performance of Maize Inbred Lines Selected by Testcross Performance in Low and High Plant Densities 1</t>
+          <t>An Industrial Case Study for Scrum Adoption</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nineteen S 3 maize inbred lines ( Zea mays L.) selected through three successive generations, S 0 , S 1 , and S 2 , on the basis of testcross performance in a low or a high plant density were evaluated further to determine the importance of plant density in iubred development. Two testers were used in the final study: the double‐double cross (DDC) used in the selection of the lines and a single cross (SC). The testcrosses were grown in low, medium, and high plant densities in five environments. With the DDC tester, the S 3 lines as a group showed a significant yield gain when compared with a testcross of the source synthetic variety. Lines selected at low and high densities gave similar group testcross yields at low densities, but at medium and high densities, testcrosses of the highdensity group yielded better than those of the low‐density group. The difference in yield at medium and high densities was caused by a greater incidence of barren stalks for the low‐density selection group. With the SC tester, there was no gain in yield of the selections as a group over the source variety. Greater relative importance of nonadditive gene action as compared with additive gene action appears the only explanation for the results obtained.</t>
+          <t>Agile software development methods and techniques have been demonstrated to improve employee morale, enhance end-product quality, and achieve customer satisfaction. Agile adoption always comes with special challenges and thus fundamental organizational changes are necessary for successful outcome. In this paper we present an in-depth case study for adopting Scrum in a multi-team and multi-project situation to a government entity in the United Arab Emirates (U.A.E). While there are many successful stories for adopting Scrum in large and small organizations, there is little known about adoption stories in a multi-project/multi-team environments. In this paper we present a case study for an unsuccessful adoption of Scrum in a government entity in the U.A.E. The government entity under study have used the traditional waterfall approach for many years and decided to move to Agile software development method. This study highlights the challenges faced during the adoption of Scrum method with recommendations to address them. Each organization has its unique properties and one case study is not enough to draw conclusions for the U.A.E environment. However, the results obtained from this paper help software engineers to better understand the development environment and context factors for software projects in the U.A.E and many lessons may be learned for future Agile adoption.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016787791</t>
+          <t>https://openalex.org/W2333898592</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/y69-135</t>
+          <t>https://doi.org/10.1152/japplphysiol.00016.2012</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Polosa et al. (1969)</t>
+          <t>Millet et al. (2012)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Oscillatory behavior of the sympathetic system induced by picrotoxin</t>
+          <t>Sacrificing economy to improve running performance—a reality in the ultramarathon?</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>In cats anesthetized with sodium pentobarbital, paralyzed with gallamine, atropinized, and artificially ventilated, an intravenous injection of picrotoxin (dose between 2 and 5 mg/kg) consistently induced sustained oscillations of arterial blood pressure (BP). Because of their form, and regularity of repetition (range: 0.3 to 4 cycles/min), these oscillations can be considered analogous to vasomotor waves (Mayer waves), which are known to occur in conditions such as hemorrhage, metabolic acidosis, and cerebral ischemia. The BP oscillations characteristic of picrotoxin intoxication have the following properties: (i) they are generated in the CNS since they are abolished by ventral root block; (ii) they are accompanied in most cases by oscillations of the nictitating membrane tension of the same frequency; and (iii) they occur in animals with complete transection of the spinal cord at a cervical level and in those with sectioned ninth and tenth nerves; hence they are not dependent upon afferent impulse traffic arising in baro- and chemo-receptors. Furthermore, nictitating membrane tension oscillation has been seen when BP was maintained stable. The latter observations indicate that for maintaining the oscillation in the sympathetic system the concomitant hemodynamic changes are not essential. It would appear that the oscillation is the result of epileptiform activity of sympathetic neurons. Perhaps some types of spontaneously occurring vasomotor waves have a similar origin.</t>
+          <t>ViewPointSacrificing economy to improve running performance—a reality in the ultramarathon?G. Y. Millet, M. D. Hoffman, and J. B. MorinG. Y. MilletUniversité de Lyon, Saint-Etienne, France; and , M. D. HoffmanDepartment of Veterans Affairs, Northern California Health Care System and University of California Davis Medical Center, Sacramento, California, and J. B. MorinUniversité de Lyon, Saint-Etienne, France; and Published Online:01 Aug 2012https://doi.org/10.1152/japplphysiol.00016.2012This is the final version - click for previous versionMoreSectionsSupplemental MaterialPDF (207 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat ultramarathons have become increasingly popular in recent years. Although complex tactical and psychological-motivational factors play important roles in performance (Fig. 1), running velocity sustained over a prolonged time is directly proportional to maximal sustainable V̇o2 and inversely proportional to energy cost of locomotion (Cr) (4). In fact, we have demonstrated that, despite the very low intensity in ultramarathons (e.g., fraction of V̇o2 max sustained, F = 0.4 to 0.5 over a 24-h race), performance still relies on V̇o2 max and F (19). Nevertheless, factors that determine F for ultramarathons are quite different than for shorter distances. Lactate threshold (or critical velocity), thermoregulatory control, and ability to oxidize lipids are of smaller significance in ultramarathons due to the low intensity. In contrast, avoidance of muscle damage and gastrointestinal symptoms and mental abilities (e.g., internal motivation, associative/dissociative cognitive strategies, etc.) are among the main factors implicated in F for ultramarathons.Fig. 1.Determinants of performance in ultramarathons that may be subjected to a compromise between energy cost and lower limb tissue injury (dashed lines). GI, gastrointestinal; NM, neuromuscular. Most important factors for ultramarathon performance are in bold.Download figureDownload PowerPointIt has been argued that an exceptionally low Cr in marathon distances partly explains the supremacy of East African runners in the marathon, perhaps by delaying glycogen depletion and reducing thermal stress (13). But we believe that the lower exercise intensity in ultramarathons makes these parameters less important, whereas musculotendinous and osteoarticular damage is crucial for F. Herewith, we propose that certain measures that actually increase Cr may be more than offset through gains in F in ultramarathon running, and such a balance is essential for performance optimization. Although conceptually new relative to running, this idea was previously recognized with regard to preferred pedaling rate (24) and cross-country skiing technique (10).Factors Accounting for CrCr mainly depends on the mechanical work produced both externally, with its interplay with elastic energy (28), and internally, related to stride frequency and anthropometric factors. For instance, the exceptional Cr of East African runners has been attributed in part to their slender legs, resulting in lower internal work (17). Other anthropometric factors linked with a low Cr are short calcaneal tubers (26), long Achilles tendons (12), low body fat, high percentage of type I fibers, and long lower limbs relative to body mass (30). A high Cr has been reported in flexible runners (e.g., 2), most likely because stiffer musculotendinous structures facilitate elastic energy storage and recovery.Effects of Ultramarathon Running on Lower Limb TissueNot all peripheral consequences of ultramarathons are due to mechanical stress, as oxidative stress is likely also involved (27). However, there is little doubt that ultra-runners must develop strategies to limit tissue damage from repeated impact during running through adaptations from training and adjustments during competition. This is evident from the large increases in myoglobin, creatine kinase, C-reactive protein, and cytokines after ultramarathons (11, 15, 21). Similarly, a major effect of ultramarathon running on cartilage structures has been suggested based on examination of blood markers (14, 15). We measured significant peripheral fatigue, i.e., reductions in knee extensor and plantar flexor (PF) forces evoked by electrical stimulation, after ultramarathons (18, 21). Also detected were low-frequency fatigue (21), a noninvasive measurement of excitation-contraction failure, and severe central fatigue, which was at least partly attributed to peripheral alterations on the mediation of groups III and IV fatigue-sensitive muscle afferents with inflammation.Saving the Legs vs. Saving EnergyAlthough many factors that positively affect Cr also benefit F and vice versa, this is not universally true, especially when considering long running distances. Here we note several factors that may adversely affect Cr but benefit F for ultramarathon running distances. In particul</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2032263217</t>
+          <t>https://openalex.org/W1585739537</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/pbm.1969.0038</t>
+          <t>https://doi.org/10.1111/j.1751-9020.2012.00472.x</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>McIntyre (1969)</t>
+          <t>Nickolai et al. (2012)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>West Side, South Side</t>
+          <t>Teaching &amp;amp; Learning Guide for ‘Can a Knowledge Sanctuary also be an Economic Engine? The Marketing of Higher Education as Institutional Boundary Work’</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WEST SIDE, SOUTH SIDE A. R. McINTYRE* Indelible memories acquired in youth sometimes gather to themselves irrelevant material accidentally encountered at the time of impact ofthe major and unforgettable stimulus. These irrelevancies may become completely amalgamated with the principal recollection, inseparable from it, forming a composite picture eventually mistaken for reality. This is certainly true of my memory ofJustin Fabius. His voice, his gestures, and what he said are vividly recalled, but my memory ofhis face and hands belongs to a long-departed opera singer who played the part ofRudolpho in La Bohème at Ravinia the evening after my last encounter with Dr. Fabius. Consequently, my description ofmy former teacher is somewhatspurious; and yet, for reasons beyond my conscious ken, this sketch, though partly false, seems to me, no matter how illogical, to be entirely true. I shall always remember the smooth, rather olive skin ofhis high forehead , his black eyebrows, and his beautifully kept black beard. His very dark irides contrasting strikingly with his peculiarly white sclerae gave his eyes a dancing, flashing quality, arresting and somewhat alarming to a reluctantly attentive student. It was risky to be inattentive and positively dangerous to doze. Should Fabius notice a drowsy student, instead of raising his voice he would suddenly lower it and say, almost in a stage whisper, "Gentlemen, I must ask you to be very quiet; one ofus is sleeping . Justin Fabius was professor ofmateria medica and therapeutics at the old Rush Medical College on theWest Side ofChicago, where the two years of clinical instruction were given at the Presbyterian and Cook County hospitals. These two years followed completion ofa bachelor's degree and two more years ofpreclinical medical courses on the South Side Midway campus. At that time Billings Hospital was nearing completion, and it was * College ofMedicine, University ofNebraska, Omaha, Nebraska 68105. 462 A. R. Mclntyre ¦ West Side, South Side Perspectives in Biology and Medicine · Spring 1969 a time of transition. Medical students could elect to finish their medical course on either the South Side or the West Side, and a number of us contrived to take what we considered to be choice courses at both. Some ofus who were instructors and candidates for higher degrees in the preclinical departments on the South Side met with varying degrees ofdisapprobation at Rush and, as a consequence, a variety ofexperiences both baffling and stimulating. For example, the "old" or Rush program in obstetrics on the West Side and "new" lying-in hospital program in obstetrics on the South Side were so much at odds that I found it simpler to take both courses, and I consequently tied more umbilical cords as ajunior than anyoneand incidentally acquired a deep respect for some ofthe staffon both sides. It was fortunate for me that my attention was drawn toJustin Fabius andhis course, forhe was one ofthose rarepersonalities who enriches what otherwise might have become mere technical training. He was born in New York City nearly a century ago. The Greenabaums, who told me he was a SephardicJew, liked and admired him; but several ofthe other Jewish students seemed to fear him. I knew my Israel Zangwill and understood why. Justin obtained an M.D. diploma soon after finishing high school and by the age oftwenty was established in practice. In those preFlexnerdays diploma millswere abundant, and to a person ofFabius' intelligence the acquisition ofan M.D. was often little more than a formality. Fromhis father, a qualified apothecary fromLeyden, hehadacquired more information about materia medica andpharmacy than most physicians ever learned. Because his mother was from London, English was literally his mother tongue. By his Dutch paternal influence his knowledge ofFrench and German was extensive, and he seemed to have read everything from Montaigne to Heine. The contrast between Fabius, a product of the nineteenth century, and the down-to-earth South Side midwesterners of the twentieth century was startling. On the West Side we had Justin Fabius, well versed in history and literature and an articulate linguist, but an ignoramus in physics and chemistry. On the South Side we had instructors well versed in Nernst, van't Hoff, and Arrhenius, yet essentially aesthetically illiterate. Many ofus realized that on the...</t>
+          <t>This guide accompanies the following article : Daniel H. Nickolai, Steve G. Hoffman, and Mary Nell Trautner. 2012. ‘Can a Knowledge Sanctuary also be an Economic Engine? The Marketing of Higher Education as Institutional Boundary Work’, Sociology Compass 6(3):205–18. Authors’ introduction The marketing of higher education refers to a structural trend towards the adoption of market‐oriented practices by colleges and universities. These organizational practices blur the boundary between knowledge‐driven and profit‐driven institutions, and create tensions and contradictions among the three missions of the 21st‐century university: knowledge production, student learning, and satisfying the social charter. In this article, we highlight the historical contexts that nurtured the marketing of higher education in the US and Europe and explore the dilemmas that arise when market logics and business‐oriented practices contradict traditional academic values. We demonstrate that managing these dilemmas is a contested process of policing borders as institutional actors struggle to delineate the proper role of the university in a shifting organizational climate. Authors recommend Arum, Richard and Josipa Roksa. 2011. Academically Adrift: Limited Learning on College Campuses . Chicago, IL: University of Chicago Press. A book that asks a fundamental question in higher education: “How much are students actually learning?” The results do not reflect well on the institution. Arum and Roksa conduct longitudinal tests of critical thinking and analytic reasoning skills on a cohort of students at a variety of universities and colleges. They find that a majority of respondents demonstrate little to no improvement in learning outcomes. Even students who improve show modest gains. The authors’ analysis of student surveys suggests that a major culprit is a combination of low rigor in the curriculum, a lack of effort among students, and the overly modest expectations of instructors. Barnett, Ronald. 2010. ‘The Marketised University: Defending the Indefensible.’ Pp. 39–51 in The Marketisation of Higher Education and the Student as Consumer , edited by M. Molesworth, R. Scullion and E. Nixon. New York: Routledge. Barnett suggests that debates about the effects of marketization on higher education often reflect pre‐existing ideologies about the nature of markets in general. He presents numerous arguments in favor of the conception of students as consumers. For example, the increased power students receive in choosing where and from who to take classes may encourage accountability and actually improve the learning experience as students take a more active role in charting their own course through their education. Barnett also reminds readers that different institutions create different contexts and the extent to which market models of higher education are applicable are largely dependent on these different contexts. Berman, Elizabeth Popp. 2012. Creating the Market University: How Academic Science Became an Economic Engine . Princeton, NJ: Princeton University Press. An in‐depth historical sociology of the entrepreneurial university, this book explores when and why academic science become increasingly tethered to commercial interests over the last four decades. Berman focuses primarily on patenting trends and the political history of patenting law, as well as the development of biotech entrepreneurship and the emergence of university‐industry incubators. She argues that the trend toward an entrepreneurial model were largely driven by the ideals of government officials about the importance of translating scientific and technological innovation into economic growth, along the way creating the organizational environment necessary to enable market‐oriented research to flourish. Kleinman, Daniel Lee. 2003. Impure Cultures: University Biology and the World of Commerce . Madison, WI: University of Wisconsin Press. Kleinman provides an in‐depth look into the daily work culture of a plant pathology lab at the University of Wisconsin. This participant observation study includes ambitious critiques of the dominant agency‐oriented approaches within science and technology studies by focusing on issues of structural constraint and institutional power. This study is especially good at demonstrating how university biologists are deeply, athough indirectly, constrained by commercial interests. The influence is not easily found in conflicts of interest or day‐by‐day decision making of scientists, who by and large conduct themselves ethically and in the fashion predicted by Mertonian norms of science. Instead, the culture of commerce impacts an array of daily lab practices, including the baseline epistemological assumptions around what is a “significant” finding. In the world of plant pathology, a successful trial is determined in relation to the metrics established by the field’s resource dependency on the agro‐chemical industry. Leslie, Larry L. and Gary P.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2032930440</t>
+          <t>https://openalex.org/W2057350001</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0013-4694(69)91443-6</t>
+          <t>https://doi.org/10.1016/s2214-109x(13)70158-x</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fruhstorfer &amp; Bergström (1969)</t>
+          <t>Ruggeri (2014)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Human vigilance and auditory evoked responses</t>
+          <t>Disseminating health research in sub-Saharan Africa through journal partnerships</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1. In seven normal subjects vigilance fluctuations and related changes in the auditory evoked response were quantitatively analysed during rest lasting 10 min (eyes open) or 80 min (eyes closed) in a soundproof room. Vigilance was visually determined from the EEG on the basis of a sensitive classification. Responses evoked by slowly repeated clicks were summated selectively according to the vigilance level in the 2 sec immediately prior to each stimulus. 2. During a session vigilance decreased noticeably in all subjects whether the eyes were kept open or closed. With closed eyes the vigilance decrease was rapid and in most cases reached real sleep. After this initial fall vigilance increased again and remained, with smaller oscillations, at a certain level of the intermediate stages. 3. The click-evoked response was large and stable in the alert state. With decreasing vigilance a progressive amplitude reduction of three prominent response components (N1a, N1b, P2b) was observed. At stage B2 these components had approximately 25% of their original size at stage O. The transition to real sleep was characterized by a marked increase of N2 and a slight growth of P2a. P1 did not change over the whole vigilance range. 4. No progressive changes in latency or shifts in focus were noticed. There was, however, a decrease in latency and a posterior shift in the focus of N2 at the transition to real sleep. 5. The progressive loss in amplitude is interpreted as a decline in the activity of certain brain functions which are essential for the maintenance of an efficient subject-environment relation. 1. Chez sept sujets normaux, les fluctuations de la vigilance et les modifications correspondantes des réponses évoquées auditives ont été analysées quantitativement pendant une période de repos de 10 min (veux ouverts) ou de 80 min (yeux fermés) en chambre insonorisée. Le niveau de vigilance a été déterminé par l'analyse visuelle de l'EEG sur la base d'une classification nuancée. Les réponses évoquées par des clics à fréquences lentes ont été sélectivement sommées en fonction du niveau de vigilance des 2 sec précédant immédiatement chaque stimulus. 2. Pendant l'expérience, la vigilance s'abaisse notablement chez tous les sujets, que les yeux restent ouverts ou fermés. Les yeux fermés, la diminution de la vigilance est rapide et dans la plupart des cas, aboutit au sommeil caractérisé. Après cette chute initiale, la vigilance remonte à nouveau et se maintient, avec des oscillations moindres, à un certain niveau d'état intermédiare. 3. Les réponses évoquées aux clics sont de grande amplitude et stables pendant l'état vigile. Lors de l'abaissement de la vigilance on observe une réduction progressive de l'amplitude des trois composantes dominantes de la réponse (N1a, N1b, P2b). Au stade B2, ces composantes ont approximativement 25% de leur taille originelle au stade O. Le passage au sommeil caractérisé se traduit par une augmentation marquée de la composante N2 et une augmentation légère de P2a. P1 ne se modifie pas quel que soit le niveau de vigilance. 4. On n'observe aucune modification progressive de latence ni de variation topographique. Une diminution de la latence et un déplacement postérieur du foyer de N2 surviennent cependant au moment du passage au sommeil caractérisé. 5. La perte progressive d'amplitude est interprétée comme une diminution de l'activité de certaines fonctions cérébrales qui sont essentielles pour le maintien d'une relation efficace sujet-environnement.</t>
+          <t>Health research consortia in sub-Saharan Africa present a positive outlook for the region through increased scientific capacity.1Ijsselmuiden C Marais DL Becerra-Posada F Ghannem H Africa's neglected area of human resources for health research—the way forward.S Afr Med J. 2012; 102: 228-229PubMed Google Scholar New networks of African–African, African–European, and African–global partnerships provide platforms to advance crucial research domains.2Marjanovic S Hanlin R Diepeveen S Chataway J Research capacity building in Africa: networks, institutions and local ownership.J Int Devel. 2013; 25: 936-946Crossref Scopus (35) Google Scholar, 3de-Graft Aikins A Arhinful DK Pitchforth E Ogedegbe G Allotey P Agyemang C Establishing and sustaining research partnerships in Africa: a case study of the UK-Africa Academic Partnership on Chronic Disease.Global Health. 2012; 8: 1-13Crossref PubMed Scopus (29) Google Scholar Such networks enable junior African researchers to advance their work, and they also poise the region to provide expertise across many health domains.2Marjanovic S Hanlin R Diepeveen S Chataway J Research capacity building in Africa: networks, institutions and local ownership.J Int Devel. 2013; 25: 936-946Crossref Scopus (35) Google Scholar High-income partners also gain by hosting African researchers, increasing international exposure to developing regions, and learning from researchers with few resources. Unfortunately, dissemination of research findings is a constant and major challenge in these partnerships, often because of restricted capacity.3de-Graft Aikins A Arhinful DK Pitchforth E Ogedegbe G Allotey P Agyemang C Establishing and sustaining research partnerships in Africa: a case study of the UK-Africa Academic Partnership on Chronic Disease.Global Health. 2012; 8: 1-13Crossref PubMed Scopus (29) Google Scholar, 4Ezeh A Izugbara CO Kabiru CW et al.Building capacity for public and population health research in Africa: the consortium for advanced research training in Africa (CARTA) model.Glob Health Action. 2010; 3: 5693Google Scholar Before publication, myriad issues must be addressed, beginning with basic access—even internet connectivity and continuous electricity are problematic in some rural regions. Thus, although partnerships might increase capacity over working in isolation, dissemination challenges remain. Likewise, supervision is a crucially underserved role in African academic institutions. Furthermore, junior academics might have doubts about the quality or relevance of work, and ultimately decide against dissemination. This issue perpetually disrupts research, affecting completion and eventual publication, which exacerbates restrictions in developing regions. Cutting-edge research does not have uniform sustainability, thus partnerships aim to provide guidance from international experts to future African scientific leaders while enhancing local supervision. Development of research, fundraising, ethical review, collection of data, analysis, and dissemination can take years, even for successful projects. Large studies can wait a long time for reviewer feedback simply because of numbers of competing submissions to top journals. With rejections or resubmissions, the process from proposal to print can last years. This long period is particularly problematic in view of restricted funds to support write-up after project completion. Diminished confidence in project quality or outcomes can result in researchers selecting lower quality dissemination channels or, at worst, abandoning research. These decisions can result in the loss of valuable lessons (regardless of outcomes) learned from work done in unique, resource-limited settings. One possible solution for any developing region consortium is to establish journal partnerships, which would involve agreements between funders, researchers, and journals. In these agreements, funders oblige researchers to submit methods papers, known as works in progress, to specific journals who in turn produce special (peer reviewed) editions that cover the domains of the consortium. Specific benefits of this solution include: assurance of outcome data from work being supported, even in challenging conditions, for the funders; support to disseminate early despite extensive timelines of full study for the researchers; expedition and access to the newest, ongoing projects in crucial regions for the journals; and the ability to learn from method challenges faced by peers for the wider community. Done effectively, works in progress expedite scientific dissemination, publicise innovative work, and inform stakeholders about practical aspects potentially useful for replication. Although works in progress might risk emphasising pipe-dream research, submission guidelines should safeguard against this problem. Detailed methods papers allow authors to share state-of-the-art work without fear of losing ownership of innovative techniques. These papers have greater potentia</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2035415483</t>
+          <t>https://openalex.org/W1962480104</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/466660</t>
+          <t>https://doi.org/10.1002/er.3165</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Levine (1969)</t>
+          <t>Mythili et al. (2014)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Landing Fees and the Airport Congestion Problem</t>
+          <t>Production characterization and efficiency of biodiesel: a review</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessLanding Fees and the Airport Congestion ProblemMichael E. LevineMichael E. Levine Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by The Journal of Law and Economics Volume 12, Number 1Apr., 1969 Sponsored by The University of Chicago Booth School of Business and The University of Chicago Law School Article DOIhttps://doi.org/10.1086/466660 Views: 17Total views on this site Citations: 71Citations are reported from Crossref Copyright 1969 The University of ChicagoPDF download Crossref reports the following articles citing this article:Xinjian Wang, Francisco Rossomando Measures for Airlines to Reduce Airport Congestion Fees: Scheme Design and Performance Assessment, Mathematical Problems in Engineering 2022 (Jun 2022): 1–12.https://doi.org/10.1155/2022/5235813Aasheesh Dixit, Suresh Kumar Jakhar Airport capacity management: A review and bibliometric analysis, Journal of Air Transport Management 91 (Mar 2021): 102010.https://doi.org/10.1016/j.jairtraman.2020.102010Peter Forsyth, Hans-Martin Niemeier, Eric Tchouamou Njoya Economic Evaluation of Investments in Airports: Recent Developments, Journal of Benefit-Cost Analysis 12, no.11 (Feb 2021): 85–121.https://doi.org/10.1017/bca.2020.31Kenneth Button Studying the empirical implications of the liberalization of airport markets, Competition and Regulation in Network Industries 64 (Jul 2020): 178359172093576.https://doi.org/10.1177/1783591720935767Michael O. Ball, Alexander S. Estes, Mark Hansen, Yulin Liu Quantity-Contingent Auctions and Allocation of Airport Slots, Transportation Science 54, no.44 (Jul 2020): 858–881.https://doi.org/10.1287/trsc.2020.0995Kenneth Button Applied economics and understanding trends in air transportation policy, Transport Policy 80 (Aug 2019): 78–85.https://doi.org/10.1016/j.tranpol.2019.04.022Guo Zhou, Rui Wang, Yongquan Zhou Flower pollination algorithm with runway balance strategy for the aircraft landing scheduling problem, Cluster Computing 21, no.33 (Feb 2018): 1543–1560.https://doi.org/10.1007/s10586-018-2051-0Michael O. Ball, Frank Berardino, Mark Hansen The use of auctions for allocating airport access rights, Transportation Research Part A: Policy and Practice 114 (Aug 2018): 186–202.https://doi.org/10.1016/j.tra.2017.09.026Yukihiro Kidokoro, Anming Zhang Airport congestion pricing and cost recovery with side business, Transportation Research Part A: Policy and Practice 114 (Aug 2018): 222–236.https://doi.org/10.1016/j.tra.2017.12.003Rong Hu, Lin Chen, Lijun Zheng Congestion pricing and environmental cost at Guangzhou Baiyun International Airport, Journal of Air Transport Management 70 (Jul 2018): 126–132.https://doi.org/10.1016/j.jairtraman.2018.04.016Ata Allah Taleizadeh, Moeen Sammak Jalali, Shib Sankar Sana A game theoretic approach to optimal pricing of flights and passengers at congested airports, Journal of Modelling in Management 13, no.22 (May 2018): 434–454.https://doi.org/10.1108/JM2-01-2017-0006K.K.H. Ng, C.K.M. Lee, Felix T.S. Chan, Yaqiong Lv Review on meta-heuristics approaches for airside operation research, Applied Soft Computing 66 (May 2018): 104–133.https://doi.org/10.1016/j.asoc.2018.02.013Michael O. Ball, Alexander Estes, Mark Hansen, Yulin Liu Quantity-Contingent Auctions and Allocation of Airport Slots, SSRN Electronic Journal (Jan 2018).https://doi.org/10.2139/ssrn.3286732P.M. Picard, A. Tampieri, Xi Wan Airport capacity and inefficiency in slot allocation, International Journal of Industrial Organization (Dec 2017).https://doi.org/10.1016/j.ijindorg.2017.10.003Soraya Hidalgo-Gallego, Ram?n N??ez-S?nchez, Pablo Coto-Mill?n GAME THEORY AND PORT ECONOMICS: A SURVEY OF RECENT RESEARCH, Journal of Economic Surveys 31, no.33 (Jun 2016): 854–877.https://doi.org/10.1111/joes.12171Changmin Jiang, Yulai Wan, Anming Zhang Internalization of port congestion: strategic effect behind shipping line delays and implications for terminal charges and investment, Maritime Policy &amp; Management 44, no.11 (Oct 2016): 112–130.https://doi.org/10.1080/03088839.2016.1237783Andrej Svorenčík Allocating Airport Slots, History of Political Economy 49, no.SupplementSupplement (Jan 2017): 240–263.https://doi.org/10.1215/00182702-4166347Xi Wan Airport Slot Auction When Airlines Have Market Power, SSRN Electronic Journal (Jan 2017).https://doi.org/10.2139/ssrn.3076473María Pérez Herrero, Julien Brunel, Gregoire Marlot Rail Externalities: Assessing the Social Cost of Rail Congestion, (Jun 2016): 331–344.https://doi.org/10.1002/9781119307822.ch23Ming Hsin Lin, Anming Zhang Hub congestion pricing: Discriminatory passenger charges, Economics of Transportation 5 (Mar 2016): 37–48.https://doi.org/10.1016/j.ecotra.2016.02.001Andrej Svorennnk Allocating Airport Slots - The History of Early Applied Experimental Research, SSRN Electronic Journal (J</t>
+          <t xml:space="preserve">International Journal of Energy ResearchVolume 38, Issue 10 p. 1233-1259 Review Paper Production characterization and efficiency of biodiesel: a review R. Mythili, Corresponding Author R. Mythili Department of Bioenergy, Agricultural Engineering College and Research Institute, Coimbatore, Tamil Nadu, India Correspondence R. Mythili, Department of Bioenergy, Agricultural Engineering College and Research Institute, Coimbatore, Tamil Nadu, India. E-mail: [email protected]Search for more papers by this authorP. Venkatachalam, P. Venkatachalam Agricultural Engineering Division, Agricultural College and Research Institute, Tamil Nadu Agricultural University, Madurai, Tamil Nadu, IndiaSearch for more papers by this authorP. Subramanian, P. Subramanian Agricultural Engineering Division, Agricultural College and Research Institute, Tamil Nadu Agricultural University, Madurai, Tamil Nadu, IndiaSearch for more papers by this authorD. Uma, D. Uma Department of Bioenergy, Agricultural Engineering College and Research Institute, Coimbatore, Tamil Nadu, IndiaSearch for more papers by this author R. Mythili, Corresponding Author R. Mythili Department of Bioenergy, Agricultural Engineering College and Research Institute, Coimbatore, Tamil Nadu, India Correspondence R. Mythili, Department of Bioenergy, Agricultural Engineering College and Research Institute, Coimbatore, Tamil Nadu, India. E-mail: [email protected]Search for more papers by this authorP. Venkatachalam, P. Venkatachalam Agricultural Engineering Division, Agricultural College and Research Institute, Tamil Nadu Agricultural University, Madurai, Tamil Nadu, IndiaSearch for more papers by this authorP. Subramanian, P. Subramanian Agricultural Engineering Division, Agricultural College and Research Institute, Tamil Nadu Agricultural University, Madurai, Tamil Nadu, IndiaSearch for more papers by this authorD. Uma, D. Uma Department of Bioenergy, Agricultural Engineering College and Research Institute, Coimbatore, Tamil Nadu, IndiaSearch for more papers by this author First published: 15 February 2014 https://doi.org/10.1002/er.3165Citations: 48Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL SUMMARY Vegetable oil is one of the main first generation liquid biofuels. The fuel characteristics of vegetable oil such as viscosity and atomization cannot be accommodated by existing diesel engines. An alternate process has been developed to improve the fuel characteristics of vegetable oils through the process of alcoholysis to produce a fuel called biodiesel. It can be used in engines as substitute for fossil fuel. This paper reviews the characteristics of different oils available for biodiesel production and the production technologies, engine performance using vegetable oil and biodiesel, and emission studies. Copyright © 2014 John Wiley &amp; Sons, Ltd. REFERENCES 1 Knothe G. Analyzing biodiesel: standards and other methods. JAOCS 2006; 83: 823– 833. 2 Pinzi S, Garcia IL, Lopez-Gimenez FJ, Luque De Castro MD, Dorado G, Dorado MP. The ideal vegetable oil-based biodiesel composition: a review of social, economical and technical implications. Energy and Fuels 2009b; 23: 2325– 2341. 3 McDonnell KP, Ward SM, McNulty PB. Results of engine and vehicle testing of semi-refined rapeseed oil. In: 10th International Congress 1999, Cambria, Australia. 4 Georgios F, Marina K, Georgios K, Evangelos B, Zissis S. Impact of straight vegetable oil–diesel blends application on vehicle regulated and non-regulated emissions over legislated and real world driving cycles. Biomass and Bioenergy 2011; 35: 3188– 198. 5 Schoedder C. Rapeseed oil as an alternative fuel for agriculture. In Fazzolare RA, Smith CR (eds). Beyond the Energy Crisis, Opportunity and Challenge, vol. III. Third International Conference on Energy Use Management, Oxford: Pergamon Press, Berlin (West). 1981; 1815–1822. 6 Kalbande SR, Vikhe SD. Jatropha and karanja bio-fuel: an alternate fuel for diesel engine. ARPN Journal of Engineering and Applied Sciences 2008; 3(1): 7– 13. 7 Alamu OJ, Opeoluwa D, Adedoyin MS. Production and testing of coconut oil biodiesel fuel and its blend. Leonardo Journal of Sciences 2010; (16): 95– 104. ISSN 1583–0233. 8 Bettis BL, Peterson CL, Auld DL, Driscoll DJ, Peterson ED. Fuel characteristics of vegetable oil from oilseed crops in the Pacific Northwest. Agronomy Journal 1982; 74: 335– 339. 9 Fort EF, Blumberg PN, Staph HE, Staudt JJ. Evaluation of cottonseed oils as diesel fuel. SAE Technical Paper Series 820317. 1982. 10 Barsic NJ, Humke AL. Vegetable oils: diesel fuel supplements? </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2048644728</t>
+          <t>https://openalex.org/W2123686060</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0005-2760(69)90038-1</t>
+          <t>https://doi.org/10.1161/strokeaha.114.006490</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Klopfenstein (1969)</t>
+          <t>Vongveeranonchai et al. (2014)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Thermodynamics of binding lysolecithin to serum albumin</t>
+          <t>Evaluation of a Patient With Spinal Cord Infarction After a Hypotensive Episode</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Interaction of charge transfer fluorophore N,N-dimethylaminonaphthyl-(acrylo)-nitrile (DMANAN) with globular proteins Human Serum Albumin (HSA) and Bovine Serum Albumin (BSA) brings forth a marked change in the position and intensity of band maxima both in case of absorption and fluorescence spectra. Spectroscopic approach has been elaborately implemented to explore the binding phenomena of the probe with HSA and BSA and it is found that the extent of binding of the probe to both serum albumins is similar in nature. Steady state fluorescence anisotropy values, fluorescence quenching study using acrylamide quencher and Red Edge Excitation Shift (REES) help in drawing reliable conclusions regarding the location of the probe molecule within the hydrophobic cavity of the proteins. An increase in fluorescence lifetime of the probe molecule solubilized in both the proteinous media also indicate that the probe is located at the motionally restricted environment inside the hydrophobic cavity of proteins and hence non-radiative channels are less operative than in the bulk water. Similarly, the variation of position and intensity of the emission maxima of DMANAN solubilized in micellar medium of Sodium Dodecyl Sulphate (SDS) also predicts well the critical micellar concentration (CMC) and polarity of micellar microenvironment.</t>
+          <t>HomeStrokeVol. 45, No. 10Evaluation of a Patient With Spinal Cord Infarction After a Hypotensive Episode Free AccessResearch ArticlePDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessResearch ArticlePDF/EPUBEvaluation of a Patient With Spinal Cord Infarction After a Hypotensive Episode Nuttawan Vongveeranonchai, MD, Manaf Zawahreh, MD, Daniel Strbian, MD, PhD and Sophia Sundararajan, MD, PhD Nuttawan VongveeranonchaiNuttawan Vongveeranonchai From the Neurological Institute, University Hospitals Case Medical Center, Cleveland, OH (N.V., M.Z., S.S.); and Department of Neurology and Stroke Units, Helsinki University Central Hospital, Helsinki, Finland (D.S.). Search for more papers by this author , Manaf ZawahrehManaf Zawahreh From the Neurological Institute, University Hospitals Case Medical Center, Cleveland, OH (N.V., M.Z., S.S.); and Department of Neurology and Stroke Units, Helsinki University Central Hospital, Helsinki, Finland (D.S.). Search for more papers by this author , Daniel StrbianDaniel Strbian From the Neurological Institute, University Hospitals Case Medical Center, Cleveland, OH (N.V., M.Z., S.S.); and Department of Neurology and Stroke Units, Helsinki University Central Hospital, Helsinki, Finland (D.S.). Search for more papers by this author and Sophia SundararajanSophia Sundararajan From the Neurological Institute, University Hospitals Case Medical Center, Cleveland, OH (N.V., M.Z., S.S.); and Department of Neurology and Stroke Units, Helsinki University Central Hospital, Helsinki, Finland (D.S.). Search for more papers by this author Originally published12 Aug 2014https://doi.org/10.1161/STROKEAHA.114.006490Stroke. 2014;45:e203–e205Other version(s) of this articleYou are viewing the most recent version of this article. Previous versions: January 1, 2014: Previous Version 1 Case DescriptionA 72-year-old man with past medical history significant for peripheral vascular disease, bilateral carotid stenosis, hypertension, dyslipidemia, and heavy tobacco use developed sudden severe chest pain and received sublingual nitroglycerin with pain resolution. The patient was able to walk to the ambulance, but on arrival in the emergency room had a systolic blood pressure of 60 mm Hg, which was thought to be secondary to nitroglycerin. He was given intravenous fluids. A few hours later, he complained of being unable to move his legs and was found to be paraplegic with urinary retention and a T4 sensory level to pain and temperature with preserved light touch, vibration, and joint position sense. Additional intravenous fluids resulted in minimal improvement. Emergent MRI of the spine was nondiagnostic, but a follow-up MRI the next day showed abnormal signal intensity within the anterior gray matter on T2-weighted images from the T2 through T5 level, with corresponding signal on diffusion weighted imaging. A computed tomography of the chest showed no aortic dissection. Cardiac telemetry and echocardiogram were unremarkable. A fasting low density lipoprotein was 120. He was treated with intravenous fluids, aspirin 81 daily, an increased statin dose, and eventually discharged to an acute rehabilitation facility. Six month later, his lower extremity strength had improved. He was able to walk 45 feet with a wheeled walker and required intermittent urinary catheterization.DiscussionAcute spinal cord infarction (SCI) is uncommon, accounting for 1.2% of stroke admissions and 5% to 8% of acute myelopathies.1 The vast majority of spinal infarcts involve the anterior spinal artery (ASA) and have distinct clinical features because of sparing of the posterior columns. These patients have preserved posterior column function despite loss of pain and temperature with bilateral lower extremity weakness. Recognizing spinal cord ischemia early is critical so that the processes causing ischemia can be addressed to limit SCI.Vascular Anatomy of the Spinal CordTo understand the mechanisms of spinal cord ischemia, one must first understand the vascular supply of the cord, which leaves the thoracic cord particularly vulnerable to ischemia (Figure). There is a single ASA and 2 or 4 posterior spinal arteries (PSAs). The ASA is derived from branches of the vertebral arteries arising at the level of the foramen magnum. Segmental vessels at the level of each spinal nerve roots divide into anterior and posterior radicular arteries. At variable levels these course medially and anastomose with either the ASA or the PSAs. During development the majority of anterior radicular arteries regress leaving only 4 to 8 arteries to feed into the ASA. Fewer anastomoses make this territory more susceptible to ischemia. In the cervical cord the anterior radicular arteries are branches of the vertebral and ascending cervical arteries. In the rostral thoracic cord they are branches of the deep and ascending cervical arteries. In</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2068102901</t>
+          <t>https://openalex.org/W2315731823</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/2527-ms</t>
+          <t>https://doi.org/10.2523/iptc-17745-ms</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Chilingar et al. (1969)</t>
+          <t>Wang et al. (2014)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Chemistry of Interstitial Solutions in Shales Versus that in Associated Sandstones</t>
+          <t>Analysis of Riser Mechanical Behavior Using Beam-Column Theory</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Abstract Experimental results obtained by the writers show that the salinity of squeezed-out solutions from muds progressively changes with increasing overburden pressure. Both marine muds and clays plus sea water mixtures were used. Experimental results also show that the salinity of water remaining in shales should be considerably lower than that in associated sandstones. Yet, log analysts in their calculations assume that salinity of interstitial waters in shales and in sands is the same. This may result in erroneous interpretations. Field data show a typical pattern of decreasing salinity of produced water with time in zones which receive most of their water from associated shales. This supports the above-mentioned conclusion based on laboratory data. Introduction Large amounts of water are squeezed out of the continental and marine sediments during compaction and lithification. The overburden pressures on these sediments may reach pressures on these sediments may reach magnitudes of 14,000 to 36,000 psi in geosynclinal basins. Most of the salts present in the waters, which are trapped during sedimentation,, are squeezed out during the initial stages of compaction. The laboratory results obtained by Buneeva et al. Kryukov and Komarova, Kryukov and Zhuchkova, Rieke et al. and Chilingarian and Rieke showed that mineralization of squeezed-out solutions progressively decreases with increasing overburden pressure. Very little is known of the actual porosity of shale and the actual salinity of the contained water. It seems that if one could be determined the other probably could be calculated. The actual salinity of formation waters of the sands usually ranges from three times the salinity of sea water to one-fourth times the salinity of sea water [average salinity of sea water = 35 degrees/oo], and may range from greater than 10 times salinity of sea water to virtually fresh water. Recently, Foster and Whalen presented a technique for estimating formation pressures from electrical logs. This technique has been found especially applicable in the offshore Louisiana area in detecting abnormally high reservoir pressures. These authors, however, assumed that pressures. These authors, however, assumed that the water resistivity values in shales are equal to, or of the same magnitude, as that calculated for nearby sands. Consequently, solution Of this problem [chemistry of interstitial waters in shales vs chemistry of waters in associated sandstones] is of great practical importance.</t>
+          <t>Abstract Conventional calculation method for analyzing riser mechanical behavior is based on the fourth-order differential equation. In this paper, a simple analysis model and calculation method has been provided. The whole riser is modeled as a continuous beam-column with N span under actions of both axial and lateral loads. One span of the beam-column is cut out as an equilibrium unit to establish the equilibrium differential equation which is different from previous governing equation. Results shows that the equilibrium differential equation established can deal with any kind of lateral force of riser. However the difficulty of solving riser behavior governing equation is reduced through transforming the four-order differential equation into a second-order one. The correctness of the analysis model and the calculation method has been verified through case study at last. Introduction Marine riser is the key equipment connecting subsea wellhead and floating drilling platform (ship) in deep-water drilling and exploration. Scholars have done quite a number of researches on riser mechanical behavior. Cliton G. Gosse(Cliton G. Gosse and G. L. Barksdale,1969) developed a mathematical model to analyze the marine riser behavior, and the nonlinear differential equation describing the static mechanics is solved by using the finite-difference approximation. Burke B G (Burke B G, 1973) deduced the riser mechanical deformation control differential equation with elastic mechanics method. Robert M. Sexton et al (Robert M. Sexton and L. K. Agbezuge, 1976; T.N.Gardner and M.A.Kotch,1976) developed a computer model making a dynamic analysis of the riser by calculating the riser stress, deflections and lower ball joint angle. Bruce E. Bennett (Bruce E. Bennett and Michael F. Metcalf, 1977) made some nonlinear dynamic analysis of coupled axial and lateral motions of marine riser, and the analysis method allowed engineers to investigate riser pipe bucking stability. W. R. Azpiazu (W. R.Azpiazu and V.N.Nguyen, 1984) analyzed the vertical dynamics of marine riser to determine the amplitude of dynamic forces and displacement caused by heave action. A. D. Trim (A. D. Trim, 1991) derived an equation of axial motion of a tensioned marine riser and a number of partical problems were considered, including the dynamic response following an emergency disconnection. V. J. Modi et al (V.J Modi et al, 1994) derived an equation of motion for a marine riser undergoing large deflections and rotations. Geir Moe (Geir Moe and Bjern Larsen, 1997) developed a differential equation describing the motions of marine riser with asymptotic solution. Chainarong Athisakul, et al (Chainarong Athisakul, et al, 2002) presented a variational approach to two-dimensional large strain static analysis of marine risers. A. Ertas (A. Ertas, 2006) proposed the riser dynamic differential equation, which is solved by the finite difference method. Khan R. A. (Khan R. A., 2006) made some dynamic analysis of risers subjected to regular or irregular wave with ABAQUS software, and the variation of riser bending stress with low frequency drilling ship movement and wave motion and current velocity were also analyzed. Chang (Chang, et al, 2008; Sun, et al, 2009; Ju, et al, 2011) did some research on riser stochastic nonlinear dynamic response, hanging axial dynamic analysis and wave-induced long-term fatigue analysis with theoretical and numerical simulation method. Zhou (Zhou et al, 2013) studied the mechanical properties of riser subjected to shear flow with experimental method and found the riser "one third effect" which can be explained through an analysis of the mechanical model and material mechanics theory. The purpose of this paper is to analyze the mechanical behavior of riser using Beam-Column Theory.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071030441</t>
+          <t>https://openalex.org/W1984143142</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1672415</t>
+          <t>https://doi.org/10.1111/1756-185x.12373</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jameson &amp; Gutowsky (1969)</t>
+          <t>Dahya et al. (2014)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Systematic Trends in the Coupling Constants of Directly Bonded Nuclei</t>
+          <t>Paradoxical immune reconstitution inflammatory syndrome presenting as acute respiratory distress syndrome in a non‐&lt;scp&gt;HIV&lt;/scp&gt; immunosuppressed sarcoidosis patient</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>The indirect coupling constant JXN has been observed for the magnetic nuclei in 50 different pairs of directly bonded X–N atoms. A synopsis is given of the reported values along with the corresponding reduced constant KXN = (2π / ℏγXγN)JXN which depends only on the molecular electronic structure. There are three nuclei, N=1H, 13C, and 19F for which KXN is now known for 15 or more different nuclei X, enough that trends are visible in the dependence of KXN upon the position of X in the periodic table. The sign of KXN(positive for H2) changes across the table somewhat between Groups V and VI, the sense of the change for N=19F being the reverse of that for N=1H and 13C. Furthermore, there is a marked increase in the magnitude of KXN with increasing nuclear charge of atom X in each Group, for negative as well as positive coupling constants. The significance of these observed trends is considered. The Ramsey theory for the electron coupling of the nuclear spins includes orbital, spin-dipolar, and contact contributions. For directly bonded atoms, the orbital contribution is zero unless there is multiple bonding, the tendency for which decreases with increasing Z in a given Group. The spin-dipolar contribution increases with increasing Z; however, it is positive, and the values calculated are an order of magnitude smaller than those found experimentally for KXN. A model is presented attributing the observed trends to the contact contribution, which depends upon the nature of the bonding orbitals employed by each atom in the bond. If both atoms employ ns orbitals in the bond, the direct contact interaction term, which is positive, dominates. The bonding of Group VII and, to a lesser degree, Group VI atoms employs primarily p orbitals. In such atoms the contact interaction is indirect, involving polarization of the core s electrons and a change in sign of the term. The contact term with inclusion of such core polarization effects provides a model consistent with the data available. The model is used to predict the signs, in some cases also the magnitudes, of several coupling constants not yet observed. For example, in NF3, OF2, and F2, we expect KNF to be negative, KFF to be positive, and KOF probably to be positive. A number of features are discussed including the coupling in highly ionic bonds such as the Rb, Cs, and H fluorides, and the relationship of the model to nuclear hyperfine interactions in atoms and ions with unpaired spins and in organic free radicals.</t>
+          <t>Dear Editor, Immune reconstitution inflammatory syndrome (IRIS) has been well known in the setting of HIV patients on antiretroviral therapy but has not been as widely discussed in the setting of non-HIV immunosuppressed patients. In this case study we introduce a case of IRIS presenting as acute respiratory distress syndrome in a non-HIV immunosuppressed patient who developed tuberculosis after being started on immunosuppressant treatment for sarcoidosis. Despite receiving adequate tuberculosis treatment, the patient's condition continued to decline. Finally the patient was started on steroid treatment which resulted in symptomatic improvement. A 36-year-old man with a history of biopsy-proven renal sarcoidosis treated with adalimumab and mycophenalate for over 2 years presented with fevers, chills and shortness of breath. The patient denied any cough or hemoptysis. Social history indicated that the patient worked as a prison public defender and had a recent exposure to an inmate who was positive for tuberculosis. Our patient was diagnosed with left lower lobe pneumonia and discharged with a course of levofloxacin. He reported not feeling better and that in fact his symptoms had worsened over the next 2 weeks so he returned to the hospital. On this admission his temperature was 39.4°C, blood pressure of 139/84 mmHg, pulse of 80/min and respiratory rate of 28/min. A bronchoscopy was then performed and revealed acid-fast bacilli seen on concentrated smear. A QuantiFERON Gold Test was also performed at this time which was positive. At this point the sarcoidosis immunosuppressive medications were discontinued and a computed tomography (CT) chest scan was performed (Fig. 1). A nucleic acid amplificiation test was then performed which resulted in a positive test for Mycobacterium tuberculosis. Up until this point he did not have a positive purified protein derivative (PPD) test and that this was an acute tuberculosis infection. The patient was then started on ethambutol, isoniazid, pyrazinamide, rifampin, pyroxine and moxifloxacin, and discharged home on these medications. He returned to the hospital 10 days after discharge with complaints of fever, cough, shortness of breath and diarrhea. At this time his laboratory work-up revealed blood urea nitrogen (BUN) of 102 mg/dL and creatinine of 8.1 mg/dL, revealed an aspartate aminotransferase (AST) of 92 IU/L and alanine aminotransferase (ALT) of 88 IU/L. A chest X-ray was ordered which showed bilateral infiltrates which were stable when compared to previous films. Over the following 3 days, he continued to be short of breath and with fever of 39.4°C. On the 4th day, his chest X-ray showed significant worsening with bilateral infiltrates, his arterial oxygen pressure on supplemental oxygen had dropped to 86 mmHg, and he had developed acute respiratory distress syndrome. He was then intubated and placed on mechanical ventilation. Over the next 4 days he continued to deteriorate clinically despite being on appropriate anti-TB treatment and having the immunosuppressants discontinued. Repeat bronchoscopies all resulted in negative cultures. At this point the team concluded that the event of respiratory distress must be connected to the restoration of the immune system after the discontinuation of the immunosuppressants. He was then started on methylprednisolone 80 mg intravenously every 8 h and within 24 h his temperature, respiratory rate and arterial blood gases improved. The patient was extubated 4 days after starting steroids and over the following 2 weeks, his BUN and creatinine levels returned to baseline as well as his liver transaminases (AST = 37 /ALT = 32). A CT scan of the chest was done which revealed improvement from the previous films but still showed diffuse miliary disease (Fig. 2). The prednisone was tapered down to 40 mg daily and he was to continue this steroid course for another 3 weeks. He was discharged 10 days after extubation and he was given the steroid prescription with weekly office follow-up appointments to assess the tapering of the medication. Unfortunately there was a period of 2 days where he forgot to take his corticosteroids which resulted in fever, tachypnea, tachycardia and an elevated creatinine requiring readmission for 3 days. He was restarted on steroids and his condition dramatically improved. IRIS is a systemic inflammatory response to a variety of antigens. It occurs when the immune system goes from an immunosuppressed state to a more pro-inflammatory state when the agents causing the immunosuppression are removed. This syndrome has been well described in HIV patients undergoing antiretroviral therapy and the incidence is around 10–25%.1-3 It is not well known in the non-HIV population, which includes transplant patients after immunosuppression withdrawal, neutropenic patients after neutrophil recovery, and patients that undergo discontinuation of tumor necrosis factor-alpha (TNF-α) antagonist therapy.4 The exact pathogenesis o</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071263081</t>
+          <t>https://openalex.org/W1975129119</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-2852(69)90359-2</t>
+          <t>https://doi.org/10.1108/meq-11-2013-0131</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>King &amp; Srikameswaran (1969)</t>
+          <t>Zdraveva et al. (2014)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Analysis of the 4500 Å absorption system (R system) of carbon diselenide</t>
+          <t>Building a sustainable greenhouse gases inventory system in Macedonia</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Abstract The electronic absorption spectrum of carbon diselenide shows four discrete systems; 4800–3950 A ( R system); 4050–3450 A ( V system); 2600–2100 A; and 2100-below 2000 A. In this order, the relative intensities of the first three systems increase rapidly. The weak ( f ∼ 10 −4 ) R system has been analysed in detail, using CSe 2 synthesized from different pure isotopes of selenium. The system results from a parallel transition from the X 1 Σ g + linear ground state to a bent upper state of the molecule. In the R system, extensive progressions in the bending mode ν 2 are strongly active in both states. In the ground state, ν 2 ″( π u ) = 313.4, x 22 = 1.1 cm −1 for the (80, 80) isotopic species; ν 2 ″ = 313.5, x 22 = 1.2 cm −1 for the (78, 78) species. In the excited state, widespread perturbations occur, and only approximate values can be derived for constants. The bond angle is 125 ± 20°; ν 1 ′( a 1 ) is about 460 cm −1 , and ν 2 ′( a 1 ) is in the range 180–215 cm −1 . The unobserved origin band is calculated to be at 21 900 ± 400 cm −1 . The electronic transition is B 2 ← X 1 Σ g + , as in the corresponding R system of CS 2 , which has a very similar spectral structure. Although no Zeeman broadening of rotational lines could be detected in bands of the CSe 2 system, this does not exclude the possibility that the B 2 upper state is a component of a 3 A 2 state, as is believed to be the case for CS 2 .</t>
+          <t>Purpose – The purpose of this paper is to highlight the lessons learned and good practices regarding the greenhouse inventory system in the Republic of Macedonia. Design/methodology/approach – A comparative analysis for the preparation of the three national communications (NCs) to UN Framework Convention on Climate Change (UNFCCC) in Republic of Macedonia. Findings – The findings reveal the shift from a project approach, based on external consultants, towards a more process-oriented approach, where a multi-disciplinary national team has been established to prepare the inventory. Also, notable results include improvements in the technical capacity of the inventory team, communications with data sources and other stakeholders, quality assurance/quality control procedures, documenting and archiving, regional cooperation, as well as, the reliability of data series for greenhouse gas (GHG) emissions. Practical implications – The study may serve well for countries with similar national circumstances and priorities for preparation of greenhouse inventory systems. Originality/value – Developing national database (inventory) of GHGs is an essential first step towards managing better climate change policy planning. A complete and transparent national greenhouse inventory is an essential tool for understanding emissions and trends, projecting future emissions and identifying sectors for cost-effective emission reduction opportunities. It is also a core element of national climate change reports to the UNFCCC (NCs). This case study shows the development of a sustainable system for preparation of GHG inventories and it describes the data collection and analysis procedures within that system.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2080853340</t>
+          <t>https://openalex.org/W4390877207</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/003776866901600103</t>
+          <t>https://doi.org/10.55650/igj.2008.112</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Benoit (1969)</t>
+          <t>Heanue &amp; Jacobson (2014)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Valeurs sociales transmises par I'enseignement secondaire des églises et de l'état en Colombie</t>
+          <t>Embeddedness and innovation in low and medium technology rural enterprises</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>This investigation was carried out among the final-year classes of 12 educational institutions: 3 State schools, 3 Protestant schools and 6 Ca tholic schools. The research is subdivided in three parts. The first part includes a content analysis of the courses of philosophy, religion and one called 'Columbian institutions', as well as an opinion survey dealing with the subject matter of the courses and the way it is taught. The second part sets out to determine which type of ideology attracts the pupils. The analysis was limited to a study of the pupils' attitudes with regard to certain dimensions of democratization and secularization, and their opinions on the social meaning of religion. The third part tries to see how far the family reinforces (or does not reinforce) the communication of the values transmitted by the school environment; with this in mind the head of each family was asked to explain the motives which lead him to choose a particular school, and also to give his opinions on social change. In general, it can be concluded that the values transmitted by education are socially traditional, even if it is possible to detect certain more liberal or democratic tendencies in some institutions. On the other hand, the survey among the pupils shows that even at the level of secondary education, some of them already hold critical opinions with regard to the cultural content which is transmitted to them by the family and the school. These channels of cultural transmission are inevi tably, today, competing with others, as for example the mass media, whose development is increasingly generalizing an ideological pluralism.</t>
+          <t>There has been a resurgence of interest in the relationship between location and the innovativeness of firms. The research question addressed in this paper is the role that location plays in the innovation processes of low and medium technology firms. The literature on innovation and geographic proximity, combined with a reconceptualisation of the Granovetterian concept of embeddedness, provide the theoretical context. Case studies of four Irish low and medium technology firms, two in the furniture industry and two in the metal products industry, provide the empirical setting. Among the issues addressed are whether or not deep, local embeddedness is essential for innovativeness and if there is a pattern of change over time in the nature of the relationship between embeddedness and innovation. The relevance of the research to rural industrial development is also assessed.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2083895970</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0003-3472(69)90109-2</t>
+          <t>https://openalex.org/W583875304</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Madison (1969)</t>
+          <t>Skrobic &amp; Bergström (2014)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Homing behaviour of the red-cheeked salamander, Plethodon jordani</t>
+          <t>Static analysis of soil-steel composite bridges in sloping terrain</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Homing studies were conducted with Plethodon jordani in conjunction with home range investigations in 1964 and 1965 in the mountains of North Carolina. The studies were conducted at night when the salamanders could be captured on the forest litter without disturbing the habitat. Each salamander was measured and marked by toe-clipping; only the adults were sexed. The location of each capture within the study areas was determined and recorded. Non-displacement studies revealed that adult males were usually recaptured within 20 ft (6 m), and females and juveniles within 10 ft (3 m), of their initial points of capture. Displacement studies in 1964 suggested that this species was able to home from various distances up to 500 ft (150m). Animals with prior homing experience returned more frequently from new displacement distances than did salamanders without prior homing experience. In 1965, displacements of 50 and 100 ft (15 and 30 m) showed that changes in elevation or direction accompanying displacement did not affect the animals' homing response. The per cent of the recaptured animals that homed from these displacements varied insignificantly from 60 to 90 per cent. Salamanders displaced 1000 ft (300 m) showed some capacity to home from these distances (9 per cent). The homing ability appeared to increase with the growth and maturation of the salamander, since the adults homed in significantly greater frequencies than did the juveniles. Males seemed better able to home from long distance displacements than did females. In all cases salamanders without their eyes homed in similar percentages to normal displacement animals. Eyeless males of both non-displacement and displacement groups had smaller home ranges than the males of the normal non-displacement and displacement groups. This apparent difference was not observed in the females and juveniles. Experiments concerned with bisecting the olfactory nerves were preliminary and uncontrolled. However, they gave some indication that the sense of smell is necessary in the homing response.</t>
+          <t>Soil-steel composite bridges are for many reasons very favorable bridges to build. Up to a certain span length they are economical, practical to transport and simple and quick to build. Especially in remote places, with unfavorable sloping terrain, this can be of great interest when the transport of material can be difficult and costly.The swedish manual for design of soil steel composite bridges was presented by Lars Pettersson and Hakan Sundquist in the year 2000. It is today used in Sweden and other neighboring countries as the main manual for the design of soil-steel composite bridges. The design manual is however only valid for longitudinal slopes up to 10%, which is low in comparison to natural sloping hillsides.The purpose of this thesis is to study the structural behavior of soil steel composite bridges in sloping terrain, with the use of the finite element software PLAXIS 2D. Two case studies of one low arch culvert bridge and one pipe arch culvert are studied and later modeled in PLAXIS. The two case studies does not have sloping terrain, but are used to assure that the FEM-models behaves correctly during the backfilling process in PLAXIS. The analysis studies the change in sectional forces in the bridges during an increase inslope above the structures. The values from the FEM-models are compared to field measurements from the case studies, as well as to values calculated in accordance to the swedish design manual. This is done to see how well the different approaches compare to each other, and, since the design manual does not consider slopes exceeding 10%, it is interesting to investigate if the SDM-calculated values still appear valid for slopes larger than 10%.In addition to sectional forces, the slope stability of the FEM-models is also evaluated and compared to analytical values calculated using the ordinary method of slices. This slope stability study focuses on if the bridges affect the slope stability safety factor. The thesis also investigates if these bridges are more sensitive to increasing slopes from a slope stability or sectional forces point of view. I.e if the slope inclination magnitude will be determined based on the sectional forces in the structure or the slope stability of the soil surrounding the structure. The criteria that are researched to come to this conclusion are for example the slope stability safety factor, or the possible yielding of the culvert wall due to too large sectional forces in the structure.The results show that for low cover depths, the slope stability safety factor decreases slightly when a structure is introduced to the slope. For larger cover depths, read 3 meters or more, the slope stability seems unaffectedby the structure. The results also shows that the sectional forces in the structures compares well to both measured and calculated values for slope inclinations up to 30% for rather small cover depths, i.e 1 meter. For slopes larger than 30% the sectional forces grows and no longer reflect the measured and calculated values. However, since only two case studies are performed, these conclusions might not be valid for different profile shapes. Additionally there are indications that the low arch bridge is more sensitive to slopes than the pipearch culvert.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087948728</t>
+          <t>https://openalex.org/W3121892959</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-3107(69)90086-0</t>
+          <t>https://doi.org/10.15396/eres2014_140</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mizuta &amp; Fukai (1969)</t>
+          <t>Roux et al. (2014)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Geometrical effects on 238U resonance integral for various systems</t>
+          <t>Application value of a process model for supporting decision-making in property and real estate management</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Abstract Geometrical effects on the resonance integral of 238U are investigated by use of the RICM code, which calculates the resonance integrals in multi-region lattices and other various geometries. The geometries under consideration here are: (1) Various isolated lumps immersed in an infinite sea of moderator; a cylinder, plate, sphere and square cylinder. (2) Isolated systems having fuel or moderator regions within; a single annular, three region annular with a solid cylinder at its center, concentric double annular and tube-in-shell type fuel. (3) Lattices and clusters made up of regular hexagonal and square fuel rod arrangement. The resonance integrals of 221U for the fuel rods of U-metal, UO2 and UC are calculated by the RICM code and are compared with the experimental values of many researchers. Two assumptions in general use, i.e. the flat flux approximation in the fuel region and the 1/E flux assumption in the moderator, are further investigated. Temperature dependence of the resonance integrals are also calculated for the cases of the U-metal and UO2 fuel rods and the results are compared with the experimental ones. An equivalence of various isolated lumps to a cylinder has been established by introducing an effective surface area with a correction factor. By use of the RICM code, the resonance integrals of the annular and tube-in-shell type U02 fuel, lattices and clusters of the U02 rods are calculated. So as to minimize the difference between the above value and the one derived from the fitted formula for the resonance integral of the U02 rod, a value of the correction factor a in the expression of the effective surface area, introduced by LEVINE is determined to be 0·07. In the lattice and cluster calculations, the propriety of the NORDHEIM'S (or Bell's ) approximation for the fuel escape probability in a lattice is investigated and it turns out that his approximation is fairly good, so far as the systems are not quite compact. Finally, the RICM calculations are carried out for the experimental systems of the clusters used by Hellstrand, Pershagen and Amyot et al., and the resultant values are compared with their experimental ones. It is clear from all the comparisons shown here that the calculation is always in fairly good agreement with the experiment. This fact leads to the conclusion that the propriety of both the calculational method used in the RICM code and the adopted values of resonance parameters of 228U has been verified. The resonance parameters used throughout this report come from the recommendation made in BNL-325. New resonance data from ‘Petrel project’ give nearly same resonance integrals as the BNL-325 data.</t>
+          <t>This paper addresses the application value of a methodology that uses an organization-centered Accommodation-Choice Model (AC-Model) for improving the match between user-requirements and organizational objectives with accommodation and/or real estate (Voordt et al., 2011).The study was performed with 150 2nd-year students during the 2012-2013 / 2013-2014 Corporate Real Estate Management (CREM) curriculum of the Academy for International Real Estate and Facility Management (IREFM) at the NHTV University of Applied Sciences in Breda, The Netherlands. Objectives of the study were: (i) introduce student-professionals to the concept of using a process model for supporting evidence-based decision-making in real estate and property management, (ii) create am awareness and in-depth understanding of the relationships between organizational ambitions and conceptual decision-making, and (iii) assess differences in take-up and application between compulsory and recommended use of the process model in problem-based learning. The methodological approach focused on applying the process model to real-life case studies where new workplace concepts have been introduced. In the 2012-2013 academic year the application of the model was a mandatory component of analyzing 6 different case study work environments, while the 2013-2014 academic year theme assignment whereby students were asked to analyze the functional optimization or transformation of existing vacant office buildings, only recommended the use of the model. In executing their assignments, groups were asked to structure the execution and outcomes of their assignments according to the process model steps.The main outcomes of the study indicate (i) the applicability of the AC-Model as a central structuring element in identifying and documenting organizational ambitions / intentions and the related conceptual choices in workplace change, (ii) the benefits of interactive learning through active application of the process model, and (iii) the added value thereof in creating and increased level of awareness and professionalism amongst students in terms of evidence-based decision-making on organizational accommodation. This research brings originality to the topic of CREM-education through the application of a decision-making support model as value-adding methodology in supporting conceptual decision-making on issues related to real estate and accommodation based on organizational goals and ambitions.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2092971371</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2118/69-03-01</t>
+          <t>https://openalex.org/W2923014183</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Douglas et al. (1969)</t>
+          <t>Batjes (2014)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The Application of Variational Methods to Waterflooding Problems</t>
+          <t>SOTER-based soil parameter estimates (SORWIS) for Brazil (version 1.0)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ABSTRACT A numerical method based on the calculus of variations is proposed for thesolution of displacement problems. The mathematical development is given inconsiderable detail and two numerical examples are presented. Displacementsleading to smooth saturation profiles are approximated with very high accuracy.Displacements leading to very steep saturation profiles are approximated withconsider ably greater accuracy by the Galerkin method of this paper than byfinite differences for the same amount of calculation. The sharp front islocated with a small error. INTRODUCTION DISPLACEMENT OF ONE FLUID BY ANOTHER from the pores of rock has been studiedextensively. The most widely used approach for obtaining predictionsengineering purposes has been the use of finite for difference procedures. Insome cases, this approach has been most satisfactory. However, displacementproblems are characterized by the movement through the reservoir of a "front,"a zone of rapid change in saturation, and adequate prediction of frontalprofiles by finite difference methods usually requires an un economicrefinement of the grid. The problem and alternative approaches are discussed in [8, 12, 14].Reference [8] recognizes the almost hyperbolic nature of the problem, andproposes a hyperbolic method, namely the method of characteristics, formiscible displacement. In its implementation, a number of moving points aredefined to treat convection (i.e., transport by flow), and dispersion istreated by approximating the small amount of transport due to mixing by afinite difference technique applied to a fixed grid through which the pointsmove. In [14], the idea is generalized to the immiscible case, and it waspointed out there that the point density (i.e. the number of points per cell ofthe grid must be increased as the grid is refined.) This increase must be madein exactly the same way that the precision of the computations (i.e., wordlength of the machine) must be increased as the grid is refined, because thetruncation error dependence upon point density enters in much the same way asthe rounding error dependence on the precision of computation. In [12], an experimental study of convergence rate (i.e., the rate at whichthe computed solution approaches the exact solution of the problem as the gridis refined) using a constant point density indeed verified the expected lack ofconvergence, while revealing that with a fixed density the errors remain smallbut bounded. In [12], there was also discussed an alternative approach based onvariational methods for which the experimental convergence studies on "hard"problems, (i.e., ones with sharp fronts) are most encouraging. This workexamined the Galerkin formulation for one-dimensional miscible displacement andconcluded that it offered far superior accuracy for the computing work involvedwhen compared with finite difference techniques. This same conclusion may bevalid for the comparison with the method of characteristics. as the pointdensity must theoretically be increased linearly with the number of gridintervals. This, however, remains an open question. The purpose of this paper is to study experimentally the value of Galerkinprocedures applied to a significantly more difficult displacement problem, namely waterflooding in which a substantial Buckley-Leverett "shock" develops.In the physical problem in which capillarity plays a role, such shocks are notdiscontinuities, but degenerate into regions of very steep</t>
+          <t>This dataset presents harmonized soil parameter estimates for Brazil. The 1:5M scale Soil and Terrain Database for Latin America and the Caribbean (FAO et al. 1998), provided the basis for the current study. The data set has been prepared for the project on A (2) filling gaps using expert knowledge and common sense; (3) filling the remaining gaps using a scheme of taxotransfer rules. Parameter estimates are presented by soil unit for fixed depth intervals of 0.2 m to 1 m depth for: organic carbon, total nitrogen, pH(H2O), CECsoil, CECclay, base saturation, effective CEC, aluminum saturation, CaCO3 content, gypsum content, exchangeable sodium percentage (ESP), electrical conductivity of saturated paste (ECe), bulk density, content of sand, silt and clay, content of coarse fragments (&gt; 2mm), and available water capacity (-33 to -1500 kPa). These attributes have been identified as being useful for agro-ecological zoning, land evaluation, crop growth simulation, modelling of soil carbon stocks and change, and analyses of global environmental change. The current parameter estimates should be seen as best estimates based on the current selection of soil profiles and data clustering procedure. Taxotransfer rules have been flagged to provide an indication of the possible confidence in the derived data. Results are presented as summary files and can be linked to the 1:5 M scale SOTER map in a GIS, through the unique SOTER-unit code. The subset for the Amazon region, the Brazilian GEF-SOC case study area, has been clipped out of the national set using GIS. It includes 193 unique SOTER units, corresponding with 571 mapped polygons. The secondary data set is considered appropriate for studies at the national scale and regional scale (&lt;1:5M). Correlation of soil analytical data, however, should be done more rigorously when more detailed scientific work is considered.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2100305910</t>
+          <t>https://openalex.org/W4211234785</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/jappl.1969.27.4.531</t>
+          <t>https://doi.org/10.1002/9783433603840.refs</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Hoffer et al. (1969)</t>
+          <t>Rudolf‐Miklau et al. (2014)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Correlation of whole-body impedance with total body water volume.</t>
+          <t>Literature</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">ArticleCorrelation of whole-body impedance with total body water volume.E C Hoffer, C K Meador, and D C SimpsonE C Hoffer, C K Meador, and D C SimpsonPublished Online:01 Oct 1969https://doi.org/10.1152/jappl.1969.27.4.531MoreSectionsPDF (912 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByFrom Bioimpedance to Volume Estimation: A Model for Edema Calculus in Human Legs14 March 2023 | Electronics, Vol. 12, No. 6Bioimpedance basics and phase angle fundamentals7 February 2023 | Reviews in Endocrine and Metabolic Disorders, Vol. 30Application of bioelectrical impedance in newborns: an integrative reviewNutrición HospitalariaPhase angle obtained via bioelectrical impedance analysis and objectively measured physical activity or exercise habits14 October 2022 | Scientific Reports, Vol. 12, No. 1Studies on human body composition in Russia: past and present3 May 2022 | Journal of Physiological Anthropology, Vol. 41, No. 1High precision but systematic offset in a standing bioelectrical impedance analysis (BIA) compared with dual-energy X-ray absorptiometry (DXA)1 November 2022 | BMJ Nutrition, Prevention &amp; Health, Vol. 5, No. 2A comparative analysis of body composition assessment by BIA and DXA in children with type II and III spinal muscular atrophy18 November 2022 | Frontiers in Neurology, Vol. 13Non-Invasive Sensor-Based Multi-Output Networks for Predicting Multiple Blood Components LevelsJournal of the Korean Institute of Industrial Engineers, Vol. 48, No. 5Classification and Feature Extraction Using Supervised and Unsupervised Machine Learning Approach for Broiler Woody Breast Myopathy Detection20 October 2022 | Foods, Vol. 11, No. 20Body composition and phase angle by bioimpedance in patients with MAFLDGastroenterología y Hepatología (English Edition), Vol. 45, No. 7Análisis de la composición corporal y ángulo de fase por bioimpedancia en pacientes con MAFLDGastroenterología y Hepatología, Vol. 45, No. 7Wearable ring bioelectrical impedance analyzer for estimation and monitoring of body fatSmart Health, Vol. 24The clinical application value of the extracellular-water-to-total-body-water ratio obtained by bioelectrical impedance analysis in people with advanced cancerNutrition, Vol. 96Serum Impedance in Children with Recurrent Respiratory Infections8 February 2022Muscle Health1 January 2022Nine Electrodes Human Body Composition Model Based on SVM(SVM-BCM9)4 January 2022Analyzing Intake of Water by a Human Using Meteorological Conditions23 April 2022Noninvasive health monitoring using bioelectrical impedance analysisBioimpedance analysis of body composition: what should general practitioner know?Profilakticheskaya meditsina, Vol. 25, No. 10Methods for assessing the electrophysical properties of body tissues and the possibility of their application in forensic medical practiceSudebno-meditsinskaya ekspertiza, Vol. 65, No. 6Wrist-wearable bioelectrical impedance analyzer with miniature electrodes for daily obesity management13 January 2021 | Scientific Reports, Vol. 11, No. 1Comparison of intravenous sedation using midazolam during dental treatment in elderly patients with/without dementia: a prospective, controlled clinical trial11 February 2021 | Scientific Reports, Vol. 11, No. 1Modeling Edema Evolution With Electrical Bioimpedance: Application to Heart Failure PatientsA geometrical method for modeling bioelectrical impedance measurements and remove the hook effect deviationsMicro‐electrodes for in situ temperature and bio‐impedance measurement4 May 2021 | Nano Select, Vol. 2, No. 10In Search of Clinical Impact: Advanced Monitoring Technologies in Daily Heart Failure Care13 October 2021 | Journal of Clinical Medicine, Vol. 10, No. 20Acceptability of Artificial Intelligence in Poultry Processing and Classification Efficiencies of Different Classification Models in the Categorisation of Breast Fillet Myopathies22 September 2021 | Frontiers in Physiology, Vol. 12Association of bioelectrical phase angle with aerobic capacity, complex gait ability and total fitness score in older adultsExperimental Gerontology, Vol. 150Assessment of Body Composition in Athletes: A Narrative Review of Available Methods with Special Reference to Quantitative and Qualitative Bioimpedance Analysis12 May 2021 | Nutrients, Vol. 13, No. 5Physiological interactions with personal-protective clothing, physically demanding work and global warming: An Asia-Pacific perspectiveJournal of Thermal Biology, Vol. 97Bioimpedance analysis as a tool for hemodynamic monitoring: overview, methods and challenges6 April 2021 | Physiological Measurement, Vol. 42, No. 3Investigation of Changes in Quality Indicators of Agro-Industry Products DuringIOP Conference Series: Earth and Environmental Science, Vol. 666, No. 2A Plethysmography Capacitive Sensor for Real-Time Monitoring of Volume Changes in Acute </t>
+          <t>Free Access Literature Book Editor(s):Florian Rudolf-Miklau, Florian Rudolf-Miklau Austrian Federal Ministry of Agriculture, Forestry, Environment and Water Management, Austrian Service for Torrent and Avalanche Control, Marxergasse 2, 1030 Wien, AustriaSearch for more papers by this authorSiegfried Sauermoser, Siegfried Sauermoser Austrian Service for Torren and Avalanche Control, Section Tyro, Wilhelm-Greil-Str. 9, 6020 Innsbruck, AustriaSearch for more papers by this authorArthur I. Mears, Arthur I. Mears Arthur I. Mears, P.E., Inc., 555 County Road 16, Gunnison, CO 81230, U.S.A.Search for more papers by this author First published: 05 December 2014 https://doi.org/10.1002/9783433603840.refs AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat Bibliography Agerer, H. and Rudolf-Miklau, F. (2007) Lebenszyklus-basiertes Management von Wildbach- und lawinenverbauung: Strategische und praktische Dimension. Journal for Torrent, Avalanche and Erosion Control, 155, 30– 42 (in German). AUVA/General Accident Insurance Institution (2004) Arbeiten im Freien: Risiken und Schutzmaßnahmen, Vienna (in German). AUVA/General Accident Insurance Institution (2005) Handzeichen für Einweiser – Sicherheit kompakt (M 203), Vienna (in German). AUVA/General Accident Insurance Institution (2007) Höhenarbeiten am Seil und Arbeitsplatzpositionierung – Leitlinien, Vienna (in German). Ammann, W.J., Buser, O. and Vollenwyder, U. (1997) Lawinen, Birkhäuser, Basel Boston Berlin (in German). Ammann, W.J. (1999) A new Swiss test-site for avalanche experiments in the Vallée de la Sionne/Valais. Cold Regions Science and Technology, 30 (1–3), 2– 11. Amt der Tiroler Landesregierung/Office of the Tyrolean Government (1996) Lawinenhandbuch, Tyrolia, Innsbruck (in German). Armstrong, B.R. and Williams, K. (1992) The Avalanche Book, Fulcrum Publishing, Golden/Colorado. Arnalds, P., Jónasson, K. and Sigurðsson, S. (2004) Avalanche hazard zoning in Iceland based on individual risk. Annals of Glaciologie, 38, Davos: 285– 290. ASTRA/Federal Roads Office (2007) Einwirkungen infolge Lawinen auf Schutzgalerien, Bern (in German). Aulitzky, H., Fiebiger, G., Kastner, F., Kemmerling, W. and Kaupa, H. (1977) Wirtschaftlichkeitsuntersuchungen in der Wasserwirtschaft, Teil 1, Federal Ministry for Finances, Vienna (in German). Aulitzky, H. (1992) Die Sprache der “Stummen Zeugen”. Proceedings of the International Symposium INTERPRAEVENT Vol. 6, Bern, 139– 174 (in German). Bader, H., Haefeli, R., Bucher, E., Neher, J., Eckel, O., Thams, C. and Niggli, P. (1939) Der Schnee und seine Metamorphose. Beiträge zur Geologie der Schweiz. Geotechnische Serie: Hydrologie, Lieferung 3 (in German). Baillifard, M. (2007) Interaction between snow avalanches and catching dams. Federal Technical University of Zurich, Phd.-thesis 17301. Baillifard, M., Kern, M. and Margreth, S. (2007) Anleitung zur Dimensionierung von Lawinenauffangdämmen. WSL Institute for Snow and Avalanche Research SLF, Davos (in German). Bartelt, P. and Stöckli, V. (2001) The influence of tree and branch fracture, overturning and debris entrainment on snow avalanche flow. Annals of Glaciology, 32, 209– 216. Bartelt, P. and Buser, O. (2009) Production and decay of random kinetic energy in granular snow avalanches. Journal of Glaciology, 55, 3– 12. Bebi, P., Kienast, F. and Schönenberger, W. (2001) Assessing structures in mountain forests as a basis for investigating the forests dynamics and protective function. Forest Ecology and Management, 145, 3– 14. Bebi, P., Kulakowski, D. and Rixen, C. (2009) Snow avalanche disturbances in forest ecosystems – state of research and implications for management. Forest Ecology and Management, 257, 1883– 1892. Bergmeister, K., Suda, J., Hübl, J. and Rudolf-Miklau, F. (2009) Schutzbauwerke gegen Wildbachgefahren: Grundlagen, Entwurf und Bemessung, Beispiele, Ernst &amp; Sohn, Berlin (in German). Bommer, C., Phillips, M., Keusen, H.-R. and Teysseire, P. (2009) Bauen im Permafrost – Ein Leitfaden für die Praxis. WSL Institute for Snow and Avalanche Research SLF, Davos (in German). Borter, P. (1999) Risikoanalyse bei gravitativen Naturgefahren, Swiss Agency for the Environment, Forests and Landscape (SAEFL), Bern, Publication 107/I+ II (in German). Brang, P., Schönenberger, W., Frehner, M., Schwitter, R. and Thormann, J.J. (2006) Management of protection forests in the European Alps: an overview. Forest Snow and Landscape Research, 80, 23– 44. Brücker, W.J. (1981) Vegetationsuntersuchungen in Lawinenablagerungsgebieten des Kantons Uri. Berichte der Naturforschenden Gesellschaft Uri, 9, 1– 254 (in German). Bründl, M., Schneebel, M. and Flühler, H. (1999) Routing of canopy drip in the snowpack below a spruce crown. Hydrological Processes, 13, 49– 58. Bründl, M., Romang, H., Holthausen, N., Merz, H. and Bischof, N. (2009) Risikokonzept für Naturgefahren – Leitfaden, Teil A: Allgemeine Darste</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2135143493</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/0305006690050305</t>
+          <t>https://openalex.org/W3125309124</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Adams &amp; Farrell (1969)</t>
+          <t>Vaia &amp; Moretti (2014)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Societal Differentiation and Educational Differentiation</t>
+          <t>Reframing outsourcing through social networks: evidence from Infocert's case study</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Comparative education is frequently concerned with the dynamics of educational change and with educational change in the context of social change. One concept widely recognized by social scientists in the study of change but relatively untapped in educational studies is differentiation. In this paper explorations will be made into the nature of societal differentiation and into the meaning and measurement of educational differentiation. A tentative evaluation will also be offered of the utility of differentiation as an analytic tool for scholars in comparative education.(1)</t>
+          <t>In an over-connected world where ICTs dominate firms' development and evolution, outsourcing is an increasingly adopted practice by IT firms facing a third-generation of inter-firm interactions: after the IT and business processes' outsourcing, and then the offshore outsourcing, now we face a sourcing ecosystem tagged as human cloud, where the online work and virtual workers are the center of the new system. Notwithstanding some relevant contributions to the literature about IT outsourcing, still few is known about how coordination between client and supplier can achieve superior outcomes through the development of collaborative practices. In particular, the use of IT tools devoted to sociality as a coordination mechanism has been under-investigated. This research provides insights about how a company can change attitudes and behaviors of client and supplier thanks to an IT tool deputed to collaboration: the social collaboration system. Through an explorative case study, our paper provides two main contributions to the literature about IT outsourcing: i) we show how the adoption of a social collaboration system improves ITO governance and performance, providing further empirical evidence on the role of social mechanisms in ITO relationships; ii) we show how the introduction of a social collaboration system in outsourcing management can influence and change the building blocks of its life-cycle.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2145771732</t>
+          <t>https://openalex.org/W2746686330</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/2202-pa</t>
+          <t>https://doi.org/10.1080/19420676.2017.1364286</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Earlougher (1969)</t>
+          <t>Ziegler (2017)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Some Practical Considerations in the Design of Steam Injection Wells</t>
+          <t>Citizen Innovation as Niche Restoration – A Type of Social Innovation and Its Relevance for Political Participation and Sustainability</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>In planning the completion and injection program for a steam injection well, it is important to consider the effects of fluid dynamics and heat loss on the wellbore and on the steam so that steam with the desired properties will reach the formation and so that wellbore equipment will properties will reach the formation and so that wellbore equipment will not be damaged. Introduction Normally, completion of a steam injection well must be designed so saturated steam can be injected into an oil reservoir at the desired rate, pressure (or temperature, since one determines the other) and heat content It is also necessary to prevent thermal damage to wellbore equipment during the steam injection process. To achieve this, both heat loss and pressure process. To achieve this, both heat loss and pressure change effects must be considered. Pressure change in the injection string includes frictional pressure drop, pressure increase due to the weight of the steam column (static pressure change), and pressure change due to change in fluid velocity (kinetic energy change). Heat is lost to the surrounding wellbore equipment and to the earth due to the high temperature of the steam. Generally it is desirable to design the completion so that the cost of heat lost is minimized and so the casing temperature is kept low enough to prevent casing damage. Willhite and Dietrich as well as Leutwyler and Bigelow have discussed the effects of high temperature on casing. For laterally supported casing, Willhite and Dietrich propose that the completion be designed so the thermal compressive stress will be less than the yield point of the casing. To calculate casing temperature and casing stress it is necessary to calculate the heat lost by the injected steam. Satter has presented a depth-step method for calculating heat loss and steam quality for saturated steam as a function of depth. Since Satter assumed no pressure change with depth, he assumed, in effect, that the temperature of the injected saturated steam remains constant, and that only the quality varies with depth. Holst and Flock improved the accuracy of the heat loss calculation by including the effects of frictional pressure drop in the injection string. However, they neglected static pressure change. In this paper steam and casing conditions are presented as functions of depth for several steam presented as functions of depth for several steam injection and well completion situations. This information, which has been obtained from heat loss calculations, is used to indicate the types and magnitude of various problems that should be considered in designing problems that should be considered in designing completions for steam (or any hot fluid) injection wells. The technique used for calculating heat loss and down-hole conditions is described briefly in the Appendix. Conditions During Steam Injection Heat loss calculations have been used to investigate the effects of well completion on steam injection well behavior. Figs. 1 through 4 show down-hole conditions for five different completion schemes. These figures apply after one week of injection of 500 psia, 467F, 80 percent quality steam (surface conditions) at 6,000 lb/hr. Table 1 gives the physical characteristics of the injection well. Table 2 gives completion details for the five cases shown in Figs. 1 through 4. For convenience in showing calculated results for the completion conditions involved, the low injection rate is used. JPT P. 79</t>
+          <t>There have been many creative responses to modern economic, political and technological developments and their (un)intended social and ecological consequences. These responses provide the soil for the type of social innovation identified in this article: citizen innovation as niche restoration. It is about civic action that creates novelty by seeking to restore the places and practices citizens already value. Drawing from an in-depth case study on decentralized water management, the concept of citizen innovation as niche restoration is explored, and its implications for political participation and sustainability discussed.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2164290695</t>
+          <t>https://openalex.org/W2560795218</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/bf02635721</t>
+          <t>https://doi.org/10.1016/j.rser.2016.11.254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mehrotra &amp; Varma (1969)</t>
+          <t>Jomehzadeh et al. (2017)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Studies on surface tension of the system: Barium soap‐water and propanol‐1</t>
+          <t>A review on windcatcher for passive cooling and natural ventilation in buildings, Part 1: Indoor air quality and thermal comfort assessment</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Abstract The surface tension results of the barium soap solutions in water‐propanol‐1 mixtures have been explained on the basis of Szyszkowski's empirical equation: γ = γ o (1 + X ln Y) ‐ X γ o ln C. The values of the constants X and Y of the equation have been calculated for various soap systems. The constant X is found to be almost independent of the composition of the solvent mixture but it depends to some extent on the chain length of the soap. The values of Y show a marked increase at 50% propanol‐1 concentration which confirms that the transition in the nature of the micelles takes place at about 50% propanol‐1 concentration. The values of X and Y are suggestive of the size and nature of the micelles, respectively.</t>
+          <t>The most prominent challenge in 21th century is global warming which seriously threats the mankind. Building sector with 40% of global energy consumption and GHG emission play a key role in this threat. In this regard, the impact of cooling systems cannot be ignored where along with ventilation and heating systems totally account for 60% of energy consumed in buildings. Passive cooling systems can be a promising alternative to reduce energy consumption. One of the oldest passive cooling system that is still being used today is windcatcher. By manipulating pressure differences and the buoyancy effect, an adequate level of ventilation in buildings can be provided by windcatchers. Since most of the previous windcatcher studies assessed the design characteristics, the current investigation focused on the indoor air quality (IAQ) and thermal comfort aspects. The review details and compares the different theoretical and experimental methods employed by researchers in different case studies to assess the IAQ and thermal comfort. It was found that most IAQ studies were conducted in the UK using CFD and experimental techniques. Previous studies assessed IAQ based on several parameters such as air flow rate, air change rate, CO2 concentration, air change effectiveness and mean age of air. The findings of the studies revealed that satisfactory IAQ were generally achieved using the windcatcher. On the other hand, thermal comfort studies of windcatchers were mainly conducted in hot climates such as in the Middle East. In addition to night ventilation, the review also looked into the different types of cooling methods incorporated with windcatchers such as evaporative cooling, earth to air heat exchangers (EAHE) and heat transfer devices (HTD). Night ventilation was found to be effective in temperate and cold conditions while additional cooling using evaporative cooling, EAHE and HTD were found to be necessary in hot climates.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2170109314</t>
+          <t>https://openalex.org/W2731125869</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1121/1.1971284</t>
+          <t>https://doi.org/10.1162/glep_e_00412</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Marshall et al. (1969)</t>
+          <t>Biedenkopf et al. (2017)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Evaluation of Acoustical Adjusting Devices Using a 1-to-24 Scale Model of an Auditorium</t>
+          <t>A Global Turn to Greenhouse Gas Emissions Trading? Experiments, Actors, and Diffusion</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>It has been recognized for many years that varying types of performance activities in multipurpose auditoriums require substantial adjustment in the acoustics environment if optimum hearing conditions are desired. This paper discusses use of a 1-to-24 scale model of an auditorium to help evaluate the acoustical effectiveness of motor-operated adjustment devices. The tests used an impulse-noise source at various locations on stage and a microphone positioned in various seat locations. The decay fields established by various combinations of source/receiver positions were displayed on an oscilloscope, and photographed. The photos were compared to study the changes in the decay field resulting from adjustments of the model reflecting and absorbing surfaces. The results of this testing program are described.</t>
+          <t>The policy instrument of greenhouse gas (GHG) emissions trading has gained prominence since the early 2000s. At the end of 2016, twenty-one distinct GHG emissions trading systems (ETSs) covering thirty-five countries were operating worldwide (ICAP 2017). China has announced the launch of a national ETS for the second half of 2017, which is expected to become the world’s largest carbon market. A number of other countries and subnational jurisdictions, including Thailand, Mexico, and Oregon, are considering the adoption of a GHG ETS. Hence, it is increasingly important to improve our knowledge about the forces that shape the initiation, design, and functioning of such systems, whether internal or external to the jurisdictions. This includes the interactions among individual systems and the precise ways in which ETS policy diffuses. With the increasing spread of GHG ETSs around the world over the past decade, sufficient empirical cases and variation are now available to provide a good knowledge base, and these warrant a thorough analysis.This special issue of Global Environmental Politics contributes to our knowledge and understanding of the expanding turn to GHG emissions trading. In particular, we aim to investigate the role and detailed unfolding of diffusion processes in the emergence of various GHG ETSs globally, with a particular focus on the interaction between external influences and domestic dynamics within jurisdictions that newly design and adopt a GHG ETS. Since all GHG ETSs that have emerged so far have their own particular design, the global turn to emissions trading seems more complex than a simple policy diffusion account can explain. Domestic factors seem to be of great importance for understanding the growing adoption of ETSs in widely different jurisdictions.Establishing a market is accompanied by uncertainty, and its functioning cannot be fully predicted. To deal with the uncertainty associated with such complex policy instruments as emissions trading, the initial phase of these schemes is frequently characterized by experimentation and learning through “pilot schemes” and “test phases.” An ETS may need to be adjusted in response to new experiences and unanticipated events, such as an economic downturn or a low degree of trading activity. For this reason, one way to analyze ETSs is to conceive of them as experiments that produce information about successes and failures. Indeed, we have witnessed a remarkable level of testing and experimentation with GHG ETSs over recent years. One example of explicit experimentation is the seven pilot schemes that China launched in 2010. Another is the European Union’s first trading period (2005–2007). These domestic experiments generated lessons tailored to a specific jurisdiction, since individual systems are developed in a particular context, which we could label islands of experimentation.Conversely, policy-makers may also turn to the experiences of other jurisdictions, which suggests diffusion and interdependent policy-making. Indeed, previous and emerging research points to the importance of diffusion dynamics in developing specific ETSs (Biedenkopf 2012; Müller and Slominski 2016; Wettestad and Gulbrandsen 2017). From a global perspective, this raises the question of how experiments and experiences in different jurisdictions may inform and interact with each other, potentially contributing to the creation of a future international carbon market through a bottom-up process. This connects to the rich discussion in political science on policy diffusion (for an overview, see Gilardi 2012). Underdal, Victor, and Wettestad (2015) distinguish the main mechanisms that underpin diffusion processes: competition (ratcheting up or lowering standards in response to economic interdependencies), learning (from the perceived policy successes and failures of others), and emulation (decisions based on norms and the logic of appropriateness).Creating a market for GHG emission allowances requires a number of measures that are likely to be shaped by the features of the economy and the political preferences of the jurisdiction in which they are applied. For this reason, a carbon market is not a policy instrument that can be transferred easily and unchanged from one jurisdiction to another (Knox-Hayes 2016). Political controversies remain about the ways in which carbon markets should be organized, the role that they should play, and the objectives that they should achieve.The bottom-up proliferation of GHG ETSs has led to a fragmented global system. Currently, these different systems are not operationally linked, apart from a few exceptions such as the EU-Norway and California-Quebec links. There are other types of linkages, however, most notably in the form of sharing experiences and lessons, and capacity building. For example, the EU, Norway, and California all support China in various aspects of its subnational ETS pilot projects and in its development of a national sys</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2186262554</t>
+          <t>https://openalex.org/W2762486262</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1098/rstb.2017.0211</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Tarnowska (1969)</t>
+          <t>Schwartz et al. (2017)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Nowe podczwartorzędowe wychodnie lamprofirów w Górach Świętokrzyskich</t>
+          <t>Wild clocks: preface and glossary</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NEW SUB-QUATERNARY OUTCROPS OF LAMPROPHYRES IN THE ŚWIĘTOKRZYSKIE MTS. Summary In the light of the geological structure, the paper presents the position of the lamprophyres found to occur in the marginal zone, between the Klimontow anticlinorium and Łagow synclinorium (Fig. 2), gives a description of new lamprophyre outcrops, and illustrates the physic microscopic and microscopis features of weathered lamprophyres. Sub-Quaternary lamprophyre outcrops have been ascertained during the earth workings in the Wszachow - Iwaniska block, at a depth of 0.7-4.2 m. They occur in the Cambrian formations, at the Cambrian - Emsian boundary zone, and in the Emsian formations. Moreover, they have been encountered by 6 shallow bore holes, as well. Lamprophyres have also been investigated in an uplifted block near Kabza. The lamprophyres here considered occur in several elongated disjunction zones of a WNW-ESE direction, characterized by varying nature and various genesis. Lamprophyre dikes have been found to appear also in the shearing-off discontinuities, within the marginal part of the Cambrian formations in the Klimontow anticlinorium (bore holes: Wszachow 1, Iwaniska 1, Iwaniska 3; ditches: in the southern part of Zielonka, and near Wzory - Fig. 3). Magnetic anomalies that reflect the presence of these lamprophyres disappear beneath the Devonian cover (Fig. 2). The next zone is remote about 100-400 metres northwards, and the lamprophyres use tectonic contact of Cambrian and Emsian, as well as fractures within the rigid rocks of Emsian age in the Łagow synclinorium (bore holes: Wszachow 2, Iwaniska 2, test pits: Zielonka – Fig. 4 – Poreba Gorna and Poreba Zaldowska). The northernmost zone is represented by a lamprophyre series pierced by bore hole Stobiec-1a, at a thrown dislocation, in the Middle Devonian dolomites. Near Stobiec, the total width of the three zones of lamprophyres amounts, approximately, to 1.2 km. The lamprophyre dikes of the southern zone reveal an abrupt (75-90°) dip southwards, and those of the northern zone - a northern dip. The dip at the lamprophyre near Stobiec is unknown. The mineralogic-structural nature of the dikes points to a multiple formation process of the lamprophyres. Most probably, the lamprophyre material intruded or was active twofold, at least, during the recurring periods of favourable orogenic-tectonic conditions. Part of the lamprophyres represents a generation of older lamprophyres (probably of pre-Devonian age), part, in turn, younger ones, post-Devonian, in age. The lamprophyres appear as dikes, interbedded veins, and various intermediate forms between dike and sill. For the most part the lamprophyres occur in the form of fine, single or composite, dikes (1-4 m) attached to the longitudinal disjunction zones. The thickness of the lamprophyre forms ranges from 0.01 to 17.0 m. Three stages of lamprophyre weathering process have been distinguished to appear in the hypergene zone: initial, intermedite and final. Depending upon the weathering stage, both physical and geophysical features of lamprophyres change their mineral composition and vary considerably. In the more advanced weathering stages the lamprophyres take rusty colour (due to limonitization process), or became decoloured, the colour changing into creamy-white (due to kaolinitization process). Moreover, in this case they are light, porous, their magnetic properties decrease or disappear completely (Table 1). These changes are due to the varying mineral composition in the hypergene zone. In the weathered lamprophyres are found, beside primary minerals preserved as relics (biotite, feldspars, magnetite, apatite), also their alteration products, as well as supergene minerals such as hydrobiotite, vermiculite, chlorites, calcite, quartz, chalcedony, kaolin, and Fe hydroxides (Tables I-II). In the final weathering stage, the rock is built up mainly of supergene minerals among which kaolin predominates (Figs. 6; tabl. II, Figs. 15-17). The lamprophyres here considered are easily accessible in the areas, where longitudinal disjunctive zones of lamprophyres cross with the axes of transversal elevations, i.e. where considerable groups or swarms of dikes have been produced. In such areas, the lamprophyre outcrops are found to occur immediately under a thin Quaternary cover, the magnetic anomalies being characterized by considerable amplitudes. It is therefore suggested to begin prospections for new lamprophyres in the future in such sites of course. Normal 0 21 false false false PL X-NONE X-NONE /* Style Definitions */_x000D_
- table.MsoNormalTable_x000D_
-	{mso-style-name:Standardowy;_x000D_
-	mso-tstyle-rowband-size:0;_x000D_
-	mso-tstyle-colband-size:0;_x000D_
-	mso-style-noshow:yes;_x000D_
-	mso-style-priority:99;_x000D_
-	mso-style-qformat:yes;_x000D_
-	mso-style-parent:;_x000D_
-	mso-padding-alt:0cm 5.4pt 0cm 5.4pt;_x000D_
-	mso-para-margin:0cm;_x000D_
-	mso-para-margin-bottom:.0001pt;_x000D_
-	mso-pagination:widow-orphan;_x000D_
-	font-size:11.0pt;_x000D_
-	font-family:Calibri,sans-serif;_x000D_
-	mso-ascii-font-family:Calib</t>
+          <t>You have accessMoreSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InRedditEmail Cite this article Schwartz William J., Helm Barbara and Gerkema Menno P. 2017Wild clocks: preface and glossaryPhil. Trans. R. Soc. B3722017021120170211http://doi.org/10.1098/rstb.2017.0211SectionYou have accessPrefaceWild clocks: preface and glossary William J. Schwartz William J. Schwartz http://orcid.org/0000-0002-7952-9729 Department of Neurology, University of Massachusetts Medical School, Worcester, MA 01655, USA Google Scholar Find this author on PubMed Search for more papers by this author , Barbara Helm Barbara Helm http://orcid.org/0000-0002-6648-1463 Institute of Biodiversity, Animal Health and Comparative Medicine, University of Glasgow, Graham Kerr Building, Glasgow G128QQ, UK Google Scholar Find this author on PubMed Search for more papers by this author and Menno P. Gerkema Menno P. Gerkema http://orcid.org/0000-0002-0170-2974 Chronobiology, Groningen Institute for Evolutionary Life Sciences (GELIFES), University of Groningen, Groningen, The Netherlands Google Scholar Find this author on PubMed Search for more papers by this author William J. Schwartz William J. Schwartz http://orcid.org/0000-0002-7952-9729 Department of Neurology, University of Massachusetts Medical School, Worcester, MA 01655, USA Google Scholar Find this author on PubMed , Barbara Helm Barbara Helm http://orcid.org/0000-0002-6648-1463 Institute of Biodiversity, Animal Health and Comparative Medicine, University of Glasgow, Graham Kerr Building, Glasgow G128QQ, UK Google Scholar Find this author on PubMed and Menno P. Gerkema Menno P. Gerkema http://orcid.org/0000-0002-0170-2974 Chronobiology, Groningen Institute for Evolutionary Life Sciences (GELIFES), University of Groningen, Groningen, The Netherlands Google Scholar Find this author on PubMed Published:09 October 2017https://doi.org/10.1098/rstb.2017.0211The critical significance of biological timing and timekeeping is well appreciated by both chronobiologists and ecologists, and historically the two fields were linked early on (e.g. [1–3